--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="785">
   <si>
     <t>Country</t>
   </si>
@@ -938,18 +938,12 @@
     <t>2, Montréal - Toronto, 800km</t>
   </si>
   <si>
-    <t>1, Lviv - Kiev, 500km</t>
-  </si>
-  <si>
     <t>2, Seoul - Busan, 350km</t>
   </si>
   <si>
     <t>2, Istanbul - Ankara, 400km</t>
   </si>
   <si>
-    <t>2, São Paula - Rio de Janeiro, 400km</t>
-  </si>
-  <si>
     <t>2, Sidney - Melbourne, 900km</t>
   </si>
   <si>
@@ -1073,9 +1067,6 @@
     <t>4500₴</t>
   </si>
   <si>
-    <t>500K₩</t>
-  </si>
-  <si>
     <t>1800₺</t>
   </si>
   <si>
@@ -2373,6 +2364,21 @@
   </si>
   <si>
     <t>~ Alga</t>
+  </si>
+  <si>
+    <t>240k</t>
+  </si>
+  <si>
+    <t>500k₩</t>
+  </si>
+  <si>
+    <t>18.3 replace ”A contribution to a global climate fund to finance clean energy in low-income countries” by ”Assistance from high-income countries to finance clean energy in [country]”</t>
+  </si>
+  <si>
+    <t>2, São Paulo - Rio de Janeiro, 400km</t>
+  </si>
+  <si>
+    <t>1, Lviv - Kyiv, 500km</t>
   </si>
 </sst>
 </file>
@@ -2805,10 +2811,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA162"/>
+  <dimension ref="A1:AA163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144:K144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2993,7 +3000,7 @@
         <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>29</v>
@@ -3160,6 +3167,9 @@
       <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="R6" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="S6" s="1" t="s">
         <v>28</v>
       </c>
@@ -3195,6 +3205,9 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -4644,7 +4657,7 @@
         <v>241</v>
       </c>
       <c r="P28" t="s">
-        <v>242</v>
+        <v>780</v>
       </c>
       <c r="Q28" t="s">
         <v>242</v>
@@ -5214,3748 +5227,3747 @@
         <v>303</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="R43" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C44" t="s">
+        <v>311</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E44" t="s">
+        <v>311</v>
+      </c>
+      <c r="F44" t="s">
+        <v>311</v>
+      </c>
+      <c r="G44" t="s">
+        <v>311</v>
+      </c>
+      <c r="H44" t="s">
+        <v>311</v>
+      </c>
+      <c r="I44" t="s">
+        <v>311</v>
+      </c>
+      <c r="J44" t="s">
+        <v>311</v>
+      </c>
+      <c r="K44" t="s">
         <v>312</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="L44" t="s">
+        <v>312</v>
+      </c>
+      <c r="M44" t="s">
+        <v>312</v>
+      </c>
+      <c r="N44" t="s">
+        <v>311</v>
+      </c>
+      <c r="O44" t="s">
+        <v>311</v>
+      </c>
+      <c r="P44" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>312</v>
+      </c>
+      <c r="R44" t="s">
+        <v>312</v>
+      </c>
+      <c r="S44" t="s">
         <v>313</v>
       </c>
-      <c r="C44" t="s">
-        <v>313</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E44" t="s">
-        <v>313</v>
-      </c>
-      <c r="F44" t="s">
-        <v>313</v>
-      </c>
-      <c r="G44" t="s">
-        <v>313</v>
-      </c>
-      <c r="H44" t="s">
-        <v>313</v>
-      </c>
-      <c r="I44" t="s">
-        <v>313</v>
-      </c>
-      <c r="J44" t="s">
-        <v>313</v>
-      </c>
-      <c r="K44" t="s">
-        <v>314</v>
-      </c>
-      <c r="L44" t="s">
-        <v>314</v>
-      </c>
-      <c r="M44" t="s">
-        <v>314</v>
-      </c>
-      <c r="N44" t="s">
-        <v>313</v>
-      </c>
-      <c r="O44" t="s">
-        <v>313</v>
-      </c>
-      <c r="P44" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>314</v>
-      </c>
-      <c r="R44" t="s">
-        <v>314</v>
-      </c>
-      <c r="S44" t="s">
-        <v>315</v>
-      </c>
       <c r="T44" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="U44" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="U45" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="O46" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="U46" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>357</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="S47" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
       <c r="T47" s="1"/>
-      <c r="U47" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="U47" s="1"/>
+      <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="S48" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="I49" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="T49" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="O48" s="1" t="s">
+      <c r="U49" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="B50" s="2">
+        <v>100</v>
+      </c>
+      <c r="C50" s="2">
+        <v>100</v>
+      </c>
+      <c r="D50" s="2">
+        <v>500</v>
+      </c>
+      <c r="E50" s="2">
+        <v>100</v>
+      </c>
+      <c r="F50" s="2">
+        <v>100</v>
+      </c>
+      <c r="G50" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H50" s="12">
+        <v>1000</v>
+      </c>
+      <c r="I50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="K50" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L50" s="12">
+        <v>1000</v>
+      </c>
+      <c r="M50" s="12">
+        <v>100</v>
+      </c>
+      <c r="N50" s="12">
+        <v>1000</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="P50" s="12">
+        <v>1000</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>500</v>
+      </c>
+      <c r="R50" s="12">
+        <v>100</v>
+      </c>
+      <c r="S50" s="2">
+        <v>100</v>
+      </c>
+      <c r="T50" s="2">
+        <v>600</v>
+      </c>
+      <c r="U50" s="2">
+        <v>100</v>
+      </c>
+      <c r="V50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="W50" s="12">
+        <v>1000</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>500</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="R48" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B49" s="2">
-        <v>100</v>
-      </c>
-      <c r="C49" s="2">
-        <v>100</v>
-      </c>
-      <c r="D49" s="2">
-        <v>500</v>
-      </c>
-      <c r="E49" s="2">
-        <v>100</v>
-      </c>
-      <c r="F49" s="2">
-        <v>100</v>
-      </c>
-      <c r="G49" s="11">
-        <v>10000</v>
-      </c>
-      <c r="H49" s="12">
-        <v>1000</v>
-      </c>
-      <c r="I49" s="2">
-        <v>10000</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="K49" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L49" s="12">
-        <v>1000</v>
-      </c>
-      <c r="M49" s="12">
-        <v>100</v>
-      </c>
-      <c r="N49" s="12">
-        <v>1000</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="P49" s="12">
-        <v>1000</v>
-      </c>
-      <c r="Q49" s="12">
-        <v>500</v>
-      </c>
-      <c r="R49" s="12">
-        <v>100</v>
-      </c>
-      <c r="S49" s="2">
-        <v>100</v>
-      </c>
-      <c r="T49" s="2">
+      <c r="B51" s="13">
+        <f>$S$51*B9</f>
+        <v>25.5</v>
+      </c>
+      <c r="C51" s="13">
+        <f>$S$51*C9</f>
+        <v>25.5</v>
+      </c>
+      <c r="D51" s="13">
+        <f>$S$51*D9</f>
+        <v>116.7</v>
+      </c>
+      <c r="E51" s="13">
+        <f>$S$51*E9</f>
+        <v>25.5</v>
+      </c>
+      <c r="F51" s="13">
+        <f>$S$51*F9</f>
+        <v>21.9</v>
+      </c>
+      <c r="G51" s="13">
+        <v>3300</v>
+      </c>
+      <c r="H51" s="13">
+        <f>$S$51*H9</f>
+        <v>194.70000000000002</v>
+      </c>
+      <c r="I51" s="13">
+        <f>$S$51*I9</f>
+        <v>2250</v>
+      </c>
+      <c r="J51" s="13">
+        <f>$S$51*J9</f>
+        <v>436320</v>
+      </c>
+      <c r="K51" s="13">
+        <f>$S$51*K9</f>
+        <v>435</v>
+      </c>
+      <c r="L51" s="13">
+        <f>$S$51*L9</f>
         <v>600</v>
       </c>
-      <c r="U49" s="2">
-        <v>100</v>
-      </c>
-      <c r="V49" s="2">
-        <v>10000</v>
-      </c>
-      <c r="W49" s="12">
-        <v>1000</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>500</v>
-      </c>
-      <c r="AA49" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B50" s="13">
-        <f>$S$50*B9</f>
-        <v>25.5</v>
-      </c>
-      <c r="C50" s="13">
-        <f>$S$50*C9</f>
-        <v>25.5</v>
-      </c>
-      <c r="D50" s="13">
-        <f>$S$50*D9</f>
-        <v>116.7</v>
-      </c>
-      <c r="E50" s="13">
-        <f>$S$50*E9</f>
-        <v>25.5</v>
-      </c>
-      <c r="F50" s="13">
-        <f>$S$50*F9</f>
-        <v>21.9</v>
-      </c>
-      <c r="G50" s="13">
-        <v>3300</v>
-      </c>
-      <c r="H50" s="13">
-        <f>$S$50*H9</f>
-        <v>194.70000000000002</v>
-      </c>
-      <c r="I50" s="13">
-        <f>$S$50*I9</f>
-        <v>2250</v>
-      </c>
-      <c r="J50" s="13">
-        <f>$S$50*J9</f>
-        <v>436320</v>
-      </c>
-      <c r="K50" s="13">
-        <f>$S$50*K9</f>
-        <v>435</v>
-      </c>
-      <c r="L50" s="13">
-        <f>$S$50*L9</f>
-        <v>600</v>
-      </c>
-      <c r="M50" s="13">
-        <f t="shared" ref="M50:P50" si="0">$S$50*M9</f>
+      <c r="M51" s="13">
+        <f t="shared" ref="M51:P51" si="0">$S$51*M9</f>
         <v>38.1</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N51" s="13">
         <f t="shared" si="0"/>
         <v>819</v>
       </c>
-      <c r="O50" s="13">
+      <c r="O51" s="13">
         <f t="shared" si="0"/>
         <v>34560</v>
       </c>
-      <c r="P50" s="13">
+      <c r="P51" s="13">
         <f t="shared" si="0"/>
         <v>257.39999999999998</v>
       </c>
-      <c r="Q50" s="13">
-        <f>$S$50*Q9</f>
+      <c r="Q51" s="13">
+        <f>$S$51*Q9</f>
         <v>155.39999999999998</v>
       </c>
-      <c r="R50" s="13">
-        <f>$S$50*R9</f>
+      <c r="R51" s="13">
+        <f>$S$51*R9</f>
         <v>40.800000000000004</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S51" s="1">
         <v>30</v>
       </c>
-      <c r="T50" s="13">
-        <f>$S$50*T9</f>
+      <c r="T51" s="13">
+        <f>$S$51*T9</f>
         <v>189.29999999999998</v>
       </c>
-      <c r="U50" s="13">
-        <f>$S$50*U9</f>
+      <c r="U51" s="13">
+        <f>$S$51*U9</f>
         <v>25.5</v>
       </c>
-      <c r="V50" s="13">
-        <f t="shared" ref="V50:AA50" si="1">$S$50*V9</f>
+      <c r="V51" s="13">
+        <f t="shared" ref="V51:AA51" si="1">$S$51*V9</f>
         <v>12330</v>
       </c>
-      <c r="W50" s="13">
+      <c r="W51" s="13">
         <f t="shared" si="1"/>
         <v>470.1</v>
       </c>
-      <c r="X50" s="13">
+      <c r="X51" s="13">
         <f t="shared" si="1"/>
         <v>1260750</v>
       </c>
-      <c r="Y50" s="13">
+      <c r="Y51" s="13">
         <f t="shared" si="1"/>
         <v>2239.1999999999998</v>
       </c>
-      <c r="Z50" s="13">
+      <c r="Z51" s="13">
         <f t="shared" si="1"/>
         <v>112.5</v>
       </c>
-      <c r="AA50" s="13">
+      <c r="AA51" s="13">
         <f t="shared" si="1"/>
         <v>27.6</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B51">
-        <v>61</v>
-      </c>
-      <c r="C51">
-        <v>42</v>
-      </c>
-      <c r="D51">
-        <v>42</v>
-      </c>
-      <c r="E51">
-        <v>39</v>
-      </c>
-      <c r="F51">
-        <v>59</v>
-      </c>
-      <c r="G51">
-        <v>60</v>
-      </c>
-      <c r="H51">
-        <v>38</v>
-      </c>
-      <c r="I51">
-        <v>13</v>
-      </c>
-      <c r="J51">
-        <v>16</v>
-      </c>
-      <c r="K51">
-        <v>50</v>
-      </c>
-      <c r="L51">
-        <v>34</v>
-      </c>
-      <c r="M51">
-        <v>105</v>
-      </c>
-      <c r="N51">
-        <v>32</v>
-      </c>
-      <c r="O51">
-        <v>72</v>
-      </c>
-      <c r="P51">
-        <v>40</v>
-      </c>
-      <c r="Q51">
-        <v>18</v>
-      </c>
-      <c r="R51">
-        <v>134</v>
-      </c>
-      <c r="S51">
-        <v>128</v>
-      </c>
-      <c r="T51">
-        <v>68</v>
-      </c>
-      <c r="U51">
-        <v>46</v>
-      </c>
-      <c r="V51">
-        <v>28</v>
-      </c>
-      <c r="W51">
-        <v>27</v>
-      </c>
-      <c r="X51">
-        <v>58</v>
-      </c>
-      <c r="Y51">
-        <v>48</v>
-      </c>
-      <c r="Z51">
-        <v>172</v>
-      </c>
-      <c r="AA51">
-        <v>75</v>
-      </c>
-    </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B52" s="13">
-        <f t="shared" ref="B52:F52" si="2">B51*B9</f>
+        <v>372</v>
+      </c>
+      <c r="B52">
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>42</v>
+      </c>
+      <c r="D52">
+        <v>42</v>
+      </c>
+      <c r="E52">
+        <v>39</v>
+      </c>
+      <c r="F52">
+        <v>59</v>
+      </c>
+      <c r="G52">
+        <v>60</v>
+      </c>
+      <c r="H52">
+        <v>38</v>
+      </c>
+      <c r="I52">
+        <v>13</v>
+      </c>
+      <c r="J52">
+        <v>16</v>
+      </c>
+      <c r="K52">
+        <v>50</v>
+      </c>
+      <c r="L52">
+        <v>34</v>
+      </c>
+      <c r="M52">
+        <v>105</v>
+      </c>
+      <c r="N52">
+        <v>32</v>
+      </c>
+      <c r="O52">
+        <v>72</v>
+      </c>
+      <c r="P52">
+        <v>40</v>
+      </c>
+      <c r="Q52">
+        <v>18</v>
+      </c>
+      <c r="R52">
+        <v>134</v>
+      </c>
+      <c r="S52">
+        <v>128</v>
+      </c>
+      <c r="T52">
+        <v>68</v>
+      </c>
+      <c r="U52">
+        <v>46</v>
+      </c>
+      <c r="V52">
+        <v>28</v>
+      </c>
+      <c r="W52">
+        <v>27</v>
+      </c>
+      <c r="X52">
+        <v>58</v>
+      </c>
+      <c r="Y52">
+        <v>48</v>
+      </c>
+      <c r="Z52">
+        <v>172</v>
+      </c>
+      <c r="AA52">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B53" s="13">
+        <f t="shared" ref="B53:F53" si="2">B52*B9</f>
         <v>51.85</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C53" s="13">
         <f t="shared" si="2"/>
         <v>35.699999999999996</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <f t="shared" si="2"/>
         <v>163.38</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <f t="shared" si="2"/>
         <v>33.15</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <f t="shared" si="2"/>
         <v>43.07</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>6500</v>
       </c>
-      <c r="H52">
+      <c r="H53">
         <v>242</v>
       </c>
-      <c r="I52" s="13">
-        <f>I51*I9</f>
+      <c r="I53" s="13">
+        <f>I52*I9</f>
         <v>975</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J53" s="13">
         <v>230000</v>
       </c>
-      <c r="K52" s="13">
-        <f>K51*K9</f>
+      <c r="K53" s="13">
+        <f>K52*K9</f>
         <v>725</v>
       </c>
-      <c r="L52" s="13">
-        <f t="shared" ref="L52:R52" si="3">L51*L9</f>
+      <c r="L53" s="13">
+        <f t="shared" ref="L53:R53" si="3">L52*L9</f>
         <v>680</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M53" s="13">
         <f t="shared" si="3"/>
         <v>133.35</v>
       </c>
-      <c r="N52" s="13">
+      <c r="N53" s="13">
         <f t="shared" si="3"/>
         <v>873.6</v>
       </c>
-      <c r="O52" s="13">
+      <c r="O53" s="13">
         <f t="shared" si="3"/>
         <v>82944</v>
       </c>
-      <c r="P52" s="13">
+      <c r="P53" s="13">
         <f t="shared" si="3"/>
         <v>343.2</v>
       </c>
-      <c r="Q52" s="13">
+      <c r="Q53" s="13">
         <f t="shared" si="3"/>
         <v>93.24</v>
       </c>
-      <c r="R52" s="13">
+      <c r="R53" s="13">
         <f t="shared" si="3"/>
         <v>182.24</v>
       </c>
-      <c r="S52" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="T52" s="13">
-        <f>T51*T9</f>
+      <c r="S53" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="T53" s="13">
+        <f>T52*T9</f>
         <v>429.08</v>
       </c>
-      <c r="U52" s="13">
-        <f>U51*U9</f>
+      <c r="U53" s="13">
+        <f>U52*U9</f>
         <v>39.1</v>
       </c>
-      <c r="V52" s="13">
-        <f t="shared" ref="V52:AA52" si="4">V51*V9</f>
+      <c r="V53" s="13">
+        <f t="shared" ref="V53:AA53" si="4">V52*V9</f>
         <v>11508</v>
       </c>
-      <c r="W52" s="13">
+      <c r="W53" s="13">
         <f t="shared" si="4"/>
         <v>423.09</v>
       </c>
-      <c r="X52" s="13">
+      <c r="X53" s="13">
         <f t="shared" si="4"/>
         <v>2437450</v>
       </c>
-      <c r="Y52" s="13">
+      <c r="Y53" s="13">
         <f t="shared" si="4"/>
         <v>3582.7200000000003</v>
       </c>
-      <c r="Z52" s="13">
+      <c r="Z53" s="13">
         <f t="shared" si="4"/>
         <v>645</v>
       </c>
-      <c r="AA52" s="13">
+      <c r="AA53" s="13">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="I53" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B54" t="s">
-        <v>383</v>
-      </c>
-      <c r="C54" t="s">
-        <v>383</v>
-      </c>
-      <c r="D54" t="s">
-        <v>383</v>
-      </c>
-      <c r="E54" t="s">
-        <v>383</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H54" t="s">
-        <v>386</v>
+        <v>375</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="I54" t="s">
-        <v>387</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="L54" t="s">
-        <v>387</v>
-      </c>
-      <c r="M54" t="s">
-        <v>387</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>387</v>
-      </c>
-      <c r="R54" t="s">
-        <v>387</v>
-      </c>
-      <c r="S54" t="s">
-        <v>387</v>
-      </c>
-      <c r="T54" t="s">
-        <v>383</v>
-      </c>
-      <c r="U54" t="s">
-        <v>383</v>
-      </c>
-      <c r="V54" t="s">
-        <v>387</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z54" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>387</v>
+        <v>377</v>
+      </c>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B55">
-        <v>10</v>
-      </c>
-      <c r="C55">
-        <v>7.7</v>
-      </c>
-      <c r="D55">
-        <v>7.9</v>
-      </c>
-      <c r="E55">
-        <v>6.2</v>
-      </c>
-      <c r="F55" s="2">
-        <v>8</v>
-      </c>
-      <c r="G55" s="2">
-        <v>10</v>
-      </c>
-      <c r="H55" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="I55" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="J55" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="K55" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="L55" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="M55" s="2">
-        <v>16</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2">
-        <v>13</v>
-      </c>
-      <c r="P55" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="R55" s="2"/>
-      <c r="S55">
-        <v>18</v>
-      </c>
-      <c r="T55">
-        <v>8.9</v>
-      </c>
-      <c r="U55">
-        <v>6.8</v>
-      </c>
-      <c r="W55" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="B55" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" t="s">
+        <v>380</v>
+      </c>
+      <c r="D55" t="s">
+        <v>380</v>
+      </c>
+      <c r="E55" t="s">
+        <v>380</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H55" t="s">
+        <v>383</v>
+      </c>
+      <c r="I55" t="s">
+        <v>384</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="L55" t="s">
+        <v>384</v>
+      </c>
+      <c r="M55" t="s">
+        <v>384</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>384</v>
+      </c>
+      <c r="R55" t="s">
+        <v>384</v>
+      </c>
+      <c r="S55" t="s">
+        <v>384</v>
+      </c>
+      <c r="T55" t="s">
+        <v>380</v>
+      </c>
+      <c r="U55" t="s">
+        <v>380</v>
+      </c>
+      <c r="V55" t="s">
+        <v>384</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B56">
-        <v>887</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>458</v>
-      </c>
-      <c r="D56" s="14">
-        <v>376</v>
-      </c>
-      <c r="E56" s="14">
-        <v>296</v>
+        <v>7.7</v>
+      </c>
+      <c r="D56">
+        <v>7.9</v>
+      </c>
+      <c r="E56">
+        <v>6.2</v>
       </c>
       <c r="F56" s="2">
-        <v>557</v>
+        <v>8</v>
       </c>
       <c r="G56" s="2">
-        <v>1411</v>
+        <v>10</v>
       </c>
       <c r="H56" s="2">
-        <v>8801</v>
+        <v>6.3</v>
       </c>
       <c r="I56" s="2">
-        <v>2217</v>
+        <v>1.7</v>
       </c>
       <c r="J56" s="2">
-        <v>506</v>
+        <v>2.1</v>
       </c>
       <c r="K56" s="2">
-        <v>337</v>
+        <v>5.8</v>
       </c>
       <c r="L56" s="2">
-        <v>528</v>
+        <v>3.8</v>
       </c>
       <c r="M56" s="2">
-        <v>575</v>
-      </c>
-      <c r="N56" s="14">
-        <v>342</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2">
-        <v>634</v>
+        <v>13</v>
       </c>
       <c r="P56" s="2">
-        <v>450</v>
+        <v>5.3</v>
       </c>
       <c r="Q56" s="2">
-        <v>524</v>
-      </c>
-      <c r="R56" s="2">
-        <v>378</v>
-      </c>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R56" s="2"/>
       <c r="S56">
-        <v>5716</v>
-      </c>
-      <c r="T56" s="14">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="T56">
+        <v>8.9</v>
       </c>
       <c r="U56">
-        <v>447</v>
-      </c>
-      <c r="V56" s="1">
-        <v>357</v>
-      </c>
-      <c r="W56" s="1">
-        <v>329</v>
-      </c>
-      <c r="X56" s="2">
-        <v>572</v>
-      </c>
-      <c r="Y56">
-        <v>1381</v>
-      </c>
-      <c r="Z56">
-        <v>623</v>
-      </c>
-      <c r="AA56" s="14">
-        <v>45</v>
-      </c>
+        <v>6.8</v>
+      </c>
+      <c r="W56" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="X56" s="2"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B57" s="15">
-        <f t="shared" ref="B57:AA57" si="5">B56/B61</f>
+        <v>388</v>
+      </c>
+      <c r="B57">
+        <v>887</v>
+      </c>
+      <c r="C57">
+        <v>458</v>
+      </c>
+      <c r="D57" s="14">
+        <v>376</v>
+      </c>
+      <c r="E57" s="14">
+        <v>296</v>
+      </c>
+      <c r="F57" s="2">
+        <v>557</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1411</v>
+      </c>
+      <c r="H57" s="2">
+        <v>8801</v>
+      </c>
+      <c r="I57" s="2">
+        <v>2217</v>
+      </c>
+      <c r="J57" s="2">
+        <v>506</v>
+      </c>
+      <c r="K57" s="2">
+        <v>337</v>
+      </c>
+      <c r="L57" s="2">
+        <v>528</v>
+      </c>
+      <c r="M57" s="2">
+        <v>575</v>
+      </c>
+      <c r="N57" s="14">
+        <v>342</v>
+      </c>
+      <c r="O57" s="2">
+        <v>634</v>
+      </c>
+      <c r="P57" s="2">
+        <v>450</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>524</v>
+      </c>
+      <c r="R57" s="2">
+        <v>378</v>
+      </c>
+      <c r="S57">
+        <v>5716</v>
+      </c>
+      <c r="T57" s="14">
+        <v>56</v>
+      </c>
+      <c r="U57">
+        <v>447</v>
+      </c>
+      <c r="V57" s="1">
+        <v>357</v>
+      </c>
+      <c r="W57" s="1">
+        <v>329</v>
+      </c>
+      <c r="X57" s="2">
+        <v>572</v>
+      </c>
+      <c r="Y57">
+        <v>1381</v>
+      </c>
+      <c r="Z57">
+        <v>623</v>
+      </c>
+      <c r="AA57" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B58" s="15">
+        <f t="shared" ref="B58:AA58" si="5">B57/B62</f>
         <v>10.55952380952381</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C58" s="15">
         <f t="shared" si="5"/>
         <v>7.6333333333333337</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D58" s="15">
         <f t="shared" si="5"/>
         <v>9.8947368421052637</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E58" s="15">
         <f t="shared" si="5"/>
         <v>6.2978723404255321</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F58" s="15">
         <f t="shared" si="5"/>
         <v>8.1911764705882355</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G58" s="15">
         <f t="shared" si="5"/>
         <v>11.110236220472441</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H58" s="15">
         <f t="shared" si="5"/>
         <v>6.1160528144544823</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I58" s="15">
         <f t="shared" si="5"/>
         <v>1.6065217391304347</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J58" s="15">
         <f t="shared" si="5"/>
         <v>1.8467153284671534</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K58" s="15">
         <f t="shared" si="5"/>
         <v>5.7118644067796609</v>
       </c>
-      <c r="L57" s="15">
-        <f>L56/L61</f>
+      <c r="L58" s="15">
+        <f>L57/L62</f>
         <v>4.0930232558139537</v>
       </c>
-      <c r="M57" s="15">
-        <f>M56/M61</f>
+      <c r="M58" s="15">
+        <f>M57/M62</f>
         <v>15.131578947368421</v>
       </c>
-      <c r="N57" s="15">
-        <f>N56/N61</f>
+      <c r="N58" s="15">
+        <f>N57/N62</f>
         <v>7.7727272727272725</v>
       </c>
-      <c r="O57" s="15">
+      <c r="O58" s="15">
         <f t="shared" si="5"/>
         <v>12.431372549019608</v>
       </c>
-      <c r="P57" s="15">
+      <c r="P58" s="15">
         <f t="shared" si="5"/>
         <v>5.3571428571428568</v>
       </c>
-      <c r="Q57" s="15">
+      <c r="Q58" s="15">
         <f t="shared" si="5"/>
         <v>2.460093896713615</v>
       </c>
-      <c r="R57" s="15">
+      <c r="R58" s="15">
         <f t="shared" si="5"/>
         <v>14.823529411764707</v>
       </c>
-      <c r="S57" s="15">
+      <c r="S58" s="15">
         <f t="shared" si="5"/>
         <v>17.268882175226587</v>
       </c>
-      <c r="T57" s="15">
+      <c r="T58" s="15">
         <f t="shared" si="5"/>
         <v>9.6551724137931032</v>
       </c>
-      <c r="U57" s="15">
+      <c r="U58" s="15">
         <f t="shared" si="5"/>
         <v>6.8769230769230774</v>
       </c>
-      <c r="V57" s="15">
+      <c r="V58" s="15">
         <f t="shared" si="5"/>
         <v>1.733009708737864</v>
       </c>
-      <c r="W57" s="15">
+      <c r="W58" s="15">
         <f t="shared" si="5"/>
         <v>3.2254901960784315</v>
       </c>
-      <c r="X57" s="15">
+      <c r="X58" s="15">
         <f t="shared" si="5"/>
         <v>6.8095238095238093</v>
       </c>
-      <c r="Y57" s="15">
+      <c r="Y58" s="15">
         <f t="shared" si="5"/>
         <v>9.4589041095890405</v>
       </c>
-      <c r="Z57" s="15">
+      <c r="Z58" s="15">
         <f t="shared" si="5"/>
         <v>17.8</v>
       </c>
-      <c r="AA57" s="15">
+      <c r="AA58" s="15">
         <f t="shared" si="5"/>
         <v>5.2325581395348841</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B58">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B59">
         <v>45</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>45</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>45</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <v>45</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <v>45</v>
       </c>
-      <c r="G58">
+      <c r="G59">
         <v>45</v>
       </c>
-      <c r="H58">
+      <c r="H59">
         <v>45</v>
       </c>
-      <c r="I58">
+      <c r="I59">
         <v>45</v>
       </c>
-      <c r="J58">
+      <c r="J59">
         <v>45</v>
       </c>
-      <c r="K58">
+      <c r="K59">
         <v>45</v>
       </c>
-      <c r="L58">
+      <c r="L59">
         <v>45</v>
       </c>
-      <c r="M58">
+      <c r="M59">
         <v>45</v>
       </c>
-      <c r="N58">
+      <c r="N59">
         <v>45</v>
       </c>
-      <c r="O58">
+      <c r="O59">
         <v>45</v>
       </c>
-      <c r="P58">
+      <c r="P59">
         <v>45</v>
       </c>
-      <c r="Q58">
+      <c r="Q59">
         <v>45</v>
       </c>
-      <c r="R58">
+      <c r="R59">
         <v>45</v>
       </c>
-      <c r="S58">
+      <c r="S59">
         <v>45</v>
       </c>
-      <c r="T58" s="5">
+      <c r="T59" s="5">
         <f>830/T9</f>
         <v>131.53724247226626</v>
       </c>
-      <c r="U58">
+      <c r="U59">
         <v>45</v>
       </c>
-      <c r="V58">
+      <c r="V59">
         <v>45</v>
       </c>
-      <c r="W58">
+      <c r="W59">
         <v>45</v>
       </c>
-      <c r="X58">
+      <c r="X59">
         <v>45</v>
       </c>
-      <c r="Y58">
+      <c r="Y59">
         <v>45</v>
       </c>
-      <c r="Z58">
+      <c r="Z59">
         <v>45</v>
       </c>
-      <c r="AA58">
+      <c r="AA59">
         <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B59" s="5">
-        <v>796.529</v>
-      </c>
-      <c r="C59" s="5">
-        <v>361.17599999999999</v>
-      </c>
-      <c r="D59" s="5">
-        <v>319.02800000000002</v>
-      </c>
-      <c r="E59" s="5">
-        <v>282.36399999999998</v>
-      </c>
-      <c r="F59" s="5">
-        <v>379.15</v>
-      </c>
-      <c r="G59" s="5">
-        <v>1320.7760000000001</v>
-      </c>
-      <c r="H59" s="5">
-        <v>10877</v>
-      </c>
-      <c r="I59" s="5">
-        <v>2454.7739999999999</v>
-      </c>
-      <c r="J59" s="5">
-        <v>511.327</v>
-      </c>
-      <c r="K59" s="5">
-        <v>433.17</v>
-      </c>
-      <c r="L59" s="5">
-        <v>507</v>
-      </c>
-      <c r="M59" s="5">
-        <v>617.29999999999995</v>
-      </c>
-      <c r="N59" s="5">
-        <v>205.72300000000001</v>
-      </c>
-      <c r="O59" s="5">
-        <v>673</v>
-      </c>
-      <c r="P59" s="5">
-        <v>430</v>
-      </c>
-      <c r="Q59" s="5">
-        <v>493</v>
-      </c>
-      <c r="R59" s="5">
-        <v>402.25299999999999</v>
-      </c>
-      <c r="S59" s="5">
-        <v>5107.393</v>
-      </c>
-      <c r="T59" s="5">
-        <v>33.573</v>
-      </c>
-      <c r="U59" s="5">
-        <v>338.19299999999998</v>
-      </c>
-      <c r="V59" s="5">
-        <v>94.846999999999994</v>
-      </c>
-      <c r="W59" s="5">
-        <v>258.66800000000001</v>
-      </c>
-      <c r="X59" s="5">
-        <v>671.45</v>
-      </c>
-      <c r="Y59" s="5">
-        <v>1764.866</v>
-      </c>
-      <c r="Z59" s="5">
-        <v>638.76199999999994</v>
-      </c>
-      <c r="AA59" s="5">
-        <v>39.738</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B60" s="5">
-        <v>68527599.400000006</v>
+        <v>796.529</v>
       </c>
       <c r="C60" s="5">
-        <v>49663148.200000003</v>
+        <v>361.17599999999999</v>
       </c>
       <c r="D60" s="5">
-        <v>31355629</v>
+        <v>319.02800000000002</v>
       </c>
       <c r="E60" s="5">
-        <v>38223111.600000001</v>
+        <v>282.36399999999998</v>
       </c>
       <c r="F60" s="5">
-        <v>51629389.799999997</v>
+        <v>379.15</v>
       </c>
       <c r="G60" s="5">
-        <v>107761630.8</v>
-      </c>
-      <c r="H60">
-        <v>1128677232</v>
+        <v>1320.7760000000001</v>
+      </c>
+      <c r="H60" s="5">
+        <v>10877</v>
       </c>
       <c r="I60" s="5">
-        <v>859909198.39999998</v>
+        <v>2454.7739999999999</v>
       </c>
       <c r="J60" s="5">
-        <v>172734542.40000001</v>
+        <v>511.327</v>
       </c>
       <c r="K60" s="5">
-        <v>35983394.399999999</v>
-      </c>
-      <c r="L60">
-        <v>92799575.799999997</v>
-      </c>
-      <c r="M60">
-        <v>30346601.800000001</v>
-      </c>
-      <c r="N60">
-        <v>35367968.799999997</v>
-      </c>
-      <c r="O60">
-        <v>43190072.399999999</v>
-      </c>
-      <c r="P60" s="16">
-        <v>59786297.800000004</v>
-      </c>
-      <c r="Q60">
-        <v>159837762.59999999</v>
-      </c>
-      <c r="R60">
-        <v>19596935.200000003</v>
+        <v>433.17</v>
+      </c>
+      <c r="L60" s="5">
+        <v>507</v>
+      </c>
+      <c r="M60" s="5">
+        <v>617.29999999999995</v>
+      </c>
+      <c r="N60" s="5">
+        <v>205.72300000000001</v>
+      </c>
+      <c r="O60" s="5">
+        <v>673</v>
+      </c>
+      <c r="P60" s="5">
+        <v>430</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>493</v>
+      </c>
+      <c r="R60" s="5">
+        <v>402.25299999999999</v>
       </c>
       <c r="S60" s="5">
-        <v>245683439.40000001</v>
+        <v>5107.393</v>
       </c>
       <c r="T60" s="5">
-        <v>4514349.4000000004</v>
-      </c>
-      <c r="U60" s="17">
-        <v>50403455</v>
-      </c>
-      <c r="V60">
-        <v>103403543.60000001</v>
-      </c>
-      <c r="W60">
-        <v>63488688.599999972</v>
-      </c>
-      <c r="X60">
-        <v>60813537.600000009</v>
-      </c>
-      <c r="Y60">
-        <v>113392308.19999999</v>
-      </c>
-      <c r="Z60">
-        <v>24941946.399999995</v>
-      </c>
-      <c r="AA60">
-        <v>7115854.8000000007</v>
+        <v>33.573</v>
+      </c>
+      <c r="U60" s="5">
+        <v>338.19299999999998</v>
+      </c>
+      <c r="V60" s="5">
+        <v>94.846999999999994</v>
+      </c>
+      <c r="W60" s="5">
+        <v>258.66800000000001</v>
+      </c>
+      <c r="X60" s="5">
+        <v>671.45</v>
+      </c>
+      <c r="Y60" s="5">
+        <v>1764.866</v>
+      </c>
+      <c r="Z60" s="5">
+        <v>638.76199999999994</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>39.738</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B61" s="5">
-        <v>84</v>
+        <v>68527599.400000006</v>
       </c>
       <c r="C61" s="5">
-        <v>60</v>
+        <v>49663148.200000003</v>
       </c>
       <c r="D61" s="5">
-        <v>38</v>
+        <v>31355629</v>
       </c>
       <c r="E61" s="5">
-        <v>47</v>
+        <v>38223111.600000001</v>
       </c>
       <c r="F61" s="5">
-        <v>68</v>
+        <v>51629389.799999997</v>
       </c>
       <c r="G61" s="5">
-        <v>127</v>
+        <v>107761630.8</v>
       </c>
       <c r="H61">
-        <v>1439</v>
+        <v>1128677232</v>
       </c>
       <c r="I61" s="5">
-        <v>1380</v>
+        <v>859909198.39999998</v>
       </c>
       <c r="J61" s="5">
-        <v>274</v>
+        <v>172734542.40000001</v>
       </c>
       <c r="K61" s="5">
-        <v>59</v>
-      </c>
-      <c r="L61" s="5">
-        <v>129</v>
-      </c>
-      <c r="M61" s="5">
-        <v>38</v>
-      </c>
-      <c r="N61" s="5">
-        <v>44</v>
-      </c>
-      <c r="O61" s="5">
-        <v>51</v>
-      </c>
-      <c r="P61">
-        <v>84</v>
+        <v>35983394.399999999</v>
+      </c>
+      <c r="L61">
+        <v>92799575.799999997</v>
+      </c>
+      <c r="M61">
+        <v>30346601.800000001</v>
+      </c>
+      <c r="N61">
+        <v>35367968.799999997</v>
+      </c>
+      <c r="O61">
+        <v>43190072.399999999</v>
+      </c>
+      <c r="P61" s="16">
+        <v>59786297.800000004</v>
       </c>
       <c r="Q61">
-        <v>213</v>
-      </c>
-      <c r="R61" s="5">
-        <v>25.5</v>
+        <v>159837762.59999999</v>
+      </c>
+      <c r="R61">
+        <v>19596935.200000003</v>
       </c>
       <c r="S61" s="5">
-        <v>331</v>
+        <v>245683439.40000001</v>
       </c>
       <c r="T61" s="5">
-        <v>5.8</v>
+        <v>4514349.4000000004</v>
       </c>
       <c r="U61" s="17">
-        <v>65</v>
+        <v>50403455</v>
       </c>
       <c r="V61">
-        <v>206</v>
+        <v>103403543.60000001</v>
       </c>
       <c r="W61">
-        <v>102</v>
-      </c>
-      <c r="X61" s="5">
-        <v>84</v>
+        <v>63488688.599999972</v>
+      </c>
+      <c r="X61">
+        <v>60813537.600000009</v>
       </c>
       <c r="Y61">
-        <v>146</v>
+        <v>113392308.19999999</v>
       </c>
       <c r="Z61">
-        <v>35</v>
+        <v>24941946.399999995</v>
       </c>
       <c r="AA61">
-        <v>8.6</v>
+        <v>7115854.8000000007</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B62" s="18">
-        <f t="shared" ref="B62:P62" si="6">2.5*B58/1000</f>
+        <v>393</v>
+      </c>
+      <c r="B62" s="5">
+        <v>84</v>
+      </c>
+      <c r="C62" s="5">
+        <v>60</v>
+      </c>
+      <c r="D62" s="5">
+        <v>38</v>
+      </c>
+      <c r="E62" s="5">
+        <v>47</v>
+      </c>
+      <c r="F62" s="5">
+        <v>68</v>
+      </c>
+      <c r="G62" s="5">
+        <v>127</v>
+      </c>
+      <c r="H62">
+        <v>1439</v>
+      </c>
+      <c r="I62" s="5">
+        <v>1380</v>
+      </c>
+      <c r="J62" s="5">
+        <v>274</v>
+      </c>
+      <c r="K62" s="5">
+        <v>59</v>
+      </c>
+      <c r="L62" s="5">
+        <v>129</v>
+      </c>
+      <c r="M62" s="5">
+        <v>38</v>
+      </c>
+      <c r="N62" s="5">
+        <v>44</v>
+      </c>
+      <c r="O62" s="5">
+        <v>51</v>
+      </c>
+      <c r="P62">
+        <v>84</v>
+      </c>
+      <c r="Q62">
+        <v>213</v>
+      </c>
+      <c r="R62" s="5">
+        <v>25.5</v>
+      </c>
+      <c r="S62" s="5">
+        <v>331</v>
+      </c>
+      <c r="T62" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="U62" s="17">
+        <v>65</v>
+      </c>
+      <c r="V62">
+        <v>206</v>
+      </c>
+      <c r="W62">
+        <v>102</v>
+      </c>
+      <c r="X62" s="5">
+        <v>84</v>
+      </c>
+      <c r="Y62">
+        <v>146</v>
+      </c>
+      <c r="Z62">
+        <v>35</v>
+      </c>
+      <c r="AA62">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B63" s="18">
+        <f t="shared" ref="B63:P63" si="6">2.5*B59/1000</f>
         <v>0.1125</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C63" s="18">
         <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D63" s="18">
         <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E63" s="18">
         <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F63" s="18">
         <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G63" s="18">
         <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
-      <c r="H62" s="18">
-        <f>2.5*H58/1000</f>
+      <c r="H63" s="18">
+        <f>2.5*H59/1000</f>
         <v>0.1125</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I63" s="18">
         <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
-      <c r="J62" s="18">
+      <c r="J63" s="18">
         <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
-      <c r="K62" s="18">
+      <c r="K63" s="18">
         <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
-      <c r="L62" s="18">
-        <f>2.5*L58/1000</f>
+      <c r="L63" s="18">
+        <f>2.5*L59/1000</f>
         <v>0.1125</v>
       </c>
-      <c r="M62" s="18">
-        <f>2.5*M58/1000</f>
+      <c r="M63" s="18">
+        <f>2.5*M59/1000</f>
         <v>0.1125</v>
       </c>
-      <c r="N62" s="18">
-        <f>2.5*N58/1000</f>
+      <c r="N63" s="18">
+        <f>2.5*N59/1000</f>
         <v>0.1125</v>
       </c>
-      <c r="O62" s="18">
+      <c r="O63" s="18">
         <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
-      <c r="P62" s="18">
+      <c r="P63" s="18">
         <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
-      <c r="Q62" s="18">
-        <f>2.5*Q58/1000</f>
+      <c r="Q63" s="18">
+        <f>2.5*Q59/1000</f>
         <v>0.1125</v>
       </c>
-      <c r="R62" s="18">
-        <f>2.5*R58/1000</f>
+      <c r="R63" s="18">
+        <f>2.5*R59/1000</f>
         <v>0.1125</v>
       </c>
-      <c r="S62" s="18">
-        <f>2.5*S58/1000</f>
+      <c r="S63" s="18">
+        <f>2.5*S59/1000</f>
         <v>0.1125</v>
       </c>
-      <c r="T62" s="19">
-        <f>2.5*T58/1000</f>
+      <c r="T63" s="19">
+        <f>2.5*T59/1000</f>
         <v>0.32884310618066565</v>
       </c>
-      <c r="U62" s="18">
-        <f>2.5*U58/1000</f>
+      <c r="U63" s="18">
+        <f>2.5*U59/1000</f>
         <v>0.1125</v>
       </c>
-      <c r="V62" s="18">
-        <f t="shared" ref="V62:AA62" si="7">2.5*V58/1000</f>
+      <c r="V63" s="18">
+        <f t="shared" ref="V63:AA63" si="7">2.5*V59/1000</f>
         <v>0.1125</v>
       </c>
-      <c r="W62" s="18">
+      <c r="W63" s="18">
         <f t="shared" si="7"/>
         <v>0.1125</v>
       </c>
-      <c r="X62" s="18">
+      <c r="X63" s="18">
         <f t="shared" si="7"/>
         <v>0.1125</v>
       </c>
-      <c r="Y62" s="18">
+      <c r="Y63" s="18">
         <f t="shared" si="7"/>
         <v>0.1125</v>
       </c>
-      <c r="Z62" s="18">
+      <c r="Z63" s="18">
         <f t="shared" si="7"/>
         <v>0.1125</v>
       </c>
-      <c r="AA62" s="18">
+      <c r="AA63" s="18">
         <f t="shared" si="7"/>
         <v>0.1125</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B63" s="16">
-        <f t="shared" ref="B63:K63" si="8">B62*B9</f>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B64" s="16">
+        <f t="shared" ref="B64:K64" si="8">B63*B9</f>
         <v>9.5625000000000002E-2</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C64" s="16">
         <f t="shared" si="8"/>
         <v>9.5625000000000002E-2</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="16">
         <f t="shared" si="8"/>
         <v>0.43762500000000004</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E64" s="16">
         <f t="shared" si="8"/>
         <v>9.5625000000000002E-2</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F64" s="16">
         <f t="shared" si="8"/>
         <v>8.2125000000000004E-2</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G64" s="16">
         <f t="shared" si="8"/>
         <v>12.262500000000001</v>
       </c>
-      <c r="H63" s="16">
-        <f>H62*H9</f>
+      <c r="H64" s="16">
+        <f>H63*H9</f>
         <v>0.73012500000000002</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I64" s="16">
         <f t="shared" si="8"/>
         <v>8.4375</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J64" s="16">
         <f t="shared" si="8"/>
         <v>1636.2</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K64" s="16">
         <f t="shared" si="8"/>
         <v>1.6312500000000001</v>
       </c>
-      <c r="L63" s="16">
-        <f>L62*L9</f>
+      <c r="L64" s="16">
+        <f>L63*L9</f>
         <v>2.25</v>
       </c>
-      <c r="M63" s="16">
-        <f t="shared" ref="M63:R63" si="9">M62*M9</f>
+      <c r="M64" s="16">
+        <f t="shared" ref="M64:R64" si="9">M63*M9</f>
         <v>0.142875</v>
       </c>
-      <c r="N63" s="16">
+      <c r="N64" s="16">
         <f t="shared" si="9"/>
         <v>3.07125</v>
       </c>
-      <c r="O63" s="16">
+      <c r="O64" s="16">
         <f t="shared" si="9"/>
         <v>129.6</v>
       </c>
-      <c r="P63" s="16">
+      <c r="P64" s="16">
         <f t="shared" si="9"/>
         <v>0.96525000000000005</v>
       </c>
-      <c r="Q63" s="16">
+      <c r="Q64" s="16">
         <f t="shared" si="9"/>
         <v>0.58274999999999999</v>
       </c>
-      <c r="R63" s="16">
+      <c r="R64" s="16">
         <f t="shared" si="9"/>
         <v>0.15300000000000002</v>
       </c>
-      <c r="S63" s="16">
-        <f>S62*S9*3.78541</f>
+      <c r="S64" s="16">
+        <f>S63*S9*3.78541</f>
         <v>0.42585862500000005</v>
       </c>
-      <c r="T63" s="16">
-        <f t="shared" ref="T63:AA63" si="10">T62*T9</f>
+      <c r="T64" s="16">
+        <f t="shared" ref="T64:AA64" si="10">T63*T9</f>
         <v>2.0750000000000002</v>
       </c>
-      <c r="U63" s="16">
+      <c r="U64" s="16">
         <f t="shared" si="10"/>
         <v>9.5625000000000002E-2</v>
       </c>
-      <c r="V63" s="16">
+      <c r="V64" s="16">
         <f t="shared" si="10"/>
         <v>46.237500000000004</v>
       </c>
-      <c r="W63" s="16">
+      <c r="W64" s="16">
         <f t="shared" si="10"/>
         <v>1.762875</v>
       </c>
-      <c r="X63" s="16">
+      <c r="X64" s="16">
         <f t="shared" si="10"/>
         <v>4727.8125</v>
       </c>
-      <c r="Y63" s="16">
+      <c r="Y64" s="16">
         <f t="shared" si="10"/>
         <v>8.3970000000000002</v>
       </c>
-      <c r="Z63" s="16">
+      <c r="Z64" s="16">
         <f t="shared" si="10"/>
         <v>0.421875</v>
       </c>
-      <c r="AA63" s="16">
+      <c r="AA64" s="16">
         <f t="shared" si="10"/>
         <v>0.10350000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B64" s="5">
-        <f t="shared" ref="B64:R64" si="11">0.8*0.8*B59*B58*1000000*B9/B60</f>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B65" s="5">
+        <f t="shared" ref="B65:R65" si="11">0.8*0.8*B60*B59*1000000*B9/B61</f>
         <v>284.54272571526855</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C65" s="5">
         <f t="shared" si="11"/>
         <v>178.03117201498719</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D65" s="5">
         <f t="shared" si="11"/>
         <v>1139.8701297301359</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E65" s="5">
         <f t="shared" si="11"/>
         <v>180.84008419659901</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F65" s="5">
         <f t="shared" si="11"/>
         <v>154.39364344375809</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G65" s="5">
         <f t="shared" si="11"/>
         <v>38475.475811006392</v>
       </c>
-      <c r="H64" s="5">
-        <f>0.8*0.8*H59*H58*1000000*H9/H60</f>
+      <c r="H65" s="5">
+        <f>0.8*0.8*H60*H59*1000000*H9/H61</f>
         <v>1801.2605963508981</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I65" s="5">
         <f t="shared" si="11"/>
         <v>6166.1299237940575</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J65" s="5">
         <f t="shared" si="11"/>
         <v>1239926.3389856876</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K65" s="5">
         <f t="shared" si="11"/>
         <v>5027.0908294299234</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L65" s="5">
         <f t="shared" si="11"/>
         <v>3146.9109366338298</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M65" s="5">
         <f t="shared" si="11"/>
         <v>744.01624764457154</v>
       </c>
-      <c r="N64" s="5">
+      <c r="N65" s="5">
         <f t="shared" si="11"/>
         <v>4573.2807681056329</v>
       </c>
-      <c r="O64" s="5">
+      <c r="O65" s="5">
         <f t="shared" si="11"/>
         <v>516982.80552083551</v>
       </c>
-      <c r="P64" s="5">
+      <c r="P65" s="5">
         <f t="shared" si="11"/>
         <v>1777.2420087868363</v>
       </c>
-      <c r="Q64" s="5">
+      <c r="Q65" s="5">
         <f t="shared" si="11"/>
         <v>460.13977425382205</v>
       </c>
-      <c r="R64" s="5">
+      <c r="R65" s="5">
         <f t="shared" si="11"/>
         <v>803.97497584214091</v>
       </c>
-      <c r="S64" s="5">
-        <f>0.8*0.8*S59*S58*1000000*S9/S60</f>
+      <c r="S65" s="5">
+        <f>0.8*0.8*S60*S59*1000000*S9/S61</f>
         <v>598.70913057561188</v>
       </c>
-      <c r="T64" s="5">
-        <f>0.8*0.75*T59*T58*1000000*T9/T60</f>
+      <c r="T65" s="5">
+        <f>0.8*0.75*T60*T59*1000000*T9/T61</f>
         <v>3703.6021181701176</v>
       </c>
-      <c r="U64" s="5">
-        <f>0.8*0.8*U59*U58*1000000*U9/U60</f>
+      <c r="U65" s="5">
+        <f>0.8*0.8*U60*U59*1000000*U9/U61</f>
         <v>164.25391156221337</v>
       </c>
-      <c r="V64" s="5">
-        <f t="shared" ref="V64:AA64" si="12">0.8*0.8*V59*V58*1000000*V9/V60</f>
+      <c r="V65" s="5">
+        <f t="shared" ref="V65:AA65" si="12">0.8*0.8*V60*V59*1000000*V9/V61</f>
         <v>10857.316205167268</v>
       </c>
-      <c r="W64" s="5">
+      <c r="W65" s="5">
         <f t="shared" si="12"/>
         <v>1838.6871158022327</v>
       </c>
-      <c r="X64" s="5">
+      <c r="X65" s="5">
         <f t="shared" si="12"/>
         <v>13363296.990635848</v>
       </c>
-      <c r="Y64" s="5">
+      <c r="Y65" s="5">
         <f t="shared" si="12"/>
         <v>33457.4054407687</v>
       </c>
-      <c r="Z64" s="5">
+      <c r="Z65" s="5">
         <f t="shared" si="12"/>
         <v>2765.8745991050655</v>
       </c>
-      <c r="AA64" s="5">
+      <c r="AA65" s="5">
         <f t="shared" si="12"/>
         <v>147.96508326729767</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="J65" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="K65" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="S65" s="16">
-        <v>100</v>
-      </c>
-      <c r="T65" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="U65" s="16" t="s">
-        <v>401</v>
-      </c>
-    </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>231</v>
+        <v>398</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>131</v>
+        <v>398</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>131</v>
+        <v>398</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>136</v>
+        <v>398</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>231</v>
+        <v>398</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>141</v>
+        <v>398</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>145</v>
+        <v>398</v>
       </c>
       <c r="J66" s="16" t="s">
-        <v>159</v>
+        <v>398</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="L66" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="M66" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="N66" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="O66" t="s">
-        <v>136</v>
-      </c>
-      <c r="P66" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R66" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="S66" s="16" t="s">
-        <v>155</v>
+        <v>399</v>
+      </c>
+      <c r="S66" s="16">
+        <v>100</v>
       </c>
       <c r="T66" s="16" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="U66" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="V66" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="W66" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="X66" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y66" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z66" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>264</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="O67" t="s">
+        <v>136</v>
+      </c>
+      <c r="P67" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>197</v>
+      </c>
+      <c r="R67" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="S67" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="T67" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="U67" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="V67" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="W67" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="X67" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y67" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z67" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="O68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="P68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="S68" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="M67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="N67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="O67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="P67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q67" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="R67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="S67" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="T67" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="U67" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="V67" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="W67" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="X67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y67" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="Z67" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="M68" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="N68" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="O68" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="S68" s="16" t="s">
-        <v>420</v>
-      </c>
       <c r="T68" s="16" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="U68" s="16" t="s">
-        <v>420</v>
+        <v>408</v>
+      </c>
+      <c r="V68" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="W68" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z68" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="M69" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="N69" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="O69" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="P69" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="S69" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="T69" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="U69" s="16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="G70" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="H70" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="I70" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="D69" s="16" t="s">
+      <c r="J70" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="E69" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="G69" s="16" t="s">
+      <c r="K70" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="H69" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="I69" s="16" t="s">
+      <c r="L70" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="M70" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="N70" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="O70" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="J69" s="16" t="s">
+      <c r="P70" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q70" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="R70" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="S70" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="K69" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="L69" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="M69" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="N69" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="O69" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="P69" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q69" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="R69" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="S69" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="T69" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="U69" s="16" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B70" t="s">
-        <v>431</v>
-      </c>
-      <c r="C70" t="s">
-        <v>432</v>
-      </c>
-      <c r="D70" t="s">
-        <v>433</v>
-      </c>
-      <c r="E70" t="s">
-        <v>434</v>
-      </c>
-      <c r="F70" t="s">
-        <v>435</v>
-      </c>
-      <c r="G70" t="s">
-        <v>436</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="K70" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="L70" t="s">
-        <v>441</v>
-      </c>
-      <c r="M70" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="N70" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="O70" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="P70" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>446</v>
-      </c>
-      <c r="S70" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="T70" s="20" t="s">
-        <v>448</v>
+      <c r="T70" s="16" t="s">
+        <v>426</v>
       </c>
       <c r="U70" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="W70" t="s">
-        <v>450</v>
-      </c>
-      <c r="X70" t="s">
-        <v>451</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>452</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B71">
-        <v>0.37862000000000001</v>
-      </c>
-      <c r="C71">
-        <v>0.33854000000000001</v>
-      </c>
-      <c r="D71">
-        <v>0.79107000000000005</v>
-      </c>
-      <c r="E71">
-        <v>0.22026000000000001</v>
-      </c>
-      <c r="F71">
-        <v>0.23313999999999999</v>
-      </c>
-      <c r="G71">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="H71">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="I71">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="J71">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="K71">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="L71">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="M71">
-        <v>0.13</v>
-      </c>
-      <c r="N71">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="O71">
-        <v>0.5</v>
-      </c>
-      <c r="P71">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="Q71">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="R71">
-        <v>0.79</v>
+        <v>427</v>
+      </c>
+      <c r="B71" t="s">
+        <v>428</v>
+      </c>
+      <c r="C71" t="s">
+        <v>429</v>
+      </c>
+      <c r="D71" t="s">
+        <v>430</v>
+      </c>
+      <c r="E71" t="s">
+        <v>431</v>
+      </c>
+      <c r="F71" t="s">
+        <v>432</v>
+      </c>
+      <c r="G71" t="s">
+        <v>433</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="L71" t="s">
+        <v>438</v>
+      </c>
+      <c r="M71" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="N71" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="O71" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="P71" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>443</v>
       </c>
       <c r="S71" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="T71">
-        <v>0.15443999999999999</v>
-      </c>
-      <c r="U71">
-        <v>3.8949999999999999E-2</v>
-      </c>
-      <c r="Y71">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="Z71">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="AA71">
-        <v>1.1820000000000001E-2</v>
+        <v>444</v>
+      </c>
+      <c r="T71" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="U71" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="W71" t="s">
+        <v>447</v>
+      </c>
+      <c r="X71" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B72">
+        <v>0.37862000000000001</v>
+      </c>
+      <c r="C72">
+        <v>0.33854000000000001</v>
+      </c>
+      <c r="D72">
+        <v>0.79107000000000005</v>
+      </c>
+      <c r="E72">
+        <v>0.22026000000000001</v>
+      </c>
+      <c r="F72">
+        <v>0.23313999999999999</v>
+      </c>
+      <c r="G72">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H72">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I72">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="J72">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="K72">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="L72">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="M72">
+        <v>0.13</v>
+      </c>
+      <c r="N72">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="O72">
+        <v>0.5</v>
+      </c>
+      <c r="P72">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="Q72">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="R72">
+        <v>0.79</v>
+      </c>
+      <c r="S72" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="T72">
+        <v>0.15443999999999999</v>
+      </c>
+      <c r="U72">
+        <v>3.8949999999999999E-2</v>
+      </c>
+      <c r="Y72">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="Z72">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="AA72">
+        <v>1.1820000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B73">
         <v>1.5</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>0.7</v>
       </c>
-      <c r="D72">
+      <c r="D73">
         <v>0.25</v>
       </c>
-      <c r="E72">
+      <c r="E73">
         <v>0.4</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <v>3</v>
       </c>
-      <c r="G72">
+      <c r="G73">
         <v>12</v>
       </c>
-      <c r="H72">
+      <c r="H73">
         <v>87</v>
       </c>
-      <c r="I72">
+      <c r="I73">
         <v>38</v>
       </c>
-      <c r="J72">
+      <c r="J73">
         <v>27</v>
       </c>
-      <c r="K72">
+      <c r="K73">
         <v>0.15</v>
       </c>
-      <c r="L72">
+      <c r="L73">
         <v>0.9</v>
       </c>
-      <c r="M72">
+      <c r="M73">
         <v>0.51</v>
       </c>
-      <c r="N72">
+      <c r="N73">
         <v>0.08</v>
       </c>
-      <c r="O72">
+      <c r="O73">
         <v>1.6</v>
       </c>
-      <c r="P72">
+      <c r="P73">
         <v>0.79</v>
       </c>
-      <c r="Q72">
+      <c r="Q73">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R72">
+      <c r="R73">
         <v>0.41</v>
       </c>
-      <c r="S72" s="15">
+      <c r="S73" s="15">
         <v>4.3</v>
       </c>
-      <c r="T72">
+      <c r="T73">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U72">
+      <c r="U73">
         <v>1</v>
       </c>
-      <c r="V72">
+      <c r="V73">
         <v>1.8</v>
       </c>
-      <c r="W72">
+      <c r="W73">
         <v>5.2</v>
       </c>
-      <c r="X72">
+      <c r="X73">
         <v>0.59</v>
       </c>
-      <c r="Y72">
+      <c r="Y73">
         <v>0.3</v>
       </c>
-      <c r="Z72">
+      <c r="Z73">
         <v>0.66</v>
       </c>
-      <c r="AA72">
+      <c r="AA73">
         <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B73">
-        <v>1.804</v>
-      </c>
-      <c r="C73">
-        <v>1.9419999999999999</v>
-      </c>
-      <c r="D73">
-        <v>1.4490000000000001</v>
-      </c>
-      <c r="E73">
-        <v>1.651</v>
-      </c>
-      <c r="F73">
-        <v>1.8360000000000001</v>
-      </c>
-      <c r="G73">
-        <v>1.389</v>
-      </c>
-      <c r="H73">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="I73">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="J73">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="K73">
-        <v>1.196</v>
-      </c>
-      <c r="L73">
-        <v>1.1140000000000001</v>
-      </c>
-      <c r="Q73">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="S73">
-        <v>3.4790000000000001</v>
-      </c>
-      <c r="T73">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="U73">
-        <v>1.857</v>
-      </c>
-      <c r="W73">
-        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B74">
-        <v>0.36799999999999999</v>
+        <v>1.804</v>
       </c>
       <c r="C74">
-        <v>0.26400000000000001</v>
+        <v>1.9419999999999999</v>
       </c>
       <c r="D74">
-        <v>0.19700000000000001</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="E74">
-        <v>0.23300000000000001</v>
+        <v>1.651</v>
       </c>
       <c r="F74">
-        <v>0.26100000000000001</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="G74">
-        <v>0.25800000000000001</v>
+        <v>1.389</v>
       </c>
       <c r="H74">
-        <v>8.5000000000000006E-2</v>
+        <v>1.1479999999999999</v>
       </c>
       <c r="I74">
-        <v>7.6999999999999999E-2</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="J74">
-        <v>0.1</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="K74">
-        <v>0.153</v>
+        <v>1.196</v>
       </c>
       <c r="L74">
-        <v>8.3000000000000004E-2</v>
+        <v>1.1140000000000001</v>
       </c>
       <c r="Q74">
-        <v>0.13700000000000001</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="S74">
-        <v>0.14799999999999999</v>
+        <v>3.4790000000000001</v>
       </c>
       <c r="T74">
-        <v>0.33900000000000002</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="U74">
-        <v>0.216</v>
+        <v>1.857</v>
       </c>
       <c r="W74">
-        <v>7.9000000000000001E-2</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B75">
-        <v>6.6000000000000003E-2</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="C75">
-        <v>9.7000000000000003E-2</v>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D75">
+        <v>0.19700000000000001</v>
       </c>
       <c r="E75">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F75">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G75">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H75">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I75">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F75">
-        <v>5.3999999999999999E-2</v>
+      <c r="J75">
+        <v>0.1</v>
+      </c>
+      <c r="K75">
+        <v>0.153</v>
       </c>
       <c r="L75">
-        <v>3.5000000000000003E-2</v>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="Q75">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="S75">
+        <v>0.14799999999999999</v>
       </c>
       <c r="T75">
-        <v>0.106</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="U75">
-        <v>7.0000000000000007E-2</v>
+        <v>0.216</v>
       </c>
       <c r="W75">
-        <v>1.7000000000000001E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B76">
-        <v>0.90300000000000002</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C76">
-        <v>1.5329999999999999</v>
-      </c>
-      <c r="D76">
-        <v>0.94599999999999995</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="E76">
-        <v>0.86799999999999999</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="F76">
-        <v>0.81</v>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="L76">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="T76">
-        <v>1.754</v>
+        <v>0.106</v>
       </c>
       <c r="U76">
-        <v>1.0529999999999999</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W76">
-        <v>0.81299999999999994</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
+      </c>
+      <c r="B77">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="C77">
+        <v>1.5329999999999999</v>
       </c>
       <c r="D77">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="E77">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="F77">
+        <v>0.81</v>
+      </c>
+      <c r="T77">
+        <v>1.754</v>
+      </c>
+      <c r="U77">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="W77">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D78">
         <f>240.49/D9</f>
         <v>61.822622107969153</v>
       </c>
-      <c r="H77">
+      <c r="H78">
         <f>535/H9</f>
         <v>82.434514637904471</v>
       </c>
-      <c r="K77">
+      <c r="K78">
         <f>374/Q9</f>
         <v>72.200772200772207</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B78" t="s">
-        <v>462</v>
-      </c>
-      <c r="C78" t="s">
-        <v>462</v>
-      </c>
-      <c r="D78" t="s">
-        <v>462</v>
-      </c>
-      <c r="E78" t="s">
-        <v>462</v>
-      </c>
-      <c r="F78" t="s">
-        <v>463</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="J78" t="s">
-        <v>466</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="P78" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="U78" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="B79" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="C79" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="D79" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="E79" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="F79" t="s">
-        <v>477</v>
-      </c>
-      <c r="G79" t="s">
-        <v>481</v>
-      </c>
-      <c r="H79" t="s">
-        <v>482</v>
-      </c>
-      <c r="I79" t="s">
-        <v>483</v>
+        <v>460</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="J79" t="s">
-        <v>484</v>
-      </c>
-      <c r="K79" t="s">
-        <v>485</v>
-      </c>
-      <c r="L79" t="s">
-        <v>486</v>
-      </c>
-      <c r="M79" t="s">
-        <v>478</v>
-      </c>
-      <c r="N79" t="s">
-        <v>477</v>
-      </c>
-      <c r="O79" t="s">
-        <v>487</v>
+        <v>463</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="P79" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>486</v>
-      </c>
-      <c r="R79" t="s">
-        <v>480</v>
-      </c>
-      <c r="S79" t="s">
-        <v>488</v>
-      </c>
-      <c r="T79" t="s">
-        <v>489</v>
-      </c>
-      <c r="U79" t="s">
-        <v>490</v>
+        <v>468</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>491</v>
+        <v>473</v>
+      </c>
+      <c r="B80" t="s">
+        <v>474</v>
+      </c>
+      <c r="C80" t="s">
+        <v>475</v>
+      </c>
+      <c r="D80" t="s">
+        <v>476</v>
+      </c>
+      <c r="E80" t="s">
+        <v>477</v>
+      </c>
+      <c r="F80" t="s">
+        <v>474</v>
+      </c>
+      <c r="G80" t="s">
+        <v>478</v>
+      </c>
+      <c r="H80" t="s">
+        <v>479</v>
+      </c>
+      <c r="I80" t="s">
+        <v>480</v>
+      </c>
+      <c r="J80" t="s">
+        <v>481</v>
+      </c>
+      <c r="K80" t="s">
+        <v>482</v>
+      </c>
+      <c r="L80" t="s">
+        <v>483</v>
+      </c>
+      <c r="M80" t="s">
+        <v>475</v>
+      </c>
+      <c r="N80" t="s">
+        <v>474</v>
+      </c>
+      <c r="O80" t="s">
+        <v>484</v>
+      </c>
+      <c r="P80" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>483</v>
+      </c>
+      <c r="R80" t="s">
+        <v>477</v>
       </c>
       <c r="S80" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="T80" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="U80" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="S81" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
+      </c>
+      <c r="S81" t="s">
+        <v>489</v>
+      </c>
+      <c r="T81" t="s">
+        <v>490</v>
+      </c>
+      <c r="U81" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B82" t="s">
-        <v>498</v>
-      </c>
-      <c r="C82" t="s">
-        <v>498</v>
-      </c>
-      <c r="D82" t="s">
-        <v>498</v>
-      </c>
-      <c r="E82" t="s">
-        <v>498</v>
-      </c>
-      <c r="F82" t="s">
-        <v>498</v>
-      </c>
-      <c r="G82" t="s">
-        <v>499</v>
-      </c>
-      <c r="H82" t="s">
-        <v>500</v>
-      </c>
-      <c r="I82" t="s">
-        <v>501</v>
-      </c>
-      <c r="J82" t="s">
-        <v>502</v>
-      </c>
-      <c r="S82" t="s">
-        <v>503</v>
-      </c>
-      <c r="T82" t="s">
-        <v>498</v>
-      </c>
-      <c r="U82" t="s">
-        <v>498</v>
+        <v>492</v>
+      </c>
+      <c r="S82" s="7" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>505</v>
+        <v>494</v>
+      </c>
+      <c r="B83" t="s">
+        <v>495</v>
+      </c>
+      <c r="C83" t="s">
+        <v>495</v>
+      </c>
+      <c r="D83" t="s">
+        <v>495</v>
+      </c>
+      <c r="E83" t="s">
+        <v>495</v>
+      </c>
+      <c r="F83" t="s">
+        <v>495</v>
+      </c>
+      <c r="G83" t="s">
+        <v>496</v>
+      </c>
+      <c r="H83" t="s">
+        <v>497</v>
+      </c>
+      <c r="I83" t="s">
+        <v>498</v>
+      </c>
+      <c r="J83" t="s">
+        <v>499</v>
       </c>
       <c r="S83" t="s">
-        <v>506</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
+      </c>
+      <c r="T83" t="s">
+        <v>495</v>
       </c>
       <c r="U83" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="F84" t="s">
-        <v>510</v>
-      </c>
-      <c r="I84" t="s">
-        <v>511</v>
+        <v>501</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="S84" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="U84" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
+      </c>
+      <c r="F85" t="s">
+        <v>507</v>
+      </c>
+      <c r="I85" t="s">
+        <v>508</v>
       </c>
       <c r="S85" t="s">
-        <v>515</v>
+        <v>509</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="U85" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="S86" s="21" t="s">
-        <v>517</v>
+        <v>511</v>
+      </c>
+      <c r="S86" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="S87" t="s">
-        <v>519</v>
+        <v>513</v>
+      </c>
+      <c r="S87" s="21" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C88" t="s">
-        <v>521</v>
-      </c>
-      <c r="D88" t="s">
-        <v>522</v>
-      </c>
-      <c r="E88" t="s">
-        <v>523</v>
-      </c>
-      <c r="F88" t="s">
-        <v>524</v>
-      </c>
-      <c r="G88" t="s">
-        <v>525</v>
-      </c>
-      <c r="H88" t="s">
-        <v>526</v>
-      </c>
-      <c r="I88" t="s">
-        <v>527</v>
-      </c>
-      <c r="J88" t="s">
-        <v>528</v>
-      </c>
-      <c r="K88" t="s">
-        <v>529</v>
-      </c>
-      <c r="L88" t="s">
-        <v>530</v>
-      </c>
-      <c r="M88" t="s">
-        <v>531</v>
-      </c>
-      <c r="N88" t="s">
-        <v>532</v>
-      </c>
-      <c r="O88" t="s">
-        <v>533</v>
-      </c>
-      <c r="P88" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>535</v>
-      </c>
-      <c r="R88" t="s">
-        <v>536</v>
+      <c r="A88" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="S88" t="s">
-        <v>537</v>
-      </c>
-      <c r="T88" t="s">
-        <v>538</v>
-      </c>
-      <c r="U88" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="C89" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="D89" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="E89" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="F89" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="G89" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="H89" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="I89" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="J89" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="K89" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="L89" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="M89" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="N89" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="O89" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="P89" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="Q89" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="R89" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="S89" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="T89" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="U89" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="C90" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="D90" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="E90" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="F90" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="G90" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="H90" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="I90" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="J90" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="K90" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="L90" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="M90" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="N90" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="O90" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="P90" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>552</v>
+      </c>
+      <c r="R90" t="s">
+        <v>553</v>
+      </c>
+      <c r="S90" t="s">
         <v>554</v>
       </c>
-      <c r="Q90" t="s">
-        <v>574</v>
-      </c>
-      <c r="R90" t="s">
-        <v>575</v>
-      </c>
-      <c r="S90" t="s">
-        <v>576</v>
-      </c>
       <c r="T90" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="U90" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="C91" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="D91" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="E91" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="F91" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="G91" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="H91" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="I91" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="J91" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="K91" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="L91" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="M91" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="N91" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="O91" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="P91" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="Q91" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="R91" t="s">
-        <v>595</v>
-      </c>
-      <c r="S91" s="22" t="s">
-        <v>596</v>
+        <v>572</v>
+      </c>
+      <c r="S91" t="s">
+        <v>573</v>
       </c>
       <c r="T91" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="U91" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="C92" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="D92" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="E92" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="F92" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="G92" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
       <c r="H92" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="I92" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="J92" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="K92" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="L92" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="M92" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="N92" t="s">
-        <v>611</v>
+        <v>588</v>
+      </c>
+      <c r="O92" t="s">
+        <v>589</v>
       </c>
       <c r="P92" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="Q92" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="R92" t="s">
-        <v>614</v>
+        <v>592</v>
+      </c>
+      <c r="S92" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="T92" t="s">
+        <v>594</v>
       </c>
       <c r="U92" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="C93" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="D93" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="E93" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="F93" t="s">
-        <v>620</v>
+        <v>600</v>
+      </c>
+      <c r="G93" t="s">
+        <v>601</v>
       </c>
       <c r="H93" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="I93" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="J93" t="s">
-        <v>623</v>
+        <v>604</v>
+      </c>
+      <c r="K93" t="s">
+        <v>605</v>
       </c>
       <c r="L93" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="M93" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="N93" t="s">
-        <v>626</v>
+        <v>608</v>
+      </c>
+      <c r="P93" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>610</v>
       </c>
       <c r="R93" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="U93" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C94" t="s">
-        <v>630</v>
+        <v>614</v>
+      </c>
+      <c r="D94" t="s">
+        <v>615</v>
       </c>
       <c r="E94" t="s">
-        <v>631</v>
+        <v>616</v>
+      </c>
+      <c r="F94" t="s">
+        <v>617</v>
       </c>
       <c r="H94" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="I94" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="J94" t="s">
-        <v>634</v>
+        <v>620</v>
+      </c>
+      <c r="L94" t="s">
+        <v>621</v>
       </c>
       <c r="M94" t="s">
-        <v>635</v>
+        <v>622</v>
+      </c>
+      <c r="N94" t="s">
+        <v>623</v>
       </c>
       <c r="R94" t="s">
-        <v>636</v>
+        <v>624</v>
+      </c>
+      <c r="U94" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>637</v>
+        <v>626</v>
+      </c>
+      <c r="C95" t="s">
+        <v>627</v>
       </c>
       <c r="E95" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="H95" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="I95" t="s">
-        <v>640</v>
+        <v>630</v>
+      </c>
+      <c r="J95" t="s">
+        <v>631</v>
+      </c>
+      <c r="M95" t="s">
+        <v>632</v>
       </c>
       <c r="R95" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="E96" t="s">
-        <v>643</v>
+        <v>635</v>
+      </c>
+      <c r="H96" t="s">
+        <v>636</v>
       </c>
       <c r="I96" t="s">
-        <v>644</v>
+        <v>637</v>
+      </c>
+      <c r="R96" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E97" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="I97" t="s">
-        <v>585</v>
-      </c>
-      <c r="J97" t="s">
-        <v>585</v>
+        <v>641</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="S98" t="s">
-        <v>648</v>
+        <v>642</v>
+      </c>
+      <c r="E98" t="s">
+        <v>643</v>
+      </c>
+      <c r="I98" t="s">
+        <v>582</v>
+      </c>
+      <c r="J98" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="S99" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="S100" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="S101" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B102" t="s">
+        <v>651</v>
+      </c>
+      <c r="C102" t="s">
+        <v>651</v>
+      </c>
+      <c r="D102" t="s">
+        <v>651</v>
+      </c>
+      <c r="E102" t="s">
+        <v>651</v>
+      </c>
+      <c r="F102" t="s">
+        <v>651</v>
+      </c>
+      <c r="G102" t="s">
+        <v>651</v>
+      </c>
+      <c r="I102" t="s">
+        <v>651</v>
+      </c>
+      <c r="J102" t="s">
+        <v>651</v>
+      </c>
+      <c r="K102" t="s">
+        <v>651</v>
+      </c>
+      <c r="N102" t="s">
+        <v>652</v>
+      </c>
+      <c r="S102" t="s">
         <v>653</v>
       </c>
-      <c r="B101" t="s">
-        <v>654</v>
-      </c>
-      <c r="C101" t="s">
-        <v>654</v>
-      </c>
-      <c r="D101" t="s">
-        <v>654</v>
-      </c>
-      <c r="E101" t="s">
-        <v>654</v>
-      </c>
-      <c r="F101" t="s">
-        <v>654</v>
-      </c>
-      <c r="G101" t="s">
-        <v>654</v>
-      </c>
-      <c r="I101" t="s">
-        <v>654</v>
-      </c>
-      <c r="J101" t="s">
-        <v>654</v>
-      </c>
-      <c r="K101" t="s">
-        <v>654</v>
-      </c>
-      <c r="N101" t="s">
-        <v>655</v>
-      </c>
-      <c r="S101" t="s">
-        <v>656</v>
-      </c>
-      <c r="T101" t="s">
-        <v>654</v>
-      </c>
-      <c r="U101" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A102" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="B102" t="s">
-        <v>658</v>
-      </c>
-      <c r="C102" t="s">
-        <v>658</v>
-      </c>
-      <c r="D102" t="s">
-        <v>658</v>
-      </c>
-      <c r="E102" t="s">
-        <v>658</v>
-      </c>
-      <c r="F102" t="s">
-        <v>658</v>
-      </c>
-      <c r="G102" t="s">
-        <v>658</v>
-      </c>
-      <c r="H102" t="s">
-        <v>658</v>
-      </c>
-      <c r="I102" t="s">
-        <v>658</v>
-      </c>
-      <c r="J102" t="s">
-        <v>658</v>
-      </c>
-      <c r="K102" t="s">
-        <v>658</v>
-      </c>
-      <c r="L102" t="s">
-        <v>658</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>658</v>
-      </c>
-      <c r="S102" t="s">
-        <v>659</v>
-      </c>
       <c r="T102" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="U102" t="s">
-        <v>658</v>
-      </c>
-      <c r="W102" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="G103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="H103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="I103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="J103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="K103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="L103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="Q103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="S103" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="T103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="U103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="W103" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B104" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C104" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D104" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E104" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F104" t="s">
-        <v>664</v>
+        <v>658</v>
+      </c>
+      <c r="G104" t="s">
+        <v>658</v>
+      </c>
+      <c r="H104" t="s">
+        <v>658</v>
+      </c>
+      <c r="I104" t="s">
+        <v>658</v>
+      </c>
+      <c r="J104" t="s">
+        <v>658</v>
+      </c>
+      <c r="K104" t="s">
+        <v>658</v>
+      </c>
+      <c r="L104" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>658</v>
+      </c>
+      <c r="S104" t="s">
+        <v>659</v>
       </c>
       <c r="T104" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="U104" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="W104" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B105" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C105" t="s">
-        <v>666</v>
+        <v>661</v>
+      </c>
+      <c r="D105" t="s">
+        <v>661</v>
       </c>
       <c r="E105" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F105" t="s">
-        <v>666</v>
-      </c>
-      <c r="L105" t="s">
-        <v>666</v>
-      </c>
-      <c r="S105" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="T105" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="U105" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W105" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="B106" t="s">
+        <v>663</v>
+      </c>
+      <c r="C106" t="s">
+        <v>663</v>
+      </c>
+      <c r="E106" t="s">
+        <v>663</v>
+      </c>
+      <c r="F106" t="s">
+        <v>663</v>
+      </c>
+      <c r="L106" t="s">
+        <v>663</v>
+      </c>
+      <c r="S106" t="s">
+        <v>664</v>
+      </c>
+      <c r="T106" t="s">
+        <v>663</v>
+      </c>
+      <c r="U106" t="s">
+        <v>663</v>
+      </c>
+      <c r="W106" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A107" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D107" t="s">
+        <v>666</v>
+      </c>
+      <c r="H107" t="s">
+        <v>667</v>
+      </c>
+      <c r="K107" t="s">
         <v>668</v>
-      </c>
-      <c r="D106" t="s">
-        <v>669</v>
-      </c>
-      <c r="H106" t="s">
-        <v>670</v>
-      </c>
-      <c r="K106" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="S107" t="s">
-        <v>673</v>
-      </c>
-      <c r="T107" t="s">
-        <v>674</v>
-      </c>
-      <c r="U107" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="S108" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="T108" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="U108" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="S109" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="T109" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="U109" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>684</v>
+        <v>677</v>
+      </c>
+      <c r="S110" t="s">
+        <v>678</v>
+      </c>
+      <c r="T110" t="s">
+        <v>679</v>
       </c>
       <c r="U110" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="S111" t="s">
-        <v>687</v>
+        <v>681</v>
+      </c>
+      <c r="U111" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="S112" t="s">
-        <v>689</v>
-      </c>
-      <c r="T112" s="23" t="s">
-        <v>690</v>
-      </c>
-      <c r="U112" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="S113" t="s">
-        <v>693</v>
+        <v>686</v>
+      </c>
+      <c r="T113" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="U113" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="U114" t="s">
-        <v>695</v>
+        <v>689</v>
+      </c>
+      <c r="S114" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B115" t="s">
-        <v>697</v>
-      </c>
-      <c r="C115" t="s">
-        <v>698</v>
-      </c>
-      <c r="D115" t="s">
-        <v>699</v>
-      </c>
-      <c r="E115" t="s">
-        <v>700</v>
-      </c>
-      <c r="F115" t="s">
-        <v>701</v>
-      </c>
-      <c r="G115" t="s">
-        <v>702</v>
-      </c>
-      <c r="I115" t="s">
-        <v>703</v>
-      </c>
-      <c r="J115" t="s">
-        <v>704</v>
-      </c>
-      <c r="K115" s="24" t="s">
-        <v>705</v>
-      </c>
-      <c r="S115" t="s">
-        <v>706</v>
-      </c>
-      <c r="T115" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="U115" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>709</v>
+        <v>693</v>
+      </c>
+      <c r="B116" t="s">
+        <v>694</v>
       </c>
       <c r="C116" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="D116" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="E116" t="s">
-        <v>712</v>
+        <v>697</v>
+      </c>
+      <c r="F116" t="s">
+        <v>698</v>
       </c>
       <c r="G116" t="s">
-        <v>713</v>
-      </c>
-      <c r="H116" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="I116" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="J116" t="s">
-        <v>716</v>
-      </c>
-      <c r="K116" t="s">
-        <v>717</v>
-      </c>
-      <c r="N116" t="s">
-        <v>718</v>
-      </c>
-      <c r="O116" t="s">
-        <v>719</v>
-      </c>
-      <c r="P116" t="s">
-        <v>720</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>721</v>
+        <v>701</v>
+      </c>
+      <c r="K116" s="24" t="s">
+        <v>702</v>
+      </c>
+      <c r="S116" t="s">
+        <v>703</v>
       </c>
       <c r="T116" t="s">
-        <v>722</v>
+        <v>704</v>
+      </c>
+      <c r="U116" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="S117" t="s">
-        <v>724</v>
+        <v>706</v>
+      </c>
+      <c r="C117" t="s">
+        <v>707</v>
+      </c>
+      <c r="D117" t="s">
+        <v>708</v>
+      </c>
+      <c r="E117" t="s">
+        <v>709</v>
+      </c>
+      <c r="G117" t="s">
+        <v>710</v>
+      </c>
+      <c r="H117" t="s">
+        <v>711</v>
+      </c>
+      <c r="I117" t="s">
+        <v>712</v>
+      </c>
+      <c r="J117" t="s">
+        <v>713</v>
+      </c>
+      <c r="K117" t="s">
+        <v>714</v>
+      </c>
+      <c r="N117" t="s">
+        <v>715</v>
+      </c>
+      <c r="O117" t="s">
+        <v>716</v>
+      </c>
+      <c r="P117" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>718</v>
+      </c>
+      <c r="T117" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="B118">
-        <v>7</v>
-      </c>
-      <c r="C118">
-        <v>10</v>
-      </c>
-      <c r="D118">
-        <v>10</v>
-      </c>
-      <c r="E118">
-        <v>10</v>
-      </c>
-      <c r="F118">
-        <v>7</v>
-      </c>
-      <c r="G118">
-        <v>7</v>
-      </c>
-      <c r="J118">
-        <v>7</v>
-      </c>
-      <c r="K118">
-        <v>10</v>
+        <v>720</v>
+      </c>
+      <c r="S118" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B119">
-        <v>6300</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>6300</v>
+        <v>10</v>
       </c>
       <c r="D119">
-        <v>6300</v>
+        <v>10</v>
       </c>
       <c r="E119">
-        <v>6300</v>
+        <v>10</v>
       </c>
       <c r="F119">
-        <v>6300</v>
+        <v>7</v>
       </c>
       <c r="G119">
-        <v>6300</v>
-      </c>
-      <c r="H119">
-        <v>6000</v>
+        <v>7</v>
       </c>
       <c r="J119">
-        <v>6300</v>
+        <v>7</v>
       </c>
       <c r="K119">
-        <v>6300</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B120">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="C120">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="D120">
-        <v>8000</v>
+        <v>6300</v>
       </c>
       <c r="E120">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="F120">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="G120">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="H120">
-        <v>6500</v>
-      </c>
-      <c r="I120">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="J120">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="K120">
-        <v>6500</v>
-      </c>
-      <c r="L120">
-        <v>6500</v>
-      </c>
-      <c r="M120">
-        <v>6500</v>
-      </c>
-      <c r="N120">
-        <v>6500</v>
-      </c>
-      <c r="O120">
-        <v>6500</v>
-      </c>
-      <c r="P120">
-        <v>8000</v>
-      </c>
-      <c r="Q120">
-        <v>6500</v>
-      </c>
-      <c r="R120">
-        <v>6500</v>
-      </c>
-      <c r="V120">
-        <v>15000</v>
-      </c>
-      <c r="X120">
-        <v>9000</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="S121" t="s">
-        <v>729</v>
-      </c>
-      <c r="T121" t="s">
-        <v>730</v>
-      </c>
-      <c r="U121" t="s">
-        <v>731</v>
+        <v>724</v>
+      </c>
+      <c r="B121">
+        <v>6500</v>
+      </c>
+      <c r="C121">
+        <v>6500</v>
+      </c>
+      <c r="D121">
+        <v>8000</v>
+      </c>
+      <c r="E121">
+        <v>6500</v>
+      </c>
+      <c r="F121">
+        <v>6500</v>
+      </c>
+      <c r="G121">
+        <v>6500</v>
+      </c>
+      <c r="H121">
+        <v>6500</v>
+      </c>
+      <c r="I121">
+        <v>6500</v>
+      </c>
+      <c r="J121">
+        <v>6500</v>
+      </c>
+      <c r="K121">
+        <v>6500</v>
+      </c>
+      <c r="L121">
+        <v>6500</v>
+      </c>
+      <c r="M121">
+        <v>6500</v>
+      </c>
+      <c r="N121">
+        <v>6500</v>
+      </c>
+      <c r="O121">
+        <v>6500</v>
+      </c>
+      <c r="P121">
+        <v>8000</v>
+      </c>
+      <c r="Q121">
+        <v>6500</v>
+      </c>
+      <c r="R121">
+        <v>6500</v>
+      </c>
+      <c r="V121">
+        <v>15000</v>
+      </c>
+      <c r="X121">
+        <v>9000</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="S122" t="s">
+        <v>726</v>
+      </c>
+      <c r="T122" t="s">
+        <v>727</v>
+      </c>
+      <c r="U122" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="S123" t="s">
+        <v>730</v>
+      </c>
+      <c r="T123" t="s">
+        <v>731</v>
+      </c>
+      <c r="U123" t="s">
         <v>732</v>
-      </c>
-      <c r="S122" t="s">
-        <v>733</v>
-      </c>
-      <c r="T122" t="s">
-        <v>734</v>
-      </c>
-      <c r="U122" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A124" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="B124" t="s">
-        <v>28</v>
-      </c>
-      <c r="C124" t="s">
-        <v>28</v>
-      </c>
-      <c r="D124" t="s">
-        <v>28</v>
-      </c>
-      <c r="E124" t="s">
-        <v>28</v>
-      </c>
-      <c r="F124" t="s">
-        <v>28</v>
-      </c>
-      <c r="G124" t="s">
-        <v>28</v>
-      </c>
-      <c r="H124" t="s">
-        <v>28</v>
-      </c>
-      <c r="I124" t="s">
-        <v>28</v>
-      </c>
-      <c r="J124" t="s">
-        <v>28</v>
-      </c>
-      <c r="K124" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B125" t="s">
         <v>28</v>
@@ -8963,85 +8975,94 @@
       <c r="C125" t="s">
         <v>28</v>
       </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
       <c r="E125" t="s">
         <v>28</v>
       </c>
       <c r="F125" t="s">
+        <v>28</v>
+      </c>
+      <c r="G125" t="s">
+        <v>28</v>
+      </c>
+      <c r="H125" t="s">
+        <v>28</v>
+      </c>
+      <c r="I125" t="s">
+        <v>28</v>
+      </c>
+      <c r="J125" t="s">
+        <v>28</v>
+      </c>
+      <c r="K125" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="S126" t="s">
-        <v>28</v>
-      </c>
-      <c r="T126" t="s">
-        <v>28</v>
-      </c>
-      <c r="U126" t="s">
+        <v>734</v>
+      </c>
+      <c r="B126" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="C127" t="s">
-        <v>740</v>
-      </c>
-      <c r="D127" t="s">
-        <v>740</v>
-      </c>
-      <c r="E127" t="s">
-        <v>740</v>
-      </c>
-      <c r="G127" t="s">
-        <v>741</v>
-      </c>
-      <c r="H127" t="s">
-        <v>740</v>
-      </c>
-      <c r="I127" t="s">
-        <v>740</v>
-      </c>
-      <c r="J127" t="s">
-        <v>740</v>
-      </c>
-      <c r="K127" t="s">
-        <v>740</v>
+        <v>735</v>
+      </c>
+      <c r="S127" t="s">
+        <v>28</v>
+      </c>
+      <c r="T127" t="s">
+        <v>28</v>
+      </c>
+      <c r="U127" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>742</v>
+        <v>736</v>
+      </c>
+      <c r="C128" t="s">
+        <v>737</v>
+      </c>
+      <c r="D128" t="s">
+        <v>737</v>
+      </c>
+      <c r="E128" t="s">
+        <v>737</v>
+      </c>
+      <c r="G128" t="s">
+        <v>738</v>
+      </c>
+      <c r="H128" t="s">
+        <v>737</v>
+      </c>
+      <c r="I128" t="s">
+        <v>737</v>
+      </c>
+      <c r="J128" t="s">
+        <v>737</v>
       </c>
       <c r="K128" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="B129" t="s">
-        <v>740</v>
-      </c>
-      <c r="C129" t="s">
-        <v>745</v>
-      </c>
-      <c r="E129" t="s">
-        <v>740</v>
-      </c>
-      <c r="H129" t="s">
-        <v>740</v>
-      </c>
-      <c r="I129" t="s">
-        <v>740</v>
-      </c>
-      <c r="J129" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K129" t="s">
         <v>740</v>
@@ -9049,26 +9070,35 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="G130" t="s">
-        <v>743</v>
+        <v>741</v>
+      </c>
+      <c r="B130" t="s">
+        <v>737</v>
+      </c>
+      <c r="C130" t="s">
+        <v>742</v>
+      </c>
+      <c r="E130" t="s">
+        <v>737</v>
+      </c>
+      <c r="H130" t="s">
+        <v>737</v>
       </c>
       <c r="I130" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="J130" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="K130" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="H131" t="s">
+        <v>743</v>
+      </c>
+      <c r="G131" t="s">
         <v>740</v>
       </c>
       <c r="I131" t="s">
@@ -9083,95 +9113,80 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H132" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I132" t="s">
-        <v>745</v>
+        <v>737</v>
+      </c>
+      <c r="J132" t="s">
+        <v>737</v>
+      </c>
+      <c r="K132" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="H133" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I133" t="s">
-        <v>740</v>
-      </c>
-      <c r="J133" t="s">
-        <v>740</v>
-      </c>
-      <c r="K133" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
+      </c>
+      <c r="H134" t="s">
+        <v>737</v>
       </c>
       <c r="I134" t="s">
-        <v>743</v>
+        <v>737</v>
+      </c>
+      <c r="J134" t="s">
+        <v>737</v>
       </c>
       <c r="K134" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="H135" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="I135" t="s">
         <v>740</v>
       </c>
-      <c r="J135" t="s">
-        <v>740</v>
-      </c>
       <c r="K135" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="B136" t="s">
-        <v>55</v>
-      </c>
-      <c r="C136" t="s">
-        <v>55</v>
-      </c>
-      <c r="D136" t="s">
-        <v>55</v>
-      </c>
-      <c r="E136" t="s">
-        <v>55</v>
-      </c>
-      <c r="F136" t="s">
-        <v>55</v>
-      </c>
-      <c r="G136" t="s">
-        <v>55</v>
+        <v>748</v>
       </c>
       <c r="H136" t="s">
-        <v>55</v>
+        <v>737</v>
       </c>
       <c r="I136" t="s">
-        <v>55</v>
+        <v>737</v>
+      </c>
+      <c r="J136" t="s">
+        <v>737</v>
       </c>
       <c r="K136" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B137" t="s">
         <v>55</v>
@@ -9194,150 +9209,162 @@
       <c r="H137" t="s">
         <v>55</v>
       </c>
+      <c r="I137" t="s">
+        <v>55</v>
+      </c>
       <c r="K137" t="s">
-        <v>55</v>
+        <v>750</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="I138" t="s">
-        <v>740</v>
-      </c>
-      <c r="J138" t="s">
-        <v>740</v>
+        <v>751</v>
+      </c>
+      <c r="B138" t="s">
+        <v>55</v>
+      </c>
+      <c r="C138" t="s">
+        <v>55</v>
+      </c>
+      <c r="D138" t="s">
+        <v>55</v>
+      </c>
+      <c r="E138" t="s">
+        <v>55</v>
+      </c>
+      <c r="F138" t="s">
+        <v>55</v>
+      </c>
+      <c r="G138" t="s">
+        <v>55</v>
+      </c>
+      <c r="H138" t="s">
+        <v>55</v>
+      </c>
+      <c r="K138" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="I139" t="s">
-        <v>740</v>
+        <v>737</v>
+      </c>
+      <c r="J139" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="H140" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="I140" t="s">
-        <v>740</v>
-      </c>
-      <c r="J140" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>758</v>
+        <v>754</v>
+      </c>
+      <c r="H141" t="s">
+        <v>737</v>
+      </c>
+      <c r="I141" t="s">
+        <v>737</v>
+      </c>
+      <c r="J141" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="I142" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="H143" t="s">
+        <v>756</v>
+      </c>
+      <c r="I143" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="B144" t="s">
-        <v>740</v>
-      </c>
-      <c r="C144" t="s">
-        <v>740</v>
-      </c>
-      <c r="D144" t="s">
-        <v>740</v>
-      </c>
-      <c r="E144" t="s">
-        <v>740</v>
-      </c>
-      <c r="F144" t="s">
-        <v>740</v>
-      </c>
-      <c r="G144" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="H144" t="s">
-        <v>740</v>
-      </c>
-      <c r="I144" t="s">
-        <v>740</v>
-      </c>
-      <c r="J144" t="s">
-        <v>740</v>
-      </c>
-      <c r="K144" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>763</v>
+        <v>758</v>
+      </c>
+      <c r="B145" t="s">
+        <v>737</v>
+      </c>
+      <c r="C145" t="s">
+        <v>737</v>
+      </c>
+      <c r="D145" t="s">
+        <v>737</v>
+      </c>
+      <c r="E145" t="s">
+        <v>737</v>
+      </c>
+      <c r="F145" t="s">
+        <v>737</v>
+      </c>
+      <c r="G145" t="s">
+        <v>759</v>
       </c>
       <c r="H145" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I145" t="s">
-        <v>740</v>
+        <v>737</v>
+      </c>
+      <c r="J145" t="s">
+        <v>737</v>
+      </c>
+      <c r="K145" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="H146" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="I146" t="s">
-        <v>743</v>
-      </c>
-      <c r="J146" t="s">
-        <v>743</v>
-      </c>
-      <c r="K146" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H147" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="I147" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J147" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="K147" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="C148" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="H148" t="s">
         <v>740</v>
@@ -9353,47 +9380,50 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A149" s="1" t="s">
-        <v>767</v>
+      <c r="A149" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C149" t="s">
+        <v>737</v>
+      </c>
+      <c r="H149" t="s">
+        <v>737</v>
       </c>
       <c r="I149" t="s">
-        <v>743</v>
+        <v>737</v>
+      </c>
+      <c r="J149" t="s">
+        <v>737</v>
       </c>
       <c r="K149" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A150" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="A150" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="I150" t="s">
         <v>740</v>
       </c>
-      <c r="H150" t="s">
+      <c r="K150" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="K151" t="s">
-        <v>743</v>
+        <v>765</v>
+      </c>
+      <c r="B151" t="s">
+        <v>737</v>
+      </c>
+      <c r="H151" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="H152" t="s">
-        <v>740</v>
-      </c>
-      <c r="I152" t="s">
-        <v>740</v>
-      </c>
-      <c r="J152" t="s">
-        <v>740</v>
+        <v>766</v>
       </c>
       <c r="K152" t="s">
         <v>740</v>
@@ -9401,106 +9431,124 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
+      </c>
+      <c r="H153" t="s">
+        <v>737</v>
       </c>
       <c r="I153" t="s">
-        <v>743</v>
+        <v>737</v>
+      </c>
+      <c r="J153" t="s">
+        <v>737</v>
+      </c>
+      <c r="K153" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="H154" t="s">
+        <v>768</v>
+      </c>
+      <c r="I154" t="s">
         <v>740</v>
-      </c>
-      <c r="I154" t="s">
-        <v>55</v>
-      </c>
-      <c r="J154" t="s">
-        <v>740</v>
-      </c>
-      <c r="K154" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
+      </c>
+      <c r="H155" t="s">
+        <v>737</v>
+      </c>
+      <c r="I155" t="s">
+        <v>55</v>
+      </c>
+      <c r="J155" t="s">
+        <v>737</v>
+      </c>
+      <c r="K155" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="H158" t="s">
-        <v>740</v>
-      </c>
-      <c r="I158" t="s">
-        <v>740</v>
-      </c>
-      <c r="J158" t="s">
-        <v>740</v>
+        <v>773</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="H159" t="s">
-        <v>740</v>
+        <v>737</v>
+      </c>
+      <c r="I159" t="s">
+        <v>737</v>
+      </c>
+      <c r="J159" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A160" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>762</v>
+      <c r="A160" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="H160" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A161" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="D161" t="s">
-        <v>762</v>
+      <c r="A161" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="K162" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="M162" t="s">
-        <v>740</v>
+        <v>777</v>
+      </c>
+      <c r="D162" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="M163" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="795">
   <si>
     <t>Country</t>
   </si>
@@ -2379,6 +2379,36 @@
   </si>
   <si>
     <t>1, Lviv - Kyiv, 500km</t>
+  </si>
+  <si>
+    <t>Acknowledgments</t>
+  </si>
+  <si>
+    <t>Euiyoung Jung</t>
+  </si>
+  <si>
+    <t>Behrang Shirizade</t>
+  </si>
+  <si>
+    <t>Anna Iakymenko</t>
+  </si>
+  <si>
+    <t>Guadalupe Manzo</t>
+  </si>
+  <si>
+    <t>Purvi Bidasaria</t>
+  </si>
+  <si>
+    <t>Charlotte Wang</t>
+  </si>
+  <si>
+    <t>Tomasz Kosluk</t>
+  </si>
+  <si>
+    <t>Davide Dreon</t>
+  </si>
+  <si>
+    <t>Alice Ghidossi, Dana Weissberg</t>
   </si>
 </sst>
 </file>
@@ -2811,11 +2841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA163"/>
+  <dimension ref="A1:AA164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8723,286 +8753,283 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="B116" t="s">
-        <v>694</v>
-      </c>
-      <c r="C116" t="s">
-        <v>695</v>
+        <v>785</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>793</v>
       </c>
       <c r="D116" t="s">
-        <v>696</v>
-      </c>
-      <c r="E116" t="s">
-        <v>697</v>
-      </c>
-      <c r="F116" t="s">
-        <v>698</v>
-      </c>
-      <c r="G116" t="s">
-        <v>699</v>
+        <v>792</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>791</v>
       </c>
       <c r="I116" t="s">
-        <v>700</v>
-      </c>
-      <c r="J116" t="s">
-        <v>701</v>
-      </c>
-      <c r="K116" s="24" t="s">
-        <v>702</v>
-      </c>
-      <c r="S116" t="s">
-        <v>703</v>
-      </c>
-      <c r="T116" t="s">
-        <v>704</v>
-      </c>
-      <c r="U116" t="s">
-        <v>705</v>
+        <v>790</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="N116" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="O116" t="s">
+        <v>786</v>
+      </c>
+      <c r="P116" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>706</v>
+        <v>693</v>
+      </c>
+      <c r="B117" t="s">
+        <v>694</v>
       </c>
       <c r="C117" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="D117" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="E117" t="s">
-        <v>709</v>
+        <v>697</v>
+      </c>
+      <c r="F117" t="s">
+        <v>698</v>
       </c>
       <c r="G117" t="s">
-        <v>710</v>
-      </c>
-      <c r="H117" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="I117" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="J117" t="s">
-        <v>713</v>
-      </c>
-      <c r="K117" t="s">
-        <v>714</v>
-      </c>
-      <c r="N117" t="s">
-        <v>715</v>
-      </c>
-      <c r="O117" t="s">
-        <v>716</v>
-      </c>
-      <c r="P117" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>718</v>
+        <v>701</v>
+      </c>
+      <c r="K117" s="24" t="s">
+        <v>702</v>
+      </c>
+      <c r="S117" t="s">
+        <v>703</v>
       </c>
       <c r="T117" t="s">
-        <v>719</v>
+        <v>704</v>
+      </c>
+      <c r="U117" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="S118" t="s">
-        <v>721</v>
+        <v>706</v>
+      </c>
+      <c r="C118" t="s">
+        <v>707</v>
+      </c>
+      <c r="D118" t="s">
+        <v>708</v>
+      </c>
+      <c r="E118" t="s">
+        <v>709</v>
+      </c>
+      <c r="G118" t="s">
+        <v>710</v>
+      </c>
+      <c r="H118" t="s">
+        <v>711</v>
+      </c>
+      <c r="I118" t="s">
+        <v>712</v>
+      </c>
+      <c r="J118" t="s">
+        <v>713</v>
+      </c>
+      <c r="K118" t="s">
+        <v>714</v>
+      </c>
+      <c r="N118" t="s">
+        <v>715</v>
+      </c>
+      <c r="O118" t="s">
+        <v>716</v>
+      </c>
+      <c r="P118" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>718</v>
+      </c>
+      <c r="T118" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="B119">
-        <v>7</v>
-      </c>
-      <c r="C119">
-        <v>10</v>
-      </c>
-      <c r="D119">
-        <v>10</v>
-      </c>
-      <c r="E119">
-        <v>10</v>
-      </c>
-      <c r="F119">
-        <v>7</v>
-      </c>
-      <c r="G119">
-        <v>7</v>
-      </c>
-      <c r="J119">
-        <v>7</v>
-      </c>
-      <c r="K119">
-        <v>10</v>
+        <v>720</v>
+      </c>
+      <c r="S119" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B120">
-        <v>6300</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>6300</v>
+        <v>10</v>
       </c>
       <c r="D120">
-        <v>6300</v>
+        <v>10</v>
       </c>
       <c r="E120">
-        <v>6300</v>
+        <v>10</v>
       </c>
       <c r="F120">
-        <v>6300</v>
+        <v>7</v>
       </c>
       <c r="G120">
-        <v>6300</v>
-      </c>
-      <c r="H120">
-        <v>6000</v>
+        <v>7</v>
       </c>
       <c r="J120">
-        <v>6300</v>
+        <v>7</v>
       </c>
       <c r="K120">
-        <v>6300</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B121">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="C121">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="D121">
-        <v>8000</v>
+        <v>6300</v>
       </c>
       <c r="E121">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="F121">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="G121">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="H121">
-        <v>6500</v>
-      </c>
-      <c r="I121">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="J121">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="K121">
-        <v>6500</v>
-      </c>
-      <c r="L121">
-        <v>6500</v>
-      </c>
-      <c r="M121">
-        <v>6500</v>
-      </c>
-      <c r="N121">
-        <v>6500</v>
-      </c>
-      <c r="O121">
-        <v>6500</v>
-      </c>
-      <c r="P121">
-        <v>8000</v>
-      </c>
-      <c r="Q121">
-        <v>6500</v>
-      </c>
-      <c r="R121">
-        <v>6500</v>
-      </c>
-      <c r="V121">
-        <v>15000</v>
-      </c>
-      <c r="X121">
-        <v>9000</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="S122" t="s">
-        <v>726</v>
-      </c>
-      <c r="T122" t="s">
-        <v>727</v>
-      </c>
-      <c r="U122" t="s">
-        <v>728</v>
+        <v>724</v>
+      </c>
+      <c r="B122">
+        <v>6500</v>
+      </c>
+      <c r="C122">
+        <v>6500</v>
+      </c>
+      <c r="D122">
+        <v>8000</v>
+      </c>
+      <c r="E122">
+        <v>6500</v>
+      </c>
+      <c r="F122">
+        <v>6500</v>
+      </c>
+      <c r="G122">
+        <v>6500</v>
+      </c>
+      <c r="H122">
+        <v>6500</v>
+      </c>
+      <c r="I122">
+        <v>6500</v>
+      </c>
+      <c r="J122">
+        <v>6500</v>
+      </c>
+      <c r="K122">
+        <v>6500</v>
+      </c>
+      <c r="L122">
+        <v>6500</v>
+      </c>
+      <c r="M122">
+        <v>6500</v>
+      </c>
+      <c r="N122">
+        <v>6500</v>
+      </c>
+      <c r="O122">
+        <v>6500</v>
+      </c>
+      <c r="P122">
+        <v>8000</v>
+      </c>
+      <c r="Q122">
+        <v>6500</v>
+      </c>
+      <c r="R122">
+        <v>6500</v>
+      </c>
+      <c r="V122">
+        <v>15000</v>
+      </c>
+      <c r="X122">
+        <v>9000</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="S123" t="s">
+        <v>726</v>
+      </c>
+      <c r="T123" t="s">
+        <v>727</v>
+      </c>
+      <c r="U123" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="S123" t="s">
+      <c r="S124" t="s">
         <v>730</v>
       </c>
-      <c r="T123" t="s">
+      <c r="T124" t="s">
         <v>731</v>
       </c>
-      <c r="U123" t="s">
+      <c r="U124" t="s">
         <v>732</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="B125" t="s">
-        <v>28</v>
-      </c>
-      <c r="C125" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" t="s">
-        <v>28</v>
-      </c>
-      <c r="E125" t="s">
-        <v>28</v>
-      </c>
-      <c r="F125" t="s">
-        <v>28</v>
-      </c>
-      <c r="G125" t="s">
-        <v>28</v>
-      </c>
-      <c r="H125" t="s">
-        <v>28</v>
-      </c>
-      <c r="I125" t="s">
-        <v>28</v>
-      </c>
-      <c r="J125" t="s">
-        <v>28</v>
-      </c>
-      <c r="K125" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B126" t="s">
         <v>28</v>
@@ -9010,215 +9037,218 @@
       <c r="C126" t="s">
         <v>28</v>
       </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
       <c r="E126" t="s">
         <v>28</v>
       </c>
       <c r="F126" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" t="s">
+        <v>28</v>
+      </c>
+      <c r="H126" t="s">
+        <v>28</v>
+      </c>
+      <c r="I126" t="s">
+        <v>28</v>
+      </c>
+      <c r="J126" t="s">
+        <v>28</v>
+      </c>
+      <c r="K126" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="S127" t="s">
-        <v>28</v>
-      </c>
-      <c r="T127" t="s">
-        <v>28</v>
-      </c>
-      <c r="U127" t="s">
+        <v>734</v>
+      </c>
+      <c r="B127" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="C128" t="s">
-        <v>737</v>
-      </c>
-      <c r="D128" t="s">
-        <v>737</v>
-      </c>
-      <c r="E128" t="s">
-        <v>737</v>
-      </c>
-      <c r="G128" t="s">
-        <v>738</v>
-      </c>
-      <c r="H128" t="s">
-        <v>737</v>
-      </c>
-      <c r="I128" t="s">
-        <v>737</v>
-      </c>
-      <c r="J128" t="s">
-        <v>737</v>
-      </c>
-      <c r="K128" t="s">
-        <v>737</v>
+        <v>735</v>
+      </c>
+      <c r="S128" t="s">
+        <v>28</v>
+      </c>
+      <c r="T128" t="s">
+        <v>28</v>
+      </c>
+      <c r="U128" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
+      </c>
+      <c r="C129" t="s">
+        <v>737</v>
+      </c>
+      <c r="D129" t="s">
+        <v>737</v>
+      </c>
+      <c r="E129" t="s">
+        <v>737</v>
+      </c>
+      <c r="G129" t="s">
+        <v>738</v>
+      </c>
+      <c r="H129" t="s">
+        <v>737</v>
+      </c>
+      <c r="I129" t="s">
+        <v>737</v>
+      </c>
+      <c r="J129" t="s">
+        <v>737</v>
       </c>
       <c r="K129" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="B130" t="s">
-        <v>737</v>
-      </c>
-      <c r="C130" t="s">
-        <v>742</v>
-      </c>
-      <c r="E130" t="s">
-        <v>737</v>
-      </c>
-      <c r="H130" t="s">
-        <v>737</v>
-      </c>
-      <c r="I130" t="s">
-        <v>737</v>
-      </c>
-      <c r="J130" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="K130" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="G131" t="s">
-        <v>740</v>
+        <v>741</v>
+      </c>
+      <c r="B131" t="s">
+        <v>737</v>
+      </c>
+      <c r="C131" t="s">
+        <v>742</v>
+      </c>
+      <c r="E131" t="s">
+        <v>737</v>
+      </c>
+      <c r="H131" t="s">
+        <v>737</v>
       </c>
       <c r="I131" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J131" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="K131" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="H132" t="s">
-        <v>737</v>
+        <v>743</v>
+      </c>
+      <c r="G132" t="s">
+        <v>740</v>
       </c>
       <c r="I132" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="J132" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="K132" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H133" t="s">
         <v>737</v>
       </c>
       <c r="I133" t="s">
-        <v>742</v>
+        <v>737</v>
+      </c>
+      <c r="J133" t="s">
+        <v>737</v>
+      </c>
+      <c r="K133" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H134" t="s">
         <v>737</v>
       </c>
       <c r="I134" t="s">
-        <v>737</v>
-      </c>
-      <c r="J134" t="s">
-        <v>737</v>
-      </c>
-      <c r="K134" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
+      </c>
+      <c r="H135" t="s">
+        <v>737</v>
       </c>
       <c r="I135" t="s">
-        <v>740</v>
+        <v>737</v>
+      </c>
+      <c r="J135" t="s">
+        <v>737</v>
       </c>
       <c r="K135" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="H136" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="I136" t="s">
-        <v>737</v>
-      </c>
-      <c r="J136" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="K136" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="B137" t="s">
-        <v>55</v>
-      </c>
-      <c r="C137" t="s">
-        <v>55</v>
-      </c>
-      <c r="D137" t="s">
-        <v>55</v>
-      </c>
-      <c r="E137" t="s">
-        <v>55</v>
-      </c>
-      <c r="F137" t="s">
-        <v>55</v>
-      </c>
-      <c r="G137" t="s">
-        <v>55</v>
+        <v>748</v>
       </c>
       <c r="H137" t="s">
-        <v>55</v>
+        <v>737</v>
       </c>
       <c r="I137" t="s">
-        <v>55</v>
+        <v>737</v>
+      </c>
+      <c r="J137" t="s">
+        <v>737</v>
       </c>
       <c r="K137" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B138" t="s">
         <v>55</v>
@@ -9241,102 +9271,117 @@
       <c r="H138" t="s">
         <v>55</v>
       </c>
+      <c r="I138" t="s">
+        <v>55</v>
+      </c>
       <c r="K138" t="s">
-        <v>55</v>
+        <v>750</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="I139" t="s">
-        <v>737</v>
-      </c>
-      <c r="J139" t="s">
-        <v>737</v>
+        <v>751</v>
+      </c>
+      <c r="B139" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139" t="s">
+        <v>55</v>
+      </c>
+      <c r="D139" t="s">
+        <v>55</v>
+      </c>
+      <c r="E139" t="s">
+        <v>55</v>
+      </c>
+      <c r="F139" t="s">
+        <v>55</v>
+      </c>
+      <c r="G139" t="s">
+        <v>55</v>
+      </c>
+      <c r="H139" t="s">
+        <v>55</v>
+      </c>
+      <c r="K139" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I140" t="s">
         <v>737</v>
       </c>
+      <c r="J140" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="H141" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="I141" t="s">
         <v>737</v>
       </c>
-      <c r="J141" t="s">
-        <v>737</v>
-      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
+      </c>
+      <c r="H142" t="s">
+        <v>737</v>
+      </c>
+      <c r="I142" t="s">
+        <v>737</v>
+      </c>
+      <c r="J142" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="I143" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="H144" t="s">
-        <v>737</v>
+        <v>756</v>
+      </c>
+      <c r="I144" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="B145" t="s">
-        <v>737</v>
-      </c>
-      <c r="C145" t="s">
-        <v>737</v>
-      </c>
-      <c r="D145" t="s">
-        <v>737</v>
-      </c>
-      <c r="E145" t="s">
-        <v>737</v>
-      </c>
-      <c r="F145" t="s">
-        <v>737</v>
-      </c>
-      <c r="G145" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H145" t="s">
         <v>737</v>
       </c>
-      <c r="I145" t="s">
-        <v>737</v>
-      </c>
-      <c r="J145" t="s">
-        <v>737</v>
-      </c>
-      <c r="K145" t="s">
-        <v>737</v>
-      </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
+      </c>
+      <c r="B146" t="s">
+        <v>737</v>
+      </c>
+      <c r="C146" t="s">
+        <v>737</v>
+      </c>
+      <c r="D146" t="s">
+        <v>737</v>
+      </c>
+      <c r="E146" t="s">
+        <v>737</v>
+      </c>
+      <c r="F146" t="s">
+        <v>737</v>
+      </c>
+      <c r="G146" t="s">
+        <v>759</v>
       </c>
       <c r="H146" t="s">
         <v>737</v>
@@ -9344,27 +9389,27 @@
       <c r="I146" t="s">
         <v>737</v>
       </c>
+      <c r="J146" t="s">
+        <v>737</v>
+      </c>
+      <c r="K146" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H147" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I147" t="s">
-        <v>740</v>
-      </c>
-      <c r="J147" t="s">
-        <v>740</v>
-      </c>
-      <c r="K147" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H148" t="s">
         <v>740</v>
@@ -9381,169 +9426,186 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="H149" t="s">
+        <v>740</v>
+      </c>
+      <c r="I149" t="s">
+        <v>740</v>
+      </c>
+      <c r="J149" t="s">
+        <v>740</v>
+      </c>
+      <c r="K149" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A150" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>737</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H150" t="s">
         <v>737</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I150" t="s">
         <v>737</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J150" t="s">
         <v>737</v>
       </c>
-      <c r="K149" t="s">
+      <c r="K150" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A150" s="1" t="s">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I151" t="s">
         <v>740</v>
       </c>
-      <c r="K150" t="s">
+      <c r="K151" t="s">
         <v>740</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A151" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B151" t="s">
-        <v>737</v>
-      </c>
-      <c r="H151" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="K152" t="s">
-        <v>740</v>
+        <v>765</v>
+      </c>
+      <c r="B152" t="s">
+        <v>737</v>
+      </c>
+      <c r="H152" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="H153" t="s">
-        <v>737</v>
-      </c>
-      <c r="I153" t="s">
-        <v>737</v>
-      </c>
-      <c r="J153" t="s">
-        <v>737</v>
+        <v>766</v>
       </c>
       <c r="K153" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
+      </c>
+      <c r="H154" t="s">
+        <v>737</v>
       </c>
       <c r="I154" t="s">
-        <v>740</v>
+        <v>737</v>
+      </c>
+      <c r="J154" t="s">
+        <v>737</v>
+      </c>
+      <c r="K154" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="H155" t="s">
-        <v>737</v>
+        <v>768</v>
       </c>
       <c r="I155" t="s">
-        <v>55</v>
-      </c>
-      <c r="J155" t="s">
-        <v>737</v>
-      </c>
-      <c r="K155" t="s">
-        <v>770</v>
+        <v>740</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
+      </c>
+      <c r="H156" t="s">
+        <v>737</v>
+      </c>
+      <c r="I156" t="s">
+        <v>55</v>
+      </c>
+      <c r="J156" t="s">
+        <v>737</v>
+      </c>
+      <c r="K156" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="H159" t="s">
-        <v>737</v>
-      </c>
-      <c r="I159" t="s">
-        <v>737</v>
-      </c>
-      <c r="J159" t="s">
-        <v>737</v>
+        <v>773</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H160" t="s">
         <v>737</v>
       </c>
+      <c r="I160" t="s">
+        <v>737</v>
+      </c>
+      <c r="J160" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="H161" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G162" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="H161" s="1" t="s">
+      <c r="H162" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="I161" s="1" t="s">
+      <c r="I162" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="J161" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A162" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="J162" s="1" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D163" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A164" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="I163" s="1" t="s">
+      <c r="I164" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="K163" s="1" t="s">
+      <c r="K164" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M164" t="s">
         <v>737</v>
       </c>
     </row>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="798">
   <si>
     <t>Country</t>
   </si>
@@ -152,18 +152,12 @@
     <t>Survey launched</t>
   </si>
   <si>
-    <t>~ Tobias</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
     <t>~ test</t>
   </si>
   <si>
-    <t>ready, wait September</t>
-  </si>
-  <si>
     <t>~ test, trad</t>
   </si>
   <si>
@@ -1481,9 +1475,6 @@
     <t>Approximated using Italy  values</t>
   </si>
   <si>
-    <t>wid.world</t>
-  </si>
-  <si>
     <t>2019 https://www.statbank.dk/statbank5a/selectvarval/define.asp?PLanguage=1&amp;subword=tabsel&amp;MainTable=FORMUE3&amp;PXSId=194386&amp;tablestyle=&amp;ST=SD&amp;buttons=0</t>
   </si>
   <si>
@@ -2276,9 +2267,6 @@
     <t>3.1 Add "Coal" and "District heating"</t>
   </si>
   <si>
-    <t>R,t</t>
-  </si>
-  <si>
     <t>242 Change to "yearly"</t>
   </si>
   <si>
@@ -2409,6 +2397,27 @@
   </si>
   <si>
     <t>Alice Ghidossi, Dana Weissberg</t>
+  </si>
+  <si>
+    <t>2018 wid.world</t>
+  </si>
+  <si>
+    <t>2.16 wealth indiv</t>
+  </si>
+  <si>
+    <t>~ trad, ready</t>
+  </si>
+  <si>
+    <t>~ trad, test</t>
+  </si>
+  <si>
+    <t>~ trad, ready, wait September</t>
+  </si>
+  <si>
+    <t>new burden-sharing</t>
+  </si>
+  <si>
+    <t>a (t on upwork)</t>
   </si>
 </sst>
 </file>
@@ -2841,11 +2850,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA164"/>
+  <dimension ref="A1:AA166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K165" sqref="K165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3030,7 +3039,7 @@
         <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>29</v>
@@ -3215,30 +3224,30 @@
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -3252,72 +3261,72 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" t="s">
         <v>53</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>54</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s">
         <v>55</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>56</v>
       </c>
-      <c r="M8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>57</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>58</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" t="s">
-        <v>60</v>
-      </c>
-      <c r="R8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S8" t="s">
-        <v>56</v>
-      </c>
-      <c r="T8" t="s">
-        <v>61</v>
-      </c>
       <c r="U8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>0.85</v>
@@ -3400,422 +3409,422 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
         <v>88</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>89</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>90</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
         <v>91</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>92</v>
       </c>
-      <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>93</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>94</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>95</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>96</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>97</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>98</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>99</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>100</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>101</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>102</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>103</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>104</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>105</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>106</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>107</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>108</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Y11" t="s">
         <v>109</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>110</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AA11" t="s">
         <v>111</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
         <v>114</v>
       </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>115</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>116</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>117</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>118</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>119</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>120</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>121</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>122</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>123</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>124</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>125</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" t="s">
         <v>126</v>
       </c>
-      <c r="O12" t="s">
+      <c r="R12" t="s">
         <v>127</v>
       </c>
-      <c r="P12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>128</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>129</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
+        <v>125</v>
+      </c>
+      <c r="V12" t="s">
         <v>130</v>
       </c>
-      <c r="T12" t="s">
+      <c r="W12" t="s">
+        <v>90</v>
+      </c>
+      <c r="X12" t="s">
         <v>131</v>
       </c>
-      <c r="U12" t="s">
-        <v>127</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="Y12" t="s">
         <v>132</v>
       </c>
-      <c r="W12" t="s">
-        <v>92</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Z12" t="s">
         <v>133</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
         <v>134</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
         <v>137</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>138</v>
       </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
         <v>139</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>140</v>
       </c>
-      <c r="F13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>141</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>142</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s">
         <v>143</v>
       </c>
-      <c r="J13" t="s">
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>136</v>
+      </c>
+      <c r="P13" t="s">
         <v>144</v>
       </c>
-      <c r="K13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="Q13" t="s">
+        <v>139</v>
+      </c>
+      <c r="R13" t="s">
         <v>145</v>
       </c>
-      <c r="N13" t="s">
-        <v>140</v>
-      </c>
-      <c r="O13" t="s">
-        <v>138</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="S13" t="s">
         <v>146</v>
       </c>
-      <c r="Q13" t="s">
-        <v>141</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>104</v>
+      </c>
+      <c r="U13" t="s">
+        <v>145</v>
+      </c>
+      <c r="V13" t="s">
+        <v>142</v>
+      </c>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
         <v>147</v>
       </c>
-      <c r="S13" t="s">
-        <v>148</v>
-      </c>
-      <c r="T13" t="s">
-        <v>106</v>
-      </c>
-      <c r="U13" t="s">
-        <v>147</v>
-      </c>
-      <c r="V13" t="s">
-        <v>144</v>
-      </c>
-      <c r="W13" t="s">
-        <v>147</v>
-      </c>
-      <c r="X13" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>149</v>
-      </c>
       <c r="Z13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AA13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" t="s">
         <v>150</v>
       </c>
-      <c r="B14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="I14" t="s">
         <v>151</v>
       </c>
-      <c r="D14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>152</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
         <v>153</v>
       </c>
-      <c r="J14" t="s">
+      <c r="P14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>131</v>
+      </c>
+      <c r="R14" t="s">
+        <v>137</v>
+      </c>
+      <c r="S14" t="s">
         <v>154</v>
       </c>
-      <c r="K14" t="s">
-        <v>139</v>
-      </c>
-      <c r="L14" t="s">
-        <v>124</v>
-      </c>
-      <c r="M14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N14" t="s">
-        <v>151</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="T14" t="s">
+        <v>129</v>
+      </c>
+      <c r="U14" t="s">
+        <v>153</v>
+      </c>
+      <c r="V14" t="s">
+        <v>142</v>
+      </c>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y14" t="s">
         <v>155</v>
       </c>
-      <c r="P14" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>133</v>
-      </c>
-      <c r="R14" t="s">
-        <v>139</v>
-      </c>
-      <c r="S14" t="s">
-        <v>156</v>
-      </c>
-      <c r="T14" t="s">
-        <v>131</v>
-      </c>
-      <c r="U14" t="s">
-        <v>155</v>
-      </c>
-      <c r="V14" t="s">
-        <v>144</v>
-      </c>
-      <c r="W14" t="s">
-        <v>140</v>
-      </c>
-      <c r="X14" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>157</v>
-      </c>
       <c r="Z14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AA14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15">
         <v>16942</v>
@@ -3869,10 +3878,10 @@
         <v>50960</v>
       </c>
       <c r="S15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U15">
         <v>16754</v>
@@ -3880,7 +3889,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16">
         <v>23515</v>
@@ -3934,10 +3943,10 @@
         <v>78679</v>
       </c>
       <c r="S16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U16">
         <v>22562</v>
@@ -3945,7 +3954,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17">
         <v>31800</v>
@@ -3999,10 +4008,10 @@
         <v>122146</v>
       </c>
       <c r="S17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U17">
         <v>29932</v>
@@ -4010,111 +4019,111 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="L18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="S18" t="s">
+        <v>175</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="U18" t="s">
         <v>177</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="U18" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="H19" s="7">
         <v>2700</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="L19" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="M19" t="s">
+        <v>180</v>
+      </c>
+      <c r="N19" t="s">
         <v>188</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="O19" t="s">
         <v>189</v>
       </c>
-      <c r="M19" t="s">
-        <v>182</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>190</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>191</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>192</v>
       </c>
-      <c r="Q19" t="s">
-        <v>193</v>
-      </c>
-      <c r="R19" t="s">
-        <v>194</v>
-      </c>
       <c r="S19" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U19" s="1">
         <v>1400</v>
@@ -4122,64 +4131,64 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="H20" s="7">
         <v>4900</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="M20" t="s">
         <v>200</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="N20" t="s">
         <v>201</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>202</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q20" t="s">
         <v>203</v>
       </c>
-      <c r="O20" t="s">
-        <v>204</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>160</v>
       </c>
-      <c r="Q20" t="s">
-        <v>205</v>
-      </c>
-      <c r="R20" t="s">
-        <v>162</v>
-      </c>
       <c r="S20" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U20" s="1">
         <v>1900</v>
@@ -4187,64 +4196,64 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="H21" s="7">
         <v>8150</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="M21" t="s">
         <v>212</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
         <v>213</v>
       </c>
-      <c r="M21" t="s">
+      <c r="P21" t="s">
         <v>214</v>
       </c>
-      <c r="N21" t="s">
-        <v>186</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>215</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>216</v>
       </c>
-      <c r="Q21" t="s">
-        <v>217</v>
-      </c>
-      <c r="R21" t="s">
-        <v>218</v>
-      </c>
       <c r="S21" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U21" s="1">
         <v>2500</v>
@@ -4252,7 +4261,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B22">
         <v>0.25</v>
@@ -4317,7 +4326,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B23">
         <v>0.25</v>
@@ -4382,7 +4391,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B24">
         <v>0.25</v>
@@ -4447,7 +4456,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B25">
         <v>0.25</v>
@@ -4512,311 +4521,311 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="R26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" t="s">
         <v>226</v>
       </c>
-      <c r="B27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="K27" t="s">
         <v>229</v>
       </c>
-      <c r="H27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="L27" t="s">
+        <v>137</v>
+      </c>
+      <c r="M27" t="s">
+        <v>149</v>
+      </c>
+      <c r="N27" t="s">
+        <v>115</v>
+      </c>
+      <c r="O27" t="s">
         <v>230</v>
       </c>
-      <c r="K27" t="s">
+      <c r="P27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>229</v>
+      </c>
+      <c r="R27" t="s">
+        <v>137</v>
+      </c>
+      <c r="S27" t="s">
         <v>231</v>
       </c>
-      <c r="L27" t="s">
-        <v>139</v>
-      </c>
-      <c r="M27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N27" t="s">
-        <v>117</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="T27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="U27" t="s">
         <v>232</v>
-      </c>
-      <c r="P27" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>231</v>
-      </c>
-      <c r="R27" t="s">
-        <v>139</v>
-      </c>
-      <c r="S27" t="s">
-        <v>233</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="U27" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="H28" t="s">
         <v>236</v>
       </c>
-      <c r="F28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="I28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
         <v>238</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="L28" t="s">
+        <v>122</v>
+      </c>
+      <c r="M28" t="s">
         <v>138</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="N28" t="s">
+        <v>137</v>
+      </c>
+      <c r="O28" t="s">
         <v>239</v>
       </c>
-      <c r="K28" t="s">
+      <c r="P28" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q28" t="s">
         <v>240</v>
       </c>
-      <c r="L28" t="s">
-        <v>124</v>
-      </c>
-      <c r="M28" t="s">
-        <v>140</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="R28" t="s">
+        <v>122</v>
+      </c>
+      <c r="S28" t="s">
+        <v>163</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="O28" t="s">
-        <v>241</v>
-      </c>
-      <c r="P28" t="s">
-        <v>780</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>242</v>
-      </c>
-      <c r="R28" t="s">
-        <v>124</v>
-      </c>
-      <c r="S28" t="s">
-        <v>165</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="U28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B29" t="s">
+      <c r="H29" t="s">
         <v>244</v>
       </c>
-      <c r="C29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="I29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" t="s">
+        <v>145</v>
+      </c>
+      <c r="L29" t="s">
+        <v>142</v>
+      </c>
+      <c r="M29" t="s">
+        <v>143</v>
+      </c>
+      <c r="N29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O29" t="s">
+        <v>246</v>
+      </c>
+      <c r="P29" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>137</v>
+      </c>
+      <c r="R29" t="s">
+        <v>136</v>
+      </c>
+      <c r="S29" t="s">
         <v>244</v>
       </c>
-      <c r="F29" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H29" t="s">
-        <v>246</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J29" s="9" t="s">
+      <c r="T29" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="K29" t="s">
-        <v>147</v>
-      </c>
-      <c r="L29" t="s">
-        <v>144</v>
-      </c>
-      <c r="M29" t="s">
-        <v>145</v>
-      </c>
-      <c r="N29" t="s">
-        <v>97</v>
-      </c>
-      <c r="O29" t="s">
-        <v>248</v>
-      </c>
-      <c r="P29" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>139</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="U29" t="s">
         <v>138</v>
-      </c>
-      <c r="S29" t="s">
-        <v>246</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="U29" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E30" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C30" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="G30" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" t="s">
         <v>253</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="I30" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="K30" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="S30" t="s">
         <v>257</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="T30" t="s">
         <v>258</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>259</v>
-      </c>
-      <c r="T30" t="s">
-        <v>260</v>
-      </c>
-      <c r="U30" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="T31">
         <v>200</v>
@@ -4824,663 +4833,663 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" t="s">
+        <v>262</v>
+      </c>
+      <c r="E32" t="s">
+        <v>262</v>
+      </c>
+      <c r="F32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" t="s">
+        <v>262</v>
+      </c>
+      <c r="I32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L32" t="s">
+        <v>262</v>
+      </c>
+      <c r="M32" t="s">
+        <v>262</v>
+      </c>
+      <c r="N32" t="s">
+        <v>262</v>
+      </c>
+      <c r="O32" t="s">
+        <v>262</v>
+      </c>
+      <c r="P32" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>262</v>
+      </c>
+      <c r="R32" t="s">
+        <v>262</v>
+      </c>
+      <c r="S32" t="s">
+        <v>262</v>
+      </c>
+      <c r="T32" t="s">
         <v>263</v>
       </c>
-      <c r="B32" t="s">
-        <v>264</v>
-      </c>
-      <c r="C32" t="s">
-        <v>264</v>
-      </c>
-      <c r="D32" t="s">
-        <v>264</v>
-      </c>
-      <c r="E32" t="s">
-        <v>264</v>
-      </c>
-      <c r="F32" t="s">
-        <v>264</v>
-      </c>
-      <c r="G32" t="s">
-        <v>188</v>
-      </c>
-      <c r="H32" t="s">
-        <v>264</v>
-      </c>
-      <c r="I32" t="s">
-        <v>264</v>
-      </c>
-      <c r="J32" t="s">
-        <v>264</v>
-      </c>
-      <c r="K32" t="s">
-        <v>264</v>
-      </c>
-      <c r="L32" t="s">
-        <v>264</v>
-      </c>
-      <c r="M32" t="s">
-        <v>264</v>
-      </c>
-      <c r="N32" t="s">
-        <v>264</v>
-      </c>
-      <c r="O32" t="s">
-        <v>264</v>
-      </c>
-      <c r="P32" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>264</v>
-      </c>
-      <c r="R32" t="s">
-        <v>264</v>
-      </c>
-      <c r="S32" t="s">
-        <v>264</v>
-      </c>
-      <c r="T32" t="s">
-        <v>265</v>
-      </c>
       <c r="U32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G33" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" t="s">
         <v>186</v>
       </c>
-      <c r="H33" t="s">
-        <v>188</v>
-      </c>
       <c r="I33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="T33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" t="s">
+        <v>184</v>
+      </c>
+      <c r="I34" t="s">
+        <v>184</v>
+      </c>
+      <c r="J34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K34" t="s">
+        <v>184</v>
+      </c>
+      <c r="L34" t="s">
+        <v>184</v>
+      </c>
+      <c r="M34" t="s">
+        <v>184</v>
+      </c>
+      <c r="N34" t="s">
+        <v>184</v>
+      </c>
+      <c r="O34" t="s">
+        <v>184</v>
+      </c>
+      <c r="P34" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>184</v>
+      </c>
+      <c r="R34" t="s">
+        <v>184</v>
+      </c>
+      <c r="S34" t="s">
+        <v>184</v>
+      </c>
+      <c r="T34" t="s">
         <v>186</v>
       </c>
-      <c r="C34" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" t="s">
-        <v>186</v>
-      </c>
-      <c r="F34" t="s">
-        <v>186</v>
-      </c>
-      <c r="G34" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" t="s">
-        <v>186</v>
-      </c>
-      <c r="I34" t="s">
-        <v>186</v>
-      </c>
-      <c r="J34" t="s">
-        <v>186</v>
-      </c>
-      <c r="K34" t="s">
-        <v>186</v>
-      </c>
-      <c r="L34" t="s">
-        <v>186</v>
-      </c>
-      <c r="M34" t="s">
-        <v>186</v>
-      </c>
-      <c r="N34" t="s">
-        <v>186</v>
-      </c>
-      <c r="O34" t="s">
-        <v>186</v>
-      </c>
-      <c r="P34" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>186</v>
-      </c>
-      <c r="R34" t="s">
-        <v>186</v>
-      </c>
-      <c r="S34" t="s">
-        <v>186</v>
-      </c>
-      <c r="T34" t="s">
-        <v>188</v>
-      </c>
       <c r="U34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T35" t="s">
+        <v>114</v>
+      </c>
+      <c r="U35" t="s">
         <v>116</v>
-      </c>
-      <c r="U35" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H36" t="s">
+        <v>247</v>
+      </c>
+      <c r="I36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36" t="s">
+        <v>247</v>
+      </c>
+      <c r="K36" t="s">
+        <v>247</v>
+      </c>
+      <c r="L36" t="s">
+        <v>247</v>
+      </c>
+      <c r="M36" t="s">
+        <v>154</v>
+      </c>
+      <c r="N36" t="s">
+        <v>136</v>
+      </c>
+      <c r="O36" t="s">
+        <v>247</v>
+      </c>
+      <c r="P36" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>247</v>
+      </c>
+      <c r="R36" t="s">
+        <v>247</v>
+      </c>
+      <c r="S36" t="s">
+        <v>247</v>
+      </c>
+      <c r="T36" t="s">
+        <v>142</v>
+      </c>
+      <c r="U36" t="s">
         <v>269</v>
-      </c>
-      <c r="B36" t="s">
-        <v>249</v>
-      </c>
-      <c r="C36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" t="s">
-        <v>249</v>
-      </c>
-      <c r="F36" t="s">
-        <v>270</v>
-      </c>
-      <c r="G36" t="s">
-        <v>249</v>
-      </c>
-      <c r="H36" t="s">
-        <v>249</v>
-      </c>
-      <c r="I36" t="s">
-        <v>249</v>
-      </c>
-      <c r="J36" t="s">
-        <v>249</v>
-      </c>
-      <c r="K36" t="s">
-        <v>249</v>
-      </c>
-      <c r="L36" t="s">
-        <v>249</v>
-      </c>
-      <c r="M36" t="s">
-        <v>156</v>
-      </c>
-      <c r="N36" t="s">
-        <v>138</v>
-      </c>
-      <c r="O36" t="s">
-        <v>249</v>
-      </c>
-      <c r="P36" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>249</v>
-      </c>
-      <c r="R36" t="s">
-        <v>249</v>
-      </c>
-      <c r="S36" t="s">
-        <v>249</v>
-      </c>
-      <c r="T36" t="s">
-        <v>144</v>
-      </c>
-      <c r="U36" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S37" t="s">
+        <v>271</v>
+      </c>
+      <c r="T37" t="s">
         <v>272</v>
       </c>
-      <c r="S37" t="s">
+      <c r="U37" t="s">
         <v>273</v>
-      </c>
-      <c r="T37" t="s">
-        <v>274</v>
-      </c>
-      <c r="U37" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="S38" t="s">
+        <v>275</v>
+      </c>
+      <c r="T38" t="s">
         <v>276</v>
       </c>
-      <c r="S38" t="s">
+      <c r="U38" t="s">
         <v>277</v>
-      </c>
-      <c r="T38" t="s">
-        <v>278</v>
-      </c>
-      <c r="U38" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="S39" t="s">
+        <v>279</v>
+      </c>
+      <c r="T39" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="S39" t="s">
+      <c r="U39" t="s">
         <v>281</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="U39" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S40" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S41" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="S42" t="s">
+        <v>287</v>
+      </c>
+      <c r="T42" t="s">
         <v>288</v>
-      </c>
-      <c r="S42" t="s">
-        <v>289</v>
-      </c>
-      <c r="T42" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="N43" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="R43" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="R43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" t="s">
+        <v>309</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E44" t="s">
+        <v>309</v>
+      </c>
+      <c r="F44" t="s">
+        <v>309</v>
+      </c>
+      <c r="G44" t="s">
+        <v>309</v>
+      </c>
+      <c r="H44" t="s">
+        <v>309</v>
+      </c>
+      <c r="I44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J44" t="s">
+        <v>309</v>
+      </c>
+      <c r="K44" t="s">
         <v>310</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="L44" t="s">
+        <v>310</v>
+      </c>
+      <c r="M44" t="s">
+        <v>310</v>
+      </c>
+      <c r="N44" t="s">
+        <v>309</v>
+      </c>
+      <c r="O44" t="s">
+        <v>309</v>
+      </c>
+      <c r="P44" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>310</v>
+      </c>
+      <c r="R44" t="s">
+        <v>310</v>
+      </c>
+      <c r="S44" t="s">
         <v>311</v>
       </c>
-      <c r="C44" t="s">
-        <v>311</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E44" t="s">
-        <v>311</v>
-      </c>
-      <c r="F44" t="s">
-        <v>311</v>
-      </c>
-      <c r="G44" t="s">
-        <v>311</v>
-      </c>
-      <c r="H44" t="s">
-        <v>311</v>
-      </c>
-      <c r="I44" t="s">
-        <v>311</v>
-      </c>
-      <c r="J44" t="s">
-        <v>311</v>
-      </c>
-      <c r="K44" t="s">
-        <v>312</v>
-      </c>
-      <c r="L44" t="s">
-        <v>312</v>
-      </c>
-      <c r="M44" t="s">
-        <v>312</v>
-      </c>
-      <c r="N44" t="s">
-        <v>311</v>
-      </c>
-      <c r="O44" t="s">
-        <v>311</v>
-      </c>
-      <c r="P44" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>312</v>
-      </c>
-      <c r="R44" t="s">
-        <v>312</v>
-      </c>
-      <c r="S44" t="s">
-        <v>313</v>
-      </c>
       <c r="T44" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="U44" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="U45" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="O46" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="P46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="U46" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5514,10 +5523,10 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5528,79 +5537,79 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="M49" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="Q49" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="R49" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B50" s="2">
         <v>100</v>
@@ -5627,7 +5636,7 @@
         <v>10000</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K50" s="2">
         <v>1000</v>
@@ -5642,7 +5651,7 @@
         <v>1000</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P50" s="12">
         <v>1000</v>
@@ -5669,7 +5678,7 @@
         <v>1000</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Y50" s="2">
         <v>10000</v>
@@ -5683,7 +5692,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B51" s="13">
         <f>$S$51*B9</f>
@@ -5790,7 +5799,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B52">
         <v>61</v>
@@ -5873,7 +5882,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B53" s="13">
         <f t="shared" ref="B53:F53" si="2">B52*B9</f>
@@ -5941,7 +5950,7 @@
         <v>182.24</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="T53" s="13">
         <f>T52*T9</f>
@@ -5978,121 +5987,121 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I54" t="s">
         <v>375</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="I54" t="s">
-        <v>377</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="T54" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="U54" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B55" t="s">
+        <v>378</v>
+      </c>
+      <c r="C55" t="s">
+        <v>378</v>
+      </c>
+      <c r="D55" t="s">
+        <v>378</v>
+      </c>
+      <c r="E55" t="s">
+        <v>378</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B55" t="s">
+      <c r="G55" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C55" t="s">
+      <c r="H55" t="s">
+        <v>381</v>
+      </c>
+      <c r="I55" t="s">
+        <v>382</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L55" t="s">
+        <v>382</v>
+      </c>
+      <c r="M55" t="s">
+        <v>382</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D55" t="s">
+      <c r="P55" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>382</v>
+      </c>
+      <c r="R55" t="s">
+        <v>382</v>
+      </c>
+      <c r="S55" t="s">
+        <v>382</v>
+      </c>
+      <c r="T55" t="s">
+        <v>378</v>
+      </c>
+      <c r="U55" t="s">
+        <v>378</v>
+      </c>
+      <c r="V55" t="s">
+        <v>382</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="X55" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E55" t="s">
+      <c r="Y55" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z55" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="AA55" t="s">
         <v>382</v>
-      </c>
-      <c r="H55" t="s">
-        <v>383</v>
-      </c>
-      <c r="I55" t="s">
-        <v>384</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="L55" t="s">
-        <v>384</v>
-      </c>
-      <c r="M55" t="s">
-        <v>384</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>384</v>
-      </c>
-      <c r="R55" t="s">
-        <v>384</v>
-      </c>
-      <c r="S55" t="s">
-        <v>384</v>
-      </c>
-      <c r="T55" t="s">
-        <v>380</v>
-      </c>
-      <c r="U55" t="s">
-        <v>380</v>
-      </c>
-      <c r="V55" t="s">
-        <v>384</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -6157,7 +6166,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B57">
         <v>887</v>
@@ -6240,7 +6249,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B58" s="15">
         <f t="shared" ref="B58:AA58" si="5">B57/B62</f>
@@ -6349,7 +6358,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B59">
         <v>45</v>
@@ -6433,7 +6442,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B60" s="5">
         <v>796.529</v>
@@ -6516,7 +6525,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B61" s="5">
         <v>68527599.400000006</v>
@@ -6599,7 +6608,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B62" s="5">
         <v>84</v>
@@ -6682,7 +6691,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B63" s="18">
         <f t="shared" ref="B63:P63" si="6">2.5*B59/1000</f>
@@ -6791,7 +6800,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B64" s="16">
         <f t="shared" ref="B64:K64" si="8">B63*B9</f>
@@ -6900,7 +6909,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B65" s="5">
         <f t="shared" ref="B65:R65" si="11">0.8*0.8*B60*B59*1000000*B9/B61</f>
@@ -7009,412 +7018,412 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="K66" s="16" t="s">
         <v>397</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="K66" s="16" t="s">
-        <v>399</v>
       </c>
       <c r="S66" s="16">
         <v>100</v>
       </c>
       <c r="T66" s="16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="U66" s="16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O67" t="s">
+        <v>134</v>
+      </c>
+      <c r="P67" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>195</v>
+      </c>
+      <c r="R67" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="M67" s="16" t="s">
+      <c r="S67" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="T67" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="N67" s="16" t="s">
+      <c r="U67" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="V67" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="W67" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="O67" t="s">
-        <v>136</v>
-      </c>
-      <c r="P67" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>197</v>
-      </c>
-      <c r="R67" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="S67" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="T67" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="U67" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="V67" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="W67" s="16" t="s">
-        <v>188</v>
-      </c>
       <c r="X67" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Y67" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z67" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AA67" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="O68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="P68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="S68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="U68" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="V68" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="N68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="O68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="R68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="S68" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="T68" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="U68" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="V68" s="16" t="s">
-        <v>407</v>
-      </c>
       <c r="W68" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="X68" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Y68" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Z68" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AA68" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="E69" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="G69" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="D69" s="16" t="s">
+      <c r="H69" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>413</v>
       </c>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
       <c r="K69" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M69" s="16" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N69" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P69" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="S69" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="T69" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="U69" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="E70" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="G70" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="C70" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="D70" s="16" t="s">
+      <c r="H70" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="I70" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="E70" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="G70" s="16" t="s">
+      <c r="J70" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="H70" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="I70" s="16" t="s">
+      <c r="K70" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="J70" s="16" t="s">
+      <c r="L70" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="M70" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="N70" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="O70" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="K70" s="16" t="s">
+      <c r="P70" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q70" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="R70" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="S70" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="L70" s="16" t="s">
+      <c r="T70" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="M70" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="N70" s="16" t="s">
+      <c r="U70" s="16" t="s">
         <v>424</v>
-      </c>
-      <c r="O70" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="P70" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q70" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="R70" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="S70" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="T70" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="U70" s="16" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B71" t="s">
+        <v>426</v>
+      </c>
+      <c r="C71" t="s">
         <v>427</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>428</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>429</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>430</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
         <v>431</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="G71" t="s">
+      <c r="I71" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="J71" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="I71" s="16" t="s">
+      <c r="K71" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="L71" t="s">
         <v>436</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="M71" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="L71" t="s">
+      <c r="N71" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="M71" s="16" t="s">
+      <c r="O71" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="N71" s="16" t="s">
+      <c r="P71" t="s">
         <v>440</v>
       </c>
-      <c r="O71" s="16" t="s">
+      <c r="Q71" t="s">
         <v>441</v>
       </c>
-      <c r="P71" t="s">
+      <c r="S71" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="T71" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="S71" s="16" t="s">
+      <c r="U71" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="T71" s="20" t="s">
+      <c r="W71" t="s">
         <v>445</v>
       </c>
-      <c r="U71" s="16" t="s">
+      <c r="X71" t="s">
         <v>446</v>
       </c>
-      <c r="W71" t="s">
+      <c r="Y71" t="s">
         <v>447</v>
       </c>
-      <c r="X71" t="s">
-        <v>448</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>449</v>
-      </c>
       <c r="Z71" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B72">
         <v>0.37862000000000001</v>
@@ -7468,7 +7477,7 @@
         <v>0.79</v>
       </c>
       <c r="S72" s="16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="T72">
         <v>0.15443999999999999</v>
@@ -7488,7 +7497,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B73">
         <v>1.5</v>
@@ -7571,7 +7580,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B74">
         <v>1.804</v>
@@ -7624,7 +7633,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B75">
         <v>0.36799999999999999</v>
@@ -7677,7 +7686,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B76">
         <v>6.6000000000000003E-2</v>
@@ -7706,7 +7715,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B77">
         <v>0.90300000000000002</v>
@@ -7735,7 +7744,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D78">
         <f>240.49/D9</f>
@@ -7752,1133 +7761,1133 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B79" t="s">
+        <v>457</v>
+      </c>
+      <c r="C79" t="s">
+        <v>457</v>
+      </c>
+      <c r="D79" t="s">
+        <v>457</v>
+      </c>
+      <c r="E79" t="s">
+        <v>457</v>
+      </c>
+      <c r="F79" t="s">
         <v>458</v>
       </c>
-      <c r="B79" t="s">
+      <c r="G79" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C79" t="s">
+      <c r="H79" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D79" t="s">
-        <v>459</v>
-      </c>
-      <c r="E79" t="s">
-        <v>459</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="I79" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="J79" t="s">
         <v>461</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I79" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="J79" t="s">
+      <c r="L79" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="M79" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="N79" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="O79" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="M79" s="2" t="s">
+      <c r="P79" t="s">
         <v>466</v>
       </c>
-      <c r="N79" s="2" t="s">
+      <c r="Q79" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="O79" s="2" t="s">
+      <c r="R79" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="P79" t="s">
+      <c r="S79" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="Q79" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="R79" s="2" t="s">
+      <c r="T79" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="S79" s="2" t="s">
+      <c r="U79" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="U79" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B80" t="s">
+        <v>472</v>
+      </c>
+      <c r="C80" t="s">
         <v>473</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80" t="s">
         <v>474</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E80" t="s">
         <v>475</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
+        <v>472</v>
+      </c>
+      <c r="G80" t="s">
         <v>476</v>
       </c>
-      <c r="E80" t="s">
+      <c r="H80" t="s">
         <v>477</v>
       </c>
-      <c r="F80" t="s">
-        <v>474</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="I80" t="s">
         <v>478</v>
       </c>
-      <c r="H80" t="s">
+      <c r="J80" t="s">
         <v>479</v>
       </c>
-      <c r="I80" t="s">
+      <c r="K80" t="s">
         <v>480</v>
       </c>
-      <c r="J80" t="s">
+      <c r="L80" t="s">
         <v>481</v>
       </c>
-      <c r="K80" t="s">
+      <c r="M80" t="s">
+        <v>473</v>
+      </c>
+      <c r="N80" t="s">
+        <v>472</v>
+      </c>
+      <c r="O80" t="s">
         <v>482</v>
       </c>
-      <c r="L80" t="s">
+      <c r="P80" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>481</v>
+      </c>
+      <c r="R80" t="s">
+        <v>475</v>
+      </c>
+      <c r="S80" t="s">
+        <v>791</v>
+      </c>
+      <c r="T80" t="s">
         <v>483</v>
       </c>
-      <c r="M80" t="s">
-        <v>475</v>
-      </c>
-      <c r="N80" t="s">
-        <v>474</v>
-      </c>
-      <c r="O80" t="s">
+      <c r="U80" t="s">
         <v>484</v>
-      </c>
-      <c r="P80" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>483</v>
-      </c>
-      <c r="R80" t="s">
-        <v>477</v>
-      </c>
-      <c r="S80" t="s">
-        <v>485</v>
-      </c>
-      <c r="T80" t="s">
-        <v>486</v>
-      </c>
-      <c r="U80" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="S81" t="s">
+        <v>486</v>
+      </c>
+      <c r="T81" t="s">
+        <v>487</v>
+      </c>
+      <c r="U81" t="s">
         <v>488</v>
-      </c>
-      <c r="S81" t="s">
-        <v>489</v>
-      </c>
-      <c r="T81" t="s">
-        <v>490</v>
-      </c>
-      <c r="U81" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="S82" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B83" t="s">
+        <v>492</v>
+      </c>
+      <c r="C83" t="s">
+        <v>492</v>
+      </c>
+      <c r="D83" t="s">
+        <v>492</v>
+      </c>
+      <c r="E83" t="s">
+        <v>492</v>
+      </c>
+      <c r="F83" t="s">
+        <v>492</v>
+      </c>
+      <c r="G83" t="s">
+        <v>493</v>
+      </c>
+      <c r="H83" t="s">
         <v>494</v>
       </c>
-      <c r="B83" t="s">
+      <c r="I83" t="s">
         <v>495</v>
       </c>
-      <c r="C83" t="s">
-        <v>495</v>
-      </c>
-      <c r="D83" t="s">
-        <v>495</v>
-      </c>
-      <c r="E83" t="s">
-        <v>495</v>
-      </c>
-      <c r="F83" t="s">
-        <v>495</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="J83" t="s">
         <v>496</v>
       </c>
-      <c r="H83" t="s">
+      <c r="S83" t="s">
         <v>497</v>
       </c>
-      <c r="I83" t="s">
-        <v>498</v>
-      </c>
-      <c r="J83" t="s">
-        <v>499</v>
-      </c>
-      <c r="S83" t="s">
-        <v>500</v>
-      </c>
       <c r="T83" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="U83" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="S84" t="s">
+        <v>500</v>
+      </c>
+      <c r="T84" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="U84" t="s">
         <v>502</v>
-      </c>
-      <c r="S84" t="s">
-        <v>503</v>
-      </c>
-      <c r="T84" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="U84" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F85" t="s">
+        <v>504</v>
+      </c>
+      <c r="I85" t="s">
+        <v>505</v>
+      </c>
+      <c r="S85" t="s">
         <v>506</v>
       </c>
-      <c r="F85" t="s">
+      <c r="T85" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="I85" t="s">
-        <v>508</v>
-      </c>
-      <c r="S85" t="s">
-        <v>509</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="U85" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="S86" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="S87" s="21" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="S88" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C89" t="s">
+        <v>515</v>
+      </c>
+      <c r="D89" t="s">
+        <v>516</v>
+      </c>
+      <c r="E89" t="s">
         <v>517</v>
       </c>
-      <c r="C89" t="s">
+      <c r="F89" t="s">
         <v>518</v>
       </c>
-      <c r="D89" t="s">
+      <c r="G89" t="s">
         <v>519</v>
       </c>
-      <c r="E89" t="s">
+      <c r="H89" t="s">
         <v>520</v>
       </c>
-      <c r="F89" t="s">
+      <c r="I89" t="s">
         <v>521</v>
       </c>
-      <c r="G89" t="s">
+      <c r="J89" t="s">
         <v>522</v>
       </c>
-      <c r="H89" t="s">
+      <c r="K89" t="s">
         <v>523</v>
       </c>
-      <c r="I89" t="s">
+      <c r="L89" t="s">
         <v>524</v>
       </c>
-      <c r="J89" t="s">
+      <c r="M89" t="s">
         <v>525</v>
       </c>
-      <c r="K89" t="s">
+      <c r="N89" t="s">
         <v>526</v>
       </c>
-      <c r="L89" t="s">
+      <c r="O89" t="s">
         <v>527</v>
       </c>
-      <c r="M89" t="s">
+      <c r="P89" t="s">
         <v>528</v>
       </c>
-      <c r="N89" t="s">
+      <c r="Q89" t="s">
         <v>529</v>
       </c>
-      <c r="O89" t="s">
+      <c r="R89" t="s">
         <v>530</v>
       </c>
-      <c r="P89" t="s">
+      <c r="S89" t="s">
         <v>531</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="T89" t="s">
         <v>532</v>
       </c>
-      <c r="R89" t="s">
+      <c r="U89" t="s">
         <v>533</v>
-      </c>
-      <c r="S89" t="s">
-        <v>534</v>
-      </c>
-      <c r="T89" t="s">
-        <v>535</v>
-      </c>
-      <c r="U89" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C90" t="s">
+        <v>535</v>
+      </c>
+      <c r="D90" t="s">
+        <v>536</v>
+      </c>
+      <c r="E90" t="s">
         <v>537</v>
       </c>
-      <c r="C90" t="s">
+      <c r="F90" t="s">
         <v>538</v>
       </c>
-      <c r="D90" t="s">
+      <c r="G90" t="s">
         <v>539</v>
       </c>
-      <c r="E90" t="s">
+      <c r="H90" t="s">
         <v>540</v>
       </c>
-      <c r="F90" t="s">
+      <c r="I90" t="s">
         <v>541</v>
       </c>
-      <c r="G90" t="s">
+      <c r="J90" t="s">
         <v>542</v>
       </c>
-      <c r="H90" t="s">
+      <c r="K90" t="s">
         <v>543</v>
       </c>
-      <c r="I90" t="s">
+      <c r="L90" t="s">
         <v>544</v>
       </c>
-      <c r="J90" t="s">
+      <c r="M90" t="s">
         <v>545</v>
       </c>
-      <c r="K90" t="s">
+      <c r="N90" t="s">
         <v>546</v>
       </c>
-      <c r="L90" t="s">
+      <c r="O90" t="s">
         <v>547</v>
       </c>
-      <c r="M90" t="s">
+      <c r="P90" t="s">
         <v>548</v>
       </c>
-      <c r="N90" t="s">
+      <c r="Q90" t="s">
         <v>549</v>
       </c>
-      <c r="O90" t="s">
+      <c r="R90" t="s">
         <v>550</v>
       </c>
-      <c r="P90" t="s">
+      <c r="S90" t="s">
         <v>551</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="T90" t="s">
         <v>552</v>
       </c>
-      <c r="R90" t="s">
+      <c r="U90" t="s">
         <v>553</v>
-      </c>
-      <c r="S90" t="s">
-        <v>554</v>
-      </c>
-      <c r="T90" t="s">
-        <v>555</v>
-      </c>
-      <c r="U90" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C91" t="s">
+        <v>555</v>
+      </c>
+      <c r="D91" t="s">
+        <v>556</v>
+      </c>
+      <c r="E91" t="s">
         <v>557</v>
       </c>
-      <c r="C91" t="s">
+      <c r="F91" t="s">
         <v>558</v>
       </c>
-      <c r="D91" t="s">
+      <c r="G91" t="s">
         <v>559</v>
       </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
         <v>560</v>
       </c>
-      <c r="F91" t="s">
+      <c r="I91" t="s">
         <v>561</v>
       </c>
-      <c r="G91" t="s">
+      <c r="J91" t="s">
         <v>562</v>
       </c>
-      <c r="H91" t="s">
+      <c r="K91" t="s">
         <v>563</v>
       </c>
-      <c r="I91" t="s">
+      <c r="L91" t="s">
         <v>564</v>
       </c>
-      <c r="J91" t="s">
+      <c r="M91" t="s">
         <v>565</v>
       </c>
-      <c r="K91" t="s">
+      <c r="N91" t="s">
         <v>566</v>
       </c>
-      <c r="L91" t="s">
+      <c r="O91" t="s">
         <v>567</v>
       </c>
-      <c r="M91" t="s">
+      <c r="P91" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q91" t="s">
         <v>568</v>
       </c>
-      <c r="N91" t="s">
+      <c r="R91" t="s">
         <v>569</v>
       </c>
-      <c r="O91" t="s">
+      <c r="S91" t="s">
         <v>570</v>
       </c>
-      <c r="P91" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q91" t="s">
+      <c r="T91" t="s">
         <v>571</v>
       </c>
-      <c r="R91" t="s">
+      <c r="U91" t="s">
         <v>572</v>
-      </c>
-      <c r="S91" t="s">
-        <v>573</v>
-      </c>
-      <c r="T91" t="s">
-        <v>574</v>
-      </c>
-      <c r="U91" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C92" t="s">
+        <v>574</v>
+      </c>
+      <c r="D92" t="s">
+        <v>575</v>
+      </c>
+      <c r="E92" t="s">
         <v>576</v>
       </c>
-      <c r="C92" t="s">
+      <c r="F92" t="s">
         <v>577</v>
       </c>
-      <c r="D92" t="s">
+      <c r="G92" t="s">
         <v>578</v>
       </c>
-      <c r="E92" t="s">
+      <c r="H92" t="s">
         <v>579</v>
       </c>
-      <c r="F92" t="s">
+      <c r="I92" t="s">
         <v>580</v>
       </c>
-      <c r="G92" t="s">
+      <c r="J92" t="s">
         <v>581</v>
       </c>
-      <c r="H92" t="s">
+      <c r="K92" t="s">
         <v>582</v>
       </c>
-      <c r="I92" t="s">
+      <c r="L92" t="s">
         <v>583</v>
       </c>
-      <c r="J92" t="s">
+      <c r="M92" t="s">
         <v>584</v>
       </c>
-      <c r="K92" t="s">
+      <c r="N92" t="s">
         <v>585</v>
       </c>
-      <c r="L92" t="s">
+      <c r="O92" t="s">
         <v>586</v>
       </c>
-      <c r="M92" t="s">
+      <c r="P92" t="s">
         <v>587</v>
       </c>
-      <c r="N92" t="s">
+      <c r="Q92" t="s">
         <v>588</v>
       </c>
-      <c r="O92" t="s">
+      <c r="R92" t="s">
         <v>589</v>
       </c>
-      <c r="P92" t="s">
+      <c r="S92" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="T92" t="s">
         <v>591</v>
       </c>
-      <c r="R92" t="s">
+      <c r="U92" t="s">
         <v>592</v>
-      </c>
-      <c r="S92" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="T92" t="s">
-        <v>594</v>
-      </c>
-      <c r="U92" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C93" t="s">
+        <v>594</v>
+      </c>
+      <c r="D93" t="s">
+        <v>595</v>
+      </c>
+      <c r="E93" t="s">
         <v>596</v>
       </c>
-      <c r="C93" t="s">
+      <c r="F93" t="s">
         <v>597</v>
       </c>
-      <c r="D93" t="s">
+      <c r="G93" t="s">
         <v>598</v>
       </c>
-      <c r="E93" t="s">
+      <c r="H93" t="s">
         <v>599</v>
       </c>
-      <c r="F93" t="s">
+      <c r="I93" t="s">
         <v>600</v>
       </c>
-      <c r="G93" t="s">
+      <c r="J93" t="s">
         <v>601</v>
       </c>
-      <c r="H93" t="s">
+      <c r="K93" t="s">
         <v>602</v>
       </c>
-      <c r="I93" t="s">
+      <c r="L93" t="s">
         <v>603</v>
       </c>
-      <c r="J93" t="s">
+      <c r="M93" t="s">
         <v>604</v>
       </c>
-      <c r="K93" t="s">
+      <c r="N93" t="s">
         <v>605</v>
       </c>
-      <c r="L93" t="s">
+      <c r="P93" t="s">
         <v>606</v>
       </c>
-      <c r="M93" t="s">
+      <c r="Q93" t="s">
         <v>607</v>
       </c>
-      <c r="N93" t="s">
+      <c r="R93" t="s">
         <v>608</v>
       </c>
-      <c r="P93" t="s">
+      <c r="U93" t="s">
         <v>609</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>610</v>
-      </c>
-      <c r="R93" t="s">
-        <v>611</v>
-      </c>
-      <c r="U93" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C94" t="s">
+        <v>611</v>
+      </c>
+      <c r="D94" t="s">
+        <v>612</v>
+      </c>
+      <c r="E94" t="s">
         <v>613</v>
       </c>
-      <c r="C94" t="s">
+      <c r="F94" t="s">
         <v>614</v>
       </c>
-      <c r="D94" t="s">
+      <c r="H94" t="s">
         <v>615</v>
       </c>
-      <c r="E94" t="s">
+      <c r="I94" t="s">
         <v>616</v>
       </c>
-      <c r="F94" t="s">
+      <c r="J94" t="s">
         <v>617</v>
       </c>
-      <c r="H94" t="s">
+      <c r="L94" t="s">
         <v>618</v>
       </c>
-      <c r="I94" t="s">
+      <c r="M94" t="s">
         <v>619</v>
       </c>
-      <c r="J94" t="s">
+      <c r="N94" t="s">
         <v>620</v>
       </c>
-      <c r="L94" t="s">
+      <c r="R94" t="s">
         <v>621</v>
       </c>
-      <c r="M94" t="s">
+      <c r="U94" t="s">
         <v>622</v>
-      </c>
-      <c r="N94" t="s">
-        <v>623</v>
-      </c>
-      <c r="R94" t="s">
-        <v>624</v>
-      </c>
-      <c r="U94" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C95" t="s">
+        <v>624</v>
+      </c>
+      <c r="E95" t="s">
+        <v>625</v>
+      </c>
+      <c r="H95" t="s">
         <v>626</v>
       </c>
-      <c r="C95" t="s">
+      <c r="I95" t="s">
         <v>627</v>
       </c>
-      <c r="E95" t="s">
+      <c r="J95" t="s">
         <v>628</v>
       </c>
-      <c r="H95" t="s">
+      <c r="M95" t="s">
         <v>629</v>
       </c>
-      <c r="I95" t="s">
+      <c r="R95" t="s">
         <v>630</v>
-      </c>
-      <c r="J95" t="s">
-        <v>631</v>
-      </c>
-      <c r="M95" t="s">
-        <v>632</v>
-      </c>
-      <c r="R95" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E96" t="s">
+        <v>632</v>
+      </c>
+      <c r="H96" t="s">
+        <v>633</v>
+      </c>
+      <c r="I96" t="s">
         <v>634</v>
       </c>
-      <c r="E96" t="s">
+      <c r="R96" t="s">
         <v>635</v>
-      </c>
-      <c r="H96" t="s">
-        <v>636</v>
-      </c>
-      <c r="I96" t="s">
-        <v>637</v>
-      </c>
-      <c r="R96" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E97" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I97" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E98" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I98" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J98" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="S99" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="S100" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="S101" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B102" t="s">
+        <v>648</v>
+      </c>
+      <c r="C102" t="s">
+        <v>648</v>
+      </c>
+      <c r="D102" t="s">
+        <v>648</v>
+      </c>
+      <c r="E102" t="s">
+        <v>648</v>
+      </c>
+      <c r="F102" t="s">
+        <v>648</v>
+      </c>
+      <c r="G102" t="s">
+        <v>648</v>
+      </c>
+      <c r="I102" t="s">
+        <v>648</v>
+      </c>
+      <c r="J102" t="s">
+        <v>648</v>
+      </c>
+      <c r="K102" t="s">
+        <v>648</v>
+      </c>
+      <c r="N102" t="s">
+        <v>649</v>
+      </c>
+      <c r="S102" t="s">
         <v>650</v>
       </c>
-      <c r="B102" t="s">
-        <v>651</v>
-      </c>
-      <c r="C102" t="s">
-        <v>651</v>
-      </c>
-      <c r="D102" t="s">
-        <v>651</v>
-      </c>
-      <c r="E102" t="s">
-        <v>651</v>
-      </c>
-      <c r="F102" t="s">
-        <v>651</v>
-      </c>
-      <c r="G102" t="s">
-        <v>651</v>
-      </c>
-      <c r="I102" t="s">
-        <v>651</v>
-      </c>
-      <c r="J102" t="s">
-        <v>651</v>
-      </c>
-      <c r="K102" t="s">
-        <v>651</v>
-      </c>
-      <c r="N102" t="s">
-        <v>652</v>
-      </c>
-      <c r="S102" t="s">
-        <v>653</v>
-      </c>
       <c r="T102" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="U102" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="I103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="J103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="K103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="L103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="Q103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="S103" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="T103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="U103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="W103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="K104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="L104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="Q104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="S104" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="T104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="U104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="W104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B105" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C105" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D105" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E105" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F105" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="T105" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="U105" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="W105" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B106" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C106" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E106" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F106" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="L106" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="S106" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="T106" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="U106" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="W106" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="D107" t="s">
+        <v>663</v>
+      </c>
+      <c r="H107" t="s">
+        <v>664</v>
+      </c>
+      <c r="K107" t="s">
         <v>665</v>
-      </c>
-      <c r="D107" t="s">
-        <v>666</v>
-      </c>
-      <c r="H107" t="s">
-        <v>667</v>
-      </c>
-      <c r="K107" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="S108" t="s">
+        <v>667</v>
+      </c>
+      <c r="T108" t="s">
+        <v>668</v>
+      </c>
+      <c r="U108" t="s">
         <v>669</v>
-      </c>
-      <c r="S108" t="s">
-        <v>670</v>
-      </c>
-      <c r="T108" t="s">
-        <v>671</v>
-      </c>
-      <c r="U108" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="S109" t="s">
+        <v>671</v>
+      </c>
+      <c r="T109" t="s">
+        <v>672</v>
+      </c>
+      <c r="U109" t="s">
         <v>673</v>
-      </c>
-      <c r="S109" t="s">
-        <v>674</v>
-      </c>
-      <c r="T109" t="s">
-        <v>675</v>
-      </c>
-      <c r="U109" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="S110" t="s">
+        <v>675</v>
+      </c>
+      <c r="T110" t="s">
+        <v>676</v>
+      </c>
+      <c r="U110" t="s">
         <v>677</v>
-      </c>
-      <c r="S110" t="s">
-        <v>678</v>
-      </c>
-      <c r="T110" t="s">
-        <v>679</v>
-      </c>
-      <c r="U110" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="U111" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="S112" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="S113" t="s">
+        <v>683</v>
+      </c>
+      <c r="T113" s="23" t="s">
+        <v>684</v>
+      </c>
+      <c r="U113" t="s">
         <v>685</v>
-      </c>
-      <c r="S113" t="s">
-        <v>686</v>
-      </c>
-      <c r="T113" s="23" t="s">
-        <v>687</v>
-      </c>
-      <c r="U113" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="S114" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="U115" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="D116" t="s">
+        <v>788</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="I116" t="s">
+        <v>786</v>
+      </c>
+      <c r="L116" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="D116" t="s">
-        <v>792</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="I116" t="s">
-        <v>790</v>
-      </c>
-      <c r="L116" s="9" t="s">
-        <v>789</v>
-      </c>
       <c r="N116" s="9" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="O116" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="P116" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B117" t="s">
+        <v>691</v>
+      </c>
+      <c r="C117" t="s">
+        <v>692</v>
+      </c>
+      <c r="D117" t="s">
         <v>693</v>
       </c>
-      <c r="B117" t="s">
+      <c r="E117" t="s">
         <v>694</v>
       </c>
-      <c r="C117" t="s">
+      <c r="F117" t="s">
         <v>695</v>
       </c>
-      <c r="D117" t="s">
+      <c r="G117" t="s">
         <v>696</v>
       </c>
-      <c r="E117" t="s">
+      <c r="I117" t="s">
         <v>697</v>
       </c>
-      <c r="F117" t="s">
+      <c r="J117" t="s">
         <v>698</v>
       </c>
-      <c r="G117" t="s">
+      <c r="K117" s="24" t="s">
         <v>699</v>
       </c>
-      <c r="I117" t="s">
+      <c r="S117" t="s">
         <v>700</v>
       </c>
-      <c r="J117" t="s">
+      <c r="T117" t="s">
         <v>701</v>
       </c>
-      <c r="K117" s="24" t="s">
+      <c r="U117" t="s">
         <v>702</v>
-      </c>
-      <c r="S117" t="s">
-        <v>703</v>
-      </c>
-      <c r="T117" t="s">
-        <v>704</v>
-      </c>
-      <c r="U117" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C118" t="s">
+        <v>704</v>
+      </c>
+      <c r="D118" t="s">
+        <v>705</v>
+      </c>
+      <c r="E118" t="s">
         <v>706</v>
       </c>
-      <c r="C118" t="s">
+      <c r="G118" t="s">
         <v>707</v>
       </c>
-      <c r="D118" t="s">
+      <c r="H118" t="s">
         <v>708</v>
       </c>
-      <c r="E118" t="s">
+      <c r="I118" t="s">
         <v>709</v>
       </c>
-      <c r="G118" t="s">
+      <c r="J118" t="s">
         <v>710</v>
       </c>
-      <c r="H118" t="s">
+      <c r="K118" t="s">
         <v>711</v>
       </c>
-      <c r="I118" t="s">
+      <c r="N118" t="s">
         <v>712</v>
       </c>
-      <c r="J118" t="s">
+      <c r="O118" t="s">
         <v>713</v>
       </c>
-      <c r="K118" t="s">
+      <c r="P118" t="s">
         <v>714</v>
       </c>
-      <c r="N118" t="s">
+      <c r="Q118" t="s">
         <v>715</v>
       </c>
-      <c r="O118" t="s">
+      <c r="T118" t="s">
         <v>716</v>
-      </c>
-      <c r="P118" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>718</v>
-      </c>
-      <c r="T118" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="S119" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B120">
         <v>7</v>
@@ -8907,7 +8916,7 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B121">
         <v>6300</v>
@@ -8939,7 +8948,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B122">
         <v>6500</v>
@@ -9001,35 +9010,35 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="S123" t="s">
+        <v>723</v>
+      </c>
+      <c r="T123" t="s">
+        <v>724</v>
+      </c>
+      <c r="U123" t="s">
         <v>725</v>
-      </c>
-      <c r="S123" t="s">
-        <v>726</v>
-      </c>
-      <c r="T123" t="s">
-        <v>727</v>
-      </c>
-      <c r="U123" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="S124" t="s">
+        <v>727</v>
+      </c>
+      <c r="T124" t="s">
+        <v>728</v>
+      </c>
+      <c r="U124" t="s">
         <v>729</v>
-      </c>
-      <c r="S124" t="s">
-        <v>730</v>
-      </c>
-      <c r="T124" t="s">
-        <v>731</v>
-      </c>
-      <c r="U124" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B126" t="s">
         <v>28</v>
@@ -9064,7 +9073,7 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B127" t="s">
         <v>28</v>
@@ -9081,7 +9090,7 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="S128" t="s">
         <v>28</v>
@@ -9095,517 +9104,533 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C129" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D129" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E129" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G129" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H129" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I129" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J129" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="K129" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="K130" t="s">
-        <v>740</v>
+        <v>797</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B131" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C131" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E131" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H131" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I131" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J131" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="K131" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="G132" t="s">
-        <v>740</v>
-      </c>
-      <c r="I132" t="s">
-        <v>740</v>
-      </c>
-      <c r="J132" t="s">
-        <v>740</v>
-      </c>
-      <c r="K132" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H133" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I133" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J133" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="K133" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H134" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I134" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="H135" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I135" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J135" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="K135" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="I136" t="s">
-        <v>740</v>
-      </c>
-      <c r="K136" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H137" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I137" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J137" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="K137" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K138" t="s">
-        <v>750</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K139" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="I140" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J140" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="I141" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="H142" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I142" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J142" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="I144" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="H145" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B146" t="s">
-        <v>737</v>
-      </c>
-      <c r="C146" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D146" t="s">
         <v>737</v>
       </c>
-      <c r="E146" t="s">
-        <v>737</v>
-      </c>
-      <c r="F146" t="s">
-        <v>737</v>
-      </c>
       <c r="G146" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="H146" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I146" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J146" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="K146" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H147" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I147" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="H148" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I148" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J148" t="s">
-        <v>740</v>
-      </c>
-      <c r="K148" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="H149" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I149" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J149" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="K149" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C150" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H150" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I150" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J150" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="K150" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="I151" t="s">
-        <v>740</v>
-      </c>
-      <c r="K151" t="s">
-        <v>740</v>
+        <v>760</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B152" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H152" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="K153" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="H154" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I154" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J154" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="K154" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="I155" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="H156" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I156" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J156" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="K156" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="H160" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I160" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J160" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H161" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="D163" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
       <c r="M164" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A165" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B165" t="s">
+        <v>755</v>
+      </c>
+      <c r="D165" t="s">
+        <v>755</v>
+      </c>
+      <c r="G165" t="s">
+        <v>755</v>
+      </c>
+      <c r="H165" t="s">
+        <v>755</v>
+      </c>
+      <c r="I165" t="s">
+        <v>755</v>
+      </c>
+      <c r="J165" t="s">
+        <v>755</v>
+      </c>
+      <c r="K165" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A166" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C166" t="s">
+        <v>737</v>
+      </c>
+      <c r="D166" t="s">
+        <v>737</v>
+      </c>
+      <c r="E166" t="s">
+        <v>737</v>
+      </c>
+      <c r="G166" t="s">
+        <v>737</v>
+      </c>
+      <c r="H166" t="s">
+        <v>737</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="J166" t="s">
+        <v>737</v>
+      </c>
+      <c r="K166" t="s">
         <v>737</v>
       </c>
     </row>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -2853,8 +2853,8 @@
   <dimension ref="A1:AA166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K165" sqref="K165"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="797">
   <si>
     <t>Country</t>
   </si>
@@ -2141,9 +2141,6 @@
     <t>Daniele Goffi, 0$?</t>
   </si>
   <si>
-    <t>Katarzyna Smiejczak, 80$ (Anna Wosik, 20$)</t>
-  </si>
-  <si>
     <t>Ismery Rivera, 110$</t>
   </si>
   <si>
@@ -2408,9 +2405,6 @@
     <t>~ trad, ready</t>
   </si>
   <si>
-    <t>~ trad, test</t>
-  </si>
-  <si>
     <t>~ trad, ready, wait September</t>
   </si>
   <si>
@@ -2418,6 +2412,9 @@
   </si>
   <si>
     <t>a (t on upwork)</t>
+  </si>
+  <si>
+    <t>Katarzyna Smiejczak, 100$ (80+20) (Anna Wosik, 20$)</t>
   </si>
 </sst>
 </file>
@@ -2853,8 +2850,8 @@
   <dimension ref="A1:AA166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H141" sqref="H141"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3039,7 +3036,7 @@
         <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>29</v>
@@ -3227,13 +3224,13 @@
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>795</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>42</v>
@@ -4696,7 +4693,7 @@
         <v>239</v>
       </c>
       <c r="P28" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Q28" t="s">
         <v>240</v>
@@ -5266,7 +5263,7 @@
         <v>301</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>302</v>
@@ -5275,7 +5272,7 @@
         <v>303</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>304</v>
@@ -5465,7 +5462,7 @@
         <v>344</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>345</v>
@@ -5489,7 +5486,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -7880,7 +7877,7 @@
         <v>475</v>
       </c>
       <c r="S80" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="T80" t="s">
         <v>483</v>
@@ -8762,34 +8759,34 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="D116" t="s">
+        <v>787</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="I116" t="s">
+        <v>785</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="N116" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="O116" t="s">
         <v>781</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>790</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="D116" t="s">
-        <v>788</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="I116" t="s">
-        <v>786</v>
-      </c>
-      <c r="L116" s="9" t="s">
-        <v>785</v>
-      </c>
-      <c r="N116" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="O116" t="s">
+      <c r="P116" t="s">
         <v>782</v>
-      </c>
-      <c r="P116" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.35">
@@ -8841,53 +8838,53 @@
         <v>704</v>
       </c>
       <c r="D118" t="s">
+        <v>796</v>
+      </c>
+      <c r="E118" t="s">
         <v>705</v>
       </c>
-      <c r="E118" t="s">
+      <c r="G118" t="s">
         <v>706</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>707</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>708</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>709</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" t="s">
         <v>710</v>
       </c>
-      <c r="K118" t="s">
+      <c r="N118" t="s">
         <v>711</v>
       </c>
-      <c r="N118" t="s">
+      <c r="O118" t="s">
         <v>712</v>
       </c>
-      <c r="O118" t="s">
+      <c r="P118" t="s">
         <v>713</v>
       </c>
-      <c r="P118" t="s">
+      <c r="Q118" t="s">
         <v>714</v>
       </c>
-      <c r="Q118" t="s">
+      <c r="T118" t="s">
         <v>715</v>
-      </c>
-      <c r="T118" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="S119" t="s">
         <v>717</v>
-      </c>
-      <c r="S119" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B120">
         <v>7</v>
@@ -8916,7 +8913,7 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B121">
         <v>6300</v>
@@ -8948,7 +8945,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B122">
         <v>6500</v>
@@ -9010,35 +9007,35 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="S123" t="s">
         <v>722</v>
       </c>
-      <c r="S123" t="s">
+      <c r="T123" t="s">
         <v>723</v>
       </c>
-      <c r="T123" t="s">
+      <c r="U123" t="s">
         <v>724</v>
-      </c>
-      <c r="U123" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="S124" t="s">
         <v>726</v>
       </c>
-      <c r="S124" t="s">
+      <c r="T124" t="s">
         <v>727</v>
       </c>
-      <c r="T124" t="s">
+      <c r="U124" t="s">
         <v>728</v>
-      </c>
-      <c r="U124" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B126" t="s">
         <v>28</v>
@@ -9073,7 +9070,7 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B127" t="s">
         <v>28</v>
@@ -9090,7 +9087,7 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="S128" t="s">
         <v>28</v>
@@ -9104,145 +9101,145 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C129" t="s">
         <v>733</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>733</v>
+      </c>
+      <c r="E129" t="s">
+        <v>733</v>
+      </c>
+      <c r="G129" t="s">
         <v>734</v>
       </c>
-      <c r="D129" t="s">
-        <v>734</v>
-      </c>
-      <c r="E129" t="s">
-        <v>734</v>
-      </c>
-      <c r="G129" t="s">
-        <v>735</v>
-      </c>
       <c r="H129" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I129" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J129" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K129" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K130" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B131" t="s">
+        <v>733</v>
+      </c>
+      <c r="C131" t="s">
         <v>738</v>
       </c>
-      <c r="B131" t="s">
-        <v>734</v>
-      </c>
-      <c r="C131" t="s">
-        <v>739</v>
-      </c>
       <c r="E131" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H131" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I131" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J131" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K131" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H133" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I133" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J133" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K133" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H134" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I134" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H135" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I135" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J135" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K135" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I136" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H137" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I137" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J137" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K137" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B138" t="s">
         <v>53</v>
@@ -9274,7 +9271,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B139" t="s">
         <v>53</v>
@@ -9303,335 +9300,326 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I140" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J140" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I141" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H142" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I142" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J142" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I144" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H145" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B146" t="s">
+        <v>733</v>
+      </c>
+      <c r="G146" t="s">
         <v>754</v>
       </c>
-      <c r="B146" t="s">
-        <v>734</v>
-      </c>
-      <c r="D146" t="s">
-        <v>737</v>
-      </c>
-      <c r="G146" t="s">
-        <v>755</v>
-      </c>
       <c r="H146" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I146" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J146" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K146" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H147" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I147" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H148" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I148" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J148" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H149" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I149" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J149" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K149" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C150" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H150" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I150" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J150" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K150" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B152" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H152" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H154" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I154" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J154" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K154" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I155" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H156" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I156" t="s">
         <v>53</v>
       </c>
       <c r="J156" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K156" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H160" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I160" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J160" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H161" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="M164" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B165" t="s">
-        <v>755</v>
-      </c>
-      <c r="D165" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G165" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H165" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I165" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J165" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K165" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C166" t="s">
-        <v>737</v>
-      </c>
-      <c r="D166" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E166" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G166" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H166" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J166" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K166" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="798">
   <si>
     <t>Country</t>
   </si>
@@ -2415,6 +2415,9 @@
   </si>
   <si>
     <t>Katarzyna Smiejczak, 100$ (80+20) (Anna Wosik, 20$)</t>
+  </si>
+  <si>
+    <t>Youngsoo Choi, 100$</t>
   </si>
 </sst>
 </file>
@@ -2850,8 +2853,8 @@
   <dimension ref="A1:AA166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D165" sqref="D165"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O118" sqref="O118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3203,6 +3206,9 @@
       <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="M6" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="R6" s="3" t="s">
         <v>28</v>
       </c>
@@ -8820,6 +8826,9 @@
       <c r="K117" s="24" t="s">
         <v>699</v>
       </c>
+      <c r="O117" t="s">
+        <v>797</v>
+      </c>
       <c r="S117" t="s">
         <v>700</v>
       </c>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="798">
   <si>
     <t>Country</t>
   </si>
@@ -2408,9 +2408,6 @@
     <t>~ trad, ready, wait September</t>
   </si>
   <si>
-    <t>new burden-sharing</t>
-  </si>
-  <si>
     <t>a (t on upwork)</t>
   </si>
   <si>
@@ -2418,6 +2415,9 @@
   </si>
   <si>
     <t>Youngsoo Choi, 100$</t>
+  </si>
+  <si>
+    <t>138 new burden-sharing</t>
   </si>
 </sst>
 </file>
@@ -2853,8 +2853,8 @@
   <dimension ref="A1:AA166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O118" sqref="O118"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3227,7 +3227,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>792</v>
@@ -8827,7 +8827,7 @@
         <v>699</v>
       </c>
       <c r="O117" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="S117" t="s">
         <v>700</v>
@@ -8847,7 +8847,7 @@
         <v>704</v>
       </c>
       <c r="D118" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E118" t="s">
         <v>705</v>
@@ -9142,7 +9142,7 @@
         <v>735</v>
       </c>
       <c r="K130" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
@@ -9422,9 +9422,6 @@
       <c r="J149" t="s">
         <v>736</v>
       </c>
-      <c r="K149" t="s">
-        <v>736</v>
-      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
@@ -9601,13 +9598,10 @@
       <c r="J165" t="s">
         <v>754</v>
       </c>
-      <c r="K165" t="s">
-        <v>754</v>
-      </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C166" t="s">
         <v>736</v>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="796">
   <si>
     <t>Country</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Translated</t>
   </si>
   <si>
-    <t>~ Charlotte</t>
-  </si>
-  <si>
     <t>~ Guadalupe</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>~ test</t>
   </si>
   <si>
-    <t>~ test, trad</t>
-  </si>
-  <si>
     <t>~ Adrien</t>
   </si>
   <si>
@@ -2228,9 +2222,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>tr 5 1ers chiffres</t>
-  </si>
-  <si>
     <t>2.5 Agglomeration size</t>
   </si>
   <si>
@@ -2418,6 +2409,9 @@
   </si>
   <si>
     <t>138 new burden-sharing</t>
+  </si>
+  <si>
+    <t>~ Wing Yee</t>
   </si>
 </sst>
 </file>
@@ -2854,7 +2848,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3033,31 +3027,31 @@
         <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>795</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
@@ -3075,7 +3069,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
@@ -3127,40 +3121,40 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>28</v>
@@ -3174,7 +3168,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
@@ -3224,33 +3218,33 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -3264,72 +3258,72 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" t="s">
         <v>51</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>52</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
         <v>53</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>54</v>
       </c>
-      <c r="M8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>55</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>56</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" t="s">
-        <v>58</v>
-      </c>
-      <c r="R8" t="s">
-        <v>54</v>
-      </c>
-      <c r="S8" t="s">
-        <v>54</v>
-      </c>
-      <c r="T8" t="s">
-        <v>59</v>
-      </c>
       <c r="U8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>0.85</v>
@@ -3412,422 +3406,422 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>88</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
         <v>89</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>90</v>
       </c>
-      <c r="F11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>91</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>92</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>93</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>94</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>95</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>96</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>97</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>98</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>99</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>100</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>101</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>102</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>103</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>104</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>105</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>106</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Y11" t="s">
         <v>107</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>108</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AA11" t="s">
         <v>109</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
         <v>112</v>
       </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>113</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>114</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>115</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>116</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>117</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>118</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>119</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>120</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>121</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>122</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>123</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q12" t="s">
         <v>124</v>
       </c>
-      <c r="O12" t="s">
+      <c r="R12" t="s">
         <v>125</v>
       </c>
-      <c r="P12" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>126</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>127</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
+        <v>123</v>
+      </c>
+      <c r="V12" t="s">
         <v>128</v>
       </c>
-      <c r="T12" t="s">
+      <c r="W12" t="s">
+        <v>88</v>
+      </c>
+      <c r="X12" t="s">
         <v>129</v>
       </c>
-      <c r="U12" t="s">
-        <v>125</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="Y12" t="s">
         <v>130</v>
       </c>
-      <c r="W12" t="s">
-        <v>90</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Z12" t="s">
         <v>131</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
         <v>132</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
         <v>135</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>136</v>
       </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
         <v>137</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>138</v>
       </c>
-      <c r="F13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>139</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>140</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="s">
         <v>141</v>
       </c>
-      <c r="J13" t="s">
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" t="s">
         <v>142</v>
       </c>
-      <c r="K13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" t="s">
-        <v>131</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="Q13" t="s">
+        <v>137</v>
+      </c>
+      <c r="R13" t="s">
         <v>143</v>
       </c>
-      <c r="N13" t="s">
-        <v>138</v>
-      </c>
-      <c r="O13" t="s">
-        <v>136</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="S13" t="s">
         <v>144</v>
       </c>
-      <c r="Q13" t="s">
-        <v>139</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>102</v>
+      </c>
+      <c r="U13" t="s">
+        <v>143</v>
+      </c>
+      <c r="V13" t="s">
+        <v>140</v>
+      </c>
+      <c r="W13" t="s">
+        <v>143</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
         <v>145</v>
       </c>
-      <c r="S13" t="s">
-        <v>146</v>
-      </c>
-      <c r="T13" t="s">
-        <v>104</v>
-      </c>
-      <c r="U13" t="s">
-        <v>145</v>
-      </c>
-      <c r="V13" t="s">
-        <v>142</v>
-      </c>
-      <c r="W13" t="s">
-        <v>145</v>
-      </c>
-      <c r="X13" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>147</v>
-      </c>
       <c r="Z13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" t="s">
         <v>148</v>
       </c>
-      <c r="B14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="I14" t="s">
         <v>149</v>
       </c>
-      <c r="D14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>150</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
         <v>151</v>
       </c>
-      <c r="J14" t="s">
+      <c r="P14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>129</v>
+      </c>
+      <c r="R14" t="s">
+        <v>135</v>
+      </c>
+      <c r="S14" t="s">
         <v>152</v>
       </c>
-      <c r="K14" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" t="s">
-        <v>95</v>
-      </c>
-      <c r="N14" t="s">
-        <v>149</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="T14" t="s">
+        <v>127</v>
+      </c>
+      <c r="U14" t="s">
+        <v>151</v>
+      </c>
+      <c r="V14" t="s">
+        <v>140</v>
+      </c>
+      <c r="W14" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y14" t="s">
         <v>153</v>
       </c>
-      <c r="P14" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>131</v>
-      </c>
-      <c r="R14" t="s">
-        <v>137</v>
-      </c>
-      <c r="S14" t="s">
-        <v>154</v>
-      </c>
-      <c r="T14" t="s">
-        <v>129</v>
-      </c>
-      <c r="U14" t="s">
-        <v>153</v>
-      </c>
-      <c r="V14" t="s">
-        <v>142</v>
-      </c>
-      <c r="W14" t="s">
-        <v>138</v>
-      </c>
-      <c r="X14" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>155</v>
-      </c>
       <c r="Z14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B15">
         <v>16942</v>
@@ -3881,10 +3875,10 @@
         <v>50960</v>
       </c>
       <c r="S15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U15">
         <v>16754</v>
@@ -3892,7 +3886,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B16">
         <v>23515</v>
@@ -3946,10 +3940,10 @@
         <v>78679</v>
       </c>
       <c r="S16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U16">
         <v>22562</v>
@@ -3957,7 +3951,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17">
         <v>31800</v>
@@ -4011,10 +4005,10 @@
         <v>122146</v>
       </c>
       <c r="S17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U17">
         <v>29932</v>
@@ -4022,111 +4016,111 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="L18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="S18" t="s">
+        <v>173</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="U18" t="s">
         <v>175</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="U18" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="H19" s="7">
         <v>2700</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="L19" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="M19" t="s">
+        <v>178</v>
+      </c>
+      <c r="N19" t="s">
         <v>186</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="O19" t="s">
         <v>187</v>
       </c>
-      <c r="M19" t="s">
-        <v>180</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>188</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>189</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>190</v>
       </c>
-      <c r="Q19" t="s">
-        <v>191</v>
-      </c>
-      <c r="R19" t="s">
-        <v>192</v>
-      </c>
       <c r="S19" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U19" s="1">
         <v>1400</v>
@@ -4134,64 +4128,64 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="H20" s="7">
         <v>4900</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="M20" t="s">
         <v>198</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="N20" t="s">
         <v>199</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>200</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q20" t="s">
         <v>201</v>
       </c>
-      <c r="O20" t="s">
-        <v>202</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>158</v>
       </c>
-      <c r="Q20" t="s">
-        <v>203</v>
-      </c>
-      <c r="R20" t="s">
-        <v>160</v>
-      </c>
       <c r="S20" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U20" s="1">
         <v>1900</v>
@@ -4199,64 +4193,64 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="H21" s="7">
         <v>8150</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="M21" t="s">
         <v>210</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="N21" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" t="s">
         <v>211</v>
       </c>
-      <c r="M21" t="s">
+      <c r="P21" t="s">
         <v>212</v>
       </c>
-      <c r="N21" t="s">
-        <v>184</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>213</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>214</v>
       </c>
-      <c r="Q21" t="s">
-        <v>215</v>
-      </c>
-      <c r="R21" t="s">
-        <v>216</v>
-      </c>
       <c r="S21" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U21" s="1">
         <v>2500</v>
@@ -4264,7 +4258,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B22">
         <v>0.25</v>
@@ -4329,7 +4323,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B23">
         <v>0.25</v>
@@ -4394,7 +4388,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B24">
         <v>0.25</v>
@@ -4459,7 +4453,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B25">
         <v>0.25</v>
@@ -4524,311 +4518,311 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" t="s">
         <v>224</v>
       </c>
-      <c r="B27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="K27" t="s">
         <v>227</v>
       </c>
-      <c r="H27" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="L27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M27" t="s">
+        <v>147</v>
+      </c>
+      <c r="N27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O27" t="s">
         <v>228</v>
       </c>
-      <c r="K27" t="s">
+      <c r="P27" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>227</v>
+      </c>
+      <c r="R27" t="s">
+        <v>135</v>
+      </c>
+      <c r="S27" t="s">
         <v>229</v>
       </c>
-      <c r="L27" t="s">
-        <v>137</v>
-      </c>
-      <c r="M27" t="s">
-        <v>149</v>
-      </c>
-      <c r="N27" t="s">
-        <v>115</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="T27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U27" t="s">
         <v>230</v>
-      </c>
-      <c r="P27" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>229</v>
-      </c>
-      <c r="R27" t="s">
-        <v>137</v>
-      </c>
-      <c r="S27" t="s">
-        <v>231</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="U27" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="H28" t="s">
         <v>234</v>
       </c>
-      <c r="F28" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="I28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
         <v>236</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="L28" t="s">
+        <v>120</v>
+      </c>
+      <c r="M28" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="N28" t="s">
+        <v>135</v>
+      </c>
+      <c r="O28" t="s">
         <v>237</v>
       </c>
-      <c r="K28" t="s">
+      <c r="P28" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q28" t="s">
         <v>238</v>
       </c>
-      <c r="L28" t="s">
-        <v>122</v>
-      </c>
-      <c r="M28" t="s">
-        <v>138</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="R28" t="s">
+        <v>120</v>
+      </c>
+      <c r="S28" t="s">
+        <v>161</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="O28" t="s">
-        <v>239</v>
-      </c>
-      <c r="P28" t="s">
-        <v>775</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>240</v>
-      </c>
-      <c r="R28" t="s">
-        <v>122</v>
-      </c>
-      <c r="S28" t="s">
-        <v>163</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="U28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B29" t="s">
+      <c r="H29" t="s">
         <v>242</v>
       </c>
-      <c r="C29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="I29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29" t="s">
+        <v>141</v>
+      </c>
+      <c r="N29" t="s">
+        <v>93</v>
+      </c>
+      <c r="O29" t="s">
+        <v>244</v>
+      </c>
+      <c r="P29" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>135</v>
+      </c>
+      <c r="R29" t="s">
+        <v>134</v>
+      </c>
+      <c r="S29" t="s">
         <v>242</v>
       </c>
-      <c r="F29" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="H29" t="s">
-        <v>244</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J29" s="9" t="s">
+      <c r="T29" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="K29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L29" t="s">
-        <v>142</v>
-      </c>
-      <c r="M29" t="s">
-        <v>143</v>
-      </c>
-      <c r="N29" t="s">
-        <v>95</v>
-      </c>
-      <c r="O29" t="s">
-        <v>246</v>
-      </c>
-      <c r="P29" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>137</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="U29" t="s">
         <v>136</v>
-      </c>
-      <c r="S29" t="s">
-        <v>244</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="U29" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E30" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C30" t="s">
-        <v>249</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="G30" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" t="s">
         <v>251</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="I30" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="K30" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="S30" t="s">
         <v>255</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="T30" t="s">
         <v>256</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>257</v>
-      </c>
-      <c r="T30" t="s">
-        <v>258</v>
-      </c>
-      <c r="U30" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="T31">
         <v>200</v>
@@ -4836,663 +4830,663 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I32" t="s">
+        <v>260</v>
+      </c>
+      <c r="J32" t="s">
+        <v>260</v>
+      </c>
+      <c r="K32" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" t="s">
+        <v>260</v>
+      </c>
+      <c r="M32" t="s">
+        <v>260</v>
+      </c>
+      <c r="N32" t="s">
+        <v>260</v>
+      </c>
+      <c r="O32" t="s">
+        <v>260</v>
+      </c>
+      <c r="P32" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>260</v>
+      </c>
+      <c r="R32" t="s">
+        <v>260</v>
+      </c>
+      <c r="S32" t="s">
+        <v>260</v>
+      </c>
+      <c r="T32" t="s">
         <v>261</v>
       </c>
-      <c r="B32" t="s">
-        <v>262</v>
-      </c>
-      <c r="C32" t="s">
-        <v>262</v>
-      </c>
-      <c r="D32" t="s">
-        <v>262</v>
-      </c>
-      <c r="E32" t="s">
-        <v>262</v>
-      </c>
-      <c r="F32" t="s">
-        <v>262</v>
-      </c>
-      <c r="G32" t="s">
-        <v>186</v>
-      </c>
-      <c r="H32" t="s">
-        <v>262</v>
-      </c>
-      <c r="I32" t="s">
-        <v>262</v>
-      </c>
-      <c r="J32" t="s">
-        <v>262</v>
-      </c>
-      <c r="K32" t="s">
-        <v>262</v>
-      </c>
-      <c r="L32" t="s">
-        <v>262</v>
-      </c>
-      <c r="M32" t="s">
-        <v>262</v>
-      </c>
-      <c r="N32" t="s">
-        <v>262</v>
-      </c>
-      <c r="O32" t="s">
-        <v>262</v>
-      </c>
-      <c r="P32" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>262</v>
-      </c>
-      <c r="R32" t="s">
-        <v>262</v>
-      </c>
-      <c r="S32" t="s">
-        <v>262</v>
-      </c>
-      <c r="T32" t="s">
-        <v>263</v>
-      </c>
       <c r="U32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G33" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" t="s">
         <v>184</v>
       </c>
-      <c r="H33" t="s">
-        <v>186</v>
-      </c>
       <c r="I33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K34" t="s">
+        <v>182</v>
+      </c>
+      <c r="L34" t="s">
+        <v>182</v>
+      </c>
+      <c r="M34" t="s">
+        <v>182</v>
+      </c>
+      <c r="N34" t="s">
+        <v>182</v>
+      </c>
+      <c r="O34" t="s">
+        <v>182</v>
+      </c>
+      <c r="P34" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>182</v>
+      </c>
+      <c r="R34" t="s">
+        <v>182</v>
+      </c>
+      <c r="S34" t="s">
+        <v>182</v>
+      </c>
+      <c r="T34" t="s">
         <v>184</v>
       </c>
-      <c r="C34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" t="s">
-        <v>184</v>
-      </c>
-      <c r="F34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" t="s">
-        <v>114</v>
-      </c>
-      <c r="H34" t="s">
-        <v>184</v>
-      </c>
-      <c r="I34" t="s">
-        <v>184</v>
-      </c>
-      <c r="J34" t="s">
-        <v>184</v>
-      </c>
-      <c r="K34" t="s">
-        <v>184</v>
-      </c>
-      <c r="L34" t="s">
-        <v>184</v>
-      </c>
-      <c r="M34" t="s">
-        <v>184</v>
-      </c>
-      <c r="N34" t="s">
-        <v>184</v>
-      </c>
-      <c r="O34" t="s">
-        <v>184</v>
-      </c>
-      <c r="P34" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>184</v>
-      </c>
-      <c r="R34" t="s">
-        <v>184</v>
-      </c>
-      <c r="S34" t="s">
-        <v>184</v>
-      </c>
-      <c r="T34" t="s">
-        <v>186</v>
-      </c>
       <c r="U34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T35" t="s">
+        <v>112</v>
+      </c>
+      <c r="U35" t="s">
         <v>114</v>
-      </c>
-      <c r="U35" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>245</v>
+      </c>
+      <c r="H36" t="s">
+        <v>245</v>
+      </c>
+      <c r="I36" t="s">
+        <v>245</v>
+      </c>
+      <c r="J36" t="s">
+        <v>245</v>
+      </c>
+      <c r="K36" t="s">
+        <v>245</v>
+      </c>
+      <c r="L36" t="s">
+        <v>245</v>
+      </c>
+      <c r="M36" t="s">
+        <v>152</v>
+      </c>
+      <c r="N36" t="s">
+        <v>134</v>
+      </c>
+      <c r="O36" t="s">
+        <v>245</v>
+      </c>
+      <c r="P36" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>245</v>
+      </c>
+      <c r="R36" t="s">
+        <v>245</v>
+      </c>
+      <c r="S36" t="s">
+        <v>245</v>
+      </c>
+      <c r="T36" t="s">
+        <v>140</v>
+      </c>
+      <c r="U36" t="s">
         <v>267</v>
-      </c>
-      <c r="B36" t="s">
-        <v>247</v>
-      </c>
-      <c r="C36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" t="s">
-        <v>247</v>
-      </c>
-      <c r="F36" t="s">
-        <v>268</v>
-      </c>
-      <c r="G36" t="s">
-        <v>247</v>
-      </c>
-      <c r="H36" t="s">
-        <v>247</v>
-      </c>
-      <c r="I36" t="s">
-        <v>247</v>
-      </c>
-      <c r="J36" t="s">
-        <v>247</v>
-      </c>
-      <c r="K36" t="s">
-        <v>247</v>
-      </c>
-      <c r="L36" t="s">
-        <v>247</v>
-      </c>
-      <c r="M36" t="s">
-        <v>154</v>
-      </c>
-      <c r="N36" t="s">
-        <v>136</v>
-      </c>
-      <c r="O36" t="s">
-        <v>247</v>
-      </c>
-      <c r="P36" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>247</v>
-      </c>
-      <c r="R36" t="s">
-        <v>247</v>
-      </c>
-      <c r="S36" t="s">
-        <v>247</v>
-      </c>
-      <c r="T36" t="s">
-        <v>142</v>
-      </c>
-      <c r="U36" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="S37" t="s">
+        <v>269</v>
+      </c>
+      <c r="T37" t="s">
         <v>270</v>
       </c>
-      <c r="S37" t="s">
+      <c r="U37" t="s">
         <v>271</v>
-      </c>
-      <c r="T37" t="s">
-        <v>272</v>
-      </c>
-      <c r="U37" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="S38" t="s">
+        <v>273</v>
+      </c>
+      <c r="T38" t="s">
         <v>274</v>
       </c>
-      <c r="S38" t="s">
+      <c r="U38" t="s">
         <v>275</v>
-      </c>
-      <c r="T38" t="s">
-        <v>276</v>
-      </c>
-      <c r="U38" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="S39" t="s">
+        <v>277</v>
+      </c>
+      <c r="T39" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="S39" t="s">
+      <c r="U39" t="s">
         <v>279</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="U39" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S40" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="S42" t="s">
+        <v>285</v>
+      </c>
+      <c r="T42" t="s">
         <v>286</v>
-      </c>
-      <c r="S42" t="s">
-        <v>287</v>
-      </c>
-      <c r="T42" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="N43" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="R43" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="R43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E44" t="s">
+        <v>307</v>
+      </c>
+      <c r="F44" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" t="s">
+        <v>307</v>
+      </c>
+      <c r="H44" t="s">
+        <v>307</v>
+      </c>
+      <c r="I44" t="s">
+        <v>307</v>
+      </c>
+      <c r="J44" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" t="s">
         <v>308</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="L44" t="s">
+        <v>308</v>
+      </c>
+      <c r="M44" t="s">
+        <v>308</v>
+      </c>
+      <c r="N44" t="s">
+        <v>307</v>
+      </c>
+      <c r="O44" t="s">
+        <v>307</v>
+      </c>
+      <c r="P44" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>308</v>
+      </c>
+      <c r="R44" t="s">
+        <v>308</v>
+      </c>
+      <c r="S44" t="s">
         <v>309</v>
       </c>
-      <c r="C44" t="s">
-        <v>309</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E44" t="s">
-        <v>309</v>
-      </c>
-      <c r="F44" t="s">
-        <v>309</v>
-      </c>
-      <c r="G44" t="s">
-        <v>309</v>
-      </c>
-      <c r="H44" t="s">
-        <v>309</v>
-      </c>
-      <c r="I44" t="s">
-        <v>309</v>
-      </c>
-      <c r="J44" t="s">
-        <v>309</v>
-      </c>
-      <c r="K44" t="s">
-        <v>310</v>
-      </c>
-      <c r="L44" t="s">
-        <v>310</v>
-      </c>
-      <c r="M44" t="s">
-        <v>310</v>
-      </c>
-      <c r="N44" t="s">
-        <v>309</v>
-      </c>
-      <c r="O44" t="s">
-        <v>309</v>
-      </c>
-      <c r="P44" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>310</v>
-      </c>
-      <c r="R44" t="s">
-        <v>310</v>
-      </c>
-      <c r="S44" t="s">
-        <v>311</v>
-      </c>
       <c r="T44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="U44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="U45" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="O46" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="P46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="U46" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5526,10 +5520,10 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5540,79 +5534,79 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="M49" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="Q49" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="R49" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2">
         <v>100</v>
@@ -5639,7 +5633,7 @@
         <v>10000</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K50" s="2">
         <v>1000</v>
@@ -5654,7 +5648,7 @@
         <v>1000</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P50" s="12">
         <v>1000</v>
@@ -5681,7 +5675,7 @@
         <v>1000</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Y50" s="2">
         <v>10000</v>
@@ -5695,7 +5689,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B51" s="13">
         <f>$S$51*B9</f>
@@ -5802,7 +5796,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B52">
         <v>61</v>
@@ -5885,7 +5879,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B53" s="13">
         <f t="shared" ref="B53:F53" si="2">B52*B9</f>
@@ -5953,7 +5947,7 @@
         <v>182.24</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="T53" s="13">
         <f>T52*T9</f>
@@ -5990,121 +5984,121 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I54" t="s">
         <v>373</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I54" t="s">
-        <v>375</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="T54" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="U54" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" t="s">
+        <v>376</v>
+      </c>
+      <c r="D55" t="s">
+        <v>376</v>
+      </c>
+      <c r="E55" t="s">
+        <v>376</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B55" t="s">
+      <c r="G55" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C55" t="s">
+      <c r="H55" t="s">
+        <v>379</v>
+      </c>
+      <c r="I55" t="s">
+        <v>380</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L55" t="s">
+        <v>380</v>
+      </c>
+      <c r="M55" t="s">
+        <v>380</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D55" t="s">
+      <c r="P55" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>380</v>
+      </c>
+      <c r="R55" t="s">
+        <v>380</v>
+      </c>
+      <c r="S55" t="s">
+        <v>380</v>
+      </c>
+      <c r="T55" t="s">
+        <v>376</v>
+      </c>
+      <c r="U55" t="s">
+        <v>376</v>
+      </c>
+      <c r="V55" t="s">
+        <v>380</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="X55" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E55" t="s">
+      <c r="Y55" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z55" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="AA55" t="s">
         <v>380</v>
-      </c>
-      <c r="H55" t="s">
-        <v>381</v>
-      </c>
-      <c r="I55" t="s">
-        <v>382</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="L55" t="s">
-        <v>382</v>
-      </c>
-      <c r="M55" t="s">
-        <v>382</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>382</v>
-      </c>
-      <c r="R55" t="s">
-        <v>382</v>
-      </c>
-      <c r="S55" t="s">
-        <v>382</v>
-      </c>
-      <c r="T55" t="s">
-        <v>378</v>
-      </c>
-      <c r="U55" t="s">
-        <v>378</v>
-      </c>
-      <c r="V55" t="s">
-        <v>382</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -6169,7 +6163,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B57">
         <v>887</v>
@@ -6252,7 +6246,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B58" s="15">
         <f t="shared" ref="B58:AA58" si="5">B57/B62</f>
@@ -6361,7 +6355,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B59">
         <v>45</v>
@@ -6445,7 +6439,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B60" s="5">
         <v>796.529</v>
@@ -6528,7 +6522,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B61" s="5">
         <v>68527599.400000006</v>
@@ -6611,7 +6605,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B62" s="5">
         <v>84</v>
@@ -6694,7 +6688,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B63" s="18">
         <f t="shared" ref="B63:P63" si="6">2.5*B59/1000</f>
@@ -6803,7 +6797,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B64" s="16">
         <f t="shared" ref="B64:K64" si="8">B63*B9</f>
@@ -6912,7 +6906,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B65" s="5">
         <f t="shared" ref="B65:R65" si="11">0.8*0.8*B60*B59*1000000*B9/B61</f>
@@ -7021,412 +7015,412 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="K66" s="16" t="s">
         <v>395</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="K66" s="16" t="s">
-        <v>397</v>
       </c>
       <c r="S66" s="16">
         <v>100</v>
       </c>
       <c r="T66" s="16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="U66" s="16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="O67" t="s">
+        <v>132</v>
+      </c>
+      <c r="P67" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>193</v>
+      </c>
+      <c r="R67" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="M67" s="16" t="s">
+      <c r="S67" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="T67" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="N67" s="16" t="s">
+      <c r="U67" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="V67" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="W67" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="O67" t="s">
-        <v>134</v>
-      </c>
-      <c r="P67" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>195</v>
-      </c>
-      <c r="R67" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="S67" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="T67" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="U67" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="V67" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="W67" s="16" t="s">
-        <v>186</v>
-      </c>
       <c r="X67" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y67" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Z67" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AA67" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="O68" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="P68" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R68" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="S68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="U68" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="V68" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="N68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="O68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="R68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="S68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="T68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="U68" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="V68" s="16" t="s">
-        <v>405</v>
-      </c>
       <c r="W68" s="16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="X68" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Y68" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Z68" s="16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AA68" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="E69" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="G69" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="D69" s="16" t="s">
+      <c r="H69" s="16" t="s">
         <v>409</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>411</v>
       </c>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
       <c r="K69" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M69" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N69" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P69" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S69" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T69" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="U69" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="E70" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="G70" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="C70" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="D70" s="16" t="s">
+      <c r="H70" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="I70" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="E70" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="G70" s="16" t="s">
+      <c r="J70" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="H70" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="I70" s="16" t="s">
+      <c r="K70" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="J70" s="16" t="s">
+      <c r="L70" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="M70" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="N70" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="O70" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="K70" s="16" t="s">
+      <c r="P70" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q70" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="R70" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S70" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="L70" s="16" t="s">
+      <c r="T70" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="M70" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="N70" s="16" t="s">
+      <c r="U70" s="16" t="s">
         <v>422</v>
-      </c>
-      <c r="O70" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="P70" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q70" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="R70" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="S70" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="T70" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="U70" s="16" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B71" t="s">
+        <v>424</v>
+      </c>
+      <c r="C71" t="s">
         <v>425</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>426</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>427</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>428</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
         <v>429</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="G71" t="s">
+      <c r="I71" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="J71" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="I71" s="16" t="s">
+      <c r="K71" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="L71" t="s">
         <v>434</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="M71" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="L71" t="s">
+      <c r="N71" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="M71" s="16" t="s">
+      <c r="O71" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="N71" s="16" t="s">
+      <c r="P71" t="s">
         <v>438</v>
       </c>
-      <c r="O71" s="16" t="s">
+      <c r="Q71" t="s">
         <v>439</v>
       </c>
-      <c r="P71" t="s">
+      <c r="S71" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="T71" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="S71" s="16" t="s">
+      <c r="U71" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="T71" s="20" t="s">
+      <c r="W71" t="s">
         <v>443</v>
       </c>
-      <c r="U71" s="16" t="s">
+      <c r="X71" t="s">
         <v>444</v>
       </c>
-      <c r="W71" t="s">
+      <c r="Y71" t="s">
         <v>445</v>
       </c>
-      <c r="X71" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>447</v>
-      </c>
       <c r="Z71" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B72">
         <v>0.37862000000000001</v>
@@ -7480,7 +7474,7 @@
         <v>0.79</v>
       </c>
       <c r="S72" s="16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T72">
         <v>0.15443999999999999</v>
@@ -7500,7 +7494,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B73">
         <v>1.5</v>
@@ -7583,7 +7577,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B74">
         <v>1.804</v>
@@ -7636,7 +7630,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B75">
         <v>0.36799999999999999</v>
@@ -7689,7 +7683,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B76">
         <v>6.6000000000000003E-2</v>
@@ -7718,7 +7712,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B77">
         <v>0.90300000000000002</v>
@@ -7747,7 +7741,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D78">
         <f>240.49/D9</f>
@@ -7764,1136 +7758,1136 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B79" t="s">
+        <v>455</v>
+      </c>
+      <c r="C79" t="s">
+        <v>455</v>
+      </c>
+      <c r="D79" t="s">
+        <v>455</v>
+      </c>
+      <c r="E79" t="s">
+        <v>455</v>
+      </c>
+      <c r="F79" t="s">
         <v>456</v>
       </c>
-      <c r="B79" t="s">
+      <c r="G79" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C79" t="s">
+      <c r="H79" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D79" t="s">
-        <v>457</v>
-      </c>
-      <c r="E79" t="s">
-        <v>457</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="I79" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="J79" t="s">
         <v>459</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="I79" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="J79" t="s">
+      <c r="L79" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="M79" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="N79" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="O79" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="M79" s="2" t="s">
+      <c r="P79" t="s">
         <v>464</v>
       </c>
-      <c r="N79" s="2" t="s">
+      <c r="Q79" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="O79" s="2" t="s">
+      <c r="R79" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="P79" t="s">
+      <c r="S79" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="Q79" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="R79" s="2" t="s">
+      <c r="T79" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="S79" s="2" t="s">
+      <c r="U79" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="U79" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B80" t="s">
+        <v>470</v>
+      </c>
+      <c r="C80" t="s">
         <v>471</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80" t="s">
         <v>472</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E80" t="s">
         <v>473</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
+        <v>470</v>
+      </c>
+      <c r="G80" t="s">
         <v>474</v>
       </c>
-      <c r="E80" t="s">
+      <c r="H80" t="s">
         <v>475</v>
       </c>
-      <c r="F80" t="s">
-        <v>472</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="I80" t="s">
         <v>476</v>
       </c>
-      <c r="H80" t="s">
+      <c r="J80" t="s">
         <v>477</v>
       </c>
-      <c r="I80" t="s">
+      <c r="K80" t="s">
         <v>478</v>
       </c>
-      <c r="J80" t="s">
+      <c r="L80" t="s">
         <v>479</v>
       </c>
-      <c r="K80" t="s">
+      <c r="M80" t="s">
+        <v>471</v>
+      </c>
+      <c r="N80" t="s">
+        <v>470</v>
+      </c>
+      <c r="O80" t="s">
         <v>480</v>
       </c>
-      <c r="L80" t="s">
+      <c r="P80" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>479</v>
+      </c>
+      <c r="R80" t="s">
+        <v>473</v>
+      </c>
+      <c r="S80" t="s">
+        <v>787</v>
+      </c>
+      <c r="T80" t="s">
         <v>481</v>
       </c>
-      <c r="M80" t="s">
-        <v>473</v>
-      </c>
-      <c r="N80" t="s">
-        <v>472</v>
-      </c>
-      <c r="O80" t="s">
+      <c r="U80" t="s">
         <v>482</v>
-      </c>
-      <c r="P80" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>481</v>
-      </c>
-      <c r="R80" t="s">
-        <v>475</v>
-      </c>
-      <c r="S80" t="s">
-        <v>790</v>
-      </c>
-      <c r="T80" t="s">
-        <v>483</v>
-      </c>
-      <c r="U80" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="S81" t="s">
+        <v>484</v>
+      </c>
+      <c r="T81" t="s">
         <v>485</v>
       </c>
-      <c r="S81" t="s">
+      <c r="U81" t="s">
         <v>486</v>
-      </c>
-      <c r="T81" t="s">
-        <v>487</v>
-      </c>
-      <c r="U81" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="S82" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B83" t="s">
+        <v>490</v>
+      </c>
+      <c r="C83" t="s">
+        <v>490</v>
+      </c>
+      <c r="D83" t="s">
+        <v>490</v>
+      </c>
+      <c r="E83" t="s">
+        <v>490</v>
+      </c>
+      <c r="F83" t="s">
+        <v>490</v>
+      </c>
+      <c r="G83" t="s">
         <v>491</v>
       </c>
-      <c r="B83" t="s">
+      <c r="H83" t="s">
         <v>492</v>
       </c>
-      <c r="C83" t="s">
-        <v>492</v>
-      </c>
-      <c r="D83" t="s">
-        <v>492</v>
-      </c>
-      <c r="E83" t="s">
-        <v>492</v>
-      </c>
-      <c r="F83" t="s">
-        <v>492</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="I83" t="s">
         <v>493</v>
       </c>
-      <c r="H83" t="s">
+      <c r="J83" t="s">
         <v>494</v>
       </c>
-      <c r="I83" t="s">
+      <c r="S83" t="s">
         <v>495</v>
       </c>
-      <c r="J83" t="s">
-        <v>496</v>
-      </c>
-      <c r="S83" t="s">
-        <v>497</v>
-      </c>
       <c r="T83" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="U83" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="S84" t="s">
         <v>498</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="T84" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="S84" t="s">
+      <c r="U84" t="s">
         <v>500</v>
-      </c>
-      <c r="T84" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="U84" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F85" t="s">
+        <v>502</v>
+      </c>
+      <c r="I85" t="s">
         <v>503</v>
       </c>
-      <c r="F85" t="s">
+      <c r="S85" t="s">
         <v>504</v>
       </c>
-      <c r="I85" t="s">
+      <c r="T85" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="S85" t="s">
-        <v>506</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="U85" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="S86" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="S87" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="S88" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C89" t="s">
+        <v>513</v>
+      </c>
+      <c r="D89" t="s">
         <v>514</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
         <v>515</v>
       </c>
-      <c r="D89" t="s">
+      <c r="F89" t="s">
         <v>516</v>
       </c>
-      <c r="E89" t="s">
+      <c r="G89" t="s">
         <v>517</v>
       </c>
-      <c r="F89" t="s">
+      <c r="H89" t="s">
         <v>518</v>
       </c>
-      <c r="G89" t="s">
+      <c r="I89" t="s">
         <v>519</v>
       </c>
-      <c r="H89" t="s">
+      <c r="J89" t="s">
         <v>520</v>
       </c>
-      <c r="I89" t="s">
+      <c r="K89" t="s">
         <v>521</v>
       </c>
-      <c r="J89" t="s">
+      <c r="L89" t="s">
         <v>522</v>
       </c>
-      <c r="K89" t="s">
+      <c r="M89" t="s">
         <v>523</v>
       </c>
-      <c r="L89" t="s">
+      <c r="N89" t="s">
         <v>524</v>
       </c>
-      <c r="M89" t="s">
+      <c r="O89" t="s">
         <v>525</v>
       </c>
-      <c r="N89" t="s">
+      <c r="P89" t="s">
         <v>526</v>
       </c>
-      <c r="O89" t="s">
+      <c r="Q89" t="s">
         <v>527</v>
       </c>
-      <c r="P89" t="s">
+      <c r="R89" t="s">
         <v>528</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="S89" t="s">
         <v>529</v>
       </c>
-      <c r="R89" t="s">
+      <c r="T89" t="s">
         <v>530</v>
       </c>
-      <c r="S89" t="s">
+      <c r="U89" t="s">
         <v>531</v>
-      </c>
-      <c r="T89" t="s">
-        <v>532</v>
-      </c>
-      <c r="U89" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C90" t="s">
+        <v>533</v>
+      </c>
+      <c r="D90" t="s">
         <v>534</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>535</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>536</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>537</v>
       </c>
-      <c r="F90" t="s">
+      <c r="H90" t="s">
         <v>538</v>
       </c>
-      <c r="G90" t="s">
+      <c r="I90" t="s">
         <v>539</v>
       </c>
-      <c r="H90" t="s">
+      <c r="J90" t="s">
         <v>540</v>
       </c>
-      <c r="I90" t="s">
+      <c r="K90" t="s">
         <v>541</v>
       </c>
-      <c r="J90" t="s">
+      <c r="L90" t="s">
         <v>542</v>
       </c>
-      <c r="K90" t="s">
+      <c r="M90" t="s">
         <v>543</v>
       </c>
-      <c r="L90" t="s">
+      <c r="N90" t="s">
         <v>544</v>
       </c>
-      <c r="M90" t="s">
+      <c r="O90" t="s">
         <v>545</v>
       </c>
-      <c r="N90" t="s">
+      <c r="P90" t="s">
         <v>546</v>
       </c>
-      <c r="O90" t="s">
+      <c r="Q90" t="s">
         <v>547</v>
       </c>
-      <c r="P90" t="s">
+      <c r="R90" t="s">
         <v>548</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="S90" t="s">
         <v>549</v>
       </c>
-      <c r="R90" t="s">
+      <c r="T90" t="s">
         <v>550</v>
       </c>
-      <c r="S90" t="s">
+      <c r="U90" t="s">
         <v>551</v>
-      </c>
-      <c r="T90" t="s">
-        <v>552</v>
-      </c>
-      <c r="U90" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C91" t="s">
+        <v>553</v>
+      </c>
+      <c r="D91" t="s">
         <v>554</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>555</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>556</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
         <v>557</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" t="s">
         <v>558</v>
       </c>
-      <c r="G91" t="s">
+      <c r="I91" t="s">
         <v>559</v>
       </c>
-      <c r="H91" t="s">
+      <c r="J91" t="s">
         <v>560</v>
       </c>
-      <c r="I91" t="s">
+      <c r="K91" t="s">
         <v>561</v>
       </c>
-      <c r="J91" t="s">
+      <c r="L91" t="s">
         <v>562</v>
       </c>
-      <c r="K91" t="s">
+      <c r="M91" t="s">
         <v>563</v>
       </c>
-      <c r="L91" t="s">
+      <c r="N91" t="s">
         <v>564</v>
       </c>
-      <c r="M91" t="s">
+      <c r="O91" t="s">
         <v>565</v>
       </c>
-      <c r="N91" t="s">
+      <c r="P91" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q91" t="s">
         <v>566</v>
       </c>
-      <c r="O91" t="s">
+      <c r="R91" t="s">
         <v>567</v>
       </c>
-      <c r="P91" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q91" t="s">
+      <c r="S91" t="s">
         <v>568</v>
       </c>
-      <c r="R91" t="s">
+      <c r="T91" t="s">
         <v>569</v>
       </c>
-      <c r="S91" t="s">
+      <c r="U91" t="s">
         <v>570</v>
-      </c>
-      <c r="T91" t="s">
-        <v>571</v>
-      </c>
-      <c r="U91" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C92" t="s">
+        <v>572</v>
+      </c>
+      <c r="D92" t="s">
         <v>573</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>574</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>575</v>
       </c>
-      <c r="E92" t="s">
+      <c r="G92" t="s">
         <v>576</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
         <v>577</v>
       </c>
-      <c r="G92" t="s">
+      <c r="I92" t="s">
         <v>578</v>
       </c>
-      <c r="H92" t="s">
+      <c r="J92" t="s">
         <v>579</v>
       </c>
-      <c r="I92" t="s">
+      <c r="K92" t="s">
         <v>580</v>
       </c>
-      <c r="J92" t="s">
+      <c r="L92" t="s">
         <v>581</v>
       </c>
-      <c r="K92" t="s">
+      <c r="M92" t="s">
         <v>582</v>
       </c>
-      <c r="L92" t="s">
+      <c r="N92" t="s">
         <v>583</v>
       </c>
-      <c r="M92" t="s">
+      <c r="O92" t="s">
         <v>584</v>
       </c>
-      <c r="N92" t="s">
+      <c r="P92" t="s">
         <v>585</v>
       </c>
-      <c r="O92" t="s">
+      <c r="Q92" t="s">
         <v>586</v>
       </c>
-      <c r="P92" t="s">
+      <c r="R92" t="s">
         <v>587</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="S92" s="22" t="s">
         <v>588</v>
       </c>
-      <c r="R92" t="s">
+      <c r="T92" t="s">
         <v>589</v>
       </c>
-      <c r="S92" s="22" t="s">
+      <c r="U92" t="s">
         <v>590</v>
-      </c>
-      <c r="T92" t="s">
-        <v>591</v>
-      </c>
-      <c r="U92" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C93" t="s">
+        <v>592</v>
+      </c>
+      <c r="D93" t="s">
         <v>593</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
         <v>594</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>595</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="s">
         <v>596</v>
       </c>
-      <c r="F93" t="s">
+      <c r="H93" t="s">
         <v>597</v>
       </c>
-      <c r="G93" t="s">
+      <c r="I93" t="s">
         <v>598</v>
       </c>
-      <c r="H93" t="s">
+      <c r="J93" t="s">
         <v>599</v>
       </c>
-      <c r="I93" t="s">
+      <c r="K93" t="s">
         <v>600</v>
       </c>
-      <c r="J93" t="s">
+      <c r="L93" t="s">
         <v>601</v>
       </c>
-      <c r="K93" t="s">
+      <c r="M93" t="s">
         <v>602</v>
       </c>
-      <c r="L93" t="s">
+      <c r="N93" t="s">
         <v>603</v>
       </c>
-      <c r="M93" t="s">
+      <c r="P93" t="s">
         <v>604</v>
       </c>
-      <c r="N93" t="s">
+      <c r="Q93" t="s">
         <v>605</v>
       </c>
-      <c r="P93" t="s">
+      <c r="R93" t="s">
         <v>606</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="U93" t="s">
         <v>607</v>
-      </c>
-      <c r="R93" t="s">
-        <v>608</v>
-      </c>
-      <c r="U93" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C94" t="s">
+        <v>609</v>
+      </c>
+      <c r="D94" t="s">
         <v>610</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>611</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>612</v>
       </c>
-      <c r="E94" t="s">
+      <c r="H94" t="s">
         <v>613</v>
       </c>
-      <c r="F94" t="s">
+      <c r="I94" t="s">
         <v>614</v>
       </c>
-      <c r="H94" t="s">
+      <c r="J94" t="s">
         <v>615</v>
       </c>
-      <c r="I94" t="s">
+      <c r="L94" t="s">
         <v>616</v>
       </c>
-      <c r="J94" t="s">
+      <c r="M94" t="s">
         <v>617</v>
       </c>
-      <c r="L94" t="s">
+      <c r="N94" t="s">
         <v>618</v>
       </c>
-      <c r="M94" t="s">
+      <c r="R94" t="s">
         <v>619</v>
       </c>
-      <c r="N94" t="s">
+      <c r="U94" t="s">
         <v>620</v>
-      </c>
-      <c r="R94" t="s">
-        <v>621</v>
-      </c>
-      <c r="U94" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C95" t="s">
+        <v>622</v>
+      </c>
+      <c r="E95" t="s">
         <v>623</v>
       </c>
-      <c r="C95" t="s">
+      <c r="H95" t="s">
         <v>624</v>
       </c>
-      <c r="E95" t="s">
+      <c r="I95" t="s">
         <v>625</v>
       </c>
-      <c r="H95" t="s">
+      <c r="J95" t="s">
         <v>626</v>
       </c>
-      <c r="I95" t="s">
+      <c r="M95" t="s">
         <v>627</v>
       </c>
-      <c r="J95" t="s">
+      <c r="R95" t="s">
         <v>628</v>
-      </c>
-      <c r="M95" t="s">
-        <v>629</v>
-      </c>
-      <c r="R95" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E96" t="s">
+        <v>630</v>
+      </c>
+      <c r="H96" t="s">
         <v>631</v>
       </c>
-      <c r="E96" t="s">
+      <c r="I96" t="s">
         <v>632</v>
       </c>
-      <c r="H96" t="s">
+      <c r="R96" t="s">
         <v>633</v>
-      </c>
-      <c r="I96" t="s">
-        <v>634</v>
-      </c>
-      <c r="R96" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E97" t="s">
+        <v>635</v>
+      </c>
+      <c r="I97" t="s">
         <v>636</v>
-      </c>
-      <c r="E97" t="s">
-        <v>637</v>
-      </c>
-      <c r="I97" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E98" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I98" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J98" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="S99" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="S100" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="S101" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B102" t="s">
+        <v>646</v>
+      </c>
+      <c r="C102" t="s">
+        <v>646</v>
+      </c>
+      <c r="D102" t="s">
+        <v>646</v>
+      </c>
+      <c r="E102" t="s">
+        <v>646</v>
+      </c>
+      <c r="F102" t="s">
+        <v>646</v>
+      </c>
+      <c r="G102" t="s">
+        <v>646</v>
+      </c>
+      <c r="I102" t="s">
+        <v>646</v>
+      </c>
+      <c r="J102" t="s">
+        <v>646</v>
+      </c>
+      <c r="K102" t="s">
+        <v>646</v>
+      </c>
+      <c r="N102" t="s">
         <v>647</v>
       </c>
-      <c r="B102" t="s">
+      <c r="S102" t="s">
         <v>648</v>
       </c>
-      <c r="C102" t="s">
-        <v>648</v>
-      </c>
-      <c r="D102" t="s">
-        <v>648</v>
-      </c>
-      <c r="E102" t="s">
-        <v>648</v>
-      </c>
-      <c r="F102" t="s">
-        <v>648</v>
-      </c>
-      <c r="G102" t="s">
-        <v>648</v>
-      </c>
-      <c r="I102" t="s">
-        <v>648</v>
-      </c>
-      <c r="J102" t="s">
-        <v>648</v>
-      </c>
-      <c r="K102" t="s">
-        <v>648</v>
-      </c>
-      <c r="N102" t="s">
-        <v>649</v>
-      </c>
-      <c r="S102" t="s">
-        <v>650</v>
-      </c>
       <c r="T102" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="U102" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B103" t="s">
+        <v>650</v>
+      </c>
+      <c r="C103" t="s">
+        <v>650</v>
+      </c>
+      <c r="D103" t="s">
+        <v>650</v>
+      </c>
+      <c r="E103" t="s">
+        <v>650</v>
+      </c>
+      <c r="F103" t="s">
+        <v>650</v>
+      </c>
+      <c r="G103" t="s">
+        <v>650</v>
+      </c>
+      <c r="H103" t="s">
+        <v>650</v>
+      </c>
+      <c r="I103" t="s">
+        <v>650</v>
+      </c>
+      <c r="J103" t="s">
+        <v>650</v>
+      </c>
+      <c r="K103" t="s">
+        <v>650</v>
+      </c>
+      <c r="L103" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>650</v>
+      </c>
+      <c r="S103" t="s">
         <v>651</v>
       </c>
-      <c r="B103" t="s">
-        <v>652</v>
-      </c>
-      <c r="C103" t="s">
-        <v>652</v>
-      </c>
-      <c r="D103" t="s">
-        <v>652</v>
-      </c>
-      <c r="E103" t="s">
-        <v>652</v>
-      </c>
-      <c r="F103" t="s">
-        <v>652</v>
-      </c>
-      <c r="G103" t="s">
-        <v>652</v>
-      </c>
-      <c r="H103" t="s">
-        <v>652</v>
-      </c>
-      <c r="I103" t="s">
-        <v>652</v>
-      </c>
-      <c r="J103" t="s">
-        <v>652</v>
-      </c>
-      <c r="K103" t="s">
-        <v>652</v>
-      </c>
-      <c r="L103" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>652</v>
-      </c>
-      <c r="S103" t="s">
-        <v>653</v>
-      </c>
       <c r="T103" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="U103" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="W103" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B104" t="s">
+        <v>653</v>
+      </c>
+      <c r="C104" t="s">
+        <v>653</v>
+      </c>
+      <c r="D104" t="s">
+        <v>653</v>
+      </c>
+      <c r="E104" t="s">
+        <v>653</v>
+      </c>
+      <c r="F104" t="s">
+        <v>653</v>
+      </c>
+      <c r="G104" t="s">
+        <v>653</v>
+      </c>
+      <c r="H104" t="s">
+        <v>653</v>
+      </c>
+      <c r="I104" t="s">
+        <v>653</v>
+      </c>
+      <c r="J104" t="s">
+        <v>653</v>
+      </c>
+      <c r="K104" t="s">
+        <v>653</v>
+      </c>
+      <c r="L104" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>653</v>
+      </c>
+      <c r="S104" t="s">
         <v>654</v>
       </c>
-      <c r="B104" t="s">
-        <v>655</v>
-      </c>
-      <c r="C104" t="s">
-        <v>655</v>
-      </c>
-      <c r="D104" t="s">
-        <v>655</v>
-      </c>
-      <c r="E104" t="s">
-        <v>655</v>
-      </c>
-      <c r="F104" t="s">
-        <v>655</v>
-      </c>
-      <c r="G104" t="s">
-        <v>655</v>
-      </c>
-      <c r="H104" t="s">
-        <v>655</v>
-      </c>
-      <c r="I104" t="s">
-        <v>655</v>
-      </c>
-      <c r="J104" t="s">
-        <v>655</v>
-      </c>
-      <c r="K104" t="s">
-        <v>655</v>
-      </c>
-      <c r="L104" t="s">
-        <v>655</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>655</v>
-      </c>
-      <c r="S104" t="s">
-        <v>656</v>
-      </c>
       <c r="T104" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="U104" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="W104" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B105" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C105" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D105" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E105" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F105" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="T105" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="U105" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="W105" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B106" t="s">
+        <v>658</v>
+      </c>
+      <c r="C106" t="s">
+        <v>658</v>
+      </c>
+      <c r="E106" t="s">
+        <v>658</v>
+      </c>
+      <c r="F106" t="s">
+        <v>658</v>
+      </c>
+      <c r="L106" t="s">
+        <v>658</v>
+      </c>
+      <c r="S106" t="s">
         <v>659</v>
       </c>
-      <c r="B106" t="s">
-        <v>660</v>
-      </c>
-      <c r="C106" t="s">
-        <v>660</v>
-      </c>
-      <c r="E106" t="s">
-        <v>660</v>
-      </c>
-      <c r="F106" t="s">
-        <v>660</v>
-      </c>
-      <c r="L106" t="s">
-        <v>660</v>
-      </c>
-      <c r="S106" t="s">
-        <v>661</v>
-      </c>
       <c r="T106" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="U106" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="W106" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="D107" t="s">
+        <v>661</v>
+      </c>
+      <c r="H107" t="s">
         <v>662</v>
       </c>
-      <c r="D107" t="s">
+      <c r="K107" t="s">
         <v>663</v>
-      </c>
-      <c r="H107" t="s">
-        <v>664</v>
-      </c>
-      <c r="K107" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="S108" t="s">
+        <v>665</v>
+      </c>
+      <c r="T108" t="s">
         <v>666</v>
       </c>
-      <c r="S108" t="s">
+      <c r="U108" t="s">
         <v>667</v>
-      </c>
-      <c r="T108" t="s">
-        <v>668</v>
-      </c>
-      <c r="U108" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="S109" t="s">
+        <v>669</v>
+      </c>
+      <c r="T109" t="s">
         <v>670</v>
       </c>
-      <c r="S109" t="s">
+      <c r="U109" t="s">
         <v>671</v>
-      </c>
-      <c r="T109" t="s">
-        <v>672</v>
-      </c>
-      <c r="U109" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="S110" t="s">
+        <v>673</v>
+      </c>
+      <c r="T110" t="s">
         <v>674</v>
       </c>
-      <c r="S110" t="s">
+      <c r="U110" t="s">
         <v>675</v>
-      </c>
-      <c r="T110" t="s">
-        <v>676</v>
-      </c>
-      <c r="U110" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="U111" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="S112" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="S113" t="s">
+        <v>681</v>
+      </c>
+      <c r="T113" s="23" t="s">
         <v>682</v>
       </c>
-      <c r="S113" t="s">
+      <c r="U113" t="s">
         <v>683</v>
-      </c>
-      <c r="T113" s="23" t="s">
-        <v>684</v>
-      </c>
-      <c r="U113" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="S114" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="U115" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="D116" t="s">
+        <v>784</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="I116" t="s">
+        <v>782</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="N116" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="D116" t="s">
-        <v>787</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="I116" t="s">
-        <v>785</v>
-      </c>
-      <c r="L116" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="N116" s="9" t="s">
-        <v>783</v>
-      </c>
       <c r="O116" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="P116" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B117" t="s">
+        <v>689</v>
+      </c>
+      <c r="C117" t="s">
         <v>690</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>691</v>
       </c>
-      <c r="C117" t="s">
+      <c r="E117" t="s">
         <v>692</v>
       </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
         <v>693</v>
       </c>
-      <c r="E117" t="s">
+      <c r="G117" t="s">
         <v>694</v>
       </c>
-      <c r="F117" t="s">
+      <c r="I117" t="s">
         <v>695</v>
       </c>
-      <c r="G117" t="s">
+      <c r="J117" t="s">
         <v>696</v>
       </c>
-      <c r="I117" t="s">
+      <c r="K117" s="24" t="s">
         <v>697</v>
       </c>
-      <c r="J117" t="s">
+      <c r="O117" t="s">
+        <v>793</v>
+      </c>
+      <c r="S117" t="s">
         <v>698</v>
       </c>
-      <c r="K117" s="24" t="s">
+      <c r="T117" t="s">
         <v>699</v>
       </c>
-      <c r="O117" t="s">
-        <v>796</v>
-      </c>
-      <c r="S117" t="s">
+      <c r="U117" t="s">
         <v>700</v>
-      </c>
-      <c r="T117" t="s">
-        <v>701</v>
-      </c>
-      <c r="U117" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C118" t="s">
+        <v>702</v>
+      </c>
+      <c r="D118" t="s">
+        <v>792</v>
+      </c>
+      <c r="E118" t="s">
         <v>703</v>
       </c>
-      <c r="C118" t="s">
+      <c r="G118" t="s">
         <v>704</v>
       </c>
-      <c r="D118" t="s">
-        <v>795</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="H118" t="s">
         <v>705</v>
       </c>
-      <c r="G118" t="s">
+      <c r="I118" t="s">
         <v>706</v>
       </c>
-      <c r="H118" t="s">
+      <c r="J118" t="s">
         <v>707</v>
       </c>
-      <c r="I118" t="s">
+      <c r="K118" t="s">
         <v>708</v>
       </c>
-      <c r="J118" t="s">
+      <c r="N118" t="s">
         <v>709</v>
       </c>
-      <c r="K118" t="s">
+      <c r="O118" t="s">
         <v>710</v>
       </c>
-      <c r="N118" t="s">
+      <c r="P118" t="s">
         <v>711</v>
       </c>
-      <c r="O118" t="s">
+      <c r="Q118" t="s">
         <v>712</v>
       </c>
-      <c r="P118" t="s">
+      <c r="T118" t="s">
         <v>713</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>714</v>
-      </c>
-      <c r="T118" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S119" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B120">
         <v>7</v>
@@ -8922,7 +8916,7 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B121">
         <v>6300</v>
@@ -8954,7 +8948,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B122">
         <v>6500</v>
@@ -9016,35 +9010,35 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="S123" t="s">
+        <v>720</v>
+      </c>
+      <c r="T123" t="s">
         <v>721</v>
       </c>
-      <c r="S123" t="s">
+      <c r="U123" t="s">
         <v>722</v>
-      </c>
-      <c r="T123" t="s">
-        <v>723</v>
-      </c>
-      <c r="U123" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="S124" t="s">
+        <v>724</v>
+      </c>
+      <c r="T124" t="s">
         <v>725</v>
       </c>
-      <c r="S124" t="s">
+      <c r="U124" t="s">
         <v>726</v>
-      </c>
-      <c r="T124" t="s">
-        <v>727</v>
-      </c>
-      <c r="U124" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B126" t="s">
         <v>28</v>
@@ -9079,7 +9073,7 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B127" t="s">
         <v>28</v>
@@ -9096,7 +9090,7 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="S128" t="s">
         <v>28</v>
@@ -9110,519 +9104,469 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C129" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D129" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E129" t="s">
-        <v>733</v>
-      </c>
-      <c r="G129" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H129" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I129" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J129" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K129" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="K130" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B131" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C131" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E131" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H131" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I131" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J131" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K131" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H133" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I133" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J133" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K133" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H134" t="s">
-        <v>733</v>
-      </c>
-      <c r="I134" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H135" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I135" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J135" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K135" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="I136" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H137" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I137" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J137" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K137" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B139" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C139" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D139" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F139" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G139" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H139" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K139" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="I140" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J140" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I141" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H142" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I142" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J142" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="I144" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H145" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B146" t="s">
-        <v>733</v>
-      </c>
-      <c r="G146" t="s">
-        <v>754</v>
-      </c>
-      <c r="H146" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I146" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J146" t="s">
-        <v>733</v>
-      </c>
-      <c r="K146" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="H147" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I147" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H148" t="s">
-        <v>736</v>
-      </c>
-      <c r="I148" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="J148" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H149" t="s">
-        <v>736</v>
-      </c>
-      <c r="I149" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="J149" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C150" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H150" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I150" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J150" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K150" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B152" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H152" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H154" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I154" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J154" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K154" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="I155" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="H156" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I156" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J156" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K156" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H160" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I160" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J160" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="H161" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>754</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="G162" s="1"/>
       <c r="H162" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>754</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="I162" s="1"/>
       <c r="J162" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>754</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="I164" s="1"/>
       <c r="K164" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="M164" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B165" t="s">
-        <v>754</v>
-      </c>
-      <c r="G165" t="s">
-        <v>754</v>
-      </c>
-      <c r="H165" t="s">
-        <v>754</v>
-      </c>
-      <c r="I165" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="J165" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C166" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E166" t="s">
-        <v>736</v>
-      </c>
-      <c r="G166" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H166" t="s">
-        <v>736</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>736</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="I166" s="1"/>
       <c r="J166" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="K166" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="798">
   <si>
     <t>Country</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Translated</t>
   </si>
   <si>
-    <t>~ Guadalupe</t>
-  </si>
-  <si>
     <t>~ Ilia, Adrien</t>
   </si>
   <si>
@@ -2412,6 +2409,15 @@
   </si>
   <si>
     <t>~ Wing Yee</t>
+  </si>
+  <si>
+    <t>quotas URL</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_01J9niuruKZJDEi</t>
+  </si>
+  <si>
+    <t>Marco di</t>
   </si>
 </sst>
 </file>
@@ -2844,11 +2850,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA166"/>
+  <dimension ref="A1:AA167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L119" sqref="L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2974,7 +2980,7 @@
         <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>28</v>
@@ -2989,7 +2995,7 @@
         <v>28</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>28</v>
@@ -3027,31 +3033,31 @@
         <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
@@ -3069,7 +3075,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
@@ -3121,40 +3127,40 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>28</v>
@@ -3168,7 +3174,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
@@ -3218,33 +3224,33 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -3258,72 +3264,72 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" t="s">
         <v>49</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>50</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>51</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
         <v>52</v>
       </c>
-      <c r="M8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>53</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>54</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" t="s">
         <v>56</v>
       </c>
-      <c r="R8" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" t="s">
-        <v>57</v>
-      </c>
       <c r="U8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>0.85</v>
@@ -3406,422 +3412,422 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
         <v>84</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>86</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>87</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
         <v>88</v>
       </c>
-      <c r="F11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>89</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>90</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>91</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>92</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>93</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>94</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>95</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>96</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>97</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>98</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>99</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>100</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>101</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>102</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>103</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>104</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>105</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>106</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>107</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>108</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
         <v>110</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>123</v>
+      </c>
+      <c r="R12" t="s">
+        <v>124</v>
+      </c>
+      <c r="S12" t="s">
+        <v>125</v>
+      </c>
+      <c r="T12" t="s">
+        <v>126</v>
+      </c>
+      <c r="U12" t="s">
+        <v>122</v>
+      </c>
+      <c r="V12" t="s">
+        <v>127</v>
+      </c>
+      <c r="W12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" t="s">
-        <v>119</v>
-      </c>
-      <c r="L12" t="s">
-        <v>120</v>
-      </c>
-      <c r="M12" t="s">
-        <v>121</v>
-      </c>
-      <c r="N12" t="s">
-        <v>122</v>
-      </c>
-      <c r="O12" t="s">
-        <v>123</v>
-      </c>
-      <c r="P12" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>124</v>
-      </c>
-      <c r="R12" t="s">
-        <v>125</v>
-      </c>
-      <c r="S12" t="s">
-        <v>126</v>
-      </c>
-      <c r="T12" t="s">
-        <v>127</v>
-      </c>
-      <c r="U12" t="s">
-        <v>123</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>128</v>
       </c>
-      <c r="W12" t="s">
-        <v>88</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>129</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>130</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>131</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
         <v>133</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
         <v>134</v>
       </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>135</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
         <v>136</v>
       </c>
-      <c r="F13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>137</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>138</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>139</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="s">
         <v>140</v>
       </c>
-      <c r="K13" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" t="s">
-        <v>129</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" t="s">
         <v>141</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>136</v>
       </c>
-      <c r="O13" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>142</v>
       </c>
-      <c r="Q13" t="s">
-        <v>137</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>143</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
+        <v>101</v>
+      </c>
+      <c r="U13" t="s">
+        <v>142</v>
+      </c>
+      <c r="V13" t="s">
+        <v>139</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
         <v>144</v>
       </c>
-      <c r="T13" t="s">
-        <v>102</v>
-      </c>
-      <c r="U13" t="s">
-        <v>143</v>
-      </c>
-      <c r="V13" t="s">
-        <v>140</v>
-      </c>
-      <c r="W13" t="s">
-        <v>143</v>
-      </c>
-      <c r="X13" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>145</v>
-      </c>
       <c r="Z13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
         <v>146</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" t="s">
+        <v>134</v>
+      </c>
+      <c r="S14" t="s">
+        <v>151</v>
+      </c>
+      <c r="T14" t="s">
+        <v>126</v>
+      </c>
+      <c r="U14" t="s">
+        <v>150</v>
+      </c>
+      <c r="V14" t="s">
+        <v>139</v>
+      </c>
+      <c r="W14" t="s">
         <v>135</v>
       </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" t="s">
-        <v>148</v>
-      </c>
-      <c r="I14" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" t="s">
-        <v>135</v>
-      </c>
-      <c r="L14" t="s">
-        <v>120</v>
-      </c>
-      <c r="M14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N14" t="s">
-        <v>147</v>
-      </c>
-      <c r="O14" t="s">
-        <v>151</v>
-      </c>
-      <c r="P14" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>129</v>
-      </c>
-      <c r="R14" t="s">
-        <v>135</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="X14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y14" t="s">
         <v>152</v>
       </c>
-      <c r="T14" t="s">
-        <v>127</v>
-      </c>
-      <c r="U14" t="s">
-        <v>151</v>
-      </c>
-      <c r="V14" t="s">
-        <v>140</v>
-      </c>
-      <c r="W14" t="s">
-        <v>136</v>
-      </c>
-      <c r="X14" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>153</v>
-      </c>
       <c r="Z14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AA14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15">
         <v>16942</v>
@@ -3875,10 +3881,10 @@
         <v>50960</v>
       </c>
       <c r="S15" t="s">
+        <v>154</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="U15">
         <v>16754</v>
@@ -3886,7 +3892,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16">
         <v>23515</v>
@@ -3940,10 +3946,10 @@
         <v>78679</v>
       </c>
       <c r="S16" t="s">
+        <v>157</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="U16">
         <v>22562</v>
@@ -3951,7 +3957,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17">
         <v>31800</v>
@@ -4005,10 +4011,10 @@
         <v>122146</v>
       </c>
       <c r="S17" t="s">
+        <v>160</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="U17">
         <v>29932</v>
@@ -4016,111 +4022,111 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="L18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="S18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" t="s">
         <v>174</v>
-      </c>
-      <c r="U18" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="H19" s="7">
         <v>2700</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="K19" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" t="s">
+        <v>177</v>
+      </c>
+      <c r="N19" t="s">
         <v>185</v>
       </c>
-      <c r="M19" t="s">
-        <v>178</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>186</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>187</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>188</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>189</v>
       </c>
-      <c r="R19" t="s">
-        <v>190</v>
-      </c>
       <c r="S19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="U19" s="1">
         <v>1400</v>
@@ -4128,64 +4134,64 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="H20" s="7">
         <v>4900</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" t="s">
         <v>197</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>198</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>199</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q20" t="s">
         <v>200</v>
       </c>
-      <c r="P20" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>201</v>
-      </c>
       <c r="R20" t="s">
+        <v>157</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="U20" s="1">
         <v>1900</v>
@@ -4193,64 +4199,64 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="H21" s="7">
         <v>8150</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" t="s">
         <v>209</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
         <v>210</v>
       </c>
-      <c r="N21" t="s">
-        <v>182</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>211</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>212</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>213</v>
       </c>
-      <c r="R21" t="s">
-        <v>214</v>
-      </c>
       <c r="S21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="U21" s="1">
         <v>2500</v>
@@ -4258,7 +4264,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22">
         <v>0.25</v>
@@ -4323,7 +4329,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B23">
         <v>0.25</v>
@@ -4388,7 +4394,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24">
         <v>0.25</v>
@@ -4453,7 +4459,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B25">
         <v>0.25</v>
@@ -4518,311 +4524,311 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" t="s">
         <v>219</v>
       </c>
-      <c r="B26" t="s">
-        <v>220</v>
-      </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s">
+        <v>134</v>
+      </c>
+      <c r="M27" t="s">
+        <v>146</v>
+      </c>
+      <c r="N27" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F27" t="s">
-        <v>224</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="O27" t="s">
+        <v>227</v>
+      </c>
+      <c r="P27" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="Q27" t="s">
         <v>226</v>
       </c>
-      <c r="K27" t="s">
-        <v>227</v>
-      </c>
-      <c r="L27" t="s">
-        <v>135</v>
-      </c>
-      <c r="M27" t="s">
-        <v>147</v>
-      </c>
-      <c r="N27" t="s">
-        <v>113</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="R27" t="s">
+        <v>134</v>
+      </c>
+      <c r="S27" t="s">
         <v>228</v>
       </c>
-      <c r="P27" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>227</v>
-      </c>
-      <c r="R27" t="s">
-        <v>135</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="T27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="U27" t="s">
         <v>229</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="U27" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="F28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="H28" t="s">
+        <v>233</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>119</v>
+      </c>
+      <c r="M28" t="s">
+        <v>135</v>
+      </c>
+      <c r="N28" t="s">
+        <v>134</v>
+      </c>
+      <c r="O28" t="s">
+        <v>236</v>
+      </c>
+      <c r="P28" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>237</v>
+      </c>
+      <c r="R28" t="s">
+        <v>119</v>
+      </c>
+      <c r="S28" t="s">
+        <v>160</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="U28" t="s">
         <v>233</v>
-      </c>
-      <c r="H28" t="s">
-        <v>234</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="K28" t="s">
-        <v>236</v>
-      </c>
-      <c r="L28" t="s">
-        <v>120</v>
-      </c>
-      <c r="M28" t="s">
-        <v>136</v>
-      </c>
-      <c r="N28" t="s">
-        <v>135</v>
-      </c>
-      <c r="O28" t="s">
-        <v>237</v>
-      </c>
-      <c r="P28" t="s">
-        <v>772</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>238</v>
-      </c>
-      <c r="R28" t="s">
-        <v>120</v>
-      </c>
-      <c r="S28" t="s">
-        <v>161</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="U28" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" t="s">
         <v>239</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C29" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" t="s">
         <v>241</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J29" s="9" t="s">
+      <c r="K29" t="s">
+        <v>142</v>
+      </c>
+      <c r="L29" t="s">
+        <v>139</v>
+      </c>
+      <c r="M29" t="s">
+        <v>140</v>
+      </c>
+      <c r="N29" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29" t="s">
         <v>243</v>
       </c>
-      <c r="K29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L29" t="s">
-        <v>140</v>
-      </c>
-      <c r="M29" t="s">
-        <v>141</v>
-      </c>
-      <c r="N29" t="s">
-        <v>93</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>134</v>
+      </c>
+      <c r="R29" t="s">
+        <v>133</v>
+      </c>
+      <c r="S29" t="s">
+        <v>241</v>
+      </c>
+      <c r="T29" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P29" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="U29" t="s">
         <v>135</v>
-      </c>
-      <c r="R29" t="s">
-        <v>134</v>
-      </c>
-      <c r="S29" t="s">
-        <v>242</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="U29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" t="s">
         <v>246</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" t="s">
         <v>250</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="S30" t="s">
         <v>254</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>255</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>256</v>
-      </c>
-      <c r="U30" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T31">
         <v>200</v>
@@ -4830,663 +4836,663 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" t="s">
         <v>259</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" t="s">
+        <v>259</v>
+      </c>
+      <c r="E32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F32" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" t="s">
+        <v>259</v>
+      </c>
+      <c r="I32" t="s">
+        <v>259</v>
+      </c>
+      <c r="J32" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L32" t="s">
+        <v>259</v>
+      </c>
+      <c r="M32" t="s">
+        <v>259</v>
+      </c>
+      <c r="N32" t="s">
+        <v>259</v>
+      </c>
+      <c r="O32" t="s">
+        <v>259</v>
+      </c>
+      <c r="P32" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>259</v>
+      </c>
+      <c r="R32" t="s">
+        <v>259</v>
+      </c>
+      <c r="S32" t="s">
+        <v>259</v>
+      </c>
+      <c r="T32" t="s">
         <v>260</v>
       </c>
-      <c r="C32" t="s">
-        <v>260</v>
-      </c>
-      <c r="D32" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" t="s">
-        <v>260</v>
-      </c>
-      <c r="F32" t="s">
-        <v>260</v>
-      </c>
-      <c r="G32" t="s">
-        <v>184</v>
-      </c>
-      <c r="H32" t="s">
-        <v>260</v>
-      </c>
-      <c r="I32" t="s">
-        <v>260</v>
-      </c>
-      <c r="J32" t="s">
-        <v>260</v>
-      </c>
-      <c r="K32" t="s">
-        <v>260</v>
-      </c>
-      <c r="L32" t="s">
-        <v>260</v>
-      </c>
-      <c r="M32" t="s">
-        <v>260</v>
-      </c>
-      <c r="N32" t="s">
-        <v>260</v>
-      </c>
-      <c r="O32" t="s">
-        <v>260</v>
-      </c>
-      <c r="P32" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>260</v>
-      </c>
-      <c r="R32" t="s">
-        <v>260</v>
-      </c>
-      <c r="S32" t="s">
-        <v>260</v>
-      </c>
-      <c r="T32" t="s">
-        <v>261</v>
-      </c>
       <c r="U32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" t="s">
         <v>265</v>
       </c>
-      <c r="B36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H36" t="s">
+        <v>244</v>
+      </c>
+      <c r="I36" t="s">
+        <v>244</v>
+      </c>
+      <c r="J36" t="s">
+        <v>244</v>
+      </c>
+      <c r="K36" t="s">
+        <v>244</v>
+      </c>
+      <c r="L36" t="s">
+        <v>244</v>
+      </c>
+      <c r="M36" t="s">
+        <v>151</v>
+      </c>
+      <c r="N36" t="s">
+        <v>133</v>
+      </c>
+      <c r="O36" t="s">
+        <v>244</v>
+      </c>
+      <c r="P36" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>244</v>
+      </c>
+      <c r="R36" t="s">
+        <v>244</v>
+      </c>
+      <c r="S36" t="s">
+        <v>244</v>
+      </c>
+      <c r="T36" t="s">
+        <v>139</v>
+      </c>
+      <c r="U36" t="s">
         <v>266</v>
-      </c>
-      <c r="G36" t="s">
-        <v>245</v>
-      </c>
-      <c r="H36" t="s">
-        <v>245</v>
-      </c>
-      <c r="I36" t="s">
-        <v>245</v>
-      </c>
-      <c r="J36" t="s">
-        <v>245</v>
-      </c>
-      <c r="K36" t="s">
-        <v>245</v>
-      </c>
-      <c r="L36" t="s">
-        <v>245</v>
-      </c>
-      <c r="M36" t="s">
-        <v>152</v>
-      </c>
-      <c r="N36" t="s">
-        <v>134</v>
-      </c>
-      <c r="O36" t="s">
-        <v>245</v>
-      </c>
-      <c r="P36" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>245</v>
-      </c>
-      <c r="R36" t="s">
-        <v>245</v>
-      </c>
-      <c r="S36" t="s">
-        <v>245</v>
-      </c>
-      <c r="T36" t="s">
-        <v>140</v>
-      </c>
-      <c r="U36" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="S37" t="s">
         <v>268</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>269</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>270</v>
-      </c>
-      <c r="U37" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="S38" t="s">
         <v>272</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>273</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>274</v>
-      </c>
-      <c r="U38" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="S39" t="s">
         <v>276</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="U39" t="s">
         <v>278</v>
-      </c>
-      <c r="U39" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="S40" t="s">
         <v>280</v>
-      </c>
-      <c r="S40" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="S41" t="s">
         <v>282</v>
-      </c>
-      <c r="S41" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="S42" t="s">
         <v>284</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>285</v>
-      </c>
-      <c r="T42" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="R43" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="R43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" t="s">
+        <v>306</v>
+      </c>
+      <c r="H44" t="s">
+        <v>306</v>
+      </c>
+      <c r="I44" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44" t="s">
+        <v>306</v>
+      </c>
+      <c r="K44" t="s">
         <v>307</v>
       </c>
-      <c r="C44" t="s">
+      <c r="L44" t="s">
         <v>307</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="M44" t="s">
         <v>307</v>
       </c>
-      <c r="E44" t="s">
+      <c r="N44" t="s">
+        <v>306</v>
+      </c>
+      <c r="O44" t="s">
+        <v>306</v>
+      </c>
+      <c r="P44" t="s">
         <v>307</v>
       </c>
-      <c r="F44" t="s">
+      <c r="Q44" t="s">
         <v>307</v>
       </c>
-      <c r="G44" t="s">
+      <c r="R44" t="s">
         <v>307</v>
       </c>
-      <c r="H44" t="s">
-        <v>307</v>
-      </c>
-      <c r="I44" t="s">
-        <v>307</v>
-      </c>
-      <c r="J44" t="s">
-        <v>307</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="S44" t="s">
         <v>308</v>
       </c>
-      <c r="L44" t="s">
-        <v>308</v>
-      </c>
-      <c r="M44" t="s">
-        <v>308</v>
-      </c>
-      <c r="N44" t="s">
-        <v>307</v>
-      </c>
-      <c r="O44" t="s">
-        <v>307</v>
-      </c>
-      <c r="P44" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>308</v>
-      </c>
-      <c r="R44" t="s">
-        <v>308</v>
-      </c>
-      <c r="S44" t="s">
-        <v>309</v>
-      </c>
       <c r="T44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="U45" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="P46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="T46" s="1" t="s">
+      <c r="U46" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5520,10 +5526,10 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5534,79 +5540,79 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="Q49" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="R49" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B50" s="2">
         <v>100</v>
@@ -5633,7 +5639,7 @@
         <v>10000</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K50" s="2">
         <v>1000</v>
@@ -5648,7 +5654,7 @@
         <v>1000</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P50" s="12">
         <v>1000</v>
@@ -5675,7 +5681,7 @@
         <v>1000</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Y50" s="2">
         <v>10000</v>
@@ -5689,7 +5695,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B51" s="13">
         <f>$S$51*B9</f>
@@ -5796,7 +5802,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B52">
         <v>61</v>
@@ -5879,7 +5885,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B53" s="13">
         <f t="shared" ref="B53:F53" si="2">B52*B9</f>
@@ -5947,7 +5953,7 @@
         <v>182.24</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T53" s="13">
         <f>T52*T9</f>
@@ -5984,121 +5990,121 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I54" t="s">
         <v>372</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I54" t="s">
-        <v>373</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B55" t="s">
         <v>375</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>375</v>
+      </c>
+      <c r="D55" t="s">
+        <v>375</v>
+      </c>
+      <c r="E55" t="s">
+        <v>375</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C55" t="s">
-        <v>376</v>
-      </c>
-      <c r="D55" t="s">
-        <v>376</v>
-      </c>
-      <c r="E55" t="s">
-        <v>376</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" t="s">
         <v>378</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>379</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="L55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AA55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -6163,7 +6169,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B57">
         <v>887</v>
@@ -6246,7 +6252,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B58" s="15">
         <f t="shared" ref="B58:AA58" si="5">B57/B62</f>
@@ -6355,7 +6361,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B59">
         <v>45</v>
@@ -6439,7 +6445,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B60" s="5">
         <v>796.529</v>
@@ -6522,7 +6528,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B61" s="5">
         <v>68527599.400000006</v>
@@ -6605,7 +6611,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B62" s="5">
         <v>84</v>
@@ -6688,7 +6694,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B63" s="18">
         <f t="shared" ref="B63:P63" si="6">2.5*B59/1000</f>
@@ -6797,7 +6803,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B64" s="16">
         <f t="shared" ref="B64:K64" si="8">B63*B9</f>
@@ -6906,7 +6912,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B65" s="5">
         <f t="shared" ref="B65:R65" si="11">0.8*0.8*B60*B59*1000000*B9/B61</f>
@@ -7015,2065 +7021,2051 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="C66" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="K66" s="16" t="s">
         <v>394</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="K66" s="16" t="s">
-        <v>395</v>
       </c>
       <c r="S66" s="16">
         <v>100</v>
       </c>
       <c r="T66" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U66" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M67" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="M67" s="16" t="s">
+      <c r="N67" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="O67" t="s">
+        <v>131</v>
+      </c>
+      <c r="P67" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>192</v>
+      </c>
+      <c r="R67" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="N67" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="O67" t="s">
-        <v>132</v>
-      </c>
-      <c r="P67" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>193</v>
-      </c>
-      <c r="R67" s="16" t="s">
+      <c r="S67" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="T67" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="S67" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="T67" s="16" t="s">
+      <c r="U67" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="V67" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="U67" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="V67" s="16" t="s">
-        <v>400</v>
-      </c>
       <c r="W67" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X67" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y67" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Z67" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="C68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="O68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="P68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="S68" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="U68" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="V68" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="W68" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="X68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z68" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="E68" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M68" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="N68" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="O68" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="R68" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="S68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="T68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="U68" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="V68" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="W68" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="X68" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y68" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="Z68" s="16" t="s">
-        <v>403</v>
-      </c>
       <c r="AA68" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="C69" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="D69" s="16" t="s">
+      <c r="E69" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="G69" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="E69" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="G69" s="16" t="s">
+      <c r="H69" s="16" t="s">
         <v>408</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>409</v>
       </c>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
       <c r="K69" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="M69" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="N69" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="O69" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="M69" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="N69" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="O69" s="16" t="s">
-        <v>411</v>
-      </c>
       <c r="P69" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="S69" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="S69" s="16" t="s">
-        <v>413</v>
-      </c>
       <c r="T69" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U69" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="C70" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="E70" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="H70" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E70" s="16" t="s">
+      <c r="I70" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="M70" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="N70" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="O70" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="P70" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q70" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="F70" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="K70" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="L70" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="M70" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="N70" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="O70" s="16" t="s">
+      <c r="R70" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="S70" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="P70" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q70" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="R70" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="S70" s="16" t="s">
-        <v>422</v>
-      </c>
       <c r="T70" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U70" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B71" t="s">
         <v>423</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>424</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>425</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>426</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>427</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>428</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="I71" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="I71" s="16" t="s">
+      <c r="J71" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="K71" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="L71" t="s">
         <v>433</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="M71" s="16" t="s">
+      <c r="N71" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="N71" s="16" t="s">
+      <c r="O71" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="O71" s="16" t="s">
+      <c r="P71" t="s">
         <v>437</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>438</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="S71" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="S71" s="16" t="s">
+      <c r="T71" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="T71" s="20" t="s">
+      <c r="U71" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="U71" s="16" t="s">
+      <c r="W71" t="s">
         <v>442</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>443</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>444</v>
       </c>
-      <c r="Y71" t="s">
-        <v>445</v>
-      </c>
       <c r="Z71" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B72">
-        <v>0.37862000000000001</v>
-      </c>
-      <c r="C72">
-        <v>0.33854000000000001</v>
-      </c>
-      <c r="D72">
-        <v>0.79107000000000005</v>
-      </c>
-      <c r="E72">
-        <v>0.22026000000000001</v>
-      </c>
-      <c r="F72">
-        <v>0.23313999999999999</v>
-      </c>
-      <c r="G72">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="H72">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="I72">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="J72">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="K72">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="L72">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="M72">
-        <v>0.13</v>
-      </c>
-      <c r="N72">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="O72">
-        <v>0.5</v>
-      </c>
-      <c r="P72">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="Q72">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="R72">
-        <v>0.79</v>
-      </c>
-      <c r="S72" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="T72">
-        <v>0.15443999999999999</v>
-      </c>
-      <c r="U72">
-        <v>3.8949999999999999E-2</v>
-      </c>
-      <c r="Y72">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="Z72">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="AA72">
-        <v>1.1820000000000001E-2</v>
-      </c>
+        <v>795</v>
+      </c>
+      <c r="B72" t="s">
+        <v>796</v>
+      </c>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="16"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B73">
+        <v>0.37862000000000001</v>
+      </c>
+      <c r="C73">
+        <v>0.33854000000000001</v>
+      </c>
+      <c r="D73">
+        <v>0.79107000000000005</v>
+      </c>
+      <c r="E73">
+        <v>0.22026000000000001</v>
+      </c>
+      <c r="F73">
+        <v>0.23313999999999999</v>
+      </c>
+      <c r="G73">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H73">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I73">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="J73">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="K73">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="L73">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="M73">
+        <v>0.13</v>
+      </c>
+      <c r="N73">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="O73">
+        <v>0.5</v>
+      </c>
+      <c r="P73">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="Q73">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="R73">
+        <v>0.79</v>
+      </c>
+      <c r="S73" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="T73">
+        <v>0.15443999999999999</v>
+      </c>
+      <c r="U73">
+        <v>3.8949999999999999E-2</v>
+      </c>
+      <c r="Y73">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="Z73">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="AA73">
+        <v>1.1820000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B74">
         <v>1.5</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>0.7</v>
       </c>
-      <c r="D73">
+      <c r="D74">
         <v>0.25</v>
       </c>
-      <c r="E73">
+      <c r="E74">
         <v>0.4</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <v>3</v>
       </c>
-      <c r="G73">
+      <c r="G74">
         <v>12</v>
       </c>
-      <c r="H73">
+      <c r="H74">
         <v>87</v>
       </c>
-      <c r="I73">
+      <c r="I74">
         <v>38</v>
       </c>
-      <c r="J73">
+      <c r="J74">
         <v>27</v>
       </c>
-      <c r="K73">
+      <c r="K74">
         <v>0.15</v>
       </c>
-      <c r="L73">
+      <c r="L74">
         <v>0.9</v>
       </c>
-      <c r="M73">
+      <c r="M74">
         <v>0.51</v>
       </c>
-      <c r="N73">
+      <c r="N74">
         <v>0.08</v>
       </c>
-      <c r="O73">
+      <c r="O74">
         <v>1.6</v>
       </c>
-      <c r="P73">
+      <c r="P74">
         <v>0.79</v>
       </c>
-      <c r="Q73">
+      <c r="Q74">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R73">
+      <c r="R74">
         <v>0.41</v>
       </c>
-      <c r="S73" s="15">
+      <c r="S74" s="15">
         <v>4.3</v>
       </c>
-      <c r="T73">
+      <c r="T74">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U73">
+      <c r="U74">
         <v>1</v>
       </c>
-      <c r="V73">
+      <c r="V74">
         <v>1.8</v>
       </c>
-      <c r="W73">
+      <c r="W74">
         <v>5.2</v>
       </c>
-      <c r="X73">
+      <c r="X74">
         <v>0.59</v>
       </c>
-      <c r="Y73">
+      <c r="Y74">
         <v>0.3</v>
       </c>
-      <c r="Z73">
+      <c r="Z74">
         <v>0.66</v>
       </c>
-      <c r="AA73">
+      <c r="AA74">
         <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B74">
-        <v>1.804</v>
-      </c>
-      <c r="C74">
-        <v>1.9419999999999999</v>
-      </c>
-      <c r="D74">
-        <v>1.4490000000000001</v>
-      </c>
-      <c r="E74">
-        <v>1.651</v>
-      </c>
-      <c r="F74">
-        <v>1.8360000000000001</v>
-      </c>
-      <c r="G74">
-        <v>1.389</v>
-      </c>
-      <c r="H74">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="I74">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="J74">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="K74">
-        <v>1.196</v>
-      </c>
-      <c r="L74">
-        <v>1.1140000000000001</v>
-      </c>
-      <c r="Q74">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="S74">
-        <v>3.4790000000000001</v>
-      </c>
-      <c r="T74">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="U74">
-        <v>1.857</v>
-      </c>
-      <c r="W74">
-        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B75">
-        <v>0.36799999999999999</v>
+        <v>1.804</v>
       </c>
       <c r="C75">
-        <v>0.26400000000000001</v>
+        <v>1.9419999999999999</v>
       </c>
       <c r="D75">
-        <v>0.19700000000000001</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="E75">
-        <v>0.23300000000000001</v>
+        <v>1.651</v>
       </c>
       <c r="F75">
-        <v>0.26100000000000001</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="G75">
-        <v>0.25800000000000001</v>
+        <v>1.389</v>
       </c>
       <c r="H75">
-        <v>8.5000000000000006E-2</v>
+        <v>1.1479999999999999</v>
       </c>
       <c r="I75">
-        <v>7.6999999999999999E-2</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="J75">
-        <v>0.1</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="K75">
-        <v>0.153</v>
+        <v>1.196</v>
       </c>
       <c r="L75">
-        <v>8.3000000000000004E-2</v>
+        <v>1.1140000000000001</v>
       </c>
       <c r="Q75">
-        <v>0.13700000000000001</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="S75">
-        <v>0.14799999999999999</v>
+        <v>3.4790000000000001</v>
       </c>
       <c r="T75">
-        <v>0.33900000000000002</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="U75">
-        <v>0.216</v>
+        <v>1.857</v>
       </c>
       <c r="W75">
-        <v>7.9000000000000001E-2</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B76">
-        <v>6.6000000000000003E-2</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="C76">
-        <v>9.7000000000000003E-2</v>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D76">
+        <v>0.19700000000000001</v>
       </c>
       <c r="E76">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F76">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G76">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H76">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I76">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F76">
-        <v>5.3999999999999999E-2</v>
+      <c r="J76">
+        <v>0.1</v>
+      </c>
+      <c r="K76">
+        <v>0.153</v>
       </c>
       <c r="L76">
-        <v>3.5000000000000003E-2</v>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="Q76">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="S76">
+        <v>0.14799999999999999</v>
       </c>
       <c r="T76">
-        <v>0.106</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="U76">
-        <v>7.0000000000000007E-2</v>
+        <v>0.216</v>
       </c>
       <c r="W76">
-        <v>1.7000000000000001E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B77">
-        <v>0.90300000000000002</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C77">
-        <v>1.5329999999999999</v>
-      </c>
-      <c r="D77">
-        <v>0.94599999999999995</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="E77">
-        <v>0.86799999999999999</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="F77">
-        <v>0.81</v>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="L77">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="T77">
-        <v>1.754</v>
+        <v>0.106</v>
       </c>
       <c r="U77">
-        <v>1.0529999999999999</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W77">
-        <v>0.81299999999999994</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
+      </c>
+      <c r="B78">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="C78">
+        <v>1.5329999999999999</v>
       </c>
       <c r="D78">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="E78">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="F78">
+        <v>0.81</v>
+      </c>
+      <c r="T78">
+        <v>1.754</v>
+      </c>
+      <c r="U78">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="W78">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D79">
         <f>240.49/D9</f>
         <v>61.822622107969153</v>
       </c>
-      <c r="H78">
+      <c r="H79">
         <f>535/H9</f>
         <v>82.434514637904471</v>
       </c>
-      <c r="K78">
+      <c r="K79">
         <f>374/Q9</f>
         <v>72.200772200772207</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B79" t="s">
-        <v>455</v>
-      </c>
-      <c r="C79" t="s">
-        <v>455</v>
-      </c>
-      <c r="D79" t="s">
-        <v>455</v>
-      </c>
-      <c r="E79" t="s">
-        <v>455</v>
-      </c>
-      <c r="F79" t="s">
-        <v>456</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="J79" t="s">
-        <v>459</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="P79" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q79" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="R79" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="S79" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="U79" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B80" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="C80" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="D80" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="E80" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="F80" t="s">
-        <v>470</v>
-      </c>
-      <c r="G80" t="s">
-        <v>474</v>
-      </c>
-      <c r="H80" t="s">
-        <v>475</v>
-      </c>
-      <c r="I80" t="s">
-        <v>476</v>
+        <v>455</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="J80" t="s">
-        <v>477</v>
-      </c>
-      <c r="K80" t="s">
-        <v>478</v>
-      </c>
-      <c r="L80" t="s">
-        <v>479</v>
-      </c>
-      <c r="M80" t="s">
-        <v>471</v>
-      </c>
-      <c r="N80" t="s">
-        <v>470</v>
-      </c>
-      <c r="O80" t="s">
-        <v>480</v>
+        <v>458</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="P80" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>479</v>
-      </c>
-      <c r="R80" t="s">
-        <v>473</v>
-      </c>
-      <c r="S80" t="s">
-        <v>787</v>
-      </c>
-      <c r="T80" t="s">
-        <v>481</v>
-      </c>
-      <c r="U80" t="s">
-        <v>482</v>
+        <v>463</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
+      </c>
+      <c r="B81" t="s">
+        <v>469</v>
+      </c>
+      <c r="C81" t="s">
+        <v>470</v>
+      </c>
+      <c r="D81" t="s">
+        <v>471</v>
+      </c>
+      <c r="E81" t="s">
+        <v>472</v>
+      </c>
+      <c r="F81" t="s">
+        <v>469</v>
+      </c>
+      <c r="G81" t="s">
+        <v>473</v>
+      </c>
+      <c r="H81" t="s">
+        <v>474</v>
+      </c>
+      <c r="I81" t="s">
+        <v>475</v>
+      </c>
+      <c r="J81" t="s">
+        <v>476</v>
+      </c>
+      <c r="K81" t="s">
+        <v>477</v>
+      </c>
+      <c r="L81" t="s">
+        <v>478</v>
+      </c>
+      <c r="M81" t="s">
+        <v>470</v>
+      </c>
+      <c r="N81" t="s">
+        <v>469</v>
+      </c>
+      <c r="O81" t="s">
+        <v>479</v>
+      </c>
+      <c r="P81" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>478</v>
+      </c>
+      <c r="R81" t="s">
+        <v>472</v>
       </c>
       <c r="S81" t="s">
-        <v>484</v>
+        <v>786</v>
       </c>
       <c r="T81" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="U81" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="S82" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
+      </c>
+      <c r="S82" t="s">
+        <v>483</v>
+      </c>
+      <c r="T82" t="s">
+        <v>484</v>
+      </c>
+      <c r="U82" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B83" t="s">
-        <v>490</v>
-      </c>
-      <c r="C83" t="s">
-        <v>490</v>
-      </c>
-      <c r="D83" t="s">
-        <v>490</v>
-      </c>
-      <c r="E83" t="s">
-        <v>490</v>
-      </c>
-      <c r="F83" t="s">
-        <v>490</v>
-      </c>
-      <c r="G83" t="s">
-        <v>491</v>
-      </c>
-      <c r="H83" t="s">
-        <v>492</v>
-      </c>
-      <c r="I83" t="s">
-        <v>493</v>
-      </c>
-      <c r="J83" t="s">
-        <v>494</v>
-      </c>
-      <c r="S83" t="s">
-        <v>495</v>
-      </c>
-      <c r="T83" t="s">
-        <v>490</v>
-      </c>
-      <c r="U83" t="s">
-        <v>490</v>
+        <v>486</v>
+      </c>
+      <c r="S83" s="7" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
+      </c>
+      <c r="B84" t="s">
+        <v>489</v>
+      </c>
+      <c r="C84" t="s">
+        <v>489</v>
+      </c>
+      <c r="D84" t="s">
+        <v>489</v>
+      </c>
+      <c r="E84" t="s">
+        <v>489</v>
+      </c>
+      <c r="F84" t="s">
+        <v>489</v>
+      </c>
+      <c r="G84" t="s">
+        <v>490</v>
+      </c>
+      <c r="H84" t="s">
+        <v>491</v>
+      </c>
+      <c r="I84" t="s">
+        <v>492</v>
+      </c>
+      <c r="J84" t="s">
+        <v>493</v>
       </c>
       <c r="S84" t="s">
-        <v>498</v>
-      </c>
-      <c r="T84" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
+      </c>
+      <c r="T84" t="s">
+        <v>489</v>
       </c>
       <c r="U84" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F85" t="s">
-        <v>502</v>
-      </c>
-      <c r="I85" t="s">
-        <v>503</v>
+        <v>495</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="S85" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="U85" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
+      </c>
+      <c r="F86" t="s">
+        <v>501</v>
+      </c>
+      <c r="I86" t="s">
+        <v>502</v>
       </c>
       <c r="S86" t="s">
-        <v>507</v>
+        <v>503</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="U86" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="S87" s="21" t="s">
-        <v>509</v>
+        <v>505</v>
+      </c>
+      <c r="S87" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="S88" s="21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="S89" t="s">
         <v>510</v>
-      </c>
-      <c r="S88" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C89" t="s">
-        <v>513</v>
-      </c>
-      <c r="D89" t="s">
-        <v>514</v>
-      </c>
-      <c r="E89" t="s">
-        <v>515</v>
-      </c>
-      <c r="F89" t="s">
-        <v>516</v>
-      </c>
-      <c r="G89" t="s">
-        <v>517</v>
-      </c>
-      <c r="H89" t="s">
-        <v>518</v>
-      </c>
-      <c r="I89" t="s">
-        <v>519</v>
-      </c>
-      <c r="J89" t="s">
-        <v>520</v>
-      </c>
-      <c r="K89" t="s">
-        <v>521</v>
-      </c>
-      <c r="L89" t="s">
-        <v>522</v>
-      </c>
-      <c r="M89" t="s">
-        <v>523</v>
-      </c>
-      <c r="N89" t="s">
-        <v>524</v>
-      </c>
-      <c r="O89" t="s">
-        <v>525</v>
-      </c>
-      <c r="P89" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>527</v>
-      </c>
-      <c r="R89" t="s">
-        <v>528</v>
-      </c>
-      <c r="S89" t="s">
-        <v>529</v>
-      </c>
-      <c r="T89" t="s">
-        <v>530</v>
-      </c>
-      <c r="U89" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C90" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="D90" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="E90" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="F90" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="G90" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="H90" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="I90" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="J90" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="K90" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="L90" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="M90" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="N90" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="O90" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="P90" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="Q90" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="R90" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="S90" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="T90" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="U90" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="C91" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="D91" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="E91" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="F91" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="G91" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H91" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="I91" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="J91" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="K91" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="L91" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="M91" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="N91" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="O91" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="P91" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q91" t="s">
         <v>546</v>
       </c>
-      <c r="Q91" t="s">
-        <v>566</v>
-      </c>
       <c r="R91" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="S91" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="T91" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="U91" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="C92" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="D92" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="E92" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="F92" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="G92" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="H92" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="I92" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="J92" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="K92" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="L92" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="M92" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="N92" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="O92" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="P92" t="s">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="Q92" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="R92" t="s">
-        <v>587</v>
-      </c>
-      <c r="S92" s="22" t="s">
-        <v>588</v>
+        <v>566</v>
+      </c>
+      <c r="S92" t="s">
+        <v>567</v>
       </c>
       <c r="T92" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="U92" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="C93" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="D93" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="E93" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="F93" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="G93" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="H93" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="I93" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="J93" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="K93" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="L93" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="M93" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="N93" t="s">
-        <v>603</v>
+        <v>582</v>
+      </c>
+      <c r="O93" t="s">
+        <v>583</v>
       </c>
       <c r="P93" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="Q93" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="R93" t="s">
-        <v>606</v>
+        <v>586</v>
+      </c>
+      <c r="S93" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="T93" t="s">
+        <v>588</v>
       </c>
       <c r="U93" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="C94" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="D94" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="E94" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="F94" t="s">
-        <v>612</v>
+        <v>594</v>
+      </c>
+      <c r="G94" t="s">
+        <v>595</v>
       </c>
       <c r="H94" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="I94" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="J94" t="s">
-        <v>615</v>
+        <v>598</v>
+      </c>
+      <c r="K94" t="s">
+        <v>599</v>
       </c>
       <c r="L94" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="M94" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="N94" t="s">
-        <v>618</v>
+        <v>602</v>
+      </c>
+      <c r="P94" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>604</v>
       </c>
       <c r="R94" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="U94" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="C95" t="s">
-        <v>622</v>
+        <v>608</v>
+      </c>
+      <c r="D95" t="s">
+        <v>609</v>
       </c>
       <c r="E95" t="s">
-        <v>623</v>
+        <v>610</v>
+      </c>
+      <c r="F95" t="s">
+        <v>611</v>
       </c>
       <c r="H95" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="I95" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="J95" t="s">
-        <v>626</v>
+        <v>614</v>
+      </c>
+      <c r="L95" t="s">
+        <v>615</v>
       </c>
       <c r="M95" t="s">
-        <v>627</v>
+        <v>616</v>
+      </c>
+      <c r="N95" t="s">
+        <v>617</v>
       </c>
       <c r="R95" t="s">
-        <v>628</v>
+        <v>618</v>
+      </c>
+      <c r="U95" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>629</v>
+        <v>620</v>
+      </c>
+      <c r="C96" t="s">
+        <v>621</v>
       </c>
       <c r="E96" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H96" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="I96" t="s">
-        <v>632</v>
+        <v>624</v>
+      </c>
+      <c r="J96" t="s">
+        <v>625</v>
+      </c>
+      <c r="M96" t="s">
+        <v>626</v>
       </c>
       <c r="R96" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E97" t="s">
-        <v>635</v>
+        <v>629</v>
+      </c>
+      <c r="H97" t="s">
+        <v>630</v>
       </c>
       <c r="I97" t="s">
-        <v>636</v>
+        <v>631</v>
+      </c>
+      <c r="R97" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E98" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I98" t="s">
-        <v>577</v>
-      </c>
-      <c r="J98" t="s">
-        <v>577</v>
+        <v>635</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="S99" t="s">
-        <v>640</v>
+        <v>636</v>
+      </c>
+      <c r="E99" t="s">
+        <v>637</v>
+      </c>
+      <c r="I99" t="s">
+        <v>576</v>
+      </c>
+      <c r="J99" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="S100" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="S101" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="S102" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B103" t="s">
         <v>645</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C103" t="s">
+        <v>645</v>
+      </c>
+      <c r="D103" t="s">
+        <v>645</v>
+      </c>
+      <c r="E103" t="s">
+        <v>645</v>
+      </c>
+      <c r="F103" t="s">
+        <v>645</v>
+      </c>
+      <c r="G103" t="s">
+        <v>645</v>
+      </c>
+      <c r="I103" t="s">
+        <v>645</v>
+      </c>
+      <c r="J103" t="s">
+        <v>645</v>
+      </c>
+      <c r="K103" t="s">
+        <v>645</v>
+      </c>
+      <c r="N103" t="s">
         <v>646</v>
       </c>
-      <c r="C102" t="s">
-        <v>646</v>
-      </c>
-      <c r="D102" t="s">
-        <v>646</v>
-      </c>
-      <c r="E102" t="s">
-        <v>646</v>
-      </c>
-      <c r="F102" t="s">
-        <v>646</v>
-      </c>
-      <c r="G102" t="s">
-        <v>646</v>
-      </c>
-      <c r="I102" t="s">
-        <v>646</v>
-      </c>
-      <c r="J102" t="s">
-        <v>646</v>
-      </c>
-      <c r="K102" t="s">
-        <v>646</v>
-      </c>
-      <c r="N102" t="s">
+      <c r="S103" t="s">
         <v>647</v>
       </c>
-      <c r="S102" t="s">
-        <v>648</v>
-      </c>
-      <c r="T102" t="s">
-        <v>646</v>
-      </c>
-      <c r="U102" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A103" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="B103" t="s">
-        <v>650</v>
-      </c>
-      <c r="C103" t="s">
-        <v>650</v>
-      </c>
-      <c r="D103" t="s">
-        <v>650</v>
-      </c>
-      <c r="E103" t="s">
-        <v>650</v>
-      </c>
-      <c r="F103" t="s">
-        <v>650</v>
-      </c>
-      <c r="G103" t="s">
-        <v>650</v>
-      </c>
-      <c r="H103" t="s">
-        <v>650</v>
-      </c>
-      <c r="I103" t="s">
-        <v>650</v>
-      </c>
-      <c r="J103" t="s">
-        <v>650</v>
-      </c>
-      <c r="K103" t="s">
-        <v>650</v>
-      </c>
-      <c r="L103" t="s">
-        <v>650</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>650</v>
-      </c>
-      <c r="S103" t="s">
-        <v>651</v>
-      </c>
       <c r="T103" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="U103" t="s">
-        <v>650</v>
-      </c>
-      <c r="W103" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="G104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="I104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="J104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="K104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="L104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="Q104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="S104" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="T104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="U104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="W104" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B105" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C105" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D105" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E105" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F105" t="s">
-        <v>656</v>
+        <v>652</v>
+      </c>
+      <c r="G105" t="s">
+        <v>652</v>
+      </c>
+      <c r="H105" t="s">
+        <v>652</v>
+      </c>
+      <c r="I105" t="s">
+        <v>652</v>
+      </c>
+      <c r="J105" t="s">
+        <v>652</v>
+      </c>
+      <c r="K105" t="s">
+        <v>652</v>
+      </c>
+      <c r="L105" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>652</v>
+      </c>
+      <c r="S105" t="s">
+        <v>653</v>
       </c>
       <c r="T105" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="U105" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="W105" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B106" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C106" t="s">
-        <v>658</v>
+        <v>655</v>
+      </c>
+      <c r="D106" t="s">
+        <v>655</v>
       </c>
       <c r="E106" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F106" t="s">
-        <v>658</v>
-      </c>
-      <c r="L106" t="s">
-        <v>658</v>
-      </c>
-      <c r="S106" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="T106" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="U106" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="W106" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="B107" t="s">
+        <v>657</v>
+      </c>
+      <c r="C107" t="s">
+        <v>657</v>
+      </c>
+      <c r="E107" t="s">
+        <v>657</v>
+      </c>
+      <c r="F107" t="s">
+        <v>657</v>
+      </c>
+      <c r="L107" t="s">
+        <v>657</v>
+      </c>
+      <c r="S107" t="s">
+        <v>658</v>
+      </c>
+      <c r="T107" t="s">
+        <v>657</v>
+      </c>
+      <c r="U107" t="s">
+        <v>657</v>
+      </c>
+      <c r="W107" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A108" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="D108" t="s">
         <v>660</v>
       </c>
-      <c r="D107" t="s">
+      <c r="H108" t="s">
         <v>661</v>
       </c>
-      <c r="H107" t="s">
+      <c r="K108" t="s">
         <v>662</v>
-      </c>
-      <c r="K107" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="S108" t="s">
-        <v>665</v>
-      </c>
-      <c r="T108" t="s">
-        <v>666</v>
-      </c>
-      <c r="U108" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="S109" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="T109" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="U109" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="S110" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="T110" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="U110" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>676</v>
+        <v>671</v>
+      </c>
+      <c r="S111" t="s">
+        <v>672</v>
+      </c>
+      <c r="T111" t="s">
+        <v>673</v>
       </c>
       <c r="U111" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="S112" t="s">
-        <v>679</v>
+        <v>675</v>
+      </c>
+      <c r="U112" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="S113" t="s">
-        <v>681</v>
-      </c>
-      <c r="T113" s="23" t="s">
-        <v>682</v>
-      </c>
-      <c r="U113" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="S114" t="s">
-        <v>685</v>
+        <v>680</v>
+      </c>
+      <c r="T114" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="U114" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="U115" t="s">
-        <v>687</v>
+        <v>683</v>
+      </c>
+      <c r="S115" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>785</v>
-      </c>
-      <c r="D116" t="s">
-        <v>784</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>783</v>
-      </c>
-      <c r="I116" t="s">
-        <v>782</v>
-      </c>
-      <c r="L116" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="N116" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="O116" t="s">
-        <v>778</v>
-      </c>
-      <c r="P116" t="s">
-        <v>779</v>
+        <v>685</v>
+      </c>
+      <c r="U116" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="B117" t="s">
-        <v>689</v>
-      </c>
-      <c r="C117" t="s">
-        <v>690</v>
+        <v>776</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>784</v>
       </c>
       <c r="D117" t="s">
-        <v>691</v>
-      </c>
-      <c r="E117" t="s">
-        <v>692</v>
-      </c>
-      <c r="F117" t="s">
-        <v>693</v>
-      </c>
-      <c r="G117" t="s">
-        <v>694</v>
+        <v>783</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>782</v>
       </c>
       <c r="I117" t="s">
-        <v>695</v>
-      </c>
-      <c r="J117" t="s">
-        <v>696</v>
-      </c>
-      <c r="K117" s="24" t="s">
-        <v>697</v>
+        <v>781</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>779</v>
       </c>
       <c r="O117" t="s">
-        <v>793</v>
-      </c>
-      <c r="S117" t="s">
-        <v>698</v>
-      </c>
-      <c r="T117" t="s">
-        <v>699</v>
-      </c>
-      <c r="U117" t="s">
-        <v>700</v>
+        <v>777</v>
+      </c>
+      <c r="P117" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>701</v>
+        <v>687</v>
+      </c>
+      <c r="B118" t="s">
+        <v>688</v>
       </c>
       <c r="C118" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="D118" t="s">
+        <v>690</v>
+      </c>
+      <c r="E118" t="s">
+        <v>691</v>
+      </c>
+      <c r="F118" t="s">
+        <v>692</v>
+      </c>
+      <c r="G118" t="s">
+        <v>693</v>
+      </c>
+      <c r="I118" t="s">
+        <v>694</v>
+      </c>
+      <c r="J118" t="s">
+        <v>695</v>
+      </c>
+      <c r="K118" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="L118" t="s">
+        <v>797</v>
+      </c>
+      <c r="O118" t="s">
         <v>792</v>
       </c>
-      <c r="E118" t="s">
-        <v>703</v>
-      </c>
-      <c r="G118" t="s">
-        <v>704</v>
-      </c>
-      <c r="H118" t="s">
-        <v>705</v>
-      </c>
-      <c r="I118" t="s">
-        <v>706</v>
-      </c>
-      <c r="J118" t="s">
-        <v>707</v>
-      </c>
-      <c r="K118" t="s">
-        <v>708</v>
-      </c>
-      <c r="N118" t="s">
-        <v>709</v>
-      </c>
-      <c r="O118" t="s">
-        <v>710</v>
-      </c>
-      <c r="P118" t="s">
-        <v>711</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>712</v>
+      <c r="S118" t="s">
+        <v>697</v>
       </c>
       <c r="T118" t="s">
-        <v>713</v>
+        <v>698</v>
+      </c>
+      <c r="U118" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="S119" t="s">
-        <v>715</v>
+        <v>700</v>
+      </c>
+      <c r="C119" t="s">
+        <v>701</v>
+      </c>
+      <c r="D119" t="s">
+        <v>791</v>
+      </c>
+      <c r="E119" t="s">
+        <v>702</v>
+      </c>
+      <c r="G119" t="s">
+        <v>703</v>
+      </c>
+      <c r="H119" t="s">
+        <v>704</v>
+      </c>
+      <c r="I119" t="s">
+        <v>705</v>
+      </c>
+      <c r="J119" t="s">
+        <v>706</v>
+      </c>
+      <c r="K119" t="s">
+        <v>707</v>
+      </c>
+      <c r="N119" t="s">
+        <v>708</v>
+      </c>
+      <c r="O119" t="s">
+        <v>709</v>
+      </c>
+      <c r="P119" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>711</v>
+      </c>
+      <c r="T119" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="B120">
-        <v>7</v>
-      </c>
-      <c r="C120">
-        <v>10</v>
-      </c>
-      <c r="D120">
-        <v>10</v>
-      </c>
-      <c r="E120">
-        <v>10</v>
-      </c>
-      <c r="F120">
-        <v>7</v>
-      </c>
-      <c r="G120">
-        <v>7</v>
-      </c>
-      <c r="J120">
-        <v>7</v>
-      </c>
-      <c r="K120">
-        <v>10</v>
+        <v>713</v>
+      </c>
+      <c r="S120" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B121">
-        <v>6300</v>
+        <v>7</v>
       </c>
       <c r="C121">
-        <v>6300</v>
+        <v>10</v>
       </c>
       <c r="D121">
-        <v>6300</v>
+        <v>10</v>
       </c>
       <c r="E121">
-        <v>6300</v>
+        <v>10</v>
       </c>
       <c r="F121">
-        <v>6300</v>
+        <v>7</v>
       </c>
       <c r="G121">
-        <v>6300</v>
-      </c>
-      <c r="H121">
-        <v>6000</v>
+        <v>7</v>
       </c>
       <c r="J121">
-        <v>6300</v>
+        <v>7</v>
       </c>
       <c r="K121">
-        <v>6300</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B122">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="C122">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="D122">
-        <v>8000</v>
+        <v>6300</v>
       </c>
       <c r="E122">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="F122">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="G122">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="H122">
-        <v>6500</v>
-      </c>
-      <c r="I122">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="J122">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="K122">
-        <v>6500</v>
-      </c>
-      <c r="L122">
-        <v>6500</v>
-      </c>
-      <c r="M122">
-        <v>6500</v>
-      </c>
-      <c r="N122">
-        <v>6500</v>
-      </c>
-      <c r="O122">
-        <v>6500</v>
-      </c>
-      <c r="P122">
-        <v>8000</v>
-      </c>
-      <c r="Q122">
-        <v>6500</v>
-      </c>
-      <c r="R122">
-        <v>6500</v>
-      </c>
-      <c r="V122">
-        <v>15000</v>
-      </c>
-      <c r="X122">
-        <v>9000</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="S123" t="s">
-        <v>720</v>
-      </c>
-      <c r="T123" t="s">
-        <v>721</v>
-      </c>
-      <c r="U123" t="s">
-        <v>722</v>
+        <v>717</v>
+      </c>
+      <c r="B123">
+        <v>6500</v>
+      </c>
+      <c r="C123">
+        <v>6500</v>
+      </c>
+      <c r="D123">
+        <v>8000</v>
+      </c>
+      <c r="E123">
+        <v>6500</v>
+      </c>
+      <c r="F123">
+        <v>6500</v>
+      </c>
+      <c r="G123">
+        <v>6500</v>
+      </c>
+      <c r="H123">
+        <v>6500</v>
+      </c>
+      <c r="I123">
+        <v>6500</v>
+      </c>
+      <c r="J123">
+        <v>6500</v>
+      </c>
+      <c r="K123">
+        <v>6500</v>
+      </c>
+      <c r="L123">
+        <v>6500</v>
+      </c>
+      <c r="M123">
+        <v>6500</v>
+      </c>
+      <c r="N123">
+        <v>6500</v>
+      </c>
+      <c r="O123">
+        <v>6500</v>
+      </c>
+      <c r="P123">
+        <v>8000</v>
+      </c>
+      <c r="Q123">
+        <v>6500</v>
+      </c>
+      <c r="R123">
+        <v>6500</v>
+      </c>
+      <c r="V123">
+        <v>15000</v>
+      </c>
+      <c r="X123">
+        <v>9000</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="S124" t="s">
+        <v>719</v>
+      </c>
+      <c r="T124" t="s">
+        <v>720</v>
+      </c>
+      <c r="U124" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="S125" t="s">
         <v>723</v>
       </c>
-      <c r="S124" t="s">
+      <c r="T125" t="s">
         <v>724</v>
       </c>
-      <c r="T124" t="s">
+      <c r="U125" t="s">
         <v>725</v>
-      </c>
-      <c r="U124" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A126" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="B126" t="s">
-        <v>28</v>
-      </c>
-      <c r="C126" t="s">
-        <v>28</v>
-      </c>
-      <c r="D126" t="s">
-        <v>28</v>
-      </c>
-      <c r="E126" t="s">
-        <v>28</v>
-      </c>
-      <c r="F126" t="s">
-        <v>28</v>
-      </c>
-      <c r="G126" t="s">
-        <v>28</v>
-      </c>
-      <c r="H126" t="s">
-        <v>28</v>
-      </c>
-      <c r="I126" t="s">
-        <v>28</v>
-      </c>
-      <c r="J126" t="s">
-        <v>28</v>
-      </c>
-      <c r="K126" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B127" t="s">
         <v>28</v>
@@ -9081,492 +9073,527 @@
       <c r="C127" t="s">
         <v>28</v>
       </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
       <c r="E127" t="s">
         <v>28</v>
       </c>
       <c r="F127" t="s">
+        <v>28</v>
+      </c>
+      <c r="G127" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" t="s">
+        <v>28</v>
+      </c>
+      <c r="I127" t="s">
+        <v>28</v>
+      </c>
+      <c r="J127" t="s">
+        <v>28</v>
+      </c>
+      <c r="K127" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="S129" t="s">
+        <v>28</v>
+      </c>
+      <c r="T129" t="s">
+        <v>28</v>
+      </c>
+      <c r="U129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="S128" t="s">
-        <v>28</v>
-      </c>
-      <c r="T128" t="s">
-        <v>28</v>
-      </c>
-      <c r="U128" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A129" s="3" t="s">
+      <c r="C130" t="s">
         <v>730</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D130" t="s">
+        <v>730</v>
+      </c>
+      <c r="E130" t="s">
+        <v>730</v>
+      </c>
+      <c r="H130" t="s">
+        <v>730</v>
+      </c>
+      <c r="I130" t="s">
+        <v>730</v>
+      </c>
+      <c r="J130" t="s">
+        <v>730</v>
+      </c>
+      <c r="K130" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="D129" t="s">
-        <v>731</v>
-      </c>
-      <c r="E129" t="s">
-        <v>731</v>
-      </c>
-      <c r="H129" t="s">
-        <v>731</v>
-      </c>
-      <c r="I129" t="s">
-        <v>731</v>
-      </c>
-      <c r="J129" t="s">
-        <v>731</v>
-      </c>
-      <c r="K129" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A130" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="K130" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A131" s="3" t="s">
+      <c r="K131" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B132" t="s">
+        <v>730</v>
+      </c>
+      <c r="C132" t="s">
         <v>734</v>
       </c>
-      <c r="B131" t="s">
-        <v>731</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="E132" t="s">
+        <v>730</v>
+      </c>
+      <c r="H132" t="s">
+        <v>730</v>
+      </c>
+      <c r="I132" t="s">
+        <v>730</v>
+      </c>
+      <c r="J132" t="s">
+        <v>730</v>
+      </c>
+      <c r="K132" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="E131" t="s">
-        <v>731</v>
-      </c>
-      <c r="H131" t="s">
-        <v>731</v>
-      </c>
-      <c r="I131" t="s">
-        <v>731</v>
-      </c>
-      <c r="J131" t="s">
-        <v>731</v>
-      </c>
-      <c r="K131" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A132" s="3" t="s">
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A133" s="3" t="s">
+      <c r="H134" t="s">
+        <v>730</v>
+      </c>
+      <c r="I134" t="s">
+        <v>730</v>
+      </c>
+      <c r="J134" t="s">
+        <v>730</v>
+      </c>
+      <c r="K134" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="H133" t="s">
-        <v>731</v>
-      </c>
-      <c r="I133" t="s">
-        <v>731</v>
-      </c>
-      <c r="J133" t="s">
-        <v>731</v>
-      </c>
-      <c r="K133" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A134" s="3" t="s">
+      <c r="H135" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="H134" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A135" s="3" t="s">
+      <c r="H136" t="s">
+        <v>730</v>
+      </c>
+      <c r="I136" t="s">
+        <v>730</v>
+      </c>
+      <c r="J136" t="s">
+        <v>730</v>
+      </c>
+      <c r="K136" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="H135" t="s">
-        <v>731</v>
-      </c>
-      <c r="I135" t="s">
-        <v>731</v>
-      </c>
-      <c r="J135" t="s">
-        <v>731</v>
-      </c>
-      <c r="K135" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A136" s="3" t="s">
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A137" s="3" t="s">
+      <c r="H138" t="s">
+        <v>730</v>
+      </c>
+      <c r="I138" t="s">
+        <v>730</v>
+      </c>
+      <c r="J138" t="s">
+        <v>730</v>
+      </c>
+      <c r="K138" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="H137" t="s">
-        <v>731</v>
-      </c>
-      <c r="I137" t="s">
-        <v>731</v>
-      </c>
-      <c r="J137" t="s">
-        <v>731</v>
-      </c>
-      <c r="K137" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A138" s="3" t="s">
+      <c r="B139" t="s">
+        <v>50</v>
+      </c>
+      <c r="C139" t="s">
+        <v>50</v>
+      </c>
+      <c r="D139" t="s">
+        <v>50</v>
+      </c>
+      <c r="E139" t="s">
+        <v>50</v>
+      </c>
+      <c r="F139" t="s">
+        <v>50</v>
+      </c>
+      <c r="G139" t="s">
+        <v>50</v>
+      </c>
+      <c r="H139" t="s">
+        <v>50</v>
+      </c>
+      <c r="I139" t="s">
+        <v>50</v>
+      </c>
+      <c r="K139" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B138" t="s">
-        <v>51</v>
-      </c>
-      <c r="C138" t="s">
-        <v>51</v>
-      </c>
-      <c r="D138" t="s">
-        <v>51</v>
-      </c>
-      <c r="E138" t="s">
-        <v>51</v>
-      </c>
-      <c r="F138" t="s">
-        <v>51</v>
-      </c>
-      <c r="G138" t="s">
-        <v>51</v>
-      </c>
-      <c r="H138" t="s">
-        <v>51</v>
-      </c>
-      <c r="I138" t="s">
-        <v>51</v>
-      </c>
-      <c r="K138" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A139" s="3" t="s">
+      <c r="B140" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140" t="s">
+        <v>50</v>
+      </c>
+      <c r="D140" t="s">
+        <v>50</v>
+      </c>
+      <c r="E140" t="s">
+        <v>50</v>
+      </c>
+      <c r="F140" t="s">
+        <v>50</v>
+      </c>
+      <c r="G140" t="s">
+        <v>50</v>
+      </c>
+      <c r="H140" t="s">
+        <v>50</v>
+      </c>
+      <c r="K140" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="B139" t="s">
-        <v>51</v>
-      </c>
-      <c r="C139" t="s">
-        <v>51</v>
-      </c>
-      <c r="D139" t="s">
-        <v>51</v>
-      </c>
-      <c r="E139" t="s">
-        <v>51</v>
-      </c>
-      <c r="F139" t="s">
-        <v>51</v>
-      </c>
-      <c r="G139" t="s">
-        <v>51</v>
-      </c>
-      <c r="H139" t="s">
-        <v>51</v>
-      </c>
-      <c r="K139" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A140" s="3" t="s">
+      <c r="I141" t="s">
+        <v>730</v>
+      </c>
+      <c r="J141" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="I140" t="s">
-        <v>731</v>
-      </c>
-      <c r="J140" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A141" s="3" t="s">
+      <c r="I142" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="I141" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A142" s="3" t="s">
+      <c r="H143" t="s">
+        <v>730</v>
+      </c>
+      <c r="I143" t="s">
+        <v>730</v>
+      </c>
+      <c r="J143" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="H142" t="s">
-        <v>731</v>
-      </c>
-      <c r="I142" t="s">
-        <v>731</v>
-      </c>
-      <c r="J142" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A143" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A144" s="3" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="H145" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="B146" t="s">
-        <v>731</v>
-      </c>
-      <c r="I146" t="s">
-        <v>731</v>
-      </c>
-      <c r="J146" t="s">
-        <v>731</v>
+        <v>748</v>
+      </c>
+      <c r="H146" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="H147" t="s">
-        <v>731</v>
+        <v>749</v>
+      </c>
+      <c r="B147" t="s">
+        <v>730</v>
       </c>
       <c r="I147" t="s">
-        <v>731</v>
+        <v>730</v>
+      </c>
+      <c r="J147" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H148" t="s">
-        <v>733</v>
-      </c>
-      <c r="J148" t="s">
-        <v>733</v>
+        <v>730</v>
+      </c>
+      <c r="I148" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H149" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J149" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="H150" t="s">
+        <v>732</v>
+      </c>
+      <c r="J150" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C151" t="s">
+        <v>730</v>
+      </c>
+      <c r="H151" t="s">
+        <v>730</v>
+      </c>
+      <c r="I151" t="s">
+        <v>730</v>
+      </c>
+      <c r="J151" t="s">
+        <v>730</v>
+      </c>
+      <c r="K151" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="C150" t="s">
-        <v>731</v>
-      </c>
-      <c r="H150" t="s">
-        <v>731</v>
-      </c>
-      <c r="I150" t="s">
-        <v>731</v>
-      </c>
-      <c r="J150" t="s">
-        <v>731</v>
-      </c>
-      <c r="K150" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A151" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A152" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="B152" t="s">
-        <v>731</v>
-      </c>
-      <c r="H152" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
+      </c>
+      <c r="B153" t="s">
+        <v>730</v>
+      </c>
+      <c r="H153" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="H154" t="s">
-        <v>731</v>
-      </c>
-      <c r="I154" t="s">
-        <v>731</v>
-      </c>
-      <c r="J154" t="s">
-        <v>731</v>
-      </c>
-      <c r="K154" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
+      </c>
+      <c r="H155" t="s">
+        <v>730</v>
+      </c>
+      <c r="I155" t="s">
+        <v>730</v>
+      </c>
+      <c r="J155" t="s">
+        <v>730</v>
+      </c>
+      <c r="K155" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="H156" t="s">
-        <v>731</v>
-      </c>
-      <c r="I156" t="s">
-        <v>51</v>
-      </c>
-      <c r="J156" t="s">
-        <v>731</v>
-      </c>
-      <c r="K156" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
+      </c>
+      <c r="H157" t="s">
+        <v>730</v>
+      </c>
+      <c r="I157" t="s">
+        <v>50</v>
+      </c>
+      <c r="J157" t="s">
+        <v>730</v>
+      </c>
+      <c r="K157" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="H160" t="s">
-        <v>731</v>
-      </c>
-      <c r="I160" t="s">
-        <v>731</v>
-      </c>
-      <c r="J160" t="s">
-        <v>731</v>
+        <v>764</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="H161" t="s">
+        <v>730</v>
+      </c>
+      <c r="I161" t="s">
+        <v>730</v>
+      </c>
+      <c r="J161" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="H162" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="H161" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A162" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A163" s="3" t="s">
-        <v>769</v>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="I164" s="1"/>
-      <c r="K164" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="M164" t="s">
-        <v>731</v>
+        <v>768</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="B165" t="s">
-        <v>751</v>
-      </c>
-      <c r="J165" t="s">
-        <v>751</v>
+        <v>769</v>
+      </c>
+      <c r="I165" s="1"/>
+      <c r="K165" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="M165" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="C166" t="s">
-        <v>733</v>
-      </c>
-      <c r="E166" t="s">
-        <v>733</v>
-      </c>
-      <c r="H166" t="s">
-        <v>733</v>
-      </c>
-      <c r="I166" s="1"/>
+        <v>787</v>
+      </c>
+      <c r="B166" t="s">
+        <v>750</v>
+      </c>
       <c r="J166" t="s">
-        <v>733</v>
-      </c>
-      <c r="K166" t="s">
-        <v>733</v>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A167" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C167" t="s">
+        <v>732</v>
+      </c>
+      <c r="E167" t="s">
+        <v>732</v>
+      </c>
+      <c r="H167" t="s">
+        <v>732</v>
+      </c>
+      <c r="I167" s="1"/>
+      <c r="J167" t="s">
+        <v>732</v>
+      </c>
+      <c r="K167" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="800">
   <si>
     <t>Country</t>
   </si>
@@ -119,15 +119,9 @@
     <t>Translated</t>
   </si>
   <si>
-    <t>~ Ilia, Adrien</t>
-  </si>
-  <si>
     <t>~ Lyna</t>
   </si>
   <si>
-    <t>~ Greta, Behrang</t>
-  </si>
-  <si>
     <t>Recorded</t>
   </si>
   <si>
@@ -2156,9 +2150,6 @@
     <t xml:space="preserve"> Lyna Sin, 240$</t>
   </si>
   <si>
-    <t>Great? 80$</t>
-  </si>
-  <si>
     <t>Tarcilia?  72$</t>
   </si>
   <si>
@@ -2390,9 +2381,6 @@
     <t>2.16 wealth indiv</t>
   </si>
   <si>
-    <t>~ trad, ready</t>
-  </si>
-  <si>
     <t>~ trad, ready, wait September</t>
   </si>
   <si>
@@ -2408,16 +2396,34 @@
     <t>138 new burden-sharing</t>
   </si>
   <si>
-    <t>~ Wing Yee</t>
-  </si>
-  <si>
     <t>quotas URL</t>
   </si>
   <si>
     <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_01J9niuruKZJDEi</t>
   </si>
   <si>
-    <t>Marco di</t>
+    <t>Marco di Cesare, 32$</t>
+  </si>
+  <si>
+    <t>~ Greta</t>
+  </si>
+  <si>
+    <t>Greta, 80$</t>
+  </si>
+  <si>
+    <t>Emre Kanik, 50$</t>
+  </si>
+  <si>
+    <t>~ Emre</t>
+  </si>
+  <si>
+    <t>~ Ayanda</t>
+  </si>
+  <si>
+    <t>~ Ilia</t>
+  </si>
+  <si>
+    <t>x Youngsoo</t>
   </si>
 </sst>
 </file>
@@ -2539,7 +2545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2569,6 +2575,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2853,8 +2860,8 @@
   <dimension ref="A1:AA167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L119" sqref="L119"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3033,16 +3040,16 @@
         <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>794</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>797</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>29</v>
@@ -3051,13 +3058,13 @@
         <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="P3" s="3" t="s">
-        <v>33</v>
+        <v>793</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
@@ -3075,7 +3082,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
@@ -3105,12 +3112,19 @@
         <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>796</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
         <v>28</v>
@@ -3127,40 +3141,43 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="R5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>28</v>
@@ -3174,7 +3191,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
@@ -3224,34 +3241,36 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="S7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3264,72 +3283,72 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" t="s">
         <v>48</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>49</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" t="s">
         <v>50</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>51</v>
       </c>
-      <c r="M8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>53</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" t="s">
-        <v>51</v>
-      </c>
-      <c r="T8" t="s">
-        <v>56</v>
-      </c>
       <c r="U8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>0.85</v>
@@ -3412,422 +3431,422 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
         <v>83</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>85</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
         <v>86</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>87</v>
       </c>
-      <c r="F11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>88</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>89</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>90</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>91</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>92</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>93</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>95</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>96</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>97</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>98</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>99</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>100</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>101</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>102</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>103</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Y11" t="s">
         <v>104</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>105</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AA11" t="s">
         <v>106</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
         <v>109</v>
       </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>110</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>111</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>112</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>113</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>114</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>115</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>116</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>117</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>118</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>119</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>120</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" t="s">
         <v>121</v>
       </c>
-      <c r="O12" t="s">
+      <c r="R12" t="s">
         <v>122</v>
       </c>
-      <c r="P12" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>123</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>124</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
+        <v>120</v>
+      </c>
+      <c r="V12" t="s">
         <v>125</v>
       </c>
-      <c r="T12" t="s">
+      <c r="W12" t="s">
+        <v>85</v>
+      </c>
+      <c r="X12" t="s">
         <v>126</v>
       </c>
-      <c r="U12" t="s">
-        <v>122</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="Y12" t="s">
         <v>127</v>
       </c>
-      <c r="W12" t="s">
-        <v>87</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Z12" t="s">
         <v>128</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
         <v>129</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
         <v>132</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>133</v>
       </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
         <v>134</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>135</v>
       </c>
-      <c r="F13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>136</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>137</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="s">
         <v>138</v>
       </c>
-      <c r="J13" t="s">
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" t="s">
         <v>139</v>
       </c>
-      <c r="K13" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" t="s">
-        <v>128</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="Q13" t="s">
+        <v>134</v>
+      </c>
+      <c r="R13" t="s">
         <v>140</v>
       </c>
-      <c r="N13" t="s">
-        <v>135</v>
-      </c>
-      <c r="O13" t="s">
-        <v>133</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="S13" t="s">
         <v>141</v>
       </c>
-      <c r="Q13" t="s">
-        <v>136</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>99</v>
+      </c>
+      <c r="U13" t="s">
+        <v>140</v>
+      </c>
+      <c r="V13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
         <v>142</v>
       </c>
-      <c r="S13" t="s">
-        <v>143</v>
-      </c>
-      <c r="T13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U13" t="s">
-        <v>142</v>
-      </c>
-      <c r="V13" t="s">
-        <v>139</v>
-      </c>
-      <c r="W13" t="s">
-        <v>142</v>
-      </c>
-      <c r="X13" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>144</v>
-      </c>
       <c r="Z13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
         <v>145</v>
       </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="I14" t="s">
         <v>146</v>
       </c>
-      <c r="D14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>147</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
         <v>148</v>
       </c>
-      <c r="J14" t="s">
+      <c r="P14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>126</v>
+      </c>
+      <c r="R14" t="s">
+        <v>132</v>
+      </c>
+      <c r="S14" t="s">
         <v>149</v>
       </c>
-      <c r="K14" t="s">
-        <v>134</v>
-      </c>
-      <c r="L14" t="s">
-        <v>119</v>
-      </c>
-      <c r="M14" t="s">
-        <v>92</v>
-      </c>
-      <c r="N14" t="s">
-        <v>146</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="T14" t="s">
+        <v>124</v>
+      </c>
+      <c r="U14" t="s">
+        <v>148</v>
+      </c>
+      <c r="V14" t="s">
+        <v>137</v>
+      </c>
+      <c r="W14" t="s">
+        <v>133</v>
+      </c>
+      <c r="X14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y14" t="s">
         <v>150</v>
       </c>
-      <c r="P14" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>128</v>
-      </c>
-      <c r="R14" t="s">
-        <v>134</v>
-      </c>
-      <c r="S14" t="s">
-        <v>151</v>
-      </c>
-      <c r="T14" t="s">
-        <v>126</v>
-      </c>
-      <c r="U14" t="s">
-        <v>150</v>
-      </c>
-      <c r="V14" t="s">
-        <v>139</v>
-      </c>
-      <c r="W14" t="s">
-        <v>135</v>
-      </c>
-      <c r="X14" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>152</v>
-      </c>
       <c r="Z14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AA14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B15">
         <v>16942</v>
@@ -3881,10 +3900,10 @@
         <v>50960</v>
       </c>
       <c r="S15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U15">
         <v>16754</v>
@@ -3892,7 +3911,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16">
         <v>23515</v>
@@ -3946,10 +3965,10 @@
         <v>78679</v>
       </c>
       <c r="S16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U16">
         <v>22562</v>
@@ -3957,7 +3976,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B17">
         <v>31800</v>
@@ -4011,10 +4030,10 @@
         <v>122146</v>
       </c>
       <c r="S17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U17">
         <v>29932</v>
@@ -4022,111 +4041,111 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="L18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="S18" t="s">
+        <v>170</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U18" t="s">
         <v>172</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="U18" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="H19" s="7">
         <v>2700</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="L19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="M19" t="s">
+        <v>175</v>
+      </c>
+      <c r="N19" t="s">
         <v>183</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="O19" t="s">
         <v>184</v>
       </c>
-      <c r="M19" t="s">
-        <v>177</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>185</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>186</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>187</v>
       </c>
-      <c r="Q19" t="s">
-        <v>188</v>
-      </c>
-      <c r="R19" t="s">
-        <v>189</v>
-      </c>
       <c r="S19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U19" s="1">
         <v>1400</v>
@@ -4134,64 +4153,64 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="H20" s="7">
         <v>4900</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="M20" t="s">
         <v>195</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="N20" t="s">
         <v>196</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>197</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q20" t="s">
         <v>198</v>
       </c>
-      <c r="O20" t="s">
-        <v>199</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>155</v>
       </c>
-      <c r="Q20" t="s">
-        <v>200</v>
-      </c>
-      <c r="R20" t="s">
-        <v>157</v>
-      </c>
       <c r="S20" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U20" s="1">
         <v>1900</v>
@@ -4199,64 +4218,64 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="H21" s="7">
         <v>8150</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="M21" t="s">
         <v>207</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="N21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" t="s">
         <v>208</v>
       </c>
-      <c r="M21" t="s">
+      <c r="P21" t="s">
         <v>209</v>
       </c>
-      <c r="N21" t="s">
-        <v>181</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>210</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>211</v>
       </c>
-      <c r="Q21" t="s">
-        <v>212</v>
-      </c>
-      <c r="R21" t="s">
-        <v>213</v>
-      </c>
       <c r="S21" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U21" s="1">
         <v>2500</v>
@@ -4264,7 +4283,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B22">
         <v>0.25</v>
@@ -4329,7 +4348,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B23">
         <v>0.25</v>
@@ -4394,7 +4413,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B24">
         <v>0.25</v>
@@ -4459,7 +4478,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B25">
         <v>0.25</v>
@@ -4524,311 +4543,311 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" t="s">
         <v>221</v>
       </c>
-      <c r="B27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="K27" t="s">
         <v>224</v>
       </c>
-      <c r="H27" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="L27" t="s">
+        <v>132</v>
+      </c>
+      <c r="M27" t="s">
+        <v>144</v>
+      </c>
+      <c r="N27" t="s">
+        <v>110</v>
+      </c>
+      <c r="O27" t="s">
         <v>225</v>
       </c>
-      <c r="K27" t="s">
+      <c r="P27" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>224</v>
+      </c>
+      <c r="R27" t="s">
+        <v>132</v>
+      </c>
+      <c r="S27" t="s">
         <v>226</v>
       </c>
-      <c r="L27" t="s">
-        <v>134</v>
-      </c>
-      <c r="M27" t="s">
-        <v>146</v>
-      </c>
-      <c r="N27" t="s">
-        <v>112</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="T27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U27" t="s">
         <v>227</v>
-      </c>
-      <c r="P27" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>226</v>
-      </c>
-      <c r="R27" t="s">
-        <v>134</v>
-      </c>
-      <c r="S27" t="s">
-        <v>228</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="U27" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="H28" t="s">
         <v>231</v>
       </c>
-      <c r="F28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="I28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
         <v>233</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="L28" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" t="s">
         <v>133</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="N28" t="s">
+        <v>132</v>
+      </c>
+      <c r="O28" t="s">
         <v>234</v>
       </c>
-      <c r="K28" t="s">
+      <c r="P28" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q28" t="s">
         <v>235</v>
       </c>
-      <c r="L28" t="s">
-        <v>119</v>
-      </c>
-      <c r="M28" t="s">
-        <v>135</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="R28" t="s">
+        <v>117</v>
+      </c>
+      <c r="S28" t="s">
+        <v>158</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O28" t="s">
-        <v>236</v>
-      </c>
-      <c r="P28" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>237</v>
-      </c>
-      <c r="R28" t="s">
-        <v>119</v>
-      </c>
-      <c r="S28" t="s">
-        <v>160</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="U28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B29" t="s">
+      <c r="H29" t="s">
         <v>239</v>
       </c>
-      <c r="C29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="I29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" t="s">
+        <v>140</v>
+      </c>
+      <c r="L29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M29" t="s">
+        <v>138</v>
+      </c>
+      <c r="N29" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" t="s">
+        <v>241</v>
+      </c>
+      <c r="P29" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>132</v>
+      </c>
+      <c r="R29" t="s">
+        <v>131</v>
+      </c>
+      <c r="S29" t="s">
         <v>239</v>
       </c>
-      <c r="F29" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H29" t="s">
-        <v>241</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="9" t="s">
+      <c r="T29" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K29" t="s">
-        <v>142</v>
-      </c>
-      <c r="L29" t="s">
-        <v>139</v>
-      </c>
-      <c r="M29" t="s">
-        <v>140</v>
-      </c>
-      <c r="N29" t="s">
-        <v>92</v>
-      </c>
-      <c r="O29" t="s">
-        <v>243</v>
-      </c>
-      <c r="P29" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>134</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="U29" t="s">
         <v>133</v>
-      </c>
-      <c r="S29" t="s">
-        <v>241</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="U29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E30" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C30" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="G30" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" t="s">
         <v>248</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="I30" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="K30" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="S30" t="s">
         <v>252</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="T30" t="s">
         <v>253</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>254</v>
-      </c>
-      <c r="T30" t="s">
-        <v>255</v>
-      </c>
-      <c r="U30" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T31">
         <v>200</v>
@@ -4836,663 +4855,663 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E32" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" t="s">
+        <v>257</v>
+      </c>
+      <c r="I32" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s">
+        <v>257</v>
+      </c>
+      <c r="L32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" t="s">
+        <v>257</v>
+      </c>
+      <c r="N32" t="s">
+        <v>257</v>
+      </c>
+      <c r="O32" t="s">
+        <v>257</v>
+      </c>
+      <c r="P32" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>257</v>
+      </c>
+      <c r="R32" t="s">
+        <v>257</v>
+      </c>
+      <c r="S32" t="s">
+        <v>257</v>
+      </c>
+      <c r="T32" t="s">
         <v>258</v>
       </c>
-      <c r="B32" t="s">
-        <v>259</v>
-      </c>
-      <c r="C32" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" t="s">
-        <v>259</v>
-      </c>
-      <c r="E32" t="s">
-        <v>259</v>
-      </c>
-      <c r="F32" t="s">
-        <v>259</v>
-      </c>
-      <c r="G32" t="s">
-        <v>183</v>
-      </c>
-      <c r="H32" t="s">
-        <v>259</v>
-      </c>
-      <c r="I32" t="s">
-        <v>259</v>
-      </c>
-      <c r="J32" t="s">
-        <v>259</v>
-      </c>
-      <c r="K32" t="s">
-        <v>259</v>
-      </c>
-      <c r="L32" t="s">
-        <v>259</v>
-      </c>
-      <c r="M32" t="s">
-        <v>259</v>
-      </c>
-      <c r="N32" t="s">
-        <v>259</v>
-      </c>
-      <c r="O32" t="s">
-        <v>259</v>
-      </c>
-      <c r="P32" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>259</v>
-      </c>
-      <c r="R32" t="s">
-        <v>259</v>
-      </c>
-      <c r="S32" t="s">
-        <v>259</v>
-      </c>
-      <c r="T32" t="s">
-        <v>260</v>
-      </c>
       <c r="U32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G33" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" t="s">
         <v>181</v>
       </c>
-      <c r="H33" t="s">
-        <v>183</v>
-      </c>
       <c r="I33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="U33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" t="s">
+        <v>179</v>
+      </c>
+      <c r="I34" t="s">
+        <v>179</v>
+      </c>
+      <c r="J34" t="s">
+        <v>179</v>
+      </c>
+      <c r="K34" t="s">
+        <v>179</v>
+      </c>
+      <c r="L34" t="s">
+        <v>179</v>
+      </c>
+      <c r="M34" t="s">
+        <v>179</v>
+      </c>
+      <c r="N34" t="s">
+        <v>179</v>
+      </c>
+      <c r="O34" t="s">
+        <v>179</v>
+      </c>
+      <c r="P34" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>179</v>
+      </c>
+      <c r="R34" t="s">
+        <v>179</v>
+      </c>
+      <c r="S34" t="s">
+        <v>179</v>
+      </c>
+      <c r="T34" t="s">
         <v>181</v>
       </c>
-      <c r="C34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" t="s">
-        <v>181</v>
-      </c>
-      <c r="G34" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" t="s">
-        <v>181</v>
-      </c>
-      <c r="I34" t="s">
-        <v>181</v>
-      </c>
-      <c r="J34" t="s">
-        <v>181</v>
-      </c>
-      <c r="K34" t="s">
-        <v>181</v>
-      </c>
-      <c r="L34" t="s">
-        <v>181</v>
-      </c>
-      <c r="M34" t="s">
-        <v>181</v>
-      </c>
-      <c r="N34" t="s">
-        <v>181</v>
-      </c>
-      <c r="O34" t="s">
-        <v>181</v>
-      </c>
-      <c r="P34" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>181</v>
-      </c>
-      <c r="R34" t="s">
-        <v>181</v>
-      </c>
-      <c r="S34" t="s">
-        <v>181</v>
-      </c>
-      <c r="T34" t="s">
-        <v>183</v>
-      </c>
       <c r="U34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T35" t="s">
+        <v>109</v>
+      </c>
+      <c r="U35" t="s">
         <v>111</v>
-      </c>
-      <c r="U35" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" t="s">
+        <v>242</v>
+      </c>
+      <c r="H36" t="s">
+        <v>242</v>
+      </c>
+      <c r="I36" t="s">
+        <v>242</v>
+      </c>
+      <c r="J36" t="s">
+        <v>242</v>
+      </c>
+      <c r="K36" t="s">
+        <v>242</v>
+      </c>
+      <c r="L36" t="s">
+        <v>242</v>
+      </c>
+      <c r="M36" t="s">
+        <v>149</v>
+      </c>
+      <c r="N36" t="s">
+        <v>131</v>
+      </c>
+      <c r="O36" t="s">
+        <v>242</v>
+      </c>
+      <c r="P36" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>242</v>
+      </c>
+      <c r="R36" t="s">
+        <v>242</v>
+      </c>
+      <c r="S36" t="s">
+        <v>242</v>
+      </c>
+      <c r="T36" t="s">
+        <v>137</v>
+      </c>
+      <c r="U36" t="s">
         <v>264</v>
-      </c>
-      <c r="B36" t="s">
-        <v>244</v>
-      </c>
-      <c r="C36" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" t="s">
-        <v>244</v>
-      </c>
-      <c r="F36" t="s">
-        <v>265</v>
-      </c>
-      <c r="G36" t="s">
-        <v>244</v>
-      </c>
-      <c r="H36" t="s">
-        <v>244</v>
-      </c>
-      <c r="I36" t="s">
-        <v>244</v>
-      </c>
-      <c r="J36" t="s">
-        <v>244</v>
-      </c>
-      <c r="K36" t="s">
-        <v>244</v>
-      </c>
-      <c r="L36" t="s">
-        <v>244</v>
-      </c>
-      <c r="M36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N36" t="s">
-        <v>133</v>
-      </c>
-      <c r="O36" t="s">
-        <v>244</v>
-      </c>
-      <c r="P36" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>244</v>
-      </c>
-      <c r="R36" t="s">
-        <v>244</v>
-      </c>
-      <c r="S36" t="s">
-        <v>244</v>
-      </c>
-      <c r="T36" t="s">
-        <v>139</v>
-      </c>
-      <c r="U36" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="S37" t="s">
+        <v>266</v>
+      </c>
+      <c r="T37" t="s">
         <v>267</v>
       </c>
-      <c r="S37" t="s">
+      <c r="U37" t="s">
         <v>268</v>
-      </c>
-      <c r="T37" t="s">
-        <v>269</v>
-      </c>
-      <c r="U37" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="S38" t="s">
+        <v>270</v>
+      </c>
+      <c r="T38" t="s">
         <v>271</v>
       </c>
-      <c r="S38" t="s">
+      <c r="U38" t="s">
         <v>272</v>
-      </c>
-      <c r="T38" t="s">
-        <v>273</v>
-      </c>
-      <c r="U38" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="S39" t="s">
+        <v>274</v>
+      </c>
+      <c r="T39" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="S39" t="s">
+      <c r="U39" t="s">
         <v>276</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="U39" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="S42" t="s">
+        <v>282</v>
+      </c>
+      <c r="T42" t="s">
         <v>283</v>
-      </c>
-      <c r="S42" t="s">
-        <v>284</v>
-      </c>
-      <c r="T42" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="N43" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="R43" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="R43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E44" t="s">
+        <v>304</v>
+      </c>
+      <c r="F44" t="s">
+        <v>304</v>
+      </c>
+      <c r="G44" t="s">
+        <v>304</v>
+      </c>
+      <c r="H44" t="s">
+        <v>304</v>
+      </c>
+      <c r="I44" t="s">
+        <v>304</v>
+      </c>
+      <c r="J44" t="s">
+        <v>304</v>
+      </c>
+      <c r="K44" t="s">
         <v>305</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="L44" t="s">
+        <v>305</v>
+      </c>
+      <c r="M44" t="s">
+        <v>305</v>
+      </c>
+      <c r="N44" t="s">
+        <v>304</v>
+      </c>
+      <c r="O44" t="s">
+        <v>304</v>
+      </c>
+      <c r="P44" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>305</v>
+      </c>
+      <c r="R44" t="s">
+        <v>305</v>
+      </c>
+      <c r="S44" t="s">
         <v>306</v>
       </c>
-      <c r="C44" t="s">
-        <v>306</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E44" t="s">
-        <v>306</v>
-      </c>
-      <c r="F44" t="s">
-        <v>306</v>
-      </c>
-      <c r="G44" t="s">
-        <v>306</v>
-      </c>
-      <c r="H44" t="s">
-        <v>306</v>
-      </c>
-      <c r="I44" t="s">
-        <v>306</v>
-      </c>
-      <c r="J44" t="s">
-        <v>306</v>
-      </c>
-      <c r="K44" t="s">
-        <v>307</v>
-      </c>
-      <c r="L44" t="s">
-        <v>307</v>
-      </c>
-      <c r="M44" t="s">
-        <v>307</v>
-      </c>
-      <c r="N44" t="s">
-        <v>306</v>
-      </c>
-      <c r="O44" t="s">
-        <v>306</v>
-      </c>
-      <c r="P44" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>307</v>
-      </c>
-      <c r="R44" t="s">
-        <v>307</v>
-      </c>
-      <c r="S44" t="s">
-        <v>308</v>
-      </c>
       <c r="T44" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="U44" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="U45" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="O46" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="P46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="U46" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5526,10 +5545,10 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5540,79 +5559,79 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="M49" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="Q49" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="R49" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B50" s="2">
         <v>100</v>
@@ -5639,7 +5658,7 @@
         <v>10000</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K50" s="2">
         <v>1000</v>
@@ -5654,7 +5673,7 @@
         <v>1000</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P50" s="12">
         <v>1000</v>
@@ -5681,7 +5700,7 @@
         <v>1000</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Y50" s="2">
         <v>10000</v>
@@ -5695,7 +5714,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B51" s="13">
         <f>$S$51*B9</f>
@@ -5802,7 +5821,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B52">
         <v>61</v>
@@ -5885,7 +5904,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B53" s="13">
         <f t="shared" ref="B53:F53" si="2">B52*B9</f>
@@ -5953,7 +5972,7 @@
         <v>182.24</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="T53" s="13">
         <f>T52*T9</f>
@@ -5990,121 +6009,121 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I54" t="s">
         <v>370</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I54" t="s">
-        <v>372</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="T54" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="U54" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B55" t="s">
+        <v>373</v>
+      </c>
+      <c r="C55" t="s">
+        <v>373</v>
+      </c>
+      <c r="D55" t="s">
+        <v>373</v>
+      </c>
+      <c r="E55" t="s">
+        <v>373</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B55" t="s">
+      <c r="G55" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C55" t="s">
+      <c r="H55" t="s">
+        <v>376</v>
+      </c>
+      <c r="I55" t="s">
+        <v>377</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L55" t="s">
+        <v>377</v>
+      </c>
+      <c r="M55" t="s">
+        <v>377</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D55" t="s">
+      <c r="P55" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>377</v>
+      </c>
+      <c r="R55" t="s">
+        <v>377</v>
+      </c>
+      <c r="S55" t="s">
+        <v>377</v>
+      </c>
+      <c r="T55" t="s">
+        <v>373</v>
+      </c>
+      <c r="U55" t="s">
+        <v>373</v>
+      </c>
+      <c r="V55" t="s">
+        <v>377</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="X55" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E55" t="s">
+      <c r="Y55" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z55" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="AA55" t="s">
         <v>377</v>
-      </c>
-      <c r="H55" t="s">
-        <v>378</v>
-      </c>
-      <c r="I55" t="s">
-        <v>379</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="L55" t="s">
-        <v>379</v>
-      </c>
-      <c r="M55" t="s">
-        <v>379</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>379</v>
-      </c>
-      <c r="R55" t="s">
-        <v>379</v>
-      </c>
-      <c r="S55" t="s">
-        <v>379</v>
-      </c>
-      <c r="T55" t="s">
-        <v>375</v>
-      </c>
-      <c r="U55" t="s">
-        <v>375</v>
-      </c>
-      <c r="V55" t="s">
-        <v>379</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -6169,7 +6188,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B57">
         <v>887</v>
@@ -6252,7 +6271,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B58" s="15">
         <f t="shared" ref="B58:AA58" si="5">B57/B62</f>
@@ -6361,7 +6380,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B59">
         <v>45</v>
@@ -6445,7 +6464,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B60" s="5">
         <v>796.529</v>
@@ -6528,7 +6547,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B61" s="5">
         <v>68527599.400000006</v>
@@ -6611,7 +6630,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B62" s="5">
         <v>84</v>
@@ -6694,7 +6713,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B63" s="18">
         <f t="shared" ref="B63:P63" si="6">2.5*B59/1000</f>
@@ -6803,7 +6822,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B64" s="16">
         <f t="shared" ref="B64:K64" si="8">B63*B9</f>
@@ -6912,7 +6931,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B65" s="5">
         <f t="shared" ref="B65:R65" si="11">0.8*0.8*B60*B59*1000000*B9/B61</f>
@@ -7021,415 +7040,415 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="K66" s="16" t="s">
         <v>392</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="K66" s="16" t="s">
-        <v>394</v>
       </c>
       <c r="S66" s="16">
         <v>100</v>
       </c>
       <c r="T66" s="16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="U66" s="16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="O67" t="s">
+        <v>129</v>
+      </c>
+      <c r="P67" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>190</v>
+      </c>
+      <c r="R67" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="M67" s="16" t="s">
+      <c r="S67" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T67" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="N67" s="16" t="s">
+      <c r="U67" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="V67" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="W67" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="O67" t="s">
-        <v>131</v>
-      </c>
-      <c r="P67" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>192</v>
-      </c>
-      <c r="R67" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="S67" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="T67" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="U67" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="V67" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="W67" s="16" t="s">
-        <v>183</v>
-      </c>
       <c r="X67" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Y67" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z67" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AA67" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="O68" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="P68" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R68" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="S68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="U68" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="V68" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="N68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="O68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="R68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="S68" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="T68" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="U68" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="V68" s="16" t="s">
-        <v>402</v>
-      </c>
       <c r="W68" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="X68" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Y68" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Z68" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AA68" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="E69" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="G69" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="D69" s="16" t="s">
+      <c r="H69" s="16" t="s">
         <v>406</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>408</v>
       </c>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
       <c r="K69" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M69" s="16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N69" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P69" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="S69" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="T69" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="U69" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="E70" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="G70" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="C70" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="D70" s="16" t="s">
+      <c r="H70" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="I70" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="E70" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="G70" s="16" t="s">
+      <c r="J70" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="H70" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="I70" s="16" t="s">
+      <c r="K70" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="J70" s="16" t="s">
+      <c r="L70" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="M70" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="N70" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O70" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="K70" s="16" t="s">
+      <c r="P70" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q70" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="R70" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="S70" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="L70" s="16" t="s">
+      <c r="T70" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="M70" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="N70" s="16" t="s">
+      <c r="U70" s="16" t="s">
         <v>419</v>
-      </c>
-      <c r="O70" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="P70" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q70" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="R70" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="S70" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="T70" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="U70" s="16" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B71" t="s">
+        <v>421</v>
+      </c>
+      <c r="C71" t="s">
         <v>422</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>423</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>424</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
         <v>426</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="G71" t="s">
+      <c r="I71" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="J71" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="I71" s="16" t="s">
+      <c r="K71" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="L71" t="s">
         <v>431</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="M71" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="L71" t="s">
+      <c r="N71" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="M71" s="16" t="s">
+      <c r="O71" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="N71" s="16" t="s">
+      <c r="P71" t="s">
         <v>435</v>
       </c>
-      <c r="O71" s="16" t="s">
+      <c r="Q71" t="s">
         <v>436</v>
       </c>
-      <c r="P71" t="s">
+      <c r="S71" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="T71" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="S71" s="16" t="s">
+      <c r="U71" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="T71" s="20" t="s">
+      <c r="W71" t="s">
         <v>440</v>
       </c>
-      <c r="U71" s="16" t="s">
+      <c r="X71" t="s">
         <v>441</v>
       </c>
-      <c r="W71" t="s">
+      <c r="Y71" t="s">
         <v>442</v>
       </c>
-      <c r="X71" t="s">
-        <v>443</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>444</v>
-      </c>
       <c r="Z71" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B72" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
@@ -7444,7 +7463,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B73">
         <v>0.37862000000000001</v>
@@ -7498,7 +7517,7 @@
         <v>0.79</v>
       </c>
       <c r="S73" s="16" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T73">
         <v>0.15443999999999999</v>
@@ -7518,7 +7537,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B74">
         <v>1.5</v>
@@ -7601,7 +7620,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B75">
         <v>1.804</v>
@@ -7654,7 +7673,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B76">
         <v>0.36799999999999999</v>
@@ -7707,7 +7726,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B77">
         <v>6.6000000000000003E-2</v>
@@ -7736,7 +7755,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B78">
         <v>0.90300000000000002</v>
@@ -7765,7 +7784,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D79">
         <f>240.49/D9</f>
@@ -7782,1139 +7801,1142 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B80" t="s">
+        <v>452</v>
+      </c>
+      <c r="C80" t="s">
+        <v>452</v>
+      </c>
+      <c r="D80" t="s">
+        <v>452</v>
+      </c>
+      <c r="E80" t="s">
+        <v>452</v>
+      </c>
+      <c r="F80" t="s">
         <v>453</v>
       </c>
-      <c r="B80" t="s">
+      <c r="G80" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C80" t="s">
+      <c r="H80" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D80" t="s">
-        <v>454</v>
-      </c>
-      <c r="E80" t="s">
-        <v>454</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="I80" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="J80" t="s">
         <v>456</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="I80" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="J80" t="s">
+      <c r="L80" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="M80" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="N80" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="P80" t="s">
         <v>461</v>
       </c>
-      <c r="N80" s="2" t="s">
+      <c r="Q80" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O80" s="2" t="s">
+      <c r="R80" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="P80" t="s">
+      <c r="S80" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="R80" s="2" t="s">
+      <c r="T80" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="S80" s="2" t="s">
+      <c r="U80" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B81" t="s">
+        <v>467</v>
+      </c>
+      <c r="C81" t="s">
         <v>468</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>469</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81" t="s">
         <v>470</v>
       </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
+        <v>467</v>
+      </c>
+      <c r="G81" t="s">
         <v>471</v>
       </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>472</v>
       </c>
-      <c r="F81" t="s">
-        <v>469</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="I81" t="s">
         <v>473</v>
       </c>
-      <c r="H81" t="s">
+      <c r="J81" t="s">
         <v>474</v>
       </c>
-      <c r="I81" t="s">
+      <c r="K81" t="s">
         <v>475</v>
       </c>
-      <c r="J81" t="s">
+      <c r="L81" t="s">
         <v>476</v>
       </c>
-      <c r="K81" t="s">
+      <c r="M81" t="s">
+        <v>468</v>
+      </c>
+      <c r="N81" t="s">
+        <v>467</v>
+      </c>
+      <c r="O81" t="s">
         <v>477</v>
       </c>
-      <c r="L81" t="s">
+      <c r="P81" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>476</v>
+      </c>
+      <c r="R81" t="s">
+        <v>470</v>
+      </c>
+      <c r="S81" t="s">
+        <v>783</v>
+      </c>
+      <c r="T81" t="s">
         <v>478</v>
       </c>
-      <c r="M81" t="s">
-        <v>470</v>
-      </c>
-      <c r="N81" t="s">
-        <v>469</v>
-      </c>
-      <c r="O81" t="s">
+      <c r="U81" t="s">
         <v>479</v>
-      </c>
-      <c r="P81" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>478</v>
-      </c>
-      <c r="R81" t="s">
-        <v>472</v>
-      </c>
-      <c r="S81" t="s">
-        <v>786</v>
-      </c>
-      <c r="T81" t="s">
-        <v>480</v>
-      </c>
-      <c r="U81" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="S82" t="s">
+        <v>481</v>
+      </c>
+      <c r="T82" t="s">
         <v>482</v>
       </c>
-      <c r="S82" t="s">
+      <c r="U82" t="s">
         <v>483</v>
-      </c>
-      <c r="T82" t="s">
-        <v>484</v>
-      </c>
-      <c r="U82" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="S83" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B84" t="s">
+        <v>487</v>
+      </c>
+      <c r="C84" t="s">
+        <v>487</v>
+      </c>
+      <c r="D84" t="s">
+        <v>487</v>
+      </c>
+      <c r="E84" t="s">
+        <v>487</v>
+      </c>
+      <c r="F84" t="s">
+        <v>487</v>
+      </c>
+      <c r="G84" t="s">
         <v>488</v>
       </c>
-      <c r="B84" t="s">
+      <c r="H84" t="s">
         <v>489</v>
       </c>
-      <c r="C84" t="s">
-        <v>489</v>
-      </c>
-      <c r="D84" t="s">
-        <v>489</v>
-      </c>
-      <c r="E84" t="s">
-        <v>489</v>
-      </c>
-      <c r="F84" t="s">
-        <v>489</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
         <v>490</v>
       </c>
-      <c r="H84" t="s">
+      <c r="J84" t="s">
         <v>491</v>
       </c>
-      <c r="I84" t="s">
+      <c r="S84" t="s">
         <v>492</v>
       </c>
-      <c r="J84" t="s">
-        <v>493</v>
-      </c>
-      <c r="S84" t="s">
-        <v>494</v>
-      </c>
       <c r="T84" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="U84" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="S85" t="s">
         <v>495</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="T85" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="S85" t="s">
+      <c r="U85" t="s">
         <v>497</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="U85" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F86" t="s">
+        <v>499</v>
+      </c>
+      <c r="I86" t="s">
         <v>500</v>
       </c>
-      <c r="F86" t="s">
+      <c r="S86" t="s">
         <v>501</v>
       </c>
-      <c r="I86" t="s">
+      <c r="T86" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="S86" t="s">
-        <v>503</v>
-      </c>
-      <c r="T86" s="2" t="s">
-        <v>504</v>
-      </c>
       <c r="U86" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="S87" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="S88" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="S89" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C90" t="s">
+        <v>510</v>
+      </c>
+      <c r="D90" t="s">
         <v>511</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>512</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>513</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>514</v>
       </c>
-      <c r="F90" t="s">
+      <c r="H90" t="s">
         <v>515</v>
       </c>
-      <c r="G90" t="s">
+      <c r="I90" t="s">
         <v>516</v>
       </c>
-      <c r="H90" t="s">
+      <c r="J90" t="s">
         <v>517</v>
       </c>
-      <c r="I90" t="s">
+      <c r="K90" t="s">
         <v>518</v>
       </c>
-      <c r="J90" t="s">
+      <c r="L90" t="s">
         <v>519</v>
       </c>
-      <c r="K90" t="s">
+      <c r="M90" t="s">
         <v>520</v>
       </c>
-      <c r="L90" t="s">
+      <c r="N90" t="s">
         <v>521</v>
       </c>
-      <c r="M90" t="s">
+      <c r="O90" t="s">
         <v>522</v>
       </c>
-      <c r="N90" t="s">
+      <c r="P90" t="s">
         <v>523</v>
       </c>
-      <c r="O90" t="s">
+      <c r="Q90" t="s">
         <v>524</v>
       </c>
-      <c r="P90" t="s">
+      <c r="R90" t="s">
         <v>525</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="S90" t="s">
         <v>526</v>
       </c>
-      <c r="R90" t="s">
+      <c r="T90" t="s">
         <v>527</v>
       </c>
-      <c r="S90" t="s">
+      <c r="U90" t="s">
         <v>528</v>
-      </c>
-      <c r="T90" t="s">
-        <v>529</v>
-      </c>
-      <c r="U90" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C91" t="s">
+        <v>530</v>
+      </c>
+      <c r="D91" t="s">
         <v>531</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>532</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>533</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
         <v>534</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" t="s">
         <v>535</v>
       </c>
-      <c r="G91" t="s">
+      <c r="I91" t="s">
         <v>536</v>
       </c>
-      <c r="H91" t="s">
+      <c r="J91" t="s">
         <v>537</v>
       </c>
-      <c r="I91" t="s">
+      <c r="K91" t="s">
         <v>538</v>
       </c>
-      <c r="J91" t="s">
+      <c r="L91" t="s">
         <v>539</v>
       </c>
-      <c r="K91" t="s">
+      <c r="M91" t="s">
         <v>540</v>
       </c>
-      <c r="L91" t="s">
+      <c r="N91" t="s">
         <v>541</v>
       </c>
-      <c r="M91" t="s">
+      <c r="O91" t="s">
         <v>542</v>
       </c>
-      <c r="N91" t="s">
+      <c r="P91" t="s">
         <v>543</v>
       </c>
-      <c r="O91" t="s">
+      <c r="Q91" t="s">
         <v>544</v>
       </c>
-      <c r="P91" t="s">
+      <c r="R91" t="s">
         <v>545</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="S91" t="s">
         <v>546</v>
       </c>
-      <c r="R91" t="s">
+      <c r="T91" t="s">
         <v>547</v>
       </c>
-      <c r="S91" t="s">
+      <c r="U91" t="s">
         <v>548</v>
-      </c>
-      <c r="T91" t="s">
-        <v>549</v>
-      </c>
-      <c r="U91" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C92" t="s">
+        <v>550</v>
+      </c>
+      <c r="D92" t="s">
         <v>551</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>552</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>553</v>
       </c>
-      <c r="E92" t="s">
+      <c r="G92" t="s">
         <v>554</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
         <v>555</v>
       </c>
-      <c r="G92" t="s">
+      <c r="I92" t="s">
         <v>556</v>
       </c>
-      <c r="H92" t="s">
+      <c r="J92" t="s">
         <v>557</v>
       </c>
-      <c r="I92" t="s">
+      <c r="K92" t="s">
         <v>558</v>
       </c>
-      <c r="J92" t="s">
+      <c r="L92" t="s">
         <v>559</v>
       </c>
-      <c r="K92" t="s">
+      <c r="M92" t="s">
         <v>560</v>
       </c>
-      <c r="L92" t="s">
+      <c r="N92" t="s">
         <v>561</v>
       </c>
-      <c r="M92" t="s">
+      <c r="O92" t="s">
         <v>562</v>
       </c>
-      <c r="N92" t="s">
+      <c r="P92" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q92" t="s">
         <v>563</v>
       </c>
-      <c r="O92" t="s">
+      <c r="R92" t="s">
         <v>564</v>
       </c>
-      <c r="P92" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q92" t="s">
+      <c r="S92" t="s">
         <v>565</v>
       </c>
-      <c r="R92" t="s">
+      <c r="T92" t="s">
         <v>566</v>
       </c>
-      <c r="S92" t="s">
+      <c r="U92" t="s">
         <v>567</v>
-      </c>
-      <c r="T92" t="s">
-        <v>568</v>
-      </c>
-      <c r="U92" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C93" t="s">
+        <v>569</v>
+      </c>
+      <c r="D93" t="s">
         <v>570</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
         <v>571</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>572</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="s">
         <v>573</v>
       </c>
-      <c r="F93" t="s">
+      <c r="H93" t="s">
         <v>574</v>
       </c>
-      <c r="G93" t="s">
+      <c r="I93" t="s">
         <v>575</v>
       </c>
-      <c r="H93" t="s">
+      <c r="J93" t="s">
         <v>576</v>
       </c>
-      <c r="I93" t="s">
+      <c r="K93" t="s">
         <v>577</v>
       </c>
-      <c r="J93" t="s">
+      <c r="L93" t="s">
         <v>578</v>
       </c>
-      <c r="K93" t="s">
+      <c r="M93" t="s">
         <v>579</v>
       </c>
-      <c r="L93" t="s">
+      <c r="N93" t="s">
         <v>580</v>
       </c>
-      <c r="M93" t="s">
+      <c r="O93" t="s">
         <v>581</v>
       </c>
-      <c r="N93" t="s">
+      <c r="P93" t="s">
         <v>582</v>
       </c>
-      <c r="O93" t="s">
+      <c r="Q93" t="s">
         <v>583</v>
       </c>
-      <c r="P93" t="s">
+      <c r="R93" t="s">
         <v>584</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="S93" s="22" t="s">
         <v>585</v>
       </c>
-      <c r="R93" t="s">
+      <c r="T93" t="s">
         <v>586</v>
       </c>
-      <c r="S93" s="22" t="s">
+      <c r="U93" t="s">
         <v>587</v>
-      </c>
-      <c r="T93" t="s">
-        <v>588</v>
-      </c>
-      <c r="U93" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C94" t="s">
+        <v>589</v>
+      </c>
+      <c r="D94" t="s">
         <v>590</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>591</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>592</v>
       </c>
-      <c r="E94" t="s">
+      <c r="G94" t="s">
         <v>593</v>
       </c>
-      <c r="F94" t="s">
+      <c r="H94" t="s">
         <v>594</v>
       </c>
-      <c r="G94" t="s">
+      <c r="I94" t="s">
         <v>595</v>
       </c>
-      <c r="H94" t="s">
+      <c r="J94" t="s">
         <v>596</v>
       </c>
-      <c r="I94" t="s">
+      <c r="K94" t="s">
         <v>597</v>
       </c>
-      <c r="J94" t="s">
+      <c r="L94" t="s">
         <v>598</v>
       </c>
-      <c r="K94" t="s">
+      <c r="M94" t="s">
         <v>599</v>
       </c>
-      <c r="L94" t="s">
+      <c r="N94" t="s">
         <v>600</v>
       </c>
-      <c r="M94" t="s">
+      <c r="P94" t="s">
         <v>601</v>
       </c>
-      <c r="N94" t="s">
+      <c r="Q94" t="s">
         <v>602</v>
       </c>
-      <c r="P94" t="s">
+      <c r="R94" t="s">
         <v>603</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="U94" t="s">
         <v>604</v>
-      </c>
-      <c r="R94" t="s">
-        <v>605</v>
-      </c>
-      <c r="U94" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C95" t="s">
+        <v>606</v>
+      </c>
+      <c r="D95" t="s">
         <v>607</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E95" t="s">
         <v>608</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F95" t="s">
         <v>609</v>
       </c>
-      <c r="E95" t="s">
+      <c r="H95" t="s">
         <v>610</v>
       </c>
-      <c r="F95" t="s">
+      <c r="I95" t="s">
         <v>611</v>
       </c>
-      <c r="H95" t="s">
+      <c r="J95" t="s">
         <v>612</v>
       </c>
-      <c r="I95" t="s">
+      <c r="L95" t="s">
         <v>613</v>
       </c>
-      <c r="J95" t="s">
+      <c r="M95" t="s">
         <v>614</v>
       </c>
-      <c r="L95" t="s">
+      <c r="N95" t="s">
         <v>615</v>
       </c>
-      <c r="M95" t="s">
+      <c r="R95" t="s">
         <v>616</v>
       </c>
-      <c r="N95" t="s">
+      <c r="U95" t="s">
         <v>617</v>
-      </c>
-      <c r="R95" t="s">
-        <v>618</v>
-      </c>
-      <c r="U95" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C96" t="s">
+        <v>619</v>
+      </c>
+      <c r="E96" t="s">
         <v>620</v>
       </c>
-      <c r="C96" t="s">
+      <c r="H96" t="s">
         <v>621</v>
       </c>
-      <c r="E96" t="s">
+      <c r="I96" t="s">
         <v>622</v>
       </c>
-      <c r="H96" t="s">
+      <c r="J96" t="s">
         <v>623</v>
       </c>
-      <c r="I96" t="s">
+      <c r="M96" t="s">
         <v>624</v>
       </c>
-      <c r="J96" t="s">
+      <c r="R96" t="s">
         <v>625</v>
-      </c>
-      <c r="M96" t="s">
-        <v>626</v>
-      </c>
-      <c r="R96" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E97" t="s">
+        <v>627</v>
+      </c>
+      <c r="H97" t="s">
         <v>628</v>
       </c>
-      <c r="E97" t="s">
+      <c r="I97" t="s">
         <v>629</v>
       </c>
-      <c r="H97" t="s">
+      <c r="R97" t="s">
         <v>630</v>
-      </c>
-      <c r="I97" t="s">
-        <v>631</v>
-      </c>
-      <c r="R97" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E98" t="s">
+        <v>632</v>
+      </c>
+      <c r="I98" t="s">
         <v>633</v>
-      </c>
-      <c r="E98" t="s">
-        <v>634</v>
-      </c>
-      <c r="I98" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E99" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I99" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J99" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="S100" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="S101" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="S102" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B103" t="s">
+        <v>643</v>
+      </c>
+      <c r="C103" t="s">
+        <v>643</v>
+      </c>
+      <c r="D103" t="s">
+        <v>643</v>
+      </c>
+      <c r="E103" t="s">
+        <v>643</v>
+      </c>
+      <c r="F103" t="s">
+        <v>643</v>
+      </c>
+      <c r="G103" t="s">
+        <v>643</v>
+      </c>
+      <c r="I103" t="s">
+        <v>643</v>
+      </c>
+      <c r="J103" t="s">
+        <v>643</v>
+      </c>
+      <c r="K103" t="s">
+        <v>643</v>
+      </c>
+      <c r="N103" t="s">
         <v>644</v>
       </c>
-      <c r="B103" t="s">
+      <c r="S103" t="s">
         <v>645</v>
       </c>
-      <c r="C103" t="s">
-        <v>645</v>
-      </c>
-      <c r="D103" t="s">
-        <v>645</v>
-      </c>
-      <c r="E103" t="s">
-        <v>645</v>
-      </c>
-      <c r="F103" t="s">
-        <v>645</v>
-      </c>
-      <c r="G103" t="s">
-        <v>645</v>
-      </c>
-      <c r="I103" t="s">
-        <v>645</v>
-      </c>
-      <c r="J103" t="s">
-        <v>645</v>
-      </c>
-      <c r="K103" t="s">
-        <v>645</v>
-      </c>
-      <c r="N103" t="s">
-        <v>646</v>
-      </c>
-      <c r="S103" t="s">
-        <v>647</v>
-      </c>
       <c r="T103" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="U103" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B104" t="s">
+        <v>647</v>
+      </c>
+      <c r="C104" t="s">
+        <v>647</v>
+      </c>
+      <c r="D104" t="s">
+        <v>647</v>
+      </c>
+      <c r="E104" t="s">
+        <v>647</v>
+      </c>
+      <c r="F104" t="s">
+        <v>647</v>
+      </c>
+      <c r="G104" t="s">
+        <v>647</v>
+      </c>
+      <c r="H104" t="s">
+        <v>647</v>
+      </c>
+      <c r="I104" t="s">
+        <v>647</v>
+      </c>
+      <c r="J104" t="s">
+        <v>647</v>
+      </c>
+      <c r="K104" t="s">
+        <v>647</v>
+      </c>
+      <c r="L104" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>647</v>
+      </c>
+      <c r="S104" t="s">
         <v>648</v>
       </c>
-      <c r="B104" t="s">
-        <v>649</v>
-      </c>
-      <c r="C104" t="s">
-        <v>649</v>
-      </c>
-      <c r="D104" t="s">
-        <v>649</v>
-      </c>
-      <c r="E104" t="s">
-        <v>649</v>
-      </c>
-      <c r="F104" t="s">
-        <v>649</v>
-      </c>
-      <c r="G104" t="s">
-        <v>649</v>
-      </c>
-      <c r="H104" t="s">
-        <v>649</v>
-      </c>
-      <c r="I104" t="s">
-        <v>649</v>
-      </c>
-      <c r="J104" t="s">
-        <v>649</v>
-      </c>
-      <c r="K104" t="s">
-        <v>649</v>
-      </c>
-      <c r="L104" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>649</v>
-      </c>
-      <c r="S104" t="s">
-        <v>650</v>
-      </c>
       <c r="T104" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="U104" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="W104" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B105" t="s">
+        <v>650</v>
+      </c>
+      <c r="C105" t="s">
+        <v>650</v>
+      </c>
+      <c r="D105" t="s">
+        <v>650</v>
+      </c>
+      <c r="E105" t="s">
+        <v>650</v>
+      </c>
+      <c r="F105" t="s">
+        <v>650</v>
+      </c>
+      <c r="G105" t="s">
+        <v>650</v>
+      </c>
+      <c r="H105" t="s">
+        <v>650</v>
+      </c>
+      <c r="I105" t="s">
+        <v>650</v>
+      </c>
+      <c r="J105" t="s">
+        <v>650</v>
+      </c>
+      <c r="K105" t="s">
+        <v>650</v>
+      </c>
+      <c r="L105" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>650</v>
+      </c>
+      <c r="S105" t="s">
         <v>651</v>
       </c>
-      <c r="B105" t="s">
-        <v>652</v>
-      </c>
-      <c r="C105" t="s">
-        <v>652</v>
-      </c>
-      <c r="D105" t="s">
-        <v>652</v>
-      </c>
-      <c r="E105" t="s">
-        <v>652</v>
-      </c>
-      <c r="F105" t="s">
-        <v>652</v>
-      </c>
-      <c r="G105" t="s">
-        <v>652</v>
-      </c>
-      <c r="H105" t="s">
-        <v>652</v>
-      </c>
-      <c r="I105" t="s">
-        <v>652</v>
-      </c>
-      <c r="J105" t="s">
-        <v>652</v>
-      </c>
-      <c r="K105" t="s">
-        <v>652</v>
-      </c>
-      <c r="L105" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>652</v>
-      </c>
-      <c r="S105" t="s">
-        <v>653</v>
-      </c>
       <c r="T105" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="U105" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="W105" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B106" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C106" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D106" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E106" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F106" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="T106" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="U106" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="W106" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B107" t="s">
+        <v>655</v>
+      </c>
+      <c r="C107" t="s">
+        <v>655</v>
+      </c>
+      <c r="E107" t="s">
+        <v>655</v>
+      </c>
+      <c r="F107" t="s">
+        <v>655</v>
+      </c>
+      <c r="L107" t="s">
+        <v>655</v>
+      </c>
+      <c r="S107" t="s">
         <v>656</v>
       </c>
-      <c r="B107" t="s">
-        <v>657</v>
-      </c>
-      <c r="C107" t="s">
-        <v>657</v>
-      </c>
-      <c r="E107" t="s">
-        <v>657</v>
-      </c>
-      <c r="F107" t="s">
-        <v>657</v>
-      </c>
-      <c r="L107" t="s">
-        <v>657</v>
-      </c>
-      <c r="S107" t="s">
-        <v>658</v>
-      </c>
       <c r="T107" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="U107" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="W107" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="D108" t="s">
+        <v>658</v>
+      </c>
+      <c r="H108" t="s">
         <v>659</v>
       </c>
-      <c r="D108" t="s">
+      <c r="K108" t="s">
         <v>660</v>
-      </c>
-      <c r="H108" t="s">
-        <v>661</v>
-      </c>
-      <c r="K108" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="S109" t="s">
+        <v>662</v>
+      </c>
+      <c r="T109" t="s">
         <v>663</v>
       </c>
-      <c r="S109" t="s">
+      <c r="U109" t="s">
         <v>664</v>
-      </c>
-      <c r="T109" t="s">
-        <v>665</v>
-      </c>
-      <c r="U109" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="S110" t="s">
+        <v>666</v>
+      </c>
+      <c r="T110" t="s">
         <v>667</v>
       </c>
-      <c r="S110" t="s">
+      <c r="U110" t="s">
         <v>668</v>
-      </c>
-      <c r="T110" t="s">
-        <v>669</v>
-      </c>
-      <c r="U110" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="S111" t="s">
+        <v>670</v>
+      </c>
+      <c r="T111" t="s">
         <v>671</v>
       </c>
-      <c r="S111" t="s">
+      <c r="U111" t="s">
         <v>672</v>
-      </c>
-      <c r="T111" t="s">
-        <v>673</v>
-      </c>
-      <c r="U111" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="U112" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="S113" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="S114" t="s">
+        <v>678</v>
+      </c>
+      <c r="T114" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="S114" t="s">
+      <c r="U114" t="s">
         <v>680</v>
-      </c>
-      <c r="T114" s="23" t="s">
-        <v>681</v>
-      </c>
-      <c r="U114" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="S115" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="U116" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="D117" t="s">
+        <v>780</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="I117" t="s">
+        <v>778</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="N117" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>785</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="D117" t="s">
-        <v>783</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>782</v>
-      </c>
-      <c r="I117" t="s">
-        <v>781</v>
-      </c>
-      <c r="L117" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="N117" s="9" t="s">
-        <v>779</v>
-      </c>
       <c r="O117" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="P117" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B118" t="s">
+        <v>686</v>
+      </c>
+      <c r="C118" t="s">
         <v>687</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D118" t="s">
         <v>688</v>
       </c>
-      <c r="C118" t="s">
+      <c r="E118" t="s">
         <v>689</v>
       </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
         <v>690</v>
       </c>
-      <c r="E118" t="s">
+      <c r="G118" t="s">
         <v>691</v>
       </c>
-      <c r="F118" t="s">
+      <c r="I118" t="s">
         <v>692</v>
       </c>
-      <c r="G118" t="s">
+      <c r="J118" t="s">
         <v>693</v>
       </c>
-      <c r="I118" t="s">
+      <c r="K118" s="24" t="s">
         <v>694</v>
       </c>
-      <c r="J118" t="s">
+      <c r="L118" t="s">
+        <v>792</v>
+      </c>
+      <c r="O118" t="s">
+        <v>788</v>
+      </c>
+      <c r="P118" t="s">
+        <v>795</v>
+      </c>
+      <c r="S118" t="s">
         <v>695</v>
       </c>
-      <c r="K118" s="24" t="s">
+      <c r="T118" t="s">
         <v>696</v>
       </c>
-      <c r="L118" t="s">
-        <v>797</v>
-      </c>
-      <c r="O118" t="s">
-        <v>792</v>
-      </c>
-      <c r="S118" t="s">
+      <c r="U118" t="s">
         <v>697</v>
-      </c>
-      <c r="T118" t="s">
-        <v>698</v>
-      </c>
-      <c r="U118" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C119" t="s">
+        <v>699</v>
+      </c>
+      <c r="D119" t="s">
+        <v>787</v>
+      </c>
+      <c r="E119" t="s">
         <v>700</v>
       </c>
-      <c r="C119" t="s">
+      <c r="G119" t="s">
         <v>701</v>
       </c>
-      <c r="D119" t="s">
-        <v>791</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="H119" t="s">
         <v>702</v>
       </c>
-      <c r="G119" t="s">
+      <c r="I119" t="s">
         <v>703</v>
       </c>
-      <c r="H119" t="s">
+      <c r="J119" t="s">
         <v>704</v>
       </c>
-      <c r="I119" t="s">
+      <c r="K119" t="s">
         <v>705</v>
       </c>
-      <c r="J119" t="s">
+      <c r="N119" t="s">
         <v>706</v>
       </c>
-      <c r="K119" t="s">
+      <c r="O119" t="s">
         <v>707</v>
       </c>
-      <c r="N119" t="s">
+      <c r="P119" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q119" t="s">
         <v>708</v>
       </c>
-      <c r="O119" t="s">
+      <c r="T119" t="s">
         <v>709</v>
-      </c>
-      <c r="P119" t="s">
-        <v>710</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>711</v>
-      </c>
-      <c r="T119" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="S120" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B121">
         <v>7</v>
@@ -8943,7 +8965,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B122">
         <v>6300</v>
@@ -8975,7 +8997,7 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B123">
         <v>6500</v>
@@ -9037,35 +9059,35 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="S124" t="s">
+        <v>716</v>
+      </c>
+      <c r="T124" t="s">
+        <v>717</v>
+      </c>
+      <c r="U124" t="s">
         <v>718</v>
-      </c>
-      <c r="S124" t="s">
-        <v>719</v>
-      </c>
-      <c r="T124" t="s">
-        <v>720</v>
-      </c>
-      <c r="U124" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="S125" t="s">
+        <v>720</v>
+      </c>
+      <c r="T125" t="s">
+        <v>721</v>
+      </c>
+      <c r="U125" t="s">
         <v>722</v>
-      </c>
-      <c r="S125" t="s">
-        <v>723</v>
-      </c>
-      <c r="T125" t="s">
-        <v>724</v>
-      </c>
-      <c r="U125" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B127" t="s">
         <v>28</v>
@@ -9100,7 +9122,7 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B128" t="s">
         <v>28</v>
@@ -9117,7 +9139,7 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="S129" t="s">
         <v>28</v>
@@ -9131,473 +9153,476 @@
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C130" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D130" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E130" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H130" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I130" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J130" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="K130" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="K131" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B132" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C132" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E132" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H132" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I132" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J132" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="K132" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H134" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I134" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J134" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="K134" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H135" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H136" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I136" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J136" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="K136" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H138" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I138" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J138" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="K138" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B139" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C139" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D139" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E139" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F139" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G139" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H139" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I139" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K139" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="I141" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J141" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="I142" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H143" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I143" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J143" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H146" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B147" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I147" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J147" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H148" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I148" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H149" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="J149" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="H150" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="J150" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C151" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H151" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I151" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J151" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="K151" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B153" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H153" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H155" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I155" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J155" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="K155" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H157" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I157" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J157" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="K157" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="H161" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I161" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J161" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H162" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I163" s="1"/>
       <c r="J163" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I165" s="1"/>
       <c r="K165" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="M165" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B166" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="J166" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C167" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E167" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H167" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="I167" s="1"/>
       <c r="J167" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="K167" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F71" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="802">
   <si>
     <t>Country</t>
   </si>
@@ -2424,6 +2424,12 @@
   </si>
   <si>
     <t>x Youngsoo</t>
+  </si>
+  <si>
+    <t>~ Maxime</t>
+  </si>
+  <si>
+    <t>FR: Maxime de la Cruz, 100$ / EN: Davenport</t>
   </si>
 </sst>
 </file>
@@ -2860,8 +2866,8 @@
   <dimension ref="A1:AA167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3117,7 +3123,9 @@
       <c r="L4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
         <v>799</v>
@@ -8866,6 +8874,9 @@
       <c r="L118" t="s">
         <v>792</v>
       </c>
+      <c r="M118" t="s">
+        <v>801</v>
+      </c>
       <c r="O118" t="s">
         <v>788</v>
       </c>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="801">
   <si>
     <t>Country</t>
   </si>
@@ -146,9 +146,6 @@
     <t>~ test</t>
   </si>
   <si>
-    <t>~ Adrien</t>
-  </si>
-  <si>
     <t>currency (LCU)</t>
   </si>
   <si>
@@ -1316,12 +1313,6 @@
     <t>?Q_Language=ID</t>
   </si>
   <si>
-    <t>?Q_Language=ZU</t>
-  </si>
-  <si>
-    <t>?Q_Language=ES</t>
-  </si>
-  <si>
     <t>?Q_Language=FR-CA / ?Q_Language=KAN</t>
   </si>
   <si>
@@ -2300,9 +2291,6 @@
     <t>20.2 Scale adapt "European"</t>
   </si>
   <si>
-    <t>R,a</t>
-  </si>
-  <si>
     <t>20.7 Adapt values of global basic income</t>
   </si>
   <si>
@@ -2315,9 +2303,6 @@
     <t>winner_latent = ${rand://int/1:300}</t>
   </si>
   <si>
-    <t>23.4, 24.1, 24.2, 24.5, 24.6, 19.2, 22.2, 22.3, 25.1, 257 Remove for China (Respondi)</t>
-  </si>
-  <si>
     <t>13.11 change pasta to rice (or else) and chicken wings</t>
   </si>
   <si>
@@ -2384,9 +2369,6 @@
     <t>~ trad, ready, wait September</t>
   </si>
   <si>
-    <t>a (t on upwork)</t>
-  </si>
-  <si>
     <t>Katarzyna Smiejczak, 100$ (80+20) (Anna Wosik, 20$)</t>
   </si>
   <si>
@@ -2430,6 +2412,21 @@
   </si>
   <si>
     <t>FR: Maxime de la Cruz, 100$ / EN: Davenport</t>
+  </si>
+  <si>
+    <t>2.6, 23.4, 24.5, 19.2, 22.2, 22.3, 25.1, 257 Remove for China (Respondi)</t>
+  </si>
+  <si>
+    <t>?a</t>
+  </si>
+  <si>
+    <t>https://lse.eu.qualtrics.com/jfe/form/SV_5bgS4vQyTHXHl4i?Q_Language=ZU / https://lse.eu.qualtrics.com/jfe/form/SV_5bgS4vQyTHXHl4i?Q_Language=EN-US</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_5bgS4vQyTHXHl4i</t>
+  </si>
+  <si>
+    <t>https://lse.eu.qualtrics.com/jfe/form/SV_9pr4LdbFZ8DjyB0?Q_Language=ES</t>
   </si>
 </sst>
 </file>
@@ -2551,7 +2548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2581,7 +2578,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2866,8 +2862,8 @@
   <dimension ref="A1:AA167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M119" sqref="M119"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3052,10 +3048,10 @@
         <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>29</v>
@@ -3064,13 +3060,13 @@
         <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
@@ -3124,14 +3120,14 @@
         <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
@@ -3261,7 +3257,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>38</v>
@@ -3270,12 +3266,12 @@
         <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3291,72 +3287,72 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" t="s">
         <v>46</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>47</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>48</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
         <v>49</v>
       </c>
-      <c r="M8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>50</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>51</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" t="s">
         <v>53</v>
       </c>
-      <c r="R8" t="s">
-        <v>49</v>
-      </c>
-      <c r="S8" t="s">
-        <v>49</v>
-      </c>
-      <c r="T8" t="s">
-        <v>54</v>
-      </c>
       <c r="U8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>0.85</v>
@@ -3439,422 +3435,422 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>83</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>84</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
         <v>85</v>
       </c>
-      <c r="F11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>86</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>87</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>88</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>89</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>90</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>91</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>92</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>93</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>95</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>96</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>97</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>98</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>99</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>100</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>101</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>102</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>103</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>104</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>105</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
         <v>107</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" t="s">
+        <v>122</v>
+      </c>
+      <c r="T12" t="s">
+        <v>123</v>
+      </c>
+      <c r="U12" t="s">
+        <v>119</v>
+      </c>
+      <c r="V12" t="s">
+        <v>124</v>
+      </c>
+      <c r="W12" t="s">
         <v>84</v>
       </c>
-      <c r="C12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" t="s">
-        <v>116</v>
-      </c>
-      <c r="L12" t="s">
-        <v>117</v>
-      </c>
-      <c r="M12" t="s">
-        <v>118</v>
-      </c>
-      <c r="N12" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" t="s">
-        <v>120</v>
-      </c>
-      <c r="P12" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>121</v>
-      </c>
-      <c r="R12" t="s">
-        <v>122</v>
-      </c>
-      <c r="S12" t="s">
-        <v>123</v>
-      </c>
-      <c r="T12" t="s">
-        <v>124</v>
-      </c>
-      <c r="U12" t="s">
-        <v>120</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>125</v>
       </c>
-      <c r="W12" t="s">
-        <v>85</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>126</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>127</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>128</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
         <v>130</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
         <v>131</v>
       </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>132</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
         <v>133</v>
       </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>134</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>135</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>136</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="s">
         <v>137</v>
       </c>
-      <c r="K13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>130</v>
+      </c>
+      <c r="P13" t="s">
         <v>138</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>133</v>
       </c>
-      <c r="O13" t="s">
-        <v>131</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>139</v>
       </c>
-      <c r="Q13" t="s">
-        <v>134</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>140</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
+        <v>98</v>
+      </c>
+      <c r="U13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V13" t="s">
+        <v>136</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y13" t="s">
         <v>141</v>
       </c>
-      <c r="T13" t="s">
-        <v>99</v>
-      </c>
-      <c r="U13" t="s">
-        <v>140</v>
-      </c>
-      <c r="V13" t="s">
-        <v>137</v>
-      </c>
-      <c r="W13" t="s">
-        <v>140</v>
-      </c>
-      <c r="X13" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>142</v>
-      </c>
       <c r="Z13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
         <v>143</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>125</v>
+      </c>
+      <c r="R14" t="s">
+        <v>131</v>
+      </c>
+      <c r="S14" t="s">
+        <v>148</v>
+      </c>
+      <c r="T14" t="s">
+        <v>123</v>
+      </c>
+      <c r="U14" t="s">
+        <v>147</v>
+      </c>
+      <c r="V14" t="s">
+        <v>136</v>
+      </c>
+      <c r="W14" t="s">
         <v>132</v>
       </c>
-      <c r="C14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" t="s">
-        <v>145</v>
-      </c>
-      <c r="I14" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" t="s">
-        <v>117</v>
-      </c>
-      <c r="M14" t="s">
-        <v>90</v>
-      </c>
-      <c r="N14" t="s">
-        <v>144</v>
-      </c>
-      <c r="O14" t="s">
-        <v>148</v>
-      </c>
-      <c r="P14" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>126</v>
-      </c>
-      <c r="R14" t="s">
-        <v>132</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="X14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y14" t="s">
         <v>149</v>
       </c>
-      <c r="T14" t="s">
-        <v>124</v>
-      </c>
-      <c r="U14" t="s">
-        <v>148</v>
-      </c>
-      <c r="V14" t="s">
-        <v>137</v>
-      </c>
-      <c r="W14" t="s">
-        <v>133</v>
-      </c>
-      <c r="X14" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>150</v>
-      </c>
       <c r="Z14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15">
         <v>16942</v>
@@ -3908,10 +3904,10 @@
         <v>50960</v>
       </c>
       <c r="S15" t="s">
+        <v>151</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="U15">
         <v>16754</v>
@@ -3919,7 +3915,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16">
         <v>23515</v>
@@ -3973,10 +3969,10 @@
         <v>78679</v>
       </c>
       <c r="S16" t="s">
+        <v>154</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="U16">
         <v>22562</v>
@@ -3984,7 +3980,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17">
         <v>31800</v>
@@ -4038,10 +4034,10 @@
         <v>122146</v>
       </c>
       <c r="S17" t="s">
+        <v>157</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="U17">
         <v>29932</v>
@@ -4049,111 +4045,111 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="L18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="S18" t="s">
+        <v>169</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" t="s">
         <v>171</v>
-      </c>
-      <c r="U18" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="H19" s="7">
         <v>2700</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="K19" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" t="s">
+        <v>174</v>
+      </c>
+      <c r="N19" t="s">
         <v>182</v>
       </c>
-      <c r="M19" t="s">
-        <v>175</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>183</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>184</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>185</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>186</v>
       </c>
-      <c r="R19" t="s">
-        <v>187</v>
-      </c>
       <c r="S19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="U19" s="1">
         <v>1400</v>
@@ -4161,64 +4157,64 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>4900</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" t="s">
         <v>194</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>195</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>196</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q20" t="s">
         <v>197</v>
       </c>
-      <c r="P20" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>198</v>
-      </c>
       <c r="R20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="U20" s="1">
         <v>1900</v>
@@ -4226,64 +4222,64 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="H21" s="7">
         <v>8150</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" t="s">
         <v>206</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" t="s">
         <v>207</v>
       </c>
-      <c r="N21" t="s">
-        <v>179</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>208</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>209</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>210</v>
       </c>
-      <c r="R21" t="s">
-        <v>211</v>
-      </c>
       <c r="S21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="U21" s="1">
         <v>2500</v>
@@ -4291,7 +4287,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22">
         <v>0.25</v>
@@ -4356,7 +4352,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23">
         <v>0.25</v>
@@ -4421,7 +4417,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24">
         <v>0.25</v>
@@ -4486,7 +4482,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25">
         <v>0.25</v>
@@ -4551,311 +4547,311 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" t="s">
         <v>216</v>
       </c>
-      <c r="B26" t="s">
-        <v>217</v>
-      </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M27" t="s">
+        <v>143</v>
+      </c>
+      <c r="N27" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="O27" t="s">
+        <v>224</v>
+      </c>
+      <c r="P27" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="Q27" t="s">
         <v>223</v>
       </c>
-      <c r="K27" t="s">
-        <v>224</v>
-      </c>
-      <c r="L27" t="s">
-        <v>132</v>
-      </c>
-      <c r="M27" t="s">
-        <v>144</v>
-      </c>
-      <c r="N27" t="s">
-        <v>110</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="R27" t="s">
+        <v>131</v>
+      </c>
+      <c r="S27" t="s">
         <v>225</v>
       </c>
-      <c r="P27" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>224</v>
-      </c>
-      <c r="R27" t="s">
-        <v>132</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="T27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U27" t="s">
         <v>226</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="U27" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" t="s">
+        <v>230</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" t="s">
+        <v>232</v>
+      </c>
+      <c r="L28" t="s">
+        <v>116</v>
+      </c>
+      <c r="M28" t="s">
+        <v>132</v>
+      </c>
+      <c r="N28" t="s">
+        <v>131</v>
+      </c>
+      <c r="O28" t="s">
+        <v>233</v>
+      </c>
+      <c r="P28" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>234</v>
+      </c>
+      <c r="R28" t="s">
+        <v>116</v>
+      </c>
+      <c r="S28" t="s">
+        <v>157</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="U28" t="s">
         <v>230</v>
-      </c>
-      <c r="H28" t="s">
-        <v>231</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="K28" t="s">
-        <v>233</v>
-      </c>
-      <c r="L28" t="s">
-        <v>117</v>
-      </c>
-      <c r="M28" t="s">
-        <v>133</v>
-      </c>
-      <c r="N28" t="s">
-        <v>132</v>
-      </c>
-      <c r="O28" t="s">
-        <v>234</v>
-      </c>
-      <c r="P28" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>235</v>
-      </c>
-      <c r="R28" t="s">
-        <v>117</v>
-      </c>
-      <c r="S28" t="s">
-        <v>158</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U28" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" t="s">
         <v>236</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F29" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" t="s">
         <v>238</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J29" s="9" t="s">
+      <c r="K29" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" t="s">
+        <v>136</v>
+      </c>
+      <c r="M29" t="s">
+        <v>137</v>
+      </c>
+      <c r="N29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" t="s">
         <v>240</v>
       </c>
-      <c r="K29" t="s">
-        <v>140</v>
-      </c>
-      <c r="L29" t="s">
-        <v>137</v>
-      </c>
-      <c r="M29" t="s">
-        <v>138</v>
-      </c>
-      <c r="N29" t="s">
-        <v>90</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>131</v>
+      </c>
+      <c r="R29" t="s">
+        <v>130</v>
+      </c>
+      <c r="S29" t="s">
+        <v>238</v>
+      </c>
+      <c r="T29" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="P29" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="U29" t="s">
         <v>132</v>
-      </c>
-      <c r="R29" t="s">
-        <v>131</v>
-      </c>
-      <c r="S29" t="s">
-        <v>239</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="U29" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" t="s">
         <v>243</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" t="s">
         <v>247</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="S30" t="s">
         <v>251</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>252</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>253</v>
-      </c>
-      <c r="U30" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T31">
         <v>200</v>
@@ -4863,663 +4859,663 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" t="s">
         <v>256</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" t="s">
+        <v>256</v>
+      </c>
+      <c r="I32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" t="s">
+        <v>256</v>
+      </c>
+      <c r="K32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" t="s">
+        <v>256</v>
+      </c>
+      <c r="N32" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" t="s">
+        <v>256</v>
+      </c>
+      <c r="P32" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>256</v>
+      </c>
+      <c r="R32" t="s">
+        <v>256</v>
+      </c>
+      <c r="S32" t="s">
+        <v>256</v>
+      </c>
+      <c r="T32" t="s">
         <v>257</v>
       </c>
-      <c r="C32" t="s">
-        <v>257</v>
-      </c>
-      <c r="D32" t="s">
-        <v>257</v>
-      </c>
-      <c r="E32" t="s">
-        <v>257</v>
-      </c>
-      <c r="F32" t="s">
-        <v>257</v>
-      </c>
-      <c r="G32" t="s">
-        <v>181</v>
-      </c>
-      <c r="H32" t="s">
-        <v>257</v>
-      </c>
-      <c r="I32" t="s">
-        <v>257</v>
-      </c>
-      <c r="J32" t="s">
-        <v>257</v>
-      </c>
-      <c r="K32" t="s">
-        <v>257</v>
-      </c>
-      <c r="L32" t="s">
-        <v>257</v>
-      </c>
-      <c r="M32" t="s">
-        <v>257</v>
-      </c>
-      <c r="N32" t="s">
-        <v>257</v>
-      </c>
-      <c r="O32" t="s">
-        <v>257</v>
-      </c>
-      <c r="P32" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>257</v>
-      </c>
-      <c r="R32" t="s">
-        <v>257</v>
-      </c>
-      <c r="S32" t="s">
-        <v>257</v>
-      </c>
-      <c r="T32" t="s">
-        <v>258</v>
-      </c>
       <c r="U32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="B36" t="s">
-        <v>242</v>
-      </c>
-      <c r="C36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" t="s">
-        <v>242</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" t="s">
+        <v>241</v>
+      </c>
+      <c r="J36" t="s">
+        <v>241</v>
+      </c>
+      <c r="K36" t="s">
+        <v>241</v>
+      </c>
+      <c r="L36" t="s">
+        <v>241</v>
+      </c>
+      <c r="M36" t="s">
+        <v>148</v>
+      </c>
+      <c r="N36" t="s">
+        <v>130</v>
+      </c>
+      <c r="O36" t="s">
+        <v>241</v>
+      </c>
+      <c r="P36" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>241</v>
+      </c>
+      <c r="R36" t="s">
+        <v>241</v>
+      </c>
+      <c r="S36" t="s">
+        <v>241</v>
+      </c>
+      <c r="T36" t="s">
+        <v>136</v>
+      </c>
+      <c r="U36" t="s">
         <v>263</v>
-      </c>
-      <c r="G36" t="s">
-        <v>242</v>
-      </c>
-      <c r="H36" t="s">
-        <v>242</v>
-      </c>
-      <c r="I36" t="s">
-        <v>242</v>
-      </c>
-      <c r="J36" t="s">
-        <v>242</v>
-      </c>
-      <c r="K36" t="s">
-        <v>242</v>
-      </c>
-      <c r="L36" t="s">
-        <v>242</v>
-      </c>
-      <c r="M36" t="s">
-        <v>149</v>
-      </c>
-      <c r="N36" t="s">
-        <v>131</v>
-      </c>
-      <c r="O36" t="s">
-        <v>242</v>
-      </c>
-      <c r="P36" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>242</v>
-      </c>
-      <c r="R36" t="s">
-        <v>242</v>
-      </c>
-      <c r="S36" t="s">
-        <v>242</v>
-      </c>
-      <c r="T36" t="s">
-        <v>137</v>
-      </c>
-      <c r="U36" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="S37" t="s">
         <v>265</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>266</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>267</v>
-      </c>
-      <c r="U37" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="S38" t="s">
         <v>269</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>270</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>271</v>
-      </c>
-      <c r="U38" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="S39" t="s">
         <v>273</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="U39" t="s">
         <v>275</v>
-      </c>
-      <c r="U39" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="S40" t="s">
         <v>277</v>
-      </c>
-      <c r="S40" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="S41" t="s">
         <v>279</v>
-      </c>
-      <c r="S41" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="S42" t="s">
         <v>281</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>282</v>
-      </c>
-      <c r="T42" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="R43" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="R43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" t="s">
+        <v>303</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E44" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44" t="s">
+        <v>303</v>
+      </c>
+      <c r="G44" t="s">
+        <v>303</v>
+      </c>
+      <c r="H44" t="s">
+        <v>303</v>
+      </c>
+      <c r="I44" t="s">
+        <v>303</v>
+      </c>
+      <c r="J44" t="s">
+        <v>303</v>
+      </c>
+      <c r="K44" t="s">
         <v>304</v>
       </c>
-      <c r="C44" t="s">
+      <c r="L44" t="s">
         <v>304</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="M44" t="s">
         <v>304</v>
       </c>
-      <c r="E44" t="s">
+      <c r="N44" t="s">
+        <v>303</v>
+      </c>
+      <c r="O44" t="s">
+        <v>303</v>
+      </c>
+      <c r="P44" t="s">
         <v>304</v>
       </c>
-      <c r="F44" t="s">
+      <c r="Q44" t="s">
         <v>304</v>
       </c>
-      <c r="G44" t="s">
+      <c r="R44" t="s">
         <v>304</v>
       </c>
-      <c r="H44" t="s">
-        <v>304</v>
-      </c>
-      <c r="I44" t="s">
-        <v>304</v>
-      </c>
-      <c r="J44" t="s">
-        <v>304</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="S44" t="s">
         <v>305</v>
       </c>
-      <c r="L44" t="s">
-        <v>305</v>
-      </c>
-      <c r="M44" t="s">
-        <v>305</v>
-      </c>
-      <c r="N44" t="s">
-        <v>304</v>
-      </c>
-      <c r="O44" t="s">
-        <v>304</v>
-      </c>
-      <c r="P44" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>305</v>
-      </c>
-      <c r="R44" t="s">
-        <v>305</v>
-      </c>
-      <c r="S44" t="s">
-        <v>306</v>
-      </c>
       <c r="T44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="U45" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="P46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="T46" s="1" t="s">
+      <c r="U46" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5553,10 +5549,10 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5567,79 +5563,79 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="Q49" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="R49" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B50" s="2">
         <v>100</v>
@@ -5666,7 +5662,7 @@
         <v>10000</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K50" s="2">
         <v>1000</v>
@@ -5681,7 +5677,7 @@
         <v>1000</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P50" s="12">
         <v>1000</v>
@@ -5708,7 +5704,7 @@
         <v>1000</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y50" s="2">
         <v>10000</v>
@@ -5722,7 +5718,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B51" s="13">
         <f>$S$51*B9</f>
@@ -5829,7 +5825,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B52">
         <v>61</v>
@@ -5912,7 +5908,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B53" s="13">
         <f t="shared" ref="B53:F53" si="2">B52*B9</f>
@@ -5980,7 +5976,7 @@
         <v>182.24</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T53" s="13">
         <f>T52*T9</f>
@@ -6017,121 +6013,121 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I54" t="s">
         <v>369</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I54" t="s">
-        <v>370</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B55" t="s">
         <v>372</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>372</v>
+      </c>
+      <c r="D55" t="s">
+        <v>372</v>
+      </c>
+      <c r="E55" t="s">
+        <v>372</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C55" t="s">
-        <v>373</v>
-      </c>
-      <c r="D55" t="s">
-        <v>373</v>
-      </c>
-      <c r="E55" t="s">
-        <v>373</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" t="s">
         <v>375</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>376</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="L55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Y55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AA55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -6196,7 +6192,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B57">
         <v>887</v>
@@ -6279,7 +6275,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B58" s="15">
         <f t="shared" ref="B58:AA58" si="5">B57/B62</f>
@@ -6388,7 +6384,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B59">
         <v>45</v>
@@ -6472,7 +6468,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B60" s="5">
         <v>796.529</v>
@@ -6555,7 +6551,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B61" s="5">
         <v>68527599.400000006</v>
@@ -6638,7 +6634,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B62" s="5">
         <v>84</v>
@@ -6721,7 +6717,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B63" s="18">
         <f t="shared" ref="B63:P63" si="6">2.5*B59/1000</f>
@@ -6830,7 +6826,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B64" s="16">
         <f t="shared" ref="B64:K64" si="8">B63*B9</f>
@@ -6939,7 +6935,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B65" s="5">
         <f t="shared" ref="B65:R65" si="11">0.8*0.8*B60*B59*1000000*B9/B61</f>
@@ -7048,420 +7044,422 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="C66" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="K66" s="16" t="s">
         <v>391</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="K66" s="16" t="s">
-        <v>392</v>
       </c>
       <c r="S66" s="16">
         <v>100</v>
       </c>
       <c r="T66" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U66" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="M67" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="M67" s="16" t="s">
+      <c r="N67" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="O67" t="s">
+        <v>128</v>
+      </c>
+      <c r="P67" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>189</v>
+      </c>
+      <c r="R67" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="N67" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="O67" t="s">
-        <v>129</v>
-      </c>
-      <c r="P67" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>190</v>
-      </c>
-      <c r="R67" s="16" t="s">
+      <c r="S67" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="T67" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="S67" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="T67" s="16" t="s">
+      <c r="U67" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="V67" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="U67" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="V67" s="16" t="s">
-        <v>397</v>
-      </c>
       <c r="W67" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X67" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y67" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z67" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AA67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="C68" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="O68" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="P68" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R68" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="S68" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="U68" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="V68" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="W68" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="X68" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y68" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z68" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="E68" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M68" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="N68" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="O68" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="R68" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="S68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="T68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="U68" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="V68" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="W68" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="X68" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y68" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z68" s="16" t="s">
-        <v>400</v>
-      </c>
       <c r="AA68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="C69" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D69" s="16" t="s">
+      <c r="E69" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="G69" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="E69" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="G69" s="16" t="s">
+      <c r="H69" s="16" t="s">
         <v>405</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>406</v>
       </c>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
       <c r="K69" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="M69" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="N69" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="O69" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="M69" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="N69" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="O69" s="16" t="s">
-        <v>408</v>
-      </c>
       <c r="P69" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="S69" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="S69" s="16" t="s">
-        <v>410</v>
-      </c>
       <c r="T69" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U69" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="C70" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="E70" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="H70" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="E70" s="16" t="s">
+      <c r="I70" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="M70" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="N70" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="O70" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P70" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q70" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="F70" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="K70" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="L70" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="M70" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="N70" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="O70" s="16" t="s">
+      <c r="R70" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="S70" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="P70" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q70" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="R70" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="S70" s="16" t="s">
-        <v>419</v>
-      </c>
       <c r="T70" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U70" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B71" t="s">
         <v>420</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>421</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>422</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>423</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>424</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="G71" t="s">
         <v>425</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="I71" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="I71" s="16" t="s">
+      <c r="J71" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="K71" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="L71" t="s">
+        <v>800</v>
+      </c>
+      <c r="M71" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="N71" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="L71" t="s">
+      <c r="O71" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="M71" s="16" t="s">
+      <c r="P71" t="s">
         <v>432</v>
       </c>
-      <c r="N71" s="16" t="s">
+      <c r="Q71" t="s">
         <v>433</v>
       </c>
-      <c r="O71" s="16" t="s">
+      <c r="S71" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="P71" t="s">
+      <c r="T71" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="U71" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="S71" s="16" t="s">
+      <c r="W71" t="s">
         <v>437</v>
       </c>
-      <c r="T71" s="20" t="s">
+      <c r="X71" t="s">
         <v>438</v>
       </c>
-      <c r="U71" s="16" t="s">
+      <c r="Y71" t="s">
         <v>439</v>
       </c>
-      <c r="W71" t="s">
-        <v>440</v>
-      </c>
-      <c r="X71" t="s">
-        <v>441</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>442</v>
-      </c>
       <c r="Z71" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B72" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
+      <c r="K72" s="16" t="s">
+        <v>799</v>
+      </c>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
@@ -7471,7 +7469,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B73">
         <v>0.37862000000000001</v>
@@ -7525,7 +7523,7 @@
         <v>0.79</v>
       </c>
       <c r="S73" s="16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="T73">
         <v>0.15443999999999999</v>
@@ -7545,7 +7543,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B74">
         <v>1.5</v>
@@ -7628,7 +7626,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B75">
         <v>1.804</v>
@@ -7681,7 +7679,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B76">
         <v>0.36799999999999999</v>
@@ -7734,7 +7732,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B77">
         <v>6.6000000000000003E-2</v>
@@ -7763,7 +7761,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B78">
         <v>0.90300000000000002</v>
@@ -7792,7 +7790,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D79">
         <f>240.49/D9</f>
@@ -7809,1145 +7807,1145 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B80" t="s">
+        <v>449</v>
+      </c>
+      <c r="C80" t="s">
+        <v>449</v>
+      </c>
+      <c r="D80" t="s">
+        <v>449</v>
+      </c>
+      <c r="E80" t="s">
+        <v>449</v>
+      </c>
+      <c r="F80" t="s">
+        <v>450</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B80" t="s">
+      <c r="H80" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C80" t="s">
-        <v>452</v>
-      </c>
-      <c r="D80" t="s">
-        <v>452</v>
-      </c>
-      <c r="E80" t="s">
-        <v>452</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="J80" t="s">
         <v>453</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="I80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="J80" t="s">
+      <c r="M80" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="N80" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="P80" t="s">
         <v>458</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="Q80" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="R80" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="O80" s="2" t="s">
+      <c r="S80" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="P80" t="s">
+      <c r="T80" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="R80" s="2" t="s">
+      <c r="U80" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B81" t="s">
+        <v>464</v>
+      </c>
+      <c r="C81" t="s">
+        <v>465</v>
+      </c>
+      <c r="D81" t="s">
         <v>466</v>
       </c>
-      <c r="B81" t="s">
+      <c r="E81" t="s">
         <v>467</v>
       </c>
-      <c r="C81" t="s">
+      <c r="F81" t="s">
+        <v>464</v>
+      </c>
+      <c r="G81" t="s">
         <v>468</v>
       </c>
-      <c r="D81" t="s">
+      <c r="H81" t="s">
         <v>469</v>
       </c>
-      <c r="E81" t="s">
+      <c r="I81" t="s">
         <v>470</v>
       </c>
-      <c r="F81" t="s">
+      <c r="J81" t="s">
+        <v>471</v>
+      </c>
+      <c r="K81" t="s">
+        <v>472</v>
+      </c>
+      <c r="L81" t="s">
+        <v>473</v>
+      </c>
+      <c r="M81" t="s">
+        <v>465</v>
+      </c>
+      <c r="N81" t="s">
+        <v>464</v>
+      </c>
+      <c r="O81" t="s">
+        <v>474</v>
+      </c>
+      <c r="P81" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>473</v>
+      </c>
+      <c r="R81" t="s">
         <v>467</v>
       </c>
-      <c r="G81" t="s">
-        <v>471</v>
-      </c>
-      <c r="H81" t="s">
-        <v>472</v>
-      </c>
-      <c r="I81" t="s">
-        <v>473</v>
-      </c>
-      <c r="J81" t="s">
-        <v>474</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="S81" t="s">
+        <v>778</v>
+      </c>
+      <c r="T81" t="s">
         <v>475</v>
       </c>
-      <c r="L81" t="s">
+      <c r="U81" t="s">
         <v>476</v>
-      </c>
-      <c r="M81" t="s">
-        <v>468</v>
-      </c>
-      <c r="N81" t="s">
-        <v>467</v>
-      </c>
-      <c r="O81" t="s">
-        <v>477</v>
-      </c>
-      <c r="P81" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>476</v>
-      </c>
-      <c r="R81" t="s">
-        <v>470</v>
-      </c>
-      <c r="S81" t="s">
-        <v>783</v>
-      </c>
-      <c r="T81" t="s">
-        <v>478</v>
-      </c>
-      <c r="U81" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="S82" t="s">
+        <v>478</v>
+      </c>
+      <c r="T82" t="s">
+        <v>479</v>
+      </c>
+      <c r="U82" t="s">
         <v>480</v>
-      </c>
-      <c r="S82" t="s">
-        <v>481</v>
-      </c>
-      <c r="T82" t="s">
-        <v>482</v>
-      </c>
-      <c r="U82" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="S83" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B84" t="s">
+        <v>484</v>
+      </c>
+      <c r="C84" t="s">
+        <v>484</v>
+      </c>
+      <c r="D84" t="s">
+        <v>484</v>
+      </c>
+      <c r="E84" t="s">
+        <v>484</v>
+      </c>
+      <c r="F84" t="s">
+        <v>484</v>
+      </c>
+      <c r="G84" t="s">
+        <v>485</v>
+      </c>
+      <c r="H84" t="s">
         <v>486</v>
       </c>
-      <c r="B84" t="s">
+      <c r="I84" t="s">
         <v>487</v>
       </c>
-      <c r="C84" t="s">
-        <v>487</v>
-      </c>
-      <c r="D84" t="s">
-        <v>487</v>
-      </c>
-      <c r="E84" t="s">
-        <v>487</v>
-      </c>
-      <c r="F84" t="s">
-        <v>487</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="J84" t="s">
         <v>488</v>
       </c>
-      <c r="H84" t="s">
+      <c r="S84" t="s">
         <v>489</v>
       </c>
-      <c r="I84" t="s">
-        <v>490</v>
-      </c>
-      <c r="J84" t="s">
-        <v>491</v>
-      </c>
-      <c r="S84" t="s">
-        <v>492</v>
-      </c>
       <c r="T84" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="U84" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="S85" t="s">
+        <v>492</v>
+      </c>
+      <c r="T85" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="U85" t="s">
         <v>494</v>
-      </c>
-      <c r="S85" t="s">
-        <v>495</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="U85" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F86" t="s">
+        <v>496</v>
+      </c>
+      <c r="I86" t="s">
+        <v>497</v>
+      </c>
+      <c r="S86" t="s">
         <v>498</v>
       </c>
-      <c r="F86" t="s">
+      <c r="T86" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="I86" t="s">
-        <v>500</v>
-      </c>
-      <c r="S86" t="s">
-        <v>501</v>
-      </c>
-      <c r="T86" s="2" t="s">
-        <v>502</v>
-      </c>
       <c r="U86" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="S87" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="S88" s="21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="S89" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C90" t="s">
+        <v>507</v>
+      </c>
+      <c r="D90" t="s">
+        <v>508</v>
+      </c>
+      <c r="E90" t="s">
         <v>509</v>
       </c>
-      <c r="C90" t="s">
+      <c r="F90" t="s">
         <v>510</v>
       </c>
-      <c r="D90" t="s">
+      <c r="G90" t="s">
         <v>511</v>
       </c>
-      <c r="E90" t="s">
+      <c r="H90" t="s">
         <v>512</v>
       </c>
-      <c r="F90" t="s">
+      <c r="I90" t="s">
         <v>513</v>
       </c>
-      <c r="G90" t="s">
+      <c r="J90" t="s">
         <v>514</v>
       </c>
-      <c r="H90" t="s">
+      <c r="K90" t="s">
         <v>515</v>
       </c>
-      <c r="I90" t="s">
+      <c r="L90" t="s">
         <v>516</v>
       </c>
-      <c r="J90" t="s">
+      <c r="M90" t="s">
         <v>517</v>
       </c>
-      <c r="K90" t="s">
+      <c r="N90" t="s">
         <v>518</v>
       </c>
-      <c r="L90" t="s">
+      <c r="O90" t="s">
         <v>519</v>
       </c>
-      <c r="M90" t="s">
+      <c r="P90" t="s">
         <v>520</v>
       </c>
-      <c r="N90" t="s">
+      <c r="Q90" t="s">
         <v>521</v>
       </c>
-      <c r="O90" t="s">
+      <c r="R90" t="s">
         <v>522</v>
       </c>
-      <c r="P90" t="s">
+      <c r="S90" t="s">
         <v>523</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="T90" t="s">
         <v>524</v>
       </c>
-      <c r="R90" t="s">
+      <c r="U90" t="s">
         <v>525</v>
-      </c>
-      <c r="S90" t="s">
-        <v>526</v>
-      </c>
-      <c r="T90" t="s">
-        <v>527</v>
-      </c>
-      <c r="U90" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C91" t="s">
+        <v>527</v>
+      </c>
+      <c r="D91" t="s">
+        <v>528</v>
+      </c>
+      <c r="E91" t="s">
         <v>529</v>
       </c>
-      <c r="C91" t="s">
+      <c r="F91" t="s">
         <v>530</v>
       </c>
-      <c r="D91" t="s">
+      <c r="G91" t="s">
         <v>531</v>
       </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
         <v>532</v>
       </c>
-      <c r="F91" t="s">
+      <c r="I91" t="s">
         <v>533</v>
       </c>
-      <c r="G91" t="s">
+      <c r="J91" t="s">
         <v>534</v>
       </c>
-      <c r="H91" t="s">
+      <c r="K91" t="s">
         <v>535</v>
       </c>
-      <c r="I91" t="s">
+      <c r="L91" t="s">
         <v>536</v>
       </c>
-      <c r="J91" t="s">
+      <c r="M91" t="s">
         <v>537</v>
       </c>
-      <c r="K91" t="s">
+      <c r="N91" t="s">
         <v>538</v>
       </c>
-      <c r="L91" t="s">
+      <c r="O91" t="s">
         <v>539</v>
       </c>
-      <c r="M91" t="s">
+      <c r="P91" t="s">
         <v>540</v>
       </c>
-      <c r="N91" t="s">
+      <c r="Q91" t="s">
         <v>541</v>
       </c>
-      <c r="O91" t="s">
+      <c r="R91" t="s">
         <v>542</v>
       </c>
-      <c r="P91" t="s">
+      <c r="S91" t="s">
         <v>543</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="T91" t="s">
         <v>544</v>
       </c>
-      <c r="R91" t="s">
+      <c r="U91" t="s">
         <v>545</v>
-      </c>
-      <c r="S91" t="s">
-        <v>546</v>
-      </c>
-      <c r="T91" t="s">
-        <v>547</v>
-      </c>
-      <c r="U91" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C92" t="s">
+        <v>547</v>
+      </c>
+      <c r="D92" t="s">
+        <v>548</v>
+      </c>
+      <c r="E92" t="s">
         <v>549</v>
       </c>
-      <c r="C92" t="s">
+      <c r="F92" t="s">
         <v>550</v>
       </c>
-      <c r="D92" t="s">
+      <c r="G92" t="s">
         <v>551</v>
       </c>
-      <c r="E92" t="s">
+      <c r="H92" t="s">
         <v>552</v>
       </c>
-      <c r="F92" t="s">
+      <c r="I92" t="s">
         <v>553</v>
       </c>
-      <c r="G92" t="s">
+      <c r="J92" t="s">
         <v>554</v>
       </c>
-      <c r="H92" t="s">
+      <c r="K92" t="s">
         <v>555</v>
       </c>
-      <c r="I92" t="s">
+      <c r="L92" t="s">
         <v>556</v>
       </c>
-      <c r="J92" t="s">
+      <c r="M92" t="s">
         <v>557</v>
       </c>
-      <c r="K92" t="s">
+      <c r="N92" t="s">
         <v>558</v>
       </c>
-      <c r="L92" t="s">
+      <c r="O92" t="s">
         <v>559</v>
       </c>
-      <c r="M92" t="s">
+      <c r="P92" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q92" t="s">
         <v>560</v>
       </c>
-      <c r="N92" t="s">
+      <c r="R92" t="s">
         <v>561</v>
       </c>
-      <c r="O92" t="s">
+      <c r="S92" t="s">
         <v>562</v>
       </c>
-      <c r="P92" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q92" t="s">
+      <c r="T92" t="s">
         <v>563</v>
       </c>
-      <c r="R92" t="s">
+      <c r="U92" t="s">
         <v>564</v>
-      </c>
-      <c r="S92" t="s">
-        <v>565</v>
-      </c>
-      <c r="T92" t="s">
-        <v>566</v>
-      </c>
-      <c r="U92" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C93" t="s">
+        <v>566</v>
+      </c>
+      <c r="D93" t="s">
+        <v>567</v>
+      </c>
+      <c r="E93" t="s">
         <v>568</v>
       </c>
-      <c r="C93" t="s">
+      <c r="F93" t="s">
         <v>569</v>
       </c>
-      <c r="D93" t="s">
+      <c r="G93" t="s">
         <v>570</v>
       </c>
-      <c r="E93" t="s">
+      <c r="H93" t="s">
         <v>571</v>
       </c>
-      <c r="F93" t="s">
+      <c r="I93" t="s">
         <v>572</v>
       </c>
-      <c r="G93" t="s">
+      <c r="J93" t="s">
         <v>573</v>
       </c>
-      <c r="H93" t="s">
+      <c r="K93" t="s">
         <v>574</v>
       </c>
-      <c r="I93" t="s">
+      <c r="L93" t="s">
         <v>575</v>
       </c>
-      <c r="J93" t="s">
+      <c r="M93" t="s">
         <v>576</v>
       </c>
-      <c r="K93" t="s">
+      <c r="N93" t="s">
         <v>577</v>
       </c>
-      <c r="L93" t="s">
+      <c r="O93" t="s">
         <v>578</v>
       </c>
-      <c r="M93" t="s">
+      <c r="P93" t="s">
         <v>579</v>
       </c>
-      <c r="N93" t="s">
+      <c r="Q93" t="s">
         <v>580</v>
       </c>
-      <c r="O93" t="s">
+      <c r="R93" t="s">
         <v>581</v>
       </c>
-      <c r="P93" t="s">
+      <c r="S93" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="T93" t="s">
         <v>583</v>
       </c>
-      <c r="R93" t="s">
+      <c r="U93" t="s">
         <v>584</v>
-      </c>
-      <c r="S93" s="22" t="s">
-        <v>585</v>
-      </c>
-      <c r="T93" t="s">
-        <v>586</v>
-      </c>
-      <c r="U93" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C94" t="s">
+        <v>586</v>
+      </c>
+      <c r="D94" t="s">
+        <v>587</v>
+      </c>
+      <c r="E94" t="s">
         <v>588</v>
       </c>
-      <c r="C94" t="s">
+      <c r="F94" t="s">
         <v>589</v>
       </c>
-      <c r="D94" t="s">
+      <c r="G94" t="s">
         <v>590</v>
       </c>
-      <c r="E94" t="s">
+      <c r="H94" t="s">
         <v>591</v>
       </c>
-      <c r="F94" t="s">
+      <c r="I94" t="s">
         <v>592</v>
       </c>
-      <c r="G94" t="s">
+      <c r="J94" t="s">
         <v>593</v>
       </c>
-      <c r="H94" t="s">
+      <c r="K94" t="s">
         <v>594</v>
       </c>
-      <c r="I94" t="s">
+      <c r="L94" t="s">
         <v>595</v>
       </c>
-      <c r="J94" t="s">
+      <c r="M94" t="s">
         <v>596</v>
       </c>
-      <c r="K94" t="s">
+      <c r="N94" t="s">
         <v>597</v>
       </c>
-      <c r="L94" t="s">
+      <c r="P94" t="s">
         <v>598</v>
       </c>
-      <c r="M94" t="s">
+      <c r="Q94" t="s">
         <v>599</v>
       </c>
-      <c r="N94" t="s">
+      <c r="R94" t="s">
         <v>600</v>
       </c>
-      <c r="P94" t="s">
+      <c r="U94" t="s">
         <v>601</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>602</v>
-      </c>
-      <c r="R94" t="s">
-        <v>603</v>
-      </c>
-      <c r="U94" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C95" t="s">
+        <v>603</v>
+      </c>
+      <c r="D95" t="s">
+        <v>604</v>
+      </c>
+      <c r="E95" t="s">
         <v>605</v>
       </c>
-      <c r="C95" t="s">
+      <c r="F95" t="s">
         <v>606</v>
       </c>
-      <c r="D95" t="s">
+      <c r="H95" t="s">
         <v>607</v>
       </c>
-      <c r="E95" t="s">
+      <c r="I95" t="s">
         <v>608</v>
       </c>
-      <c r="F95" t="s">
+      <c r="J95" t="s">
         <v>609</v>
       </c>
-      <c r="H95" t="s">
+      <c r="L95" t="s">
         <v>610</v>
       </c>
-      <c r="I95" t="s">
+      <c r="M95" t="s">
         <v>611</v>
       </c>
-      <c r="J95" t="s">
+      <c r="N95" t="s">
         <v>612</v>
       </c>
-      <c r="L95" t="s">
+      <c r="R95" t="s">
         <v>613</v>
       </c>
-      <c r="M95" t="s">
+      <c r="U95" t="s">
         <v>614</v>
-      </c>
-      <c r="N95" t="s">
-        <v>615</v>
-      </c>
-      <c r="R95" t="s">
-        <v>616</v>
-      </c>
-      <c r="U95" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C96" t="s">
+        <v>616</v>
+      </c>
+      <c r="E96" t="s">
+        <v>617</v>
+      </c>
+      <c r="H96" t="s">
         <v>618</v>
       </c>
-      <c r="C96" t="s">
+      <c r="I96" t="s">
         <v>619</v>
       </c>
-      <c r="E96" t="s">
+      <c r="J96" t="s">
         <v>620</v>
       </c>
-      <c r="H96" t="s">
+      <c r="M96" t="s">
         <v>621</v>
       </c>
-      <c r="I96" t="s">
+      <c r="R96" t="s">
         <v>622</v>
-      </c>
-      <c r="J96" t="s">
-        <v>623</v>
-      </c>
-      <c r="M96" t="s">
-        <v>624</v>
-      </c>
-      <c r="R96" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E97" t="s">
+        <v>624</v>
+      </c>
+      <c r="H97" t="s">
+        <v>625</v>
+      </c>
+      <c r="I97" t="s">
         <v>626</v>
       </c>
-      <c r="E97" t="s">
+      <c r="R97" t="s">
         <v>627</v>
-      </c>
-      <c r="H97" t="s">
-        <v>628</v>
-      </c>
-      <c r="I97" t="s">
-        <v>629</v>
-      </c>
-      <c r="R97" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E98" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I98" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E99" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I99" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="J99" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="S100" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="S101" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="S102" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B103" t="s">
+        <v>640</v>
+      </c>
+      <c r="C103" t="s">
+        <v>640</v>
+      </c>
+      <c r="D103" t="s">
+        <v>640</v>
+      </c>
+      <c r="E103" t="s">
+        <v>640</v>
+      </c>
+      <c r="F103" t="s">
+        <v>640</v>
+      </c>
+      <c r="G103" t="s">
+        <v>640</v>
+      </c>
+      <c r="I103" t="s">
+        <v>640</v>
+      </c>
+      <c r="J103" t="s">
+        <v>640</v>
+      </c>
+      <c r="K103" t="s">
+        <v>640</v>
+      </c>
+      <c r="N103" t="s">
+        <v>641</v>
+      </c>
+      <c r="S103" t="s">
         <v>642</v>
       </c>
-      <c r="B103" t="s">
-        <v>643</v>
-      </c>
-      <c r="C103" t="s">
-        <v>643</v>
-      </c>
-      <c r="D103" t="s">
-        <v>643</v>
-      </c>
-      <c r="E103" t="s">
-        <v>643</v>
-      </c>
-      <c r="F103" t="s">
-        <v>643</v>
-      </c>
-      <c r="G103" t="s">
-        <v>643</v>
-      </c>
-      <c r="I103" t="s">
-        <v>643</v>
-      </c>
-      <c r="J103" t="s">
-        <v>643</v>
-      </c>
-      <c r="K103" t="s">
-        <v>643</v>
-      </c>
-      <c r="N103" t="s">
-        <v>644</v>
-      </c>
-      <c r="S103" t="s">
-        <v>645</v>
-      </c>
       <c r="T103" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="U103" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="J104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="L104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="Q104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="S104" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="T104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="U104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="W104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="I105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="L105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="S105" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="T105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="U105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="W105" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B106" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C106" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D106" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E106" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F106" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="T106" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="U106" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="W106" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B107" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C107" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E107" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F107" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="L107" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="S107" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="T107" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="U107" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="W107" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="D108" t="s">
+        <v>655</v>
+      </c>
+      <c r="H108" t="s">
+        <v>656</v>
+      </c>
+      <c r="K108" t="s">
         <v>657</v>
-      </c>
-      <c r="D108" t="s">
-        <v>658</v>
-      </c>
-      <c r="H108" t="s">
-        <v>659</v>
-      </c>
-      <c r="K108" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="S109" t="s">
+        <v>659</v>
+      </c>
+      <c r="T109" t="s">
+        <v>660</v>
+      </c>
+      <c r="U109" t="s">
         <v>661</v>
-      </c>
-      <c r="S109" t="s">
-        <v>662</v>
-      </c>
-      <c r="T109" t="s">
-        <v>663</v>
-      </c>
-      <c r="U109" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="S110" t="s">
+        <v>663</v>
+      </c>
+      <c r="T110" t="s">
+        <v>664</v>
+      </c>
+      <c r="U110" t="s">
         <v>665</v>
-      </c>
-      <c r="S110" t="s">
-        <v>666</v>
-      </c>
-      <c r="T110" t="s">
-        <v>667</v>
-      </c>
-      <c r="U110" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="S111" t="s">
+        <v>667</v>
+      </c>
+      <c r="T111" t="s">
+        <v>668</v>
+      </c>
+      <c r="U111" t="s">
         <v>669</v>
-      </c>
-      <c r="S111" t="s">
-        <v>670</v>
-      </c>
-      <c r="T111" t="s">
-        <v>671</v>
-      </c>
-      <c r="U111" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="U112" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="S113" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="S114" t="s">
+        <v>675</v>
+      </c>
+      <c r="T114" s="23" t="s">
+        <v>676</v>
+      </c>
+      <c r="U114" t="s">
         <v>677</v>
-      </c>
-      <c r="S114" t="s">
-        <v>678</v>
-      </c>
-      <c r="T114" s="23" t="s">
-        <v>679</v>
-      </c>
-      <c r="U114" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="S115" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="U116" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="D117" t="s">
+        <v>775</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="I117" t="s">
         <v>773</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>782</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="D117" t="s">
-        <v>780</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="I117" t="s">
-        <v>778</v>
-      </c>
       <c r="L117" s="9" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="N117" s="9" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="O117" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="P117" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B118" t="s">
+        <v>683</v>
+      </c>
+      <c r="C118" t="s">
+        <v>684</v>
+      </c>
+      <c r="D118" t="s">
         <v>685</v>
       </c>
-      <c r="B118" t="s">
+      <c r="E118" t="s">
         <v>686</v>
       </c>
-      <c r="C118" t="s">
+      <c r="F118" t="s">
         <v>687</v>
       </c>
-      <c r="D118" t="s">
+      <c r="G118" t="s">
         <v>688</v>
       </c>
-      <c r="E118" t="s">
+      <c r="I118" t="s">
         <v>689</v>
       </c>
-      <c r="F118" t="s">
+      <c r="J118" t="s">
         <v>690</v>
       </c>
-      <c r="G118" t="s">
+      <c r="K118" s="24" t="s">
         <v>691</v>
       </c>
-      <c r="I118" t="s">
+      <c r="L118" t="s">
+        <v>786</v>
+      </c>
+      <c r="M118" t="s">
+        <v>795</v>
+      </c>
+      <c r="O118" t="s">
+        <v>782</v>
+      </c>
+      <c r="P118" t="s">
+        <v>789</v>
+      </c>
+      <c r="S118" t="s">
         <v>692</v>
       </c>
-      <c r="J118" t="s">
+      <c r="T118" t="s">
         <v>693</v>
       </c>
-      <c r="K118" s="24" t="s">
+      <c r="U118" t="s">
         <v>694</v>
-      </c>
-      <c r="L118" t="s">
-        <v>792</v>
-      </c>
-      <c r="M118" t="s">
-        <v>801</v>
-      </c>
-      <c r="O118" t="s">
-        <v>788</v>
-      </c>
-      <c r="P118" t="s">
-        <v>795</v>
-      </c>
-      <c r="S118" t="s">
-        <v>695</v>
-      </c>
-      <c r="T118" t="s">
-        <v>696</v>
-      </c>
-      <c r="U118" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C119" t="s">
+        <v>696</v>
+      </c>
+      <c r="D119" t="s">
+        <v>781</v>
+      </c>
+      <c r="E119" t="s">
+        <v>697</v>
+      </c>
+      <c r="G119" t="s">
         <v>698</v>
       </c>
-      <c r="C119" t="s">
+      <c r="H119" t="s">
         <v>699</v>
       </c>
-      <c r="D119" t="s">
-        <v>787</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="I119" t="s">
         <v>700</v>
       </c>
-      <c r="G119" t="s">
+      <c r="J119" t="s">
         <v>701</v>
       </c>
-      <c r="H119" t="s">
+      <c r="K119" t="s">
         <v>702</v>
       </c>
-      <c r="I119" t="s">
+      <c r="N119" t="s">
         <v>703</v>
       </c>
-      <c r="J119" t="s">
+      <c r="O119" t="s">
         <v>704</v>
       </c>
-      <c r="K119" t="s">
+      <c r="P119" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q119" t="s">
         <v>705</v>
       </c>
-      <c r="N119" t="s">
+      <c r="T119" t="s">
         <v>706</v>
-      </c>
-      <c r="O119" t="s">
-        <v>707</v>
-      </c>
-      <c r="P119" t="s">
-        <v>794</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>708</v>
-      </c>
-      <c r="T119" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="S120" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B121">
         <v>7</v>
@@ -8976,7 +8974,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B122">
         <v>6300</v>
@@ -9008,7 +9006,7 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B123">
         <v>6500</v>
@@ -9070,35 +9068,35 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="S124" t="s">
+        <v>713</v>
+      </c>
+      <c r="T124" t="s">
+        <v>714</v>
+      </c>
+      <c r="U124" t="s">
         <v>715</v>
-      </c>
-      <c r="S124" t="s">
-        <v>716</v>
-      </c>
-      <c r="T124" t="s">
-        <v>717</v>
-      </c>
-      <c r="U124" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="S125" t="s">
+        <v>717</v>
+      </c>
+      <c r="T125" t="s">
+        <v>718</v>
+      </c>
+      <c r="U125" t="s">
         <v>719</v>
-      </c>
-      <c r="S125" t="s">
-        <v>720</v>
-      </c>
-      <c r="T125" t="s">
-        <v>721</v>
-      </c>
-      <c r="U125" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B127" t="s">
         <v>28</v>
@@ -9133,7 +9131,7 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B128" t="s">
         <v>28</v>
@@ -9150,7 +9148,7 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="S129" t="s">
         <v>28</v>
@@ -9164,476 +9162,391 @@
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C130" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D130" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E130" t="s">
-        <v>727</v>
-      </c>
-      <c r="H130" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I130" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J130" t="s">
-        <v>727</v>
-      </c>
-      <c r="K130" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="K131" t="s">
-        <v>786</v>
+        <v>725</v>
+      </c>
+      <c r="H131" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B132" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C132" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E132" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H132" t="s">
-        <v>727</v>
+        <v>797</v>
       </c>
       <c r="I132" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J132" t="s">
-        <v>727</v>
-      </c>
-      <c r="K132" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="H134" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="I134" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J134" t="s">
-        <v>727</v>
-      </c>
-      <c r="K134" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="H135" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="H136" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="I136" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J136" t="s">
-        <v>727</v>
-      </c>
-      <c r="K136" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="H138" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="I138" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J138" t="s">
-        <v>727</v>
-      </c>
-      <c r="K138" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I141" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J141" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="I142" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="H143" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="I143" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J143" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="H146" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B147" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I147" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J147" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="H148" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="I148" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="H149" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="J149" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="H150" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="J150" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C151" t="s">
-        <v>727</v>
-      </c>
-      <c r="H151" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I151" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J151" t="s">
-        <v>727</v>
-      </c>
-      <c r="K151" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B153" t="s">
-        <v>727</v>
-      </c>
-      <c r="H153" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="H155" t="s">
-        <v>727</v>
+        <v>752</v>
       </c>
       <c r="I155" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J155" t="s">
-        <v>727</v>
-      </c>
-      <c r="K155" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="H157" t="s">
-        <v>727</v>
+        <v>754</v>
       </c>
       <c r="I157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J157" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="K157" t="s">
-        <v>758</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="H161" t="s">
-        <v>727</v>
-      </c>
-      <c r="I161" t="s">
-        <v>727</v>
-      </c>
-      <c r="J161" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>763</v>
+        <v>796</v>
       </c>
       <c r="H162" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G163" s="1"/>
-      <c r="H163" s="1" t="s">
-        <v>747</v>
-      </c>
+      <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="I165" s="1"/>
-      <c r="K165" s="1" t="s">
-        <v>727</v>
-      </c>
+      <c r="K165" s="1"/>
       <c r="M165" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B166" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J166" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="C167" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E167" t="s">
-        <v>729</v>
-      </c>
-      <c r="H167" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I167" s="1"/>
       <c r="J167" t="s">
-        <v>729</v>
-      </c>
-      <c r="K167" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F71" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="803">
   <si>
     <t>Country</t>
   </si>
@@ -1304,9 +1304,6 @@
     <t>https://lse.eu.qualtrics.com/jfe/form/SV_02uibrdpLtSCOCW?Q_Language=JA</t>
   </si>
   <si>
-    <t>?Q_Language=ZN</t>
-  </si>
-  <si>
     <t>?Q_Language=HI</t>
   </si>
   <si>
@@ -2427,6 +2424,15 @@
   </si>
   <si>
     <t>https://lse.eu.qualtrics.com/jfe/form/SV_9pr4LdbFZ8DjyB0?Q_Language=ES</t>
+  </si>
+  <si>
+    <t>https://lse.eu.qualtrics.com/jfe/form/SV_575zDiWmASUXFTU?Q_Language=ZN</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_575zDiWmASUXFTU</t>
+  </si>
+  <si>
+    <t>~ test, almost ready</t>
   </si>
 </sst>
 </file>
@@ -2862,8 +2868,8 @@
   <dimension ref="A1:AA167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A142" sqref="A142"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3048,10 +3054,10 @@
         <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>29</v>
@@ -3060,13 +3066,13 @@
         <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
@@ -3120,14 +3126,14 @@
         <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
@@ -3257,7 +3263,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>38</v>
@@ -3266,7 +3272,7 @@
         <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>802</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -4722,7 +4728,7 @@
         <v>233</v>
       </c>
       <c r="P28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q28" t="s">
         <v>234</v>
@@ -5292,7 +5298,7 @@
         <v>295</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>296</v>
@@ -5301,7 +5307,7 @@
         <v>297</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>298</v>
@@ -5491,7 +5497,7 @@
         <v>338</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>339</v>
@@ -5515,7 +5521,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -7395,70 +7401,72 @@
       <c r="G71" t="s">
         <v>425</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="H71" t="s">
+        <v>800</v>
+      </c>
+      <c r="I71" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="I71" s="16" t="s">
+      <c r="J71" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="K71" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="L71" t="s">
+        <v>799</v>
+      </c>
+      <c r="M71" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="K71" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="L71" t="s">
-        <v>800</v>
-      </c>
-      <c r="M71" s="16" t="s">
+      <c r="N71" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="N71" s="16" t="s">
+      <c r="O71" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="O71" s="16" t="s">
+      <c r="P71" t="s">
         <v>431</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>432</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="S71" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="S71" s="16" t="s">
+      <c r="T71" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="T71" s="20" t="s">
+      <c r="U71" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="U71" s="16" t="s">
+      <c r="W71" t="s">
         <v>436</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>437</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>438</v>
       </c>
-      <c r="Y71" t="s">
-        <v>439</v>
-      </c>
       <c r="Z71" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B72" t="s">
         <v>784</v>
       </c>
-      <c r="B72" t="s">
-        <v>785</v>
-      </c>
-      <c r="H72" s="16"/>
+      <c r="H72" s="16" t="s">
+        <v>801</v>
+      </c>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
-      <c r="K72" s="16" t="s">
-        <v>799</v>
+      <c r="K72" t="s">
+        <v>798</v>
       </c>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
@@ -7469,7 +7477,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B73">
         <v>0.37862000000000001</v>
@@ -7523,7 +7531,7 @@
         <v>0.79</v>
       </c>
       <c r="S73" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="T73">
         <v>0.15443999999999999</v>
@@ -7543,7 +7551,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B74">
         <v>1.5</v>
@@ -7626,7 +7634,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B75">
         <v>1.804</v>
@@ -7679,7 +7687,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B76">
         <v>0.36799999999999999</v>
@@ -7732,7 +7740,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B77">
         <v>6.6000000000000003E-2</v>
@@ -7761,7 +7769,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B78">
         <v>0.90300000000000002</v>
@@ -7790,7 +7798,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D79">
         <f>240.49/D9</f>
@@ -7807,1145 +7815,1145 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B80" t="s">
         <v>448</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>448</v>
+      </c>
+      <c r="D80" t="s">
+        <v>448</v>
+      </c>
+      <c r="E80" t="s">
+        <v>448</v>
+      </c>
+      <c r="F80" t="s">
         <v>449</v>
       </c>
-      <c r="C80" t="s">
-        <v>449</v>
-      </c>
-      <c r="D80" t="s">
-        <v>449</v>
-      </c>
-      <c r="E80" t="s">
-        <v>449</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="G80" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="I80" s="2" t="s">
+      <c r="J80" t="s">
         <v>452</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="M80" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="N80" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="O80" s="2" t="s">
+      <c r="P80" t="s">
         <v>457</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="R80" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="R80" s="2" t="s">
+      <c r="S80" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="S80" s="2" t="s">
+      <c r="T80" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="T80" s="2" t="s">
+      <c r="U80" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B81" t="s">
         <v>463</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>464</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>465</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>466</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
+        <v>463</v>
+      </c>
+      <c r="G81" t="s">
         <v>467</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
+        <v>468</v>
+      </c>
+      <c r="I81" t="s">
+        <v>469</v>
+      </c>
+      <c r="J81" t="s">
+        <v>470</v>
+      </c>
+      <c r="K81" t="s">
+        <v>471</v>
+      </c>
+      <c r="L81" t="s">
+        <v>472</v>
+      </c>
+      <c r="M81" t="s">
         <v>464</v>
       </c>
-      <c r="G81" t="s">
-        <v>468</v>
-      </c>
-      <c r="H81" t="s">
-        <v>469</v>
-      </c>
-      <c r="I81" t="s">
-        <v>470</v>
-      </c>
-      <c r="J81" t="s">
-        <v>471</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="N81" t="s">
+        <v>463</v>
+      </c>
+      <c r="O81" t="s">
+        <v>473</v>
+      </c>
+      <c r="P81" t="s">
         <v>472</v>
       </c>
-      <c r="L81" t="s">
-        <v>473</v>
-      </c>
-      <c r="M81" t="s">
-        <v>465</v>
-      </c>
-      <c r="N81" t="s">
-        <v>464</v>
-      </c>
-      <c r="O81" t="s">
+      <c r="Q81" t="s">
+        <v>472</v>
+      </c>
+      <c r="R81" t="s">
+        <v>466</v>
+      </c>
+      <c r="S81" t="s">
+        <v>777</v>
+      </c>
+      <c r="T81" t="s">
         <v>474</v>
       </c>
-      <c r="P81" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>473</v>
-      </c>
-      <c r="R81" t="s">
-        <v>467</v>
-      </c>
-      <c r="S81" t="s">
-        <v>778</v>
-      </c>
-      <c r="T81" t="s">
+      <c r="U81" t="s">
         <v>475</v>
-      </c>
-      <c r="U81" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="S82" t="s">
         <v>477</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>478</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>479</v>
-      </c>
-      <c r="U82" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="S83" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="S83" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B84" t="s">
         <v>483</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>483</v>
+      </c>
+      <c r="D84" t="s">
+        <v>483</v>
+      </c>
+      <c r="E84" t="s">
+        <v>483</v>
+      </c>
+      <c r="F84" t="s">
+        <v>483</v>
+      </c>
+      <c r="G84" t="s">
         <v>484</v>
       </c>
-      <c r="C84" t="s">
-        <v>484</v>
-      </c>
-      <c r="D84" t="s">
-        <v>484</v>
-      </c>
-      <c r="E84" t="s">
-        <v>484</v>
-      </c>
-      <c r="F84" t="s">
-        <v>484</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>485</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>486</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>487</v>
       </c>
-      <c r="J84" t="s">
+      <c r="S84" t="s">
         <v>488</v>
       </c>
-      <c r="S84" t="s">
-        <v>489</v>
-      </c>
       <c r="T84" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="U84" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="S85" t="s">
         <v>491</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="T85" s="2" t="s">
+      <c r="U85" t="s">
         <v>493</v>
-      </c>
-      <c r="U85" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F86" t="s">
         <v>495</v>
       </c>
-      <c r="F86" t="s">
+      <c r="I86" t="s">
         <v>496</v>
       </c>
-      <c r="I86" t="s">
+      <c r="S86" t="s">
         <v>497</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="T86" s="2" t="s">
-        <v>499</v>
-      </c>
       <c r="U86" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="S87" t="s">
         <v>500</v>
-      </c>
-      <c r="S87" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="S88" s="21" t="s">
         <v>502</v>
-      </c>
-      <c r="S88" s="21" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="S89" t="s">
         <v>504</v>
-      </c>
-      <c r="S89" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C90" t="s">
         <v>506</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>507</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>508</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>509</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>510</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>511</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>512</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>513</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>514</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>515</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>516</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>517</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>518</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>519</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>520</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="R90" t="s">
         <v>521</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>522</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>523</v>
       </c>
-      <c r="T90" t="s">
+      <c r="U90" t="s">
         <v>524</v>
-      </c>
-      <c r="U90" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C91" t="s">
         <v>526</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>527</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>528</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>529</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>530</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>531</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>532</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>533</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>534</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>535</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>536</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>537</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>538</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>539</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>540</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="R91" t="s">
         <v>541</v>
       </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>542</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>543</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U91" t="s">
         <v>544</v>
-      </c>
-      <c r="U91" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C92" t="s">
         <v>546</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>547</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>548</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>549</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>550</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>551</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>552</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>553</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>554</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>555</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>556</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>557</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>558</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q92" t="s">
         <v>559</v>
       </c>
-      <c r="P92" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q92" t="s">
+      <c r="R92" t="s">
         <v>560</v>
       </c>
-      <c r="R92" t="s">
+      <c r="S92" t="s">
         <v>561</v>
       </c>
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>562</v>
       </c>
-      <c r="T92" t="s">
+      <c r="U92" t="s">
         <v>563</v>
-      </c>
-      <c r="U92" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C93" t="s">
         <v>565</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>566</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>567</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>568</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>569</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>570</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>571</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>572</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>573</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>574</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>575</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>576</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>577</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>578</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" t="s">
         <v>579</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="R93" t="s">
         <v>580</v>
       </c>
-      <c r="R93" t="s">
+      <c r="S93" s="22" t="s">
         <v>581</v>
       </c>
-      <c r="S93" s="22" t="s">
+      <c r="T93" t="s">
         <v>582</v>
       </c>
-      <c r="T93" t="s">
+      <c r="U93" t="s">
         <v>583</v>
-      </c>
-      <c r="U93" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C94" t="s">
         <v>585</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>586</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>587</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>588</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>589</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>590</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>591</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>592</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>593</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>594</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>595</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>596</v>
       </c>
-      <c r="N94" t="s">
+      <c r="P94" t="s">
         <v>597</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Q94" t="s">
         <v>598</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="R94" t="s">
         <v>599</v>
       </c>
-      <c r="R94" t="s">
+      <c r="U94" t="s">
         <v>600</v>
-      </c>
-      <c r="U94" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C95" t="s">
         <v>602</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>603</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>604</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>605</v>
       </c>
-      <c r="F95" t="s">
+      <c r="H95" t="s">
         <v>606</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>607</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>608</v>
       </c>
-      <c r="J95" t="s">
+      <c r="L95" t="s">
         <v>609</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>610</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>611</v>
       </c>
-      <c r="N95" t="s">
+      <c r="R95" t="s">
         <v>612</v>
       </c>
-      <c r="R95" t="s">
+      <c r="U95" t="s">
         <v>613</v>
-      </c>
-      <c r="U95" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C96" t="s">
         <v>615</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E96" t="s">
         <v>616</v>
       </c>
-      <c r="E96" t="s">
+      <c r="H96" t="s">
         <v>617</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>618</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>619</v>
       </c>
-      <c r="J96" t="s">
+      <c r="M96" t="s">
         <v>620</v>
       </c>
-      <c r="M96" t="s">
+      <c r="R96" t="s">
         <v>621</v>
-      </c>
-      <c r="R96" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E97" t="s">
         <v>623</v>
       </c>
-      <c r="E97" t="s">
+      <c r="H97" t="s">
         <v>624</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>625</v>
       </c>
-      <c r="I97" t="s">
+      <c r="R97" t="s">
         <v>626</v>
-      </c>
-      <c r="R97" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E98" t="s">
         <v>628</v>
       </c>
-      <c r="E98" t="s">
+      <c r="I98" t="s">
         <v>629</v>
-      </c>
-      <c r="I98" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E99" t="s">
         <v>631</v>
       </c>
-      <c r="E99" t="s">
-        <v>632</v>
-      </c>
       <c r="I99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="S100" t="s">
         <v>633</v>
-      </c>
-      <c r="S100" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="S101" t="s">
         <v>635</v>
-      </c>
-      <c r="S101" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="S102" t="s">
         <v>637</v>
-      </c>
-      <c r="S102" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B103" t="s">
         <v>639</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>639</v>
+      </c>
+      <c r="D103" t="s">
+        <v>639</v>
+      </c>
+      <c r="E103" t="s">
+        <v>639</v>
+      </c>
+      <c r="F103" t="s">
+        <v>639</v>
+      </c>
+      <c r="G103" t="s">
+        <v>639</v>
+      </c>
+      <c r="I103" t="s">
+        <v>639</v>
+      </c>
+      <c r="J103" t="s">
+        <v>639</v>
+      </c>
+      <c r="K103" t="s">
+        <v>639</v>
+      </c>
+      <c r="N103" t="s">
         <v>640</v>
       </c>
-      <c r="C103" t="s">
-        <v>640</v>
-      </c>
-      <c r="D103" t="s">
-        <v>640</v>
-      </c>
-      <c r="E103" t="s">
-        <v>640</v>
-      </c>
-      <c r="F103" t="s">
-        <v>640</v>
-      </c>
-      <c r="G103" t="s">
-        <v>640</v>
-      </c>
-      <c r="I103" t="s">
-        <v>640</v>
-      </c>
-      <c r="J103" t="s">
-        <v>640</v>
-      </c>
-      <c r="K103" t="s">
-        <v>640</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="S103" t="s">
         <v>641</v>
       </c>
-      <c r="S103" t="s">
-        <v>642</v>
-      </c>
       <c r="T103" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="U103" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="B104" t="s">
         <v>643</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>643</v>
+      </c>
+      <c r="D104" t="s">
+        <v>643</v>
+      </c>
+      <c r="E104" t="s">
+        <v>643</v>
+      </c>
+      <c r="F104" t="s">
+        <v>643</v>
+      </c>
+      <c r="G104" t="s">
+        <v>643</v>
+      </c>
+      <c r="H104" t="s">
+        <v>643</v>
+      </c>
+      <c r="I104" t="s">
+        <v>643</v>
+      </c>
+      <c r="J104" t="s">
+        <v>643</v>
+      </c>
+      <c r="K104" t="s">
+        <v>643</v>
+      </c>
+      <c r="L104" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>643</v>
+      </c>
+      <c r="S104" t="s">
         <v>644</v>
       </c>
-      <c r="C104" t="s">
-        <v>644</v>
-      </c>
-      <c r="D104" t="s">
-        <v>644</v>
-      </c>
-      <c r="E104" t="s">
-        <v>644</v>
-      </c>
-      <c r="F104" t="s">
-        <v>644</v>
-      </c>
-      <c r="G104" t="s">
-        <v>644</v>
-      </c>
-      <c r="H104" t="s">
-        <v>644</v>
-      </c>
-      <c r="I104" t="s">
-        <v>644</v>
-      </c>
-      <c r="J104" t="s">
-        <v>644</v>
-      </c>
-      <c r="K104" t="s">
-        <v>644</v>
-      </c>
-      <c r="L104" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>644</v>
-      </c>
-      <c r="S104" t="s">
-        <v>645</v>
-      </c>
       <c r="T104" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U104" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="W104" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="B105" t="s">
         <v>646</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>646</v>
+      </c>
+      <c r="D105" t="s">
+        <v>646</v>
+      </c>
+      <c r="E105" t="s">
+        <v>646</v>
+      </c>
+      <c r="F105" t="s">
+        <v>646</v>
+      </c>
+      <c r="G105" t="s">
+        <v>646</v>
+      </c>
+      <c r="H105" t="s">
+        <v>646</v>
+      </c>
+      <c r="I105" t="s">
+        <v>646</v>
+      </c>
+      <c r="J105" t="s">
+        <v>646</v>
+      </c>
+      <c r="K105" t="s">
+        <v>646</v>
+      </c>
+      <c r="L105" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>646</v>
+      </c>
+      <c r="S105" t="s">
         <v>647</v>
       </c>
-      <c r="C105" t="s">
-        <v>647</v>
-      </c>
-      <c r="D105" t="s">
-        <v>647</v>
-      </c>
-      <c r="E105" t="s">
-        <v>647</v>
-      </c>
-      <c r="F105" t="s">
-        <v>647</v>
-      </c>
-      <c r="G105" t="s">
-        <v>647</v>
-      </c>
-      <c r="H105" t="s">
-        <v>647</v>
-      </c>
-      <c r="I105" t="s">
-        <v>647</v>
-      </c>
-      <c r="J105" t="s">
-        <v>647</v>
-      </c>
-      <c r="K105" t="s">
-        <v>647</v>
-      </c>
-      <c r="L105" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>647</v>
-      </c>
-      <c r="S105" t="s">
-        <v>648</v>
-      </c>
       <c r="T105" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U105" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="W105" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="B106" t="s">
         <v>649</v>
       </c>
-      <c r="B106" t="s">
-        <v>650</v>
-      </c>
       <c r="C106" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D106" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E106" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F106" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="T106" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="U106" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="W106" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B107" t="s">
         <v>651</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>651</v>
+      </c>
+      <c r="E107" t="s">
+        <v>651</v>
+      </c>
+      <c r="F107" t="s">
+        <v>651</v>
+      </c>
+      <c r="L107" t="s">
+        <v>651</v>
+      </c>
+      <c r="S107" t="s">
         <v>652</v>
       </c>
-      <c r="C107" t="s">
-        <v>652</v>
-      </c>
-      <c r="E107" t="s">
-        <v>652</v>
-      </c>
-      <c r="F107" t="s">
-        <v>652</v>
-      </c>
-      <c r="L107" t="s">
-        <v>652</v>
-      </c>
-      <c r="S107" t="s">
-        <v>653</v>
-      </c>
       <c r="T107" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="U107" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="W107" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D108" t="s">
         <v>654</v>
       </c>
-      <c r="D108" t="s">
+      <c r="H108" t="s">
         <v>655</v>
       </c>
-      <c r="H108" t="s">
+      <c r="K108" t="s">
         <v>656</v>
-      </c>
-      <c r="K108" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="S109" t="s">
         <v>658</v>
       </c>
-      <c r="S109" t="s">
+      <c r="T109" t="s">
         <v>659</v>
       </c>
-      <c r="T109" t="s">
+      <c r="U109" t="s">
         <v>660</v>
-      </c>
-      <c r="U109" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="S110" t="s">
         <v>662</v>
       </c>
-      <c r="S110" t="s">
+      <c r="T110" t="s">
         <v>663</v>
       </c>
-      <c r="T110" t="s">
+      <c r="U110" t="s">
         <v>664</v>
-      </c>
-      <c r="U110" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="S111" t="s">
         <v>666</v>
       </c>
-      <c r="S111" t="s">
+      <c r="T111" t="s">
         <v>667</v>
       </c>
-      <c r="T111" t="s">
+      <c r="U111" t="s">
         <v>668</v>
-      </c>
-      <c r="U111" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="U112" t="s">
         <v>670</v>
-      </c>
-      <c r="U112" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="S113" t="s">
         <v>672</v>
-      </c>
-      <c r="S113" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="S114" t="s">
         <v>674</v>
       </c>
-      <c r="S114" t="s">
+      <c r="T114" s="23" t="s">
         <v>675</v>
       </c>
-      <c r="T114" s="23" t="s">
+      <c r="U114" t="s">
         <v>676</v>
-      </c>
-      <c r="U114" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="S115" t="s">
         <v>678</v>
-      </c>
-      <c r="S115" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="U116" t="s">
         <v>680</v>
-      </c>
-      <c r="U116" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D117" t="s">
+        <v>774</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="I117" t="s">
+        <v>772</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="O117" t="s">
         <v>768</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="D117" t="s">
-        <v>775</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="I117" t="s">
-        <v>773</v>
-      </c>
-      <c r="L117" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="N117" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="O117" t="s">
+      <c r="P117" t="s">
         <v>769</v>
-      </c>
-      <c r="P117" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B118" t="s">
         <v>682</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>683</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>684</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>685</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>686</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>687</v>
       </c>
-      <c r="G118" t="s">
+      <c r="I118" t="s">
         <v>688</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>689</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" s="24" t="s">
         <v>690</v>
       </c>
-      <c r="K118" s="24" t="s">
+      <c r="L118" t="s">
+        <v>785</v>
+      </c>
+      <c r="M118" t="s">
+        <v>794</v>
+      </c>
+      <c r="O118" t="s">
+        <v>781</v>
+      </c>
+      <c r="P118" t="s">
+        <v>788</v>
+      </c>
+      <c r="S118" t="s">
         <v>691</v>
       </c>
-      <c r="L118" t="s">
-        <v>786</v>
-      </c>
-      <c r="M118" t="s">
-        <v>795</v>
-      </c>
-      <c r="O118" t="s">
-        <v>782</v>
-      </c>
-      <c r="P118" t="s">
-        <v>789</v>
-      </c>
-      <c r="S118" t="s">
+      <c r="T118" t="s">
         <v>692</v>
       </c>
-      <c r="T118" t="s">
+      <c r="U118" t="s">
         <v>693</v>
-      </c>
-      <c r="U118" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="C119" t="s">
         <v>695</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>780</v>
+      </c>
+      <c r="E119" t="s">
         <v>696</v>
       </c>
-      <c r="D119" t="s">
-        <v>781</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="G119" t="s">
         <v>697</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>698</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>699</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>700</v>
       </c>
-      <c r="J119" t="s">
+      <c r="K119" t="s">
         <v>701</v>
       </c>
-      <c r="K119" t="s">
+      <c r="N119" t="s">
         <v>702</v>
       </c>
-      <c r="N119" t="s">
+      <c r="O119" t="s">
         <v>703</v>
       </c>
-      <c r="O119" t="s">
+      <c r="P119" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q119" t="s">
         <v>704</v>
       </c>
-      <c r="P119" t="s">
-        <v>788</v>
-      </c>
-      <c r="Q119" t="s">
+      <c r="T119" t="s">
         <v>705</v>
-      </c>
-      <c r="T119" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="S120" t="s">
         <v>707</v>
-      </c>
-      <c r="S120" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B121">
         <v>7</v>
@@ -8974,7 +8982,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B122">
         <v>6300</v>
@@ -9006,7 +9014,7 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B123">
         <v>6500</v>
@@ -9068,35 +9076,35 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="S124" t="s">
         <v>712</v>
       </c>
-      <c r="S124" t="s">
+      <c r="T124" t="s">
         <v>713</v>
       </c>
-      <c r="T124" t="s">
+      <c r="U124" t="s">
         <v>714</v>
-      </c>
-      <c r="U124" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="S125" t="s">
         <v>716</v>
       </c>
-      <c r="S125" t="s">
+      <c r="T125" t="s">
         <v>717</v>
       </c>
-      <c r="T125" t="s">
+      <c r="U125" t="s">
         <v>718</v>
-      </c>
-      <c r="U125" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B127" t="s">
         <v>28</v>
@@ -9131,7 +9139,7 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B128" t="s">
         <v>28</v>
@@ -9148,7 +9156,7 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="S129" t="s">
         <v>28</v>
@@ -9162,106 +9170,106 @@
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C130" t="s">
         <v>723</v>
       </c>
-      <c r="C130" t="s">
-        <v>724</v>
-      </c>
       <c r="D130" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E130" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I130" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J130" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H131" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B132" t="s">
+        <v>723</v>
+      </c>
+      <c r="C132" t="s">
         <v>727</v>
       </c>
-      <c r="B132" t="s">
-        <v>724</v>
-      </c>
-      <c r="C132" t="s">
-        <v>728</v>
-      </c>
       <c r="E132" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H132" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I132" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J132" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I134" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J134" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I136" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J136" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I138" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J138" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B139" t="s">
         <v>47</v>
@@ -9293,7 +9301,7 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B140" t="s">
         <v>47</v>
@@ -9322,144 +9330,144 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I141" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J141" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I142" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I143" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J143" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B147" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I147" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J147" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I148" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J149" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J150" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C151" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I151" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J151" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B153" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I155" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J155" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
       </c>
       <c r="J157" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K157" t="s">
         <v>47</v>
@@ -9467,82 +9475,82 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H162" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I165" s="1"/>
       <c r="K165" s="1"/>
       <c r="M165" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B166" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J166" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C167" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E167" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I167" s="1"/>
       <c r="J167" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="844">
   <si>
     <t>Country</t>
   </si>
@@ -908,9 +908,6 @@
     <t>2, Istanbul - Ankara, 400km</t>
   </si>
   <si>
-    <t>2, Sidney - Melbourne, 900km</t>
-  </si>
-  <si>
     <t>4, NYC - Toronto, 500 mi</t>
   </si>
   <si>
@@ -1292,9 +1289,6 @@
     <t>https://lse.eu.qualtrics.com/jfe/form/SV_02uibrdpLtSCOCW?Q_Language=JA</t>
   </si>
   <si>
-    <t>?Q_Language=HI</t>
-  </si>
-  <si>
     <t>?Q_Language=ID</t>
   </si>
   <si>
@@ -2240,9 +2234,6 @@
     <t>a,t</t>
   </si>
   <si>
-    <t>14.2 Remove [Country] option</t>
-  </si>
-  <si>
     <t>14.3 Replace "maintaining" by "sustaining"</t>
   </si>
   <si>
@@ -2408,9 +2399,6 @@
     <t>Anton Simlin, 135$</t>
   </si>
   <si>
-    <t>~ Lyna</t>
-  </si>
-  <si>
     <t>~ French</t>
   </si>
   <si>
@@ -2492,18 +2480,6 @@
     <t>EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9FDOxYLGIwdrYh0 / ZU: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_1zij8ULej3rYsXs</t>
   </si>
   <si>
-    <t>~ Adrien</t>
-  </si>
-  <si>
-    <t>~ Gurpreet</t>
-  </si>
-  <si>
-    <t>XXX 2.14, etc. 1,00,000 not 100,000</t>
-  </si>
-  <si>
-    <t>~ Adrien + send link to Ana</t>
-  </si>
-  <si>
     <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_aa8zIThugucSCWi</t>
   </si>
   <si>
@@ -2543,7 +2519,43 @@
     <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_9A1q4vyQCBUqnlk</t>
   </si>
   <si>
-    <t>~ Ilia</t>
+    <t>~ quotas, test</t>
+  </si>
+  <si>
+    <t>add pro-Russia vs. pro-EU question</t>
+  </si>
+  <si>
+    <t>https://lse.eu.qualtrics.com/jfe/form/SV_2shrz7xK2E8I4uy?Q_Language=HI</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_2shrz7xK2E8I4uy</t>
+  </si>
+  <si>
+    <t>2.5, 2.16, 2.14, etc. 1,00,000 not 100,000</t>
+  </si>
+  <si>
+    <t>14.2 Remove [Country] option or add a 5th</t>
+  </si>
+  <si>
+    <t>~ quotas région</t>
+  </si>
+  <si>
+    <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_8AKIwJiwMxyQnyu</t>
+  </si>
+  <si>
+    <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_8wCKMNZsEthV6Xc</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2, Sydney - Melbourne, 900km</t>
+  </si>
+  <si>
+    <t>~ Anton</t>
+  </si>
+  <si>
+    <t>~ test, video FR</t>
   </si>
 </sst>
 </file>
@@ -2976,11 +2988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA169"/>
+  <dimension ref="A1:AA171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O167" sqref="O167:P167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3162,10 +3174,10 @@
         <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>823</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>28</v>
@@ -3177,13 +3189,13 @@
         <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>28</v>
@@ -3237,13 +3249,13 @@
         <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>794</v>
+        <v>28</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>28</v>
@@ -3300,7 +3312,7 @@
         <v>28</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>28</v>
@@ -3379,7 +3391,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>35</v>
@@ -3388,19 +3400,23 @@
         <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>827</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>837</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="M7" s="1"/>
+        <v>831</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>843</v>
+      </c>
       <c r="Q7" s="3" t="s">
-        <v>822</v>
+        <v>36</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -4206,10 +4222,10 @@
       </c>
       <c r="L18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="P18" s="1"/>
       <c r="S18" t="s">
@@ -4328,7 +4344,7 @@
         <v>190</v>
       </c>
       <c r="N20" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="O20" t="s">
         <v>192</v>
@@ -4337,7 +4353,7 @@
         <v>149</v>
       </c>
       <c r="Q20" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="R20" t="s">
         <v>193</v>
@@ -4854,7 +4870,7 @@
         <v>229</v>
       </c>
       <c r="P28" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="Q28" t="s">
         <v>113</v>
@@ -5424,7 +5440,7 @@
         <v>291</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>292</v>
@@ -5433,221 +5449,221 @@
         <v>293</v>
       </c>
       <c r="Q43" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="S43" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="R43" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="S43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" t="s">
+        <v>298</v>
+      </c>
+      <c r="F44" t="s">
+        <v>298</v>
+      </c>
+      <c r="G44" t="s">
+        <v>298</v>
+      </c>
+      <c r="H44" t="s">
+        <v>298</v>
+      </c>
+      <c r="I44" t="s">
+        <v>298</v>
+      </c>
+      <c r="J44" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" t="s">
         <v>299</v>
       </c>
-      <c r="C44" t="s">
+      <c r="L44" t="s">
         <v>299</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="M44" t="s">
         <v>299</v>
       </c>
-      <c r="E44" t="s">
+      <c r="N44" t="s">
+        <v>298</v>
+      </c>
+      <c r="O44" t="s">
+        <v>298</v>
+      </c>
+      <c r="P44" t="s">
         <v>299</v>
       </c>
-      <c r="F44" t="s">
+      <c r="Q44" t="s">
         <v>299</v>
       </c>
-      <c r="G44" t="s">
+      <c r="R44" t="s">
         <v>299</v>
       </c>
-      <c r="H44" t="s">
-        <v>299</v>
-      </c>
-      <c r="I44" t="s">
-        <v>299</v>
-      </c>
-      <c r="J44" t="s">
-        <v>299</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="S44" t="s">
         <v>300</v>
       </c>
-      <c r="L44" t="s">
-        <v>300</v>
-      </c>
-      <c r="M44" t="s">
-        <v>300</v>
-      </c>
-      <c r="N44" t="s">
-        <v>299</v>
-      </c>
-      <c r="O44" t="s">
-        <v>299</v>
-      </c>
-      <c r="P44" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>300</v>
-      </c>
-      <c r="R44" t="s">
-        <v>300</v>
-      </c>
-      <c r="S44" t="s">
-        <v>301</v>
-      </c>
       <c r="T44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="R45" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="R45" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="S45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="U45" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="P46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R46" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="R46" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="S46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="T46" s="1" t="s">
+      <c r="U46" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5681,10 +5697,10 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5695,79 +5711,79 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="Q49" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="R49" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="S49" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B50" s="2">
         <v>100</v>
@@ -5794,7 +5810,7 @@
         <v>10000</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K50" s="2">
         <v>1000</v>
@@ -5836,7 +5852,7 @@
         <v>1000</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y50" s="2">
         <v>10000</v>
@@ -5850,7 +5866,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B51" s="13">
         <f>$S$51*B9</f>
@@ -5876,47 +5892,47 @@
         <v>3300</v>
       </c>
       <c r="H51" s="13">
-        <f>$S$51*H9</f>
+        <f t="shared" ref="H51:R51" si="0">$S$51*H9</f>
         <v>194.70000000000002</v>
       </c>
       <c r="I51" s="13">
-        <f>$S$51*I9</f>
+        <f t="shared" si="0"/>
         <v>2250</v>
       </c>
       <c r="J51" s="13">
-        <f>$S$51*J9</f>
+        <f t="shared" si="0"/>
         <v>436320</v>
       </c>
       <c r="K51" s="13">
-        <f>$S$51*K9</f>
+        <f t="shared" si="0"/>
         <v>435</v>
       </c>
       <c r="L51" s="13">
-        <f>$S$51*L9</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="M51" s="13">
-        <f>$S$51*M9</f>
+        <f t="shared" si="0"/>
         <v>38.1</v>
       </c>
       <c r="N51" s="13">
-        <f>$S$51*N9</f>
+        <f t="shared" si="0"/>
         <v>819</v>
       </c>
       <c r="O51" s="13">
-        <f>$S$51*O9</f>
+        <f t="shared" si="0"/>
         <v>34560</v>
       </c>
       <c r="P51" s="13">
-        <f>$S$51*P9</f>
+        <f t="shared" si="0"/>
         <v>257.39999999999998</v>
       </c>
       <c r="Q51" s="13">
-        <f>$S$51*Q9</f>
+        <f t="shared" si="0"/>
         <v>40.800000000000004</v>
       </c>
       <c r="R51" s="13">
-        <f>$S$51*R9</f>
+        <f t="shared" si="0"/>
         <v>155.39999999999998</v>
       </c>
       <c r="S51" s="1">
@@ -5931,33 +5947,33 @@
         <v>25.5</v>
       </c>
       <c r="V51" s="13">
-        <f t="shared" ref="V51:AA51" si="0">$S$51*V9</f>
+        <f t="shared" ref="V51:AA51" si="1">$S$51*V9</f>
         <v>12330</v>
       </c>
       <c r="W51" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>470.1</v>
       </c>
       <c r="X51" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1260750</v>
       </c>
       <c r="Y51" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2239.1999999999998</v>
       </c>
       <c r="Z51" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112.5</v>
       </c>
       <c r="AA51" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.6</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B52">
         <v>61</v>
@@ -6040,26 +6056,26 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" ref="B53:F53" si="1">B52*B9</f>
+        <f t="shared" ref="B53:F53" si="2">B52*B9</f>
         <v>51.85</v>
       </c>
       <c r="C53" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.699999999999996</v>
       </c>
       <c r="D53" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>163.38</v>
       </c>
       <c r="E53" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.15</v>
       </c>
       <c r="F53" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.07</v>
       </c>
       <c r="G53" s="13">
@@ -6080,23 +6096,23 @@
         <v>725</v>
       </c>
       <c r="L53" s="13">
-        <f t="shared" ref="L53:R53" si="2">L52*L9</f>
+        <f t="shared" ref="L53:R53" si="3">L52*L9</f>
         <v>680</v>
       </c>
       <c r="M53" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133.35</v>
       </c>
       <c r="N53" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>873.6</v>
       </c>
       <c r="O53" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82944</v>
       </c>
       <c r="P53" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>343.2</v>
       </c>
       <c r="Q53" s="13">
@@ -6104,11 +6120,11 @@
         <v>182.24</v>
       </c>
       <c r="R53" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93.24</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T53" s="13">
         <f>T52*T9</f>
@@ -6119,147 +6135,147 @@
         <v>39.1</v>
       </c>
       <c r="V53" s="13">
-        <f t="shared" ref="V53:AA53" si="3">V52*V9</f>
+        <f t="shared" ref="V53:AA53" si="4">V52*V9</f>
         <v>11508</v>
       </c>
       <c r="W53" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>423.09</v>
       </c>
       <c r="X53" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2437450</v>
       </c>
       <c r="Y53" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3582.7200000000003</v>
       </c>
       <c r="Z53" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>645</v>
       </c>
       <c r="AA53" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I54" t="s">
         <v>364</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="I54" t="s">
-        <v>365</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B55" t="s">
         <v>367</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>367</v>
+      </c>
+      <c r="D55" t="s">
+        <v>367</v>
+      </c>
+      <c r="E55" t="s">
+        <v>367</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C55" t="s">
-        <v>368</v>
-      </c>
-      <c r="D55" t="s">
-        <v>368</v>
-      </c>
-      <c r="E55" t="s">
-        <v>368</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" t="s">
         <v>370</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>371</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="L55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T55" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U55" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AA55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -6324,7 +6340,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B57">
         <v>887</v>
@@ -6407,46 +6423,46 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" ref="B58:AA58" si="4">B57/B62</f>
+        <f t="shared" ref="B58:AA58" si="5">B57/B62</f>
         <v>10.55952380952381</v>
       </c>
       <c r="C58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6333333333333337</v>
       </c>
       <c r="D58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.8947368421052637</v>
       </c>
       <c r="E58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2978723404255321</v>
       </c>
       <c r="F58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.1911764705882355</v>
       </c>
       <c r="G58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.110236220472441</v>
       </c>
       <c r="H58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1160528144544823</v>
       </c>
       <c r="I58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6065217391304347</v>
       </c>
       <c r="J58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8467153284671534</v>
       </c>
       <c r="K58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7118644067796609</v>
       </c>
       <c r="L58" s="15">
@@ -6462,11 +6478,11 @@
         <v>7.7727272727272725</v>
       </c>
       <c r="O58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.431372549019608</v>
       </c>
       <c r="P58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3571428571428568</v>
       </c>
       <c r="Q58" s="15">
@@ -6474,49 +6490,49 @@
         <v>14.823529411764707</v>
       </c>
       <c r="R58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.460093896713615</v>
       </c>
       <c r="S58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.268882175226587</v>
       </c>
       <c r="T58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6551724137931032</v>
       </c>
       <c r="U58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8769230769230774</v>
       </c>
       <c r="V58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.733009708737864</v>
       </c>
       <c r="W58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2254901960784315</v>
       </c>
       <c r="X58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8095238095238093</v>
       </c>
       <c r="Y58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.4589041095890405</v>
       </c>
       <c r="Z58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.8</v>
       </c>
       <c r="AA58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2325581395348841</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B59">
         <v>45</v>
@@ -6600,7 +6616,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B60" s="5">
         <v>796.529</v>
@@ -6683,7 +6699,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B61" s="5">
         <v>68527599.400000006</v>
@@ -6766,7 +6782,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B62" s="5">
         <v>84</v>
@@ -6849,30 +6865,30 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B63" s="18">
-        <f t="shared" ref="B63:P63" si="5">2.5*B59/1000</f>
+        <f t="shared" ref="B63:P63" si="6">2.5*B59/1000</f>
         <v>0.1125</v>
       </c>
       <c r="C63" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
       <c r="D63" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
       <c r="E63" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
       <c r="F63" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
       <c r="G63" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
       <c r="H63" s="18">
@@ -6880,15 +6896,15 @@
         <v>0.1125</v>
       </c>
       <c r="I63" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
       <c r="J63" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
       <c r="K63" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
       <c r="L63" s="18">
@@ -6904,11 +6920,11 @@
         <v>0.1125</v>
       </c>
       <c r="O63" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
       <c r="P63" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
       <c r="Q63" s="18">
@@ -6932,56 +6948,56 @@
         <v>0.1125</v>
       </c>
       <c r="V63" s="18">
-        <f t="shared" ref="V63:AA63" si="6">2.5*V59/1000</f>
+        <f t="shared" ref="V63:AA63" si="7">2.5*V59/1000</f>
         <v>0.1125</v>
       </c>
       <c r="W63" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1125</v>
       </c>
       <c r="X63" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1125</v>
       </c>
       <c r="Y63" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1125</v>
       </c>
       <c r="Z63" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1125</v>
       </c>
       <c r="AA63" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1125</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B64" s="16">
-        <f t="shared" ref="B64:K64" si="7">B63*B9</f>
+        <f t="shared" ref="B64:K64" si="8">B63*B9</f>
         <v>9.5625000000000002E-2</v>
       </c>
       <c r="C64" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.5625000000000002E-2</v>
       </c>
       <c r="D64" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.43762500000000004</v>
       </c>
       <c r="E64" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.5625000000000002E-2</v>
       </c>
       <c r="F64" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.2125000000000004E-2</v>
       </c>
       <c r="G64" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.262500000000001</v>
       </c>
       <c r="H64" s="16">
@@ -6989,15 +7005,15 @@
         <v>0.73012500000000002</v>
       </c>
       <c r="I64" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.4375</v>
       </c>
       <c r="J64" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1636.2</v>
       </c>
       <c r="K64" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6312500000000001</v>
       </c>
       <c r="L64" s="16">
@@ -7005,19 +7021,19 @@
         <v>2.25</v>
       </c>
       <c r="M64" s="16">
-        <f t="shared" ref="M64:R64" si="8">M63*M9</f>
+        <f t="shared" ref="M64:R64" si="9">M63*M9</f>
         <v>0.142875</v>
       </c>
       <c r="N64" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.07125</v>
       </c>
       <c r="O64" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>129.6</v>
       </c>
       <c r="P64" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.96525000000000005</v>
       </c>
       <c r="Q64" s="16">
@@ -7025,7 +7041,7 @@
         <v>0.15300000000000002</v>
       </c>
       <c r="R64" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.58274999999999999</v>
       </c>
       <c r="S64" s="16">
@@ -7033,64 +7049,64 @@
         <v>0.42585862500000005</v>
       </c>
       <c r="T64" s="16">
-        <f t="shared" ref="T64:AA64" si="9">T63*T9</f>
+        <f t="shared" ref="T64:AA64" si="10">T63*T9</f>
         <v>2.0750000000000002</v>
       </c>
       <c r="U64" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.5625000000000002E-2</v>
       </c>
       <c r="V64" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.237500000000004</v>
       </c>
       <c r="W64" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.762875</v>
       </c>
       <c r="X64" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4727.8125</v>
       </c>
       <c r="Y64" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.3970000000000002</v>
       </c>
       <c r="Z64" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.421875</v>
       </c>
       <c r="AA64" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.10350000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B65" s="5">
-        <f t="shared" ref="B65:R65" si="10">0.8*0.8*B60*B59*1000000*B9/B61</f>
+        <f t="shared" ref="B65:R65" si="11">0.8*0.8*B60*B59*1000000*B9/B61</f>
         <v>284.54272571526855</v>
       </c>
       <c r="C65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>178.03117201498719</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1139.8701297301359</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>180.84008419659901</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>154.39364344375809</v>
       </c>
       <c r="G65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>38475.475811006392</v>
       </c>
       <c r="H65" s="5">
@@ -7098,35 +7114,35 @@
         <v>1801.2605963508981</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6166.1299237940575</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1239926.3389856876</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5027.0908294299234</v>
       </c>
       <c r="L65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3146.9109366338298</v>
       </c>
       <c r="M65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>744.01624764457154</v>
       </c>
       <c r="N65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4573.2807681056329</v>
       </c>
       <c r="O65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>516982.80552083551</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1777.2420087868363</v>
       </c>
       <c r="Q65" s="5">
@@ -7134,7 +7150,7 @@
         <v>803.97497584214091</v>
       </c>
       <c r="R65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>460.13977425382205</v>
       </c>
       <c r="S65" s="5">
@@ -7150,77 +7166,77 @@
         <v>164.25391156221337</v>
       </c>
       <c r="V65" s="5">
-        <f t="shared" ref="V65:AA65" si="11">0.8*0.8*V60*V59*1000000*V9/V61</f>
+        <f t="shared" ref="V65:AA65" si="12">0.8*0.8*V60*V59*1000000*V9/V61</f>
         <v>10857.316205167268</v>
       </c>
       <c r="W65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1838.6871158022327</v>
       </c>
       <c r="X65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13363296.990635848</v>
       </c>
       <c r="Y65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33457.4054407687</v>
       </c>
       <c r="Z65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2765.8745991050655</v>
       </c>
       <c r="AA65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>147.96508326729767</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="C66" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="K66" s="16" t="s">
         <v>386</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="K66" s="16" t="s">
-        <v>387</v>
       </c>
       <c r="S66" s="16">
         <v>100</v>
       </c>
       <c r="T66" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U66" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>219</v>
@@ -7256,7 +7272,7 @@
         <v>125</v>
       </c>
       <c r="M67" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N67" s="16" t="s">
         <v>175</v>
@@ -7268,7 +7284,7 @@
         <v>152</v>
       </c>
       <c r="Q67" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R67" t="s">
         <v>185</v>
@@ -7277,13 +7293,13 @@
         <v>144</v>
       </c>
       <c r="T67" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U67" s="16" t="s">
         <v>125</v>
       </c>
       <c r="V67" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="W67" s="16" t="s">
         <v>177</v>
@@ -7303,323 +7319,325 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="C68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="O68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="P68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="R68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="S68" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="U68" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="V68" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="W68" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="X68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y68" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z68" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="E68" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M68" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="N68" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="O68" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q68" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="R68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="S68" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="T68" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="U68" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="V68" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="W68" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="X68" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y68" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z68" s="16" t="s">
-        <v>395</v>
-      </c>
       <c r="AA68" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="C69" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="D69" s="16" t="s">
+      <c r="E69" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="G69" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="E69" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="G69" s="16" t="s">
+      <c r="H69" s="16" t="s">
         <v>400</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>401</v>
       </c>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
       <c r="K69" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="M69" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="N69" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="O69" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="M69" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="N69" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="O69" s="16" t="s">
+      <c r="P69" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q69" s="16" t="s">
         <v>403</v>
-      </c>
-      <c r="P69" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q69" s="16" t="s">
-        <v>404</v>
       </c>
       <c r="R69" s="16"/>
       <c r="S69" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T69" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U69" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="C70" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="E70" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="H70" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="E70" s="16" t="s">
+      <c r="I70" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="M70" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="N70" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="O70" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="P70" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q70" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="R70" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="F70" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="K70" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="L70" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="M70" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="N70" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="O70" s="16" t="s">
+      <c r="S70" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="P70" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q70" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="R70" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="S70" s="16" t="s">
-        <v>414</v>
-      </c>
       <c r="T70" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U70" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
         <v>415</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>416</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>417</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>418</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>419</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>420</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
+        <v>784</v>
+      </c>
+      <c r="I71" t="s">
+        <v>833</v>
+      </c>
+      <c r="J71" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="H71" t="s">
-        <v>787</v>
-      </c>
-      <c r="I71" s="16" t="s">
+      <c r="K71" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="L71" t="s">
+        <v>783</v>
+      </c>
+      <c r="M71" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="N71" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="K71" s="16" t="s">
-        <v>784</v>
-      </c>
-      <c r="L71" t="s">
-        <v>786</v>
-      </c>
-      <c r="M71" s="16" t="s">
+      <c r="O71" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="N71" s="16" t="s">
+      <c r="P71" t="s">
         <v>425</v>
       </c>
-      <c r="O71" s="16" t="s">
+      <c r="Q71" t="s">
+        <v>829</v>
+      </c>
+      <c r="R71" t="s">
         <v>426</v>
       </c>
-      <c r="P71" t="s">
+      <c r="S71" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="Q71" t="s">
-        <v>837</v>
-      </c>
-      <c r="R71" t="s">
+      <c r="T71" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="S71" s="16" t="s">
+      <c r="U71" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="T71" s="20" t="s">
+      <c r="W71" t="s">
         <v>430</v>
       </c>
-      <c r="U71" s="16" t="s">
+      <c r="X71" t="s">
         <v>431</v>
       </c>
-      <c r="W71" t="s">
+      <c r="Y71" t="s">
         <v>432</v>
       </c>
-      <c r="X71" t="s">
-        <v>433</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>434</v>
-      </c>
       <c r="Z71" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B72" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C72" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D72" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E72" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="F72" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="G72" t="s">
-        <v>830</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>788</v>
-      </c>
-      <c r="I72" s="16"/>
+        <v>822</v>
+      </c>
+      <c r="H72" t="s">
+        <v>785</v>
+      </c>
+      <c r="I72" t="s">
+        <v>834</v>
+      </c>
       <c r="J72" s="16"/>
       <c r="K72" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="L72" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
       <c r="Q72" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="20"/>
@@ -7627,7 +7645,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B73">
         <v>0.37862000000000001</v>
@@ -7681,7 +7699,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="S73" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="T73">
         <v>0.15443999999999999</v>
@@ -7701,7 +7719,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B74">
         <v>1.5</v>
@@ -7784,7 +7802,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B75">
         <v>1.804</v>
@@ -7837,7 +7855,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B76">
         <v>0.36799999999999999</v>
@@ -7890,7 +7908,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B77">
         <v>6.6000000000000003E-2</v>
@@ -7919,7 +7937,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B78">
         <v>0.90300000000000002</v>
@@ -7948,7 +7966,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D79">
         <f>240.49/D9</f>
@@ -7965,1248 +7983,1254 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B80" t="s">
+        <v>442</v>
+      </c>
+      <c r="C80" t="s">
+        <v>442</v>
+      </c>
+      <c r="D80" t="s">
+        <v>442</v>
+      </c>
+      <c r="E80" t="s">
+        <v>442</v>
+      </c>
+      <c r="F80" t="s">
         <v>443</v>
       </c>
-      <c r="B80" t="s">
+      <c r="G80" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C80" t="s">
+      <c r="H80" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D80" t="s">
-        <v>444</v>
-      </c>
-      <c r="E80" t="s">
-        <v>444</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="I80" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="J80" t="s">
         <v>446</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I80" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="J80" t="s">
+      <c r="L80" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="M80" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="N80" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="P80" t="s">
         <v>451</v>
       </c>
-      <c r="N80" s="2" t="s">
+      <c r="Q80" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="R80" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="P80" t="s">
+      <c r="S80" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="T80" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="S80" s="2" t="s">
+      <c r="U80" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B81" t="s">
+        <v>457</v>
+      </c>
+      <c r="C81" t="s">
         <v>458</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>459</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81" t="s">
         <v>460</v>
       </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
+        <v>457</v>
+      </c>
+      <c r="G81" t="s">
         <v>461</v>
       </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>462</v>
       </c>
-      <c r="F81" t="s">
-        <v>459</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="I81" t="s">
         <v>463</v>
       </c>
-      <c r="H81" t="s">
+      <c r="J81" t="s">
         <v>464</v>
       </c>
-      <c r="I81" t="s">
+      <c r="K81" t="s">
         <v>465</v>
       </c>
-      <c r="J81" t="s">
+      <c r="L81" t="s">
         <v>466</v>
       </c>
-      <c r="K81" t="s">
+      <c r="M81" t="s">
+        <v>458</v>
+      </c>
+      <c r="N81" t="s">
+        <v>457</v>
+      </c>
+      <c r="O81" t="s">
         <v>467</v>
       </c>
-      <c r="L81" t="s">
+      <c r="P81" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>460</v>
+      </c>
+      <c r="R81" t="s">
+        <v>466</v>
+      </c>
+      <c r="S81" t="s">
+        <v>768</v>
+      </c>
+      <c r="T81" t="s">
         <v>468</v>
       </c>
-      <c r="M81" t="s">
-        <v>460</v>
-      </c>
-      <c r="N81" t="s">
-        <v>459</v>
-      </c>
-      <c r="O81" t="s">
+      <c r="U81" t="s">
         <v>469</v>
-      </c>
-      <c r="P81" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>462</v>
-      </c>
-      <c r="R81" t="s">
-        <v>468</v>
-      </c>
-      <c r="S81" t="s">
-        <v>771</v>
-      </c>
-      <c r="T81" t="s">
-        <v>470</v>
-      </c>
-      <c r="U81" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="S82" t="s">
+        <v>471</v>
+      </c>
+      <c r="T82" t="s">
         <v>472</v>
       </c>
-      <c r="S82" t="s">
+      <c r="U82" t="s">
         <v>473</v>
-      </c>
-      <c r="T82" t="s">
-        <v>474</v>
-      </c>
-      <c r="U82" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S83" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B84" t="s">
+        <v>477</v>
+      </c>
+      <c r="C84" t="s">
+        <v>477</v>
+      </c>
+      <c r="D84" t="s">
+        <v>477</v>
+      </c>
+      <c r="E84" t="s">
+        <v>477</v>
+      </c>
+      <c r="F84" t="s">
+        <v>477</v>
+      </c>
+      <c r="G84" t="s">
         <v>478</v>
       </c>
-      <c r="B84" t="s">
+      <c r="H84" t="s">
         <v>479</v>
       </c>
-      <c r="C84" t="s">
-        <v>479</v>
-      </c>
-      <c r="D84" t="s">
-        <v>479</v>
-      </c>
-      <c r="E84" t="s">
-        <v>479</v>
-      </c>
-      <c r="F84" t="s">
-        <v>479</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
         <v>480</v>
       </c>
-      <c r="H84" t="s">
+      <c r="J84" t="s">
         <v>481</v>
       </c>
-      <c r="I84" t="s">
+      <c r="S84" t="s">
         <v>482</v>
       </c>
-      <c r="J84" t="s">
-        <v>483</v>
-      </c>
-      <c r="S84" t="s">
-        <v>484</v>
-      </c>
       <c r="T84" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="U84" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="S85" t="s">
         <v>485</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="T85" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="S85" t="s">
+      <c r="U85" t="s">
         <v>487</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="U85" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F86" t="s">
+        <v>489</v>
+      </c>
+      <c r="I86" t="s">
         <v>490</v>
       </c>
-      <c r="F86" t="s">
+      <c r="S86" t="s">
         <v>491</v>
       </c>
-      <c r="I86" t="s">
+      <c r="T86" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="S86" t="s">
-        <v>493</v>
-      </c>
-      <c r="T86" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="U86" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="S87" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="S88" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="S89" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C90" t="s">
+        <v>500</v>
+      </c>
+      <c r="D90" t="s">
         <v>501</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>502</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>503</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>504</v>
       </c>
-      <c r="F90" t="s">
+      <c r="H90" t="s">
         <v>505</v>
       </c>
-      <c r="G90" t="s">
+      <c r="I90" t="s">
         <v>506</v>
       </c>
-      <c r="H90" t="s">
+      <c r="J90" t="s">
         <v>507</v>
       </c>
-      <c r="I90" t="s">
+      <c r="K90" t="s">
         <v>508</v>
       </c>
-      <c r="J90" t="s">
+      <c r="L90" t="s">
         <v>509</v>
       </c>
-      <c r="K90" t="s">
+      <c r="M90" t="s">
         <v>510</v>
       </c>
-      <c r="L90" t="s">
+      <c r="N90" t="s">
         <v>511</v>
       </c>
-      <c r="M90" t="s">
+      <c r="O90" t="s">
         <v>512</v>
       </c>
-      <c r="N90" t="s">
+      <c r="P90" t="s">
         <v>513</v>
       </c>
-      <c r="O90" t="s">
+      <c r="Q90" t="s">
+        <v>515</v>
+      </c>
+      <c r="R90" t="s">
         <v>514</v>
       </c>
-      <c r="P90" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q90" t="s">
+      <c r="S90" t="s">
+        <v>516</v>
+      </c>
+      <c r="T90" t="s">
         <v>517</v>
       </c>
-      <c r="R90" t="s">
-        <v>516</v>
-      </c>
-      <c r="S90" t="s">
+      <c r="U90" t="s">
         <v>518</v>
-      </c>
-      <c r="T90" t="s">
-        <v>519</v>
-      </c>
-      <c r="U90" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C91" t="s">
+        <v>520</v>
+      </c>
+      <c r="D91" t="s">
         <v>521</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>522</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>523</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
         <v>524</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" t="s">
         <v>525</v>
       </c>
-      <c r="G91" t="s">
+      <c r="I91" t="s">
         <v>526</v>
       </c>
-      <c r="H91" t="s">
+      <c r="J91" t="s">
         <v>527</v>
       </c>
-      <c r="I91" t="s">
+      <c r="K91" t="s">
         <v>528</v>
       </c>
-      <c r="J91" t="s">
+      <c r="L91" t="s">
         <v>529</v>
       </c>
-      <c r="K91" t="s">
+      <c r="M91" t="s">
         <v>530</v>
       </c>
-      <c r="L91" t="s">
+      <c r="N91" t="s">
         <v>531</v>
       </c>
-      <c r="M91" t="s">
+      <c r="O91" t="s">
         <v>532</v>
       </c>
-      <c r="N91" t="s">
+      <c r="P91" t="s">
         <v>533</v>
       </c>
-      <c r="O91" t="s">
+      <c r="Q91" t="s">
+        <v>535</v>
+      </c>
+      <c r="R91" t="s">
         <v>534</v>
       </c>
-      <c r="P91" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q91" t="s">
+      <c r="S91" t="s">
+        <v>536</v>
+      </c>
+      <c r="T91" t="s">
         <v>537</v>
       </c>
-      <c r="R91" t="s">
-        <v>536</v>
-      </c>
-      <c r="S91" t="s">
+      <c r="U91" t="s">
         <v>538</v>
-      </c>
-      <c r="T91" t="s">
-        <v>539</v>
-      </c>
-      <c r="U91" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C92" t="s">
+        <v>540</v>
+      </c>
+      <c r="D92" t="s">
         <v>541</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>542</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>543</v>
       </c>
-      <c r="E92" t="s">
+      <c r="G92" t="s">
         <v>544</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
         <v>545</v>
       </c>
-      <c r="G92" t="s">
+      <c r="I92" t="s">
         <v>546</v>
       </c>
-      <c r="H92" t="s">
+      <c r="J92" t="s">
         <v>547</v>
       </c>
-      <c r="I92" t="s">
+      <c r="K92" t="s">
         <v>548</v>
       </c>
-      <c r="J92" t="s">
+      <c r="L92" t="s">
         <v>549</v>
       </c>
-      <c r="K92" t="s">
+      <c r="M92" t="s">
         <v>550</v>
       </c>
-      <c r="L92" t="s">
+      <c r="N92" t="s">
         <v>551</v>
       </c>
-      <c r="M92" t="s">
+      <c r="O92" t="s">
         <v>552</v>
       </c>
-      <c r="N92" t="s">
+      <c r="P92" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>554</v>
+      </c>
+      <c r="R92" t="s">
         <v>553</v>
       </c>
-      <c r="O92" t="s">
-        <v>554</v>
-      </c>
-      <c r="P92" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q92" t="s">
+      <c r="S92" t="s">
+        <v>555</v>
+      </c>
+      <c r="T92" t="s">
         <v>556</v>
       </c>
-      <c r="R92" t="s">
-        <v>555</v>
-      </c>
-      <c r="S92" t="s">
+      <c r="U92" t="s">
         <v>557</v>
-      </c>
-      <c r="T92" t="s">
-        <v>558</v>
-      </c>
-      <c r="U92" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C93" t="s">
+        <v>559</v>
+      </c>
+      <c r="D93" t="s">
         <v>560</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
         <v>561</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>562</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="s">
         <v>563</v>
       </c>
-      <c r="F93" t="s">
+      <c r="H93" t="s">
         <v>564</v>
       </c>
-      <c r="G93" t="s">
+      <c r="I93" t="s">
         <v>565</v>
       </c>
-      <c r="H93" t="s">
+      <c r="J93" t="s">
         <v>566</v>
       </c>
-      <c r="I93" t="s">
+      <c r="K93" t="s">
         <v>567</v>
       </c>
-      <c r="J93" t="s">
+      <c r="L93" t="s">
         <v>568</v>
       </c>
-      <c r="K93" t="s">
+      <c r="M93" t="s">
         <v>569</v>
       </c>
-      <c r="L93" t="s">
+      <c r="N93" t="s">
         <v>570</v>
       </c>
-      <c r="M93" t="s">
+      <c r="O93" t="s">
         <v>571</v>
       </c>
-      <c r="N93" t="s">
+      <c r="P93" t="s">
         <v>572</v>
       </c>
-      <c r="O93" t="s">
+      <c r="Q93" t="s">
+        <v>574</v>
+      </c>
+      <c r="R93" t="s">
         <v>573</v>
       </c>
-      <c r="P93" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q93" t="s">
+      <c r="S93" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="T93" t="s">
         <v>576</v>
       </c>
-      <c r="R93" t="s">
-        <v>575</v>
-      </c>
-      <c r="S93" s="22" t="s">
+      <c r="U93" t="s">
         <v>577</v>
-      </c>
-      <c r="T93" t="s">
-        <v>578</v>
-      </c>
-      <c r="U93" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C94" t="s">
+        <v>579</v>
+      </c>
+      <c r="D94" t="s">
         <v>580</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>581</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>582</v>
       </c>
-      <c r="E94" t="s">
+      <c r="G94" t="s">
         <v>583</v>
       </c>
-      <c r="F94" t="s">
+      <c r="H94" t="s">
         <v>584</v>
       </c>
-      <c r="G94" t="s">
+      <c r="I94" t="s">
         <v>585</v>
       </c>
-      <c r="H94" t="s">
+      <c r="J94" t="s">
         <v>586</v>
       </c>
-      <c r="I94" t="s">
+      <c r="K94" t="s">
         <v>587</v>
       </c>
-      <c r="J94" t="s">
+      <c r="L94" t="s">
         <v>588</v>
       </c>
-      <c r="K94" t="s">
+      <c r="M94" t="s">
         <v>589</v>
       </c>
-      <c r="L94" t="s">
+      <c r="N94" t="s">
         <v>590</v>
       </c>
-      <c r="M94" t="s">
+      <c r="P94" t="s">
         <v>591</v>
       </c>
-      <c r="N94" t="s">
+      <c r="Q94" t="s">
+        <v>593</v>
+      </c>
+      <c r="R94" t="s">
         <v>592</v>
       </c>
-      <c r="P94" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>595</v>
-      </c>
-      <c r="R94" t="s">
+      <c r="U94" t="s">
         <v>594</v>
-      </c>
-      <c r="U94" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C95" t="s">
+        <v>596</v>
+      </c>
+      <c r="D95" t="s">
         <v>597</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E95" t="s">
         <v>598</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F95" t="s">
         <v>599</v>
       </c>
-      <c r="E95" t="s">
+      <c r="H95" t="s">
         <v>600</v>
       </c>
-      <c r="F95" t="s">
+      <c r="I95" t="s">
         <v>601</v>
       </c>
-      <c r="H95" t="s">
+      <c r="J95" t="s">
         <v>602</v>
       </c>
-      <c r="I95" t="s">
+      <c r="L95" t="s">
         <v>603</v>
       </c>
-      <c r="J95" t="s">
+      <c r="M95" t="s">
         <v>604</v>
       </c>
-      <c r="L95" t="s">
+      <c r="N95" t="s">
         <v>605</v>
       </c>
-      <c r="M95" t="s">
+      <c r="Q95" t="s">
         <v>606</v>
       </c>
-      <c r="N95" t="s">
+      <c r="U95" t="s">
         <v>607</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>608</v>
-      </c>
-      <c r="U95" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C96" t="s">
+        <v>609</v>
+      </c>
+      <c r="E96" t="s">
         <v>610</v>
       </c>
-      <c r="C96" t="s">
+      <c r="H96" t="s">
         <v>611</v>
       </c>
-      <c r="E96" t="s">
+      <c r="I96" t="s">
         <v>612</v>
       </c>
-      <c r="H96" t="s">
+      <c r="J96" t="s">
         <v>613</v>
       </c>
-      <c r="I96" t="s">
+      <c r="M96" t="s">
         <v>614</v>
       </c>
-      <c r="J96" t="s">
+      <c r="Q96" t="s">
         <v>615</v>
-      </c>
-      <c r="M96" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E97" t="s">
+        <v>617</v>
+      </c>
+      <c r="H97" t="s">
         <v>618</v>
       </c>
-      <c r="E97" t="s">
+      <c r="I97" t="s">
         <v>619</v>
       </c>
-      <c r="H97" t="s">
+      <c r="Q97" t="s">
         <v>620</v>
-      </c>
-      <c r="I97" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E98" t="s">
+        <v>622</v>
+      </c>
+      <c r="I98" t="s">
         <v>623</v>
-      </c>
-      <c r="E98" t="s">
-        <v>624</v>
-      </c>
-      <c r="I98" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E99" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I99" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J99" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="S100" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="S101" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="S102" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B103" t="s">
+        <v>633</v>
+      </c>
+      <c r="C103" t="s">
+        <v>633</v>
+      </c>
+      <c r="D103" t="s">
+        <v>633</v>
+      </c>
+      <c r="E103" t="s">
+        <v>633</v>
+      </c>
+      <c r="F103" t="s">
+        <v>633</v>
+      </c>
+      <c r="G103" t="s">
+        <v>633</v>
+      </c>
+      <c r="I103" t="s">
+        <v>633</v>
+      </c>
+      <c r="J103" t="s">
+        <v>633</v>
+      </c>
+      <c r="K103" t="s">
+        <v>633</v>
+      </c>
+      <c r="N103" t="s">
         <v>634</v>
       </c>
-      <c r="B103" t="s">
+      <c r="S103" t="s">
         <v>635</v>
       </c>
-      <c r="C103" t="s">
-        <v>635</v>
-      </c>
-      <c r="D103" t="s">
-        <v>635</v>
-      </c>
-      <c r="E103" t="s">
-        <v>635</v>
-      </c>
-      <c r="F103" t="s">
-        <v>635</v>
-      </c>
-      <c r="G103" t="s">
-        <v>635</v>
-      </c>
-      <c r="I103" t="s">
-        <v>635</v>
-      </c>
-      <c r="J103" t="s">
-        <v>635</v>
-      </c>
-      <c r="K103" t="s">
-        <v>635</v>
-      </c>
-      <c r="N103" t="s">
-        <v>636</v>
-      </c>
-      <c r="S103" t="s">
-        <v>637</v>
-      </c>
       <c r="T103" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="U103" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="B104" t="s">
+        <v>637</v>
+      </c>
+      <c r="C104" t="s">
+        <v>637</v>
+      </c>
+      <c r="D104" t="s">
+        <v>637</v>
+      </c>
+      <c r="E104" t="s">
+        <v>637</v>
+      </c>
+      <c r="F104" t="s">
+        <v>637</v>
+      </c>
+      <c r="G104" t="s">
+        <v>637</v>
+      </c>
+      <c r="H104" t="s">
+        <v>637</v>
+      </c>
+      <c r="I104" t="s">
+        <v>637</v>
+      </c>
+      <c r="J104" t="s">
+        <v>637</v>
+      </c>
+      <c r="K104" t="s">
+        <v>637</v>
+      </c>
+      <c r="L104" t="s">
+        <v>637</v>
+      </c>
+      <c r="R104" t="s">
+        <v>637</v>
+      </c>
+      <c r="S104" t="s">
         <v>638</v>
       </c>
-      <c r="B104" t="s">
-        <v>639</v>
-      </c>
-      <c r="C104" t="s">
-        <v>639</v>
-      </c>
-      <c r="D104" t="s">
-        <v>639</v>
-      </c>
-      <c r="E104" t="s">
-        <v>639</v>
-      </c>
-      <c r="F104" t="s">
-        <v>639</v>
-      </c>
-      <c r="G104" t="s">
-        <v>639</v>
-      </c>
-      <c r="H104" t="s">
-        <v>639</v>
-      </c>
-      <c r="I104" t="s">
-        <v>639</v>
-      </c>
-      <c r="J104" t="s">
-        <v>639</v>
-      </c>
-      <c r="K104" t="s">
-        <v>639</v>
-      </c>
-      <c r="L104" t="s">
-        <v>639</v>
-      </c>
-      <c r="R104" t="s">
-        <v>639</v>
-      </c>
-      <c r="S104" t="s">
-        <v>640</v>
-      </c>
       <c r="T104" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="U104" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="W104" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B105" t="s">
+        <v>640</v>
+      </c>
+      <c r="C105" t="s">
+        <v>640</v>
+      </c>
+      <c r="D105" t="s">
+        <v>640</v>
+      </c>
+      <c r="E105" t="s">
+        <v>640</v>
+      </c>
+      <c r="F105" t="s">
+        <v>640</v>
+      </c>
+      <c r="G105" t="s">
+        <v>640</v>
+      </c>
+      <c r="H105" t="s">
+        <v>640</v>
+      </c>
+      <c r="I105" t="s">
+        <v>640</v>
+      </c>
+      <c r="J105" t="s">
+        <v>640</v>
+      </c>
+      <c r="K105" t="s">
+        <v>640</v>
+      </c>
+      <c r="L105" t="s">
+        <v>640</v>
+      </c>
+      <c r="R105" t="s">
+        <v>640</v>
+      </c>
+      <c r="S105" t="s">
         <v>641</v>
       </c>
-      <c r="B105" t="s">
-        <v>642</v>
-      </c>
-      <c r="C105" t="s">
-        <v>642</v>
-      </c>
-      <c r="D105" t="s">
-        <v>642</v>
-      </c>
-      <c r="E105" t="s">
-        <v>642</v>
-      </c>
-      <c r="F105" t="s">
-        <v>642</v>
-      </c>
-      <c r="G105" t="s">
-        <v>642</v>
-      </c>
-      <c r="H105" t="s">
-        <v>642</v>
-      </c>
-      <c r="I105" t="s">
-        <v>642</v>
-      </c>
-      <c r="J105" t="s">
-        <v>642</v>
-      </c>
-      <c r="K105" t="s">
-        <v>642</v>
-      </c>
-      <c r="L105" t="s">
-        <v>642</v>
-      </c>
-      <c r="R105" t="s">
-        <v>642</v>
-      </c>
-      <c r="S105" t="s">
-        <v>643</v>
-      </c>
       <c r="T105" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="U105" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="W105" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B106" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C106" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D106" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E106" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F106" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="T106" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="U106" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="W106" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B107" t="s">
+        <v>645</v>
+      </c>
+      <c r="C107" t="s">
+        <v>645</v>
+      </c>
+      <c r="E107" t="s">
+        <v>645</v>
+      </c>
+      <c r="F107" t="s">
+        <v>645</v>
+      </c>
+      <c r="L107" t="s">
+        <v>645</v>
+      </c>
+      <c r="S107" t="s">
         <v>646</v>
       </c>
-      <c r="B107" t="s">
-        <v>647</v>
-      </c>
-      <c r="C107" t="s">
-        <v>647</v>
-      </c>
-      <c r="E107" t="s">
-        <v>647</v>
-      </c>
-      <c r="F107" t="s">
-        <v>647</v>
-      </c>
-      <c r="L107" t="s">
-        <v>647</v>
-      </c>
-      <c r="S107" t="s">
-        <v>648</v>
-      </c>
       <c r="T107" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="U107" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="W107" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="D108" t="s">
+        <v>648</v>
+      </c>
+      <c r="H108" t="s">
         <v>649</v>
       </c>
-      <c r="D108" t="s">
+      <c r="K108" t="s">
         <v>650</v>
-      </c>
-      <c r="H108" t="s">
-        <v>651</v>
-      </c>
-      <c r="K108" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="S109" t="s">
+        <v>652</v>
+      </c>
+      <c r="T109" t="s">
         <v>653</v>
       </c>
-      <c r="S109" t="s">
+      <c r="U109" t="s">
         <v>654</v>
-      </c>
-      <c r="T109" t="s">
-        <v>655</v>
-      </c>
-      <c r="U109" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="S110" t="s">
+        <v>656</v>
+      </c>
+      <c r="T110" t="s">
         <v>657</v>
       </c>
-      <c r="S110" t="s">
+      <c r="U110" t="s">
         <v>658</v>
-      </c>
-      <c r="T110" t="s">
-        <v>659</v>
-      </c>
-      <c r="U110" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="S111" t="s">
+        <v>660</v>
+      </c>
+      <c r="T111" t="s">
         <v>661</v>
       </c>
-      <c r="S111" t="s">
+      <c r="U111" t="s">
         <v>662</v>
-      </c>
-      <c r="T111" t="s">
-        <v>663</v>
-      </c>
-      <c r="U111" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="U112" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="S113" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="S114" t="s">
+        <v>668</v>
+      </c>
+      <c r="T114" s="23" t="s">
         <v>669</v>
       </c>
-      <c r="S114" t="s">
+      <c r="U114" t="s">
         <v>670</v>
-      </c>
-      <c r="T114" s="23" t="s">
-        <v>671</v>
-      </c>
-      <c r="U114" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="S115" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="U116" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B117" t="s">
+        <v>801</v>
+      </c>
+      <c r="C117" t="s">
+        <v>805</v>
+      </c>
+      <c r="D117" t="s">
+        <v>811</v>
+      </c>
+      <c r="E117" t="s">
+        <v>813</v>
+      </c>
+      <c r="F117" t="s">
+        <v>815</v>
+      </c>
+      <c r="G117" t="s">
+        <v>807</v>
+      </c>
+      <c r="H117" t="s">
+        <v>799</v>
+      </c>
+      <c r="I117" t="s">
+        <v>803</v>
+      </c>
+      <c r="K117" t="s">
+        <v>817</v>
+      </c>
+      <c r="L117" t="s">
+        <v>809</v>
+      </c>
+      <c r="M117" t="s">
+        <v>794</v>
+      </c>
+      <c r="P117" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q117" t="s">
         <v>796</v>
       </c>
-      <c r="B117" t="s">
-        <v>805</v>
-      </c>
-      <c r="C117" t="s">
-        <v>809</v>
-      </c>
-      <c r="D117" t="s">
-        <v>815</v>
-      </c>
-      <c r="E117" t="s">
-        <v>817</v>
-      </c>
-      <c r="F117" t="s">
-        <v>819</v>
-      </c>
-      <c r="G117" t="s">
-        <v>811</v>
-      </c>
-      <c r="H117" t="s">
-        <v>803</v>
-      </c>
-      <c r="I117" t="s">
-        <v>807</v>
-      </c>
-      <c r="K117" t="s">
-        <v>821</v>
-      </c>
-      <c r="L117" t="s">
-        <v>813</v>
-      </c>
-      <c r="M117" t="s">
-        <v>798</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>800</v>
-      </c>
       <c r="S117" t="s">
+        <v>710</v>
+      </c>
+      <c r="T117" t="s">
+        <v>711</v>
+      </c>
+      <c r="U117" t="s">
         <v>712</v>
-      </c>
-      <c r="T117" t="s">
-        <v>713</v>
-      </c>
-      <c r="U117" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B118" t="s">
+        <v>800</v>
+      </c>
+      <c r="C118" t="s">
+        <v>804</v>
+      </c>
+      <c r="D118" t="s">
+        <v>810</v>
+      </c>
+      <c r="E118" t="s">
+        <v>812</v>
+      </c>
+      <c r="F118" t="s">
+        <v>814</v>
+      </c>
+      <c r="G118" t="s">
+        <v>806</v>
+      </c>
+      <c r="H118" t="s">
+        <v>798</v>
+      </c>
+      <c r="I118" t="s">
+        <v>802</v>
+      </c>
+      <c r="K118" t="s">
+        <v>816</v>
+      </c>
+      <c r="L118" t="s">
+        <v>808</v>
+      </c>
+      <c r="M118" t="s">
+        <v>795</v>
+      </c>
+      <c r="P118" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q118" t="s">
         <v>797</v>
       </c>
-      <c r="B118" t="s">
-        <v>804</v>
-      </c>
-      <c r="C118" t="s">
-        <v>808</v>
-      </c>
-      <c r="D118" t="s">
-        <v>814</v>
-      </c>
-      <c r="E118" t="s">
-        <v>816</v>
-      </c>
-      <c r="F118" t="s">
-        <v>818</v>
-      </c>
-      <c r="G118" t="s">
-        <v>810</v>
-      </c>
-      <c r="H118" t="s">
-        <v>802</v>
-      </c>
-      <c r="I118" t="s">
-        <v>806</v>
-      </c>
-      <c r="K118" t="s">
-        <v>820</v>
-      </c>
-      <c r="L118" t="s">
-        <v>812</v>
-      </c>
-      <c r="M118" t="s">
-        <v>799</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>801</v>
-      </c>
       <c r="S118" t="s">
+        <v>706</v>
+      </c>
+      <c r="T118" t="s">
+        <v>707</v>
+      </c>
+      <c r="U118" t="s">
         <v>708</v>
-      </c>
-      <c r="T118" t="s">
-        <v>709</v>
-      </c>
-      <c r="U118" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="D119" t="s">
+        <v>765</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="I119" t="s">
+        <v>763</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="N119" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="D119" t="s">
-        <v>768</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="I119" t="s">
-        <v>766</v>
-      </c>
-      <c r="L119" s="9" t="s">
-        <v>765</v>
-      </c>
-      <c r="N119" s="9" t="s">
-        <v>764</v>
-      </c>
       <c r="O119" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="P119" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B120" t="s">
+        <v>676</v>
+      </c>
+      <c r="C120" t="s">
         <v>677</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" t="s">
         <v>678</v>
       </c>
-      <c r="C120" t="s">
+      <c r="E120" t="s">
         <v>679</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
         <v>680</v>
       </c>
-      <c r="E120" t="s">
+      <c r="G120" t="s">
         <v>681</v>
       </c>
-      <c r="F120" t="s">
+      <c r="I120" t="s">
         <v>682</v>
       </c>
-      <c r="G120" t="s">
+      <c r="J120" t="s">
         <v>683</v>
       </c>
-      <c r="I120" t="s">
+      <c r="K120" s="24" t="s">
         <v>684</v>
       </c>
-      <c r="J120" t="s">
+      <c r="L120" t="s">
+        <v>775</v>
+      </c>
+      <c r="M120" t="s">
+        <v>779</v>
+      </c>
+      <c r="N120" t="s">
+        <v>790</v>
+      </c>
+      <c r="O120" t="s">
+        <v>771</v>
+      </c>
+      <c r="P120" t="s">
+        <v>777</v>
+      </c>
+      <c r="S120" t="s">
         <v>685</v>
       </c>
-      <c r="K120" s="24" t="s">
+      <c r="T120" t="s">
         <v>686</v>
       </c>
-      <c r="L120" t="s">
-        <v>778</v>
-      </c>
-      <c r="M120" t="s">
-        <v>782</v>
-      </c>
-      <c r="N120" t="s">
-        <v>793</v>
-      </c>
-      <c r="O120" t="s">
-        <v>774</v>
-      </c>
-      <c r="P120" t="s">
-        <v>780</v>
-      </c>
-      <c r="S120" t="s">
+      <c r="U120" t="s">
         <v>687</v>
-      </c>
-      <c r="T120" t="s">
-        <v>688</v>
-      </c>
-      <c r="U120" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C121" t="s">
+        <v>689</v>
+      </c>
+      <c r="D121" t="s">
+        <v>770</v>
+      </c>
+      <c r="E121" t="s">
         <v>690</v>
       </c>
-      <c r="C121" t="s">
+      <c r="G121" t="s">
         <v>691</v>
       </c>
-      <c r="D121" t="s">
-        <v>773</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="H121" t="s">
         <v>692</v>
       </c>
-      <c r="G121" t="s">
+      <c r="I121" t="s">
         <v>693</v>
       </c>
-      <c r="H121" t="s">
+      <c r="J121" t="s">
         <v>694</v>
       </c>
-      <c r="I121" t="s">
+      <c r="K121" t="s">
         <v>695</v>
       </c>
-      <c r="J121" t="s">
+      <c r="N121" t="s">
         <v>696</v>
       </c>
-      <c r="K121" t="s">
+      <c r="O121" t="s">
         <v>697</v>
       </c>
-      <c r="N121" t="s">
+      <c r="P121" t="s">
+        <v>776</v>
+      </c>
+      <c r="R121" t="s">
         <v>698</v>
       </c>
-      <c r="O121" t="s">
+      <c r="T121" t="s">
         <v>699</v>
-      </c>
-      <c r="P121" t="s">
-        <v>779</v>
-      </c>
-      <c r="R121" t="s">
-        <v>700</v>
-      </c>
-      <c r="T121" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="S122" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B123">
         <v>7</v>
@@ -9235,7 +9259,7 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B124">
         <v>6300</v>
@@ -9267,7 +9291,7 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B125">
         <v>6500</v>
@@ -9329,35 +9353,35 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="S126" t="s">
+        <v>706</v>
+      </c>
+      <c r="T126" t="s">
         <v>707</v>
       </c>
-      <c r="S126" t="s">
+      <c r="U126" t="s">
         <v>708</v>
-      </c>
-      <c r="T126" t="s">
-        <v>709</v>
-      </c>
-      <c r="U126" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="S127" t="s">
+        <v>710</v>
+      </c>
+      <c r="T127" t="s">
         <v>711</v>
       </c>
-      <c r="S127" t="s">
+      <c r="U127" t="s">
         <v>712</v>
-      </c>
-      <c r="T127" t="s">
-        <v>713</v>
-      </c>
-      <c r="U127" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B129" t="s">
         <v>28</v>
@@ -9392,7 +9416,7 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B130" t="s">
         <v>28</v>
@@ -9409,187 +9433,145 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E131" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="I131" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J131" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="L131" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="M131" t="s">
-        <v>718</v>
+        <v>840</v>
       </c>
       <c r="N131" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="O131" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="P131" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="Q131" t="s">
-        <v>718</v>
+        <v>840</v>
       </c>
       <c r="R131" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H132" t="s">
-        <v>836</v>
-      </c>
-      <c r="M132" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="N132" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="O132" t="s">
-        <v>834</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B133" t="s">
-        <v>718</v>
-      </c>
-      <c r="I133" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J133" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="I135" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="J135" t="s">
-        <v>718</v>
-      </c>
-      <c r="L135" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="M135" t="s">
-        <v>718</v>
+        <v>840</v>
       </c>
       <c r="N135" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="O135" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="P135" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="R135" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="L136" t="s">
-        <v>718</v>
-      </c>
-      <c r="M136" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="N136" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="O136" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="P136" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="R136" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="I137" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="J137" t="s">
-        <v>718</v>
-      </c>
-      <c r="L137" t="s">
-        <v>718</v>
-      </c>
-      <c r="M137" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="N137" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="O137" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="P137" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="R137" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="I139" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="J139" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B140" t="s">
         <v>44</v>
@@ -9621,7 +9603,7 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B141" t="s">
         <v>44</v>
@@ -9650,422 +9632,313 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="I142" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="J142" t="s">
-        <v>718</v>
-      </c>
-      <c r="L142" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>834</v>
+        <v>716</v>
       </c>
       <c r="R142" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="I143" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="I144" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="J144" t="s">
-        <v>718</v>
-      </c>
-      <c r="L144" t="s">
-        <v>718</v>
-      </c>
-      <c r="M144" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="N144" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="O144" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="P144" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="R144" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="L145" t="s">
-        <v>718</v>
-      </c>
-      <c r="M145" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="N145" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="O145" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="P145" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="R145" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="B148" t="s">
-        <v>718</v>
-      </c>
-      <c r="I148" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="J148" t="s">
-        <v>718</v>
-      </c>
-      <c r="L148" t="s">
-        <v>718</v>
-      </c>
-      <c r="M148" t="s">
-        <v>718</v>
-      </c>
-      <c r="N148" t="s">
-        <v>718</v>
-      </c>
-      <c r="O148" t="s">
-        <v>718</v>
-      </c>
-      <c r="P148" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>718</v>
-      </c>
-      <c r="R148" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="I149" t="s">
-        <v>718</v>
-      </c>
-      <c r="M149" t="s">
-        <v>720</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>720</v>
+        <v>836</v>
+      </c>
+      <c r="J149" t="s">
+        <v>716</v>
+      </c>
+      <c r="N149" t="s">
+        <v>716</v>
+      </c>
+      <c r="O149" t="s">
+        <v>716</v>
+      </c>
+      <c r="P149" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J150" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J151" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="C152" t="s">
-        <v>718</v>
-      </c>
-      <c r="I152" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="J152" t="s">
-        <v>718</v>
+        <v>716</v>
+      </c>
+      <c r="N152" t="s">
+        <v>716</v>
+      </c>
+      <c r="O152" t="s">
+        <v>716</v>
+      </c>
+      <c r="P152" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="L154" t="s">
-        <v>834</v>
+        <v>740</v>
       </c>
       <c r="N154" t="s">
-        <v>834</v>
+        <v>826</v>
+      </c>
+      <c r="O154" t="s">
+        <v>716</v>
       </c>
       <c r="P154" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="I156" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
       <c r="J156" t="s">
-        <v>718</v>
-      </c>
-      <c r="L156" t="s">
-        <v>718</v>
-      </c>
-      <c r="M156" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="N156" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="O156" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="P156" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="R156" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="L157" t="s">
-        <v>718</v>
-      </c>
-      <c r="M157" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="N157" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="O157" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="P157" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="R157" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="I158" t="s">
         <v>44</v>
       </c>
       <c r="J158" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K158" t="s">
         <v>44</v>
       </c>
-      <c r="L158" t="s">
-        <v>718</v>
-      </c>
-      <c r="M158" t="s">
-        <v>718</v>
-      </c>
       <c r="N158" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="O158" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="P158" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q158" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="R158" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="L159" t="s">
-        <v>718</v>
-      </c>
-      <c r="M159" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="N159" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="O159" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="P159" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="R159" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A161" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="H163" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
         <v>749</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A161" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A162" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A163" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="H163" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A164" s="1" t="s">
-        <v>752</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="O164" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I166" s="1"/>
       <c r="K166" s="1"/>
-      <c r="M166" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B167" t="s">
-        <v>737</v>
-      </c>
-      <c r="J167" t="s">
-        <v>737</v>
-      </c>
-      <c r="L167" t="s">
-        <v>718</v>
-      </c>
-      <c r="M167" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="N167" t="s">
         <v>718</v>
       </c>
-      <c r="O167" t="s">
-        <v>718</v>
-      </c>
-      <c r="P167" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>718</v>
-      </c>
-      <c r="R167" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="I168" s="1"/>
       <c r="J168" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="I169" t="s">
-        <v>737</v>
-      </c>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A170" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="D170" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A171" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="845">
   <si>
     <t>Country</t>
   </si>
@@ -1292,9 +1292,6 @@
     <t>?Q_Language=ID</t>
   </si>
   <si>
-    <t>?Q_Language=FR-CA / ?Q_Language=KAN</t>
-  </si>
-  <si>
     <t>?Q_Language=UK</t>
   </si>
   <si>
@@ -2282,9 +2279,6 @@
     <t>explain how change language</t>
   </si>
   <si>
-    <t>~ Alga</t>
-  </si>
-  <si>
     <t>240k</t>
   </si>
   <si>
@@ -2369,9 +2363,6 @@
     <t>2.6, 23.4, 24.5, 19.2, 22.2, 22.3, 25.1, 257 Remove for China (Respondi)</t>
   </si>
   <si>
-    <t>https://lse.eu.qualtrics.com/jfe/form/SV_5bgS4vQyTHXHl4i?Q_Language=ZU / https://lse.eu.qualtrics.com/jfe/form/SV_5bgS4vQyTHXHl4i?Q_Language=EN-US</t>
-  </si>
-  <si>
     <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_5bgS4vQyTHXHl4i</t>
   </si>
   <si>
@@ -2556,6 +2547,18 @@
   </si>
   <si>
     <t>~ test, video FR</t>
+  </si>
+  <si>
+    <t>~ OECD</t>
+  </si>
+  <si>
+    <t>ZU: https://lse.eu.qualtrics.com/jfe/form/SV_5bgS4vQyTHXHl4i?Q_Language=ZU / EN: https://lse.eu.qualtrics.com/jfe/form/SV_5bgS4vQyTHXHl4i?Q_Language=EN-US</t>
+  </si>
+  <si>
+    <t>FR: https://lse.eu.qualtrics.com/jfe/form/SV_9Wt11o3HDZ2YVym?Q_Language=FR-CA / EN: https://lse.eu.qualtrics.com/jfe/form/SV_9Wt11o3HDZ2YVym?Q_Language=EN</t>
+  </si>
+  <si>
+    <t>~ Herwita</t>
   </si>
 </sst>
 </file>
@@ -2991,8 +2994,8 @@
   <dimension ref="A1:AA171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O167" sqref="O167:P167"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3177,7 +3180,7 @@
         <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>752</v>
+        <v>844</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>28</v>
@@ -3189,13 +3192,13 @@
         <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>787</v>
+        <v>841</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>28</v>
@@ -3249,10 +3252,10 @@
         <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>28</v>
@@ -3312,7 +3315,7 @@
         <v>28</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>28</v>
@@ -3391,7 +3394,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>35</v>
@@ -3400,20 +3403,20 @@
         <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>36</v>
@@ -4222,10 +4225,10 @@
       </c>
       <c r="L18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="P18" s="1"/>
       <c r="S18" t="s">
@@ -4344,7 +4347,7 @@
         <v>190</v>
       </c>
       <c r="N20" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="O20" t="s">
         <v>192</v>
@@ -4870,7 +4873,7 @@
         <v>229</v>
       </c>
       <c r="P28" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="Q28" t="s">
         <v>113</v>
@@ -5440,7 +5443,7 @@
         <v>291</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>292</v>
@@ -5449,10 +5452,10 @@
         <v>293</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>294</v>
@@ -5639,7 +5642,7 @@
         <v>333</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>334</v>
@@ -5663,7 +5666,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -7544,100 +7547,100 @@
         <v>420</v>
       </c>
       <c r="H71" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="I71" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="J71" s="16" t="s">
         <v>421</v>
       </c>
       <c r="K71" s="16" t="s">
-        <v>781</v>
+        <v>842</v>
       </c>
       <c r="L71" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="M71" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="N71" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="N71" s="16" t="s">
+      <c r="O71" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="O71" s="16" t="s">
+      <c r="P71" t="s">
         <v>424</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
+        <v>826</v>
+      </c>
+      <c r="R71" t="s">
         <v>425</v>
       </c>
-      <c r="Q71" t="s">
-        <v>829</v>
-      </c>
-      <c r="R71" t="s">
+      <c r="S71" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="S71" s="16" t="s">
+      <c r="T71" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="T71" s="20" t="s">
+      <c r="U71" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="U71" s="16" t="s">
+      <c r="W71" t="s">
         <v>429</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>430</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>431</v>
       </c>
-      <c r="Y71" t="s">
-        <v>432</v>
-      </c>
       <c r="Z71" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B72" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C72" t="s">
+        <v>816</v>
+      </c>
+      <c r="D72" t="s">
+        <v>817</v>
+      </c>
+      <c r="E72" t="s">
+        <v>815</v>
+      </c>
+      <c r="F72" t="s">
+        <v>818</v>
+      </c>
+      <c r="G72" t="s">
         <v>819</v>
       </c>
-      <c r="D72" t="s">
-        <v>820</v>
-      </c>
-      <c r="E72" t="s">
-        <v>818</v>
-      </c>
-      <c r="F72" t="s">
-        <v>821</v>
-      </c>
-      <c r="G72" t="s">
-        <v>822</v>
-      </c>
       <c r="H72" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="I72" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J72" s="16"/>
       <c r="K72" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="L72" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
       <c r="Q72" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="20"/>
@@ -7645,7 +7648,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B73">
         <v>0.37862000000000001</v>
@@ -7699,7 +7702,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="S73" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T73">
         <v>0.15443999999999999</v>
@@ -7719,7 +7722,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B74">
         <v>1.5</v>
@@ -7802,7 +7805,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B75">
         <v>1.804</v>
@@ -7855,7 +7858,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B76">
         <v>0.36799999999999999</v>
@@ -7908,7 +7911,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B77">
         <v>6.6000000000000003E-2</v>
@@ -7937,7 +7940,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B78">
         <v>0.90300000000000002</v>
@@ -7966,7 +7969,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D79">
         <f>240.49/D9</f>
@@ -7983,1254 +7986,1254 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B80" t="s">
         <v>441</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>441</v>
+      </c>
+      <c r="D80" t="s">
+        <v>441</v>
+      </c>
+      <c r="E80" t="s">
+        <v>441</v>
+      </c>
+      <c r="F80" t="s">
         <v>442</v>
       </c>
-      <c r="C80" t="s">
-        <v>442</v>
-      </c>
-      <c r="D80" t="s">
-        <v>442</v>
-      </c>
-      <c r="E80" t="s">
-        <v>442</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="G80" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="I80" s="2" t="s">
+      <c r="J80" t="s">
         <v>445</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="M80" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="N80" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="O80" s="2" t="s">
+      <c r="P80" t="s">
         <v>450</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="R80" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="S80" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="S80" s="2" t="s">
+      <c r="T80" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="T80" s="2" t="s">
+      <c r="U80" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B81" t="s">
         <v>456</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>457</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>458</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>459</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
+        <v>456</v>
+      </c>
+      <c r="G81" t="s">
         <v>460</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
+        <v>461</v>
+      </c>
+      <c r="I81" t="s">
+        <v>462</v>
+      </c>
+      <c r="J81" t="s">
+        <v>463</v>
+      </c>
+      <c r="K81" t="s">
+        <v>464</v>
+      </c>
+      <c r="L81" t="s">
+        <v>465</v>
+      </c>
+      <c r="M81" t="s">
         <v>457</v>
       </c>
-      <c r="G81" t="s">
-        <v>461</v>
-      </c>
-      <c r="H81" t="s">
-        <v>462</v>
-      </c>
-      <c r="I81" t="s">
-        <v>463</v>
-      </c>
-      <c r="J81" t="s">
-        <v>464</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="N81" t="s">
+        <v>456</v>
+      </c>
+      <c r="O81" t="s">
+        <v>466</v>
+      </c>
+      <c r="P81" t="s">
         <v>465</v>
       </c>
-      <c r="L81" t="s">
-        <v>466</v>
-      </c>
-      <c r="M81" t="s">
-        <v>458</v>
-      </c>
-      <c r="N81" t="s">
-        <v>457</v>
-      </c>
-      <c r="O81" t="s">
+      <c r="Q81" t="s">
+        <v>459</v>
+      </c>
+      <c r="R81" t="s">
+        <v>465</v>
+      </c>
+      <c r="S81" t="s">
+        <v>766</v>
+      </c>
+      <c r="T81" t="s">
         <v>467</v>
       </c>
-      <c r="P81" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>460</v>
-      </c>
-      <c r="R81" t="s">
-        <v>466</v>
-      </c>
-      <c r="S81" t="s">
-        <v>768</v>
-      </c>
-      <c r="T81" t="s">
+      <c r="U81" t="s">
         <v>468</v>
-      </c>
-      <c r="U81" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="S82" t="s">
         <v>470</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>471</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>472</v>
-      </c>
-      <c r="U82" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="S83" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="S83" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B84" t="s">
         <v>476</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>476</v>
+      </c>
+      <c r="D84" t="s">
+        <v>476</v>
+      </c>
+      <c r="E84" t="s">
+        <v>476</v>
+      </c>
+      <c r="F84" t="s">
+        <v>476</v>
+      </c>
+      <c r="G84" t="s">
         <v>477</v>
       </c>
-      <c r="C84" t="s">
-        <v>477</v>
-      </c>
-      <c r="D84" t="s">
-        <v>477</v>
-      </c>
-      <c r="E84" t="s">
-        <v>477</v>
-      </c>
-      <c r="F84" t="s">
-        <v>477</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>478</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>479</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>480</v>
       </c>
-      <c r="J84" t="s">
+      <c r="S84" t="s">
         <v>481</v>
       </c>
-      <c r="S84" t="s">
-        <v>482</v>
-      </c>
       <c r="T84" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U84" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="S85" t="s">
         <v>484</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="T85" s="2" t="s">
+      <c r="U85" t="s">
         <v>486</v>
-      </c>
-      <c r="U85" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F86" t="s">
         <v>488</v>
       </c>
-      <c r="F86" t="s">
+      <c r="I86" t="s">
         <v>489</v>
       </c>
-      <c r="I86" t="s">
+      <c r="S86" t="s">
         <v>490</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="T86" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="U86" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="S87" t="s">
         <v>493</v>
-      </c>
-      <c r="S87" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="S88" s="21" t="s">
         <v>495</v>
-      </c>
-      <c r="S88" s="21" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="S89" t="s">
         <v>497</v>
-      </c>
-      <c r="S89" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C90" t="s">
         <v>499</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>500</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>501</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>502</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>503</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>504</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>505</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>506</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>507</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>508</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>509</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>510</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>511</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>512</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
+        <v>514</v>
+      </c>
+      <c r="R90" t="s">
         <v>513</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="S90" t="s">
         <v>515</v>
       </c>
-      <c r="R90" t="s">
-        <v>514</v>
-      </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>516</v>
       </c>
-      <c r="T90" t="s">
+      <c r="U90" t="s">
         <v>517</v>
-      </c>
-      <c r="U90" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C91" t="s">
         <v>519</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>520</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>521</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>522</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>523</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>524</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>525</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>526</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>527</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>528</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>529</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>530</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>531</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>532</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
+        <v>534</v>
+      </c>
+      <c r="R91" t="s">
         <v>533</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="S91" t="s">
         <v>535</v>
       </c>
-      <c r="R91" t="s">
-        <v>534</v>
-      </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>536</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U91" t="s">
         <v>537</v>
-      </c>
-      <c r="U91" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C92" t="s">
         <v>539</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>540</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>541</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>542</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>543</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>544</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>545</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>546</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>547</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>548</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>549</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>550</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>551</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>553</v>
+      </c>
+      <c r="R92" t="s">
         <v>552</v>
       </c>
-      <c r="P92" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q92" t="s">
+      <c r="S92" t="s">
         <v>554</v>
       </c>
-      <c r="R92" t="s">
-        <v>553</v>
-      </c>
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>555</v>
       </c>
-      <c r="T92" t="s">
+      <c r="U92" t="s">
         <v>556</v>
-      </c>
-      <c r="U92" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C93" t="s">
         <v>558</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>559</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>560</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>561</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>562</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>563</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>564</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>565</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>566</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>567</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>568</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>569</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>570</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>571</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" t="s">
+        <v>573</v>
+      </c>
+      <c r="R93" t="s">
         <v>572</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="S93" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="R93" t="s">
-        <v>573</v>
-      </c>
-      <c r="S93" s="22" t="s">
+      <c r="T93" t="s">
         <v>575</v>
       </c>
-      <c r="T93" t="s">
+      <c r="U93" t="s">
         <v>576</v>
-      </c>
-      <c r="U93" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C94" t="s">
         <v>578</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>579</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>580</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>581</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>582</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>583</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>584</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>585</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>586</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>587</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>588</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>589</v>
       </c>
-      <c r="N94" t="s">
+      <c r="P94" t="s">
         <v>590</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Q94" t="s">
+        <v>592</v>
+      </c>
+      <c r="R94" t="s">
         <v>591</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="U94" t="s">
         <v>593</v>
-      </c>
-      <c r="R94" t="s">
-        <v>592</v>
-      </c>
-      <c r="U94" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C95" t="s">
         <v>595</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>596</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>597</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>598</v>
       </c>
-      <c r="F95" t="s">
+      <c r="H95" t="s">
         <v>599</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>600</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>601</v>
       </c>
-      <c r="J95" t="s">
+      <c r="L95" t="s">
         <v>602</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>603</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>604</v>
       </c>
-      <c r="N95" t="s">
+      <c r="Q95" t="s">
         <v>605</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="U95" t="s">
         <v>606</v>
-      </c>
-      <c r="U95" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C96" t="s">
         <v>608</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E96" t="s">
         <v>609</v>
       </c>
-      <c r="E96" t="s">
+      <c r="H96" t="s">
         <v>610</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>611</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>612</v>
       </c>
-      <c r="J96" t="s">
+      <c r="M96" t="s">
         <v>613</v>
       </c>
-      <c r="M96" t="s">
+      <c r="Q96" t="s">
         <v>614</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E97" t="s">
         <v>616</v>
       </c>
-      <c r="E97" t="s">
+      <c r="H97" t="s">
         <v>617</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>618</v>
       </c>
-      <c r="I97" t="s">
+      <c r="Q97" t="s">
         <v>619</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E98" t="s">
         <v>621</v>
       </c>
-      <c r="E98" t="s">
+      <c r="I98" t="s">
         <v>622</v>
-      </c>
-      <c r="I98" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E99" t="s">
         <v>624</v>
       </c>
-      <c r="E99" t="s">
-        <v>625</v>
-      </c>
       <c r="I99" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J99" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="S100" t="s">
         <v>626</v>
-      </c>
-      <c r="S100" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="S101" t="s">
         <v>628</v>
-      </c>
-      <c r="S101" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="S102" t="s">
         <v>630</v>
-      </c>
-      <c r="S102" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B103" t="s">
         <v>632</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>632</v>
+      </c>
+      <c r="D103" t="s">
+        <v>632</v>
+      </c>
+      <c r="E103" t="s">
+        <v>632</v>
+      </c>
+      <c r="F103" t="s">
+        <v>632</v>
+      </c>
+      <c r="G103" t="s">
+        <v>632</v>
+      </c>
+      <c r="I103" t="s">
+        <v>632</v>
+      </c>
+      <c r="J103" t="s">
+        <v>632</v>
+      </c>
+      <c r="K103" t="s">
+        <v>632</v>
+      </c>
+      <c r="N103" t="s">
         <v>633</v>
       </c>
-      <c r="C103" t="s">
-        <v>633</v>
-      </c>
-      <c r="D103" t="s">
-        <v>633</v>
-      </c>
-      <c r="E103" t="s">
-        <v>633</v>
-      </c>
-      <c r="F103" t="s">
-        <v>633</v>
-      </c>
-      <c r="G103" t="s">
-        <v>633</v>
-      </c>
-      <c r="I103" t="s">
-        <v>633</v>
-      </c>
-      <c r="J103" t="s">
-        <v>633</v>
-      </c>
-      <c r="K103" t="s">
-        <v>633</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="S103" t="s">
         <v>634</v>
       </c>
-      <c r="S103" t="s">
-        <v>635</v>
-      </c>
       <c r="T103" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="U103" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="B104" t="s">
         <v>636</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>636</v>
+      </c>
+      <c r="D104" t="s">
+        <v>636</v>
+      </c>
+      <c r="E104" t="s">
+        <v>636</v>
+      </c>
+      <c r="F104" t="s">
+        <v>636</v>
+      </c>
+      <c r="G104" t="s">
+        <v>636</v>
+      </c>
+      <c r="H104" t="s">
+        <v>636</v>
+      </c>
+      <c r="I104" t="s">
+        <v>636</v>
+      </c>
+      <c r="J104" t="s">
+        <v>636</v>
+      </c>
+      <c r="K104" t="s">
+        <v>636</v>
+      </c>
+      <c r="L104" t="s">
+        <v>636</v>
+      </c>
+      <c r="R104" t="s">
+        <v>636</v>
+      </c>
+      <c r="S104" t="s">
         <v>637</v>
       </c>
-      <c r="C104" t="s">
-        <v>637</v>
-      </c>
-      <c r="D104" t="s">
-        <v>637</v>
-      </c>
-      <c r="E104" t="s">
-        <v>637</v>
-      </c>
-      <c r="F104" t="s">
-        <v>637</v>
-      </c>
-      <c r="G104" t="s">
-        <v>637</v>
-      </c>
-      <c r="H104" t="s">
-        <v>637</v>
-      </c>
-      <c r="I104" t="s">
-        <v>637</v>
-      </c>
-      <c r="J104" t="s">
-        <v>637</v>
-      </c>
-      <c r="K104" t="s">
-        <v>637</v>
-      </c>
-      <c r="L104" t="s">
-        <v>637</v>
-      </c>
-      <c r="R104" t="s">
-        <v>637</v>
-      </c>
-      <c r="S104" t="s">
-        <v>638</v>
-      </c>
       <c r="T104" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="U104" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="W104" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B105" t="s">
         <v>639</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>639</v>
+      </c>
+      <c r="D105" t="s">
+        <v>639</v>
+      </c>
+      <c r="E105" t="s">
+        <v>639</v>
+      </c>
+      <c r="F105" t="s">
+        <v>639</v>
+      </c>
+      <c r="G105" t="s">
+        <v>639</v>
+      </c>
+      <c r="H105" t="s">
+        <v>639</v>
+      </c>
+      <c r="I105" t="s">
+        <v>639</v>
+      </c>
+      <c r="J105" t="s">
+        <v>639</v>
+      </c>
+      <c r="K105" t="s">
+        <v>639</v>
+      </c>
+      <c r="L105" t="s">
+        <v>639</v>
+      </c>
+      <c r="R105" t="s">
+        <v>639</v>
+      </c>
+      <c r="S105" t="s">
         <v>640</v>
       </c>
-      <c r="C105" t="s">
-        <v>640</v>
-      </c>
-      <c r="D105" t="s">
-        <v>640</v>
-      </c>
-      <c r="E105" t="s">
-        <v>640</v>
-      </c>
-      <c r="F105" t="s">
-        <v>640</v>
-      </c>
-      <c r="G105" t="s">
-        <v>640</v>
-      </c>
-      <c r="H105" t="s">
-        <v>640</v>
-      </c>
-      <c r="I105" t="s">
-        <v>640</v>
-      </c>
-      <c r="J105" t="s">
-        <v>640</v>
-      </c>
-      <c r="K105" t="s">
-        <v>640</v>
-      </c>
-      <c r="L105" t="s">
-        <v>640</v>
-      </c>
-      <c r="R105" t="s">
-        <v>640</v>
-      </c>
-      <c r="S105" t="s">
-        <v>641</v>
-      </c>
       <c r="T105" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="U105" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W105" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B106" t="s">
         <v>642</v>
       </c>
-      <c r="B106" t="s">
-        <v>643</v>
-      </c>
       <c r="C106" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D106" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E106" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F106" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T106" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U106" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="W106" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B107" t="s">
         <v>644</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>644</v>
+      </c>
+      <c r="E107" t="s">
+        <v>644</v>
+      </c>
+      <c r="F107" t="s">
+        <v>644</v>
+      </c>
+      <c r="L107" t="s">
+        <v>644</v>
+      </c>
+      <c r="S107" t="s">
         <v>645</v>
       </c>
-      <c r="C107" t="s">
-        <v>645</v>
-      </c>
-      <c r="E107" t="s">
-        <v>645</v>
-      </c>
-      <c r="F107" t="s">
-        <v>645</v>
-      </c>
-      <c r="L107" t="s">
-        <v>645</v>
-      </c>
-      <c r="S107" t="s">
-        <v>646</v>
-      </c>
       <c r="T107" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="U107" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="W107" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="D108" t="s">
         <v>647</v>
       </c>
-      <c r="D108" t="s">
+      <c r="H108" t="s">
         <v>648</v>
       </c>
-      <c r="H108" t="s">
+      <c r="K108" t="s">
         <v>649</v>
-      </c>
-      <c r="K108" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="S109" t="s">
         <v>651</v>
       </c>
-      <c r="S109" t="s">
+      <c r="T109" t="s">
         <v>652</v>
       </c>
-      <c r="T109" t="s">
+      <c r="U109" t="s">
         <v>653</v>
-      </c>
-      <c r="U109" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="S110" t="s">
         <v>655</v>
       </c>
-      <c r="S110" t="s">
+      <c r="T110" t="s">
         <v>656</v>
       </c>
-      <c r="T110" t="s">
+      <c r="U110" t="s">
         <v>657</v>
-      </c>
-      <c r="U110" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="S111" t="s">
         <v>659</v>
       </c>
-      <c r="S111" t="s">
+      <c r="T111" t="s">
         <v>660</v>
       </c>
-      <c r="T111" t="s">
+      <c r="U111" t="s">
         <v>661</v>
-      </c>
-      <c r="U111" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="U112" t="s">
         <v>663</v>
-      </c>
-      <c r="U112" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="S113" t="s">
         <v>665</v>
-      </c>
-      <c r="S113" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="S114" t="s">
         <v>667</v>
       </c>
-      <c r="S114" t="s">
+      <c r="T114" s="23" t="s">
         <v>668</v>
       </c>
-      <c r="T114" s="23" t="s">
+      <c r="U114" t="s">
         <v>669</v>
-      </c>
-      <c r="U114" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="S115" t="s">
         <v>671</v>
-      </c>
-      <c r="S115" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="U116" t="s">
         <v>673</v>
-      </c>
-      <c r="U116" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B117" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C117" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D117" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E117" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F117" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="G117" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="H117" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="I117" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="K117" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="L117" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="M117" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="P117" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="Q117" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="S117" t="s">
+        <v>709</v>
+      </c>
+      <c r="T117" t="s">
         <v>710</v>
       </c>
-      <c r="T117" t="s">
+      <c r="U117" t="s">
         <v>711</v>
-      </c>
-      <c r="U117" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B118" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C118" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D118" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E118" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F118" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G118" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H118" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I118" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="K118" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="L118" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="M118" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="P118" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="Q118" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="S118" t="s">
+        <v>705</v>
+      </c>
+      <c r="T118" t="s">
         <v>706</v>
       </c>
-      <c r="T118" t="s">
+      <c r="U118" t="s">
         <v>707</v>
-      </c>
-      <c r="U118" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="D119" t="s">
+        <v>763</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="I119" t="s">
+        <v>761</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="O119" t="s">
+        <v>757</v>
+      </c>
+      <c r="P119" t="s">
         <v>758</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="D119" t="s">
-        <v>765</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="I119" t="s">
-        <v>763</v>
-      </c>
-      <c r="L119" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="N119" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="O119" t="s">
-        <v>759</v>
-      </c>
-      <c r="P119" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B120" t="s">
         <v>675</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>676</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>677</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>678</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>679</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>680</v>
       </c>
-      <c r="G120" t="s">
+      <c r="I120" t="s">
         <v>681</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>682</v>
       </c>
-      <c r="J120" t="s">
+      <c r="K120" s="24" t="s">
         <v>683</v>
       </c>
-      <c r="K120" s="24" t="s">
+      <c r="L120" t="s">
+        <v>773</v>
+      </c>
+      <c r="M120" t="s">
+        <v>777</v>
+      </c>
+      <c r="N120" t="s">
+        <v>787</v>
+      </c>
+      <c r="O120" t="s">
+        <v>769</v>
+      </c>
+      <c r="P120" t="s">
+        <v>775</v>
+      </c>
+      <c r="S120" t="s">
         <v>684</v>
       </c>
-      <c r="L120" t="s">
-        <v>775</v>
-      </c>
-      <c r="M120" t="s">
-        <v>779</v>
-      </c>
-      <c r="N120" t="s">
-        <v>790</v>
-      </c>
-      <c r="O120" t="s">
-        <v>771</v>
-      </c>
-      <c r="P120" t="s">
-        <v>777</v>
-      </c>
-      <c r="S120" t="s">
+      <c r="T120" t="s">
         <v>685</v>
       </c>
-      <c r="T120" t="s">
+      <c r="U120" t="s">
         <v>686</v>
-      </c>
-      <c r="U120" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C121" t="s">
         <v>688</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>768</v>
+      </c>
+      <c r="E121" t="s">
         <v>689</v>
       </c>
-      <c r="D121" t="s">
-        <v>770</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="G121" t="s">
         <v>690</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>691</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>692</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>693</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>694</v>
       </c>
-      <c r="K121" t="s">
+      <c r="N121" t="s">
         <v>695</v>
       </c>
-      <c r="N121" t="s">
+      <c r="O121" t="s">
         <v>696</v>
       </c>
-      <c r="O121" t="s">
+      <c r="P121" t="s">
+        <v>774</v>
+      </c>
+      <c r="R121" t="s">
         <v>697</v>
       </c>
-      <c r="P121" t="s">
-        <v>776</v>
-      </c>
-      <c r="R121" t="s">
+      <c r="T121" t="s">
         <v>698</v>
-      </c>
-      <c r="T121" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="S122" t="s">
         <v>700</v>
-      </c>
-      <c r="S122" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B123">
         <v>7</v>
@@ -9259,7 +9262,7 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B124">
         <v>6300</v>
@@ -9291,7 +9294,7 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B125">
         <v>6500</v>
@@ -9353,35 +9356,35 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="S126" t="s">
         <v>705</v>
       </c>
-      <c r="S126" t="s">
+      <c r="T126" t="s">
         <v>706</v>
       </c>
-      <c r="T126" t="s">
+      <c r="U126" t="s">
         <v>707</v>
-      </c>
-      <c r="U126" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="S127" t="s">
         <v>709</v>
       </c>
-      <c r="S127" t="s">
+      <c r="T127" t="s">
         <v>710</v>
       </c>
-      <c r="T127" t="s">
+      <c r="U127" t="s">
         <v>711</v>
-      </c>
-      <c r="U127" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B129" t="s">
         <v>28</v>
@@ -9416,7 +9419,7 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B130" t="s">
         <v>28</v>
@@ -9433,145 +9436,145 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="E131" t="s">
+        <v>822</v>
+      </c>
+      <c r="I131" t="s">
         <v>715</v>
       </c>
-      <c r="E131" t="s">
-        <v>825</v>
-      </c>
-      <c r="I131" t="s">
-        <v>716</v>
-      </c>
       <c r="J131" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L131" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="M131" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="N131" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="O131" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="P131" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="Q131" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="R131" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H132" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="N132" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="O132" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B133" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J133" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J135" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M135" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="N135" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O135" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P135" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R135" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="N136" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O136" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P136" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R136" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J137" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N137" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O137" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P137" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R137" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J139" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B140" t="s">
         <v>44</v>
@@ -9603,7 +9606,7 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B141" t="s">
         <v>44</v>
@@ -9632,309 +9635,306 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J142" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R142" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J144" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N144" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O144" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P144" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R144" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N145" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O145" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P145" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R145" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J148" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J149" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N149" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O149" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P149" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J150" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J151" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J152" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N152" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O152" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P152" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="N154" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="O154" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P154" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J156" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N156" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O156" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P156" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R156" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N157" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O157" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P157" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R157" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I158" t="s">
         <v>44</v>
       </c>
       <c r="J158" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K158" t="s">
         <v>44</v>
       </c>
       <c r="N158" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O158" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P158" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R158" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N159" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O159" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P159" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R159" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H163" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="O164" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I166" s="1"/>
       <c r="K166" s="1"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B167" t="s">
-        <v>735</v>
-      </c>
-      <c r="N167" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I168" s="1"/>
       <c r="J168" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D170" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.35">

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="844">
   <si>
     <t>Country</t>
   </si>
@@ -2378,9 +2378,6 @@
     <t>annual, pre-tax</t>
   </si>
   <si>
-    <t>~ review</t>
-  </si>
-  <si>
     <t>monthly</t>
   </si>
   <si>
@@ -2489,9 +2486,6 @@
     <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_9pr4LdbFZ8DjyB0</t>
   </si>
   <si>
-    <t>~ ready, wait September</t>
-  </si>
-  <si>
     <t>a (test?)</t>
   </si>
   <si>
@@ -2543,9 +2537,6 @@
     <t>2, Sydney - Melbourne, 900km</t>
   </si>
   <si>
-    <t>~ Anton</t>
-  </si>
-  <si>
     <t>~ test, video FR</t>
   </si>
   <si>
@@ -2559,6 +2550,12 @@
   </si>
   <si>
     <t>~ Herwita</t>
+  </si>
+  <si>
+    <t>~ Marco</t>
+  </si>
+  <si>
+    <t>~ OECD?</t>
   </si>
 </sst>
 </file>
@@ -2995,7 +2992,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3180,7 +3177,7 @@
         <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>28</v>
@@ -3192,13 +3189,13 @@
         <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>784</v>
+        <v>838</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>784</v>
+        <v>843</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>28</v>
@@ -3255,7 +3252,7 @@
         <v>776</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>839</v>
+        <v>28</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>28</v>
@@ -3315,7 +3312,13 @@
         <v>28</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>28</v>
@@ -3394,7 +3397,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>821</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>35</v>
@@ -3403,20 +3406,20 @@
         <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>36</v>
@@ -4225,7 +4228,7 @@
       </c>
       <c r="L18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>783</v>
@@ -4347,7 +4350,7 @@
         <v>190</v>
       </c>
       <c r="N20" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O20" t="s">
         <v>192</v>
@@ -5452,7 +5455,7 @@
         <v>293</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>754</v>
@@ -7550,19 +7553,19 @@
         <v>781</v>
       </c>
       <c r="I71" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J71" s="16" t="s">
         <v>421</v>
       </c>
       <c r="K71" s="16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="L71" t="s">
         <v>780</v>
       </c>
       <c r="M71" s="16" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="N71" s="16" t="s">
         <v>422</v>
@@ -7574,7 +7577,7 @@
         <v>424</v>
       </c>
       <c r="Q71" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="R71" t="s">
         <v>425</v>
@@ -7609,38 +7612,38 @@
         <v>772</v>
       </c>
       <c r="C72" t="s">
+        <v>815</v>
+      </c>
+      <c r="D72" t="s">
         <v>816</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>814</v>
+      </c>
+      <c r="F72" t="s">
         <v>817</v>
       </c>
-      <c r="E72" t="s">
-        <v>815</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>818</v>
-      </c>
-      <c r="G72" t="s">
-        <v>819</v>
       </c>
       <c r="H72" t="s">
         <v>782</v>
       </c>
       <c r="I72" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J72" s="16"/>
       <c r="K72" t="s">
         <v>779</v>
       </c>
       <c r="L72" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
       <c r="Q72" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="20"/>
@@ -8987,46 +8990,46 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B117" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C117" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D117" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E117" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F117" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G117" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H117" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I117" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K117" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="L117" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M117" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P117" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="Q117" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S117" t="s">
         <v>709</v>
@@ -9040,46 +9043,46 @@
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B118" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C118" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D118" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E118" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F118" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G118" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H118" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I118" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K118" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="L118" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M118" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="P118" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="Q118" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="S118" t="s">
         <v>705</v>
@@ -9161,7 +9164,7 @@
         <v>777</v>
       </c>
       <c r="N120" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O120" t="s">
         <v>769</v>
@@ -9439,7 +9442,7 @@
         <v>714</v>
       </c>
       <c r="E131" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I131" t="s">
         <v>715</v>
@@ -9448,25 +9451,25 @@
         <v>715</v>
       </c>
       <c r="L131" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="M131" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="N131" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="O131" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="P131" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="Q131" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="R131" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.35">
@@ -9474,13 +9477,13 @@
         <v>716</v>
       </c>
       <c r="H132" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="N132" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="O132" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.35">
@@ -9507,7 +9510,7 @@
         <v>715</v>
       </c>
       <c r="M135" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="N135" t="s">
         <v>715</v>
@@ -9706,7 +9709,7 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J149" t="s">
         <v>715</v>
@@ -9764,13 +9767,13 @@
         <v>739</v>
       </c>
       <c r="N154" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="O154" t="s">
         <v>715</v>
       </c>
       <c r="P154" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.35">
@@ -9926,15 +9929,15 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D170" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.35">

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="843">
   <si>
     <t>Country</t>
   </si>
@@ -134,9 +134,6 @@
     <t>ready</t>
   </si>
   <si>
-    <t>~ test</t>
-  </si>
-  <si>
     <t>currency (LCU)</t>
   </si>
   <si>
@@ -2504,15 +2501,9 @@
     <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_9A1q4vyQCBUqnlk</t>
   </si>
   <si>
-    <t>~ quotas, test</t>
-  </si>
-  <si>
     <t>add pro-Russia vs. pro-EU question</t>
   </si>
   <si>
-    <t>https://lse.eu.qualtrics.com/jfe/form/SV_2shrz7xK2E8I4uy?Q_Language=HI</t>
-  </si>
-  <si>
     <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_2shrz7xK2E8I4uy</t>
   </si>
   <si>
@@ -2522,9 +2513,6 @@
     <t>14.2 Remove [Country] option or add a 5th</t>
   </si>
   <si>
-    <t>~ quotas région</t>
-  </si>
-  <si>
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_8AKIwJiwMxyQnyu</t>
   </si>
   <si>
@@ -2537,9 +2525,6 @@
     <t>2, Sydney - Melbourne, 900km</t>
   </si>
   <si>
-    <t>~ test, video FR</t>
-  </si>
-  <si>
     <t>~ OECD</t>
   </si>
   <si>
@@ -2556,6 +2541,18 @@
   </si>
   <si>
     <t>~ OECD?</t>
+  </si>
+  <si>
+    <t>EN: https://lse.eu.qualtrics.com/jfe/form/SV_2shrz7xK2E8I4uy?Q_Language=EN / HI: https://lse.eu.qualtrics.com/jfe/form/SV_2shrz7xK2E8I4uy?Q_Language=HI</t>
+  </si>
+  <si>
+    <t>~ test Ana</t>
+  </si>
+  <si>
+    <t>~ test Paula?</t>
+  </si>
+  <si>
+    <t>~ test Ana, video FR</t>
   </si>
 </sst>
 </file>
@@ -2992,7 +2989,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3177,7 +3174,7 @@
         <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>28</v>
@@ -3189,13 +3186,13 @@
         <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>843</v>
-      </c>
       <c r="P3" s="3" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>28</v>
@@ -3249,7 +3246,7 @@
         <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>28</v>
@@ -3312,10 +3309,10 @@
         <v>28</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>28</v>
@@ -3367,6 +3364,9 @@
       <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="M6" s="3" t="s">
         <v>28</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>841</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>35</v>
@@ -3403,26 +3403,26 @@
         <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>840</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>36</v>
+        <v>840</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -3436,72 +3436,72 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>43</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>44</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" t="s">
         <v>45</v>
       </c>
-      <c r="M8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>46</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>47</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" t="s">
         <v>49</v>
       </c>
-      <c r="S8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" t="s">
-        <v>50</v>
-      </c>
       <c r="U8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>0.85</v>
@@ -3584,422 +3584,422 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>80</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
         <v>81</v>
       </c>
-      <c r="F11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>82</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>83</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>84</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>85</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>86</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>87</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>88</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>89</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>90</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" t="s">
         <v>91</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>93</v>
       </c>
-      <c r="R11" t="s">
-        <v>92</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>94</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>95</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>96</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>97</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>98</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>99</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>100</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>101</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
         <v>103</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>117</v>
+      </c>
+      <c r="R12" t="s">
+        <v>116</v>
+      </c>
+      <c r="S12" t="s">
+        <v>118</v>
+      </c>
+      <c r="T12" t="s">
+        <v>119</v>
+      </c>
+      <c r="U12" t="s">
+        <v>115</v>
+      </c>
+      <c r="V12" t="s">
+        <v>120</v>
+      </c>
+      <c r="W12" t="s">
         <v>80</v>
       </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M12" t="s">
-        <v>114</v>
-      </c>
-      <c r="N12" t="s">
-        <v>115</v>
-      </c>
-      <c r="O12" t="s">
-        <v>116</v>
-      </c>
-      <c r="P12" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>118</v>
-      </c>
-      <c r="R12" t="s">
-        <v>117</v>
-      </c>
-      <c r="S12" t="s">
-        <v>119</v>
-      </c>
-      <c r="T12" t="s">
-        <v>120</v>
-      </c>
-      <c r="U12" t="s">
-        <v>116</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>121</v>
       </c>
-      <c r="W12" t="s">
-        <v>81</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>122</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>123</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>124</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
         <v>126</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
         <v>127</v>
       </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>128</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
         <v>129</v>
       </c>
-      <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>130</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>131</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>132</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="s">
         <v>133</v>
       </c>
-      <c r="K13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" t="s">
         <v>134</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
+        <v>135</v>
+      </c>
+      <c r="R13" t="s">
         <v>129</v>
       </c>
-      <c r="O13" t="s">
-        <v>127</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="S13" t="s">
+        <v>136</v>
+      </c>
+      <c r="T13" t="s">
+        <v>94</v>
+      </c>
+      <c r="U13" t="s">
         <v>135</v>
       </c>
-      <c r="Q13" t="s">
-        <v>136</v>
-      </c>
-      <c r="R13" t="s">
-        <v>130</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
+        <v>132</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y13" t="s">
         <v>137</v>
       </c>
-      <c r="T13" t="s">
-        <v>95</v>
-      </c>
-      <c r="U13" t="s">
-        <v>136</v>
-      </c>
-      <c r="V13" t="s">
-        <v>133</v>
-      </c>
-      <c r="W13" t="s">
-        <v>136</v>
-      </c>
-      <c r="X13" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>138</v>
-      </c>
       <c r="Z13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
         <v>139</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>127</v>
+      </c>
+      <c r="R14" t="s">
+        <v>121</v>
+      </c>
+      <c r="S14" t="s">
+        <v>144</v>
+      </c>
+      <c r="T14" t="s">
+        <v>119</v>
+      </c>
+      <c r="U14" t="s">
+        <v>143</v>
+      </c>
+      <c r="V14" t="s">
+        <v>132</v>
+      </c>
+      <c r="W14" t="s">
         <v>128</v>
       </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J14" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" t="s">
-        <v>86</v>
-      </c>
-      <c r="N14" t="s">
-        <v>140</v>
-      </c>
-      <c r="O14" t="s">
-        <v>144</v>
-      </c>
-      <c r="P14" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>128</v>
-      </c>
-      <c r="R14" t="s">
-        <v>122</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="X14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y14" t="s">
         <v>145</v>
       </c>
-      <c r="T14" t="s">
-        <v>120</v>
-      </c>
-      <c r="U14" t="s">
-        <v>144</v>
-      </c>
-      <c r="V14" t="s">
-        <v>133</v>
-      </c>
-      <c r="W14" t="s">
-        <v>129</v>
-      </c>
-      <c r="X14" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>146</v>
-      </c>
       <c r="Z14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15">
         <v>16942</v>
@@ -4053,10 +4053,10 @@
         <v>12628</v>
       </c>
       <c r="S15" t="s">
+        <v>147</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="U15">
         <v>16754</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16">
         <v>23515</v>
@@ -4118,10 +4118,10 @@
         <v>24084</v>
       </c>
       <c r="S16" t="s">
+        <v>150</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="U16">
         <v>22562</v>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17">
         <v>31800</v>
@@ -4183,10 +4183,10 @@
         <v>42755</v>
       </c>
       <c r="S17" t="s">
+        <v>153</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="U17">
         <v>29932</v>
@@ -4194,116 +4194,116 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="L18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="P18" s="1"/>
       <c r="S18" t="s">
+        <v>165</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" t="s">
         <v>167</v>
-      </c>
-      <c r="U18" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>2700</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="K19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" t="s">
+        <v>170</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
         <v>178</v>
       </c>
-      <c r="M19" t="s">
-        <v>171</v>
-      </c>
-      <c r="N19" t="s">
-        <v>171</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>179</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
+        <v>181</v>
+      </c>
+      <c r="R19" t="s">
         <v>180</v>
       </c>
-      <c r="Q19" t="s">
-        <v>182</v>
-      </c>
-      <c r="R19" t="s">
-        <v>181</v>
-      </c>
       <c r="S19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="U19" s="1">
         <v>1400</v>
@@ -4311,64 +4311,64 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H20" s="7">
         <v>4900</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" t="s">
         <v>189</v>
       </c>
-      <c r="M20" t="s">
-        <v>190</v>
-      </c>
       <c r="N20" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O20" t="s">
+        <v>191</v>
+      </c>
+      <c r="P20" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>218</v>
+      </c>
+      <c r="R20" t="s">
         <v>192</v>
       </c>
-      <c r="P20" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>219</v>
-      </c>
-      <c r="R20" t="s">
-        <v>193</v>
-      </c>
       <c r="S20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="U20" s="1">
         <v>1900</v>
@@ -4376,64 +4376,64 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="H21" s="7">
         <v>8150</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" t="s">
         <v>201</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
         <v>202</v>
       </c>
-      <c r="N21" t="s">
-        <v>178</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>203</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
+        <v>205</v>
+      </c>
+      <c r="R21" t="s">
         <v>204</v>
       </c>
-      <c r="Q21" t="s">
-        <v>206</v>
-      </c>
-      <c r="R21" t="s">
-        <v>205</v>
-      </c>
       <c r="S21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="U21" s="1">
         <v>2500</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22">
         <v>0.25</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23">
         <v>0.25</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24">
         <v>0.25</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25">
         <v>0.25</v>
@@ -4701,311 +4701,311 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" t="s">
         <v>211</v>
       </c>
-      <c r="B26" t="s">
-        <v>212</v>
-      </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M27" t="s">
+        <v>139</v>
+      </c>
+      <c r="N27" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F27" t="s">
-        <v>216</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="O27" t="s">
+        <v>219</v>
+      </c>
+      <c r="P27" t="s">
         <v>105</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="Q27" t="s">
+        <v>127</v>
+      </c>
+      <c r="R27" t="s">
         <v>218</v>
       </c>
-      <c r="K27" t="s">
-        <v>219</v>
-      </c>
-      <c r="L27" t="s">
-        <v>128</v>
-      </c>
-      <c r="M27" t="s">
-        <v>140</v>
-      </c>
-      <c r="N27" t="s">
-        <v>106</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="S27" t="s">
         <v>220</v>
       </c>
-      <c r="P27" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>128</v>
-      </c>
-      <c r="R27" t="s">
-        <v>219</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="T27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="U27" t="s">
         <v>221</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="U27" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="F28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" t="s">
+        <v>225</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" t="s">
+        <v>128</v>
+      </c>
+      <c r="N28" t="s">
+        <v>127</v>
+      </c>
+      <c r="O28" t="s">
+        <v>228</v>
+      </c>
+      <c r="P28" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>112</v>
+      </c>
+      <c r="R28" t="s">
+        <v>229</v>
+      </c>
+      <c r="S28" t="s">
+        <v>153</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="U28" t="s">
         <v>225</v>
-      </c>
-      <c r="H28" t="s">
-        <v>226</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="K28" t="s">
-        <v>228</v>
-      </c>
-      <c r="L28" t="s">
-        <v>113</v>
-      </c>
-      <c r="M28" t="s">
-        <v>129</v>
-      </c>
-      <c r="N28" t="s">
-        <v>128</v>
-      </c>
-      <c r="O28" t="s">
-        <v>229</v>
-      </c>
-      <c r="P28" t="s">
-        <v>751</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>113</v>
-      </c>
-      <c r="R28" t="s">
-        <v>230</v>
-      </c>
-      <c r="S28" t="s">
-        <v>154</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="U28" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" t="s">
         <v>231</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F29" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" t="s">
         <v>233</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J29" s="9" t="s">
+      <c r="K29" t="s">
+        <v>135</v>
+      </c>
+      <c r="L29" t="s">
+        <v>132</v>
+      </c>
+      <c r="M29" t="s">
+        <v>133</v>
+      </c>
+      <c r="N29" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" t="s">
         <v>235</v>
       </c>
-      <c r="K29" t="s">
-        <v>136</v>
-      </c>
-      <c r="L29" t="s">
-        <v>133</v>
-      </c>
-      <c r="M29" t="s">
-        <v>134</v>
-      </c>
-      <c r="N29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>126</v>
+      </c>
+      <c r="R29" t="s">
+        <v>127</v>
+      </c>
+      <c r="S29" t="s">
+        <v>233</v>
+      </c>
+      <c r="T29" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="P29" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>127</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="U29" t="s">
         <v>128</v>
-      </c>
-      <c r="S29" t="s">
-        <v>234</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="U29" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" t="s">
         <v>238</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" t="s">
         <v>242</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="S30" t="s">
         <v>246</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>247</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>248</v>
-      </c>
-      <c r="U30" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T31">
         <v>200</v>
@@ -5013,663 +5013,663 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" t="s">
         <v>251</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" t="s">
+        <v>251</v>
+      </c>
+      <c r="G32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" t="s">
+        <v>251</v>
+      </c>
+      <c r="I32" t="s">
+        <v>251</v>
+      </c>
+      <c r="J32" t="s">
+        <v>251</v>
+      </c>
+      <c r="K32" t="s">
+        <v>251</v>
+      </c>
+      <c r="L32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" t="s">
+        <v>251</v>
+      </c>
+      <c r="N32" t="s">
+        <v>251</v>
+      </c>
+      <c r="O32" t="s">
+        <v>251</v>
+      </c>
+      <c r="P32" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>251</v>
+      </c>
+      <c r="R32" t="s">
+        <v>251</v>
+      </c>
+      <c r="S32" t="s">
+        <v>251</v>
+      </c>
+      <c r="T32" t="s">
         <v>252</v>
       </c>
-      <c r="C32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D32" t="s">
-        <v>252</v>
-      </c>
-      <c r="E32" t="s">
-        <v>252</v>
-      </c>
-      <c r="F32" t="s">
-        <v>252</v>
-      </c>
-      <c r="G32" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" t="s">
-        <v>252</v>
-      </c>
-      <c r="I32" t="s">
-        <v>252</v>
-      </c>
-      <c r="J32" t="s">
-        <v>252</v>
-      </c>
-      <c r="K32" t="s">
-        <v>252</v>
-      </c>
-      <c r="L32" t="s">
-        <v>252</v>
-      </c>
-      <c r="M32" t="s">
-        <v>252</v>
-      </c>
-      <c r="N32" t="s">
-        <v>252</v>
-      </c>
-      <c r="O32" t="s">
-        <v>252</v>
-      </c>
-      <c r="P32" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>252</v>
-      </c>
-      <c r="R32" t="s">
-        <v>252</v>
-      </c>
-      <c r="S32" t="s">
-        <v>252</v>
-      </c>
-      <c r="T32" t="s">
-        <v>253</v>
-      </c>
       <c r="U32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" t="s">
         <v>257</v>
       </c>
-      <c r="B36" t="s">
-        <v>237</v>
-      </c>
-      <c r="C36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" t="s">
-        <v>237</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" t="s">
+        <v>236</v>
+      </c>
+      <c r="I36" t="s">
+        <v>236</v>
+      </c>
+      <c r="J36" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" t="s">
+        <v>236</v>
+      </c>
+      <c r="L36" t="s">
+        <v>236</v>
+      </c>
+      <c r="M36" t="s">
+        <v>144</v>
+      </c>
+      <c r="N36" t="s">
+        <v>126</v>
+      </c>
+      <c r="O36" t="s">
+        <v>236</v>
+      </c>
+      <c r="P36" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>236</v>
+      </c>
+      <c r="R36" t="s">
+        <v>236</v>
+      </c>
+      <c r="S36" t="s">
+        <v>236</v>
+      </c>
+      <c r="T36" t="s">
+        <v>132</v>
+      </c>
+      <c r="U36" t="s">
         <v>258</v>
-      </c>
-      <c r="G36" t="s">
-        <v>237</v>
-      </c>
-      <c r="H36" t="s">
-        <v>237</v>
-      </c>
-      <c r="I36" t="s">
-        <v>237</v>
-      </c>
-      <c r="J36" t="s">
-        <v>237</v>
-      </c>
-      <c r="K36" t="s">
-        <v>237</v>
-      </c>
-      <c r="L36" t="s">
-        <v>237</v>
-      </c>
-      <c r="M36" t="s">
-        <v>145</v>
-      </c>
-      <c r="N36" t="s">
-        <v>127</v>
-      </c>
-      <c r="O36" t="s">
-        <v>237</v>
-      </c>
-      <c r="P36" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>237</v>
-      </c>
-      <c r="R36" t="s">
-        <v>237</v>
-      </c>
-      <c r="S36" t="s">
-        <v>237</v>
-      </c>
-      <c r="T36" t="s">
-        <v>133</v>
-      </c>
-      <c r="U36" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="S37" t="s">
         <v>260</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>261</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>262</v>
-      </c>
-      <c r="U37" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="S38" t="s">
         <v>264</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>265</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>266</v>
-      </c>
-      <c r="U38" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="S39" t="s">
         <v>268</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="U39" t="s">
         <v>270</v>
-      </c>
-      <c r="U39" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="S40" t="s">
         <v>272</v>
-      </c>
-      <c r="S40" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="S41" t="s">
         <v>274</v>
-      </c>
-      <c r="S41" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="S42" t="s">
         <v>276</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>277</v>
-      </c>
-      <c r="T42" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="S43" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="S43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" t="s">
+        <v>297</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E44" t="s">
+        <v>297</v>
+      </c>
+      <c r="F44" t="s">
+        <v>297</v>
+      </c>
+      <c r="G44" t="s">
+        <v>297</v>
+      </c>
+      <c r="H44" t="s">
+        <v>297</v>
+      </c>
+      <c r="I44" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" t="s">
+        <v>297</v>
+      </c>
+      <c r="K44" t="s">
         <v>298</v>
       </c>
-      <c r="C44" t="s">
+      <c r="L44" t="s">
         <v>298</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="M44" t="s">
         <v>298</v>
       </c>
-      <c r="E44" t="s">
+      <c r="N44" t="s">
+        <v>297</v>
+      </c>
+      <c r="O44" t="s">
+        <v>297</v>
+      </c>
+      <c r="P44" t="s">
         <v>298</v>
       </c>
-      <c r="F44" t="s">
+      <c r="Q44" t="s">
         <v>298</v>
       </c>
-      <c r="G44" t="s">
+      <c r="R44" t="s">
         <v>298</v>
       </c>
-      <c r="H44" t="s">
-        <v>298</v>
-      </c>
-      <c r="I44" t="s">
-        <v>298</v>
-      </c>
-      <c r="J44" t="s">
-        <v>298</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="S44" t="s">
         <v>299</v>
       </c>
-      <c r="L44" t="s">
-        <v>299</v>
-      </c>
-      <c r="M44" t="s">
-        <v>299</v>
-      </c>
-      <c r="N44" t="s">
-        <v>298</v>
-      </c>
-      <c r="O44" t="s">
-        <v>298</v>
-      </c>
-      <c r="P44" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>299</v>
-      </c>
-      <c r="R44" t="s">
-        <v>299</v>
-      </c>
-      <c r="S44" t="s">
-        <v>300</v>
-      </c>
       <c r="T44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="R45" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="R45" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="S45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="U45" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="P46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="R46" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="R46" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="S46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="T46" s="1" t="s">
+      <c r="U46" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5703,10 +5703,10 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5717,79 +5717,79 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="Q49" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R49" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="S49" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B50" s="2">
         <v>100</v>
@@ -5816,7 +5816,7 @@
         <v>10000</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K50" s="2">
         <v>1000</v>
@@ -5831,7 +5831,7 @@
         <v>1000</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P50" s="12">
         <v>1000</v>
@@ -5858,7 +5858,7 @@
         <v>1000</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Y50" s="2">
         <v>10000</v>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B51" s="13">
         <f>$S$51*B9</f>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B52">
         <v>61</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B53" s="13">
         <f t="shared" ref="B53:F53" si="2">B52*B9</f>
@@ -6130,7 +6130,7 @@
         <v>93.24</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T53" s="13">
         <f>T52*T9</f>
@@ -6167,121 +6167,121 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I54" t="s">
         <v>363</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I54" t="s">
-        <v>364</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B55" t="s">
         <v>366</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>366</v>
+      </c>
+      <c r="D55" t="s">
+        <v>366</v>
+      </c>
+      <c r="E55" t="s">
+        <v>366</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C55" t="s">
-        <v>367</v>
-      </c>
-      <c r="D55" t="s">
-        <v>367</v>
-      </c>
-      <c r="E55" t="s">
-        <v>367</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" t="s">
         <v>369</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>370</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="L55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AA55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B57">
         <v>887</v>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B58" s="15">
         <f t="shared" ref="B58:AA58" si="5">B57/B62</f>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B59">
         <v>45</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B60" s="5">
         <v>796.529</v>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B61" s="5">
         <v>68527599.400000006</v>
@@ -6788,7 +6788,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B62" s="5">
         <v>84</v>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B63" s="18">
         <f t="shared" ref="B63:P63" si="6">2.5*B59/1000</f>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B64" s="16">
         <f t="shared" ref="B64:K64" si="8">B63*B9</f>
@@ -7089,7 +7089,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B65" s="5">
         <f t="shared" ref="B65:R65" si="11">0.8*0.8*B60*B59*1000000*B9/B61</f>
@@ -7198,452 +7198,452 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="C66" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K66" s="16" t="s">
         <v>385</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="K66" s="16" t="s">
-        <v>386</v>
       </c>
       <c r="S66" s="16">
         <v>100</v>
       </c>
       <c r="T66" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U66" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="M67" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="M67" s="16" t="s">
+      <c r="N67" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="O67" t="s">
+        <v>124</v>
+      </c>
+      <c r="P67" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q67" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="N67" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="O67" t="s">
-        <v>125</v>
-      </c>
-      <c r="P67" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q67" s="16" t="s">
+      <c r="R67" t="s">
+        <v>184</v>
+      </c>
+      <c r="S67" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="T67" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="R67" t="s">
-        <v>185</v>
-      </c>
-      <c r="S67" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="T67" s="16" t="s">
+      <c r="U67" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="V67" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="U67" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="V67" s="16" t="s">
-        <v>391</v>
-      </c>
       <c r="W67" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X67" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y67" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z67" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="C68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="O68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="P68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="R68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="S68" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="U68" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="V68" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="W68" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="X68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z68" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="E68" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M68" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="N68" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="O68" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q68" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="R68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="S68" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="T68" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="U68" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="V68" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="W68" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="X68" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y68" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="Z68" s="16" t="s">
-        <v>394</v>
-      </c>
       <c r="AA68" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="C69" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="D69" s="16" t="s">
+      <c r="E69" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="G69" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="E69" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="G69" s="16" t="s">
+      <c r="H69" s="16" t="s">
         <v>399</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>400</v>
       </c>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
       <c r="K69" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="M69" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N69" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="O69" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="M69" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="N69" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="O69" s="16" t="s">
+      <c r="P69" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q69" s="16" t="s">
         <v>402</v>
-      </c>
-      <c r="P69" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q69" s="16" t="s">
-        <v>403</v>
       </c>
       <c r="R69" s="16"/>
       <c r="S69" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T69" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U69" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="C70" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="E70" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="H70" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="E70" s="16" t="s">
+      <c r="I70" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="M70" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="N70" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="O70" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="P70" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q70" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="R70" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="F70" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="K70" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="L70" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="M70" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="N70" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="O70" s="16" t="s">
+      <c r="S70" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="P70" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q70" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="R70" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="S70" s="16" t="s">
-        <v>413</v>
-      </c>
       <c r="T70" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U70" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B71" t="s">
         <v>414</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>415</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>416</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>417</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>418</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>419</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
+        <v>780</v>
+      </c>
+      <c r="I71" t="s">
+        <v>839</v>
+      </c>
+      <c r="J71" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="H71" t="s">
-        <v>781</v>
-      </c>
-      <c r="I71" t="s">
-        <v>828</v>
-      </c>
-      <c r="J71" s="16" t="s">
+      <c r="K71" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="L71" t="s">
+        <v>779</v>
+      </c>
+      <c r="M71" s="16" t="s">
+        <v>835</v>
+      </c>
+      <c r="N71" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="K71" s="16" t="s">
-        <v>839</v>
-      </c>
-      <c r="L71" t="s">
-        <v>780</v>
-      </c>
-      <c r="M71" s="16" t="s">
-        <v>840</v>
-      </c>
-      <c r="N71" s="16" t="s">
+      <c r="O71" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="O71" s="16" t="s">
+      <c r="P71" t="s">
         <v>423</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
+        <v>823</v>
+      </c>
+      <c r="R71" t="s">
         <v>424</v>
       </c>
-      <c r="Q71" t="s">
-        <v>824</v>
-      </c>
-      <c r="R71" t="s">
+      <c r="S71" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="S71" s="16" t="s">
+      <c r="T71" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="T71" s="20" t="s">
+      <c r="U71" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="U71" s="16" t="s">
+      <c r="W71" t="s">
         <v>428</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>429</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>430</v>
       </c>
-      <c r="Y71" t="s">
-        <v>431</v>
-      </c>
       <c r="Z71" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B72" t="s">
         <v>771</v>
       </c>
-      <c r="B72" t="s">
-        <v>772</v>
-      </c>
       <c r="C72" t="s">
+        <v>814</v>
+      </c>
+      <c r="D72" t="s">
         <v>815</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>813</v>
+      </c>
+      <c r="F72" t="s">
         <v>816</v>
       </c>
-      <c r="E72" t="s">
-        <v>814</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>817</v>
       </c>
-      <c r="G72" t="s">
-        <v>818</v>
-      </c>
       <c r="H72" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I72" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="J72" s="16"/>
       <c r="K72" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L72" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
       <c r="Q72" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="20"/>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B73">
         <v>0.37862000000000001</v>
@@ -7705,7 +7705,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="S73" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="T73">
         <v>0.15443999999999999</v>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B74">
         <v>1.5</v>
@@ -7808,7 +7808,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B75">
         <v>1.804</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B76">
         <v>0.36799999999999999</v>
@@ -7914,7 +7914,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B77">
         <v>6.6000000000000003E-2</v>
@@ -7943,7 +7943,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B78">
         <v>0.90300000000000002</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D79">
         <f>240.49/D9</f>
@@ -7989,1254 +7989,1254 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B80" t="s">
         <v>440</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>440</v>
+      </c>
+      <c r="D80" t="s">
+        <v>440</v>
+      </c>
+      <c r="E80" t="s">
+        <v>440</v>
+      </c>
+      <c r="F80" t="s">
         <v>441</v>
       </c>
-      <c r="C80" t="s">
-        <v>441</v>
-      </c>
-      <c r="D80" t="s">
-        <v>441</v>
-      </c>
-      <c r="E80" t="s">
-        <v>441</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="G80" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I80" s="2" t="s">
+      <c r="J80" t="s">
         <v>444</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="M80" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="N80" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="O80" s="2" t="s">
+      <c r="P80" t="s">
         <v>449</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="R80" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="S80" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="S80" s="2" t="s">
+      <c r="T80" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="T80" s="2" t="s">
+      <c r="U80" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B81" t="s">
         <v>455</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>456</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>457</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>458</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
+        <v>455</v>
+      </c>
+      <c r="G81" t="s">
         <v>459</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
+        <v>460</v>
+      </c>
+      <c r="I81" t="s">
+        <v>461</v>
+      </c>
+      <c r="J81" t="s">
+        <v>462</v>
+      </c>
+      <c r="K81" t="s">
+        <v>463</v>
+      </c>
+      <c r="L81" t="s">
+        <v>464</v>
+      </c>
+      <c r="M81" t="s">
         <v>456</v>
       </c>
-      <c r="G81" t="s">
-        <v>460</v>
-      </c>
-      <c r="H81" t="s">
-        <v>461</v>
-      </c>
-      <c r="I81" t="s">
-        <v>462</v>
-      </c>
-      <c r="J81" t="s">
-        <v>463</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="N81" t="s">
+        <v>455</v>
+      </c>
+      <c r="O81" t="s">
+        <v>465</v>
+      </c>
+      <c r="P81" t="s">
         <v>464</v>
       </c>
-      <c r="L81" t="s">
-        <v>465</v>
-      </c>
-      <c r="M81" t="s">
-        <v>457</v>
-      </c>
-      <c r="N81" t="s">
-        <v>456</v>
-      </c>
-      <c r="O81" t="s">
+      <c r="Q81" t="s">
+        <v>458</v>
+      </c>
+      <c r="R81" t="s">
+        <v>464</v>
+      </c>
+      <c r="S81" t="s">
+        <v>765</v>
+      </c>
+      <c r="T81" t="s">
         <v>466</v>
       </c>
-      <c r="P81" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>459</v>
-      </c>
-      <c r="R81" t="s">
-        <v>465</v>
-      </c>
-      <c r="S81" t="s">
-        <v>766</v>
-      </c>
-      <c r="T81" t="s">
+      <c r="U81" t="s">
         <v>467</v>
-      </c>
-      <c r="U81" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="S82" t="s">
         <v>469</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>470</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>471</v>
-      </c>
-      <c r="U82" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="S83" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="S83" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B84" t="s">
         <v>475</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>475</v>
+      </c>
+      <c r="D84" t="s">
+        <v>475</v>
+      </c>
+      <c r="E84" t="s">
+        <v>475</v>
+      </c>
+      <c r="F84" t="s">
+        <v>475</v>
+      </c>
+      <c r="G84" t="s">
         <v>476</v>
       </c>
-      <c r="C84" t="s">
-        <v>476</v>
-      </c>
-      <c r="D84" t="s">
-        <v>476</v>
-      </c>
-      <c r="E84" t="s">
-        <v>476</v>
-      </c>
-      <c r="F84" t="s">
-        <v>476</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>477</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>478</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>479</v>
       </c>
-      <c r="J84" t="s">
+      <c r="S84" t="s">
         <v>480</v>
       </c>
-      <c r="S84" t="s">
-        <v>481</v>
-      </c>
       <c r="T84" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U84" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="S85" t="s">
         <v>483</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="T85" s="2" t="s">
+      <c r="U85" t="s">
         <v>485</v>
-      </c>
-      <c r="U85" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F86" t="s">
         <v>487</v>
       </c>
-      <c r="F86" t="s">
+      <c r="I86" t="s">
         <v>488</v>
       </c>
-      <c r="I86" t="s">
+      <c r="S86" t="s">
         <v>489</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="T86" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="U86" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="S87" t="s">
         <v>492</v>
-      </c>
-      <c r="S87" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="S88" s="21" t="s">
         <v>494</v>
-      </c>
-      <c r="S88" s="21" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="S89" t="s">
         <v>496</v>
-      </c>
-      <c r="S89" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C90" t="s">
         <v>498</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>499</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>500</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>501</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>502</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>503</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>504</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>505</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>506</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>507</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>508</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>509</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>510</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>511</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
+        <v>513</v>
+      </c>
+      <c r="R90" t="s">
         <v>512</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="S90" t="s">
         <v>514</v>
       </c>
-      <c r="R90" t="s">
-        <v>513</v>
-      </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>515</v>
       </c>
-      <c r="T90" t="s">
+      <c r="U90" t="s">
         <v>516</v>
-      </c>
-      <c r="U90" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C91" t="s">
         <v>518</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>519</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>520</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>521</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>522</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>523</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>524</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>525</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>526</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>527</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>528</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>529</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>530</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>531</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
+        <v>533</v>
+      </c>
+      <c r="R91" t="s">
         <v>532</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="S91" t="s">
         <v>534</v>
       </c>
-      <c r="R91" t="s">
-        <v>533</v>
-      </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>535</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U91" t="s">
         <v>536</v>
-      </c>
-      <c r="U91" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C92" t="s">
         <v>538</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>539</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>540</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>541</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>542</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>543</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>544</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>545</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>546</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>547</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>548</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>549</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>550</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>552</v>
+      </c>
+      <c r="R92" t="s">
         <v>551</v>
       </c>
-      <c r="P92" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q92" t="s">
+      <c r="S92" t="s">
         <v>553</v>
       </c>
-      <c r="R92" t="s">
-        <v>552</v>
-      </c>
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>554</v>
       </c>
-      <c r="T92" t="s">
+      <c r="U92" t="s">
         <v>555</v>
-      </c>
-      <c r="U92" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C93" t="s">
         <v>557</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>558</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>559</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>560</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>561</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>562</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>563</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>564</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>565</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>566</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>567</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>568</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>569</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>570</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" t="s">
+        <v>572</v>
+      </c>
+      <c r="R93" t="s">
         <v>571</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="S93" s="22" t="s">
         <v>573</v>
       </c>
-      <c r="R93" t="s">
-        <v>572</v>
-      </c>
-      <c r="S93" s="22" t="s">
+      <c r="T93" t="s">
         <v>574</v>
       </c>
-      <c r="T93" t="s">
+      <c r="U93" t="s">
         <v>575</v>
-      </c>
-      <c r="U93" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C94" t="s">
         <v>577</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>578</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>579</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>580</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>581</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>582</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>583</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>584</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>585</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>586</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>587</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>588</v>
       </c>
-      <c r="N94" t="s">
+      <c r="P94" t="s">
         <v>589</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Q94" t="s">
+        <v>591</v>
+      </c>
+      <c r="R94" t="s">
         <v>590</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="U94" t="s">
         <v>592</v>
-      </c>
-      <c r="R94" t="s">
-        <v>591</v>
-      </c>
-      <c r="U94" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C95" t="s">
         <v>594</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>595</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>596</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>597</v>
       </c>
-      <c r="F95" t="s">
+      <c r="H95" t="s">
         <v>598</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>599</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>600</v>
       </c>
-      <c r="J95" t="s">
+      <c r="L95" t="s">
         <v>601</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>602</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>603</v>
       </c>
-      <c r="N95" t="s">
+      <c r="Q95" t="s">
         <v>604</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="U95" t="s">
         <v>605</v>
-      </c>
-      <c r="U95" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C96" t="s">
         <v>607</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E96" t="s">
         <v>608</v>
       </c>
-      <c r="E96" t="s">
+      <c r="H96" t="s">
         <v>609</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>610</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>611</v>
       </c>
-      <c r="J96" t="s">
+      <c r="M96" t="s">
         <v>612</v>
       </c>
-      <c r="M96" t="s">
+      <c r="Q96" t="s">
         <v>613</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E97" t="s">
         <v>615</v>
       </c>
-      <c r="E97" t="s">
+      <c r="H97" t="s">
         <v>616</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>617</v>
       </c>
-      <c r="I97" t="s">
+      <c r="Q97" t="s">
         <v>618</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E98" t="s">
         <v>620</v>
       </c>
-      <c r="E98" t="s">
+      <c r="I98" t="s">
         <v>621</v>
-      </c>
-      <c r="I98" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E99" t="s">
         <v>623</v>
       </c>
-      <c r="E99" t="s">
-        <v>624</v>
-      </c>
       <c r="I99" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J99" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="S100" t="s">
         <v>625</v>
-      </c>
-      <c r="S100" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="S101" t="s">
         <v>627</v>
-      </c>
-      <c r="S101" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="S102" t="s">
         <v>629</v>
-      </c>
-      <c r="S102" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B103" t="s">
         <v>631</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>631</v>
+      </c>
+      <c r="D103" t="s">
+        <v>631</v>
+      </c>
+      <c r="E103" t="s">
+        <v>631</v>
+      </c>
+      <c r="F103" t="s">
+        <v>631</v>
+      </c>
+      <c r="G103" t="s">
+        <v>631</v>
+      </c>
+      <c r="I103" t="s">
+        <v>631</v>
+      </c>
+      <c r="J103" t="s">
+        <v>631</v>
+      </c>
+      <c r="K103" t="s">
+        <v>631</v>
+      </c>
+      <c r="N103" t="s">
         <v>632</v>
       </c>
-      <c r="C103" t="s">
-        <v>632</v>
-      </c>
-      <c r="D103" t="s">
-        <v>632</v>
-      </c>
-      <c r="E103" t="s">
-        <v>632</v>
-      </c>
-      <c r="F103" t="s">
-        <v>632</v>
-      </c>
-      <c r="G103" t="s">
-        <v>632</v>
-      </c>
-      <c r="I103" t="s">
-        <v>632</v>
-      </c>
-      <c r="J103" t="s">
-        <v>632</v>
-      </c>
-      <c r="K103" t="s">
-        <v>632</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="S103" t="s">
         <v>633</v>
       </c>
-      <c r="S103" t="s">
-        <v>634</v>
-      </c>
       <c r="T103" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="U103" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B104" t="s">
         <v>635</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>635</v>
+      </c>
+      <c r="D104" t="s">
+        <v>635</v>
+      </c>
+      <c r="E104" t="s">
+        <v>635</v>
+      </c>
+      <c r="F104" t="s">
+        <v>635</v>
+      </c>
+      <c r="G104" t="s">
+        <v>635</v>
+      </c>
+      <c r="H104" t="s">
+        <v>635</v>
+      </c>
+      <c r="I104" t="s">
+        <v>635</v>
+      </c>
+      <c r="J104" t="s">
+        <v>635</v>
+      </c>
+      <c r="K104" t="s">
+        <v>635</v>
+      </c>
+      <c r="L104" t="s">
+        <v>635</v>
+      </c>
+      <c r="R104" t="s">
+        <v>635</v>
+      </c>
+      <c r="S104" t="s">
         <v>636</v>
       </c>
-      <c r="C104" t="s">
-        <v>636</v>
-      </c>
-      <c r="D104" t="s">
-        <v>636</v>
-      </c>
-      <c r="E104" t="s">
-        <v>636</v>
-      </c>
-      <c r="F104" t="s">
-        <v>636</v>
-      </c>
-      <c r="G104" t="s">
-        <v>636</v>
-      </c>
-      <c r="H104" t="s">
-        <v>636</v>
-      </c>
-      <c r="I104" t="s">
-        <v>636</v>
-      </c>
-      <c r="J104" t="s">
-        <v>636</v>
-      </c>
-      <c r="K104" t="s">
-        <v>636</v>
-      </c>
-      <c r="L104" t="s">
-        <v>636</v>
-      </c>
-      <c r="R104" t="s">
-        <v>636</v>
-      </c>
-      <c r="S104" t="s">
-        <v>637</v>
-      </c>
       <c r="T104" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="U104" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="W104" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B105" t="s">
         <v>638</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>638</v>
+      </c>
+      <c r="D105" t="s">
+        <v>638</v>
+      </c>
+      <c r="E105" t="s">
+        <v>638</v>
+      </c>
+      <c r="F105" t="s">
+        <v>638</v>
+      </c>
+      <c r="G105" t="s">
+        <v>638</v>
+      </c>
+      <c r="H105" t="s">
+        <v>638</v>
+      </c>
+      <c r="I105" t="s">
+        <v>638</v>
+      </c>
+      <c r="J105" t="s">
+        <v>638</v>
+      </c>
+      <c r="K105" t="s">
+        <v>638</v>
+      </c>
+      <c r="L105" t="s">
+        <v>638</v>
+      </c>
+      <c r="R105" t="s">
+        <v>638</v>
+      </c>
+      <c r="S105" t="s">
         <v>639</v>
       </c>
-      <c r="C105" t="s">
-        <v>639</v>
-      </c>
-      <c r="D105" t="s">
-        <v>639</v>
-      </c>
-      <c r="E105" t="s">
-        <v>639</v>
-      </c>
-      <c r="F105" t="s">
-        <v>639</v>
-      </c>
-      <c r="G105" t="s">
-        <v>639</v>
-      </c>
-      <c r="H105" t="s">
-        <v>639</v>
-      </c>
-      <c r="I105" t="s">
-        <v>639</v>
-      </c>
-      <c r="J105" t="s">
-        <v>639</v>
-      </c>
-      <c r="K105" t="s">
-        <v>639</v>
-      </c>
-      <c r="L105" t="s">
-        <v>639</v>
-      </c>
-      <c r="R105" t="s">
-        <v>639</v>
-      </c>
-      <c r="S105" t="s">
-        <v>640</v>
-      </c>
       <c r="T105" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="U105" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W105" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B106" t="s">
         <v>641</v>
       </c>
-      <c r="B106" t="s">
-        <v>642</v>
-      </c>
       <c r="C106" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D106" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E106" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F106" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="T106" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="U106" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W106" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="B107" t="s">
         <v>643</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>643</v>
+      </c>
+      <c r="E107" t="s">
+        <v>643</v>
+      </c>
+      <c r="F107" t="s">
+        <v>643</v>
+      </c>
+      <c r="L107" t="s">
+        <v>643</v>
+      </c>
+      <c r="S107" t="s">
         <v>644</v>
       </c>
-      <c r="C107" t="s">
-        <v>644</v>
-      </c>
-      <c r="E107" t="s">
-        <v>644</v>
-      </c>
-      <c r="F107" t="s">
-        <v>644</v>
-      </c>
-      <c r="L107" t="s">
-        <v>644</v>
-      </c>
-      <c r="S107" t="s">
-        <v>645</v>
-      </c>
       <c r="T107" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U107" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="W107" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D108" t="s">
         <v>646</v>
       </c>
-      <c r="D108" t="s">
+      <c r="H108" t="s">
         <v>647</v>
       </c>
-      <c r="H108" t="s">
+      <c r="K108" t="s">
         <v>648</v>
-      </c>
-      <c r="K108" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="S109" t="s">
         <v>650</v>
       </c>
-      <c r="S109" t="s">
+      <c r="T109" t="s">
         <v>651</v>
       </c>
-      <c r="T109" t="s">
+      <c r="U109" t="s">
         <v>652</v>
-      </c>
-      <c r="U109" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="S110" t="s">
         <v>654</v>
       </c>
-      <c r="S110" t="s">
+      <c r="T110" t="s">
         <v>655</v>
       </c>
-      <c r="T110" t="s">
+      <c r="U110" t="s">
         <v>656</v>
-      </c>
-      <c r="U110" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="S111" t="s">
         <v>658</v>
       </c>
-      <c r="S111" t="s">
+      <c r="T111" t="s">
         <v>659</v>
       </c>
-      <c r="T111" t="s">
+      <c r="U111" t="s">
         <v>660</v>
-      </c>
-      <c r="U111" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="U112" t="s">
         <v>662</v>
-      </c>
-      <c r="U112" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="S113" t="s">
         <v>664</v>
-      </c>
-      <c r="S113" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="S114" t="s">
         <v>666</v>
       </c>
-      <c r="S114" t="s">
+      <c r="T114" s="23" t="s">
         <v>667</v>
       </c>
-      <c r="T114" s="23" t="s">
+      <c r="U114" t="s">
         <v>668</v>
-      </c>
-      <c r="U114" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="S115" t="s">
         <v>670</v>
-      </c>
-      <c r="S115" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="U116" t="s">
         <v>672</v>
-      </c>
-      <c r="U116" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B117" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C117" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D117" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E117" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F117" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G117" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H117" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I117" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K117" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="L117" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M117" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="P117" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="Q117" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="S117" t="s">
+        <v>708</v>
+      </c>
+      <c r="T117" t="s">
         <v>709</v>
       </c>
-      <c r="T117" t="s">
+      <c r="U117" t="s">
         <v>710</v>
-      </c>
-      <c r="U117" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B118" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C118" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D118" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E118" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F118" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G118" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H118" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I118" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K118" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L118" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M118" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P118" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="Q118" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S118" t="s">
+        <v>704</v>
+      </c>
+      <c r="T118" t="s">
         <v>705</v>
       </c>
-      <c r="T118" t="s">
+      <c r="U118" t="s">
         <v>706</v>
-      </c>
-      <c r="U118" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D119" t="s">
+        <v>762</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="I119" t="s">
+        <v>760</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="O119" t="s">
         <v>756</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>765</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="D119" t="s">
-        <v>763</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="I119" t="s">
-        <v>761</v>
-      </c>
-      <c r="L119" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="N119" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="O119" t="s">
+      <c r="P119" t="s">
         <v>757</v>
-      </c>
-      <c r="P119" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B120" t="s">
         <v>674</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>675</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>676</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>677</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>678</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>679</v>
       </c>
-      <c r="G120" t="s">
+      <c r="I120" t="s">
         <v>680</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>681</v>
       </c>
-      <c r="J120" t="s">
+      <c r="K120" s="24" t="s">
         <v>682</v>
       </c>
-      <c r="K120" s="24" t="s">
+      <c r="L120" t="s">
+        <v>772</v>
+      </c>
+      <c r="M120" t="s">
+        <v>776</v>
+      </c>
+      <c r="N120" t="s">
+        <v>785</v>
+      </c>
+      <c r="O120" t="s">
+        <v>768</v>
+      </c>
+      <c r="P120" t="s">
+        <v>774</v>
+      </c>
+      <c r="S120" t="s">
         <v>683</v>
       </c>
-      <c r="L120" t="s">
-        <v>773</v>
-      </c>
-      <c r="M120" t="s">
-        <v>777</v>
-      </c>
-      <c r="N120" t="s">
-        <v>786</v>
-      </c>
-      <c r="O120" t="s">
-        <v>769</v>
-      </c>
-      <c r="P120" t="s">
-        <v>775</v>
-      </c>
-      <c r="S120" t="s">
+      <c r="T120" t="s">
         <v>684</v>
       </c>
-      <c r="T120" t="s">
+      <c r="U120" t="s">
         <v>685</v>
-      </c>
-      <c r="U120" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C121" t="s">
         <v>687</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>767</v>
+      </c>
+      <c r="E121" t="s">
         <v>688</v>
       </c>
-      <c r="D121" t="s">
-        <v>768</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="G121" t="s">
         <v>689</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>690</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>691</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>692</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>693</v>
       </c>
-      <c r="K121" t="s">
+      <c r="N121" t="s">
         <v>694</v>
       </c>
-      <c r="N121" t="s">
+      <c r="O121" t="s">
         <v>695</v>
       </c>
-      <c r="O121" t="s">
+      <c r="P121" t="s">
+        <v>773</v>
+      </c>
+      <c r="R121" t="s">
         <v>696</v>
       </c>
-      <c r="P121" t="s">
-        <v>774</v>
-      </c>
-      <c r="R121" t="s">
+      <c r="T121" t="s">
         <v>697</v>
-      </c>
-      <c r="T121" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="S122" t="s">
         <v>699</v>
-      </c>
-      <c r="S122" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B123">
         <v>7</v>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B124">
         <v>6300</v>
@@ -9297,7 +9297,7 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B125">
         <v>6500</v>
@@ -9359,35 +9359,35 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="S126" t="s">
         <v>704</v>
       </c>
-      <c r="S126" t="s">
+      <c r="T126" t="s">
         <v>705</v>
       </c>
-      <c r="T126" t="s">
+      <c r="U126" t="s">
         <v>706</v>
-      </c>
-      <c r="U126" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="S127" t="s">
         <v>708</v>
       </c>
-      <c r="S127" t="s">
+      <c r="T127" t="s">
         <v>709</v>
       </c>
-      <c r="T127" t="s">
+      <c r="U127" t="s">
         <v>710</v>
-      </c>
-      <c r="U127" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B129" t="s">
         <v>28</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B130" t="s">
         <v>28</v>
@@ -9439,505 +9439,505 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="E131" t="s">
+        <v>819</v>
+      </c>
+      <c r="I131" t="s">
         <v>714</v>
       </c>
-      <c r="E131" t="s">
+      <c r="J131" t="s">
+        <v>714</v>
+      </c>
+      <c r="L131" t="s">
         <v>820</v>
       </c>
-      <c r="I131" t="s">
-        <v>715</v>
-      </c>
-      <c r="J131" t="s">
-        <v>715</v>
-      </c>
-      <c r="L131" t="s">
-        <v>821</v>
-      </c>
       <c r="M131" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="N131" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O131" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P131" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Q131" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="R131" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H132" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N132" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O132" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B133" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J133" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J135" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M135" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="N135" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O135" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P135" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R135" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="N136" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O136" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P136" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R136" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J137" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N137" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O137" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P137" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R137" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J139" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J142" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R142" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J144" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N144" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O144" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P144" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R144" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="N145" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O145" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P145" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R145" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J148" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="J149" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N149" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O149" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P149" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J150" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J151" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J152" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N152" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O152" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P152" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N154" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O154" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P154" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J156" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N156" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O156" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P156" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R156" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N157" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O157" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P157" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R157" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J158" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N158" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O158" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P158" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R158" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="N159" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O159" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P159" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R159" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H163" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O164" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I166" s="1"/>
       <c r="K166" s="1"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B167" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I168" s="1"/>
       <c r="J168" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D170" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.35">

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2516,9 +2516,6 @@
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_8AKIwJiwMxyQnyu</t>
   </si>
   <si>
-    <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_8wCKMNZsEthV6Xc</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -2553,6 +2550,9 @@
   </si>
   <si>
     <t>~ test Ana, video FR</t>
+  </si>
+  <si>
+    <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9RF3ckVwWR9MH1Y</t>
   </si>
 </sst>
 </file>
@@ -2706,7 +2706,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2723,7 +2723,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2988,16 +2988,16 @@
   <dimension ref="A1:AA171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P117" sqref="P117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>28</v>
@@ -3186,13 +3186,13 @@
         <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>28</v>
@@ -3208,7 +3208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>786</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>28</v>
@@ -3330,7 +3330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>35</v>
@@ -3403,26 +3403,26 @@
         <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>821</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -3434,7 +3434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>102</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>138</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>16754</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>149</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>22562</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>29932</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>155</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>182</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>193</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>206</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>207</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>208</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>209</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>210</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>213</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>222</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>230</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>237</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>249</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>253</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>254</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>255</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>256</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>259</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>263</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>267</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>271</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>273</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>275</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>278</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>292</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>753</v>
@@ -5470,7 +5470,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>296</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>300</v>
       </c>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>319</v>
       </c>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>752</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="U47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>339</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>342</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>355</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>357</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>358</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>359</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>361</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>365</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>373</v>
       </c>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>374</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>375</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>5.2325581395348841</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>376</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>377</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>39.738</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>378</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>7115854.8000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>379</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>380</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>381</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>0.10350000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>382</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>147.96508326729767</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>383</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>386</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>391</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>395</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>404</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>413</v>
       </c>
@@ -7553,19 +7553,19 @@
         <v>780</v>
       </c>
       <c r="I71" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J71" s="16" t="s">
         <v>420</v>
       </c>
       <c r="K71" s="16" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L71" t="s">
         <v>779</v>
       </c>
       <c r="M71" s="16" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N71" s="16" t="s">
         <v>421</v>
@@ -7604,7 +7604,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>770</v>
       </c>
@@ -7649,7 +7649,7 @@
       <c r="T72" s="20"/>
       <c r="U72" s="16"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>431</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>1.1820000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>433</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>434</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>435</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>436</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>437</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>438</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>72.200772200772207</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>439</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>454</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>468</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>472</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>474</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>481</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>486</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>491</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>493</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>495</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>497</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>517</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>537</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>556</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>576</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>593</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>606</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>614</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>619</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>622</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>624</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>626</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>628</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>630</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>634</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>637</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>640</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>642</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>645</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>649</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>653</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>657</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>661</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>663</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>665</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>669</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>671</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>787</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>789</v>
       </c>
       <c r="P117" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="Q117" t="s">
         <v>791</v>
@@ -9041,7 +9041,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>788</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>755</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>673</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>686</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>698</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>700</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>701</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>702</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>703</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>707</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>711</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>712</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>713</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>820</v>
       </c>
       <c r="M131" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="N131" t="s">
         <v>820</v>
@@ -9466,13 +9466,13 @@
         <v>820</v>
       </c>
       <c r="Q131" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R131" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>715</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>717</v>
       </c>
@@ -9497,12 +9497,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>719</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>714</v>
       </c>
       <c r="M135" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="N135" t="s">
         <v>714</v>
@@ -9525,7 +9525,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>720</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>721</v>
       </c>
@@ -9562,12 +9562,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>723</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>724</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>725</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>726</v>
       </c>
@@ -9647,12 +9647,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>728</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>729</v>
       </c>
@@ -9689,17 +9689,17 @@
         <v>714</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>732</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>828</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>734</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>735</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>736</v>
       </c>
@@ -9757,12 +9757,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>738</v>
       </c>
@@ -9776,12 +9776,12 @@
         <v>820</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>740</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>741</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>742</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>743</v>
       </c>
@@ -9861,22 +9861,22 @@
         <v>714</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>777</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>747</v>
       </c>
@@ -9898,19 +9898,19 @@
         <v>714</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>749</v>
       </c>
       <c r="I166" s="1"/>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>766</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>769</v>
       </c>
@@ -9927,12 +9927,12 @@
         <v>716</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>825</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
     </row>
   </sheetData>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -2706,7 +2706,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2723,7 +2723,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2988,11 +2988,11 @@
   <dimension ref="A1:AA171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P117" sqref="P117"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="847">
   <si>
     <t>Country</t>
   </si>
@@ -1286,9 +1286,6 @@
     <t>https://lse.eu.qualtrics.com/jfe/form/SV_02uibrdpLtSCOCW?Q_Language=JA</t>
   </si>
   <si>
-    <t>?Q_Language=ID</t>
-  </si>
-  <si>
     <t>?Q_Language=UK</t>
   </si>
   <si>
@@ -2174,9 +2171,6 @@
     <t>2.5 Agglomeration size</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>2.6 Race/nationality</t>
   </si>
   <si>
@@ -2234,9 +2228,6 @@
     <t>14.9, 14.11 Change to "limit or renounce"</t>
   </si>
   <si>
-    <t>135, 136, 137 Adapt new question positive/costless</t>
-  </si>
-  <si>
     <t>16.7 Translate "Transfers from high-income countries"</t>
   </si>
   <si>
@@ -2553,6 +2544,27 @@
   </si>
   <si>
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9RF3ckVwWR9MH1Y</t>
+  </si>
+  <si>
+    <t>~ Adrien</t>
+  </si>
+  <si>
+    <t>~ Tarcilia</t>
+  </si>
+  <si>
+    <t>https://lse.eu.qualtrics.com/jfe/form/SV_73wzPC2ZxXEm0su?Q_Language=ID</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_73wzPC2ZxXEm0su</t>
+  </si>
+  <si>
+    <t>135, 136, 137 Adapt new question positive/costless "class"</t>
+  </si>
+  <si>
+    <t>Pro Pemerintah (PDI Perjuangan / Golkar / PKB / NasDem / PPP / dsb)Oposisi (Gerindra / PKS / Partai Demokrat / PAN / dsb)</t>
+  </si>
+  <si>
+    <t>t, test</t>
   </si>
 </sst>
 </file>
@@ -2989,7 +3001,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3174,7 +3186,7 @@
         <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>28</v>
@@ -3186,18 +3198,20 @@
         <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="3"/>
+      <c r="R3" s="3" t="s">
+        <v>841</v>
+      </c>
       <c r="S3" s="1" t="s">
         <v>28</v>
       </c>
@@ -3246,7 +3260,7 @@
         <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>28</v>
@@ -3309,10 +3323,13 @@
         <v>28</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>786</v>
+        <v>783</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>833</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>28</v>
@@ -3394,7 +3411,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>35</v>
@@ -3403,26 +3420,28 @@
         <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>836</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>840</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -4228,10 +4247,10 @@
       </c>
       <c r="L18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="P18" s="1"/>
       <c r="S18" t="s">
@@ -4350,7 +4369,7 @@
         <v>189</v>
       </c>
       <c r="N20" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="O20" t="s">
         <v>191</v>
@@ -4876,7 +4895,7 @@
         <v>228</v>
       </c>
       <c r="P28" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="Q28" t="s">
         <v>112</v>
@@ -5446,7 +5465,7 @@
         <v>290</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>291</v>
@@ -5455,10 +5474,10 @@
         <v>292</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>293</v>
@@ -5645,7 +5664,7 @@
         <v>332</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>333</v>
@@ -5669,7 +5688,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -7550,100 +7569,102 @@
         <v>419</v>
       </c>
       <c r="H71" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I71" t="s">
-        <v>838</v>
-      </c>
-      <c r="J71" s="16" t="s">
+        <v>835</v>
+      </c>
+      <c r="J71" t="s">
+        <v>842</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="L71" t="s">
+        <v>776</v>
+      </c>
+      <c r="M71" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="N71" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="K71" s="16" t="s">
-        <v>833</v>
-      </c>
-      <c r="L71" t="s">
-        <v>779</v>
-      </c>
-      <c r="M71" s="16" t="s">
-        <v>834</v>
-      </c>
-      <c r="N71" s="16" t="s">
+      <c r="O71" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="O71" s="16" t="s">
+      <c r="P71" t="s">
         <v>422</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
+        <v>820</v>
+      </c>
+      <c r="R71" t="s">
         <v>423</v>
       </c>
-      <c r="Q71" t="s">
-        <v>823</v>
-      </c>
-      <c r="R71" t="s">
+      <c r="S71" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="S71" s="16" t="s">
+      <c r="T71" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="T71" s="20" t="s">
+      <c r="U71" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="U71" s="16" t="s">
+      <c r="W71" t="s">
         <v>427</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>428</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>429</v>
       </c>
-      <c r="Y71" t="s">
-        <v>430</v>
-      </c>
       <c r="Z71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B72" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C72" t="s">
+        <v>811</v>
+      </c>
+      <c r="D72" t="s">
+        <v>812</v>
+      </c>
+      <c r="E72" t="s">
+        <v>810</v>
+      </c>
+      <c r="F72" t="s">
+        <v>813</v>
+      </c>
+      <c r="G72" t="s">
         <v>814</v>
       </c>
-      <c r="D72" t="s">
+      <c r="H72" t="s">
+        <v>778</v>
+      </c>
+      <c r="I72" t="s">
+        <v>823</v>
+      </c>
+      <c r="J72" t="s">
+        <v>843</v>
+      </c>
+      <c r="K72" t="s">
+        <v>775</v>
+      </c>
+      <c r="L72" t="s">
         <v>815</v>
-      </c>
-      <c r="E72" t="s">
-        <v>813</v>
-      </c>
-      <c r="F72" t="s">
-        <v>816</v>
-      </c>
-      <c r="G72" t="s">
-        <v>817</v>
-      </c>
-      <c r="H72" t="s">
-        <v>781</v>
-      </c>
-      <c r="I72" t="s">
-        <v>826</v>
-      </c>
-      <c r="J72" s="16"/>
-      <c r="K72" t="s">
-        <v>778</v>
-      </c>
-      <c r="L72" t="s">
-        <v>818</v>
       </c>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
       <c r="Q72" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="20"/>
@@ -7651,7 +7672,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B73">
         <v>0.37862000000000001</v>
@@ -7705,7 +7726,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="S73" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T73">
         <v>0.15443999999999999</v>
@@ -7725,7 +7746,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B74">
         <v>1.5</v>
@@ -7808,7 +7829,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B75">
         <v>1.804</v>
@@ -7861,7 +7882,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B76">
         <v>0.36799999999999999</v>
@@ -7914,7 +7935,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B77">
         <v>6.6000000000000003E-2</v>
@@ -7943,7 +7964,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B78">
         <v>0.90300000000000002</v>
@@ -7972,7 +7993,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D79">
         <f>240.49/D9</f>
@@ -7989,1254 +8010,1254 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B80" t="s">
         <v>439</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>439</v>
+      </c>
+      <c r="D80" t="s">
+        <v>439</v>
+      </c>
+      <c r="E80" t="s">
+        <v>439</v>
+      </c>
+      <c r="F80" t="s">
         <v>440</v>
       </c>
-      <c r="C80" t="s">
-        <v>440</v>
-      </c>
-      <c r="D80" t="s">
-        <v>440</v>
-      </c>
-      <c r="E80" t="s">
-        <v>440</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="G80" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="I80" s="2" t="s">
+      <c r="J80" t="s">
         <v>443</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="M80" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="N80" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="O80" s="2" t="s">
+      <c r="P80" t="s">
         <v>448</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="R80" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="S80" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="S80" s="2" t="s">
+      <c r="T80" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="T80" s="2" t="s">
+      <c r="U80" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B81" t="s">
         <v>454</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>455</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>456</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>457</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
+        <v>454</v>
+      </c>
+      <c r="G81" t="s">
         <v>458</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
+        <v>459</v>
+      </c>
+      <c r="I81" t="s">
+        <v>460</v>
+      </c>
+      <c r="J81" t="s">
+        <v>461</v>
+      </c>
+      <c r="K81" t="s">
+        <v>462</v>
+      </c>
+      <c r="L81" t="s">
+        <v>463</v>
+      </c>
+      <c r="M81" t="s">
         <v>455</v>
       </c>
-      <c r="G81" t="s">
-        <v>459</v>
-      </c>
-      <c r="H81" t="s">
-        <v>460</v>
-      </c>
-      <c r="I81" t="s">
-        <v>461</v>
-      </c>
-      <c r="J81" t="s">
-        <v>462</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="N81" t="s">
+        <v>454</v>
+      </c>
+      <c r="O81" t="s">
+        <v>464</v>
+      </c>
+      <c r="P81" t="s">
         <v>463</v>
       </c>
-      <c r="L81" t="s">
-        <v>464</v>
-      </c>
-      <c r="M81" t="s">
-        <v>456</v>
-      </c>
-      <c r="N81" t="s">
-        <v>455</v>
-      </c>
-      <c r="O81" t="s">
+      <c r="Q81" t="s">
+        <v>457</v>
+      </c>
+      <c r="R81" t="s">
+        <v>463</v>
+      </c>
+      <c r="S81" t="s">
+        <v>762</v>
+      </c>
+      <c r="T81" t="s">
         <v>465</v>
       </c>
-      <c r="P81" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>458</v>
-      </c>
-      <c r="R81" t="s">
-        <v>464</v>
-      </c>
-      <c r="S81" t="s">
-        <v>765</v>
-      </c>
-      <c r="T81" t="s">
+      <c r="U81" t="s">
         <v>466</v>
-      </c>
-      <c r="U81" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="S82" t="s">
         <v>468</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>469</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>470</v>
-      </c>
-      <c r="U82" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="S83" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="S83" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B84" t="s">
         <v>474</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>474</v>
+      </c>
+      <c r="D84" t="s">
+        <v>474</v>
+      </c>
+      <c r="E84" t="s">
+        <v>474</v>
+      </c>
+      <c r="F84" t="s">
+        <v>474</v>
+      </c>
+      <c r="G84" t="s">
         <v>475</v>
       </c>
-      <c r="C84" t="s">
-        <v>475</v>
-      </c>
-      <c r="D84" t="s">
-        <v>475</v>
-      </c>
-      <c r="E84" t="s">
-        <v>475</v>
-      </c>
-      <c r="F84" t="s">
-        <v>475</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>476</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>477</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>478</v>
       </c>
-      <c r="J84" t="s">
+      <c r="S84" t="s">
         <v>479</v>
       </c>
-      <c r="S84" t="s">
-        <v>480</v>
-      </c>
       <c r="T84" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U84" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="S85" t="s">
         <v>482</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="T85" s="2" t="s">
+      <c r="U85" t="s">
         <v>484</v>
-      </c>
-      <c r="U85" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F86" t="s">
         <v>486</v>
       </c>
-      <c r="F86" t="s">
+      <c r="I86" t="s">
         <v>487</v>
       </c>
-      <c r="I86" t="s">
+      <c r="S86" t="s">
         <v>488</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="T86" s="2" t="s">
-        <v>490</v>
-      </c>
       <c r="U86" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="S87" t="s">
         <v>491</v>
-      </c>
-      <c r="S87" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="S88" s="21" t="s">
         <v>493</v>
-      </c>
-      <c r="S88" s="21" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="S89" t="s">
         <v>495</v>
-      </c>
-      <c r="S89" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C90" t="s">
         <v>497</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>498</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>499</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>500</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>501</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>502</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>503</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>504</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>505</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>506</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>507</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>508</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>509</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>510</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
+        <v>512</v>
+      </c>
+      <c r="R90" t="s">
         <v>511</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="S90" t="s">
         <v>513</v>
       </c>
-      <c r="R90" t="s">
-        <v>512</v>
-      </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>514</v>
       </c>
-      <c r="T90" t="s">
+      <c r="U90" t="s">
         <v>515</v>
-      </c>
-      <c r="U90" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C91" t="s">
         <v>517</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>518</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>519</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>520</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>521</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>522</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>523</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>524</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>525</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>526</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>527</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>528</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>529</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>530</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
+        <v>532</v>
+      </c>
+      <c r="R91" t="s">
         <v>531</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="S91" t="s">
         <v>533</v>
       </c>
-      <c r="R91" t="s">
-        <v>532</v>
-      </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>534</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U91" t="s">
         <v>535</v>
-      </c>
-      <c r="U91" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C92" t="s">
         <v>537</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>538</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>539</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>540</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>541</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>542</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>543</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>544</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>545</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>546</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>547</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>548</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>549</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>551</v>
+      </c>
+      <c r="R92" t="s">
         <v>550</v>
       </c>
-      <c r="P92" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q92" t="s">
+      <c r="S92" t="s">
         <v>552</v>
       </c>
-      <c r="R92" t="s">
-        <v>551</v>
-      </c>
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>553</v>
       </c>
-      <c r="T92" t="s">
+      <c r="U92" t="s">
         <v>554</v>
-      </c>
-      <c r="U92" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C93" t="s">
         <v>556</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>557</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>558</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>559</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>560</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>561</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>562</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>563</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>564</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>565</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>566</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>567</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>568</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>569</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" t="s">
+        <v>571</v>
+      </c>
+      <c r="R93" t="s">
         <v>570</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="S93" s="22" t="s">
         <v>572</v>
       </c>
-      <c r="R93" t="s">
-        <v>571</v>
-      </c>
-      <c r="S93" s="22" t="s">
+      <c r="T93" t="s">
         <v>573</v>
       </c>
-      <c r="T93" t="s">
+      <c r="U93" t="s">
         <v>574</v>
-      </c>
-      <c r="U93" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C94" t="s">
         <v>576</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>577</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>578</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>579</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>580</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>581</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>582</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>583</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>584</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>585</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>586</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>587</v>
       </c>
-      <c r="N94" t="s">
+      <c r="P94" t="s">
         <v>588</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Q94" t="s">
+        <v>590</v>
+      </c>
+      <c r="R94" t="s">
         <v>589</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="U94" t="s">
         <v>591</v>
-      </c>
-      <c r="R94" t="s">
-        <v>590</v>
-      </c>
-      <c r="U94" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C95" t="s">
         <v>593</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>594</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>595</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>596</v>
       </c>
-      <c r="F95" t="s">
+      <c r="H95" t="s">
         <v>597</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>598</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>599</v>
       </c>
-      <c r="J95" t="s">
+      <c r="L95" t="s">
         <v>600</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>601</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>602</v>
       </c>
-      <c r="N95" t="s">
+      <c r="Q95" t="s">
         <v>603</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="U95" t="s">
         <v>604</v>
-      </c>
-      <c r="U95" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C96" t="s">
         <v>606</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E96" t="s">
         <v>607</v>
       </c>
-      <c r="E96" t="s">
+      <c r="H96" t="s">
         <v>608</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>609</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>610</v>
       </c>
-      <c r="J96" t="s">
+      <c r="M96" t="s">
         <v>611</v>
       </c>
-      <c r="M96" t="s">
+      <c r="Q96" t="s">
         <v>612</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E97" t="s">
         <v>614</v>
       </c>
-      <c r="E97" t="s">
+      <c r="H97" t="s">
         <v>615</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>616</v>
       </c>
-      <c r="I97" t="s">
+      <c r="Q97" t="s">
         <v>617</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E98" t="s">
         <v>619</v>
       </c>
-      <c r="E98" t="s">
+      <c r="I98" t="s">
         <v>620</v>
-      </c>
-      <c r="I98" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E99" t="s">
         <v>622</v>
       </c>
-      <c r="E99" t="s">
-        <v>623</v>
-      </c>
       <c r="I99" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J99" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="S100" t="s">
         <v>624</v>
-      </c>
-      <c r="S100" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="S101" t="s">
         <v>626</v>
-      </c>
-      <c r="S101" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="S102" t="s">
         <v>628</v>
-      </c>
-      <c r="S102" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B103" t="s">
         <v>630</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>630</v>
+      </c>
+      <c r="D103" t="s">
+        <v>630</v>
+      </c>
+      <c r="E103" t="s">
+        <v>630</v>
+      </c>
+      <c r="F103" t="s">
+        <v>630</v>
+      </c>
+      <c r="G103" t="s">
+        <v>630</v>
+      </c>
+      <c r="I103" t="s">
+        <v>630</v>
+      </c>
+      <c r="J103" t="s">
+        <v>630</v>
+      </c>
+      <c r="K103" t="s">
+        <v>630</v>
+      </c>
+      <c r="N103" t="s">
         <v>631</v>
       </c>
-      <c r="C103" t="s">
-        <v>631</v>
-      </c>
-      <c r="D103" t="s">
-        <v>631</v>
-      </c>
-      <c r="E103" t="s">
-        <v>631</v>
-      </c>
-      <c r="F103" t="s">
-        <v>631</v>
-      </c>
-      <c r="G103" t="s">
-        <v>631</v>
-      </c>
-      <c r="I103" t="s">
-        <v>631</v>
-      </c>
-      <c r="J103" t="s">
-        <v>631</v>
-      </c>
-      <c r="K103" t="s">
-        <v>631</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="S103" t="s">
         <v>632</v>
       </c>
-      <c r="S103" t="s">
-        <v>633</v>
-      </c>
       <c r="T103" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U103" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="B104" t="s">
         <v>634</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>634</v>
+      </c>
+      <c r="D104" t="s">
+        <v>634</v>
+      </c>
+      <c r="E104" t="s">
+        <v>634</v>
+      </c>
+      <c r="F104" t="s">
+        <v>634</v>
+      </c>
+      <c r="G104" t="s">
+        <v>634</v>
+      </c>
+      <c r="H104" t="s">
+        <v>634</v>
+      </c>
+      <c r="I104" t="s">
+        <v>634</v>
+      </c>
+      <c r="J104" t="s">
+        <v>634</v>
+      </c>
+      <c r="K104" t="s">
+        <v>634</v>
+      </c>
+      <c r="L104" t="s">
+        <v>634</v>
+      </c>
+      <c r="R104" t="s">
+        <v>634</v>
+      </c>
+      <c r="S104" t="s">
         <v>635</v>
       </c>
-      <c r="C104" t="s">
-        <v>635</v>
-      </c>
-      <c r="D104" t="s">
-        <v>635</v>
-      </c>
-      <c r="E104" t="s">
-        <v>635</v>
-      </c>
-      <c r="F104" t="s">
-        <v>635</v>
-      </c>
-      <c r="G104" t="s">
-        <v>635</v>
-      </c>
-      <c r="H104" t="s">
-        <v>635</v>
-      </c>
-      <c r="I104" t="s">
-        <v>635</v>
-      </c>
-      <c r="J104" t="s">
-        <v>635</v>
-      </c>
-      <c r="K104" t="s">
-        <v>635</v>
-      </c>
-      <c r="L104" t="s">
-        <v>635</v>
-      </c>
-      <c r="R104" t="s">
-        <v>635</v>
-      </c>
-      <c r="S104" t="s">
-        <v>636</v>
-      </c>
       <c r="T104" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="U104" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="W104" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="B105" t="s">
         <v>637</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>637</v>
+      </c>
+      <c r="D105" t="s">
+        <v>637</v>
+      </c>
+      <c r="E105" t="s">
+        <v>637</v>
+      </c>
+      <c r="F105" t="s">
+        <v>637</v>
+      </c>
+      <c r="G105" t="s">
+        <v>637</v>
+      </c>
+      <c r="H105" t="s">
+        <v>637</v>
+      </c>
+      <c r="I105" t="s">
+        <v>637</v>
+      </c>
+      <c r="J105" t="s">
+        <v>637</v>
+      </c>
+      <c r="K105" t="s">
+        <v>637</v>
+      </c>
+      <c r="L105" t="s">
+        <v>637</v>
+      </c>
+      <c r="R105" t="s">
+        <v>637</v>
+      </c>
+      <c r="S105" t="s">
         <v>638</v>
       </c>
-      <c r="C105" t="s">
-        <v>638</v>
-      </c>
-      <c r="D105" t="s">
-        <v>638</v>
-      </c>
-      <c r="E105" t="s">
-        <v>638</v>
-      </c>
-      <c r="F105" t="s">
-        <v>638</v>
-      </c>
-      <c r="G105" t="s">
-        <v>638</v>
-      </c>
-      <c r="H105" t="s">
-        <v>638</v>
-      </c>
-      <c r="I105" t="s">
-        <v>638</v>
-      </c>
-      <c r="J105" t="s">
-        <v>638</v>
-      </c>
-      <c r="K105" t="s">
-        <v>638</v>
-      </c>
-      <c r="L105" t="s">
-        <v>638</v>
-      </c>
-      <c r="R105" t="s">
-        <v>638</v>
-      </c>
-      <c r="S105" t="s">
-        <v>639</v>
-      </c>
       <c r="T105" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="U105" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="W105" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B106" t="s">
         <v>640</v>
       </c>
-      <c r="B106" t="s">
-        <v>641</v>
-      </c>
       <c r="C106" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D106" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E106" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F106" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="T106" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U106" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W106" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B107" t="s">
         <v>642</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>642</v>
+      </c>
+      <c r="E107" t="s">
+        <v>642</v>
+      </c>
+      <c r="F107" t="s">
+        <v>642</v>
+      </c>
+      <c r="L107" t="s">
+        <v>642</v>
+      </c>
+      <c r="S107" t="s">
         <v>643</v>
       </c>
-      <c r="C107" t="s">
-        <v>643</v>
-      </c>
-      <c r="E107" t="s">
-        <v>643</v>
-      </c>
-      <c r="F107" t="s">
-        <v>643</v>
-      </c>
-      <c r="L107" t="s">
-        <v>643</v>
-      </c>
-      <c r="S107" t="s">
-        <v>644</v>
-      </c>
       <c r="T107" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U107" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="W107" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="D108" t="s">
         <v>645</v>
       </c>
-      <c r="D108" t="s">
+      <c r="H108" t="s">
         <v>646</v>
       </c>
-      <c r="H108" t="s">
+      <c r="K108" t="s">
         <v>647</v>
-      </c>
-      <c r="K108" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="S109" t="s">
         <v>649</v>
       </c>
-      <c r="S109" t="s">
+      <c r="T109" t="s">
         <v>650</v>
       </c>
-      <c r="T109" t="s">
+      <c r="U109" t="s">
         <v>651</v>
-      </c>
-      <c r="U109" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="S110" t="s">
         <v>653</v>
       </c>
-      <c r="S110" t="s">
+      <c r="T110" t="s">
         <v>654</v>
       </c>
-      <c r="T110" t="s">
+      <c r="U110" t="s">
         <v>655</v>
-      </c>
-      <c r="U110" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="S111" t="s">
         <v>657</v>
       </c>
-      <c r="S111" t="s">
+      <c r="T111" t="s">
         <v>658</v>
       </c>
-      <c r="T111" t="s">
+      <c r="U111" t="s">
         <v>659</v>
-      </c>
-      <c r="U111" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="U112" t="s">
         <v>661</v>
-      </c>
-      <c r="U112" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="S113" t="s">
         <v>663</v>
-      </c>
-      <c r="S113" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="S114" t="s">
         <v>665</v>
       </c>
-      <c r="S114" t="s">
+      <c r="T114" s="23" t="s">
         <v>666</v>
       </c>
-      <c r="T114" s="23" t="s">
+      <c r="U114" t="s">
         <v>667</v>
-      </c>
-      <c r="U114" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="S115" t="s">
         <v>669</v>
-      </c>
-      <c r="S115" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="U116" t="s">
         <v>671</v>
-      </c>
-      <c r="U116" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B117" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C117" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D117" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E117" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F117" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G117" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H117" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="I117" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="K117" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="L117" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="M117" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="P117" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="Q117" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="S117" t="s">
+        <v>707</v>
+      </c>
+      <c r="T117" t="s">
         <v>708</v>
       </c>
-      <c r="T117" t="s">
+      <c r="U117" t="s">
         <v>709</v>
-      </c>
-      <c r="U117" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B118" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C118" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D118" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E118" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F118" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G118" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="H118" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I118" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="K118" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="L118" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="M118" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="P118" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="Q118" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="S118" t="s">
+        <v>703</v>
+      </c>
+      <c r="T118" t="s">
         <v>704</v>
       </c>
-      <c r="T118" t="s">
+      <c r="U118" t="s">
         <v>705</v>
-      </c>
-      <c r="U118" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="D119" t="s">
+        <v>759</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="I119" t="s">
+        <v>757</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="N119" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="D119" t="s">
-        <v>762</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="I119" t="s">
-        <v>760</v>
-      </c>
-      <c r="L119" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="N119" s="9" t="s">
-        <v>758</v>
-      </c>
       <c r="O119" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="P119" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B120" t="s">
         <v>673</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>674</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>675</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>676</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>677</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>678</v>
       </c>
-      <c r="G120" t="s">
+      <c r="I120" t="s">
         <v>679</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>680</v>
       </c>
-      <c r="J120" t="s">
+      <c r="K120" s="24" t="s">
         <v>681</v>
       </c>
-      <c r="K120" s="24" t="s">
+      <c r="L120" t="s">
+        <v>769</v>
+      </c>
+      <c r="M120" t="s">
+        <v>773</v>
+      </c>
+      <c r="N120" t="s">
+        <v>782</v>
+      </c>
+      <c r="O120" t="s">
+        <v>765</v>
+      </c>
+      <c r="P120" t="s">
+        <v>771</v>
+      </c>
+      <c r="S120" t="s">
         <v>682</v>
       </c>
-      <c r="L120" t="s">
-        <v>772</v>
-      </c>
-      <c r="M120" t="s">
-        <v>776</v>
-      </c>
-      <c r="N120" t="s">
-        <v>785</v>
-      </c>
-      <c r="O120" t="s">
-        <v>768</v>
-      </c>
-      <c r="P120" t="s">
-        <v>774</v>
-      </c>
-      <c r="S120" t="s">
+      <c r="T120" t="s">
         <v>683</v>
       </c>
-      <c r="T120" t="s">
+      <c r="U120" t="s">
         <v>684</v>
-      </c>
-      <c r="U120" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C121" t="s">
         <v>686</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>764</v>
+      </c>
+      <c r="E121" t="s">
         <v>687</v>
       </c>
-      <c r="D121" t="s">
-        <v>767</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="G121" t="s">
         <v>688</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>689</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>690</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>691</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>692</v>
       </c>
-      <c r="K121" t="s">
+      <c r="N121" t="s">
         <v>693</v>
       </c>
-      <c r="N121" t="s">
+      <c r="O121" t="s">
         <v>694</v>
       </c>
-      <c r="O121" t="s">
+      <c r="P121" t="s">
+        <v>770</v>
+      </c>
+      <c r="R121" t="s">
         <v>695</v>
       </c>
-      <c r="P121" t="s">
-        <v>773</v>
-      </c>
-      <c r="R121" t="s">
+      <c r="T121" t="s">
         <v>696</v>
-      </c>
-      <c r="T121" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="S122" t="s">
         <v>698</v>
-      </c>
-      <c r="S122" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B123">
         <v>7</v>
@@ -9265,7 +9286,7 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B124">
         <v>6300</v>
@@ -9297,7 +9318,7 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B125">
         <v>6500</v>
@@ -9359,35 +9380,35 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="S126" t="s">
         <v>703</v>
       </c>
-      <c r="S126" t="s">
+      <c r="T126" t="s">
         <v>704</v>
       </c>
-      <c r="T126" t="s">
+      <c r="U126" t="s">
         <v>705</v>
-      </c>
-      <c r="U126" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="S127" t="s">
         <v>707</v>
       </c>
-      <c r="S127" t="s">
+      <c r="T127" t="s">
         <v>708</v>
       </c>
-      <c r="T127" t="s">
+      <c r="U127" t="s">
         <v>709</v>
-      </c>
-      <c r="U127" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B129" t="s">
         <v>28</v>
@@ -9422,7 +9443,7 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B130" t="s">
         <v>28</v>
@@ -9439,145 +9460,136 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E131" t="s">
+        <v>816</v>
+      </c>
+      <c r="I131" t="s">
         <v>713</v>
       </c>
-      <c r="E131" t="s">
-        <v>819</v>
-      </c>
-      <c r="I131" t="s">
-        <v>714</v>
-      </c>
       <c r="J131" t="s">
-        <v>714</v>
+        <v>846</v>
       </c>
       <c r="L131" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="M131" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="N131" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="O131" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="P131" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="Q131" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="R131" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H132" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="N132" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="O132" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B133" t="s">
-        <v>714</v>
-      </c>
-      <c r="J133" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="J135" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="M135" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="N135" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O135" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P135" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R135" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="N136" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O136" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P136" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R136" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J137" t="s">
-        <v>714</v>
+        <v>845</v>
       </c>
       <c r="N137" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O137" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P137" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R137" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="J139" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B140" t="s">
         <v>43</v>
@@ -9609,7 +9621,7 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B141" t="s">
         <v>43</v>
@@ -9638,306 +9650,274 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="J142" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="R142" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="J144" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="N144" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O144" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P144" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R144" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="N145" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O145" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P145" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R145" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="J148" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="J149" t="s">
-        <v>714</v>
+        <v>825</v>
       </c>
       <c r="N149" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O149" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P149" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="J150" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="J151" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="J152" t="s">
-        <v>714</v>
+        <v>844</v>
       </c>
       <c r="N152" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O152" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P152" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N154" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="O154" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P154" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="J156" t="s">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="N156" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O156" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P156" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R156" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="N157" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O157" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P157" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R157" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="I158" t="s">
         <v>43</v>
       </c>
-      <c r="J158" t="s">
-        <v>714</v>
-      </c>
       <c r="K158" t="s">
         <v>43</v>
       </c>
       <c r="N158" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O158" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P158" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R158" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="N159" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O159" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P159" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R159" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="H163" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-      <c r="J164" s="1" t="s">
-        <v>733</v>
-      </c>
+      <c r="J164" s="1"/>
       <c r="O164" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I166" s="1"/>
       <c r="K166" s="1"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B167" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I168" s="1"/>
-      <c r="J168" t="s">
-        <v>716</v>
-      </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D170" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="845">
   <si>
     <t>Country</t>
   </si>
@@ -2520,12 +2520,6 @@
   </si>
   <si>
     <t>FR: https://lse.eu.qualtrics.com/jfe/form/SV_9Wt11o3HDZ2YVym?Q_Language=FR-CA / EN: https://lse.eu.qualtrics.com/jfe/form/SV_9Wt11o3HDZ2YVym?Q_Language=EN</t>
-  </si>
-  <si>
-    <t>~ Herwita</t>
-  </si>
-  <si>
-    <t>~ Marco</t>
   </si>
   <si>
     <t>~ OECD?</t>
@@ -3001,15 +2995,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3092,7 +3086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3157,7 +3151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -3186,7 +3180,7 @@
         <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>832</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>28</v>
@@ -3201,7 +3195,7 @@
         <v>829</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>829</v>
@@ -3210,7 +3204,7 @@
         <v>28</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>28</v>
@@ -3222,7 +3216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3285,7 +3279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3326,10 +3320,10 @@
         <v>783</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>833</v>
+        <v>28</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>833</v>
+        <v>28</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>28</v>
@@ -3347,7 +3341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3400,7 +3394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3411,7 +3405,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>35</v>
@@ -3420,28 +3414,28 @@
         <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>818</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>838</v>
-      </c>
       <c r="Q7" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -3453,7 +3447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -3518,7 +3512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -3601,7 +3595,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -3684,7 +3678,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -3767,7 +3761,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>102</v>
       </c>
@@ -3850,7 +3844,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
@@ -3933,7 +3927,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>138</v>
       </c>
@@ -4016,7 +4010,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -4081,7 +4075,7 @@
         <v>16754</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>149</v>
       </c>
@@ -4146,7 +4140,7 @@
         <v>22562</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
@@ -4211,7 +4205,7 @@
         <v>29932</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>155</v>
       </c>
@@ -4263,7 +4257,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -4328,7 +4322,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>182</v>
       </c>
@@ -4393,7 +4387,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>193</v>
       </c>
@@ -4458,7 +4452,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>206</v>
       </c>
@@ -4523,7 +4517,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>207</v>
       </c>
@@ -4588,7 +4582,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>208</v>
       </c>
@@ -4653,7 +4647,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>209</v>
       </c>
@@ -4718,7 +4712,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>210</v>
       </c>
@@ -4783,7 +4777,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>213</v>
       </c>
@@ -4848,7 +4842,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>222</v>
       </c>
@@ -4913,7 +4907,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>230</v>
       </c>
@@ -4978,7 +4972,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>237</v>
       </c>
@@ -5022,7 +5016,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>249</v>
       </c>
@@ -5030,7 +5024,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
@@ -5095,7 +5089,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>253</v>
       </c>
@@ -5160,7 +5154,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>254</v>
       </c>
@@ -5225,7 +5219,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>255</v>
       </c>
@@ -5290,7 +5284,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>256</v>
       </c>
@@ -5355,7 +5349,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>259</v>
       </c>
@@ -5369,7 +5363,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>263</v>
       </c>
@@ -5383,7 +5377,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>267</v>
       </c>
@@ -5397,7 +5391,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>271</v>
       </c>
@@ -5405,7 +5399,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>273</v>
       </c>
@@ -5413,7 +5407,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>275</v>
       </c>
@@ -5424,7 +5418,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>278</v>
       </c>
@@ -5489,7 +5483,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>296</v>
       </c>
@@ -5554,7 +5548,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>300</v>
       </c>
@@ -5620,7 +5614,7 @@
       </c>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>319</v>
       </c>
@@ -5686,7 +5680,7 @@
       </c>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>749</v>
       </c>
@@ -5720,7 +5714,7 @@
       <c r="U47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>339</v>
       </c>
@@ -5743,7 +5737,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>342</v>
       </c>
@@ -5806,7 +5800,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>355</v>
       </c>
@@ -5889,7 +5883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>357</v>
       </c>
@@ -5996,7 +5990,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>358</v>
       </c>
@@ -6079,7 +6073,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>359</v>
       </c>
@@ -6184,7 +6178,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>361</v>
       </c>
@@ -6215,7 +6209,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>365</v>
       </c>
@@ -6298,7 +6292,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>373</v>
       </c>
@@ -6363,7 +6357,7 @@
       </c>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>374</v>
       </c>
@@ -6446,7 +6440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>375</v>
       </c>
@@ -6555,7 +6549,7 @@
         <v>5.2325581395348841</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>376</v>
       </c>
@@ -6639,7 +6633,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>377</v>
       </c>
@@ -6722,7 +6716,7 @@
         <v>39.738</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>378</v>
       </c>
@@ -6805,7 +6799,7 @@
         <v>7115854.8000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>379</v>
       </c>
@@ -6888,7 +6882,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>380</v>
       </c>
@@ -6997,7 +6991,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>381</v>
       </c>
@@ -7106,7 +7100,7 @@
         <v>0.10350000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>382</v>
       </c>
@@ -7215,7 +7209,7 @@
         <v>147.96508326729767</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>383</v>
       </c>
@@ -7259,7 +7253,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>386</v>
       </c>
@@ -7342,7 +7336,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>391</v>
       </c>
@@ -7425,7 +7419,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>395</v>
       </c>
@@ -7481,7 +7475,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>404</v>
       </c>
@@ -7546,7 +7540,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>413</v>
       </c>
@@ -7572,10 +7566,10 @@
         <v>777</v>
       </c>
       <c r="I71" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="J71" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="K71" s="16" t="s">
         <v>830</v>
@@ -7623,7 +7617,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>767</v>
       </c>
@@ -7652,7 +7646,7 @@
         <v>823</v>
       </c>
       <c r="J72" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="K72" t="s">
         <v>775</v>
@@ -7670,7 +7664,7 @@
       <c r="T72" s="20"/>
       <c r="U72" s="16"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>430</v>
       </c>
@@ -7744,7 +7738,7 @@
         <v>1.1820000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>432</v>
       </c>
@@ -7827,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>433</v>
       </c>
@@ -7880,7 +7874,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>434</v>
       </c>
@@ -7933,7 +7927,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>435</v>
       </c>
@@ -7962,7 +7956,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>436</v>
       </c>
@@ -7991,7 +7985,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>437</v>
       </c>
@@ -8008,7 +8002,7 @@
         <v>72.200772200772207</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>438</v>
       </c>
@@ -8073,7 +8067,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>453</v>
       </c>
@@ -8138,7 +8132,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>467</v>
       </c>
@@ -8152,7 +8146,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>471</v>
       </c>
@@ -8160,7 +8154,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>473</v>
       </c>
@@ -8201,7 +8195,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>480</v>
       </c>
@@ -8218,7 +8212,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>485</v>
       </c>
@@ -8238,7 +8232,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>490</v>
       </c>
@@ -8246,7 +8240,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>492</v>
       </c>
@@ -8254,7 +8248,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>494</v>
       </c>
@@ -8262,7 +8256,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>496</v>
       </c>
@@ -8324,7 +8318,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>516</v>
       </c>
@@ -8386,7 +8380,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>536</v>
       </c>
@@ -8448,7 +8442,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>555</v>
       </c>
@@ -8510,7 +8504,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>575</v>
       </c>
@@ -8563,7 +8557,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>592</v>
       </c>
@@ -8604,7 +8598,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>605</v>
       </c>
@@ -8630,7 +8624,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>613</v>
       </c>
@@ -8647,7 +8641,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>618</v>
       </c>
@@ -8658,7 +8652,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>621</v>
       </c>
@@ -8672,7 +8666,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>623</v>
       </c>
@@ -8680,7 +8674,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>625</v>
       </c>
@@ -8688,7 +8682,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>627</v>
       </c>
@@ -8696,7 +8690,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>629</v>
       </c>
@@ -8740,7 +8734,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>633</v>
       </c>
@@ -8793,7 +8787,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>636</v>
       </c>
@@ -8846,7 +8840,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>639</v>
       </c>
@@ -8875,7 +8869,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>641</v>
       </c>
@@ -8907,7 +8901,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>644</v>
       </c>
@@ -8921,7 +8915,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>648</v>
       </c>
@@ -8935,7 +8929,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>652</v>
       </c>
@@ -8949,7 +8943,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>656</v>
       </c>
@@ -8963,7 +8957,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>660</v>
       </c>
@@ -8971,7 +8965,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>662</v>
       </c>
@@ -8979,7 +8973,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>664</v>
       </c>
@@ -8993,7 +8987,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>668</v>
       </c>
@@ -9001,7 +8995,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>670</v>
       </c>
@@ -9009,7 +9003,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>784</v>
       </c>
@@ -9047,7 +9041,7 @@
         <v>786</v>
       </c>
       <c r="P117" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="Q117" t="s">
         <v>788</v>
@@ -9062,7 +9056,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>785</v>
       </c>
@@ -9115,7 +9109,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>752</v>
       </c>
@@ -9147,7 +9141,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>672</v>
       </c>
@@ -9203,7 +9197,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>685</v>
       </c>
@@ -9247,7 +9241,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>697</v>
       </c>
@@ -9255,7 +9249,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>699</v>
       </c>
@@ -9284,7 +9278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>700</v>
       </c>
@@ -9316,7 +9310,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>701</v>
       </c>
@@ -9378,7 +9372,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>702</v>
       </c>
@@ -9392,7 +9386,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>706</v>
       </c>
@@ -9406,7 +9400,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>710</v>
       </c>
@@ -9441,7 +9435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>711</v>
       </c>
@@ -9458,7 +9452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>712</v>
       </c>
@@ -9469,7 +9463,7 @@
         <v>713</v>
       </c>
       <c r="J131" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="L131" t="s">
         <v>817</v>
@@ -9493,7 +9487,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>714</v>
       </c>
@@ -9507,7 +9501,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>715</v>
       </c>
@@ -9515,12 +9509,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>717</v>
       </c>
@@ -9540,7 +9534,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>718</v>
       </c>
@@ -9557,12 +9551,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>719</v>
       </c>
       <c r="J137" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N137" t="s">
         <v>713</v>
@@ -9577,17 +9571,17 @@
         <v>713</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>722</v>
       </c>
@@ -9619,7 +9613,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>723</v>
       </c>
@@ -9648,7 +9642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>724</v>
       </c>
@@ -9656,12 +9650,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>726</v>
       </c>
@@ -9678,7 +9672,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>727</v>
       </c>
@@ -9695,22 +9689,22 @@
         <v>713</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>825</v>
       </c>
@@ -9724,19 +9718,19 @@
         <v>713</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="N152" t="s">
         <v>713</v>
@@ -9748,12 +9742,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>735</v>
       </c>
@@ -9767,12 +9761,12 @@
         <v>817</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>737</v>
       </c>
@@ -9789,7 +9783,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>738</v>
       </c>
@@ -9806,7 +9800,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>739</v>
       </c>
@@ -9829,7 +9823,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>740</v>
       </c>
@@ -9846,22 +9840,22 @@
         <v>713</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>774</v>
       </c>
@@ -9869,7 +9863,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>744</v>
       </c>
@@ -9881,19 +9875,19 @@
         <v>713</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>746</v>
       </c>
       <c r="I166" s="1"/>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>763</v>
       </c>
@@ -9901,18 +9895,18 @@
         <v>731</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>766</v>
       </c>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>822</v>
       </c>
@@ -9920,7 +9914,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
     </row>
   </sheetData>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="846">
   <si>
     <t>Country</t>
   </si>
@@ -2559,6 +2559,9 @@
   </si>
   <si>
     <t>t, test</t>
+  </si>
+  <si>
+    <t>Israel</t>
   </si>
 </sst>
 </file>
@@ -2991,11 +2994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA171"/>
+  <dimension ref="A1:AB171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3003,60 +3006,60 @@
     <col min="1" max="1" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>845</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -3067,26 +3070,29 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3120,7 +3126,7 @@
       <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -3135,12 +3141,10 @@
       <c r="P2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
         <v>28</v>
       </c>
@@ -3150,8 +3154,11 @@
       <c r="U2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -3185,27 +3192,25 @@
       <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>28</v>
+        <v>829</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>832</v>
-      </c>
       <c r="P3" s="3" t="s">
-        <v>829</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="3" t="s">
         <v>839</v>
       </c>
+      <c r="R3" s="3"/>
       <c r="S3" s="1" t="s">
         <v>28</v>
       </c>
@@ -3215,8 +3220,11 @@
       <c r="U3" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3250,11 +3258,11 @@
       <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>28</v>
+      <c r="L4" s="3" t="s">
+        <v>772</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>772</v>
+        <v>28</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>28</v>
@@ -3265,9 +3273,7 @@
       <c r="P4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="1" t="s">
         <v>28</v>
@@ -3278,8 +3284,11 @@
       <c r="U4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3305,19 +3314,19 @@
         <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>28</v>
+      <c r="L5" s="3" t="s">
+        <v>783</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>783</v>
+        <v>28</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>28</v>
@@ -3328,9 +3337,6 @@
       <c r="P5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="S5" s="1" t="s">
         <v>28</v>
       </c>
@@ -3340,8 +3346,11 @@
       <c r="U5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3375,13 +3384,10 @@
       <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="3" t="s">
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -3393,50 +3399,50 @@
       <c r="U6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>835</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>834</v>
-      </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3446,8 +3452,11 @@
       <c r="U7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,51 +3464,48 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
         <v>44</v>
       </c>
       <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s">
         <v>44</v>
       </c>
-      <c r="N8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" t="s">
-        <v>47</v>
-      </c>
       <c r="Q8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R8" t="s">
         <v>48</v>
       </c>
       <c r="S8" t="s">
@@ -3511,8 +3517,11 @@
       <c r="U8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -3520,51 +3529,48 @@
         <v>0.85</v>
       </c>
       <c r="C9">
+        <v>3.89</v>
+      </c>
+      <c r="D9">
         <v>0.85</v>
       </c>
-      <c r="D9">
-        <v>3.89</v>
-      </c>
       <c r="E9">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="F9">
-        <v>0.73</v>
+        <v>109</v>
       </c>
       <c r="G9">
-        <v>109</v>
+        <v>6.49</v>
       </c>
       <c r="H9">
-        <v>6.49</v>
+        <v>75</v>
       </c>
       <c r="I9">
-        <v>75</v>
+        <v>14544</v>
       </c>
       <c r="J9">
-        <v>14544</v>
+        <v>14.5</v>
       </c>
       <c r="K9">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>1.27</v>
       </c>
       <c r="M9">
-        <v>1.27</v>
+        <v>27.3</v>
       </c>
       <c r="N9">
-        <v>27.3</v>
+        <v>1152</v>
       </c>
       <c r="O9">
-        <v>1152</v>
+        <v>8.58</v>
       </c>
       <c r="P9">
-        <v>8.58</v>
+        <v>1.36</v>
       </c>
       <c r="Q9">
-        <v>1.36</v>
-      </c>
-      <c r="R9">
         <v>5.18</v>
       </c>
       <c r="S9">
@@ -3577,79 +3583,80 @@
         <v>0.85</v>
       </c>
       <c r="V9">
+        <v>0.85</v>
+      </c>
+      <c r="W9">
         <v>411</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>15.67</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>42025</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>74.64</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>3.75</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0.92</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R10" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="R10" s="2"/>
       <c r="S10" s="2" t="s">
         <v>18</v>
       </c>
@@ -3660,77 +3667,77 @@
         <v>69</v>
       </c>
       <c r="V10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
         <v>78</v>
       </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
-      </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R11" t="s">
         <v>91</v>
       </c>
       <c r="S11" t="s">
@@ -3743,77 +3750,77 @@
         <v>95</v>
       </c>
       <c r="V11" t="s">
+        <v>77</v>
+      </c>
+      <c r="W11" t="s">
         <v>96</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>97</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>98</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>99</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>100</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
         <v>104</v>
       </c>
-      <c r="E12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I12" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" t="s">
-        <v>112</v>
-      </c>
-      <c r="M12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N12" t="s">
-        <v>114</v>
-      </c>
-      <c r="O12" t="s">
-        <v>115</v>
-      </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="Q12" t="s">
-        <v>117</v>
-      </c>
-      <c r="R12" t="s">
         <v>116</v>
       </c>
       <c r="S12" t="s">
@@ -3826,77 +3833,77 @@
         <v>115</v>
       </c>
       <c r="V12" t="s">
+        <v>79</v>
+      </c>
+      <c r="W12" t="s">
         <v>120</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>80</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>121</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>122</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>123</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="s">
+        <v>128</v>
+      </c>
+      <c r="N13" t="s">
         <v>126</v>
       </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K13" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" t="s">
-        <v>121</v>
-      </c>
-      <c r="M13" t="s">
-        <v>133</v>
-      </c>
-      <c r="N13" t="s">
-        <v>128</v>
-      </c>
       <c r="O13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q13" t="s">
-        <v>135</v>
-      </c>
-      <c r="R13" t="s">
         <v>129</v>
       </c>
       <c r="S13" t="s">
@@ -3909,77 +3916,77 @@
         <v>135</v>
       </c>
       <c r="V13" t="s">
+        <v>126</v>
+      </c>
+      <c r="W13" t="s">
         <v>132</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>135</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>126</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>137</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>85</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
         <v>139</v>
       </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="H14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" t="s">
         <v>127</v>
       </c>
-      <c r="L14" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" t="s">
-        <v>139</v>
-      </c>
-      <c r="O14" t="s">
-        <v>143</v>
-      </c>
-      <c r="P14" t="s">
-        <v>104</v>
-      </c>
       <c r="Q14" t="s">
-        <v>127</v>
-      </c>
-      <c r="R14" t="s">
         <v>121</v>
       </c>
       <c r="S14" t="s">
@@ -3992,77 +3999,77 @@
         <v>143</v>
       </c>
       <c r="V14" t="s">
+        <v>127</v>
+      </c>
+      <c r="W14" t="s">
         <v>132</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>128</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>121</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>145</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>126</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B15">
-        <v>16942</v>
+        <v>11457</v>
       </c>
       <c r="C15">
-        <v>11457</v>
+        <v>21850</v>
       </c>
       <c r="D15">
-        <v>21850</v>
+        <v>9831</v>
       </c>
       <c r="E15">
-        <v>9831</v>
+        <v>13363</v>
       </c>
       <c r="F15">
-        <v>13363</v>
+        <v>2874373</v>
       </c>
       <c r="G15">
-        <v>2874373</v>
+        <v>32790</v>
       </c>
       <c r="H15">
-        <v>32790</v>
-      </c>
-      <c r="I15">
         <v>51737</v>
       </c>
-      <c r="J15" s="4">
+      <c r="I15" s="4">
         <v>24931044</v>
       </c>
+      <c r="J15">
+        <v>19653</v>
+      </c>
       <c r="K15">
-        <v>19653</v>
+        <v>52515</v>
       </c>
       <c r="L15">
-        <v>52515</v>
+        <v>22250</v>
       </c>
       <c r="M15">
-        <v>22250</v>
+        <v>22335</v>
       </c>
       <c r="N15">
-        <v>22335</v>
-      </c>
-      <c r="O15">
         <v>22080000</v>
       </c>
-      <c r="P15" s="5">
+      <c r="O15" s="5">
         <v>10998</v>
       </c>
+      <c r="P15">
+        <v>50960</v>
+      </c>
       <c r="Q15">
-        <v>50960</v>
-      </c>
-      <c r="R15">
         <v>12628</v>
       </c>
       <c r="S15" t="s">
@@ -4074,60 +4081,60 @@
       <c r="U15">
         <v>16754</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V15">
+        <v>16942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B16">
-        <v>23515</v>
+        <v>17165</v>
       </c>
       <c r="C16">
-        <v>17165</v>
+        <v>30360</v>
       </c>
       <c r="D16">
-        <v>30360</v>
+        <v>15015</v>
       </c>
       <c r="E16">
-        <v>15015</v>
+        <v>19625</v>
       </c>
       <c r="F16">
-        <v>19625</v>
+        <v>4250597</v>
       </c>
       <c r="G16">
-        <v>4250597</v>
+        <v>58360</v>
       </c>
       <c r="H16">
-        <v>58360</v>
-      </c>
-      <c r="I16">
         <v>94829</v>
       </c>
-      <c r="J16" s="4">
+      <c r="I16" s="4">
         <v>44519620</v>
       </c>
+      <c r="J16">
+        <v>46042</v>
+      </c>
       <c r="K16">
-        <v>46042</v>
-      </c>
-      <c r="L16">
         <v>87678</v>
       </c>
-      <c r="M16" s="6">
+      <c r="L16" s="6">
         <v>38804</v>
       </c>
+      <c r="M16">
+        <v>34151</v>
+      </c>
       <c r="N16">
-        <v>34151</v>
-      </c>
-      <c r="O16">
         <v>33742765</v>
       </c>
-      <c r="P16" s="5">
+      <c r="O16" s="5">
         <v>17246</v>
       </c>
+      <c r="P16">
+        <v>78679</v>
+      </c>
       <c r="Q16">
-        <v>78679</v>
-      </c>
-      <c r="R16">
         <v>24084</v>
       </c>
       <c r="S16" t="s">
@@ -4139,60 +4146,60 @@
       <c r="U16">
         <v>22562</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V16">
+        <v>23515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B17">
-        <v>31800</v>
+        <v>24482</v>
       </c>
       <c r="C17">
-        <v>24482</v>
+        <v>41566</v>
       </c>
       <c r="D17">
-        <v>41566</v>
+        <v>22231</v>
       </c>
       <c r="E17">
-        <v>22231</v>
+        <v>28783</v>
       </c>
       <c r="F17">
-        <v>28783</v>
+        <v>6238189</v>
       </c>
       <c r="G17">
-        <v>6238189</v>
+        <v>97818</v>
       </c>
       <c r="H17">
-        <v>97818</v>
-      </c>
-      <c r="I17">
         <v>183065</v>
       </c>
-      <c r="J17" s="4">
+      <c r="I17" s="4">
         <v>77223472</v>
       </c>
+      <c r="J17">
+        <v>113696</v>
+      </c>
       <c r="K17">
-        <v>113696</v>
+        <v>148696</v>
       </c>
       <c r="L17">
-        <v>148696</v>
+        <v>74000</v>
       </c>
       <c r="M17">
-        <v>74000</v>
+        <v>52924</v>
       </c>
       <c r="N17">
-        <v>52924</v>
-      </c>
-      <c r="O17">
         <v>50303410</v>
       </c>
-      <c r="P17" s="5">
+      <c r="O17" s="5">
         <v>27386</v>
       </c>
+      <c r="P17">
+        <v>122146</v>
+      </c>
       <c r="Q17">
-        <v>122146</v>
-      </c>
-      <c r="R17">
         <v>42755</v>
       </c>
       <c r="S17" t="s">
@@ -4204,49 +4211,49 @@
       <c r="U17">
         <v>29932</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V17">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K18" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="L18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>780</v>
+      </c>
       <c r="N18" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="O18" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="P18" s="1"/>
+      <c r="O18" s="1"/>
       <c r="S18" t="s">
         <v>165</v>
       </c>
@@ -4256,60 +4263,60 @@
       <c r="U18" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V18" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2700</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
         <v>170</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2700</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="M19" t="s">
         <v>170</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q19" t="s">
-        <v>181</v>
-      </c>
-      <c r="R19" t="s">
         <v>180</v>
       </c>
       <c r="S19" s="1" t="s">
@@ -4321,60 +4328,60 @@
       <c r="U19" s="1">
         <v>1400</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V19" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="7">
+        <v>4900</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" t="s">
+        <v>781</v>
+      </c>
+      <c r="N20" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4900</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M20" t="s">
-        <v>189</v>
-      </c>
-      <c r="N20" t="s">
-        <v>781</v>
-      </c>
-      <c r="O20" t="s">
-        <v>191</v>
-      </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="Q20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R20" t="s">
         <v>192</v>
       </c>
       <c r="S20" s="1" t="s">
@@ -4386,60 +4393,60 @@
       <c r="U20" s="1">
         <v>1900</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V20" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G21" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H21" s="7">
+      <c r="G21" s="7">
         <v>8150</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="I21" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="L21" t="s">
+        <v>201</v>
+      </c>
       <c r="M21" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q21" t="s">
-        <v>205</v>
-      </c>
-      <c r="R21" t="s">
         <v>204</v>
       </c>
       <c r="S21" s="1" t="s">
@@ -4451,8 +4458,11 @@
       <c r="U21" s="1">
         <v>2500</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V21" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>206</v>
       </c>
@@ -4504,9 +4514,6 @@
       <c r="Q22">
         <v>0.25</v>
       </c>
-      <c r="R22">
-        <v>0.25</v>
-      </c>
       <c r="S22">
         <v>0.2034</v>
       </c>
@@ -4516,8 +4523,11 @@
       <c r="U22">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>207</v>
       </c>
@@ -4569,9 +4579,6 @@
       <c r="Q23">
         <v>0.25</v>
       </c>
-      <c r="R23">
-        <v>0.25</v>
-      </c>
       <c r="S23">
         <v>0.23899999999999999</v>
       </c>
@@ -4581,8 +4588,11 @@
       <c r="U23">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>208</v>
       </c>
@@ -4634,9 +4644,6 @@
       <c r="Q24">
         <v>0.25</v>
       </c>
-      <c r="R24">
-        <v>0.25</v>
-      </c>
       <c r="S24">
         <v>0.24390000000000001</v>
       </c>
@@ -4646,8 +4653,11 @@
       <c r="U24">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>209</v>
       </c>
@@ -4699,9 +4709,6 @@
       <c r="Q25">
         <v>0.25</v>
       </c>
-      <c r="R25">
-        <v>0.25</v>
-      </c>
       <c r="S25">
         <v>0.31369999999999998</v>
       </c>
@@ -4711,60 +4718,60 @@
       <c r="U25">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
         <v>119</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="I26" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="K26">
+      <c r="J26">
         <v>0</v>
       </c>
+      <c r="K26" t="s">
+        <v>153</v>
+      </c>
       <c r="L26" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="M26" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="N26" t="s">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="O26" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="Q26" t="s">
-        <v>150</v>
-      </c>
-      <c r="R26" t="s">
         <v>190</v>
       </c>
       <c r="S26">
@@ -4776,60 +4783,60 @@
       <c r="U26" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>215</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
       <c r="K27" t="s">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="L27" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" t="s">
+        <v>105</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>105</v>
+      </c>
+      <c r="P27" t="s">
         <v>127</v>
       </c>
-      <c r="M27" t="s">
-        <v>139</v>
-      </c>
-      <c r="N27" t="s">
-        <v>105</v>
-      </c>
-      <c r="O27" t="s">
-        <v>219</v>
-      </c>
-      <c r="P27" t="s">
-        <v>105</v>
-      </c>
       <c r="Q27" t="s">
-        <v>127</v>
-      </c>
-      <c r="R27" t="s">
         <v>218</v>
       </c>
       <c r="S27" t="s">
@@ -4841,60 +4848,60 @@
       <c r="U27" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>106</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" t="s">
         <v>225</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>226</v>
       </c>
+      <c r="J28" t="s">
+        <v>227</v>
+      </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="L28" t="s">
+        <v>128</v>
+      </c>
+      <c r="M28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O28" t="s">
+        <v>747</v>
+      </c>
+      <c r="P28" t="s">
         <v>112</v>
       </c>
-      <c r="M28" t="s">
-        <v>128</v>
-      </c>
-      <c r="N28" t="s">
-        <v>127</v>
-      </c>
-      <c r="O28" t="s">
-        <v>228</v>
-      </c>
-      <c r="P28" t="s">
-        <v>747</v>
-      </c>
       <c r="Q28" t="s">
-        <v>112</v>
-      </c>
-      <c r="R28" t="s">
         <v>229</v>
       </c>
       <c r="S28" t="s">
@@ -4906,60 +4913,60 @@
       <c r="U28" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" t="s">
+        <v>133</v>
+      </c>
+      <c r="M29" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="N29" t="s">
+        <v>235</v>
+      </c>
+      <c r="O29" t="s">
         <v>135</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="H29" t="s">
-        <v>233</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="K29" t="s">
-        <v>135</v>
-      </c>
-      <c r="L29" t="s">
-        <v>132</v>
-      </c>
-      <c r="M29" t="s">
-        <v>133</v>
-      </c>
-      <c r="N29" t="s">
-        <v>85</v>
-      </c>
-      <c r="O29" t="s">
-        <v>235</v>
-      </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="Q29" t="s">
-        <v>126</v>
-      </c>
-      <c r="R29" t="s">
         <v>127</v>
       </c>
       <c r="S29" t="s">
@@ -4971,39 +4978,39 @@
       <c r="U29" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B30" t="s">
         <v>238</v>
       </c>
-      <c r="C30" t="s">
-        <v>238</v>
+      <c r="C30" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>239</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F30" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="F30" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s">
         <v>242</v>
       </c>
+      <c r="H30" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="I30" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="J30" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="J30" s="10" t="s">
         <v>245</v>
       </c>
       <c r="S30" t="s">
@@ -5015,8 +5022,11 @@
       <c r="U30" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>249</v>
       </c>
@@ -5024,7 +5034,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
@@ -5041,10 +5051,10 @@
         <v>251</v>
       </c>
       <c r="F32" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" t="s">
         <v>251</v>
-      </c>
-      <c r="G32" t="s">
-        <v>176</v>
       </c>
       <c r="H32" t="s">
         <v>251</v>
@@ -5076,9 +5086,6 @@
       <c r="Q32" t="s">
         <v>251</v>
       </c>
-      <c r="R32" t="s">
-        <v>251</v>
-      </c>
       <c r="S32" t="s">
         <v>251</v>
       </c>
@@ -5088,8 +5095,11 @@
       <c r="U32" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>253</v>
       </c>
@@ -5106,10 +5116,10 @@
         <v>176</v>
       </c>
       <c r="F33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" t="s">
         <v>176</v>
-      </c>
-      <c r="G33" t="s">
-        <v>174</v>
       </c>
       <c r="H33" t="s">
         <v>176</v>
@@ -5141,9 +5151,6 @@
       <c r="Q33" t="s">
         <v>176</v>
       </c>
-      <c r="R33" t="s">
-        <v>176</v>
-      </c>
       <c r="S33" t="s">
         <v>176</v>
       </c>
@@ -5153,8 +5160,11 @@
       <c r="U33" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>254</v>
       </c>
@@ -5171,10 +5181,10 @@
         <v>174</v>
       </c>
       <c r="F34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" t="s">
         <v>174</v>
-      </c>
-      <c r="G34" t="s">
-        <v>104</v>
       </c>
       <c r="H34" t="s">
         <v>174</v>
@@ -5206,9 +5216,6 @@
       <c r="Q34" t="s">
         <v>174</v>
       </c>
-      <c r="R34" t="s">
-        <v>174</v>
-      </c>
       <c r="S34" t="s">
         <v>174</v>
       </c>
@@ -5218,8 +5225,11 @@
       <c r="U34" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>255</v>
       </c>
@@ -5271,9 +5281,6 @@
       <c r="Q35" t="s">
         <v>106</v>
       </c>
-      <c r="R35" t="s">
-        <v>106</v>
-      </c>
       <c r="S35" t="s">
         <v>106</v>
       </c>
@@ -5283,25 +5290,28 @@
       <c r="U35" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
         <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="E36" t="s">
+        <v>257</v>
+      </c>
+      <c r="F36" t="s">
         <v>236</v>
-      </c>
-      <c r="F36" t="s">
-        <v>257</v>
       </c>
       <c r="G36" t="s">
         <v>236</v>
@@ -5319,13 +5329,13 @@
         <v>236</v>
       </c>
       <c r="L36" t="s">
+        <v>144</v>
+      </c>
+      <c r="M36" t="s">
+        <v>126</v>
+      </c>
+      <c r="N36" t="s">
         <v>236</v>
-      </c>
-      <c r="M36" t="s">
-        <v>144</v>
-      </c>
-      <c r="N36" t="s">
-        <v>126</v>
       </c>
       <c r="O36" t="s">
         <v>236</v>
@@ -5336,9 +5346,6 @@
       <c r="Q36" t="s">
         <v>236</v>
       </c>
-      <c r="R36" t="s">
-        <v>236</v>
-      </c>
       <c r="S36" t="s">
         <v>236</v>
       </c>
@@ -5348,8 +5355,11 @@
       <c r="U36" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>259</v>
       </c>
@@ -5363,7 +5373,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>263</v>
       </c>
@@ -5377,7 +5387,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>267</v>
       </c>
@@ -5391,7 +5401,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>271</v>
       </c>
@@ -5399,7 +5409,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>273</v>
       </c>
@@ -5407,7 +5417,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>275</v>
       </c>
@@ -5418,61 +5428,59 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>290</v>
+        <v>751</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>751</v>
+        <v>291</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>292</v>
+        <v>828</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="R43" s="1" t="s">
         <v>750</v>
       </c>
+      <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
         <v>293</v>
       </c>
@@ -5482,18 +5490,21 @@
       <c r="U43" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V43" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>297</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>297</v>
       </c>
       <c r="E44" t="s">
@@ -5512,7 +5523,7 @@
         <v>297</v>
       </c>
       <c r="J44" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K44" t="s">
         <v>298</v>
@@ -5521,13 +5532,13 @@
         <v>298</v>
       </c>
       <c r="M44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N44" t="s">
         <v>297</v>
       </c>
       <c r="O44" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P44" t="s">
         <v>298</v>
@@ -5535,9 +5546,6 @@
       <c r="Q44" t="s">
         <v>298</v>
       </c>
-      <c r="R44" t="s">
-        <v>298</v>
-      </c>
       <c r="S44" t="s">
         <v>299</v>
       </c>
@@ -5547,8 +5555,11 @@
       <c r="U44" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V44" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>300</v>
       </c>
@@ -5556,53 +5567,51 @@
         <v>301</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="R45" s="1" t="s">
         <v>314</v>
       </c>
+      <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
         <v>316</v>
       </c>
@@ -5612,63 +5621,64 @@
       <c r="U45" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="W45" s="1"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V45" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>332</v>
+        <v>748</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>748</v>
+        <v>333</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="R46" s="1" t="s">
         <v>334</v>
       </c>
+      <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
         <v>336</v>
       </c>
@@ -5678,9 +5688,12 @@
       <c r="U46" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="W46" s="1"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V46" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>749</v>
       </c>
@@ -5690,21 +5703,21 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="I47" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="M47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -5712,23 +5725,21 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-      <c r="W47" s="1"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
       <c r="S48" s="1" t="s">
         <v>341</v>
       </c>
@@ -5736,8 +5747,11 @@
       <c r="U48" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V48" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>342</v>
       </c>
@@ -5745,51 +5759,49 @@
         <v>343</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="M49" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P49" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="Q49" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="R49" s="1" t="s">
         <v>354</v>
       </c>
+      <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
         <v>343</v>
       </c>
@@ -5799,8 +5811,11 @@
       <c r="U49" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V49" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>355</v>
       </c>
@@ -5808,53 +5823,51 @@
         <v>100</v>
       </c>
       <c r="C50" s="2">
+        <v>500</v>
+      </c>
+      <c r="D50" s="2">
         <v>100</v>
-      </c>
-      <c r="D50" s="2">
-        <v>500</v>
       </c>
       <c r="E50" s="2">
         <v>100</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G50" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K50" s="12">
+        <v>1000</v>
+      </c>
+      <c r="L50" s="12">
         <v>100</v>
       </c>
-      <c r="G50" s="11">
-        <v>10000</v>
-      </c>
-      <c r="H50" s="12">
+      <c r="M50" s="12">
         <v>1000</v>
       </c>
-      <c r="I50" s="2">
-        <v>10000</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K50" s="2">
+      <c r="N50" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O50" s="12">
         <v>1000</v>
       </c>
-      <c r="L50" s="12">
-        <v>1000</v>
-      </c>
-      <c r="M50" s="12">
+      <c r="P50" s="12">
         <v>100</v>
       </c>
-      <c r="N50" s="12">
-        <v>1000</v>
-      </c>
-      <c r="O50" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="P50" s="12">
-        <v>1000</v>
-      </c>
       <c r="Q50" s="12">
-        <v>100</v>
-      </c>
-      <c r="R50" s="12">
         <v>500</v>
       </c>
+      <c r="R50" s="12"/>
       <c r="S50" s="2">
         <v>100</v>
       </c>
@@ -5865,25 +5878,28 @@
         <v>100</v>
       </c>
       <c r="V50" s="2">
+        <v>100</v>
+      </c>
+      <c r="W50" s="2">
         <v>10000</v>
       </c>
-      <c r="W50" s="12">
+      <c r="X50" s="12">
         <v>1000</v>
       </c>
-      <c r="X50" s="2" t="s">
+      <c r="Y50" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="Y50" s="2">
+      <c r="Z50" s="2">
         <v>10000</v>
       </c>
-      <c r="Z50" s="2">
+      <c r="AA50" s="2">
         <v>500</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AB50" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>357</v>
       </c>
@@ -5893,67 +5909,64 @@
       </c>
       <c r="C51" s="13">
         <f>$S$51*C9</f>
-        <v>25.5</v>
+        <v>116.7</v>
       </c>
       <c r="D51" s="13">
         <f>$S$51*D9</f>
-        <v>116.7</v>
+        <v>25.5</v>
       </c>
       <c r="E51" s="13">
         <f>$S$51*E9</f>
-        <v>25.5</v>
+        <v>21.9</v>
       </c>
       <c r="F51" s="13">
-        <f>$S$51*F9</f>
-        <v>21.9</v>
+        <v>3300</v>
       </c>
       <c r="G51" s="13">
-        <v>3300</v>
+        <f t="shared" ref="G51:Q51" si="0">$S$51*G9</f>
+        <v>194.70000000000002</v>
       </c>
       <c r="H51" s="13">
-        <f t="shared" ref="H51:R51" si="0">$S$51*H9</f>
-        <v>194.70000000000002</v>
+        <f t="shared" si="0"/>
+        <v>2250</v>
       </c>
       <c r="I51" s="13">
         <f t="shared" si="0"/>
-        <v>2250</v>
+        <v>436320</v>
       </c>
       <c r="J51" s="13">
         <f t="shared" si="0"/>
-        <v>436320</v>
+        <v>435</v>
       </c>
       <c r="K51" s="13">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>600</v>
       </c>
       <c r="L51" s="13">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>38.1</v>
       </c>
       <c r="M51" s="13">
         <f t="shared" si="0"/>
-        <v>38.1</v>
+        <v>819</v>
       </c>
       <c r="N51" s="13">
         <f t="shared" si="0"/>
-        <v>819</v>
+        <v>34560</v>
       </c>
       <c r="O51" s="13">
         <f t="shared" si="0"/>
-        <v>34560</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="P51" s="13">
         <f t="shared" si="0"/>
-        <v>257.39999999999998</v>
+        <v>40.800000000000004</v>
       </c>
       <c r="Q51" s="13">
         <f t="shared" si="0"/>
-        <v>40.800000000000004</v>
-      </c>
-      <c r="R51" s="13">
-        <f t="shared" si="0"/>
         <v>155.39999999999998</v>
       </c>
+      <c r="R51" s="13"/>
       <c r="S51" s="1">
         <v>30</v>
       </c>
@@ -5966,83 +5979,84 @@
         <v>25.5</v>
       </c>
       <c r="V51" s="13">
-        <f t="shared" ref="V51:AA51" si="1">$S$51*V9</f>
+        <f>$S$51*V9</f>
+        <v>25.5</v>
+      </c>
+      <c r="W51" s="13">
+        <f t="shared" ref="W51:AB51" si="1">$S$51*W9</f>
         <v>12330</v>
       </c>
-      <c r="W51" s="13">
+      <c r="X51" s="13">
         <f t="shared" si="1"/>
         <v>470.1</v>
       </c>
-      <c r="X51" s="13">
+      <c r="Y51" s="13">
         <f t="shared" si="1"/>
         <v>1260750</v>
       </c>
-      <c r="Y51" s="13">
+      <c r="Z51" s="13">
         <f t="shared" si="1"/>
         <v>2239.1999999999998</v>
       </c>
-      <c r="Z51" s="13">
+      <c r="AA51" s="13">
         <f t="shared" si="1"/>
         <v>112.5</v>
       </c>
-      <c r="AA51" s="13">
+      <c r="AB51" s="13">
         <f t="shared" si="1"/>
         <v>27.6</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B52">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C52">
         <v>42</v>
       </c>
       <c r="D52">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E52">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F52">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G52">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="H52">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I52">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J52">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K52">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L52">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="M52">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="N52">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="O52">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="P52">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="Q52">
-        <v>134</v>
-      </c>
-      <c r="R52">
         <v>18</v>
       </c>
       <c r="S52">
@@ -6055,93 +6069,93 @@
         <v>46</v>
       </c>
       <c r="V52">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="W52">
+        <v>28</v>
+      </c>
+      <c r="X52">
         <v>27</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>58</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>48</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>172</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" ref="B53:F53" si="2">B52*B9</f>
-        <v>51.85</v>
+        <f t="shared" ref="B53:E53" si="2">B52*B9</f>
+        <v>35.699999999999996</v>
       </c>
       <c r="C53" s="13">
         <f t="shared" si="2"/>
-        <v>35.699999999999996</v>
+        <v>163.38</v>
       </c>
       <c r="D53" s="13">
         <f t="shared" si="2"/>
-        <v>163.38</v>
+        <v>33.15</v>
       </c>
       <c r="E53" s="13">
         <f t="shared" si="2"/>
-        <v>33.15</v>
+        <v>43.07</v>
       </c>
       <c r="F53" s="13">
-        <f t="shared" si="2"/>
-        <v>43.07</v>
-      </c>
-      <c r="G53" s="13">
         <v>6500</v>
       </c>
-      <c r="H53">
+      <c r="G53">
         <v>242</v>
       </c>
+      <c r="H53" s="13">
+        <f>H52*H9</f>
+        <v>975</v>
+      </c>
       <c r="I53" s="13">
-        <f>I52*I9</f>
-        <v>975</v>
+        <v>230000</v>
       </c>
       <c r="J53" s="13">
-        <v>230000</v>
+        <f>J52*J9</f>
+        <v>725</v>
       </c>
       <c r="K53" s="13">
-        <f>K52*K9</f>
-        <v>725</v>
+        <f t="shared" ref="K53:Q53" si="3">K52*K9</f>
+        <v>680</v>
       </c>
       <c r="L53" s="13">
-        <f t="shared" ref="L53:R53" si="3">L52*L9</f>
-        <v>680</v>
+        <f t="shared" si="3"/>
+        <v>133.35</v>
       </c>
       <c r="M53" s="13">
         <f t="shared" si="3"/>
-        <v>133.35</v>
+        <v>873.6</v>
       </c>
       <c r="N53" s="13">
         <f t="shared" si="3"/>
-        <v>873.6</v>
+        <v>82944</v>
       </c>
       <c r="O53" s="13">
         <f t="shared" si="3"/>
-        <v>82944</v>
+        <v>343.2</v>
       </c>
       <c r="P53" s="13">
-        <f t="shared" si="3"/>
-        <v>343.2</v>
+        <f>P52*P9</f>
+        <v>182.24</v>
       </c>
       <c r="Q53" s="13">
-        <f>Q52*Q9</f>
-        <v>182.24</v>
-      </c>
-      <c r="R53" s="13">
         <f t="shared" si="3"/>
         <v>93.24</v>
       </c>
+      <c r="R53" s="13"/>
       <c r="S53" s="1" t="s">
         <v>360</v>
       </c>
@@ -6154,49 +6168,51 @@
         <v>39.1</v>
       </c>
       <c r="V53" s="13">
-        <f t="shared" ref="V53:AA53" si="4">V52*V9</f>
+        <f>V52*V9</f>
+        <v>51.85</v>
+      </c>
+      <c r="W53" s="13">
+        <f t="shared" ref="W53:AB53" si="4">W52*W9</f>
         <v>11508</v>
       </c>
-      <c r="W53" s="13">
+      <c r="X53" s="13">
         <f t="shared" si="4"/>
         <v>423.09</v>
       </c>
-      <c r="X53" s="13">
+      <c r="Y53" s="13">
         <f t="shared" si="4"/>
         <v>2437450</v>
       </c>
-      <c r="Y53" s="13">
+      <c r="Z53" s="13">
         <f t="shared" si="4"/>
         <v>3582.7200000000003</v>
       </c>
-      <c r="Z53" s="13">
+      <c r="AA53" s="13">
         <f t="shared" si="4"/>
         <v>645</v>
       </c>
-      <c r="AA53" s="13">
+      <c r="AB53" s="13">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>362</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="H54" t="s">
         <v>363</v>
       </c>
+      <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="2" t="s">
@@ -6208,8 +6224,11 @@
       <c r="U54" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V54" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>365</v>
       </c>
@@ -6222,48 +6241,45 @@
       <c r="D55" t="s">
         <v>366</v>
       </c>
-      <c r="E55" t="s">
-        <v>366</v>
+      <c r="E55" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G55" s="1" t="s">
         <v>368</v>
       </c>
+      <c r="G55" t="s">
+        <v>369</v>
+      </c>
       <c r="H55" t="s">
-        <v>369</v>
-      </c>
-      <c r="I55" t="s">
         <v>370</v>
       </c>
+      <c r="I55" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="J55" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="K55" s="1" t="s">
         <v>372</v>
+      </c>
+      <c r="K55" t="s">
+        <v>370</v>
       </c>
       <c r="L55" t="s">
         <v>370</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P55" t="s">
         <v>370</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="Q55" t="s">
         <v>370</v>
       </c>
-      <c r="R55" t="s">
-        <v>370</v>
-      </c>
       <c r="S55" t="s">
         <v>370</v>
       </c>
@@ -6274,75 +6290,76 @@
         <v>366</v>
       </c>
       <c r="V55" t="s">
+        <v>366</v>
+      </c>
+      <c r="W55" t="s">
         <v>370</v>
       </c>
-      <c r="W55" s="1" t="s">
+      <c r="X55" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="X55" s="1" t="s">
+      <c r="Y55" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>370</v>
       </c>
-      <c r="Z55" s="1" t="s">
+      <c r="AA55" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B56">
+        <v>7.7</v>
+      </c>
+      <c r="C56">
+        <v>7.9</v>
+      </c>
+      <c r="D56">
+        <v>6.2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>8</v>
+      </c>
+      <c r="F56" s="2">
         <v>10</v>
       </c>
-      <c r="C56">
-        <v>7.7</v>
-      </c>
-      <c r="D56">
-        <v>7.9</v>
-      </c>
-      <c r="E56">
-        <v>6.2</v>
-      </c>
-      <c r="F56" s="2">
-        <v>8</v>
-      </c>
       <c r="G56" s="2">
-        <v>10</v>
+        <v>6.3</v>
       </c>
       <c r="H56" s="2">
-        <v>6.3</v>
+        <v>1.7</v>
       </c>
       <c r="I56" s="2">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="J56" s="2">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="K56" s="2">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="L56" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="M56" s="2">
         <v>16</v>
       </c>
-      <c r="N56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2">
+        <v>13</v>
+      </c>
       <c r="O56" s="2">
-        <v>13</v>
-      </c>
-      <c r="P56" s="2">
         <v>5.3</v>
       </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2">
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2">
         <v>2.2999999999999998</v>
       </c>
+      <c r="R56" s="2"/>
       <c r="S56">
         <v>18</v>
       </c>
@@ -6352,66 +6369,67 @@
       <c r="U56">
         <v>6.8</v>
       </c>
-      <c r="W56" s="2">
+      <c r="V56">
+        <v>10</v>
+      </c>
+      <c r="X56" s="2">
         <v>2.5</v>
       </c>
-      <c r="X56" s="2"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y56" s="2"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B57">
-        <v>887</v>
-      </c>
-      <c r="C57">
         <v>458</v>
       </c>
+      <c r="C57" s="14">
+        <v>376</v>
+      </c>
       <c r="D57" s="14">
-        <v>376</v>
-      </c>
-      <c r="E57" s="14">
         <v>296</v>
       </c>
+      <c r="E57" s="2">
+        <v>557</v>
+      </c>
       <c r="F57" s="2">
-        <v>557</v>
+        <v>1411</v>
       </c>
       <c r="G57" s="2">
-        <v>1411</v>
+        <v>8801</v>
       </c>
       <c r="H57" s="2">
-        <v>8801</v>
+        <v>2217</v>
       </c>
       <c r="I57" s="2">
-        <v>2217</v>
+        <v>506</v>
       </c>
       <c r="J57" s="2">
-        <v>506</v>
+        <v>337</v>
       </c>
       <c r="K57" s="2">
-        <v>337</v>
+        <v>528</v>
       </c>
       <c r="L57" s="2">
-        <v>528</v>
-      </c>
-      <c r="M57" s="2">
         <v>575</v>
       </c>
-      <c r="N57" s="14">
+      <c r="M57" s="14">
         <v>342</v>
       </c>
+      <c r="N57" s="2">
+        <v>634</v>
+      </c>
       <c r="O57" s="2">
-        <v>634</v>
+        <v>450</v>
       </c>
       <c r="P57" s="2">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="Q57" s="2">
-        <v>378</v>
-      </c>
-      <c r="R57" s="2">
         <v>524</v>
       </c>
+      <c r="R57" s="2"/>
       <c r="S57">
         <v>5716</v>
       </c>
@@ -6421,97 +6439,97 @@
       <c r="U57">
         <v>447</v>
       </c>
-      <c r="V57" s="1">
+      <c r="V57">
+        <v>887</v>
+      </c>
+      <c r="W57" s="1">
         <v>357</v>
       </c>
-      <c r="W57" s="1">
+      <c r="X57" s="1">
         <v>329</v>
       </c>
-      <c r="X57" s="2">
+      <c r="Y57" s="2">
         <v>572</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>1381</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>623</v>
       </c>
-      <c r="AA57" s="14">
+      <c r="AB57" s="14">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" ref="B58:AA58" si="5">B57/B62</f>
-        <v>10.55952380952381</v>
+        <f t="shared" ref="B58:AB58" si="5">B57/B62</f>
+        <v>7.6333333333333337</v>
       </c>
       <c r="C58" s="15">
         <f t="shared" si="5"/>
-        <v>7.6333333333333337</v>
+        <v>9.8947368421052637</v>
       </c>
       <c r="D58" s="15">
         <f t="shared" si="5"/>
-        <v>9.8947368421052637</v>
+        <v>6.2978723404255321</v>
       </c>
       <c r="E58" s="15">
         <f t="shared" si="5"/>
-        <v>6.2978723404255321</v>
+        <v>8.1911764705882355</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="5"/>
-        <v>8.1911764705882355</v>
+        <v>11.110236220472441</v>
       </c>
       <c r="G58" s="15">
         <f t="shared" si="5"/>
-        <v>11.110236220472441</v>
+        <v>6.1160528144544823</v>
       </c>
       <c r="H58" s="15">
         <f t="shared" si="5"/>
-        <v>6.1160528144544823</v>
+        <v>1.6065217391304347</v>
       </c>
       <c r="I58" s="15">
         <f t="shared" si="5"/>
-        <v>1.6065217391304347</v>
+        <v>1.8467153284671534</v>
       </c>
       <c r="J58" s="15">
         <f t="shared" si="5"/>
-        <v>1.8467153284671534</v>
+        <v>5.7118644067796609</v>
       </c>
       <c r="K58" s="15">
-        <f t="shared" si="5"/>
-        <v>5.7118644067796609</v>
+        <f>K57/K62</f>
+        <v>4.0930232558139537</v>
       </c>
       <c r="L58" s="15">
         <f>L57/L62</f>
-        <v>4.0930232558139537</v>
+        <v>15.131578947368421</v>
       </c>
       <c r="M58" s="15">
         <f>M57/M62</f>
-        <v>15.131578947368421</v>
+        <v>7.7727272727272725</v>
       </c>
       <c r="N58" s="15">
-        <f>N57/N62</f>
-        <v>7.7727272727272725</v>
+        <f t="shared" si="5"/>
+        <v>12.431372549019608</v>
       </c>
       <c r="O58" s="15">
         <f t="shared" si="5"/>
-        <v>12.431372549019608</v>
+        <v>5.3571428571428568</v>
       </c>
       <c r="P58" s="15">
-        <f t="shared" si="5"/>
-        <v>5.3571428571428568</v>
+        <f>P57/P62</f>
+        <v>14.823529411764707</v>
       </c>
       <c r="Q58" s="15">
-        <f>Q57/Q62</f>
-        <v>14.823529411764707</v>
-      </c>
-      <c r="R58" s="15">
         <f t="shared" si="5"/>
         <v>2.460093896713615</v>
       </c>
+      <c r="R58" s="15"/>
       <c r="S58" s="15">
         <f t="shared" si="5"/>
         <v>17.268882175226587</v>
@@ -6525,31 +6543,35 @@
         <v>6.8769230769230774</v>
       </c>
       <c r="V58" s="15">
+        <f>V57/V62</f>
+        <v>10.55952380952381</v>
+      </c>
+      <c r="W58" s="15">
         <f t="shared" si="5"/>
         <v>1.733009708737864</v>
       </c>
-      <c r="W58" s="15">
+      <c r="X58" s="15">
         <f t="shared" si="5"/>
         <v>3.2254901960784315</v>
       </c>
-      <c r="X58" s="15">
+      <c r="Y58" s="15">
         <f t="shared" si="5"/>
         <v>6.8095238095238093</v>
       </c>
-      <c r="Y58" s="15">
+      <c r="Z58" s="15">
         <f t="shared" si="5"/>
         <v>9.4589041095890405</v>
       </c>
-      <c r="Z58" s="15">
+      <c r="AA58" s="15">
         <f t="shared" si="5"/>
         <v>17.8</v>
       </c>
-      <c r="AA58" s="15">
+      <c r="AB58" s="15">
         <f t="shared" si="5"/>
         <v>5.2325581395348841</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>376</v>
       </c>
@@ -6599,9 +6621,6 @@
         <v>45</v>
       </c>
       <c r="Q59">
-        <v>45</v>
-      </c>
-      <c r="R59">
         <v>45</v>
       </c>
       <c r="S59">
@@ -6632,62 +6651,63 @@
       <c r="AA59">
         <v>45</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB59">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B60" s="5">
-        <v>796.529</v>
+        <v>361.17599999999999</v>
       </c>
       <c r="C60" s="5">
-        <v>361.17599999999999</v>
+        <v>319.02800000000002</v>
       </c>
       <c r="D60" s="5">
-        <v>319.02800000000002</v>
+        <v>282.36399999999998</v>
       </c>
       <c r="E60" s="5">
-        <v>282.36399999999998</v>
+        <v>379.15</v>
       </c>
       <c r="F60" s="5">
-        <v>379.15</v>
+        <v>1320.7760000000001</v>
       </c>
       <c r="G60" s="5">
-        <v>1320.7760000000001</v>
+        <v>10877</v>
       </c>
       <c r="H60" s="5">
-        <v>10877</v>
+        <v>2454.7739999999999</v>
       </c>
       <c r="I60" s="5">
-        <v>2454.7739999999999</v>
+        <v>511.327</v>
       </c>
       <c r="J60" s="5">
-        <v>511.327</v>
+        <v>433.17</v>
       </c>
       <c r="K60" s="5">
-        <v>433.17</v>
+        <v>507</v>
       </c>
       <c r="L60" s="5">
-        <v>507</v>
+        <v>617.29999999999995</v>
       </c>
       <c r="M60" s="5">
-        <v>617.29999999999995</v>
+        <v>205.72300000000001</v>
       </c>
       <c r="N60" s="5">
-        <v>205.72300000000001</v>
+        <v>673</v>
       </c>
       <c r="O60" s="5">
-        <v>673</v>
+        <v>430</v>
       </c>
       <c r="P60" s="5">
-        <v>430</v>
+        <v>402.25299999999999</v>
       </c>
       <c r="Q60" s="5">
-        <v>402.25299999999999</v>
-      </c>
-      <c r="R60" s="5">
         <v>493</v>
       </c>
+      <c r="R60" s="5"/>
       <c r="S60" s="5">
         <v>5107.393</v>
       </c>
@@ -6698,77 +6718,77 @@
         <v>338.19299999999998</v>
       </c>
       <c r="V60" s="5">
+        <v>796.529</v>
+      </c>
+      <c r="W60" s="5">
         <v>94.846999999999994</v>
       </c>
-      <c r="W60" s="5">
+      <c r="X60" s="5">
         <v>258.66800000000001</v>
       </c>
-      <c r="X60" s="5">
+      <c r="Y60" s="5">
         <v>671.45</v>
       </c>
-      <c r="Y60" s="5">
+      <c r="Z60" s="5">
         <v>1764.866</v>
       </c>
-      <c r="Z60" s="5">
+      <c r="AA60" s="5">
         <v>638.76199999999994</v>
       </c>
-      <c r="AA60" s="5">
+      <c r="AB60" s="5">
         <v>39.738</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B61" s="5">
-        <v>68527599.400000006</v>
+        <v>49663148.200000003</v>
       </c>
       <c r="C61" s="5">
-        <v>49663148.200000003</v>
+        <v>31355629</v>
       </c>
       <c r="D61" s="5">
-        <v>31355629</v>
+        <v>38223111.600000001</v>
       </c>
       <c r="E61" s="5">
-        <v>38223111.600000001</v>
+        <v>51629389.799999997</v>
       </c>
       <c r="F61" s="5">
-        <v>51629389.799999997</v>
-      </c>
-      <c r="G61" s="5">
         <v>107761630.8</v>
       </c>
-      <c r="H61">
+      <c r="G61">
         <v>1128677232</v>
       </c>
+      <c r="H61" s="5">
+        <v>859909198.39999998</v>
+      </c>
       <c r="I61" s="5">
-        <v>859909198.39999998</v>
+        <v>172734542.40000001</v>
       </c>
       <c r="J61" s="5">
-        <v>172734542.40000001</v>
-      </c>
-      <c r="K61" s="5">
         <v>35983394.399999999</v>
       </c>
+      <c r="K61">
+        <v>92799575.799999997</v>
+      </c>
       <c r="L61">
-        <v>92799575.799999997</v>
+        <v>30346601.800000001</v>
       </c>
       <c r="M61">
-        <v>30346601.800000001</v>
+        <v>35367968.799999997</v>
       </c>
       <c r="N61">
-        <v>35367968.799999997</v>
-      </c>
-      <c r="O61">
         <v>43190072.399999999</v>
       </c>
-      <c r="P61" s="16">
+      <c r="O61" s="16">
         <v>59786297.800000004</v>
       </c>
+      <c r="P61">
+        <v>19596935.200000003</v>
+      </c>
       <c r="Q61">
-        <v>19596935.200000003</v>
-      </c>
-      <c r="R61">
         <v>159837762.59999999</v>
       </c>
       <c r="S61" s="5">
@@ -6780,78 +6800,78 @@
       <c r="U61" s="17">
         <v>50403455</v>
       </c>
-      <c r="V61">
+      <c r="V61" s="5">
+        <v>68527599.400000006</v>
+      </c>
+      <c r="W61">
         <v>103403543.60000001</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>63488688.599999972</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>60813537.600000009</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>113392308.19999999</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>24941946.399999995</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>7115854.8000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B62" s="5">
+        <v>60</v>
+      </c>
+      <c r="C62" s="5">
+        <v>38</v>
+      </c>
+      <c r="D62" s="5">
+        <v>47</v>
+      </c>
+      <c r="E62" s="5">
+        <v>68</v>
+      </c>
+      <c r="F62" s="5">
+        <v>127</v>
+      </c>
+      <c r="G62">
+        <v>1439</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1380</v>
+      </c>
+      <c r="I62" s="5">
+        <v>274</v>
+      </c>
+      <c r="J62" s="5">
+        <v>59</v>
+      </c>
+      <c r="K62" s="5">
+        <v>129</v>
+      </c>
+      <c r="L62" s="5">
+        <v>38</v>
+      </c>
+      <c r="M62" s="5">
+        <v>44</v>
+      </c>
+      <c r="N62" s="5">
+        <v>51</v>
+      </c>
+      <c r="O62">
         <v>84</v>
       </c>
-      <c r="C62" s="5">
-        <v>60</v>
-      </c>
-      <c r="D62" s="5">
-        <v>38</v>
-      </c>
-      <c r="E62" s="5">
-        <v>47</v>
-      </c>
-      <c r="F62" s="5">
-        <v>68</v>
-      </c>
-      <c r="G62" s="5">
-        <v>127</v>
-      </c>
-      <c r="H62">
-        <v>1439</v>
-      </c>
-      <c r="I62" s="5">
-        <v>1380</v>
-      </c>
-      <c r="J62" s="5">
-        <v>274</v>
-      </c>
-      <c r="K62" s="5">
-        <v>59</v>
-      </c>
-      <c r="L62" s="5">
-        <v>129</v>
-      </c>
-      <c r="M62" s="5">
-        <v>38</v>
-      </c>
-      <c r="N62" s="5">
-        <v>44</v>
-      </c>
-      <c r="O62" s="5">
-        <v>51</v>
-      </c>
-      <c r="P62">
-        <v>84</v>
-      </c>
-      <c r="Q62" s="5">
+      <c r="P62" s="5">
         <v>25.5</v>
       </c>
-      <c r="R62">
+      <c r="Q62">
         <v>213</v>
       </c>
       <c r="S62" s="5">
@@ -6863,31 +6883,34 @@
       <c r="U62" s="17">
         <v>65</v>
       </c>
-      <c r="V62">
+      <c r="V62" s="5">
+        <v>84</v>
+      </c>
+      <c r="W62">
         <v>206</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>102</v>
       </c>
-      <c r="X62" s="5">
+      <c r="Y62" s="5">
         <v>84</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>146</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>35</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>8.6</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B63" s="18">
-        <f t="shared" ref="B63:P63" si="6">2.5*B59/1000</f>
+        <f t="shared" ref="B63:O63" si="6">2.5*B59/1000</f>
         <v>0.1125</v>
       </c>
       <c r="C63" s="18">
@@ -6907,11 +6930,11 @@
         <v>0.1125</v>
       </c>
       <c r="G63" s="18">
+        <f>2.5*G59/1000</f>
+        <v>0.1125</v>
+      </c>
+      <c r="H63" s="18">
         <f t="shared" si="6"/>
-        <v>0.1125</v>
-      </c>
-      <c r="H63" s="18">
-        <f>2.5*H59/1000</f>
         <v>0.1125</v>
       </c>
       <c r="I63" s="18">
@@ -6923,7 +6946,7 @@
         <v>0.1125</v>
       </c>
       <c r="K63" s="18">
-        <f t="shared" si="6"/>
+        <f>2.5*K59/1000</f>
         <v>0.1125</v>
       </c>
       <c r="L63" s="18">
@@ -6935,7 +6958,7 @@
         <v>0.1125</v>
       </c>
       <c r="N63" s="18">
-        <f>2.5*N59/1000</f>
+        <f t="shared" si="6"/>
         <v>0.1125</v>
       </c>
       <c r="O63" s="18">
@@ -6943,17 +6966,14 @@
         <v>0.1125</v>
       </c>
       <c r="P63" s="18">
-        <f t="shared" si="6"/>
+        <f>2.5*P59/1000</f>
         <v>0.1125</v>
       </c>
       <c r="Q63" s="18">
         <f>2.5*Q59/1000</f>
         <v>0.1125</v>
       </c>
-      <c r="R63" s="18">
-        <f>2.5*R59/1000</f>
-        <v>0.1125</v>
-      </c>
+      <c r="R63" s="18"/>
       <c r="S63" s="18">
         <f>2.5*S59/1000</f>
         <v>0.1125</v>
@@ -6967,11 +6987,11 @@
         <v>0.1125</v>
       </c>
       <c r="V63" s="18">
-        <f t="shared" ref="V63:AA63" si="7">2.5*V59/1000</f>
+        <f>2.5*V59/1000</f>
         <v>0.1125</v>
       </c>
       <c r="W63" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="W63:AB63" si="7">2.5*W59/1000</f>
         <v>0.1125</v>
       </c>
       <c r="X63" s="18">
@@ -6990,85 +7010,86 @@
         <f t="shared" si="7"/>
         <v>0.1125</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB63" s="18">
+        <f t="shared" si="7"/>
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B64" s="16">
-        <f t="shared" ref="B64:K64" si="8">B63*B9</f>
+        <f t="shared" ref="B64:J64" si="8">B63*B9</f>
         <v>9.5625000000000002E-2</v>
       </c>
       <c r="C64" s="16">
         <f t="shared" si="8"/>
-        <v>9.5625000000000002E-2</v>
+        <v>0.43762500000000004</v>
       </c>
       <c r="D64" s="16">
         <f t="shared" si="8"/>
-        <v>0.43762500000000004</v>
+        <v>9.5625000000000002E-2</v>
       </c>
       <c r="E64" s="16">
         <f t="shared" si="8"/>
-        <v>9.5625000000000002E-2</v>
+        <v>8.2125000000000004E-2</v>
       </c>
       <c r="F64" s="16">
         <f t="shared" si="8"/>
-        <v>8.2125000000000004E-2</v>
+        <v>12.262500000000001</v>
       </c>
       <c r="G64" s="16">
+        <f>G63*G9</f>
+        <v>0.73012500000000002</v>
+      </c>
+      <c r="H64" s="16">
         <f t="shared" si="8"/>
-        <v>12.262500000000001</v>
-      </c>
-      <c r="H64" s="16">
-        <f>H63*H9</f>
-        <v>0.73012500000000002</v>
+        <v>8.4375</v>
       </c>
       <c r="I64" s="16">
         <f t="shared" si="8"/>
-        <v>8.4375</v>
+        <v>1636.2</v>
       </c>
       <c r="J64" s="16">
         <f t="shared" si="8"/>
-        <v>1636.2</v>
+        <v>1.6312500000000001</v>
       </c>
       <c r="K64" s="16">
-        <f t="shared" si="8"/>
-        <v>1.6312500000000001</v>
+        <f>K63*K9</f>
+        <v>2.25</v>
       </c>
       <c r="L64" s="16">
-        <f>L63*L9</f>
-        <v>2.25</v>
+        <f t="shared" ref="L64:Q64" si="9">L63*L9</f>
+        <v>0.142875</v>
       </c>
       <c r="M64" s="16">
-        <f t="shared" ref="M64:R64" si="9">M63*M9</f>
-        <v>0.142875</v>
+        <f t="shared" si="9"/>
+        <v>3.07125</v>
       </c>
       <c r="N64" s="16">
         <f t="shared" si="9"/>
-        <v>3.07125</v>
+        <v>129.6</v>
       </c>
       <c r="O64" s="16">
         <f t="shared" si="9"/>
-        <v>129.6</v>
+        <v>0.96525000000000005</v>
       </c>
       <c r="P64" s="16">
-        <f t="shared" si="9"/>
-        <v>0.96525000000000005</v>
+        <f>P63*P9</f>
+        <v>0.15300000000000002</v>
       </c>
       <c r="Q64" s="16">
-        <f>Q63*Q9</f>
-        <v>0.15300000000000002</v>
-      </c>
-      <c r="R64" s="16">
         <f t="shared" si="9"/>
         <v>0.58274999999999999</v>
       </c>
+      <c r="R64" s="16"/>
       <c r="S64" s="16">
         <f>S63*S9*3.78541</f>
         <v>0.42585862500000005</v>
       </c>
       <c r="T64" s="16">
-        <f t="shared" ref="T64:AA64" si="10">T63*T9</f>
+        <f t="shared" ref="T64:AB64" si="10">T63*T9</f>
         <v>2.0750000000000002</v>
       </c>
       <c r="U64" s="16">
@@ -7076,102 +7097,103 @@
         <v>9.5625000000000002E-2</v>
       </c>
       <c r="V64" s="16">
+        <f>V63*V9</f>
+        <v>9.5625000000000002E-2</v>
+      </c>
+      <c r="W64" s="16">
         <f t="shared" si="10"/>
         <v>46.237500000000004</v>
       </c>
-      <c r="W64" s="16">
+      <c r="X64" s="16">
         <f t="shared" si="10"/>
         <v>1.762875</v>
       </c>
-      <c r="X64" s="16">
+      <c r="Y64" s="16">
         <f t="shared" si="10"/>
         <v>4727.8125</v>
       </c>
-      <c r="Y64" s="16">
+      <c r="Z64" s="16">
         <f t="shared" si="10"/>
         <v>8.3970000000000002</v>
       </c>
-      <c r="Z64" s="16">
+      <c r="AA64" s="16">
         <f t="shared" si="10"/>
         <v>0.421875</v>
       </c>
-      <c r="AA64" s="16">
+      <c r="AB64" s="16">
         <f t="shared" si="10"/>
         <v>0.10350000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B65" s="5">
-        <f t="shared" ref="B65:R65" si="11">0.8*0.8*B60*B59*1000000*B9/B61</f>
-        <v>284.54272571526855</v>
+        <f t="shared" ref="B65:Q65" si="11">0.8*0.8*B60*B59*1000000*B9/B61</f>
+        <v>178.03117201498719</v>
       </c>
       <c r="C65" s="5">
         <f t="shared" si="11"/>
-        <v>178.03117201498719</v>
+        <v>1139.8701297301359</v>
       </c>
       <c r="D65" s="5">
         <f t="shared" si="11"/>
-        <v>1139.8701297301359</v>
+        <v>180.84008419659901</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" si="11"/>
-        <v>180.84008419659901</v>
+        <v>154.39364344375809</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="11"/>
-        <v>154.39364344375809</v>
+        <v>38475.475811006392</v>
       </c>
       <c r="G65" s="5">
+        <f>0.8*0.8*G60*G59*1000000*G9/G61</f>
+        <v>1801.2605963508981</v>
+      </c>
+      <c r="H65" s="5">
         <f t="shared" si="11"/>
-        <v>38475.475811006392</v>
-      </c>
-      <c r="H65" s="5">
-        <f>0.8*0.8*H60*H59*1000000*H9/H61</f>
-        <v>1801.2605963508981</v>
+        <v>6166.1299237940575</v>
       </c>
       <c r="I65" s="5">
         <f t="shared" si="11"/>
-        <v>6166.1299237940575</v>
+        <v>1239926.3389856876</v>
       </c>
       <c r="J65" s="5">
         <f t="shared" si="11"/>
-        <v>1239926.3389856876</v>
+        <v>5027.0908294299234</v>
       </c>
       <c r="K65" s="5">
         <f t="shared" si="11"/>
-        <v>5027.0908294299234</v>
+        <v>3146.9109366338298</v>
       </c>
       <c r="L65" s="5">
         <f t="shared" si="11"/>
-        <v>3146.9109366338298</v>
+        <v>744.01624764457154</v>
       </c>
       <c r="M65" s="5">
         <f t="shared" si="11"/>
-        <v>744.01624764457154</v>
+        <v>4573.2807681056329</v>
       </c>
       <c r="N65" s="5">
         <f t="shared" si="11"/>
-        <v>4573.2807681056329</v>
+        <v>516982.80552083551</v>
       </c>
       <c r="O65" s="5">
         <f t="shared" si="11"/>
-        <v>516982.80552083551</v>
+        <v>1777.2420087868363</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" si="11"/>
-        <v>1777.2420087868363</v>
+        <f>0.8*0.8*P60*P59*1000000*P9/P61</f>
+        <v>803.97497584214091</v>
       </c>
       <c r="Q65" s="5">
-        <f>0.8*0.8*Q60*Q59*1000000*Q9/Q61</f>
-        <v>803.97497584214091</v>
-      </c>
-      <c r="R65" s="5">
         <f t="shared" si="11"/>
         <v>460.13977425382205</v>
       </c>
+      <c r="R65" s="5"/>
       <c r="S65" s="5">
         <f>0.8*0.8*S60*S59*1000000*S9/S61</f>
         <v>598.70913057561188</v>
@@ -7185,31 +7207,35 @@
         <v>164.25391156221337</v>
       </c>
       <c r="V65" s="5">
-        <f t="shared" ref="V65:AA65" si="12">0.8*0.8*V60*V59*1000000*V9/V61</f>
+        <f>0.8*0.8*V60*V59*1000000*V9/V61</f>
+        <v>284.54272571526855</v>
+      </c>
+      <c r="W65" s="5">
+        <f t="shared" ref="W65:AB65" si="12">0.8*0.8*W60*W59*1000000*W9/W61</f>
         <v>10857.316205167268</v>
       </c>
-      <c r="W65" s="5">
+      <c r="X65" s="5">
         <f t="shared" si="12"/>
         <v>1838.6871158022327</v>
       </c>
-      <c r="X65" s="5">
+      <c r="Y65" s="5">
         <f t="shared" si="12"/>
         <v>13363296.990635848</v>
       </c>
-      <c r="Y65" s="5">
+      <c r="Z65" s="5">
         <f t="shared" si="12"/>
         <v>33457.4054407687</v>
       </c>
-      <c r="Z65" s="5">
+      <c r="AA65" s="5">
         <f t="shared" si="12"/>
         <v>2765.8745991050655</v>
       </c>
-      <c r="AA65" s="5">
+      <c r="AB65" s="5">
         <f t="shared" si="12"/>
         <v>147.96508326729767</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>383</v>
       </c>
@@ -7238,9 +7264,6 @@
         <v>384</v>
       </c>
       <c r="J66" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="K66" s="16" t="s">
         <v>385</v>
       </c>
       <c r="S66" s="16">
@@ -7252,60 +7275,60 @@
       <c r="U66" s="16" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V66" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>119</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="E67" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J67" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="K67" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G67" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>184</v>
-      </c>
       <c r="L67" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="N67" t="s">
         <v>124</v>
       </c>
-      <c r="M67" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="N67" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="O67" t="s">
-        <v>124</v>
+      <c r="O67" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="P67" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q67" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="R67" t="s">
+      <c r="Q67" t="s">
         <v>184</v>
       </c>
       <c r="S67" s="16" t="s">
@@ -7318,25 +7341,28 @@
         <v>124</v>
       </c>
       <c r="V67" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="W67" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="W67" s="16" t="s">
+      <c r="X67" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="X67" s="16" t="s">
+      <c r="Y67" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="Y67" s="16" t="s">
+      <c r="Z67" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="Z67" s="16" t="s">
+      <c r="AA67" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>391</v>
       </c>
@@ -7359,19 +7385,19 @@
         <v>392</v>
       </c>
       <c r="H68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="I68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="K68" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="16" t="s">
         <v>392</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="M68" s="16" t="s">
         <v>392</v>
@@ -7386,11 +7412,9 @@
         <v>392</v>
       </c>
       <c r="Q68" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="R68" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="R68" s="16"/>
       <c r="S68" s="16" t="s">
         <v>394</v>
       </c>
@@ -7401,25 +7425,28 @@
         <v>394</v>
       </c>
       <c r="V68" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W68" s="16" t="s">
         <v>393</v>
       </c>
       <c r="X68" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Y68" s="16" t="s">
         <v>392</v>
       </c>
       <c r="Z68" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA68" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>395</v>
       </c>
@@ -7427,43 +7454,41 @@
         <v>396</v>
       </c>
       <c r="C69" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>396</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>397</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>396</v>
       </c>
       <c r="F69" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="L69" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="G69" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16" t="s">
+      <c r="M69" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="M69" s="16" t="s">
-        <v>396</v>
-      </c>
       <c r="N69" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="O69" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="O69" s="16" t="s">
-        <v>401</v>
-      </c>
       <c r="P69" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q69" s="16" t="s">
         <v>402</v>
       </c>
+      <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
       <c r="S69" s="16" t="s">
         <v>403</v>
@@ -7474,8 +7499,11 @@
       <c r="U69" s="16" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V69" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>404</v>
       </c>
@@ -7483,53 +7511,51 @@
         <v>405</v>
       </c>
       <c r="C70" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>405</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>406</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>405</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K70" s="16" t="s">
         <v>410</v>
       </c>
       <c r="L70" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="M70" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="M70" s="16" t="s">
+      <c r="N70" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="O70" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="P70" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="N70" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="O70" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="P70" s="16" t="s">
-        <v>410</v>
-      </c>
       <c r="Q70" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="R70" s="16" t="s">
         <v>406</v>
       </c>
+      <c r="R70" s="16"/>
       <c r="S70" s="16" t="s">
         <v>412</v>
       </c>
@@ -7539,60 +7565,60 @@
       <c r="U70" s="16" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V70" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B71" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C71" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D71" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E71" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F71" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G71" t="s">
-        <v>419</v>
+        <v>777</v>
       </c>
       <c r="H71" t="s">
-        <v>777</v>
+        <v>833</v>
       </c>
       <c r="I71" t="s">
-        <v>833</v>
-      </c>
-      <c r="J71" t="s">
         <v>840</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="J71" s="16" t="s">
         <v>830</v>
       </c>
-      <c r="L71" t="s">
+      <c r="K71" t="s">
         <v>776</v>
       </c>
+      <c r="L71" s="16" t="s">
+        <v>831</v>
+      </c>
       <c r="M71" s="16" t="s">
-        <v>831</v>
+        <v>420</v>
       </c>
       <c r="N71" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="O71" s="16" t="s">
         <v>421</v>
       </c>
+      <c r="O71" t="s">
+        <v>422</v>
+      </c>
       <c r="P71" t="s">
-        <v>422</v>
+        <v>820</v>
       </c>
       <c r="Q71" t="s">
-        <v>820</v>
-      </c>
-      <c r="R71" t="s">
         <v>423</v>
       </c>
       <c r="S71" s="16" t="s">
@@ -7604,119 +7630,119 @@
       <c r="U71" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="W71" t="s">
+      <c r="V71" t="s">
+        <v>414</v>
+      </c>
+      <c r="X71" t="s">
         <v>427</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>428</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>429</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>767</v>
       </c>
       <c r="B72" t="s">
-        <v>768</v>
+        <v>811</v>
       </c>
       <c r="C72" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D72" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E72" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="F72" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G72" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="H72" t="s">
-        <v>778</v>
+        <v>823</v>
       </c>
       <c r="I72" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="J72" t="s">
-        <v>841</v>
+        <v>775</v>
       </c>
       <c r="K72" t="s">
-        <v>775</v>
-      </c>
-      <c r="L72" t="s">
         <v>815</v>
       </c>
+      <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="Q72" t="s">
+      <c r="P72" t="s">
         <v>821</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="20"/>
       <c r="U72" s="16"/>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="V72" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B73">
-        <v>0.37862000000000001</v>
+        <v>0.33854000000000001</v>
       </c>
       <c r="C73">
-        <v>0.33854000000000001</v>
+        <v>0.79107000000000005</v>
       </c>
       <c r="D73">
-        <v>0.79107000000000005</v>
+        <v>0.22026000000000001</v>
       </c>
       <c r="E73">
-        <v>0.22026000000000001</v>
+        <v>0.23313999999999999</v>
       </c>
       <c r="F73">
-        <v>0.23313999999999999</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="G73">
-        <v>0.50600000000000001</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="H73">
-        <v>0.55500000000000005</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="I73">
-        <v>0.70799999999999996</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="J73">
-        <v>0.76100000000000001</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="K73">
-        <v>0.92800000000000005</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="L73">
-        <v>0.44900000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="M73">
-        <v>0.13</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="N73">
-        <v>0.80700000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="O73">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="P73">
-        <v>0.48099999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="Q73">
-        <v>0.79</v>
-      </c>
-      <c r="R73">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="S73" s="16" t="s">
@@ -7728,69 +7754,69 @@
       <c r="U73">
         <v>3.8949999999999999E-2</v>
       </c>
-      <c r="Y73">
+      <c r="V73">
+        <v>0.37862000000000001</v>
+      </c>
+      <c r="Z73">
         <v>0.32500000000000001</v>
       </c>
-      <c r="Z73">
+      <c r="AA73">
         <v>0.73199999999999998</v>
       </c>
-      <c r="AA73">
+      <c r="AB73">
         <v>1.1820000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B74">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="C74">
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
       <c r="D74">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="E74">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G74">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="H74">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I74">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J74">
-        <v>27</v>
+        <v>0.15</v>
       </c>
       <c r="K74">
-        <v>0.15</v>
+        <v>0.9</v>
       </c>
       <c r="L74">
-        <v>0.9</v>
+        <v>0.51</v>
       </c>
       <c r="M74">
-        <v>0.51</v>
+        <v>0.08</v>
       </c>
       <c r="N74">
-        <v>0.08</v>
+        <v>1.6</v>
       </c>
       <c r="O74">
-        <v>1.6</v>
+        <v>0.79</v>
       </c>
       <c r="P74">
-        <v>0.79</v>
+        <v>0.41</v>
       </c>
       <c r="Q74">
-        <v>0.41</v>
-      </c>
-      <c r="R74">
         <v>2.2999999999999998</v>
       </c>
       <c r="S74" s="15">
@@ -7803,62 +7829,62 @@
         <v>1</v>
       </c>
       <c r="V74">
+        <v>1.5</v>
+      </c>
+      <c r="W74">
         <v>1.8</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>5.2</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <v>0.59</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>0.3</v>
       </c>
-      <c r="Z74">
+      <c r="AA74">
         <v>0.66</v>
       </c>
-      <c r="AA74">
+      <c r="AB74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>433</v>
       </c>
       <c r="B75">
-        <v>1.804</v>
+        <v>1.9419999999999999</v>
       </c>
       <c r="C75">
-        <v>1.9419999999999999</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="D75">
-        <v>1.4490000000000001</v>
+        <v>1.651</v>
       </c>
       <c r="E75">
-        <v>1.651</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="F75">
-        <v>1.8360000000000001</v>
+        <v>1.389</v>
       </c>
       <c r="G75">
-        <v>1.389</v>
+        <v>1.1479999999999999</v>
       </c>
       <c r="H75">
-        <v>1.1479999999999999</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="I75">
-        <v>1.3680000000000001</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="J75">
-        <v>0.73499999999999999</v>
+        <v>1.196</v>
       </c>
       <c r="K75">
-        <v>1.196</v>
-      </c>
-      <c r="L75">
         <v>1.1140000000000001</v>
       </c>
-      <c r="R75">
+      <c r="Q75">
         <v>1.1180000000000001</v>
       </c>
       <c r="S75">
@@ -7870,48 +7896,48 @@
       <c r="U75">
         <v>1.857</v>
       </c>
-      <c r="W75">
+      <c r="V75">
+        <v>1.804</v>
+      </c>
+      <c r="X75">
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>434</v>
       </c>
       <c r="B76">
-        <v>0.36799999999999999</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="C76">
-        <v>0.26400000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="D76">
-        <v>0.19700000000000001</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="E76">
-        <v>0.23300000000000001</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="F76">
-        <v>0.26100000000000001</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="G76">
-        <v>0.25800000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H76">
-        <v>8.5000000000000006E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="I76">
-        <v>7.6999999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J76">
-        <v>0.1</v>
+        <v>0.153</v>
       </c>
       <c r="K76">
-        <v>0.153</v>
-      </c>
-      <c r="L76">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="R76">
+      <c r="Q76">
         <v>0.13700000000000001</v>
       </c>
       <c r="S76">
@@ -7923,27 +7949,27 @@
       <c r="U76">
         <v>0.216</v>
       </c>
-      <c r="W76">
+      <c r="V76">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="X76">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>435</v>
       </c>
       <c r="B77">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="C77">
         <v>9.7000000000000003E-2</v>
       </c>
+      <c r="D77">
+        <v>7.6999999999999999E-2</v>
+      </c>
       <c r="E77">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="F77">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="L77">
+      <c r="K77">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="T77">
@@ -7952,27 +7978,27 @@
       <c r="U77">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W77">
+      <c r="V77">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="X77">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B78">
-        <v>0.90300000000000002</v>
+        <v>1.5329999999999999</v>
       </c>
       <c r="C78">
-        <v>1.5329999999999999</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D78">
-        <v>0.94599999999999995</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="E78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="F78">
         <v>0.81</v>
       </c>
       <c r="T78">
@@ -7981,28 +8007,31 @@
       <c r="U78">
         <v>1.0529999999999999</v>
       </c>
-      <c r="W78">
+      <c r="V78">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="X78">
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D79">
-        <f>240.49/D9</f>
+      <c r="C79">
+        <f>240.49/C9</f>
         <v>61.822622107969153</v>
       </c>
-      <c r="H79">
-        <f>535/H9</f>
+      <c r="G79">
+        <f>535/G9</f>
         <v>82.434514637904471</v>
       </c>
-      <c r="K79">
-        <f>374/R9</f>
+      <c r="J79">
+        <f>374/Q9</f>
         <v>72.200772200772207</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>438</v>
       </c>
@@ -8016,47 +8045,45 @@
         <v>439</v>
       </c>
       <c r="E80" t="s">
-        <v>439</v>
-      </c>
-      <c r="F80" t="s">
         <v>440</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>441</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="I80" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="J80" t="s">
+      <c r="I80" t="s">
         <v>443</v>
       </c>
+      <c r="J80" s="2" t="s">
+        <v>444</v>
+      </c>
       <c r="K80" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L80" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="M80" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="N80" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="O80" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="P80" t="s">
+      <c r="O80" t="s">
         <v>448</v>
       </c>
+      <c r="P80" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="Q80" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="R80" s="2" t="s">
         <v>447</v>
       </c>
+      <c r="R80" s="2"/>
       <c r="S80" s="2" t="s">
         <v>450</v>
       </c>
@@ -8066,60 +8093,60 @@
       <c r="U80" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V80" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>453</v>
       </c>
       <c r="B81" t="s">
+        <v>455</v>
+      </c>
+      <c r="C81" t="s">
+        <v>456</v>
+      </c>
+      <c r="D81" t="s">
+        <v>457</v>
+      </c>
+      <c r="E81" t="s">
         <v>454</v>
       </c>
-      <c r="C81" t="s">
+      <c r="F81" t="s">
+        <v>458</v>
+      </c>
+      <c r="G81" t="s">
+        <v>459</v>
+      </c>
+      <c r="H81" t="s">
+        <v>460</v>
+      </c>
+      <c r="I81" t="s">
+        <v>461</v>
+      </c>
+      <c r="J81" t="s">
+        <v>462</v>
+      </c>
+      <c r="K81" t="s">
+        <v>463</v>
+      </c>
+      <c r="L81" t="s">
         <v>455</v>
       </c>
-      <c r="D81" t="s">
-        <v>456</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="M81" t="s">
+        <v>454</v>
+      </c>
+      <c r="N81" t="s">
+        <v>464</v>
+      </c>
+      <c r="O81" t="s">
+        <v>463</v>
+      </c>
+      <c r="P81" t="s">
         <v>457</v>
       </c>
-      <c r="F81" t="s">
-        <v>454</v>
-      </c>
-      <c r="G81" t="s">
-        <v>458</v>
-      </c>
-      <c r="H81" t="s">
-        <v>459</v>
-      </c>
-      <c r="I81" t="s">
-        <v>460</v>
-      </c>
-      <c r="J81" t="s">
-        <v>461</v>
-      </c>
-      <c r="K81" t="s">
-        <v>462</v>
-      </c>
-      <c r="L81" t="s">
-        <v>463</v>
-      </c>
-      <c r="M81" t="s">
-        <v>455</v>
-      </c>
-      <c r="N81" t="s">
-        <v>454</v>
-      </c>
-      <c r="O81" t="s">
-        <v>464</v>
-      </c>
-      <c r="P81" t="s">
-        <v>463</v>
-      </c>
       <c r="Q81" t="s">
-        <v>457</v>
-      </c>
-      <c r="R81" t="s">
         <v>463</v>
       </c>
       <c r="S81" t="s">
@@ -8131,8 +8158,11 @@
       <c r="U81" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V81" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>467</v>
       </c>
@@ -8146,7 +8176,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>471</v>
       </c>
@@ -8154,7 +8184,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>473</v>
       </c>
@@ -8171,18 +8201,15 @@
         <v>474</v>
       </c>
       <c r="F84" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G84" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H84" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I84" t="s">
-        <v>477</v>
-      </c>
-      <c r="J84" t="s">
         <v>478</v>
       </c>
       <c r="S84" t="s">
@@ -8194,12 +8221,15 @@
       <c r="U84" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V84" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>481</v>
       </c>
       <c r="S85" t="s">
@@ -8212,14 +8242,14 @@
         <v>484</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F86" t="s">
+      <c r="E86" t="s">
         <v>486</v>
       </c>
-      <c r="I86" t="s">
+      <c r="H86" t="s">
         <v>487</v>
       </c>
       <c r="S86" t="s">
@@ -8232,7 +8262,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>490</v>
       </c>
@@ -8240,7 +8270,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>492</v>
       </c>
@@ -8248,7 +8278,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>494</v>
       </c>
@@ -8256,56 +8286,56 @@
         <v>495</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="B90" t="s">
+        <v>497</v>
+      </c>
       <c r="C90" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D90" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E90" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F90" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G90" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H90" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I90" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J90" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K90" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L90" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M90" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N90" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O90" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P90" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="Q90" t="s">
-        <v>512</v>
-      </c>
-      <c r="R90" t="s">
         <v>511</v>
       </c>
       <c r="S90" t="s">
@@ -8318,56 +8348,56 @@
         <v>515</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>516</v>
       </c>
+      <c r="B91" t="s">
+        <v>517</v>
+      </c>
       <c r="C91" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D91" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E91" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F91" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G91" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H91" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I91" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J91" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K91" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L91" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M91" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N91" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O91" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P91" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Q91" t="s">
-        <v>532</v>
-      </c>
-      <c r="R91" t="s">
         <v>531</v>
       </c>
       <c r="S91" t="s">
@@ -8380,56 +8410,56 @@
         <v>535</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>536</v>
       </c>
+      <c r="B92" t="s">
+        <v>537</v>
+      </c>
       <c r="C92" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D92" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E92" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F92" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G92" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H92" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I92" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J92" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K92" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L92" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M92" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N92" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O92" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="P92" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="Q92" t="s">
-        <v>551</v>
-      </c>
-      <c r="R92" t="s">
         <v>550</v>
       </c>
       <c r="S92" t="s">
@@ -8442,56 +8472,56 @@
         <v>554</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>555</v>
       </c>
+      <c r="B93" t="s">
+        <v>556</v>
+      </c>
       <c r="C93" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D93" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E93" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F93" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G93" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H93" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I93" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J93" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K93" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L93" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M93" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N93" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O93" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="P93" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Q93" t="s">
-        <v>571</v>
-      </c>
-      <c r="R93" t="s">
         <v>570</v>
       </c>
       <c r="S93" s="22" t="s">
@@ -8504,169 +8534,169 @@
         <v>574</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>575</v>
       </c>
+      <c r="B94" t="s">
+        <v>576</v>
+      </c>
       <c r="C94" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D94" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E94" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F94" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G94" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H94" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I94" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J94" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="K94" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L94" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M94" t="s">
-        <v>586</v>
-      </c>
-      <c r="N94" t="s">
         <v>587</v>
       </c>
+      <c r="O94" t="s">
+        <v>588</v>
+      </c>
       <c r="P94" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="Q94" t="s">
-        <v>590</v>
-      </c>
-      <c r="R94" t="s">
         <v>589</v>
       </c>
       <c r="U94" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>592</v>
       </c>
+      <c r="B95" t="s">
+        <v>593</v>
+      </c>
       <c r="C95" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D95" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E95" t="s">
-        <v>595</v>
-      </c>
-      <c r="F95" t="s">
         <v>596</v>
       </c>
+      <c r="G95" t="s">
+        <v>597</v>
+      </c>
       <c r="H95" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I95" t="s">
-        <v>598</v>
-      </c>
-      <c r="J95" t="s">
         <v>599</v>
       </c>
+      <c r="K95" t="s">
+        <v>600</v>
+      </c>
       <c r="L95" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M95" t="s">
-        <v>601</v>
-      </c>
-      <c r="N95" t="s">
         <v>602</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="P95" t="s">
         <v>603</v>
       </c>
       <c r="U95" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="C96" t="s">
+      <c r="B96" t="s">
         <v>606</v>
       </c>
-      <c r="E96" t="s">
+      <c r="D96" t="s">
         <v>607</v>
       </c>
+      <c r="G96" t="s">
+        <v>608</v>
+      </c>
       <c r="H96" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I96" t="s">
-        <v>609</v>
-      </c>
-      <c r="J96" t="s">
         <v>610</v>
       </c>
-      <c r="M96" t="s">
+      <c r="L96" t="s">
         <v>611</v>
       </c>
-      <c r="Q96" t="s">
+      <c r="P96" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="E97" t="s">
+      <c r="D97" t="s">
         <v>614</v>
       </c>
+      <c r="G97" t="s">
+        <v>615</v>
+      </c>
       <c r="H97" t="s">
-        <v>615</v>
-      </c>
-      <c r="I97" t="s">
         <v>616</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="P97" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="E98" t="s">
+      <c r="D98" t="s">
         <v>619</v>
       </c>
-      <c r="I98" t="s">
+      <c r="H98" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="E99" t="s">
+      <c r="D99" t="s">
         <v>622</v>
+      </c>
+      <c r="H99" t="s">
+        <v>561</v>
       </c>
       <c r="I99" t="s">
         <v>561</v>
       </c>
-      <c r="J99" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>623</v>
       </c>
@@ -8674,7 +8704,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>625</v>
       </c>
@@ -8682,7 +8712,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>627</v>
       </c>
@@ -8690,7 +8720,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>629</v>
       </c>
@@ -8709,7 +8739,7 @@
       <c r="F103" t="s">
         <v>630</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>630</v>
       </c>
       <c r="I103" t="s">
@@ -8718,10 +8748,7 @@
       <c r="J103" t="s">
         <v>630</v>
       </c>
-      <c r="K103" t="s">
-        <v>630</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="M103" t="s">
         <v>631</v>
       </c>
       <c r="S103" t="s">
@@ -8733,8 +8760,11 @@
       <c r="U103" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="V103" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>633</v>
       </c>
@@ -8768,10 +8798,7 @@
       <c r="K104" t="s">
         <v>634</v>
       </c>
-      <c r="L104" t="s">
-        <v>634</v>
-      </c>
-      <c r="R104" t="s">
+      <c r="Q104" t="s">
         <v>634</v>
       </c>
       <c r="S104" t="s">
@@ -8783,11 +8810,14 @@
       <c r="U104" t="s">
         <v>634</v>
       </c>
-      <c r="W104" t="s">
+      <c r="V104" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X104" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>636</v>
       </c>
@@ -8821,10 +8851,7 @@
       <c r="K105" t="s">
         <v>637</v>
       </c>
-      <c r="L105" t="s">
-        <v>637</v>
-      </c>
-      <c r="R105" t="s">
+      <c r="Q105" t="s">
         <v>637</v>
       </c>
       <c r="S105" t="s">
@@ -8836,11 +8863,14 @@
       <c r="U105" t="s">
         <v>637</v>
       </c>
-      <c r="W105" t="s">
+      <c r="V105" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X105" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>639</v>
       </c>
@@ -8856,36 +8886,33 @@
       <c r="E106" t="s">
         <v>640</v>
       </c>
-      <c r="F106" t="s">
-        <v>640</v>
-      </c>
       <c r="T106" t="s">
         <v>640</v>
       </c>
       <c r="U106" t="s">
         <v>640</v>
       </c>
-      <c r="W106" t="s">
+      <c r="V106" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X106" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>641</v>
       </c>
       <c r="B107" t="s">
         <v>642</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>642</v>
       </c>
       <c r="E107" t="s">
         <v>642</v>
       </c>
-      <c r="F107" t="s">
-        <v>642</v>
-      </c>
-      <c r="L107" t="s">
+      <c r="K107" t="s">
         <v>642</v>
       </c>
       <c r="S107" t="s">
@@ -8897,25 +8924,28 @@
       <c r="U107" t="s">
         <v>642</v>
       </c>
-      <c r="W107" t="s">
+      <c r="V107" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X107" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="D108" t="s">
+      <c r="C108" t="s">
         <v>645</v>
       </c>
-      <c r="H108" t="s">
+      <c r="G108" t="s">
         <v>646</v>
       </c>
-      <c r="K108" t="s">
+      <c r="J108" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>648</v>
       </c>
@@ -8929,7 +8959,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>652</v>
       </c>
@@ -8943,7 +8973,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>656</v>
       </c>
@@ -8957,7 +8987,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>660</v>
       </c>
@@ -8965,7 +8995,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>662</v>
       </c>
@@ -8973,7 +9003,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>664</v>
       </c>
@@ -8987,7 +9017,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>668</v>
       </c>
@@ -8995,7 +9025,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>670</v>
       </c>
@@ -9003,47 +9033,44 @@
         <v>671</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>784</v>
       </c>
       <c r="B117" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C117" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="D117" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E117" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F117" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="G117" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="H117" t="s">
-        <v>791</v>
-      </c>
-      <c r="I117" t="s">
         <v>795</v>
       </c>
+      <c r="J117" t="s">
+        <v>809</v>
+      </c>
       <c r="K117" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="L117" t="s">
-        <v>801</v>
-      </c>
-      <c r="M117" t="s">
         <v>786</v>
       </c>
+      <c r="O117" t="s">
+        <v>837</v>
+      </c>
       <c r="P117" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q117" t="s">
         <v>788</v>
       </c>
       <c r="S117" t="s">
@@ -9055,48 +9082,48 @@
       <c r="U117" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="V117" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>785</v>
       </c>
       <c r="B118" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C118" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="D118" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E118" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F118" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="G118" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="H118" t="s">
-        <v>790</v>
-      </c>
-      <c r="I118" t="s">
         <v>794</v>
       </c>
+      <c r="J118" t="s">
+        <v>808</v>
+      </c>
       <c r="K118" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="L118" t="s">
-        <v>800</v>
-      </c>
-      <c r="M118" t="s">
         <v>787</v>
       </c>
+      <c r="O118" t="s">
+        <v>826</v>
+      </c>
       <c r="P118" t="s">
-        <v>826</v>
-      </c>
-      <c r="Q118" t="s">
         <v>789</v>
       </c>
       <c r="S118" t="s">
@@ -9108,83 +9135,83 @@
       <c r="U118" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="V118" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>752</v>
       </c>
       <c r="B119" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="C119" t="s">
+        <v>759</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="H119" t="s">
+        <v>757</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="N119" t="s">
+        <v>753</v>
+      </c>
+      <c r="O119" t="s">
+        <v>754</v>
+      </c>
+      <c r="V119" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="D119" t="s">
-        <v>759</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="I119" t="s">
-        <v>757</v>
-      </c>
-      <c r="L119" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="N119" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="O119" t="s">
-        <v>753</v>
-      </c>
-      <c r="P119" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>672</v>
       </c>
       <c r="B120" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C120" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D120" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E120" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F120" t="s">
-        <v>677</v>
-      </c>
-      <c r="G120" t="s">
         <v>678</v>
       </c>
+      <c r="H120" t="s">
+        <v>679</v>
+      </c>
       <c r="I120" t="s">
-        <v>679</v>
-      </c>
-      <c r="J120" t="s">
         <v>680</v>
       </c>
-      <c r="K120" s="24" t="s">
+      <c r="J120" s="24" t="s">
         <v>681</v>
       </c>
+      <c r="K120" t="s">
+        <v>769</v>
+      </c>
       <c r="L120" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="M120" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="N120" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="O120" t="s">
-        <v>765</v>
-      </c>
-      <c r="P120" t="s">
         <v>771</v>
       </c>
       <c r="S120" t="s">
@@ -9196,52 +9223,55 @@
       <c r="U120" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="V120" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>685</v>
       </c>
+      <c r="B121" t="s">
+        <v>686</v>
+      </c>
       <c r="C121" t="s">
-        <v>686</v>
+        <v>764</v>
       </c>
       <c r="D121" t="s">
-        <v>764</v>
-      </c>
-      <c r="E121" t="s">
         <v>687</v>
       </c>
+      <c r="F121" t="s">
+        <v>688</v>
+      </c>
       <c r="G121" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H121" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="I121" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J121" t="s">
-        <v>691</v>
-      </c>
-      <c r="K121" t="s">
         <v>692</v>
       </c>
+      <c r="M121" t="s">
+        <v>693</v>
+      </c>
       <c r="N121" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O121" t="s">
-        <v>694</v>
-      </c>
-      <c r="P121" t="s">
         <v>770</v>
       </c>
-      <c r="R121" t="s">
+      <c r="Q121" t="s">
         <v>695</v>
       </c>
       <c r="T121" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>697</v>
       </c>
@@ -9249,12 +9279,12 @@
         <v>698</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>699</v>
       </c>
       <c r="B123">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C123">
         <v>10</v>
@@ -9263,22 +9293,22 @@
         <v>10</v>
       </c>
       <c r="E123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F123">
         <v>7</v>
       </c>
-      <c r="G123">
+      <c r="I123">
         <v>7</v>
       </c>
       <c r="J123">
+        <v>10</v>
+      </c>
+      <c r="V123">
         <v>7</v>
       </c>
-      <c r="K123">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>700</v>
       </c>
@@ -9298,19 +9328,19 @@
         <v>6300</v>
       </c>
       <c r="G124">
+        <v>6000</v>
+      </c>
+      <c r="I124">
         <v>6300</v>
-      </c>
-      <c r="H124">
-        <v>6000</v>
       </c>
       <c r="J124">
         <v>6300</v>
       </c>
-      <c r="K124">
+      <c r="V124">
         <v>6300</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>701</v>
       </c>
@@ -9318,10 +9348,10 @@
         <v>6500</v>
       </c>
       <c r="C125">
+        <v>8000</v>
+      </c>
+      <c r="D125">
         <v>6500</v>
-      </c>
-      <c r="D125">
-        <v>8000</v>
       </c>
       <c r="E125">
         <v>6500</v>
@@ -9354,25 +9384,25 @@
         <v>6500</v>
       </c>
       <c r="O125">
+        <v>8000</v>
+      </c>
+      <c r="P125">
         <v>6500</v>
-      </c>
-      <c r="P125">
-        <v>8000</v>
       </c>
       <c r="Q125">
         <v>6500</v>
       </c>
-      <c r="R125">
+      <c r="V125">
         <v>6500</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>15000</v>
       </c>
-      <c r="X125">
+      <c r="Y125">
         <v>9000</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>702</v>
       </c>
@@ -9386,7 +9416,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>706</v>
       </c>
@@ -9400,7 +9430,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>710</v>
       </c>
@@ -9431,45 +9461,48 @@
       <c r="J129" t="s">
         <v>28</v>
       </c>
-      <c r="K129" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="V129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>711</v>
       </c>
       <c r="B130" t="s">
         <v>28</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>28</v>
       </c>
       <c r="E130" t="s">
         <v>28</v>
       </c>
-      <c r="F130" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="V130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="E131" t="s">
+      <c r="D131" t="s">
         <v>816</v>
       </c>
+      <c r="H131" t="s">
+        <v>713</v>
+      </c>
       <c r="I131" t="s">
-        <v>713</v>
-      </c>
-      <c r="J131" t="s">
         <v>844</v>
       </c>
+      <c r="K131" t="s">
+        <v>817</v>
+      </c>
       <c r="L131" t="s">
+        <v>827</v>
+      </c>
+      <c r="M131" t="s">
         <v>817</v>
-      </c>
-      <c r="M131" t="s">
-        <v>827</v>
       </c>
       <c r="N131" t="s">
         <v>817</v>
@@ -9478,48 +9511,48 @@
         <v>817</v>
       </c>
       <c r="P131" t="s">
+        <v>827</v>
+      </c>
+      <c r="Q131" t="s">
         <v>817</v>
       </c>
-      <c r="Q131" t="s">
-        <v>827</v>
-      </c>
-      <c r="R131" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="H132" t="s">
+      <c r="G132" t="s">
         <v>819</v>
+      </c>
+      <c r="M132" t="s">
+        <v>817</v>
       </c>
       <c r="N132" t="s">
         <v>817</v>
       </c>
-      <c r="O132" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B133" t="s">
+      <c r="V133" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>717</v>
       </c>
+      <c r="L135" t="s">
+        <v>827</v>
+      </c>
       <c r="M135" t="s">
-        <v>827</v>
+        <v>713</v>
       </c>
       <c r="N135" t="s">
         <v>713</v>
@@ -9527,36 +9560,36 @@
       <c r="O135" t="s">
         <v>713</v>
       </c>
-      <c r="P135" t="s">
+      <c r="Q135" t="s">
         <v>713</v>
       </c>
-      <c r="R135" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>718</v>
       </c>
+      <c r="M136" t="s">
+        <v>713</v>
+      </c>
       <c r="N136" t="s">
         <v>713</v>
       </c>
       <c r="O136" t="s">
         <v>713</v>
       </c>
-      <c r="P136" t="s">
+      <c r="Q136" t="s">
         <v>713</v>
       </c>
-      <c r="R136" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="J137" t="s">
+      <c r="I137" t="s">
         <v>843</v>
+      </c>
+      <c r="M137" t="s">
+        <v>713</v>
       </c>
       <c r="N137" t="s">
         <v>713</v>
@@ -9564,24 +9597,21 @@
       <c r="O137" t="s">
         <v>713</v>
       </c>
-      <c r="P137" t="s">
+      <c r="Q137" t="s">
         <v>713</v>
       </c>
-      <c r="R137" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>722</v>
       </c>
@@ -9606,14 +9636,14 @@
       <c r="H140" t="s">
         <v>43</v>
       </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
         <v>43</v>
       </c>
-      <c r="K140" t="s">
+      <c r="V140" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>723</v>
       </c>
@@ -9635,180 +9665,183 @@
       <c r="G141" t="s">
         <v>43</v>
       </c>
-      <c r="H141" t="s">
+      <c r="J141" t="s">
         <v>43</v>
       </c>
-      <c r="K141" t="s">
+      <c r="V141" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="R142" t="s">
+      <c r="Q142" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>726</v>
       </c>
+      <c r="M144" t="s">
+        <v>713</v>
+      </c>
       <c r="N144" t="s">
         <v>713</v>
       </c>
       <c r="O144" t="s">
         <v>713</v>
       </c>
-      <c r="P144" t="s">
+      <c r="Q144" t="s">
         <v>713</v>
       </c>
-      <c r="R144" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>727</v>
       </c>
+      <c r="M145" t="s">
+        <v>713</v>
+      </c>
       <c r="N145" t="s">
         <v>713</v>
       </c>
       <c r="O145" t="s">
         <v>713</v>
       </c>
-      <c r="P145" t="s">
+      <c r="Q145" t="s">
         <v>713</v>
       </c>
-      <c r="R145" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>825</v>
       </c>
+      <c r="M149" t="s">
+        <v>713</v>
+      </c>
       <c r="N149" t="s">
         <v>713</v>
       </c>
       <c r="O149" t="s">
         <v>713</v>
       </c>
-      <c r="P149" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>842</v>
       </c>
+      <c r="M152" t="s">
+        <v>713</v>
+      </c>
       <c r="N152" t="s">
         <v>713</v>
       </c>
       <c r="O152" t="s">
         <v>713</v>
       </c>
-      <c r="P152" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>735</v>
       </c>
+      <c r="M154" t="s">
+        <v>817</v>
+      </c>
       <c r="N154" t="s">
+        <v>713</v>
+      </c>
+      <c r="O154" t="s">
         <v>817</v>
       </c>
-      <c r="O154" t="s">
-        <v>713</v>
-      </c>
-      <c r="P154" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>737</v>
       </c>
+      <c r="M156" t="s">
+        <v>713</v>
+      </c>
       <c r="N156" t="s">
         <v>713</v>
       </c>
       <c r="O156" t="s">
         <v>713</v>
       </c>
-      <c r="P156" t="s">
+      <c r="Q156" t="s">
         <v>713</v>
       </c>
-      <c r="R156" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>738</v>
       </c>
+      <c r="M157" t="s">
+        <v>713</v>
+      </c>
       <c r="N157" t="s">
         <v>713</v>
       </c>
       <c r="O157" t="s">
         <v>713</v>
       </c>
-      <c r="P157" t="s">
+      <c r="Q157" t="s">
         <v>713</v>
       </c>
-      <c r="R157" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="I158" t="s">
+      <c r="H158" t="s">
         <v>43</v>
       </c>
-      <c r="K158" t="s">
+      <c r="J158" t="s">
         <v>43</v>
+      </c>
+      <c r="M158" t="s">
+        <v>713</v>
       </c>
       <c r="N158" t="s">
         <v>713</v>
@@ -9816,105 +9849,102 @@
       <c r="O158" t="s">
         <v>713</v>
       </c>
-      <c r="P158" t="s">
+      <c r="Q158" t="s">
         <v>713</v>
       </c>
-      <c r="R158" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>740</v>
       </c>
+      <c r="M159" t="s">
+        <v>713</v>
+      </c>
       <c r="N159" t="s">
         <v>713</v>
       </c>
       <c r="O159" t="s">
         <v>713</v>
       </c>
-      <c r="P159" t="s">
+      <c r="Q159" t="s">
         <v>713</v>
       </c>
-      <c r="R159" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="H163" t="s">
+      <c r="G163" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>744</v>
       </c>
+      <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="O164" t="s">
+      <c r="N164" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="I166" s="1"/>
-      <c r="K166" s="1"/>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H166" s="1"/>
+      <c r="J166" s="1"/>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="B167" t="s">
+      <c r="V167" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="D170" t="s">
+      <c r="C170" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
     </row>
   </sheetData>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="846">
   <si>
     <t>Country</t>
   </si>
@@ -2996,9 +2996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3387,6 +3387,9 @@
       <c r="L6" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="O6" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="P6" s="3" t="s">
         <v>28</v>
       </c>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="846">
   <si>
     <t>Country</t>
   </si>
@@ -2342,12 +2342,6 @@
     <t>Emre Kanik, 50$</t>
   </si>
   <si>
-    <t>~ Maxime</t>
-  </si>
-  <si>
-    <t>FR: Maxime de la Cruz, 100$ / EN: Davenport</t>
-  </si>
-  <si>
     <t>2.6, 23.4, 24.5, 19.2, 22.2, 22.3, 25.1, 257 Remove for China (Respondi)</t>
   </si>
   <si>
@@ -2562,6 +2556,12 @@
   </si>
   <si>
     <t>Israel</t>
+  </si>
+  <si>
+    <t>~ Jerôme</t>
+  </si>
+  <si>
+    <t>FR: Jérôme Pilette, 200$ / EN: Davenport</t>
   </si>
 </sst>
 </file>
@@ -2998,7 +2998,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3059,7 +3059,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -3196,19 +3196,19 @@
         <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="1" t="s">
@@ -3256,10 +3256,10 @@
         <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>772</v>
+        <v>844</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>28</v>
@@ -3311,7 +3311,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>32</v>
@@ -3320,10 +3320,10 @@
         <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>28</v>
@@ -3387,10 +3387,19 @@
       <c r="L6" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="M6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="O6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -3414,7 +3423,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
@@ -3423,28 +3432,28 @@
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>836</v>
-      </c>
       <c r="P7" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -4251,10 +4260,10 @@
       </c>
       <c r="K18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="O18" s="1"/>
       <c r="S18" t="s">
@@ -4373,7 +4382,7 @@
         <v>189</v>
       </c>
       <c r="M20" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="N20" t="s">
         <v>191</v>
@@ -5478,7 +5487,7 @@
         <v>292</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>750</v>
@@ -7592,22 +7601,22 @@
         <v>419</v>
       </c>
       <c r="G71" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H71" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I71" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K71" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="M71" s="16" t="s">
         <v>420</v>
@@ -7619,7 +7628,7 @@
         <v>422</v>
       </c>
       <c r="P71" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="Q71" t="s">
         <v>423</v>
@@ -7654,40 +7663,40 @@
         <v>767</v>
       </c>
       <c r="B72" t="s">
+        <v>809</v>
+      </c>
+      <c r="C72" t="s">
+        <v>810</v>
+      </c>
+      <c r="D72" t="s">
+        <v>808</v>
+      </c>
+      <c r="E72" t="s">
         <v>811</v>
       </c>
-      <c r="C72" t="s">
+      <c r="F72" t="s">
         <v>812</v>
       </c>
-      <c r="D72" t="s">
-        <v>810</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="G72" t="s">
+        <v>776</v>
+      </c>
+      <c r="H72" t="s">
+        <v>821</v>
+      </c>
+      <c r="I72" t="s">
+        <v>839</v>
+      </c>
+      <c r="J72" t="s">
+        <v>773</v>
+      </c>
+      <c r="K72" t="s">
         <v>813</v>
-      </c>
-      <c r="F72" t="s">
-        <v>814</v>
-      </c>
-      <c r="G72" t="s">
-        <v>778</v>
-      </c>
-      <c r="H72" t="s">
-        <v>823</v>
-      </c>
-      <c r="I72" t="s">
-        <v>841</v>
-      </c>
-      <c r="J72" t="s">
-        <v>775</v>
-      </c>
-      <c r="K72" t="s">
-        <v>815</v>
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="P72" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="20"/>
@@ -9038,43 +9047,43 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B117" t="s">
+        <v>795</v>
+      </c>
+      <c r="C117" t="s">
+        <v>801</v>
+      </c>
+      <c r="D117" t="s">
+        <v>803</v>
+      </c>
+      <c r="E117" t="s">
+        <v>805</v>
+      </c>
+      <c r="F117" t="s">
+        <v>797</v>
+      </c>
+      <c r="G117" t="s">
+        <v>789</v>
+      </c>
+      <c r="H117" t="s">
+        <v>793</v>
+      </c>
+      <c r="J117" t="s">
+        <v>807</v>
+      </c>
+      <c r="K117" t="s">
+        <v>799</v>
+      </c>
+      <c r="L117" t="s">
         <v>784</v>
       </c>
-      <c r="B117" t="s">
-        <v>797</v>
-      </c>
-      <c r="C117" t="s">
-        <v>803</v>
-      </c>
-      <c r="D117" t="s">
-        <v>805</v>
-      </c>
-      <c r="E117" t="s">
-        <v>807</v>
-      </c>
-      <c r="F117" t="s">
-        <v>799</v>
-      </c>
-      <c r="G117" t="s">
-        <v>791</v>
-      </c>
-      <c r="H117" t="s">
-        <v>795</v>
-      </c>
-      <c r="J117" t="s">
-        <v>809</v>
-      </c>
-      <c r="K117" t="s">
-        <v>801</v>
-      </c>
-      <c r="L117" t="s">
+      <c r="O117" t="s">
+        <v>835</v>
+      </c>
+      <c r="P117" t="s">
         <v>786</v>
-      </c>
-      <c r="O117" t="s">
-        <v>837</v>
-      </c>
-      <c r="P117" t="s">
-        <v>788</v>
       </c>
       <c r="S117" t="s">
         <v>707</v>
@@ -9086,48 +9095,48 @@
         <v>709</v>
       </c>
       <c r="V117" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B118" t="s">
+        <v>794</v>
+      </c>
+      <c r="C118" t="s">
+        <v>800</v>
+      </c>
+      <c r="D118" t="s">
+        <v>802</v>
+      </c>
+      <c r="E118" t="s">
+        <v>804</v>
+      </c>
+      <c r="F118" t="s">
+        <v>796</v>
+      </c>
+      <c r="G118" t="s">
+        <v>788</v>
+      </c>
+      <c r="H118" t="s">
+        <v>792</v>
+      </c>
+      <c r="J118" t="s">
+        <v>806</v>
+      </c>
+      <c r="K118" t="s">
+        <v>798</v>
+      </c>
+      <c r="L118" t="s">
         <v>785</v>
       </c>
-      <c r="B118" t="s">
-        <v>796</v>
-      </c>
-      <c r="C118" t="s">
-        <v>802</v>
-      </c>
-      <c r="D118" t="s">
-        <v>804</v>
-      </c>
-      <c r="E118" t="s">
-        <v>806</v>
-      </c>
-      <c r="F118" t="s">
-        <v>798</v>
-      </c>
-      <c r="G118" t="s">
-        <v>790</v>
-      </c>
-      <c r="H118" t="s">
-        <v>794</v>
-      </c>
-      <c r="J118" t="s">
-        <v>808</v>
-      </c>
-      <c r="K118" t="s">
-        <v>800</v>
-      </c>
-      <c r="L118" t="s">
+      <c r="O118" t="s">
+        <v>824</v>
+      </c>
+      <c r="P118" t="s">
         <v>787</v>
-      </c>
-      <c r="O118" t="s">
-        <v>826</v>
-      </c>
-      <c r="P118" t="s">
-        <v>789</v>
       </c>
       <c r="S118" t="s">
         <v>703</v>
@@ -9139,7 +9148,7 @@
         <v>705</v>
       </c>
       <c r="V118" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.35">
@@ -9206,10 +9215,10 @@
         <v>769</v>
       </c>
       <c r="L120" t="s">
-        <v>773</v>
+        <v>845</v>
       </c>
       <c r="M120" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N120" t="s">
         <v>765</v>
@@ -9490,34 +9499,34 @@
         <v>712</v>
       </c>
       <c r="D131" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H131" t="s">
         <v>713</v>
       </c>
       <c r="I131" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K131" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="L131" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="M131" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="N131" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="O131" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="P131" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="Q131" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.35">
@@ -9525,13 +9534,13 @@
         <v>714</v>
       </c>
       <c r="G132" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="M132" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="N132" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.35">
@@ -9552,7 +9561,7 @@
         <v>717</v>
       </c>
       <c r="L135" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="M135" t="s">
         <v>713</v>
@@ -9589,7 +9598,7 @@
         <v>719</v>
       </c>
       <c r="I137" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="M137" t="s">
         <v>713</v>
@@ -9739,7 +9748,7 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="M149" t="s">
         <v>713</v>
@@ -9763,7 +9772,7 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="M152" t="s">
         <v>713</v>
@@ -9785,13 +9794,13 @@
         <v>735</v>
       </c>
       <c r="M154" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="N154" t="s">
         <v>713</v>
       </c>
       <c r="O154" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.35">
@@ -9890,7 +9899,7 @@
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G163" t="s">
         <v>713</v>
@@ -9936,15 +9945,15 @@
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C170" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.35">

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474AFD58-0BD9-D840-A4BB-9AF3255CFE25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
+    <workbookView xWindow="-1840" yWindow="-19440" windowWidth="27260" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="846">
   <si>
     <t>Country</t>
   </si>
@@ -1325,18 +1332,12 @@
     <t>vid_cli M people permanently flooded in 2100 K17 RCP8.5 (Kulp &amp; Strauss, 2019 https://www.nature.com/articles/s41467-019-12808-z)</t>
   </si>
   <si>
-    <t>Price gasoline (05-Jul-2021) USD/Liter (Gallon for US)</t>
-  </si>
-  <si>
     <t>Price electricity for households (December-2020) USD/kWh</t>
   </si>
   <si>
     <t>Price natural gas for households (March-2021) USD/kWh</t>
   </si>
   <si>
-    <t>Price heating oil (05-Jul-2021) USD/Liter</t>
-  </si>
-  <si>
     <t>Price coal (bituminous) USD/t</t>
   </si>
   <si>
@@ -2562,12 +2563,18 @@
   </si>
   <si>
     <t>FR: Jérôme Pilette, 200$ / EN: Davenport</t>
+  </si>
+  <si>
+    <t>Price gasoline (05-Jul-2021 or 06-Sep-2021) USD/Liter (Gallon for US)</t>
+  </si>
+  <si>
+    <t>Price heating oil (05-Jul-2021 or 06-Sep-2021) USD/Liter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2993,20 +3000,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC78" sqref="AC78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3059,7 +3066,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -3092,7 +3099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3158,7 +3165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -3196,19 +3203,19 @@
         <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="1" t="s">
@@ -3224,7 +3231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3259,7 +3266,7 @@
         <v>32</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>28</v>
@@ -3288,7 +3295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3323,7 +3330,7 @@
         <v>32</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>28</v>
@@ -3350,7 +3357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3415,7 +3422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3423,7 +3430,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
@@ -3432,28 +3439,28 @@
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>834</v>
-      </c>
       <c r="P7" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -3468,7 +3475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -3533,7 +3540,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -3616,7 +3623,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -3700,7 +3707,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -3783,7 +3790,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>102</v>
       </c>
@@ -3866,7 +3873,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
@@ -3949,7 +3956,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>138</v>
       </c>
@@ -4032,7 +4039,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -4097,7 +4104,7 @@
         <v>16942</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>149</v>
       </c>
@@ -4162,7 +4169,7 @@
         <v>23515</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
@@ -4227,7 +4234,7 @@
         <v>31800</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>155</v>
       </c>
@@ -4260,10 +4267,10 @@
       </c>
       <c r="K18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="O18" s="1"/>
       <c r="S18" t="s">
@@ -4279,7 +4286,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -4344,7 +4351,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>182</v>
       </c>
@@ -4382,7 +4389,7 @@
         <v>189</v>
       </c>
       <c r="M20" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N20" t="s">
         <v>191</v>
@@ -4409,7 +4416,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>193</v>
       </c>
@@ -4474,7 +4481,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>206</v>
       </c>
@@ -4539,7 +4546,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>207</v>
       </c>
@@ -4604,7 +4611,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>208</v>
       </c>
@@ -4669,7 +4676,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>209</v>
       </c>
@@ -4734,7 +4741,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>210</v>
       </c>
@@ -4799,7 +4806,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>213</v>
       </c>
@@ -4864,7 +4871,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>222</v>
       </c>
@@ -4908,7 +4915,7 @@
         <v>228</v>
       </c>
       <c r="O28" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="P28" t="s">
         <v>112</v>
@@ -4929,7 +4936,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>230</v>
       </c>
@@ -4994,7 +5001,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>237</v>
       </c>
@@ -5038,7 +5045,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>249</v>
       </c>
@@ -5046,7 +5053,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
@@ -5111,7 +5118,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>253</v>
       </c>
@@ -5176,7 +5183,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>254</v>
       </c>
@@ -5241,7 +5248,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>255</v>
       </c>
@@ -5306,7 +5313,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>256</v>
       </c>
@@ -5371,7 +5378,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>259</v>
       </c>
@@ -5385,7 +5392,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>263</v>
       </c>
@@ -5399,7 +5406,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>267</v>
       </c>
@@ -5413,7 +5420,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>271</v>
       </c>
@@ -5421,7 +5428,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>273</v>
       </c>
@@ -5429,7 +5436,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>275</v>
       </c>
@@ -5440,7 +5447,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>278</v>
       </c>
@@ -5478,7 +5485,7 @@
         <v>290</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>291</v>
@@ -5487,10 +5494,10 @@
         <v>292</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
@@ -5506,7 +5513,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>296</v>
       </c>
@@ -5571,7 +5578,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>300</v>
       </c>
@@ -5638,7 +5645,7 @@
       </c>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>319</v>
       </c>
@@ -5679,7 +5686,7 @@
         <v>332</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>333</v>
@@ -5705,9 +5712,9 @@
       </c>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5740,7 +5747,7 @@
       <c r="V47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>339</v>
       </c>
@@ -5763,7 +5770,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>342</v>
       </c>
@@ -5827,7 +5834,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>355</v>
       </c>
@@ -5911,7 +5918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>357</v>
       </c>
@@ -6019,7 +6026,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>358</v>
       </c>
@@ -6102,7 +6109,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>359</v>
       </c>
@@ -6208,7 +6215,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>361</v>
       </c>
@@ -6240,7 +6247,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>365</v>
       </c>
@@ -6323,7 +6330,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>373</v>
       </c>
@@ -6389,7 +6396,7 @@
       </c>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>374</v>
       </c>
@@ -6473,7 +6480,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>375</v>
       </c>
@@ -6583,7 +6590,7 @@
         <v>5.2325581395348841</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>376</v>
       </c>
@@ -6667,7 +6674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>377</v>
       </c>
@@ -6751,7 +6758,7 @@
         <v>39.738</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>378</v>
       </c>
@@ -6834,7 +6841,7 @@
         <v>7115854.8000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>379</v>
       </c>
@@ -6917,7 +6924,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>380</v>
       </c>
@@ -7027,7 +7034,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>381</v>
       </c>
@@ -7137,7 +7144,7 @@
         <v>0.10350000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>382</v>
       </c>
@@ -7247,7 +7254,7 @@
         <v>147.96508326729767</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>383</v>
       </c>
@@ -7291,7 +7298,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>386</v>
       </c>
@@ -7374,7 +7381,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>391</v>
       </c>
@@ -7458,7 +7465,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>395</v>
       </c>
@@ -7515,7 +7522,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>404</v>
       </c>
@@ -7581,7 +7588,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>413</v>
       </c>
@@ -7601,22 +7608,22 @@
         <v>419</v>
       </c>
       <c r="G71" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="H71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I71" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="K71" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="M71" s="16" t="s">
         <v>420</v>
@@ -7628,7 +7635,7 @@
         <v>422</v>
       </c>
       <c r="P71" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="Q71" t="s">
         <v>423</v>
@@ -7658,54 +7665,54 @@
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B72" t="s">
+        <v>807</v>
+      </c>
+      <c r="C72" t="s">
+        <v>808</v>
+      </c>
+      <c r="D72" t="s">
+        <v>806</v>
+      </c>
+      <c r="E72" t="s">
         <v>809</v>
       </c>
-      <c r="C72" t="s">
+      <c r="F72" t="s">
         <v>810</v>
       </c>
-      <c r="D72" t="s">
-        <v>808</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="G72" t="s">
+        <v>774</v>
+      </c>
+      <c r="H72" t="s">
+        <v>819</v>
+      </c>
+      <c r="I72" t="s">
+        <v>837</v>
+      </c>
+      <c r="J72" t="s">
+        <v>771</v>
+      </c>
+      <c r="K72" t="s">
         <v>811</v>
-      </c>
-      <c r="F72" t="s">
-        <v>812</v>
-      </c>
-      <c r="G72" t="s">
-        <v>776</v>
-      </c>
-      <c r="H72" t="s">
-        <v>821</v>
-      </c>
-      <c r="I72" t="s">
-        <v>839</v>
-      </c>
-      <c r="J72" t="s">
-        <v>773</v>
-      </c>
-      <c r="K72" t="s">
-        <v>813</v>
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="P72" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="20"/>
       <c r="U72" s="16"/>
       <c r="V72" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>430</v>
       </c>
@@ -7779,7 +7786,7 @@
         <v>1.1820000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>432</v>
       </c>
@@ -7862,9 +7869,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>433</v>
+        <v>844</v>
       </c>
       <c r="B75">
         <v>1.9419999999999999</v>
@@ -7896,9 +7903,27 @@
       <c r="K75">
         <v>1.1140000000000001</v>
       </c>
+      <c r="L75">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="M75">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="N75">
+        <v>1.446</v>
+      </c>
+      <c r="O75">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="P75">
+        <v>1.0940000000000001</v>
+      </c>
       <c r="Q75">
         <v>1.1180000000000001</v>
       </c>
+      <c r="R75">
+        <v>2.0190000000000001</v>
+      </c>
       <c r="S75">
         <v>3.4790000000000001</v>
       </c>
@@ -7911,13 +7936,28 @@
       <c r="V75">
         <v>1.804</v>
       </c>
+      <c r="W75">
+        <v>0.40400000000000003</v>
+      </c>
       <c r="X75">
         <v>0.90300000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="Y75">
+        <v>0.06</v>
+      </c>
+      <c r="Z75">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="AA75">
+        <v>0.621</v>
+      </c>
+      <c r="AB75">
+        <v>1.7490000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B76">
         <v>0.26400000000000001</v>
@@ -7949,9 +7989,27 @@
       <c r="K76">
         <v>8.3000000000000004E-2</v>
       </c>
+      <c r="L76">
+        <v>0.111</v>
+      </c>
+      <c r="M76">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N76">
+        <v>0.111</v>
+      </c>
+      <c r="O76">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="P76">
+        <v>0.22700000000000001</v>
+      </c>
       <c r="Q76">
         <v>0.13700000000000001</v>
       </c>
+      <c r="R76">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="S76">
         <v>0.14799999999999999</v>
       </c>
@@ -7964,13 +8022,28 @@
       <c r="V76">
         <v>0.36799999999999999</v>
       </c>
+      <c r="W76">
+        <v>5.8999999999999997E-2</v>
+      </c>
       <c r="X76">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="Y76">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z76">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AA76">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AB76">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B77">
         <v>9.7000000000000003E-2</v>
@@ -7984,6 +8057,18 @@
       <c r="K77">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="L77">
+        <v>2.7E-2</v>
+      </c>
+      <c r="M77">
+        <v>1.9E-2</v>
+      </c>
+      <c r="O77">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="P77">
+        <v>7.3999999999999996E-2</v>
+      </c>
       <c r="T77">
         <v>0.106</v>
       </c>
@@ -7996,10 +8081,16 @@
       <c r="X77">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="Z77">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB77">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>436</v>
+        <v>845</v>
       </c>
       <c r="B78">
         <v>1.5329999999999999</v>
@@ -8013,6 +8104,12 @@
       <c r="E78">
         <v>0.81</v>
       </c>
+      <c r="L78">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O78">
+        <v>0.755</v>
+      </c>
       <c r="T78">
         <v>1.754</v>
       </c>
@@ -8026,9 +8123,9 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C79">
         <f>240.49/C9</f>
@@ -8043,861 +8140,942 @@
         <v>72.200772200772207</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B80" t="s">
+        <v>437</v>
+      </c>
+      <c r="C80" t="s">
+        <v>437</v>
+      </c>
+      <c r="D80" t="s">
+        <v>437</v>
+      </c>
+      <c r="E80" t="s">
         <v>438</v>
       </c>
-      <c r="B80" t="s">
+      <c r="F80" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C80" t="s">
+      <c r="G80" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D80" t="s">
-        <v>439</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="H80" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="I80" t="s">
         <v>441</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="H80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="I80" t="s">
+      <c r="K80" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="M80" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="N80" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="O80" t="s">
         <v>446</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="P80" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q80" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="O80" t="s">
-        <v>448</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="R80" s="2"/>
       <c r="S80" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="U80" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="T80" s="2" t="s">
+      <c r="V80" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="U80" s="2" t="s">
+      <c r="B81" t="s">
+        <v>453</v>
+      </c>
+      <c r="C81" t="s">
+        <v>454</v>
+      </c>
+      <c r="D81" t="s">
+        <v>455</v>
+      </c>
+      <c r="E81" t="s">
         <v>452</v>
       </c>
-      <c r="V80" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+      <c r="F81" t="s">
+        <v>456</v>
+      </c>
+      <c r="G81" t="s">
+        <v>457</v>
+      </c>
+      <c r="H81" t="s">
+        <v>458</v>
+      </c>
+      <c r="I81" t="s">
+        <v>459</v>
+      </c>
+      <c r="J81" t="s">
+        <v>460</v>
+      </c>
+      <c r="K81" t="s">
+        <v>461</v>
+      </c>
+      <c r="L81" t="s">
         <v>453</v>
       </c>
-      <c r="B81" t="s">
+      <c r="M81" t="s">
+        <v>452</v>
+      </c>
+      <c r="N81" t="s">
+        <v>462</v>
+      </c>
+      <c r="O81" t="s">
+        <v>461</v>
+      </c>
+      <c r="P81" t="s">
         <v>455</v>
       </c>
-      <c r="C81" t="s">
-        <v>456</v>
-      </c>
-      <c r="D81" t="s">
-        <v>457</v>
-      </c>
-      <c r="E81" t="s">
-        <v>454</v>
-      </c>
-      <c r="F81" t="s">
-        <v>458</v>
-      </c>
-      <c r="G81" t="s">
-        <v>459</v>
-      </c>
-      <c r="H81" t="s">
-        <v>460</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="Q81" t="s">
         <v>461</v>
       </c>
-      <c r="J81" t="s">
-        <v>462</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="S81" t="s">
+        <v>760</v>
+      </c>
+      <c r="T81" t="s">
         <v>463</v>
       </c>
-      <c r="L81" t="s">
-        <v>455</v>
-      </c>
-      <c r="M81" t="s">
-        <v>454</v>
-      </c>
-      <c r="N81" t="s">
+      <c r="U81" t="s">
         <v>464</v>
       </c>
-      <c r="O81" t="s">
-        <v>463</v>
-      </c>
-      <c r="P81" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>463</v>
-      </c>
-      <c r="S81" t="s">
-        <v>762</v>
-      </c>
-      <c r="T81" t="s">
+      <c r="V81" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="U81" t="s">
+      <c r="S82" t="s">
         <v>466</v>
       </c>
-      <c r="V81" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+      <c r="T82" t="s">
         <v>467</v>
       </c>
-      <c r="S82" t="s">
+      <c r="U82" t="s">
         <v>468</v>
       </c>
-      <c r="T82" t="s">
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="U82" t="s">
+      <c r="S83" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="S83" s="7" t="s">
+      <c r="B84" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="C84" t="s">
+        <v>472</v>
+      </c>
+      <c r="D84" t="s">
+        <v>472</v>
+      </c>
+      <c r="E84" t="s">
+        <v>472</v>
+      </c>
+      <c r="F84" t="s">
         <v>473</v>
       </c>
-      <c r="B84" t="s">
+      <c r="G84" t="s">
         <v>474</v>
       </c>
-      <c r="C84" t="s">
-        <v>474</v>
-      </c>
-      <c r="D84" t="s">
-        <v>474</v>
-      </c>
-      <c r="E84" t="s">
-        <v>474</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="H84" t="s">
         <v>475</v>
       </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
         <v>476</v>
       </c>
-      <c r="H84" t="s">
+      <c r="S84" t="s">
         <v>477</v>
       </c>
-      <c r="I84" t="s">
+      <c r="T84" t="s">
+        <v>472</v>
+      </c>
+      <c r="U84" t="s">
+        <v>472</v>
+      </c>
+      <c r="V84" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="S84" t="s">
+      <c r="H85" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="T84" t="s">
-        <v>474</v>
-      </c>
-      <c r="U84" t="s">
-        <v>474</v>
-      </c>
-      <c r="V84" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+      <c r="S85" t="s">
         <v>480</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="T85" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="S85" t="s">
+      <c r="U85" t="s">
         <v>482</v>
       </c>
-      <c r="T85" s="2" t="s">
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="U85" t="s">
+      <c r="E86" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+      <c r="H86" t="s">
         <v>485</v>
       </c>
-      <c r="E86" t="s">
+      <c r="S86" t="s">
         <v>486</v>
       </c>
-      <c r="H86" t="s">
+      <c r="T86" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="S86" t="s">
+      <c r="U86" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="T86" s="2" t="s">
+      <c r="S87" t="s">
         <v>489</v>
       </c>
-      <c r="U86" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="S87" t="s">
+      <c r="S88" s="21" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="S88" s="21" t="s">
+      <c r="S89" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="S89" t="s">
+      <c r="B90" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
+      <c r="C90" t="s">
         <v>496</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>497</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>498</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>499</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>500</v>
       </c>
-      <c r="F90" t="s">
+      <c r="H90" t="s">
         <v>501</v>
       </c>
-      <c r="G90" t="s">
+      <c r="I90" t="s">
         <v>502</v>
       </c>
-      <c r="H90" t="s">
+      <c r="J90" t="s">
         <v>503</v>
       </c>
-      <c r="I90" t="s">
+      <c r="K90" t="s">
         <v>504</v>
       </c>
-      <c r="J90" t="s">
+      <c r="L90" t="s">
         <v>505</v>
       </c>
-      <c r="K90" t="s">
+      <c r="M90" t="s">
         <v>506</v>
       </c>
-      <c r="L90" t="s">
+      <c r="N90" t="s">
         <v>507</v>
       </c>
-      <c r="M90" t="s">
+      <c r="O90" t="s">
         <v>508</v>
       </c>
-      <c r="N90" t="s">
+      <c r="P90" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q90" t="s">
         <v>509</v>
       </c>
-      <c r="O90" t="s">
-        <v>510</v>
-      </c>
-      <c r="P90" t="s">
+      <c r="S90" t="s">
+        <v>511</v>
+      </c>
+      <c r="T90" t="s">
         <v>512</v>
       </c>
-      <c r="Q90" t="s">
-        <v>511</v>
-      </c>
-      <c r="S90" t="s">
+      <c r="U90" t="s">
         <v>513</v>
       </c>
-      <c r="T90" t="s">
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="U90" t="s">
+      <c r="B91" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
+      <c r="C91" t="s">
         <v>516</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>517</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>518</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>519</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
         <v>520</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" t="s">
         <v>521</v>
       </c>
-      <c r="G91" t="s">
+      <c r="I91" t="s">
         <v>522</v>
       </c>
-      <c r="H91" t="s">
+      <c r="J91" t="s">
         <v>523</v>
       </c>
-      <c r="I91" t="s">
+      <c r="K91" t="s">
         <v>524</v>
       </c>
-      <c r="J91" t="s">
+      <c r="L91" t="s">
         <v>525</v>
       </c>
-      <c r="K91" t="s">
+      <c r="M91" t="s">
         <v>526</v>
       </c>
-      <c r="L91" t="s">
+      <c r="N91" t="s">
         <v>527</v>
       </c>
-      <c r="M91" t="s">
+      <c r="O91" t="s">
         <v>528</v>
       </c>
-      <c r="N91" t="s">
+      <c r="P91" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q91" t="s">
         <v>529</v>
       </c>
-      <c r="O91" t="s">
-        <v>530</v>
-      </c>
-      <c r="P91" t="s">
+      <c r="S91" t="s">
+        <v>531</v>
+      </c>
+      <c r="T91" t="s">
         <v>532</v>
       </c>
-      <c r="Q91" t="s">
-        <v>531</v>
-      </c>
-      <c r="S91" t="s">
+      <c r="U91" t="s">
         <v>533</v>
       </c>
-      <c r="T91" t="s">
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="U91" t="s">
+      <c r="B92" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
+      <c r="C92" t="s">
         <v>536</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>537</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>538</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>539</v>
       </c>
-      <c r="E92" t="s">
+      <c r="G92" t="s">
         <v>540</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
         <v>541</v>
       </c>
-      <c r="G92" t="s">
+      <c r="I92" t="s">
         <v>542</v>
       </c>
-      <c r="H92" t="s">
+      <c r="J92" t="s">
         <v>543</v>
       </c>
-      <c r="I92" t="s">
+      <c r="K92" t="s">
         <v>544</v>
       </c>
-      <c r="J92" t="s">
+      <c r="L92" t="s">
         <v>545</v>
       </c>
-      <c r="K92" t="s">
+      <c r="M92" t="s">
         <v>546</v>
       </c>
-      <c r="L92" t="s">
+      <c r="N92" t="s">
         <v>547</v>
       </c>
-      <c r="M92" t="s">
+      <c r="O92" t="s">
+        <v>528</v>
+      </c>
+      <c r="P92" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q92" t="s">
         <v>548</v>
       </c>
-      <c r="N92" t="s">
-        <v>549</v>
-      </c>
-      <c r="O92" t="s">
-        <v>530</v>
-      </c>
-      <c r="P92" t="s">
+      <c r="S92" t="s">
+        <v>550</v>
+      </c>
+      <c r="T92" t="s">
         <v>551</v>
       </c>
-      <c r="Q92" t="s">
-        <v>550</v>
-      </c>
-      <c r="S92" t="s">
+      <c r="U92" t="s">
         <v>552</v>
       </c>
-      <c r="T92" t="s">
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="U92" t="s">
+      <c r="B93" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
+      <c r="C93" t="s">
         <v>555</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>556</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
         <v>557</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>558</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="s">
         <v>559</v>
       </c>
-      <c r="F93" t="s">
+      <c r="H93" t="s">
         <v>560</v>
       </c>
-      <c r="G93" t="s">
+      <c r="I93" t="s">
         <v>561</v>
       </c>
-      <c r="H93" t="s">
+      <c r="J93" t="s">
         <v>562</v>
       </c>
-      <c r="I93" t="s">
+      <c r="K93" t="s">
         <v>563</v>
       </c>
-      <c r="J93" t="s">
+      <c r="L93" t="s">
         <v>564</v>
       </c>
-      <c r="K93" t="s">
+      <c r="M93" t="s">
         <v>565</v>
       </c>
-      <c r="L93" t="s">
+      <c r="N93" t="s">
         <v>566</v>
       </c>
-      <c r="M93" t="s">
+      <c r="O93" t="s">
         <v>567</v>
       </c>
-      <c r="N93" t="s">
+      <c r="P93" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q93" t="s">
         <v>568</v>
       </c>
-      <c r="O93" t="s">
-        <v>569</v>
-      </c>
-      <c r="P93" t="s">
+      <c r="S93" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="T93" t="s">
         <v>571</v>
       </c>
-      <c r="Q93" t="s">
-        <v>570</v>
-      </c>
-      <c r="S93" s="22" t="s">
+      <c r="U93" t="s">
         <v>572</v>
       </c>
-      <c r="T93" t="s">
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="U93" t="s">
+      <c r="B94" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
+      <c r="C94" t="s">
         <v>575</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
         <v>576</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>577</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>578</v>
       </c>
-      <c r="E94" t="s">
+      <c r="G94" t="s">
         <v>579</v>
       </c>
-      <c r="F94" t="s">
+      <c r="H94" t="s">
         <v>580</v>
       </c>
-      <c r="G94" t="s">
+      <c r="I94" t="s">
         <v>581</v>
       </c>
-      <c r="H94" t="s">
+      <c r="J94" t="s">
         <v>582</v>
       </c>
-      <c r="I94" t="s">
+      <c r="K94" t="s">
         <v>583</v>
       </c>
-      <c r="J94" t="s">
+      <c r="L94" t="s">
         <v>584</v>
       </c>
-      <c r="K94" t="s">
+      <c r="M94" t="s">
         <v>585</v>
       </c>
-      <c r="L94" t="s">
+      <c r="O94" t="s">
         <v>586</v>
       </c>
-      <c r="M94" t="s">
+      <c r="P94" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q94" t="s">
         <v>587</v>
       </c>
-      <c r="O94" t="s">
-        <v>588</v>
-      </c>
-      <c r="P94" t="s">
+      <c r="U94" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="Q94" t="s">
-        <v>589</v>
-      </c>
-      <c r="U94" t="s">
+      <c r="B95" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
+      <c r="C95" t="s">
         <v>592</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
         <v>593</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E95" t="s">
         <v>594</v>
       </c>
-      <c r="D95" t="s">
+      <c r="G95" t="s">
         <v>595</v>
       </c>
-      <c r="E95" t="s">
+      <c r="H95" t="s">
         <v>596</v>
       </c>
-      <c r="G95" t="s">
+      <c r="I95" t="s">
         <v>597</v>
       </c>
-      <c r="H95" t="s">
+      <c r="K95" t="s">
         <v>598</v>
       </c>
-      <c r="I95" t="s">
+      <c r="L95" t="s">
         <v>599</v>
       </c>
-      <c r="K95" t="s">
+      <c r="M95" t="s">
         <v>600</v>
       </c>
-      <c r="L95" t="s">
+      <c r="P95" t="s">
         <v>601</v>
       </c>
-      <c r="M95" t="s">
+      <c r="U95" t="s">
         <v>602</v>
       </c>
-      <c r="P95" t="s">
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="U95" t="s">
+      <c r="B96" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
+      <c r="D96" t="s">
         <v>605</v>
       </c>
-      <c r="B96" t="s">
+      <c r="G96" t="s">
         <v>606</v>
       </c>
-      <c r="D96" t="s">
+      <c r="H96" t="s">
         <v>607</v>
       </c>
-      <c r="G96" t="s">
+      <c r="I96" t="s">
         <v>608</v>
       </c>
-      <c r="H96" t="s">
+      <c r="L96" t="s">
         <v>609</v>
       </c>
-      <c r="I96" t="s">
+      <c r="P96" t="s">
         <v>610</v>
       </c>
-      <c r="L96" t="s">
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="P96" t="s">
+      <c r="D97" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
+      <c r="G97" t="s">
         <v>613</v>
       </c>
-      <c r="D97" t="s">
+      <c r="H97" t="s">
         <v>614</v>
       </c>
-      <c r="G97" t="s">
+      <c r="P97" t="s">
         <v>615</v>
       </c>
-      <c r="H97" t="s">
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="P97" t="s">
+      <c r="D98" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
+      <c r="H98" t="s">
         <v>618</v>
       </c>
-      <c r="D98" t="s">
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="H98" t="s">
+      <c r="D99" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
+      <c r="H99" t="s">
+        <v>559</v>
+      </c>
+      <c r="I99" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D99" t="s">
+      <c r="S100" t="s">
         <v>622</v>
       </c>
-      <c r="H99" t="s">
-        <v>561</v>
-      </c>
-      <c r="I99" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="S100" t="s">
+      <c r="S101" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S101" t="s">
+      <c r="S102" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="S102" t="s">
+      <c r="B103" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
+      <c r="C103" t="s">
+        <v>628</v>
+      </c>
+      <c r="D103" t="s">
+        <v>628</v>
+      </c>
+      <c r="E103" t="s">
+        <v>628</v>
+      </c>
+      <c r="F103" t="s">
+        <v>628</v>
+      </c>
+      <c r="H103" t="s">
+        <v>628</v>
+      </c>
+      <c r="I103" t="s">
+        <v>628</v>
+      </c>
+      <c r="J103" t="s">
+        <v>628</v>
+      </c>
+      <c r="M103" t="s">
         <v>629</v>
       </c>
-      <c r="B103" t="s">
+      <c r="S103" t="s">
         <v>630</v>
       </c>
-      <c r="C103" t="s">
-        <v>630</v>
-      </c>
-      <c r="D103" t="s">
-        <v>630</v>
-      </c>
-      <c r="E103" t="s">
-        <v>630</v>
-      </c>
-      <c r="F103" t="s">
-        <v>630</v>
-      </c>
-      <c r="H103" t="s">
-        <v>630</v>
-      </c>
-      <c r="I103" t="s">
-        <v>630</v>
-      </c>
-      <c r="J103" t="s">
-        <v>630</v>
-      </c>
-      <c r="M103" t="s">
+      <c r="T103" t="s">
+        <v>628</v>
+      </c>
+      <c r="U103" t="s">
+        <v>628</v>
+      </c>
+      <c r="V103" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="S103" t="s">
+      <c r="B104" t="s">
         <v>632</v>
       </c>
-      <c r="T103" t="s">
-        <v>630</v>
-      </c>
-      <c r="U103" t="s">
-        <v>630</v>
-      </c>
-      <c r="V103" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A104" s="7" t="s">
+      <c r="C104" t="s">
+        <v>632</v>
+      </c>
+      <c r="D104" t="s">
+        <v>632</v>
+      </c>
+      <c r="E104" t="s">
+        <v>632</v>
+      </c>
+      <c r="F104" t="s">
+        <v>632</v>
+      </c>
+      <c r="G104" t="s">
+        <v>632</v>
+      </c>
+      <c r="H104" t="s">
+        <v>632</v>
+      </c>
+      <c r="I104" t="s">
+        <v>632</v>
+      </c>
+      <c r="J104" t="s">
+        <v>632</v>
+      </c>
+      <c r="K104" t="s">
+        <v>632</v>
+      </c>
+      <c r="L104" t="s">
+        <v>632</v>
+      </c>
+      <c r="M104" t="s">
+        <v>632</v>
+      </c>
+      <c r="N104" t="s">
+        <v>632</v>
+      </c>
+      <c r="O104" t="s">
+        <v>632</v>
+      </c>
+      <c r="P104" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>632</v>
+      </c>
+      <c r="R104" t="s">
+        <v>632</v>
+      </c>
+      <c r="S104" t="s">
         <v>633</v>
       </c>
-      <c r="B104" t="s">
+      <c r="T104" t="s">
+        <v>632</v>
+      </c>
+      <c r="U104" t="s">
+        <v>632</v>
+      </c>
+      <c r="V104" t="s">
+        <v>632</v>
+      </c>
+      <c r="W104" t="s">
+        <v>632</v>
+      </c>
+      <c r="X104" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>632</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B105" t="s">
+        <v>635</v>
+      </c>
+      <c r="C105" t="s">
+        <v>635</v>
+      </c>
+      <c r="D105" t="s">
+        <v>635</v>
+      </c>
+      <c r="E105" t="s">
+        <v>635</v>
+      </c>
+      <c r="F105" t="s">
+        <v>635</v>
+      </c>
+      <c r="G105" t="s">
+        <v>635</v>
+      </c>
+      <c r="H105" t="s">
+        <v>635</v>
+      </c>
+      <c r="I105" t="s">
+        <v>635</v>
+      </c>
+      <c r="J105" t="s">
+        <v>635</v>
+      </c>
+      <c r="K105" t="s">
+        <v>635</v>
+      </c>
+      <c r="L105" t="s">
+        <v>635</v>
+      </c>
+      <c r="M105" t="s">
+        <v>635</v>
+      </c>
+      <c r="N105" t="s">
+        <v>635</v>
+      </c>
+      <c r="O105" t="s">
+        <v>635</v>
+      </c>
+      <c r="P105" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>635</v>
+      </c>
+      <c r="R105" t="s">
+        <v>635</v>
+      </c>
+      <c r="S105" t="s">
+        <v>636</v>
+      </c>
+      <c r="T105" t="s">
+        <v>635</v>
+      </c>
+      <c r="U105" t="s">
+        <v>635</v>
+      </c>
+      <c r="V105" t="s">
+        <v>635</v>
+      </c>
+      <c r="W105" t="s">
+        <v>635</v>
+      </c>
+      <c r="X105" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="C104" t="s">
-        <v>634</v>
-      </c>
-      <c r="D104" t="s">
-        <v>634</v>
-      </c>
-      <c r="E104" t="s">
-        <v>634</v>
-      </c>
-      <c r="F104" t="s">
-        <v>634</v>
-      </c>
-      <c r="G104" t="s">
-        <v>634</v>
-      </c>
-      <c r="H104" t="s">
-        <v>634</v>
-      </c>
-      <c r="I104" t="s">
-        <v>634</v>
-      </c>
-      <c r="J104" t="s">
-        <v>634</v>
-      </c>
-      <c r="K104" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>634</v>
-      </c>
-      <c r="S104" t="s">
-        <v>635</v>
-      </c>
-      <c r="T104" t="s">
-        <v>634</v>
-      </c>
-      <c r="U104" t="s">
-        <v>634</v>
-      </c>
-      <c r="V104" t="s">
-        <v>634</v>
-      </c>
-      <c r="X104" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A105" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="B105" t="s">
-        <v>637</v>
-      </c>
-      <c r="C105" t="s">
-        <v>637</v>
-      </c>
-      <c r="D105" t="s">
-        <v>637</v>
-      </c>
-      <c r="E105" t="s">
-        <v>637</v>
-      </c>
-      <c r="F105" t="s">
-        <v>637</v>
-      </c>
-      <c r="G105" t="s">
-        <v>637</v>
-      </c>
-      <c r="H105" t="s">
-        <v>637</v>
-      </c>
-      <c r="I105" t="s">
-        <v>637</v>
-      </c>
-      <c r="J105" t="s">
-        <v>637</v>
-      </c>
-      <c r="K105" t="s">
-        <v>637</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>637</v>
-      </c>
-      <c r="S105" t="s">
-        <v>638</v>
-      </c>
-      <c r="T105" t="s">
-        <v>637</v>
-      </c>
-      <c r="U105" t="s">
-        <v>637</v>
-      </c>
-      <c r="V105" t="s">
-        <v>637</v>
-      </c>
-      <c r="X105" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A106" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="B106" t="s">
         <v>640</v>
       </c>
-      <c r="C106" t="s">
-        <v>640</v>
-      </c>
       <c r="D106" t="s">
         <v>640</v>
       </c>
       <c r="E106" t="s">
         <v>640</v>
       </c>
+      <c r="K106" t="s">
+        <v>640</v>
+      </c>
+      <c r="L106" t="s">
+        <v>640</v>
+      </c>
+      <c r="M106" t="s">
+        <v>640</v>
+      </c>
+      <c r="O106" t="s">
+        <v>640</v>
+      </c>
+      <c r="P106" t="s">
+        <v>640</v>
+      </c>
+      <c r="S106" t="s">
+        <v>641</v>
+      </c>
       <c r="T106" t="s">
         <v>640</v>
       </c>
@@ -8910,390 +9088,402 @@
       <c r="X106" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z106" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B107" t="s">
+        <v>638</v>
+      </c>
+      <c r="C107" t="s">
+        <v>638</v>
+      </c>
+      <c r="D107" t="s">
+        <v>638</v>
+      </c>
+      <c r="E107" t="s">
+        <v>638</v>
+      </c>
+      <c r="L107" t="s">
+        <v>638</v>
+      </c>
+      <c r="O107" t="s">
+        <v>638</v>
+      </c>
+      <c r="T107" t="s">
+        <v>638</v>
+      </c>
+      <c r="U107" t="s">
+        <v>638</v>
+      </c>
+      <c r="V107" t="s">
+        <v>638</v>
+      </c>
+      <c r="X107" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="D107" t="s">
-        <v>642</v>
-      </c>
-      <c r="E107" t="s">
-        <v>642</v>
-      </c>
-      <c r="K107" t="s">
-        <v>642</v>
-      </c>
-      <c r="S107" t="s">
+      <c r="B108" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C108" t="s">
         <v>643</v>
       </c>
-      <c r="T107" t="s">
-        <v>642</v>
-      </c>
-      <c r="U107" t="s">
-        <v>642</v>
-      </c>
-      <c r="V107" t="s">
-        <v>642</v>
-      </c>
-      <c r="X107" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A108" s="7" t="s">
+      <c r="G108" t="s">
         <v>644</v>
       </c>
-      <c r="C108" t="s">
+      <c r="J108" t="s">
         <v>645</v>
       </c>
-      <c r="G108" t="s">
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="J108" t="s">
+      <c r="S109" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="s">
+      <c r="T109" t="s">
         <v>648</v>
       </c>
-      <c r="S109" t="s">
+      <c r="U109" t="s">
         <v>649</v>
       </c>
-      <c r="T109" t="s">
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="U109" t="s">
+      <c r="S110" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="s">
+      <c r="T110" t="s">
         <v>652</v>
       </c>
-      <c r="S110" t="s">
+      <c r="U110" t="s">
         <v>653</v>
       </c>
-      <c r="T110" t="s">
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="U110" t="s">
+      <c r="S111" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="s">
+      <c r="T111" t="s">
         <v>656</v>
       </c>
-      <c r="S111" t="s">
+      <c r="U111" t="s">
         <v>657</v>
       </c>
-      <c r="T111" t="s">
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="U111" t="s">
+      <c r="U112" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="U112" t="s">
+      <c r="S113" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A113" s="3" t="s">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="S113" t="s">
+      <c r="S114" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A114" s="3" t="s">
+      <c r="T114" s="23" t="s">
         <v>664</v>
       </c>
-      <c r="S114" t="s">
+      <c r="U114" t="s">
         <v>665</v>
       </c>
-      <c r="T114" s="23" t="s">
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="U114" t="s">
+      <c r="S115" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="S115" t="s">
+      <c r="U116" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A116" s="3" t="s">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B117" t="s">
+        <v>793</v>
+      </c>
+      <c r="C117" t="s">
+        <v>799</v>
+      </c>
+      <c r="D117" t="s">
+        <v>801</v>
+      </c>
+      <c r="E117" t="s">
+        <v>803</v>
+      </c>
+      <c r="F117" t="s">
+        <v>795</v>
+      </c>
+      <c r="G117" t="s">
+        <v>787</v>
+      </c>
+      <c r="H117" t="s">
+        <v>791</v>
+      </c>
+      <c r="J117" t="s">
+        <v>805</v>
+      </c>
+      <c r="K117" t="s">
+        <v>797</v>
+      </c>
+      <c r="L117" t="s">
+        <v>782</v>
+      </c>
+      <c r="O117" t="s">
+        <v>833</v>
+      </c>
+      <c r="P117" t="s">
+        <v>784</v>
+      </c>
+      <c r="S117" t="s">
+        <v>705</v>
+      </c>
+      <c r="T117" t="s">
+        <v>706</v>
+      </c>
+      <c r="U117" t="s">
+        <v>707</v>
+      </c>
+      <c r="V117" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B118" t="s">
+        <v>792</v>
+      </c>
+      <c r="C118" t="s">
+        <v>798</v>
+      </c>
+      <c r="D118" t="s">
+        <v>800</v>
+      </c>
+      <c r="E118" t="s">
+        <v>802</v>
+      </c>
+      <c r="F118" t="s">
+        <v>794</v>
+      </c>
+      <c r="G118" t="s">
+        <v>786</v>
+      </c>
+      <c r="H118" t="s">
+        <v>790</v>
+      </c>
+      <c r="J118" t="s">
+        <v>804</v>
+      </c>
+      <c r="K118" t="s">
+        <v>796</v>
+      </c>
+      <c r="L118" t="s">
+        <v>783</v>
+      </c>
+      <c r="O118" t="s">
+        <v>822</v>
+      </c>
+      <c r="P118" t="s">
+        <v>785</v>
+      </c>
+      <c r="S118" t="s">
+        <v>701</v>
+      </c>
+      <c r="T118" t="s">
+        <v>702</v>
+      </c>
+      <c r="U118" t="s">
+        <v>703</v>
+      </c>
+      <c r="V118" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="C119" t="s">
+        <v>757</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="H119" t="s">
+        <v>755</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="N119" t="s">
+        <v>751</v>
+      </c>
+      <c r="O119" t="s">
+        <v>752</v>
+      </c>
+      <c r="V119" s="9" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="U116" t="s">
+      <c r="B120" t="s">
+        <v>672</v>
+      </c>
+      <c r="C120" t="s">
+        <v>673</v>
+      </c>
+      <c r="D120" t="s">
+        <v>674</v>
+      </c>
+      <c r="E120" t="s">
+        <v>675</v>
+      </c>
+      <c r="F120" t="s">
+        <v>676</v>
+      </c>
+      <c r="H120" t="s">
+        <v>677</v>
+      </c>
+      <c r="I120" t="s">
+        <v>678</v>
+      </c>
+      <c r="J120" s="24" t="s">
+        <v>679</v>
+      </c>
+      <c r="K120" t="s">
+        <v>767</v>
+      </c>
+      <c r="L120" t="s">
+        <v>843</v>
+      </c>
+      <c r="M120" t="s">
+        <v>778</v>
+      </c>
+      <c r="N120" t="s">
+        <v>763</v>
+      </c>
+      <c r="O120" t="s">
+        <v>769</v>
+      </c>
+      <c r="S120" t="s">
+        <v>680</v>
+      </c>
+      <c r="T120" t="s">
+        <v>681</v>
+      </c>
+      <c r="U120" t="s">
+        <v>682</v>
+      </c>
+      <c r="V120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A117" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="B117" t="s">
-        <v>795</v>
-      </c>
-      <c r="C117" t="s">
-        <v>801</v>
-      </c>
-      <c r="D117" t="s">
-        <v>803</v>
-      </c>
-      <c r="E117" t="s">
-        <v>805</v>
-      </c>
-      <c r="F117" t="s">
-        <v>797</v>
-      </c>
-      <c r="G117" t="s">
-        <v>789</v>
-      </c>
-      <c r="H117" t="s">
-        <v>793</v>
-      </c>
-      <c r="J117" t="s">
-        <v>807</v>
-      </c>
-      <c r="K117" t="s">
-        <v>799</v>
-      </c>
-      <c r="L117" t="s">
-        <v>784</v>
-      </c>
-      <c r="O117" t="s">
-        <v>835</v>
-      </c>
-      <c r="P117" t="s">
-        <v>786</v>
-      </c>
-      <c r="S117" t="s">
-        <v>707</v>
-      </c>
-      <c r="T117" t="s">
-        <v>708</v>
-      </c>
-      <c r="U117" t="s">
-        <v>709</v>
-      </c>
-      <c r="V117" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="B118" t="s">
-        <v>794</v>
-      </c>
-      <c r="C118" t="s">
-        <v>800</v>
-      </c>
-      <c r="D118" t="s">
-        <v>802</v>
-      </c>
-      <c r="E118" t="s">
-        <v>804</v>
-      </c>
-      <c r="F118" t="s">
-        <v>796</v>
-      </c>
-      <c r="G118" t="s">
-        <v>788</v>
-      </c>
-      <c r="H118" t="s">
-        <v>792</v>
-      </c>
-      <c r="J118" t="s">
-        <v>806</v>
-      </c>
-      <c r="K118" t="s">
-        <v>798</v>
-      </c>
-      <c r="L118" t="s">
-        <v>785</v>
-      </c>
-      <c r="O118" t="s">
-        <v>824</v>
-      </c>
-      <c r="P118" t="s">
-        <v>787</v>
-      </c>
-      <c r="S118" t="s">
-        <v>703</v>
-      </c>
-      <c r="T118" t="s">
-        <v>704</v>
-      </c>
-      <c r="U118" t="s">
-        <v>705</v>
-      </c>
-      <c r="V118" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A119" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="C119" t="s">
-        <v>759</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="H119" t="s">
-        <v>757</v>
-      </c>
-      <c r="K119" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="M119" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="N119" t="s">
-        <v>753</v>
-      </c>
-      <c r="O119" t="s">
-        <v>754</v>
-      </c>
-      <c r="V119" s="9" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="B120" t="s">
-        <v>674</v>
-      </c>
-      <c r="C120" t="s">
-        <v>675</v>
-      </c>
-      <c r="D120" t="s">
-        <v>676</v>
-      </c>
-      <c r="E120" t="s">
-        <v>677</v>
-      </c>
-      <c r="F120" t="s">
-        <v>678</v>
-      </c>
-      <c r="H120" t="s">
-        <v>679</v>
-      </c>
-      <c r="I120" t="s">
-        <v>680</v>
-      </c>
-      <c r="J120" s="24" t="s">
-        <v>681</v>
-      </c>
-      <c r="K120" t="s">
-        <v>769</v>
-      </c>
-      <c r="L120" t="s">
-        <v>845</v>
-      </c>
-      <c r="M120" t="s">
-        <v>780</v>
-      </c>
-      <c r="N120" t="s">
-        <v>765</v>
-      </c>
-      <c r="O120" t="s">
-        <v>771</v>
-      </c>
-      <c r="S120" t="s">
-        <v>682</v>
-      </c>
-      <c r="T120" t="s">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="U120" t="s">
+      <c r="B121" t="s">
         <v>684</v>
       </c>
-      <c r="V120" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
+      <c r="C121" t="s">
+        <v>762</v>
+      </c>
+      <c r="D121" t="s">
         <v>685</v>
       </c>
-      <c r="B121" t="s">
+      <c r="F121" t="s">
         <v>686</v>
       </c>
-      <c r="C121" t="s">
-        <v>764</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="G121" t="s">
         <v>687</v>
       </c>
-      <c r="F121" t="s">
+      <c r="H121" t="s">
         <v>688</v>
       </c>
-      <c r="G121" t="s">
+      <c r="I121" t="s">
         <v>689</v>
       </c>
-      <c r="H121" t="s">
+      <c r="J121" t="s">
         <v>690</v>
       </c>
-      <c r="I121" t="s">
+      <c r="M121" t="s">
         <v>691</v>
       </c>
-      <c r="J121" t="s">
+      <c r="N121" t="s">
         <v>692</v>
       </c>
-      <c r="M121" t="s">
+      <c r="O121" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q121" t="s">
         <v>693</v>
       </c>
-      <c r="N121" t="s">
+      <c r="T121" t="s">
         <v>694</v>
       </c>
-      <c r="O121" t="s">
-        <v>770</v>
-      </c>
-      <c r="Q121" t="s">
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="T121" t="s">
+      <c r="S122" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="s">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>697</v>
-      </c>
-      <c r="S122" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
-        <v>699</v>
       </c>
       <c r="B123">
         <v>10</v>
@@ -9320,9 +9510,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B124">
         <v>6300</v>
@@ -9352,9 +9542,9 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B125">
         <v>6500</v>
@@ -9414,218 +9604,218 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="S126" t="s">
+        <v>701</v>
+      </c>
+      <c r="T126" t="s">
         <v>702</v>
       </c>
-      <c r="S126" t="s">
+      <c r="U126" t="s">
         <v>703</v>
       </c>
-      <c r="T126" t="s">
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="U126" t="s">
+      <c r="S127" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A127" s="3" t="s">
+      <c r="T127" t="s">
         <v>706</v>
       </c>
-      <c r="S127" t="s">
+      <c r="U127" t="s">
         <v>707</v>
       </c>
-      <c r="T127" t="s">
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="U127" t="s">
+      <c r="B129" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" t="s">
+        <v>28</v>
+      </c>
+      <c r="I129" t="s">
+        <v>28</v>
+      </c>
+      <c r="J129" t="s">
+        <v>28</v>
+      </c>
+      <c r="V129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A129" s="3" t="s">
+      <c r="B130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" t="s">
+        <v>28</v>
+      </c>
+      <c r="V130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="B129" t="s">
-        <v>28</v>
-      </c>
-      <c r="C129" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129" t="s">
-        <v>28</v>
-      </c>
-      <c r="E129" t="s">
-        <v>28</v>
-      </c>
-      <c r="F129" t="s">
-        <v>28</v>
-      </c>
-      <c r="G129" t="s">
-        <v>28</v>
-      </c>
-      <c r="H129" t="s">
-        <v>28</v>
-      </c>
-      <c r="I129" t="s">
-        <v>28</v>
-      </c>
-      <c r="J129" t="s">
-        <v>28</v>
-      </c>
-      <c r="V129" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A130" s="3" t="s">
+      <c r="D131" t="s">
+        <v>812</v>
+      </c>
+      <c r="H131" t="s">
         <v>711</v>
       </c>
-      <c r="B130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130" t="s">
-        <v>28</v>
-      </c>
-      <c r="E130" t="s">
-        <v>28</v>
-      </c>
-      <c r="V130" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A131" s="3" t="s">
+      <c r="I131" t="s">
+        <v>840</v>
+      </c>
+      <c r="K131" t="s">
+        <v>813</v>
+      </c>
+      <c r="L131" t="s">
+        <v>823</v>
+      </c>
+      <c r="M131" t="s">
+        <v>813</v>
+      </c>
+      <c r="N131" t="s">
+        <v>813</v>
+      </c>
+      <c r="O131" t="s">
+        <v>813</v>
+      </c>
+      <c r="P131" t="s">
+        <v>823</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="D131" t="s">
-        <v>814</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="G132" t="s">
+        <v>815</v>
+      </c>
+      <c r="M132" t="s">
+        <v>813</v>
+      </c>
+      <c r="N132" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="I131" t="s">
-        <v>842</v>
-      </c>
-      <c r="K131" t="s">
-        <v>815</v>
-      </c>
-      <c r="L131" t="s">
-        <v>825</v>
-      </c>
-      <c r="M131" t="s">
-        <v>815</v>
-      </c>
-      <c r="N131" t="s">
-        <v>815</v>
-      </c>
-      <c r="O131" t="s">
-        <v>815</v>
-      </c>
-      <c r="P131" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A132" s="3" t="s">
+      <c r="V133" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="G132" t="s">
-        <v>817</v>
-      </c>
-      <c r="M132" t="s">
-        <v>815</v>
-      </c>
-      <c r="N132" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A133" s="3" t="s">
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="V133" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A134" s="3" t="s">
+      <c r="L135" t="s">
+        <v>823</v>
+      </c>
+      <c r="M135" t="s">
+        <v>711</v>
+      </c>
+      <c r="N135" t="s">
+        <v>711</v>
+      </c>
+      <c r="O135" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A135" s="3" t="s">
+      <c r="M136" t="s">
+        <v>711</v>
+      </c>
+      <c r="N136" t="s">
+        <v>711</v>
+      </c>
+      <c r="O136" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="L135" t="s">
-        <v>825</v>
-      </c>
-      <c r="M135" t="s">
-        <v>713</v>
-      </c>
-      <c r="N135" t="s">
-        <v>713</v>
-      </c>
-      <c r="O135" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A136" s="3" t="s">
+      <c r="I137" t="s">
+        <v>839</v>
+      </c>
+      <c r="M137" t="s">
+        <v>711</v>
+      </c>
+      <c r="N137" t="s">
+        <v>711</v>
+      </c>
+      <c r="O137" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="M136" t="s">
-        <v>713</v>
-      </c>
-      <c r="N136" t="s">
-        <v>713</v>
-      </c>
-      <c r="O136" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A137" s="3" t="s">
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="I137" t="s">
-        <v>841</v>
-      </c>
-      <c r="M137" t="s">
-        <v>713</v>
-      </c>
-      <c r="N137" t="s">
-        <v>713</v>
-      </c>
-      <c r="O137" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A138" s="3" t="s">
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
         <v>720</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A139" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A140" s="3" t="s">
-        <v>722</v>
       </c>
       <c r="B140" t="s">
         <v>43</v>
@@ -9655,9 +9845,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B141" t="s">
         <v>43</v>
@@ -9684,167 +9874,167 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="Q142" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A143" s="3" t="s">
+      <c r="M144" t="s">
+        <v>711</v>
+      </c>
+      <c r="N144" t="s">
+        <v>711</v>
+      </c>
+      <c r="O144" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A144" s="3" t="s">
+      <c r="M145" t="s">
+        <v>711</v>
+      </c>
+      <c r="N145" t="s">
+        <v>711</v>
+      </c>
+      <c r="O145" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="M144" t="s">
-        <v>713</v>
-      </c>
-      <c r="N144" t="s">
-        <v>713</v>
-      </c>
-      <c r="O144" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A145" s="3" t="s">
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="M145" t="s">
-        <v>713</v>
-      </c>
-      <c r="N145" t="s">
-        <v>713</v>
-      </c>
-      <c r="O145" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A146" s="3" t="s">
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A147" s="3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A148" s="3" t="s">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="M149" t="s">
+        <v>711</v>
+      </c>
+      <c r="N149" t="s">
+        <v>711</v>
+      </c>
+      <c r="O149" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A149" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="M149" t="s">
-        <v>713</v>
-      </c>
-      <c r="N149" t="s">
-        <v>713</v>
-      </c>
-      <c r="O149" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A150" s="3" t="s">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="M152" t="s">
+        <v>711</v>
+      </c>
+      <c r="N152" t="s">
+        <v>711</v>
+      </c>
+      <c r="O152" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A151" s="3" t="s">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A152" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="M152" t="s">
-        <v>713</v>
-      </c>
-      <c r="N152" t="s">
-        <v>713</v>
-      </c>
-      <c r="O152" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A153" s="1" t="s">
+      <c r="M154" t="s">
+        <v>813</v>
+      </c>
+      <c r="N154" t="s">
+        <v>711</v>
+      </c>
+      <c r="O154" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A154" s="3" t="s">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="M154" t="s">
-        <v>815</v>
-      </c>
-      <c r="N154" t="s">
-        <v>713</v>
-      </c>
-      <c r="O154" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A155" s="3" t="s">
+      <c r="M156" t="s">
+        <v>711</v>
+      </c>
+      <c r="N156" t="s">
+        <v>711</v>
+      </c>
+      <c r="O156" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A156" s="3" t="s">
+      <c r="M157" t="s">
+        <v>711</v>
+      </c>
+      <c r="N157" t="s">
+        <v>711</v>
+      </c>
+      <c r="O157" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="M156" t="s">
-        <v>713</v>
-      </c>
-      <c r="N156" t="s">
-        <v>713</v>
-      </c>
-      <c r="O156" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A157" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="M157" t="s">
-        <v>713</v>
-      </c>
-      <c r="N157" t="s">
-        <v>713</v>
-      </c>
-      <c r="O157" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A158" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="H158" t="s">
         <v>43</v>
@@ -9853,110 +10043,110 @@
         <v>43</v>
       </c>
       <c r="M158" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="N158" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="O158" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="Q158" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="M159" t="s">
+        <v>711</v>
+      </c>
+      <c r="N159" t="s">
+        <v>711</v>
+      </c>
+      <c r="O159" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="M159" t="s">
-        <v>713</v>
-      </c>
-      <c r="N159" t="s">
-        <v>713</v>
-      </c>
-      <c r="O159" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A160" s="3" t="s">
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A161" s="3" t="s">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="G163" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
         <v>742</v>
-      </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A162" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A163" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="G163" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A164" s="1" t="s">
-        <v>744</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="N164" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="V167" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C170" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
     </row>
   </sheetData>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474AFD58-0BD9-D840-A4BB-9AF3255CFE25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A699FD-58D1-6E42-AC67-DD95EEF33A2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1840" yWindow="-19440" windowWidth="27260" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4700" yWindow="-18260" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="861">
   <si>
     <t>Country</t>
   </si>
@@ -2569,6 +2569,51 @@
   </si>
   <si>
     <t>Price heating oil (05-Jul-2021 or 06-Sep-2021) USD/Liter</t>
+  </si>
+  <si>
+    <t>Left: Partito Democratico; Liberi e Uguali; Center: Movimento 5 Stelle; +Europa; Civica Popolare; Partito Autonomista Trentino Tirolese; MAIE; USEI Right: Forza Italia; Noi con l'Italia, Far-right: Lega Nord; Fratelii d'Italia</t>
+  </si>
+  <si>
+    <t>Left: Robert Biedroń; Waldemar Witkowski Center: Szymon Hołownia; Władysław Kosiniak-Kamysz Right: Rafał Trzaskowski; Stanisław Żółtek; Marek Jakubiak; Paweł Tanajno; Mirosław Piotrowski Far-right: Andrzej Duda; Krzysztof Bosak</t>
+  </si>
+  <si>
+    <t>Far-left: Unidos Podemos; EH Bildu Left: PSOE (Partido Socialista Obrero Español); ERC-Sobiranistes; Bloque Nacionalista Galego Center: Ciudadanos; Junts per Catalunya; Partido Nacionalista Vasco; Acuerdo de Unidad Nacionalista; Partido Regionalista de Cantabria Right: Partido Popular; Navarra Suma Far-right: Vox</t>
+  </si>
+  <si>
+    <t>自由民主党The Liberal Democratic Party right ;	公明党 Komeito centre-right; 	立憲民主党 The Constitutional Democratic Party of Japan; centre-left; 	国民民主党 Democratic Party For the People centre-right;	日本維新の会Japan Innovation Party centre-right;	日本共産党Japanese Communist Party left;	社民党 Social Democratic Party centre-left</t>
+  </si>
+  <si>
+    <t>Far-left: Communist Party of India; All India Anna Dravida Munnetra Kazhagam Left: Indian National Congress; All India Grassroots Congress; Bahujan Samaj Party; Samajwadi Party; Dravida Munnetra Kazhagam; Telugu Desam Party; Janata Dal (United); Rashtriya Janata Dal Center: YSR Congress Party; Biju Janata Dal; Nationalist Congress Party Right: Bharatiya Janata Party; Telangana Rashtra Samithi Far-right: Shiv Sena Others &lt;1%</t>
+  </si>
+  <si>
+    <t>Left: Partai Demokrasi Indonesia Perjuangan; Partai Solidaritas Indonesia Center: Partai Kebangkitan Bangsa; Partai Amanat Nasional; Partai Hati Nurani Rakyat, Partai Hanura; Partai Gerakan Perubahan Indonesia Right: Partai NasDem; Partai Demokrat; Partai Persatuan Pembangunan; Partai Persatuan Indonesia; Partai Keadilan dan Persatuan Indonesia Far-right: Partai Gerakan Indonesia Raya, Gerindra; Golkar; Partai Keadilan Sejahtera; Partai Berkarya; Partai Bulan Bintang</t>
+  </si>
+  <si>
+    <t>Far-left: Economic Freedom Fighters (EFF) Left: African National Congress Center: Democratic Alliance Right: Inkatha Freedom Party (IFP) Far-right: Freedom Front Plus Others &lt; 1%</t>
+  </si>
+  <si>
+    <t>o	PRI (Centro derecha) o	PAN (derecha) o	PRD (izquierda) o	MORENA  (izquierda) o	MOVIMIENTO CIUDADANO (izquierda) o	PT (izquierda) o	VERDE (izquierda)</t>
+  </si>
+  <si>
+    <t>Left: Liberal Party of Canada; New Democratic Party; Bloc québécois; Green Party of Canada Right: Conservative Party of Canada Far-right: People's Party of Canada</t>
+  </si>
+  <si>
+    <t>Left: Petro Poroshenko; Center: Volodymyr Zelensky; Ioulia Tymochenko; Iouri Boïko; Anatoliy Hrytsenko; Oleksandr Vilkul Right: Ihor Smeshko; Oleh Lyashko Far-right: Ruslan Koshulynskyi Other &lt;1%</t>
+  </si>
+  <si>
+    <t>Left: Moon Jae-in; Sim Sang-jung Center: Ahn Cheol-soo Right: Yoo Seong-min Far-right: Hong Joon-pyo Others &lt;0.15%</t>
+  </si>
+  <si>
+    <t>Far-left: Vatan Partisi Left: Cumhuriyet Halk Partisi; Halkların Demokratik Partisi Center: İYİ Parti Right: Adalet ve Kalkınma Partisi Far-right: Milliyetçi Hareket Partisi; Saadet Partisi; Hür Dava Partisi Others &lt; 0.15%</t>
+  </si>
+  <si>
+    <t>Left: Australian Labor Party; Australian Greens; Center: Katter's Australian Party; Centre Alliance Right: Liberal Party of Australia; Liberal National Party of Queensland; National Party of Australia; Country Liberal Party Others ~15%</t>
+  </si>
+  <si>
+    <t>Far-left: Guilherme Boulos Left: Fernando Haddad; Marina Silva Center: Ciro Gomes; Geraldo Alckmin; Henrique Meirelles; Alvaro Dias Right: João Amoêdo Far-right: Jair Bolsonaro; Cabo Daciolo Others &lt; 1%</t>
+  </si>
+  <si>
+    <t>Far-left: Die Linke; Die Grünen Left: SPD Center: FDP (Freie Demokratische Partei) Right: CDU/CSU Far-right: Alternative für Deutschland</t>
   </si>
 </sst>
 </file>
@@ -3003,9 +3048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC78" sqref="AC78"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5424,8 +5469,53 @@
       <c r="A40" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="B40" t="s">
+        <v>846</v>
+      </c>
+      <c r="C40" t="s">
+        <v>847</v>
+      </c>
+      <c r="D40" t="s">
+        <v>848</v>
+      </c>
+      <c r="F40" t="s">
+        <v>849</v>
+      </c>
+      <c r="H40" t="s">
+        <v>850</v>
+      </c>
+      <c r="I40" t="s">
+        <v>851</v>
+      </c>
+      <c r="J40" t="s">
+        <v>852</v>
+      </c>
+      <c r="K40" t="s">
+        <v>853</v>
+      </c>
+      <c r="L40" t="s">
+        <v>854</v>
+      </c>
+      <c r="M40" t="s">
+        <v>855</v>
+      </c>
+      <c r="N40" t="s">
+        <v>856</v>
+      </c>
+      <c r="O40" t="s">
+        <v>857</v>
+      </c>
+      <c r="P40" t="s">
+        <v>858</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>859</v>
+      </c>
       <c r="S40" t="s">
         <v>272</v>
+      </c>
+      <c r="V40" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="851">
   <si>
     <t>Country</t>
   </si>
@@ -2378,15 +2378,9 @@
     <t>URL video climate</t>
   </si>
   <si>
-    <t>EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_3J0MfOdkxKKTq06</t>
-  </si>
-  <si>
     <t>EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9zxyasw9TTVFqx8</t>
   </si>
   <si>
-    <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_6VeKDznqkIUn62W</t>
-  </si>
-  <si>
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_6zC4wlmsEXrDnYq</t>
   </si>
   <si>
@@ -2423,9 +2417,6 @@
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_cSdiidvle1QaekS</t>
   </si>
   <si>
-    <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9mERY45BIpPFRci</t>
-  </si>
-  <si>
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_6SahJCEqAUd5bdc</t>
   </si>
   <si>
@@ -2507,18 +2498,12 @@
     <t>2, Sydney - Melbourne, 900km</t>
   </si>
   <si>
-    <t>~ OECD</t>
-  </si>
-  <si>
     <t>ZU: https://lse.eu.qualtrics.com/jfe/form/SV_5bgS4vQyTHXHl4i?Q_Language=ZU / EN: https://lse.eu.qualtrics.com/jfe/form/SV_5bgS4vQyTHXHl4i?Q_Language=EN-US</t>
   </si>
   <si>
     <t>FR: https://lse.eu.qualtrics.com/jfe/form/SV_9Wt11o3HDZ2YVym?Q_Language=FR-CA / EN: https://lse.eu.qualtrics.com/jfe/form/SV_9Wt11o3HDZ2YVym?Q_Language=EN</t>
   </si>
   <si>
-    <t>~ OECD?</t>
-  </si>
-  <si>
     <t>EN: https://lse.eu.qualtrics.com/jfe/form/SV_2shrz7xK2E8I4uy?Q_Language=EN / HI: https://lse.eu.qualtrics.com/jfe/form/SV_2shrz7xK2E8I4uy?Q_Language=HI</t>
   </si>
   <si>
@@ -2558,10 +2543,40 @@
     <t>Israel</t>
   </si>
   <si>
-    <t>~ Jerôme</t>
-  </si>
-  <si>
     <t>FR: Jérôme Pilette, 200$ / EN: Davenport</t>
+  </si>
+  <si>
+    <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_3UbhIz7hb99f0wu</t>
+  </si>
+  <si>
+    <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_3gagRLUpgyAicVE</t>
+  </si>
+  <si>
+    <t>EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9Lekk0zTPurlzkG</t>
+  </si>
+  <si>
+    <t>~ test zipcode</t>
+  </si>
+  <si>
+    <t>~ test zipcode Ana</t>
+  </si>
+  <si>
+    <t>~ OECD (Tobias, expected 18/09)</t>
+  </si>
+  <si>
+    <t>~ OECD? (Tobias, no answer)</t>
+  </si>
+  <si>
+    <t>~ OECD (Tobias, expected 30/09)</t>
+  </si>
+  <si>
+    <t>~ vote</t>
+  </si>
+  <si>
+    <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9QQCwEicwdwYp94</t>
+  </si>
+  <si>
+    <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_1RqbYYeT2cOnOPc</t>
   </si>
 </sst>
 </file>
@@ -2998,7 +3013,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3059,7 +3074,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -3181,7 +3196,7 @@
         <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>848</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>28</v>
@@ -3196,19 +3211,19 @@
         <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>827</v>
+        <v>847</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="1" t="s">
@@ -3256,10 +3271,10 @@
         <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>844</v>
+        <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>28</v>
@@ -3314,13 +3329,13 @@
         <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>781</v>
@@ -3385,7 +3400,7 @@
         <v>28</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>28</v>
+        <v>843</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>28</v>
@@ -3423,7 +3438,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
@@ -3432,28 +3447,28 @@
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>832</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -5487,7 +5502,7 @@
         <v>292</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>750</v>
@@ -7604,19 +7619,19 @@
         <v>775</v>
       </c>
       <c r="H71" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="I71" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K71" t="s">
         <v>774</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="M71" s="16" t="s">
         <v>420</v>
@@ -7628,7 +7643,7 @@
         <v>422</v>
       </c>
       <c r="P71" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="Q71" t="s">
         <v>423</v>
@@ -7663,40 +7678,40 @@
         <v>767</v>
       </c>
       <c r="B72" t="s">
+        <v>806</v>
+      </c>
+      <c r="C72" t="s">
+        <v>807</v>
+      </c>
+      <c r="D72" t="s">
+        <v>805</v>
+      </c>
+      <c r="E72" t="s">
+        <v>808</v>
+      </c>
+      <c r="F72" t="s">
         <v>809</v>
-      </c>
-      <c r="C72" t="s">
-        <v>810</v>
-      </c>
-      <c r="D72" t="s">
-        <v>808</v>
-      </c>
-      <c r="E72" t="s">
-        <v>811</v>
-      </c>
-      <c r="F72" t="s">
-        <v>812</v>
       </c>
       <c r="G72" t="s">
         <v>776</v>
       </c>
       <c r="H72" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I72" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="J72" t="s">
         <v>773</v>
       </c>
       <c r="K72" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="P72" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="20"/>
@@ -9050,40 +9065,43 @@
         <v>782</v>
       </c>
       <c r="B117" t="s">
+        <v>793</v>
+      </c>
+      <c r="C117" t="s">
+        <v>798</v>
+      </c>
+      <c r="D117" t="s">
+        <v>800</v>
+      </c>
+      <c r="E117" t="s">
+        <v>802</v>
+      </c>
+      <c r="F117" t="s">
         <v>795</v>
       </c>
-      <c r="C117" t="s">
-        <v>801</v>
-      </c>
-      <c r="D117" t="s">
-        <v>803</v>
-      </c>
-      <c r="E117" t="s">
-        <v>805</v>
-      </c>
-      <c r="F117" t="s">
-        <v>797</v>
-      </c>
       <c r="G117" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H117" t="s">
-        <v>793</v>
+        <v>791</v>
+      </c>
+      <c r="I117" t="s">
+        <v>850</v>
       </c>
       <c r="J117" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="K117" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="L117" t="s">
-        <v>784</v>
+        <v>842</v>
       </c>
       <c r="O117" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="P117" t="s">
-        <v>786</v>
+        <v>841</v>
       </c>
       <c r="S117" t="s">
         <v>707</v>
@@ -9095,7 +9113,7 @@
         <v>709</v>
       </c>
       <c r="V117" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.35">
@@ -9103,40 +9121,43 @@
         <v>783</v>
       </c>
       <c r="B118" t="s">
+        <v>792</v>
+      </c>
+      <c r="C118" t="s">
+        <v>797</v>
+      </c>
+      <c r="D118" t="s">
+        <v>799</v>
+      </c>
+      <c r="E118" t="s">
+        <v>801</v>
+      </c>
+      <c r="F118" t="s">
         <v>794</v>
       </c>
-      <c r="C118" t="s">
-        <v>800</v>
-      </c>
-      <c r="D118" t="s">
-        <v>802</v>
-      </c>
-      <c r="E118" t="s">
-        <v>804</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
+        <v>786</v>
+      </c>
+      <c r="H118" t="s">
+        <v>790</v>
+      </c>
+      <c r="I118" t="s">
+        <v>849</v>
+      </c>
+      <c r="J118" t="s">
+        <v>803</v>
+      </c>
+      <c r="K118" t="s">
         <v>796</v>
       </c>
-      <c r="G118" t="s">
-        <v>788</v>
-      </c>
-      <c r="H118" t="s">
-        <v>792</v>
-      </c>
-      <c r="J118" t="s">
-        <v>806</v>
-      </c>
-      <c r="K118" t="s">
-        <v>798</v>
-      </c>
       <c r="L118" t="s">
+        <v>784</v>
+      </c>
+      <c r="O118" t="s">
+        <v>821</v>
+      </c>
+      <c r="P118" t="s">
         <v>785</v>
-      </c>
-      <c r="O118" t="s">
-        <v>824</v>
-      </c>
-      <c r="P118" t="s">
-        <v>787</v>
       </c>
       <c r="S118" t="s">
         <v>703</v>
@@ -9148,7 +9169,7 @@
         <v>705</v>
       </c>
       <c r="V118" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.35">
@@ -9215,7 +9236,7 @@
         <v>769</v>
       </c>
       <c r="L120" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="M120" t="s">
         <v>780</v>
@@ -9499,34 +9520,34 @@
         <v>712</v>
       </c>
       <c r="D131" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="H131" t="s">
         <v>713</v>
       </c>
       <c r="I131" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="K131" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="L131" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="M131" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="N131" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="O131" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="P131" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="Q131" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.35">
@@ -9534,13 +9555,13 @@
         <v>714</v>
       </c>
       <c r="G132" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="M132" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="N132" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.35">
@@ -9561,7 +9582,7 @@
         <v>717</v>
       </c>
       <c r="L135" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="M135" t="s">
         <v>713</v>
@@ -9598,7 +9619,7 @@
         <v>719</v>
       </c>
       <c r="I137" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="M137" t="s">
         <v>713</v>
@@ -9748,7 +9769,7 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="M149" t="s">
         <v>713</v>
@@ -9772,7 +9793,7 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="M152" t="s">
         <v>713</v>
@@ -9794,13 +9815,13 @@
         <v>735</v>
       </c>
       <c r="M154" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="N154" t="s">
         <v>713</v>
       </c>
       <c r="O154" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.35">
@@ -9945,15 +9966,15 @@
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C170" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.35">

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F06F73A-DD0C-AD42-89C1-D521DCD0E6F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22540" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="866">
   <si>
     <t>Country</t>
   </si>
@@ -1325,18 +1332,12 @@
     <t>vid_cli M people permanently flooded in 2100 K17 RCP8.5 (Kulp &amp; Strauss, 2019 https://www.nature.com/articles/s41467-019-12808-z)</t>
   </si>
   <si>
-    <t>Price gasoline (05-Jul-2021) USD/Liter (Gallon for US)</t>
-  </si>
-  <si>
     <t>Price electricity for households (December-2020) USD/kWh</t>
   </si>
   <si>
     <t>Price natural gas for households (March-2021) USD/kWh</t>
   </si>
   <si>
-    <t>Price heating oil (05-Jul-2021) USD/Liter</t>
-  </si>
-  <si>
     <t>Price coal (bituminous) USD/t</t>
   </si>
   <si>
@@ -2577,12 +2578,63 @@
   </si>
   <si>
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_1RqbYYeT2cOnOPc</t>
+  </si>
+  <si>
+    <t>Left: Partito Democratico; Liberi e Uguali; Center: Movimento 5 Stelle; +Europa; Civica Popolare; Partito Autonomista Trentino Tirolese; MAIE; USEI Right: Forza Italia; Noi con l'Italia, Far-right: Lega Nord; Fratelii d'Italia</t>
+  </si>
+  <si>
+    <t>Left: Robert Biedroń; Waldemar Witkowski Center: Szymon Hołownia; Władysław Kosiniak-Kamysz Right: Rafał Trzaskowski; Stanisław Żółtek; Marek Jakubiak; Paweł Tanajno; Mirosław Piotrowski Far-right: Andrzej Duda; Krzysztof Bosak</t>
+  </si>
+  <si>
+    <t>Far-left: Unidos Podemos; EH Bildu Left: PSOE (Partido Socialista Obrero Español); ERC-Sobiranistes; Bloque Nacionalista Galego Center: Ciudadanos; Junts per Catalunya; Partido Nacionalista Vasco; Acuerdo de Unidad Nacionalista; Partido Regionalista de Cantabria Right: Partido Popular; Navarra Suma Far-right: Vox</t>
+  </si>
+  <si>
+    <t>自由民主党The Liberal Democratic Party right ;	公明党 Komeito centre-right; 	立憲民主党 The Constitutional Democratic Party of Japan; centre-left; 	国民民主党 Democratic Party For the People centre-right;	日本維新の会Japan Innovation Party centre-right;	日本共産党Japanese Communist Party left;	社民党 Social Democratic Party centre-left</t>
+  </si>
+  <si>
+    <t>Far-left: Communist Party of India; All India Anna Dravida Munnetra Kazhagam Left: Indian National Congress; All India Grassroots Congress; Bahujan Samaj Party; Samajwadi Party; Dravida Munnetra Kazhagam; Telugu Desam Party; Janata Dal (United); Rashtriya Janata Dal Center: YSR Congress Party; Biju Janata Dal; Nationalist Congress Party Right: Bharatiya Janata Party; Telangana Rashtra Samithi Far-right: Shiv Sena Others &lt;1%</t>
+  </si>
+  <si>
+    <t>Left: Partai Demokrasi Indonesia Perjuangan; Partai Solidaritas Indonesia Center: Partai Kebangkitan Bangsa; Partai Amanat Nasional; Partai Hati Nurani Rakyat, Partai Hanura; Partai Gerakan Perubahan Indonesia Right: Partai NasDem; Partai Demokrat; Partai Persatuan Pembangunan; Partai Persatuan Indonesia; Partai Keadilan dan Persatuan Indonesia Far-right: Partai Gerakan Indonesia Raya, Gerindra; Golkar; Partai Keadilan Sejahtera; Partai Berkarya; Partai Bulan Bintang</t>
+  </si>
+  <si>
+    <t>Far-left: Economic Freedom Fighters (EFF) Left: African National Congress Center: Democratic Alliance Right: Inkatha Freedom Party (IFP) Far-right: Freedom Front Plus Others &lt; 1%</t>
+  </si>
+  <si>
+    <t>o	PRI (Centro derecha) o	PAN (derecha) o	PRD (izquierda) o	MORENA  (izquierda) o	MOVIMIENTO CIUDADANO (izquierda) o	PT (izquierda) o	VERDE (izquierda)</t>
+  </si>
+  <si>
+    <t>Left: Liberal Party of Canada; New Democratic Party; Bloc québécois; Green Party of Canada Right: Conservative Party of Canada Far-right: People's Party of Canada</t>
+  </si>
+  <si>
+    <t>Left: Petro Poroshenko; Center: Volodymyr Zelensky; Ioulia Tymochenko; Iouri Boïko; Anatoliy Hrytsenko; Oleksandr Vilkul Right: Ihor Smeshko; Oleh Lyashko Far-right: Ruslan Koshulynskyi Other &lt;1%</t>
+  </si>
+  <si>
+    <t>Left: Moon Jae-in; Sim Sang-jung Center: Ahn Cheol-soo Right: Yoo Seong-min Far-right: Hong Joon-pyo Others &lt;0.15%</t>
+  </si>
+  <si>
+    <t>Far-left: Vatan Partisi Left: Cumhuriyet Halk Partisi; Halkların Demokratik Partisi Center: İYİ Parti Right: Adalet ve Kalkınma Partisi Far-right: Milliyetçi Hareket Partisi; Saadet Partisi; Hür Dava Partisi Others &lt; 0.15%</t>
+  </si>
+  <si>
+    <t>Left: Australian Labor Party; Australian Greens; Center: Katter's Australian Party; Centre Alliance Right: Liberal Party of Australia; Liberal National Party of Queensland; National Party of Australia; Country Liberal Party Others ~15%</t>
+  </si>
+  <si>
+    <t>Far-left: Guilherme Boulos Left: Fernando Haddad; Marina Silva Center: Ciro Gomes; Geraldo Alckmin; Henrique Meirelles; Alvaro Dias Right: João Amoêdo Far-right: Jair Bolsonaro; Cabo Daciolo Others &lt; 1%</t>
+  </si>
+  <si>
+    <t>Far-left: Die Linke; Die Grünen Left: SPD Center: FDP (Freie Demokratische Partei) Right: CDU/CSU Far-right: Alternative für Deutschland</t>
+  </si>
+  <si>
+    <t>Price gasoline (05-Jul-2021 or 06-Sep-2021) USD/Liter (Gallon for US)</t>
+  </si>
+  <si>
+    <t>Price heating oil (05-Jul-2021 or 06-Sep-2021) USD/Liter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -3008,20 +3060,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A104" sqref="A104:XFD108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +3126,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -3107,7 +3159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3173,7 +3225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -3196,7 +3248,7 @@
         <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>28</v>
@@ -3211,19 +3263,19 @@
         <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>847</v>
-      </c>
       <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="1" t="s">
@@ -3239,7 +3291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3303,7 +3355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3338,7 +3390,7 @@
         <v>28</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>28</v>
@@ -3365,7 +3417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3400,7 +3452,7 @@
         <v>28</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>28</v>
@@ -3430,7 +3482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3438,7 +3490,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
@@ -3450,25 +3502,25 @@
         <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -3483,7 +3535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -3548,7 +3600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -3631,7 +3683,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -3715,7 +3767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -3798,7 +3850,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>102</v>
       </c>
@@ -3881,7 +3933,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
@@ -3964,7 +4016,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>138</v>
       </c>
@@ -4047,7 +4099,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -4112,7 +4164,7 @@
         <v>16942</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>149</v>
       </c>
@@ -4177,7 +4229,7 @@
         <v>23515</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
@@ -4242,7 +4294,7 @@
         <v>31800</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>155</v>
       </c>
@@ -4275,10 +4327,10 @@
       </c>
       <c r="K18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="O18" s="1"/>
       <c r="S18" t="s">
@@ -4294,7 +4346,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -4359,7 +4411,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>182</v>
       </c>
@@ -4397,7 +4449,7 @@
         <v>189</v>
       </c>
       <c r="M20" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N20" t="s">
         <v>191</v>
@@ -4424,7 +4476,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>193</v>
       </c>
@@ -4489,7 +4541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>206</v>
       </c>
@@ -4554,7 +4606,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>207</v>
       </c>
@@ -4619,7 +4671,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>208</v>
       </c>
@@ -4684,7 +4736,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>209</v>
       </c>
@@ -4749,7 +4801,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>210</v>
       </c>
@@ -4814,7 +4866,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>213</v>
       </c>
@@ -4879,7 +4931,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>222</v>
       </c>
@@ -4923,7 +4975,7 @@
         <v>228</v>
       </c>
       <c r="O28" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="P28" t="s">
         <v>112</v>
@@ -4944,7 +4996,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>230</v>
       </c>
@@ -5009,7 +5061,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>237</v>
       </c>
@@ -5053,7 +5105,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>249</v>
       </c>
@@ -5061,7 +5113,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
@@ -5126,7 +5178,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>253</v>
       </c>
@@ -5191,7 +5243,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>254</v>
       </c>
@@ -5256,7 +5308,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>255</v>
       </c>
@@ -5321,7 +5373,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>256</v>
       </c>
@@ -5386,7 +5438,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>259</v>
       </c>
@@ -5400,7 +5452,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>263</v>
       </c>
@@ -5414,10 +5466,52 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="B39" t="s">
+        <v>849</v>
+      </c>
+      <c r="C39" t="s">
+        <v>850</v>
+      </c>
+      <c r="D39" t="s">
+        <v>851</v>
+      </c>
+      <c r="F39" t="s">
+        <v>852</v>
+      </c>
+      <c r="H39" t="s">
+        <v>853</v>
+      </c>
+      <c r="I39" t="s">
+        <v>854</v>
+      </c>
+      <c r="J39" t="s">
+        <v>855</v>
+      </c>
+      <c r="K39" t="s">
+        <v>856</v>
+      </c>
+      <c r="L39" t="s">
+        <v>857</v>
+      </c>
+      <c r="M39" t="s">
+        <v>858</v>
+      </c>
+      <c r="N39" t="s">
+        <v>859</v>
+      </c>
+      <c r="O39" t="s">
+        <v>860</v>
+      </c>
+      <c r="P39" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>862</v>
+      </c>
       <c r="S39" t="s">
         <v>268</v>
       </c>
@@ -5427,8 +5521,11 @@
       <c r="U39" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="V39" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>271</v>
       </c>
@@ -5436,7 +5533,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>273</v>
       </c>
@@ -5444,7 +5541,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>275</v>
       </c>
@@ -5455,7 +5552,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>278</v>
       </c>
@@ -5493,7 +5590,7 @@
         <v>290</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>291</v>
@@ -5502,10 +5599,10 @@
         <v>292</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
@@ -5521,7 +5618,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>296</v>
       </c>
@@ -5586,7 +5683,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>300</v>
       </c>
@@ -5653,7 +5750,7 @@
       </c>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>319</v>
       </c>
@@ -5694,7 +5791,7 @@
         <v>332</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>333</v>
@@ -5720,9 +5817,9 @@
       </c>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5755,7 +5852,7 @@
       <c r="V47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>339</v>
       </c>
@@ -5778,7 +5875,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>342</v>
       </c>
@@ -5842,7 +5939,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>355</v>
       </c>
@@ -5926,7 +6023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>357</v>
       </c>
@@ -6034,7 +6131,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>358</v>
       </c>
@@ -6117,7 +6214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>359</v>
       </c>
@@ -6223,7 +6320,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>361</v>
       </c>
@@ -6255,7 +6352,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>365</v>
       </c>
@@ -6338,7 +6435,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>373</v>
       </c>
@@ -6404,7 +6501,7 @@
       </c>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>374</v>
       </c>
@@ -6488,7 +6585,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>375</v>
       </c>
@@ -6598,7 +6695,7 @@
         <v>5.2325581395348841</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>376</v>
       </c>
@@ -6682,7 +6779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>377</v>
       </c>
@@ -6766,7 +6863,7 @@
         <v>39.738</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>378</v>
       </c>
@@ -6849,7 +6946,7 @@
         <v>7115854.8000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>379</v>
       </c>
@@ -6932,7 +7029,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>380</v>
       </c>
@@ -7042,7 +7139,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>381</v>
       </c>
@@ -7152,7 +7249,7 @@
         <v>0.10350000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>382</v>
       </c>
@@ -7262,7 +7359,7 @@
         <v>147.96508326729767</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>383</v>
       </c>
@@ -7306,7 +7403,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>386</v>
       </c>
@@ -7389,7 +7486,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>391</v>
       </c>
@@ -7473,7 +7570,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>395</v>
       </c>
@@ -7530,7 +7627,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>404</v>
       </c>
@@ -7596,7 +7693,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>413</v>
       </c>
@@ -7616,22 +7713,22 @@
         <v>419</v>
       </c>
       <c r="G71" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="H71" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I71" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K71" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="M71" s="16" t="s">
         <v>420</v>
@@ -7643,7 +7740,7 @@
         <v>422</v>
       </c>
       <c r="P71" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Q71" t="s">
         <v>423</v>
@@ -7673,54 +7770,54 @@
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B72" t="s">
+        <v>804</v>
+      </c>
+      <c r="C72" t="s">
+        <v>805</v>
+      </c>
+      <c r="D72" t="s">
+        <v>803</v>
+      </c>
+      <c r="E72" t="s">
         <v>806</v>
       </c>
-      <c r="C72" t="s">
+      <c r="F72" t="s">
         <v>807</v>
       </c>
-      <c r="D72" t="s">
-        <v>805</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="G72" t="s">
+        <v>774</v>
+      </c>
+      <c r="H72" t="s">
+        <v>816</v>
+      </c>
+      <c r="I72" t="s">
+        <v>832</v>
+      </c>
+      <c r="J72" t="s">
+        <v>771</v>
+      </c>
+      <c r="K72" t="s">
         <v>808</v>
-      </c>
-      <c r="F72" t="s">
-        <v>809</v>
-      </c>
-      <c r="G72" t="s">
-        <v>776</v>
-      </c>
-      <c r="H72" t="s">
-        <v>818</v>
-      </c>
-      <c r="I72" t="s">
-        <v>834</v>
-      </c>
-      <c r="J72" t="s">
-        <v>773</v>
-      </c>
-      <c r="K72" t="s">
-        <v>810</v>
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="P72" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="20"/>
       <c r="U72" s="16"/>
       <c r="V72" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>430</v>
       </c>
@@ -7794,7 +7891,7 @@
         <v>1.1820000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>432</v>
       </c>
@@ -7877,9 +7974,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>433</v>
+        <v>864</v>
       </c>
       <c r="B75">
         <v>1.9419999999999999</v>
@@ -7911,9 +8008,27 @@
       <c r="K75">
         <v>1.1140000000000001</v>
       </c>
+      <c r="L75">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="M75">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="N75">
+        <v>1.446</v>
+      </c>
+      <c r="O75">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="P75">
+        <v>1.0940000000000001</v>
+      </c>
       <c r="Q75">
         <v>1.1180000000000001</v>
       </c>
+      <c r="R75">
+        <v>2.0190000000000001</v>
+      </c>
       <c r="S75">
         <v>3.4790000000000001</v>
       </c>
@@ -7926,13 +8041,28 @@
       <c r="V75">
         <v>1.804</v>
       </c>
+      <c r="W75">
+        <v>0.40400000000000003</v>
+      </c>
       <c r="X75">
         <v>0.90300000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="Y75">
+        <v>0.06</v>
+      </c>
+      <c r="Z75">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="AA75">
+        <v>0.621</v>
+      </c>
+      <c r="AB75">
+        <v>1.7490000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B76">
         <v>0.26400000000000001</v>
@@ -7964,9 +8094,27 @@
       <c r="K76">
         <v>8.3000000000000004E-2</v>
       </c>
+      <c r="L76">
+        <v>0.111</v>
+      </c>
+      <c r="M76">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N76">
+        <v>0.111</v>
+      </c>
+      <c r="O76">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="P76">
+        <v>0.22700000000000001</v>
+      </c>
       <c r="Q76">
         <v>0.13700000000000001</v>
       </c>
+      <c r="R76">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="S76">
         <v>0.14799999999999999</v>
       </c>
@@ -7979,13 +8127,28 @@
       <c r="V76">
         <v>0.36799999999999999</v>
       </c>
+      <c r="W76">
+        <v>5.8999999999999997E-2</v>
+      </c>
       <c r="X76">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="Y76">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z76">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AA76">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AB76">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B77">
         <v>9.7000000000000003E-2</v>
@@ -7999,6 +8162,18 @@
       <c r="K77">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="L77">
+        <v>2.7E-2</v>
+      </c>
+      <c r="M77">
+        <v>1.9E-2</v>
+      </c>
+      <c r="O77">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="P77">
+        <v>7.3999999999999996E-2</v>
+      </c>
       <c r="T77">
         <v>0.106</v>
       </c>
@@ -8011,10 +8186,16 @@
       <c r="X77">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="Z77">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB77">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>436</v>
+        <v>865</v>
       </c>
       <c r="B78">
         <v>1.5329999999999999</v>
@@ -8028,6 +8209,12 @@
       <c r="E78">
         <v>0.81</v>
       </c>
+      <c r="L78">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O78">
+        <v>0.755</v>
+      </c>
       <c r="T78">
         <v>1.754</v>
       </c>
@@ -8041,9 +8228,9 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C79">
         <f>240.49/C9</f>
@@ -8058,861 +8245,942 @@
         <v>72.200772200772207</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B80" t="s">
+        <v>437</v>
+      </c>
+      <c r="C80" t="s">
+        <v>437</v>
+      </c>
+      <c r="D80" t="s">
+        <v>437</v>
+      </c>
+      <c r="E80" t="s">
         <v>438</v>
       </c>
-      <c r="B80" t="s">
+      <c r="F80" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C80" t="s">
+      <c r="G80" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D80" t="s">
-        <v>439</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="H80" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="I80" t="s">
         <v>441</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="H80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="I80" t="s">
+      <c r="K80" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="M80" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="N80" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="O80" t="s">
         <v>446</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="P80" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q80" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="O80" t="s">
-        <v>448</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="R80" s="2"/>
       <c r="S80" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="U80" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="T80" s="2" t="s">
+      <c r="V80" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="U80" s="2" t="s">
+      <c r="B81" t="s">
+        <v>453</v>
+      </c>
+      <c r="C81" t="s">
+        <v>454</v>
+      </c>
+      <c r="D81" t="s">
+        <v>455</v>
+      </c>
+      <c r="E81" t="s">
         <v>452</v>
       </c>
-      <c r="V80" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+      <c r="F81" t="s">
+        <v>456</v>
+      </c>
+      <c r="G81" t="s">
+        <v>457</v>
+      </c>
+      <c r="H81" t="s">
+        <v>458</v>
+      </c>
+      <c r="I81" t="s">
+        <v>459</v>
+      </c>
+      <c r="J81" t="s">
+        <v>460</v>
+      </c>
+      <c r="K81" t="s">
+        <v>461</v>
+      </c>
+      <c r="L81" t="s">
         <v>453</v>
       </c>
-      <c r="B81" t="s">
+      <c r="M81" t="s">
+        <v>452</v>
+      </c>
+      <c r="N81" t="s">
+        <v>462</v>
+      </c>
+      <c r="O81" t="s">
+        <v>461</v>
+      </c>
+      <c r="P81" t="s">
         <v>455</v>
       </c>
-      <c r="C81" t="s">
-        <v>456</v>
-      </c>
-      <c r="D81" t="s">
-        <v>457</v>
-      </c>
-      <c r="E81" t="s">
-        <v>454</v>
-      </c>
-      <c r="F81" t="s">
-        <v>458</v>
-      </c>
-      <c r="G81" t="s">
-        <v>459</v>
-      </c>
-      <c r="H81" t="s">
-        <v>460</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="Q81" t="s">
         <v>461</v>
       </c>
-      <c r="J81" t="s">
-        <v>462</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="S81" t="s">
+        <v>760</v>
+      </c>
+      <c r="T81" t="s">
         <v>463</v>
       </c>
-      <c r="L81" t="s">
-        <v>455</v>
-      </c>
-      <c r="M81" t="s">
-        <v>454</v>
-      </c>
-      <c r="N81" t="s">
+      <c r="U81" t="s">
         <v>464</v>
       </c>
-      <c r="O81" t="s">
-        <v>463</v>
-      </c>
-      <c r="P81" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>463</v>
-      </c>
-      <c r="S81" t="s">
-        <v>762</v>
-      </c>
-      <c r="T81" t="s">
+      <c r="V81" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="U81" t="s">
+      <c r="S82" t="s">
         <v>466</v>
       </c>
-      <c r="V81" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+      <c r="T82" t="s">
         <v>467</v>
       </c>
-      <c r="S82" t="s">
+      <c r="U82" t="s">
         <v>468</v>
       </c>
-      <c r="T82" t="s">
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="U82" t="s">
+      <c r="S83" s="7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="S83" s="7" t="s">
+      <c r="B84" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="C84" t="s">
+        <v>472</v>
+      </c>
+      <c r="D84" t="s">
+        <v>472</v>
+      </c>
+      <c r="E84" t="s">
+        <v>472</v>
+      </c>
+      <c r="F84" t="s">
         <v>473</v>
       </c>
-      <c r="B84" t="s">
+      <c r="G84" t="s">
         <v>474</v>
       </c>
-      <c r="C84" t="s">
-        <v>474</v>
-      </c>
-      <c r="D84" t="s">
-        <v>474</v>
-      </c>
-      <c r="E84" t="s">
-        <v>474</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="H84" t="s">
         <v>475</v>
       </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
         <v>476</v>
       </c>
-      <c r="H84" t="s">
+      <c r="S84" t="s">
         <v>477</v>
       </c>
-      <c r="I84" t="s">
+      <c r="T84" t="s">
+        <v>472</v>
+      </c>
+      <c r="U84" t="s">
+        <v>472</v>
+      </c>
+      <c r="V84" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="S84" t="s">
+      <c r="H85" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="T84" t="s">
-        <v>474</v>
-      </c>
-      <c r="U84" t="s">
-        <v>474</v>
-      </c>
-      <c r="V84" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+      <c r="S85" t="s">
         <v>480</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="T85" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="S85" t="s">
+      <c r="U85" t="s">
         <v>482</v>
       </c>
-      <c r="T85" s="2" t="s">
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="U85" t="s">
+      <c r="E86" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+      <c r="H86" t="s">
         <v>485</v>
       </c>
-      <c r="E86" t="s">
+      <c r="S86" t="s">
         <v>486</v>
       </c>
-      <c r="H86" t="s">
+      <c r="T86" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="S86" t="s">
+      <c r="U86" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="T86" s="2" t="s">
+      <c r="S87" t="s">
         <v>489</v>
       </c>
-      <c r="U86" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="S87" t="s">
+      <c r="S88" s="21" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="S88" s="21" t="s">
+      <c r="S89" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="S89" t="s">
+      <c r="B90" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
+      <c r="C90" t="s">
         <v>496</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>497</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>498</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>499</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>500</v>
       </c>
-      <c r="F90" t="s">
+      <c r="H90" t="s">
         <v>501</v>
       </c>
-      <c r="G90" t="s">
+      <c r="I90" t="s">
         <v>502</v>
       </c>
-      <c r="H90" t="s">
+      <c r="J90" t="s">
         <v>503</v>
       </c>
-      <c r="I90" t="s">
+      <c r="K90" t="s">
         <v>504</v>
       </c>
-      <c r="J90" t="s">
+      <c r="L90" t="s">
         <v>505</v>
       </c>
-      <c r="K90" t="s">
+      <c r="M90" t="s">
         <v>506</v>
       </c>
-      <c r="L90" t="s">
+      <c r="N90" t="s">
         <v>507</v>
       </c>
-      <c r="M90" t="s">
+      <c r="O90" t="s">
         <v>508</v>
       </c>
-      <c r="N90" t="s">
+      <c r="P90" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q90" t="s">
         <v>509</v>
       </c>
-      <c r="O90" t="s">
-        <v>510</v>
-      </c>
-      <c r="P90" t="s">
+      <c r="S90" t="s">
+        <v>511</v>
+      </c>
+      <c r="T90" t="s">
         <v>512</v>
       </c>
-      <c r="Q90" t="s">
-        <v>511</v>
-      </c>
-      <c r="S90" t="s">
+      <c r="U90" t="s">
         <v>513</v>
       </c>
-      <c r="T90" t="s">
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="U90" t="s">
+      <c r="B91" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
+      <c r="C91" t="s">
         <v>516</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>517</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>518</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>519</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
         <v>520</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" t="s">
         <v>521</v>
       </c>
-      <c r="G91" t="s">
+      <c r="I91" t="s">
         <v>522</v>
       </c>
-      <c r="H91" t="s">
+      <c r="J91" t="s">
         <v>523</v>
       </c>
-      <c r="I91" t="s">
+      <c r="K91" t="s">
         <v>524</v>
       </c>
-      <c r="J91" t="s">
+      <c r="L91" t="s">
         <v>525</v>
       </c>
-      <c r="K91" t="s">
+      <c r="M91" t="s">
         <v>526</v>
       </c>
-      <c r="L91" t="s">
+      <c r="N91" t="s">
         <v>527</v>
       </c>
-      <c r="M91" t="s">
+      <c r="O91" t="s">
         <v>528</v>
       </c>
-      <c r="N91" t="s">
+      <c r="P91" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q91" t="s">
         <v>529</v>
       </c>
-      <c r="O91" t="s">
-        <v>530</v>
-      </c>
-      <c r="P91" t="s">
+      <c r="S91" t="s">
+        <v>531</v>
+      </c>
+      <c r="T91" t="s">
         <v>532</v>
       </c>
-      <c r="Q91" t="s">
-        <v>531</v>
-      </c>
-      <c r="S91" t="s">
+      <c r="U91" t="s">
         <v>533</v>
       </c>
-      <c r="T91" t="s">
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="U91" t="s">
+      <c r="B92" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
+      <c r="C92" t="s">
         <v>536</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>537</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>538</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>539</v>
       </c>
-      <c r="E92" t="s">
+      <c r="G92" t="s">
         <v>540</v>
       </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
         <v>541</v>
       </c>
-      <c r="G92" t="s">
+      <c r="I92" t="s">
         <v>542</v>
       </c>
-      <c r="H92" t="s">
+      <c r="J92" t="s">
         <v>543</v>
       </c>
-      <c r="I92" t="s">
+      <c r="K92" t="s">
         <v>544</v>
       </c>
-      <c r="J92" t="s">
+      <c r="L92" t="s">
         <v>545</v>
       </c>
-      <c r="K92" t="s">
+      <c r="M92" t="s">
         <v>546</v>
       </c>
-      <c r="L92" t="s">
+      <c r="N92" t="s">
         <v>547</v>
       </c>
-      <c r="M92" t="s">
+      <c r="O92" t="s">
+        <v>528</v>
+      </c>
+      <c r="P92" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q92" t="s">
         <v>548</v>
       </c>
-      <c r="N92" t="s">
-        <v>549</v>
-      </c>
-      <c r="O92" t="s">
-        <v>530</v>
-      </c>
-      <c r="P92" t="s">
+      <c r="S92" t="s">
+        <v>550</v>
+      </c>
+      <c r="T92" t="s">
         <v>551</v>
       </c>
-      <c r="Q92" t="s">
-        <v>550</v>
-      </c>
-      <c r="S92" t="s">
+      <c r="U92" t="s">
         <v>552</v>
       </c>
-      <c r="T92" t="s">
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="U92" t="s">
+      <c r="B93" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
+      <c r="C93" t="s">
         <v>555</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>556</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
         <v>557</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>558</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="s">
         <v>559</v>
       </c>
-      <c r="F93" t="s">
+      <c r="H93" t="s">
         <v>560</v>
       </c>
-      <c r="G93" t="s">
+      <c r="I93" t="s">
         <v>561</v>
       </c>
-      <c r="H93" t="s">
+      <c r="J93" t="s">
         <v>562</v>
       </c>
-      <c r="I93" t="s">
+      <c r="K93" t="s">
         <v>563</v>
       </c>
-      <c r="J93" t="s">
+      <c r="L93" t="s">
         <v>564</v>
       </c>
-      <c r="K93" t="s">
+      <c r="M93" t="s">
         <v>565</v>
       </c>
-      <c r="L93" t="s">
+      <c r="N93" t="s">
         <v>566</v>
       </c>
-      <c r="M93" t="s">
+      <c r="O93" t="s">
         <v>567</v>
       </c>
-      <c r="N93" t="s">
+      <c r="P93" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q93" t="s">
         <v>568</v>
       </c>
-      <c r="O93" t="s">
-        <v>569</v>
-      </c>
-      <c r="P93" t="s">
+      <c r="S93" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="T93" t="s">
         <v>571</v>
       </c>
-      <c r="Q93" t="s">
-        <v>570</v>
-      </c>
-      <c r="S93" s="22" t="s">
+      <c r="U93" t="s">
         <v>572</v>
       </c>
-      <c r="T93" t="s">
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="U93" t="s">
+      <c r="B94" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
+      <c r="C94" t="s">
         <v>575</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
         <v>576</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>577</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>578</v>
       </c>
-      <c r="E94" t="s">
+      <c r="G94" t="s">
         <v>579</v>
       </c>
-      <c r="F94" t="s">
+      <c r="H94" t="s">
         <v>580</v>
       </c>
-      <c r="G94" t="s">
+      <c r="I94" t="s">
         <v>581</v>
       </c>
-      <c r="H94" t="s">
+      <c r="J94" t="s">
         <v>582</v>
       </c>
-      <c r="I94" t="s">
+      <c r="K94" t="s">
         <v>583</v>
       </c>
-      <c r="J94" t="s">
+      <c r="L94" t="s">
         <v>584</v>
       </c>
-      <c r="K94" t="s">
+      <c r="M94" t="s">
         <v>585</v>
       </c>
-      <c r="L94" t="s">
+      <c r="O94" t="s">
         <v>586</v>
       </c>
-      <c r="M94" t="s">
+      <c r="P94" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q94" t="s">
         <v>587</v>
       </c>
-      <c r="O94" t="s">
-        <v>588</v>
-      </c>
-      <c r="P94" t="s">
+      <c r="U94" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="Q94" t="s">
-        <v>589</v>
-      </c>
-      <c r="U94" t="s">
+      <c r="B95" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
+      <c r="C95" t="s">
         <v>592</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
         <v>593</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E95" t="s">
         <v>594</v>
       </c>
-      <c r="D95" t="s">
+      <c r="G95" t="s">
         <v>595</v>
       </c>
-      <c r="E95" t="s">
+      <c r="H95" t="s">
         <v>596</v>
       </c>
-      <c r="G95" t="s">
+      <c r="I95" t="s">
         <v>597</v>
       </c>
-      <c r="H95" t="s">
+      <c r="K95" t="s">
         <v>598</v>
       </c>
-      <c r="I95" t="s">
+      <c r="L95" t="s">
         <v>599</v>
       </c>
-      <c r="K95" t="s">
+      <c r="M95" t="s">
         <v>600</v>
       </c>
-      <c r="L95" t="s">
+      <c r="P95" t="s">
         <v>601</v>
       </c>
-      <c r="M95" t="s">
+      <c r="U95" t="s">
         <v>602</v>
       </c>
-      <c r="P95" t="s">
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="U95" t="s">
+      <c r="B96" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
+      <c r="D96" t="s">
         <v>605</v>
       </c>
-      <c r="B96" t="s">
+      <c r="G96" t="s">
         <v>606</v>
       </c>
-      <c r="D96" t="s">
+      <c r="H96" t="s">
         <v>607</v>
       </c>
-      <c r="G96" t="s">
+      <c r="I96" t="s">
         <v>608</v>
       </c>
-      <c r="H96" t="s">
+      <c r="L96" t="s">
         <v>609</v>
       </c>
-      <c r="I96" t="s">
+      <c r="P96" t="s">
         <v>610</v>
       </c>
-      <c r="L96" t="s">
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="P96" t="s">
+      <c r="D97" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
+      <c r="G97" t="s">
         <v>613</v>
       </c>
-      <c r="D97" t="s">
+      <c r="H97" t="s">
         <v>614</v>
       </c>
-      <c r="G97" t="s">
+      <c r="P97" t="s">
         <v>615</v>
       </c>
-      <c r="H97" t="s">
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="P97" t="s">
+      <c r="D98" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
+      <c r="H98" t="s">
         <v>618</v>
       </c>
-      <c r="D98" t="s">
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="H98" t="s">
+      <c r="D99" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
+      <c r="H99" t="s">
+        <v>559</v>
+      </c>
+      <c r="I99" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D99" t="s">
+      <c r="S100" t="s">
         <v>622</v>
       </c>
-      <c r="H99" t="s">
-        <v>561</v>
-      </c>
-      <c r="I99" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="S100" t="s">
+      <c r="S101" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S101" t="s">
+      <c r="S102" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="S102" t="s">
+      <c r="B103" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
+      <c r="C103" t="s">
+        <v>628</v>
+      </c>
+      <c r="D103" t="s">
+        <v>628</v>
+      </c>
+      <c r="E103" t="s">
+        <v>628</v>
+      </c>
+      <c r="F103" t="s">
+        <v>628</v>
+      </c>
+      <c r="H103" t="s">
+        <v>628</v>
+      </c>
+      <c r="I103" t="s">
+        <v>628</v>
+      </c>
+      <c r="J103" t="s">
+        <v>628</v>
+      </c>
+      <c r="M103" t="s">
         <v>629</v>
       </c>
-      <c r="B103" t="s">
+      <c r="S103" t="s">
         <v>630</v>
       </c>
-      <c r="C103" t="s">
-        <v>630</v>
-      </c>
-      <c r="D103" t="s">
-        <v>630</v>
-      </c>
-      <c r="E103" t="s">
-        <v>630</v>
-      </c>
-      <c r="F103" t="s">
-        <v>630</v>
-      </c>
-      <c r="H103" t="s">
-        <v>630</v>
-      </c>
-      <c r="I103" t="s">
-        <v>630</v>
-      </c>
-      <c r="J103" t="s">
-        <v>630</v>
-      </c>
-      <c r="M103" t="s">
+      <c r="T103" t="s">
+        <v>628</v>
+      </c>
+      <c r="U103" t="s">
+        <v>628</v>
+      </c>
+      <c r="V103" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="S103" t="s">
+      <c r="B104" t="s">
         <v>632</v>
       </c>
-      <c r="T103" t="s">
-        <v>630</v>
-      </c>
-      <c r="U103" t="s">
-        <v>630</v>
-      </c>
-      <c r="V103" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A104" s="7" t="s">
+      <c r="C104" t="s">
+        <v>632</v>
+      </c>
+      <c r="D104" t="s">
+        <v>632</v>
+      </c>
+      <c r="E104" t="s">
+        <v>632</v>
+      </c>
+      <c r="F104" t="s">
+        <v>632</v>
+      </c>
+      <c r="G104" t="s">
+        <v>632</v>
+      </c>
+      <c r="H104" t="s">
+        <v>632</v>
+      </c>
+      <c r="I104" t="s">
+        <v>632</v>
+      </c>
+      <c r="J104" t="s">
+        <v>632</v>
+      </c>
+      <c r="K104" t="s">
+        <v>632</v>
+      </c>
+      <c r="L104" t="s">
+        <v>632</v>
+      </c>
+      <c r="M104" t="s">
+        <v>632</v>
+      </c>
+      <c r="N104" t="s">
+        <v>632</v>
+      </c>
+      <c r="O104" t="s">
+        <v>632</v>
+      </c>
+      <c r="P104" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>632</v>
+      </c>
+      <c r="R104" t="s">
+        <v>632</v>
+      </c>
+      <c r="S104" t="s">
         <v>633</v>
       </c>
-      <c r="B104" t="s">
+      <c r="T104" t="s">
+        <v>632</v>
+      </c>
+      <c r="U104" t="s">
+        <v>632</v>
+      </c>
+      <c r="V104" t="s">
+        <v>632</v>
+      </c>
+      <c r="W104" t="s">
+        <v>632</v>
+      </c>
+      <c r="X104" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>632</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B105" t="s">
+        <v>635</v>
+      </c>
+      <c r="C105" t="s">
+        <v>635</v>
+      </c>
+      <c r="D105" t="s">
+        <v>635</v>
+      </c>
+      <c r="E105" t="s">
+        <v>635</v>
+      </c>
+      <c r="F105" t="s">
+        <v>635</v>
+      </c>
+      <c r="G105" t="s">
+        <v>635</v>
+      </c>
+      <c r="H105" t="s">
+        <v>635</v>
+      </c>
+      <c r="I105" t="s">
+        <v>635</v>
+      </c>
+      <c r="J105" t="s">
+        <v>635</v>
+      </c>
+      <c r="K105" t="s">
+        <v>635</v>
+      </c>
+      <c r="L105" t="s">
+        <v>635</v>
+      </c>
+      <c r="M105" t="s">
+        <v>635</v>
+      </c>
+      <c r="N105" t="s">
+        <v>635</v>
+      </c>
+      <c r="O105" t="s">
+        <v>635</v>
+      </c>
+      <c r="P105" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>635</v>
+      </c>
+      <c r="R105" t="s">
+        <v>635</v>
+      </c>
+      <c r="S105" t="s">
+        <v>636</v>
+      </c>
+      <c r="T105" t="s">
+        <v>635</v>
+      </c>
+      <c r="U105" t="s">
+        <v>635</v>
+      </c>
+      <c r="V105" t="s">
+        <v>635</v>
+      </c>
+      <c r="W105" t="s">
+        <v>635</v>
+      </c>
+      <c r="X105" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="C104" t="s">
-        <v>634</v>
-      </c>
-      <c r="D104" t="s">
-        <v>634</v>
-      </c>
-      <c r="E104" t="s">
-        <v>634</v>
-      </c>
-      <c r="F104" t="s">
-        <v>634</v>
-      </c>
-      <c r="G104" t="s">
-        <v>634</v>
-      </c>
-      <c r="H104" t="s">
-        <v>634</v>
-      </c>
-      <c r="I104" t="s">
-        <v>634</v>
-      </c>
-      <c r="J104" t="s">
-        <v>634</v>
-      </c>
-      <c r="K104" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>634</v>
-      </c>
-      <c r="S104" t="s">
-        <v>635</v>
-      </c>
-      <c r="T104" t="s">
-        <v>634</v>
-      </c>
-      <c r="U104" t="s">
-        <v>634</v>
-      </c>
-      <c r="V104" t="s">
-        <v>634</v>
-      </c>
-      <c r="X104" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A105" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="B105" t="s">
-        <v>637</v>
-      </c>
-      <c r="C105" t="s">
-        <v>637</v>
-      </c>
-      <c r="D105" t="s">
-        <v>637</v>
-      </c>
-      <c r="E105" t="s">
-        <v>637</v>
-      </c>
-      <c r="F105" t="s">
-        <v>637</v>
-      </c>
-      <c r="G105" t="s">
-        <v>637</v>
-      </c>
-      <c r="H105" t="s">
-        <v>637</v>
-      </c>
-      <c r="I105" t="s">
-        <v>637</v>
-      </c>
-      <c r="J105" t="s">
-        <v>637</v>
-      </c>
-      <c r="K105" t="s">
-        <v>637</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>637</v>
-      </c>
-      <c r="S105" t="s">
-        <v>638</v>
-      </c>
-      <c r="T105" t="s">
-        <v>637</v>
-      </c>
-      <c r="U105" t="s">
-        <v>637</v>
-      </c>
-      <c r="V105" t="s">
-        <v>637</v>
-      </c>
-      <c r="X105" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A106" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="B106" t="s">
         <v>640</v>
       </c>
-      <c r="C106" t="s">
-        <v>640</v>
-      </c>
       <c r="D106" t="s">
         <v>640</v>
       </c>
       <c r="E106" t="s">
         <v>640</v>
       </c>
+      <c r="K106" t="s">
+        <v>640</v>
+      </c>
+      <c r="L106" t="s">
+        <v>640</v>
+      </c>
+      <c r="M106" t="s">
+        <v>640</v>
+      </c>
+      <c r="O106" t="s">
+        <v>640</v>
+      </c>
+      <c r="P106" t="s">
+        <v>640</v>
+      </c>
+      <c r="S106" t="s">
+        <v>641</v>
+      </c>
       <c r="T106" t="s">
         <v>640</v>
       </c>
@@ -8925,396 +9193,408 @@
       <c r="X106" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z106" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B107" t="s">
+        <v>638</v>
+      </c>
+      <c r="C107" t="s">
+        <v>638</v>
+      </c>
+      <c r="D107" t="s">
+        <v>638</v>
+      </c>
+      <c r="E107" t="s">
+        <v>638</v>
+      </c>
+      <c r="L107" t="s">
+        <v>638</v>
+      </c>
+      <c r="O107" t="s">
+        <v>638</v>
+      </c>
+      <c r="T107" t="s">
+        <v>638</v>
+      </c>
+      <c r="U107" t="s">
+        <v>638</v>
+      </c>
+      <c r="V107" t="s">
+        <v>638</v>
+      </c>
+      <c r="X107" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="D107" t="s">
-        <v>642</v>
-      </c>
-      <c r="E107" t="s">
-        <v>642</v>
-      </c>
-      <c r="K107" t="s">
-        <v>642</v>
-      </c>
-      <c r="S107" t="s">
+      <c r="B108" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C108" t="s">
         <v>643</v>
       </c>
-      <c r="T107" t="s">
-        <v>642</v>
-      </c>
-      <c r="U107" t="s">
-        <v>642</v>
-      </c>
-      <c r="V107" t="s">
-        <v>642</v>
-      </c>
-      <c r="X107" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A108" s="7" t="s">
+      <c r="G108" t="s">
         <v>644</v>
       </c>
-      <c r="C108" t="s">
+      <c r="J108" t="s">
         <v>645</v>
       </c>
-      <c r="G108" t="s">
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="J108" t="s">
+      <c r="S109" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="s">
+      <c r="T109" t="s">
         <v>648</v>
       </c>
-      <c r="S109" t="s">
+      <c r="U109" t="s">
         <v>649</v>
       </c>
-      <c r="T109" t="s">
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="U109" t="s">
+      <c r="S110" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="s">
+      <c r="T110" t="s">
         <v>652</v>
       </c>
-      <c r="S110" t="s">
+      <c r="U110" t="s">
         <v>653</v>
       </c>
-      <c r="T110" t="s">
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="U110" t="s">
+      <c r="S111" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="s">
+      <c r="T111" t="s">
         <v>656</v>
       </c>
-      <c r="S111" t="s">
+      <c r="U111" t="s">
         <v>657</v>
       </c>
-      <c r="T111" t="s">
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="U111" t="s">
+      <c r="U112" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="U112" t="s">
+      <c r="S113" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A113" s="3" t="s">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="S113" t="s">
+      <c r="S114" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A114" s="3" t="s">
+      <c r="T114" s="23" t="s">
         <v>664</v>
       </c>
-      <c r="S114" t="s">
+      <c r="U114" t="s">
         <v>665</v>
       </c>
-      <c r="T114" s="23" t="s">
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="U114" t="s">
+      <c r="S115" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="S115" t="s">
+      <c r="U116" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A116" s="3" t="s">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B117" t="s">
+        <v>791</v>
+      </c>
+      <c r="C117" t="s">
+        <v>796</v>
+      </c>
+      <c r="D117" t="s">
+        <v>798</v>
+      </c>
+      <c r="E117" t="s">
+        <v>800</v>
+      </c>
+      <c r="F117" t="s">
+        <v>793</v>
+      </c>
+      <c r="G117" t="s">
+        <v>785</v>
+      </c>
+      <c r="H117" t="s">
+        <v>789</v>
+      </c>
+      <c r="I117" t="s">
+        <v>848</v>
+      </c>
+      <c r="J117" t="s">
+        <v>802</v>
+      </c>
+      <c r="K117" t="s">
+        <v>838</v>
+      </c>
+      <c r="L117" t="s">
+        <v>840</v>
+      </c>
+      <c r="O117" t="s">
+        <v>828</v>
+      </c>
+      <c r="P117" t="s">
+        <v>839</v>
+      </c>
+      <c r="S117" t="s">
+        <v>705</v>
+      </c>
+      <c r="T117" t="s">
+        <v>706</v>
+      </c>
+      <c r="U117" t="s">
+        <v>707</v>
+      </c>
+      <c r="V117" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B118" t="s">
+        <v>790</v>
+      </c>
+      <c r="C118" t="s">
+        <v>795</v>
+      </c>
+      <c r="D118" t="s">
+        <v>797</v>
+      </c>
+      <c r="E118" t="s">
+        <v>799</v>
+      </c>
+      <c r="F118" t="s">
+        <v>792</v>
+      </c>
+      <c r="G118" t="s">
+        <v>784</v>
+      </c>
+      <c r="H118" t="s">
+        <v>788</v>
+      </c>
+      <c r="I118" t="s">
+        <v>847</v>
+      </c>
+      <c r="J118" t="s">
+        <v>801</v>
+      </c>
+      <c r="K118" t="s">
+        <v>794</v>
+      </c>
+      <c r="L118" t="s">
+        <v>782</v>
+      </c>
+      <c r="O118" t="s">
+        <v>819</v>
+      </c>
+      <c r="P118" t="s">
+        <v>783</v>
+      </c>
+      <c r="S118" t="s">
+        <v>701</v>
+      </c>
+      <c r="T118" t="s">
+        <v>702</v>
+      </c>
+      <c r="U118" t="s">
+        <v>703</v>
+      </c>
+      <c r="V118" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="C119" t="s">
+        <v>757</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="H119" t="s">
+        <v>755</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="N119" t="s">
+        <v>751</v>
+      </c>
+      <c r="O119" t="s">
+        <v>752</v>
+      </c>
+      <c r="V119" s="9" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="U116" t="s">
+      <c r="B120" t="s">
+        <v>672</v>
+      </c>
+      <c r="C120" t="s">
+        <v>673</v>
+      </c>
+      <c r="D120" t="s">
+        <v>674</v>
+      </c>
+      <c r="E120" t="s">
+        <v>675</v>
+      </c>
+      <c r="F120" t="s">
+        <v>676</v>
+      </c>
+      <c r="H120" t="s">
+        <v>677</v>
+      </c>
+      <c r="I120" t="s">
+        <v>678</v>
+      </c>
+      <c r="J120" s="24" t="s">
+        <v>679</v>
+      </c>
+      <c r="K120" t="s">
+        <v>767</v>
+      </c>
+      <c r="L120" t="s">
+        <v>837</v>
+      </c>
+      <c r="M120" t="s">
+        <v>778</v>
+      </c>
+      <c r="N120" t="s">
+        <v>763</v>
+      </c>
+      <c r="O120" t="s">
+        <v>769</v>
+      </c>
+      <c r="S120" t="s">
+        <v>680</v>
+      </c>
+      <c r="T120" t="s">
+        <v>681</v>
+      </c>
+      <c r="U120" t="s">
+        <v>682</v>
+      </c>
+      <c r="V120" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A117" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="B117" t="s">
-        <v>793</v>
-      </c>
-      <c r="C117" t="s">
-        <v>798</v>
-      </c>
-      <c r="D117" t="s">
-        <v>800</v>
-      </c>
-      <c r="E117" t="s">
-        <v>802</v>
-      </c>
-      <c r="F117" t="s">
-        <v>795</v>
-      </c>
-      <c r="G117" t="s">
-        <v>787</v>
-      </c>
-      <c r="H117" t="s">
-        <v>791</v>
-      </c>
-      <c r="I117" t="s">
-        <v>850</v>
-      </c>
-      <c r="J117" t="s">
-        <v>804</v>
-      </c>
-      <c r="K117" t="s">
-        <v>840</v>
-      </c>
-      <c r="L117" t="s">
-        <v>842</v>
-      </c>
-      <c r="O117" t="s">
-        <v>830</v>
-      </c>
-      <c r="P117" t="s">
-        <v>841</v>
-      </c>
-      <c r="S117" t="s">
-        <v>707</v>
-      </c>
-      <c r="T117" t="s">
-        <v>708</v>
-      </c>
-      <c r="U117" t="s">
-        <v>709</v>
-      </c>
-      <c r="V117" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="B118" t="s">
-        <v>792</v>
-      </c>
-      <c r="C118" t="s">
-        <v>797</v>
-      </c>
-      <c r="D118" t="s">
-        <v>799</v>
-      </c>
-      <c r="E118" t="s">
-        <v>801</v>
-      </c>
-      <c r="F118" t="s">
-        <v>794</v>
-      </c>
-      <c r="G118" t="s">
-        <v>786</v>
-      </c>
-      <c r="H118" t="s">
-        <v>790</v>
-      </c>
-      <c r="I118" t="s">
-        <v>849</v>
-      </c>
-      <c r="J118" t="s">
-        <v>803</v>
-      </c>
-      <c r="K118" t="s">
-        <v>796</v>
-      </c>
-      <c r="L118" t="s">
-        <v>784</v>
-      </c>
-      <c r="O118" t="s">
-        <v>821</v>
-      </c>
-      <c r="P118" t="s">
-        <v>785</v>
-      </c>
-      <c r="S118" t="s">
-        <v>703</v>
-      </c>
-      <c r="T118" t="s">
-        <v>704</v>
-      </c>
-      <c r="U118" t="s">
-        <v>705</v>
-      </c>
-      <c r="V118" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A119" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="C119" t="s">
-        <v>759</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="H119" t="s">
-        <v>757</v>
-      </c>
-      <c r="K119" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="M119" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="N119" t="s">
-        <v>753</v>
-      </c>
-      <c r="O119" t="s">
-        <v>754</v>
-      </c>
-      <c r="V119" s="9" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="B120" t="s">
-        <v>674</v>
-      </c>
-      <c r="C120" t="s">
-        <v>675</v>
-      </c>
-      <c r="D120" t="s">
-        <v>676</v>
-      </c>
-      <c r="E120" t="s">
-        <v>677</v>
-      </c>
-      <c r="F120" t="s">
-        <v>678</v>
-      </c>
-      <c r="H120" t="s">
-        <v>679</v>
-      </c>
-      <c r="I120" t="s">
-        <v>680</v>
-      </c>
-      <c r="J120" s="24" t="s">
-        <v>681</v>
-      </c>
-      <c r="K120" t="s">
-        <v>769</v>
-      </c>
-      <c r="L120" t="s">
-        <v>839</v>
-      </c>
-      <c r="M120" t="s">
-        <v>780</v>
-      </c>
-      <c r="N120" t="s">
-        <v>765</v>
-      </c>
-      <c r="O120" t="s">
-        <v>771</v>
-      </c>
-      <c r="S120" t="s">
-        <v>682</v>
-      </c>
-      <c r="T120" t="s">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="U120" t="s">
+      <c r="B121" t="s">
         <v>684</v>
       </c>
-      <c r="V120" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
+      <c r="C121" t="s">
+        <v>762</v>
+      </c>
+      <c r="D121" t="s">
         <v>685</v>
       </c>
-      <c r="B121" t="s">
+      <c r="F121" t="s">
         <v>686</v>
       </c>
-      <c r="C121" t="s">
-        <v>764</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="G121" t="s">
         <v>687</v>
       </c>
-      <c r="F121" t="s">
+      <c r="H121" t="s">
         <v>688</v>
       </c>
-      <c r="G121" t="s">
+      <c r="I121" t="s">
         <v>689</v>
       </c>
-      <c r="H121" t="s">
+      <c r="J121" t="s">
         <v>690</v>
       </c>
-      <c r="I121" t="s">
+      <c r="M121" t="s">
         <v>691</v>
       </c>
-      <c r="J121" t="s">
+      <c r="N121" t="s">
         <v>692</v>
       </c>
-      <c r="M121" t="s">
+      <c r="O121" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q121" t="s">
         <v>693</v>
       </c>
-      <c r="N121" t="s">
+      <c r="T121" t="s">
         <v>694</v>
       </c>
-      <c r="O121" t="s">
-        <v>770</v>
-      </c>
-      <c r="Q121" t="s">
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="T121" t="s">
+      <c r="S122" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="s">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>697</v>
-      </c>
-      <c r="S122" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
-        <v>699</v>
       </c>
       <c r="B123">
         <v>10</v>
@@ -9341,9 +9621,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B124">
         <v>6300</v>
@@ -9373,9 +9653,9 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B125">
         <v>6500</v>
@@ -9435,218 +9715,218 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="S126" t="s">
+        <v>701</v>
+      </c>
+      <c r="T126" t="s">
         <v>702</v>
       </c>
-      <c r="S126" t="s">
+      <c r="U126" t="s">
         <v>703</v>
       </c>
-      <c r="T126" t="s">
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="U126" t="s">
+      <c r="S127" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A127" s="3" t="s">
+      <c r="T127" t="s">
         <v>706</v>
       </c>
-      <c r="S127" t="s">
+      <c r="U127" t="s">
         <v>707</v>
       </c>
-      <c r="T127" t="s">
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="U127" t="s">
+      <c r="B129" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" t="s">
+        <v>28</v>
+      </c>
+      <c r="I129" t="s">
+        <v>28</v>
+      </c>
+      <c r="J129" t="s">
+        <v>28</v>
+      </c>
+      <c r="V129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A129" s="3" t="s">
+      <c r="B130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" t="s">
+        <v>28</v>
+      </c>
+      <c r="V130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="B129" t="s">
-        <v>28</v>
-      </c>
-      <c r="C129" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129" t="s">
-        <v>28</v>
-      </c>
-      <c r="E129" t="s">
-        <v>28</v>
-      </c>
-      <c r="F129" t="s">
-        <v>28</v>
-      </c>
-      <c r="G129" t="s">
-        <v>28</v>
-      </c>
-      <c r="H129" t="s">
-        <v>28</v>
-      </c>
-      <c r="I129" t="s">
-        <v>28</v>
-      </c>
-      <c r="J129" t="s">
-        <v>28</v>
-      </c>
-      <c r="V129" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A130" s="3" t="s">
+      <c r="D131" t="s">
+        <v>809</v>
+      </c>
+      <c r="H131" t="s">
         <v>711</v>
       </c>
-      <c r="B130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130" t="s">
-        <v>28</v>
-      </c>
-      <c r="E130" t="s">
-        <v>28</v>
-      </c>
-      <c r="V130" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A131" s="3" t="s">
+      <c r="I131" t="s">
+        <v>835</v>
+      </c>
+      <c r="K131" t="s">
+        <v>810</v>
+      </c>
+      <c r="L131" t="s">
+        <v>820</v>
+      </c>
+      <c r="M131" t="s">
+        <v>810</v>
+      </c>
+      <c r="N131" t="s">
+        <v>810</v>
+      </c>
+      <c r="O131" t="s">
+        <v>810</v>
+      </c>
+      <c r="P131" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="D131" t="s">
-        <v>811</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="G132" t="s">
+        <v>812</v>
+      </c>
+      <c r="M132" t="s">
+        <v>810</v>
+      </c>
+      <c r="N132" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="I131" t="s">
-        <v>837</v>
-      </c>
-      <c r="K131" t="s">
-        <v>812</v>
-      </c>
-      <c r="L131" t="s">
-        <v>822</v>
-      </c>
-      <c r="M131" t="s">
-        <v>812</v>
-      </c>
-      <c r="N131" t="s">
-        <v>812</v>
-      </c>
-      <c r="O131" t="s">
-        <v>812</v>
-      </c>
-      <c r="P131" t="s">
-        <v>822</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A132" s="3" t="s">
+      <c r="V133" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="G132" t="s">
-        <v>814</v>
-      </c>
-      <c r="M132" t="s">
-        <v>812</v>
-      </c>
-      <c r="N132" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A133" s="3" t="s">
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="V133" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A134" s="3" t="s">
+      <c r="L135" t="s">
+        <v>820</v>
+      </c>
+      <c r="M135" t="s">
+        <v>711</v>
+      </c>
+      <c r="N135" t="s">
+        <v>711</v>
+      </c>
+      <c r="O135" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A135" s="3" t="s">
+      <c r="M136" t="s">
+        <v>711</v>
+      </c>
+      <c r="N136" t="s">
+        <v>711</v>
+      </c>
+      <c r="O136" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="L135" t="s">
-        <v>822</v>
-      </c>
-      <c r="M135" t="s">
-        <v>713</v>
-      </c>
-      <c r="N135" t="s">
-        <v>713</v>
-      </c>
-      <c r="O135" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A136" s="3" t="s">
+      <c r="I137" t="s">
+        <v>834</v>
+      </c>
+      <c r="M137" t="s">
+        <v>711</v>
+      </c>
+      <c r="N137" t="s">
+        <v>711</v>
+      </c>
+      <c r="O137" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="M136" t="s">
-        <v>713</v>
-      </c>
-      <c r="N136" t="s">
-        <v>713</v>
-      </c>
-      <c r="O136" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A137" s="3" t="s">
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="I137" t="s">
-        <v>836</v>
-      </c>
-      <c r="M137" t="s">
-        <v>713</v>
-      </c>
-      <c r="N137" t="s">
-        <v>713</v>
-      </c>
-      <c r="O137" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A138" s="3" t="s">
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
         <v>720</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A139" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A140" s="3" t="s">
-        <v>722</v>
       </c>
       <c r="B140" t="s">
         <v>43</v>
@@ -9676,9 +9956,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B141" t="s">
         <v>43</v>
@@ -9705,167 +9985,167 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="Q142" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A143" s="3" t="s">
+      <c r="M144" t="s">
+        <v>711</v>
+      </c>
+      <c r="N144" t="s">
+        <v>711</v>
+      </c>
+      <c r="O144" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A144" s="3" t="s">
+      <c r="M145" t="s">
+        <v>711</v>
+      </c>
+      <c r="N145" t="s">
+        <v>711</v>
+      </c>
+      <c r="O145" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="M144" t="s">
-        <v>713</v>
-      </c>
-      <c r="N144" t="s">
-        <v>713</v>
-      </c>
-      <c r="O144" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A145" s="3" t="s">
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="M145" t="s">
-        <v>713</v>
-      </c>
-      <c r="N145" t="s">
-        <v>713</v>
-      </c>
-      <c r="O145" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A146" s="3" t="s">
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A147" s="3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A148" s="3" t="s">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="M149" t="s">
+        <v>711</v>
+      </c>
+      <c r="N149" t="s">
+        <v>711</v>
+      </c>
+      <c r="O149" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A149" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="M149" t="s">
-        <v>713</v>
-      </c>
-      <c r="N149" t="s">
-        <v>713</v>
-      </c>
-      <c r="O149" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A150" s="3" t="s">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="M152" t="s">
+        <v>711</v>
+      </c>
+      <c r="N152" t="s">
+        <v>711</v>
+      </c>
+      <c r="O152" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A151" s="3" t="s">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A152" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="M152" t="s">
-        <v>713</v>
-      </c>
-      <c r="N152" t="s">
-        <v>713</v>
-      </c>
-      <c r="O152" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A153" s="1" t="s">
+      <c r="M154" t="s">
+        <v>810</v>
+      </c>
+      <c r="N154" t="s">
+        <v>711</v>
+      </c>
+      <c r="O154" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A154" s="3" t="s">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="M154" t="s">
-        <v>812</v>
-      </c>
-      <c r="N154" t="s">
-        <v>713</v>
-      </c>
-      <c r="O154" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A155" s="3" t="s">
+      <c r="M156" t="s">
+        <v>711</v>
+      </c>
+      <c r="N156" t="s">
+        <v>711</v>
+      </c>
+      <c r="O156" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A156" s="3" t="s">
+      <c r="M157" t="s">
+        <v>711</v>
+      </c>
+      <c r="N157" t="s">
+        <v>711</v>
+      </c>
+      <c r="O157" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="M156" t="s">
-        <v>713</v>
-      </c>
-      <c r="N156" t="s">
-        <v>713</v>
-      </c>
-      <c r="O156" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A157" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="M157" t="s">
-        <v>713</v>
-      </c>
-      <c r="N157" t="s">
-        <v>713</v>
-      </c>
-      <c r="O157" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A158" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="H158" t="s">
         <v>43</v>
@@ -9874,110 +10154,110 @@
         <v>43</v>
       </c>
       <c r="M158" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="N158" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="O158" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="Q158" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="M159" t="s">
+        <v>711</v>
+      </c>
+      <c r="N159" t="s">
+        <v>711</v>
+      </c>
+      <c r="O159" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="M159" t="s">
-        <v>713</v>
-      </c>
-      <c r="N159" t="s">
-        <v>713</v>
-      </c>
-      <c r="O159" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A160" s="3" t="s">
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A161" s="3" t="s">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="G163" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
         <v>742</v>
-      </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A162" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A163" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="G163" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A164" s="1" t="s">
-        <v>744</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="N164" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="V167" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C170" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
     </row>
   </sheetData>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F06F73A-DD0C-AD42-89C1-D521DCD0E6F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22540" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22540" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="865">
   <si>
     <t>Country</t>
   </si>
@@ -2514,15 +2513,9 @@
     <t>~ test Paula?</t>
   </si>
   <si>
-    <t>~ test Ana, video FR</t>
-  </si>
-  <si>
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9RF3ckVwWR9MH1Y</t>
   </si>
   <si>
-    <t>~ Adrien</t>
-  </si>
-  <si>
     <t>~ Tarcilia</t>
   </si>
   <si>
@@ -2538,9 +2531,6 @@
     <t>Pro Pemerintah (PDI Perjuangan / Golkar / PKB / NasDem / PPP / dsb)Oposisi (Gerindra / PKS / Partai Demokrat / PAN / dsb)</t>
   </si>
   <si>
-    <t>t, test</t>
-  </si>
-  <si>
     <t>Israel</t>
   </si>
   <si>
@@ -2629,12 +2619,18 @@
   </si>
   <si>
     <t>Price heating oil (05-Jul-2021 or 06-Sep-2021) USD/Liter</t>
+  </si>
+  <si>
+    <t>~ test Dian</t>
+  </si>
+  <si>
+    <t>~ test Adrien, video FR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -3060,20 +3056,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="A104:XFD108"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3126,7 +3122,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -3159,7 +3155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3225,7 +3221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -3248,7 +3244,7 @@
         <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>28</v>
@@ -3263,19 +3259,19 @@
         <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="1" t="s">
@@ -3291,7 +3287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3355,7 +3351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3417,7 +3413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3452,7 +3448,7 @@
         <v>28</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>28</v>
@@ -3482,7 +3478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3508,16 +3504,16 @@
         <v>825</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>829</v>
+        <v>863</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>827</v>
+        <v>864</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>825</v>
@@ -3535,7 +3531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -3600,7 +3596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -3683,7 +3679,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -3767,7 +3763,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -3850,7 +3846,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>102</v>
       </c>
@@ -3933,7 +3929,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
@@ -4016,7 +4012,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>138</v>
       </c>
@@ -4099,7 +4095,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -4164,7 +4160,7 @@
         <v>16942</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>149</v>
       </c>
@@ -4229,7 +4225,7 @@
         <v>23515</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
@@ -4294,7 +4290,7 @@
         <v>31800</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>155</v>
       </c>
@@ -4346,7 +4342,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -4411,7 +4407,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>182</v>
       </c>
@@ -4476,7 +4472,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>193</v>
       </c>
@@ -4541,7 +4537,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>206</v>
       </c>
@@ -4606,7 +4602,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>207</v>
       </c>
@@ -4671,7 +4667,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>208</v>
       </c>
@@ -4736,7 +4732,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>209</v>
       </c>
@@ -4801,7 +4797,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>210</v>
       </c>
@@ -4866,7 +4862,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>213</v>
       </c>
@@ -4931,7 +4927,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>222</v>
       </c>
@@ -4996,7 +4992,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>230</v>
       </c>
@@ -5061,7 +5057,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>237</v>
       </c>
@@ -5105,7 +5101,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>249</v>
       </c>
@@ -5113,7 +5109,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
@@ -5178,7 +5174,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>253</v>
       </c>
@@ -5243,7 +5239,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>254</v>
       </c>
@@ -5308,7 +5304,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>255</v>
       </c>
@@ -5373,7 +5369,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>256</v>
       </c>
@@ -5438,7 +5434,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>259</v>
       </c>
@@ -5452,7 +5448,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>263</v>
       </c>
@@ -5466,51 +5462,51 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B39" t="s">
+        <v>846</v>
+      </c>
+      <c r="C39" t="s">
+        <v>847</v>
+      </c>
+      <c r="D39" t="s">
+        <v>848</v>
+      </c>
+      <c r="F39" t="s">
         <v>849</v>
       </c>
-      <c r="C39" t="s">
+      <c r="H39" t="s">
         <v>850</v>
       </c>
-      <c r="D39" t="s">
+      <c r="I39" t="s">
         <v>851</v>
       </c>
-      <c r="F39" t="s">
+      <c r="J39" t="s">
         <v>852</v>
       </c>
-      <c r="H39" t="s">
+      <c r="K39" t="s">
         <v>853</v>
       </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>854</v>
       </c>
-      <c r="J39" t="s">
+      <c r="M39" t="s">
         <v>855</v>
       </c>
-      <c r="K39" t="s">
+      <c r="N39" t="s">
         <v>856</v>
       </c>
-      <c r="L39" t="s">
+      <c r="O39" t="s">
         <v>857</v>
       </c>
-      <c r="M39" t="s">
+      <c r="P39" t="s">
         <v>858</v>
       </c>
-      <c r="N39" t="s">
+      <c r="Q39" t="s">
         <v>859</v>
-      </c>
-      <c r="O39" t="s">
-        <v>860</v>
-      </c>
-      <c r="P39" t="s">
-        <v>861</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>862</v>
       </c>
       <c r="S39" t="s">
         <v>268</v>
@@ -5522,10 +5518,10 @@
         <v>270</v>
       </c>
       <c r="V39" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>271</v>
       </c>
@@ -5533,7 +5529,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>273</v>
       </c>
@@ -5541,7 +5537,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>275</v>
       </c>
@@ -5552,7 +5548,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>278</v>
       </c>
@@ -5618,7 +5614,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>296</v>
       </c>
@@ -5683,7 +5679,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>300</v>
       </c>
@@ -5750,7 +5746,7 @@
       </c>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>319</v>
       </c>
@@ -5817,7 +5813,7 @@
       </c>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>747</v>
       </c>
@@ -5852,7 +5848,7 @@
       <c r="V47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>339</v>
       </c>
@@ -5875,7 +5871,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>342</v>
       </c>
@@ -5939,7 +5935,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>355</v>
       </c>
@@ -6023,7 +6019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>357</v>
       </c>
@@ -6131,7 +6127,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>358</v>
       </c>
@@ -6214,7 +6210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>359</v>
       </c>
@@ -6320,7 +6316,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>361</v>
       </c>
@@ -6352,7 +6348,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>365</v>
       </c>
@@ -6435,7 +6431,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>373</v>
       </c>
@@ -6501,7 +6497,7 @@
       </c>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>374</v>
       </c>
@@ -6585,7 +6581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>375</v>
       </c>
@@ -6695,7 +6691,7 @@
         <v>5.2325581395348841</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>376</v>
       </c>
@@ -6779,7 +6775,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>377</v>
       </c>
@@ -6863,7 +6859,7 @@
         <v>39.738</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>378</v>
       </c>
@@ -6946,7 +6942,7 @@
         <v>7115854.8000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>379</v>
       </c>
@@ -7029,7 +7025,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>380</v>
       </c>
@@ -7139,7 +7135,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>381</v>
       </c>
@@ -7249,7 +7245,7 @@
         <v>0.10350000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>382</v>
       </c>
@@ -7359,7 +7355,7 @@
         <v>147.96508326729767</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>383</v>
       </c>
@@ -7403,7 +7399,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>386</v>
       </c>
@@ -7486,7 +7482,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>391</v>
       </c>
@@ -7570,7 +7566,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>395</v>
       </c>
@@ -7627,7 +7623,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>404</v>
       </c>
@@ -7693,7 +7689,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>413</v>
       </c>
@@ -7719,7 +7715,7 @@
         <v>824</v>
       </c>
       <c r="I71" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J71" s="16" t="s">
         <v>822</v>
@@ -7770,7 +7766,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>765</v>
       </c>
@@ -7796,7 +7792,7 @@
         <v>816</v>
       </c>
       <c r="I72" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="J72" t="s">
         <v>771</v>
@@ -7817,7 +7813,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>430</v>
       </c>
@@ -7891,7 +7887,7 @@
         <v>1.1820000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>432</v>
       </c>
@@ -7974,9 +7970,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B75">
         <v>1.9419999999999999</v>
@@ -8060,7 +8056,7 @@
         <v>1.7490000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>433</v>
       </c>
@@ -8146,7 +8142,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>434</v>
       </c>
@@ -8193,9 +8189,9 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B78">
         <v>1.5329999999999999</v>
@@ -8228,7 +8224,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>435</v>
       </c>
@@ -8245,7 +8241,7 @@
         <v>72.200772200772207</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>436</v>
       </c>
@@ -8311,7 +8307,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>451</v>
       </c>
@@ -8376,7 +8372,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>465</v>
       </c>
@@ -8390,7 +8386,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>469</v>
       </c>
@@ -8398,7 +8394,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>471</v>
       </c>
@@ -8439,7 +8435,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>478</v>
       </c>
@@ -8456,7 +8452,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>483</v>
       </c>
@@ -8476,7 +8472,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>488</v>
       </c>
@@ -8484,7 +8480,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>490</v>
       </c>
@@ -8492,7 +8488,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>492</v>
       </c>
@@ -8500,7 +8496,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>494</v>
       </c>
@@ -8562,7 +8558,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>514</v>
       </c>
@@ -8624,7 +8620,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>534</v>
       </c>
@@ -8686,7 +8682,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>553</v>
       </c>
@@ -8748,7 +8744,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>573</v>
       </c>
@@ -8801,7 +8797,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>590</v>
       </c>
@@ -8842,7 +8838,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>603</v>
       </c>
@@ -8868,7 +8864,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>611</v>
       </c>
@@ -8885,7 +8881,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>616</v>
       </c>
@@ -8896,7 +8892,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>619</v>
       </c>
@@ -8910,7 +8906,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>621</v>
       </c>
@@ -8918,7 +8914,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>623</v>
       </c>
@@ -8926,7 +8922,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>625</v>
       </c>
@@ -8934,7 +8930,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>627</v>
       </c>
@@ -8978,7 +8974,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>631</v>
       </c>
@@ -9064,7 +9060,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>639</v>
       </c>
@@ -9150,7 +9146,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>634</v>
       </c>
@@ -9200,7 +9196,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>637</v>
       </c>
@@ -9235,7 +9231,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>642</v>
       </c>
@@ -9252,7 +9248,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>646</v>
       </c>
@@ -9266,7 +9262,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>650</v>
       </c>
@@ -9280,7 +9276,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>654</v>
       </c>
@@ -9294,7 +9290,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>658</v>
       </c>
@@ -9302,7 +9298,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>660</v>
       </c>
@@ -9310,7 +9306,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>662</v>
       </c>
@@ -9324,7 +9320,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>666</v>
       </c>
@@ -9332,7 +9328,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>668</v>
       </c>
@@ -9340,7 +9336,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>780</v>
       </c>
@@ -9366,22 +9362,22 @@
         <v>789</v>
       </c>
       <c r="I117" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="J117" t="s">
         <v>802</v>
       </c>
       <c r="K117" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="L117" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="O117" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="P117" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="S117" t="s">
         <v>705</v>
@@ -9396,7 +9392,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>781</v>
       </c>
@@ -9422,7 +9418,7 @@
         <v>788</v>
       </c>
       <c r="I118" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="J118" t="s">
         <v>801</v>
@@ -9452,7 +9448,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>750</v>
       </c>
@@ -9484,7 +9480,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>670</v>
       </c>
@@ -9516,7 +9512,7 @@
         <v>767</v>
       </c>
       <c r="L120" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="M120" t="s">
         <v>778</v>
@@ -9540,7 +9536,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>683</v>
       </c>
@@ -9584,7 +9580,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>695</v>
       </c>
@@ -9592,7 +9588,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>697</v>
       </c>
@@ -9621,7 +9617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>698</v>
       </c>
@@ -9653,7 +9649,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>699</v>
       </c>
@@ -9715,7 +9711,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>700</v>
       </c>
@@ -9729,7 +9725,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>704</v>
       </c>
@@ -9743,7 +9739,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>708</v>
       </c>
@@ -9778,7 +9774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>709</v>
       </c>
@@ -9795,7 +9791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>710</v>
       </c>
@@ -9805,9 +9801,6 @@
       <c r="H131" t="s">
         <v>711</v>
       </c>
-      <c r="I131" t="s">
-        <v>835</v>
-      </c>
       <c r="K131" t="s">
         <v>810</v>
       </c>
@@ -9830,7 +9823,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>712</v>
       </c>
@@ -9844,7 +9837,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>713</v>
       </c>
@@ -9852,12 +9845,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>715</v>
       </c>
@@ -9877,7 +9870,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>716</v>
       </c>
@@ -9894,12 +9887,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>717</v>
       </c>
       <c r="I137" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="M137" t="s">
         <v>711</v>
@@ -9914,17 +9907,17 @@
         <v>711</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>720</v>
       </c>
@@ -9956,7 +9949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>721</v>
       </c>
@@ -9985,7 +9978,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>722</v>
       </c>
@@ -9993,12 +9986,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>724</v>
       </c>
@@ -10015,7 +10008,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>725</v>
       </c>
@@ -10032,22 +10025,22 @@
         <v>711</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>818</v>
       </c>
@@ -10061,19 +10054,19 @@
         <v>711</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="M152" t="s">
         <v>711</v>
@@ -10085,12 +10078,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>733</v>
       </c>
@@ -10104,12 +10097,12 @@
         <v>810</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>735</v>
       </c>
@@ -10126,7 +10119,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>736</v>
       </c>
@@ -10143,7 +10136,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>737</v>
       </c>
@@ -10166,7 +10159,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>738</v>
       </c>
@@ -10183,22 +10176,22 @@
         <v>711</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>770</v>
       </c>
@@ -10206,7 +10199,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>742</v>
       </c>
@@ -10218,19 +10211,19 @@
         <v>711</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>744</v>
       </c>
       <c r="H166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>761</v>
       </c>
@@ -10238,18 +10231,18 @@
         <v>729</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>764</v>
       </c>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>815</v>
       </c>
@@ -10257,7 +10250,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
     </row>
   </sheetData>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -2396,9 +2396,6 @@
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9SvqNOCSY8ywnHw</t>
   </si>
   <si>
-    <t>HI: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_bvLcTKdd7WG8SZ8 / EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_baoD1eqW65lqRAq</t>
-  </si>
-  <si>
     <t>HI: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_0TBFqZxfZEjFrJc / EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_bq1v6VP4IdsCuLY</t>
   </si>
   <si>
@@ -2625,6 +2622,9 @@
   </si>
   <si>
     <t>~ test Adrien, video FR</t>
+  </si>
+  <si>
+    <t>HI: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_bvLcTKdd7WG8SZ8 / EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_b9lU7goEX1i0FvM</t>
   </si>
 </sst>
 </file>
@@ -3060,8 +3060,8 @@
   <dimension ref="A1:AB171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3122,7 +3122,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -3244,7 +3244,7 @@
         <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>28</v>
@@ -3259,19 +3259,19 @@
         <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>842</v>
-      </c>
       <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="1" t="s">
@@ -3448,7 +3448,7 @@
         <v>28</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>28</v>
@@ -3486,7 +3486,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
@@ -3498,25 +3498,25 @@
         <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -5467,46 +5467,46 @@
         <v>267</v>
       </c>
       <c r="B39" t="s">
+        <v>845</v>
+      </c>
+      <c r="C39" t="s">
         <v>846</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>847</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>848</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>849</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>850</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>851</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>852</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>853</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>854</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>855</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>856</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>857</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>858</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>859</v>
       </c>
       <c r="S39" t="s">
         <v>268</v>
@@ -5518,7 +5518,7 @@
         <v>270</v>
       </c>
       <c r="V39" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.35">
@@ -5595,7 +5595,7 @@
         <v>292</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>748</v>
@@ -7712,19 +7712,19 @@
         <v>773</v>
       </c>
       <c r="H71" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I71" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K71" t="s">
         <v>772</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="M71" s="16" t="s">
         <v>420</v>
@@ -7736,7 +7736,7 @@
         <v>422</v>
       </c>
       <c r="P71" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="Q71" t="s">
         <v>423</v>
@@ -7771,40 +7771,40 @@
         <v>765</v>
       </c>
       <c r="B72" t="s">
+        <v>803</v>
+      </c>
+      <c r="C72" t="s">
         <v>804</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>802</v>
+      </c>
+      <c r="E72" t="s">
         <v>805</v>
       </c>
-      <c r="D72" t="s">
-        <v>803</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>806</v>
-      </c>
-      <c r="F72" t="s">
-        <v>807</v>
       </c>
       <c r="G72" t="s">
         <v>774</v>
       </c>
       <c r="H72" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I72" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J72" t="s">
         <v>771</v>
       </c>
       <c r="K72" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="P72" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="20"/>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B75">
         <v>1.9419999999999999</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B78">
         <v>1.5329999999999999</v>
@@ -9341,43 +9341,43 @@
         <v>780</v>
       </c>
       <c r="B117" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C117" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D117" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E117" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F117" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G117" t="s">
         <v>785</v>
       </c>
       <c r="H117" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I117" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J117" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K117" t="s">
+        <v>834</v>
+      </c>
+      <c r="L117" t="s">
+        <v>836</v>
+      </c>
+      <c r="O117" t="s">
+        <v>826</v>
+      </c>
+      <c r="P117" t="s">
         <v>835</v>
-      </c>
-      <c r="L117" t="s">
-        <v>837</v>
-      </c>
-      <c r="O117" t="s">
-        <v>827</v>
-      </c>
-      <c r="P117" t="s">
-        <v>836</v>
       </c>
       <c r="S117" t="s">
         <v>705</v>
@@ -9397,40 +9397,40 @@
         <v>781</v>
       </c>
       <c r="B118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C118" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D118" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E118" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F118" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G118" t="s">
         <v>784</v>
       </c>
       <c r="H118" t="s">
-        <v>788</v>
+        <v>864</v>
       </c>
       <c r="I118" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J118" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K118" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L118" t="s">
         <v>782</v>
       </c>
       <c r="O118" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="P118" t="s">
         <v>783</v>
@@ -9512,7 +9512,7 @@
         <v>767</v>
       </c>
       <c r="L120" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="M120" t="s">
         <v>778</v>
@@ -9796,31 +9796,31 @@
         <v>710</v>
       </c>
       <c r="D131" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H131" t="s">
         <v>711</v>
       </c>
       <c r="K131" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="L131" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="M131" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N131" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O131" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P131" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q131" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.35">
@@ -9828,13 +9828,13 @@
         <v>712</v>
       </c>
       <c r="G132" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M132" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N132" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.35">
@@ -9855,7 +9855,7 @@
         <v>715</v>
       </c>
       <c r="L135" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="M135" t="s">
         <v>711</v>
@@ -9892,7 +9892,7 @@
         <v>717</v>
       </c>
       <c r="I137" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M137" t="s">
         <v>711</v>
@@ -10042,7 +10042,7 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M149" t="s">
         <v>711</v>
@@ -10066,7 +10066,7 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M152" t="s">
         <v>711</v>
@@ -10088,13 +10088,13 @@
         <v>733</v>
       </c>
       <c r="M154" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N154" t="s">
         <v>711</v>
       </c>
       <c r="O154" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.35">
@@ -10239,15 +10239,15 @@
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C170" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.35">

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="847">
   <si>
     <t>Country</t>
   </si>
@@ -2402,12 +2402,6 @@
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9SvqNOCSY8ywnHw</t>
   </si>
   <si>
-    <t>HI: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_bvLcTKdd7WG8SZ8 / EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_baoD1eqW65lqRAq</t>
-  </si>
-  <si>
-    <t>HI: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_0TBFqZxfZEjFrJc / EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_bq1v6VP4IdsCuLY</t>
-  </si>
-  <si>
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_1GpaU9AOp0uA246</t>
   </si>
   <si>
@@ -2420,9 +2414,6 @@
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_0rCWm2QnbEfaR1k</t>
   </si>
   <si>
-    <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_cSdiidvle1QaekS</t>
-  </si>
-  <si>
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9mERY45BIpPFRci</t>
   </si>
   <si>
@@ -2562,6 +2553,18 @@
   </si>
   <si>
     <t>FR: Jérôme Pilette, 200$ / EN: Davenport</t>
+  </si>
+  <si>
+    <t>HI: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_0k8SRZaH0VQ8xSu / EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_6Fh3uJVLx4ISPci</t>
+  </si>
+  <si>
+    <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_6mKjVyml7dWJaNU</t>
+  </si>
+  <si>
+    <t>~ test Ana, parties election</t>
+  </si>
+  <si>
+    <t>HI: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_bvLcTKdd7WG8SZ8 / EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_b9lU7goEX1i0FvM</t>
   </si>
 </sst>
 </file>
@@ -2997,16 +3000,16 @@
   <dimension ref="A1:AB171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -3092,7 +3095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -3196,19 +3199,19 @@
         <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>830</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="1" t="s">
@@ -3224,7 +3227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3256,10 +3259,10 @@
         <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>28</v>
@@ -3288,7 +3291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3311,7 +3314,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>32</v>
@@ -3320,7 +3323,7 @@
         <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>781</v>
@@ -3350,7 +3353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3423,7 +3426,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
@@ -3432,28 +3435,28 @@
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>832</v>
+        <v>32</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -3468,7 +3471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -3616,7 +3619,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>102</v>
       </c>
@@ -3866,7 +3869,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>138</v>
       </c>
@@ -4032,7 +4035,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -4097,7 +4100,7 @@
         <v>16942</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>149</v>
       </c>
@@ -4162,7 +4165,7 @@
         <v>23515</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
@@ -4227,7 +4230,7 @@
         <v>31800</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>155</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>182</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>193</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>206</v>
       </c>
@@ -4539,7 +4542,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>207</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>208</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>209</v>
       </c>
@@ -4734,7 +4737,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>210</v>
       </c>
@@ -4799,7 +4802,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>213</v>
       </c>
@@ -4864,7 +4867,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>222</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>230</v>
       </c>
@@ -4994,7 +4997,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>237</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>249</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
@@ -5111,7 +5114,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>253</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>254</v>
       </c>
@@ -5241,7 +5244,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>255</v>
       </c>
@@ -5306,7 +5309,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>256</v>
       </c>
@@ -5371,7 +5374,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>259</v>
       </c>
@@ -5385,7 +5388,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>263</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>267</v>
       </c>
@@ -5413,7 +5416,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>271</v>
       </c>
@@ -5421,7 +5424,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>273</v>
       </c>
@@ -5429,7 +5432,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>275</v>
       </c>
@@ -5440,7 +5443,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>278</v>
       </c>
@@ -5487,7 +5490,7 @@
         <v>292</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>750</v>
@@ -5506,7 +5509,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>296</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>300</v>
       </c>
@@ -5638,7 +5641,7 @@
       </c>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>319</v>
       </c>
@@ -5705,7 +5708,7 @@
       </c>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>749</v>
       </c>
@@ -5740,7 +5743,7 @@
       <c r="V47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>339</v>
       </c>
@@ -5763,7 +5766,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>342</v>
       </c>
@@ -5827,7 +5830,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>355</v>
       </c>
@@ -5911,7 +5914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>357</v>
       </c>
@@ -6019,7 +6022,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>358</v>
       </c>
@@ -6102,7 +6105,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>359</v>
       </c>
@@ -6208,7 +6211,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>361</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>365</v>
       </c>
@@ -6323,7 +6326,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>373</v>
       </c>
@@ -6389,7 +6392,7 @@
       </c>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>374</v>
       </c>
@@ -6473,7 +6476,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>375</v>
       </c>
@@ -6583,7 +6586,7 @@
         <v>5.2325581395348841</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>376</v>
       </c>
@@ -6667,7 +6670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>377</v>
       </c>
@@ -6751,7 +6754,7 @@
         <v>39.738</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>378</v>
       </c>
@@ -6834,7 +6837,7 @@
         <v>7115854.8000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>379</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>380</v>
       </c>
@@ -7027,7 +7030,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>381</v>
       </c>
@@ -7137,7 +7140,7 @@
         <v>0.10350000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>382</v>
       </c>
@@ -7247,7 +7250,7 @@
         <v>147.96508326729767</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>383</v>
       </c>
@@ -7291,7 +7294,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>386</v>
       </c>
@@ -7374,7 +7377,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>391</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>395</v>
       </c>
@@ -7515,7 +7518,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>404</v>
       </c>
@@ -7581,7 +7584,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>413</v>
       </c>
@@ -7604,19 +7607,19 @@
         <v>775</v>
       </c>
       <c r="H71" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="I71" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="K71" t="s">
         <v>774</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="M71" s="16" t="s">
         <v>420</v>
@@ -7628,7 +7631,7 @@
         <v>422</v>
       </c>
       <c r="P71" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="Q71" t="s">
         <v>423</v>
@@ -7658,45 +7661,45 @@
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>767</v>
       </c>
       <c r="B72" t="s">
+        <v>806</v>
+      </c>
+      <c r="C72" t="s">
+        <v>807</v>
+      </c>
+      <c r="D72" t="s">
+        <v>805</v>
+      </c>
+      <c r="E72" t="s">
+        <v>808</v>
+      </c>
+      <c r="F72" t="s">
         <v>809</v>
-      </c>
-      <c r="C72" t="s">
-        <v>810</v>
-      </c>
-      <c r="D72" t="s">
-        <v>808</v>
-      </c>
-      <c r="E72" t="s">
-        <v>811</v>
-      </c>
-      <c r="F72" t="s">
-        <v>812</v>
       </c>
       <c r="G72" t="s">
         <v>776</v>
       </c>
       <c r="H72" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I72" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="J72" t="s">
         <v>773</v>
       </c>
       <c r="K72" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="P72" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="20"/>
@@ -7705,7 +7708,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>430</v>
       </c>
@@ -7779,7 +7782,7 @@
         <v>1.1820000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>432</v>
       </c>
@@ -7862,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>433</v>
       </c>
@@ -7915,7 +7918,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>434</v>
       </c>
@@ -7968,7 +7971,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>435</v>
       </c>
@@ -7997,7 +8000,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>436</v>
       </c>
@@ -8026,7 +8029,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>437</v>
       </c>
@@ -8043,7 +8046,7 @@
         <v>72.200772200772207</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>438</v>
       </c>
@@ -8109,7 +8112,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>453</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>467</v>
       </c>
@@ -8188,7 +8191,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>471</v>
       </c>
@@ -8196,7 +8199,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>473</v>
       </c>
@@ -8237,7 +8240,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>480</v>
       </c>
@@ -8254,7 +8257,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>485</v>
       </c>
@@ -8274,7 +8277,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>490</v>
       </c>
@@ -8282,7 +8285,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>492</v>
       </c>
@@ -8290,7 +8293,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>494</v>
       </c>
@@ -8298,7 +8301,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>496</v>
       </c>
@@ -8360,7 +8363,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>516</v>
       </c>
@@ -8422,7 +8425,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>536</v>
       </c>
@@ -8484,7 +8487,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>555</v>
       </c>
@@ -8546,7 +8549,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>575</v>
       </c>
@@ -8599,7 +8602,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>592</v>
       </c>
@@ -8640,7 +8643,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>605</v>
       </c>
@@ -8666,7 +8669,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>613</v>
       </c>
@@ -8683,7 +8686,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>618</v>
       </c>
@@ -8694,7 +8697,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>621</v>
       </c>
@@ -8708,7 +8711,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>623</v>
       </c>
@@ -8716,7 +8719,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>625</v>
       </c>
@@ -8724,7 +8727,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>627</v>
       </c>
@@ -8732,7 +8735,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>629</v>
       </c>
@@ -8776,7 +8779,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>633</v>
       </c>
@@ -8829,7 +8832,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>636</v>
       </c>
@@ -8882,7 +8885,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>639</v>
       </c>
@@ -8911,7 +8914,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>641</v>
       </c>
@@ -8943,7 +8946,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>644</v>
       </c>
@@ -8957,7 +8960,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>648</v>
       </c>
@@ -8971,7 +8974,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>652</v>
       </c>
@@ -8985,7 +8988,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>656</v>
       </c>
@@ -8999,7 +9002,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>660</v>
       </c>
@@ -9007,7 +9010,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>662</v>
       </c>
@@ -9015,7 +9018,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>664</v>
       </c>
@@ -9029,7 +9032,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>668</v>
       </c>
@@ -9037,7 +9040,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>670</v>
       </c>
@@ -9045,42 +9048,42 @@
         <v>671</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>782</v>
       </c>
       <c r="B117" t="s">
+        <v>793</v>
+      </c>
+      <c r="C117" t="s">
+        <v>798</v>
+      </c>
+      <c r="D117" t="s">
+        <v>800</v>
+      </c>
+      <c r="E117" t="s">
+        <v>802</v>
+      </c>
+      <c r="F117" t="s">
         <v>795</v>
-      </c>
-      <c r="C117" t="s">
-        <v>801</v>
-      </c>
-      <c r="D117" t="s">
-        <v>803</v>
-      </c>
-      <c r="E117" t="s">
-        <v>805</v>
-      </c>
-      <c r="F117" t="s">
-        <v>797</v>
       </c>
       <c r="G117" t="s">
         <v>789</v>
       </c>
       <c r="H117" t="s">
-        <v>793</v>
+        <v>843</v>
       </c>
       <c r="J117" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="K117" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="L117" t="s">
         <v>784</v>
       </c>
       <c r="O117" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="P117" t="s">
         <v>786</v>
@@ -9098,42 +9101,42 @@
         <v>791</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>783</v>
       </c>
       <c r="B118" t="s">
+        <v>792</v>
+      </c>
+      <c r="C118" t="s">
+        <v>797</v>
+      </c>
+      <c r="D118" t="s">
+        <v>799</v>
+      </c>
+      <c r="E118" t="s">
+        <v>801</v>
+      </c>
+      <c r="F118" t="s">
         <v>794</v>
-      </c>
-      <c r="C118" t="s">
-        <v>800</v>
-      </c>
-      <c r="D118" t="s">
-        <v>802</v>
-      </c>
-      <c r="E118" t="s">
-        <v>804</v>
-      </c>
-      <c r="F118" t="s">
-        <v>796</v>
       </c>
       <c r="G118" t="s">
         <v>788</v>
       </c>
       <c r="H118" t="s">
-        <v>792</v>
+        <v>846</v>
       </c>
       <c r="J118" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K118" t="s">
-        <v>798</v>
+        <v>844</v>
       </c>
       <c r="L118" t="s">
         <v>785</v>
       </c>
       <c r="O118" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="P118" t="s">
         <v>787</v>
@@ -9151,7 +9154,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>752</v>
       </c>
@@ -9183,7 +9186,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>672</v>
       </c>
@@ -9215,7 +9218,7 @@
         <v>769</v>
       </c>
       <c r="L120" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="M120" t="s">
         <v>780</v>
@@ -9239,7 +9242,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>685</v>
       </c>
@@ -9283,7 +9286,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>697</v>
       </c>
@@ -9291,7 +9294,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>699</v>
       </c>
@@ -9320,7 +9323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>700</v>
       </c>
@@ -9352,7 +9355,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>701</v>
       </c>
@@ -9414,7 +9417,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>702</v>
       </c>
@@ -9428,7 +9431,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>706</v>
       </c>
@@ -9442,7 +9445,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>710</v>
       </c>
@@ -9477,7 +9480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>711</v>
       </c>
@@ -9494,56 +9497,56 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>712</v>
       </c>
       <c r="D131" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="H131" t="s">
         <v>713</v>
       </c>
       <c r="I131" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="K131" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="L131" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="M131" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="N131" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="O131" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="P131" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="Q131" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>714</v>
       </c>
       <c r="G132" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="M132" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="N132" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>715</v>
       </c>
@@ -9551,17 +9554,17 @@
         <v>713</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>717</v>
       </c>
       <c r="L135" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="M135" t="s">
         <v>713</v>
@@ -9576,7 +9579,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>718</v>
       </c>
@@ -9593,12 +9596,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>719</v>
       </c>
       <c r="I137" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="M137" t="s">
         <v>713</v>
@@ -9613,17 +9616,17 @@
         <v>713</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>722</v>
       </c>
@@ -9655,7 +9658,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>723</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>724</v>
       </c>
@@ -9692,12 +9695,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>726</v>
       </c>
@@ -9714,7 +9717,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>727</v>
       </c>
@@ -9731,24 +9734,24 @@
         <v>713</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="M149" t="s">
         <v>713</v>
@@ -9760,19 +9763,19 @@
         <v>713</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="M152" t="s">
         <v>713</v>
@@ -9784,31 +9787,31 @@
         <v>713</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>735</v>
       </c>
       <c r="M154" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="N154" t="s">
         <v>713</v>
       </c>
       <c r="O154" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>737</v>
       </c>
@@ -9825,7 +9828,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>738</v>
       </c>
@@ -9842,7 +9845,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>739</v>
       </c>
@@ -9865,7 +9868,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>740</v>
       </c>
@@ -9882,22 +9885,22 @@
         <v>713</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>772</v>
       </c>
@@ -9905,7 +9908,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>744</v>
       </c>
@@ -9917,19 +9920,19 @@
         <v>713</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>746</v>
       </c>
       <c r="H166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>763</v>
       </c>
@@ -9937,26 +9940,26 @@
         <v>731</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>766</v>
       </c>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C170" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
     </row>
   </sheetData>

--- a/questionnaires/board.xlsx
+++ b/questionnaires/board.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="863">
   <si>
     <t>Country</t>
   </si>
@@ -2369,18 +2369,12 @@
     <t>Anton Simlin, 135$</t>
   </si>
   <si>
-    <t>~ French</t>
-  </si>
-  <si>
     <t>URL video policy</t>
   </si>
   <si>
     <t>URL video climate</t>
   </si>
   <si>
-    <t>EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9zxyasw9TTVFqx8</t>
-  </si>
-  <si>
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_6zC4wlmsEXrDnYq</t>
   </si>
   <si>
@@ -2540,12 +2534,6 @@
     <t>https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_3gagRLUpgyAicVE</t>
   </si>
   <si>
-    <t>EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9Lekk0zTPurlzkG</t>
-  </si>
-  <si>
-    <t>~ test zipcode</t>
-  </si>
-  <si>
     <t>~ test zipcode Ana</t>
   </si>
   <si>
@@ -2621,10 +2609,16 @@
     <t>~ test Dian</t>
   </si>
   <si>
-    <t>~ test Adrien, video FR</t>
-  </si>
-  <si>
     <t>HI: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_bvLcTKdd7WG8SZ8 / EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_b9lU7goEX1i0FvM</t>
+  </si>
+  <si>
+    <t>EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9zxyasw9TTVFqx8 / FR: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_1QSWUKIYiJDNxfE</t>
+  </si>
+  <si>
+    <t>EN: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9Lekk0zTPurlzkG / FR: https://lse.eu.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_9twKmQCtMuJpfp4</t>
+  </si>
+  <si>
+    <t>https://lse.fra1.qualtrics.com/public-quotas?SID=SV_9Wt11o3HDZ2YVym</t>
   </si>
 </sst>
 </file>
@@ -3060,8 +3054,8 @@
   <dimension ref="A1:AB171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3122,7 +3116,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -3244,7 +3238,7 @@
         <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>28</v>
@@ -3259,19 +3253,19 @@
         <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="1" t="s">
@@ -3386,7 +3380,7 @@
         <v>28</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>779</v>
+        <v>28</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>28</v>
@@ -3448,7 +3442,7 @@
         <v>28</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>837</v>
+        <v>28</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>28</v>
@@ -3486,7 +3480,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
@@ -3498,25 +3492,25 @@
         <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>863</v>
+        <v>35</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -5467,46 +5461,46 @@
         <v>267</v>
       </c>
       <c r="B39" t="s">
+        <v>841</v>
+      </c>
+      <c r="C39" t="s">
+        <v>842</v>
+      </c>
+      <c r="D39" t="s">
+        <